--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$542</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="716">
   <si>
     <t>Enseignements</t>
   </si>
@@ -911,9 +911,6 @@
     <t>TP-PV-b</t>
   </si>
   <si>
-    <t>BECHEKIR/JBILOU</t>
-  </si>
-  <si>
     <t>Labo PV</t>
   </si>
   <si>
@@ -1466,9 +1463,6 @@
     <t>TP PFC (G22)</t>
   </si>
   <si>
-    <t>NACERI+AYAD</t>
-  </si>
-  <si>
     <t>Salle S11</t>
   </si>
   <si>
@@ -1490,9 +1484,6 @@
     <t>TP PFC (G12)</t>
   </si>
   <si>
-    <t>BECHEKIR+JBILOU</t>
-  </si>
-  <si>
     <t>Salle S13</t>
   </si>
   <si>
@@ -1544,9 +1535,6 @@
     <t>TP-TCE-a</t>
   </si>
   <si>
-    <t>ACHARA/BENT.</t>
-  </si>
-  <si>
     <t>TP Thermodynamique (G22/21)</t>
   </si>
   <si>
@@ -1853,9 +1841,6 @@
     <t>Cours-TDEE</t>
   </si>
   <si>
-    <t>S.H. MILOUDI</t>
-  </si>
-  <si>
     <t>Thermodynamique</t>
   </si>
   <si>
@@ -1994,9 +1979,6 @@
     <t>TP Init. Programmation (SG21/22)</t>
   </si>
   <si>
-    <t>ZIAN / BEDDAD</t>
-  </si>
-  <si>
     <t>TP réseaux électriques 1</t>
   </si>
   <si>
@@ -2192,7 +2174,10 @@
     <t>BOUNOUA</t>
   </si>
   <si>
-    <t>JBILOU+Bechekir</t>
+    <t>ACHARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIAN </t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2387,6 +2372,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,7 +2747,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2774,16 +2771,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2792,89 +2789,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2914,6 +2911,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3233,10 +3251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H530"/>
+  <dimension ref="A1:H542"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3971,7 +3989,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" ht="15.75" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
@@ -3995,7 +4013,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" ht="15.75" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>124</v>
       </c>
@@ -4019,7 +4037,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" ht="15.75" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
@@ -5531,7 +5549,7 @@
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" ht="15.75" spans="1:8">
       <c r="A96" s="8" t="s">
         <v>291</v>
       </c>
@@ -5539,7 +5557,7 @@
         <v>292</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>11</v>
@@ -5548,19 +5566,19 @@
         <v>41</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" ht="15.75" spans="1:8">
       <c r="A97" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>54</v>
@@ -5581,10 +5599,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>49</v>
@@ -5596,7 +5614,7 @@
         <v>41</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>91</v>
@@ -5605,10 +5623,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>70</v>
@@ -5620,7 +5638,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>101</v>
@@ -5629,10 +5647,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>191</v>
@@ -5644,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>101</v>
@@ -5653,10 +5671,10 @@
     </row>
     <row r="101" ht="15.75" spans="1:8">
       <c r="A101" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>172</v>
@@ -5677,13 +5695,13 @@
     </row>
     <row r="102" ht="26.25" spans="1:8">
       <c r="A102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>11</v>
@@ -5692,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>58</v>
@@ -5701,13 +5719,13 @@
     </row>
     <row r="103" ht="15.75" spans="1:8">
       <c r="A103" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>11</v>
@@ -5716,7 +5734,7 @@
         <v>71</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>63</v>
@@ -5725,16 +5743,16 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>41</v>
@@ -5749,16 +5767,16 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="D105" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>18</v>
@@ -5773,7 +5791,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>98</v>
@@ -5782,7 +5800,7 @@
         <v>108</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>18</v>
@@ -5806,7 +5824,7 @@
         <v>40</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>29</v>
@@ -5830,7 +5848,7 @@
         <v>114</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>29</v>
@@ -5848,13 +5866,13 @@
         <v>119</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>12</v>
@@ -5878,7 +5896,7 @@
         <v>149</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>71</v>
@@ -5896,13 +5914,13 @@
         <v>150</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>29</v>
@@ -5920,13 +5938,13 @@
         <v>153</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>12</v>
@@ -5941,16 +5959,16 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>29</v>
@@ -5974,7 +5992,7 @@
         <v>191</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>18</v>
@@ -5992,13 +6010,13 @@
         <v>192</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>12</v>
@@ -6013,7 +6031,7 @@
     </row>
     <row r="116" ht="26.25" spans="1:8">
       <c r="A116" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>248</v>
@@ -6022,7 +6040,7 @@
         <v>123</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>41</v>
@@ -6046,7 +6064,7 @@
         <v>252</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>29</v>
@@ -6070,7 +6088,7 @@
         <v>255</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>29</v>
@@ -6094,7 +6112,7 @@
         <v>123</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>18</v>
@@ -6109,7 +6127,7 @@
     </row>
     <row r="120" ht="26.25" spans="1:8">
       <c r="A120" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>287</v>
@@ -6118,7 +6136,7 @@
         <v>252</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>41</v>
@@ -6133,7 +6151,7 @@
     </row>
     <row r="121" ht="26.25" spans="1:8">
       <c r="A121" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>287</v>
@@ -6142,7 +6160,7 @@
         <v>255</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>41</v>
@@ -6160,13 +6178,13 @@
         <v>286</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>12</v>
@@ -6184,13 +6202,13 @@
         <v>288</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>255</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>41</v>
@@ -6208,13 +6226,13 @@
         <v>289</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>290</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>41</v>
@@ -6229,22 +6247,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="D125" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>118</v>
@@ -6253,16 +6271,16 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>41</v>
@@ -6277,16 +6295,16 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>29</v>
@@ -6301,16 +6319,16 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>41</v>
@@ -6325,16 +6343,16 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="D129" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>12</v>
@@ -6349,16 +6367,16 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>41</v>
@@ -6373,16 +6391,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>41</v>
@@ -6397,22 +6415,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>63</v>
@@ -6421,16 +6439,16 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>352</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>29</v>
@@ -6445,16 +6463,16 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="D134" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>71</v>
@@ -6469,16 +6487,16 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>29</v>
@@ -6493,16 +6511,16 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>18</v>
@@ -6517,22 +6535,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>56</v>
@@ -6541,22 +6559,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>86</v>
@@ -6565,16 +6583,16 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>290</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>18</v>
@@ -6589,22 +6607,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>91</v>
@@ -6619,10 +6637,10 @@
         <v>39</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>12</v>
@@ -6637,16 +6655,16 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>18</v>
@@ -6661,16 +6679,16 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>18</v>
@@ -6685,16 +6703,16 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="C144" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>12</v>
@@ -6709,16 +6727,16 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>41</v>
@@ -6736,13 +6754,13 @@
         <v>181</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>41</v>
@@ -6757,16 +6775,16 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="D147" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>12</v>
@@ -6781,16 +6799,16 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="D148" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>41</v>
@@ -6805,7 +6823,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>69</v>
@@ -6814,7 +6832,7 @@
         <v>70</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>71</v>
@@ -6829,7 +6847,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>69</v>
@@ -6838,7 +6856,7 @@
         <v>70</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>71</v>
@@ -6853,22 +6871,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>63</v>
@@ -6877,22 +6895,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>63</v>
@@ -6901,22 +6919,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G153" s="9" t="s">
         <v>128</v>
@@ -6925,7 +6943,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>98</v>
@@ -6934,7 +6952,7 @@
         <v>108</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>18</v>
@@ -6949,7 +6967,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>98</v>
@@ -6958,7 +6976,7 @@
         <v>99</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>18</v>
@@ -6973,16 +6991,16 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>41</v>
@@ -6997,7 +7015,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>107</v>
@@ -7006,7 +7024,7 @@
         <v>108</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>71</v>
@@ -7021,7 +7039,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>111</v>
@@ -7030,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>29</v>
@@ -7045,16 +7063,16 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>12</v>
@@ -7069,16 +7087,16 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>12</v>
@@ -7099,10 +7117,10 @@
         <v>140</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>29</v>
@@ -7117,7 +7135,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>140</v>
@@ -7126,7 +7144,7 @@
         <v>141</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>29</v>
@@ -7141,16 +7159,16 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>71</v>
@@ -7165,7 +7183,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>151</v>
@@ -7174,7 +7192,7 @@
         <v>240</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>41</v>
@@ -7189,7 +7207,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>151</v>
@@ -7198,7 +7216,7 @@
         <v>152</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>29</v>
@@ -7213,16 +7231,16 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>12</v>
@@ -7237,16 +7255,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>29</v>
@@ -7261,7 +7279,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>188</v>
@@ -7270,7 +7288,7 @@
         <v>189</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>71</v>
@@ -7285,16 +7303,16 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>405</v>
-      </c>
       <c r="D169" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>41</v>
@@ -7309,16 +7327,16 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B170" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>405</v>
-      </c>
       <c r="D170" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>29</v>
@@ -7333,16 +7351,16 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>12</v>
@@ -7357,7 +7375,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>197</v>
@@ -7366,7 +7384,7 @@
         <v>198</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>29</v>
@@ -7381,16 +7399,16 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>12</v>
@@ -7405,16 +7423,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>12</v>
@@ -7429,22 +7447,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G175" s="9" t="s">
         <v>20</v>
@@ -7453,22 +7471,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G176" s="9" t="s">
         <v>20</v>
@@ -7477,16 +7495,16 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>418</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>12</v>
@@ -7501,22 +7519,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G178" s="9" t="s">
         <v>20</v>
@@ -7525,22 +7543,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>20</v>
@@ -7549,16 +7567,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>29</v>
@@ -7573,22 +7591,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>424</v>
-      </c>
       <c r="C181" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G181" s="9" t="s">
         <v>58</v>
@@ -7597,16 +7615,16 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>41</v>
@@ -7621,16 +7639,16 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>429</v>
-      </c>
       <c r="D183" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>29</v>
@@ -7645,16 +7663,16 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>18</v>
@@ -7669,16 +7687,16 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>71</v>
@@ -7693,7 +7711,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>234</v>
@@ -7702,7 +7720,7 @@
         <v>235</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>41</v>
@@ -7717,7 +7735,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>234</v>
@@ -7726,7 +7744,7 @@
         <v>240</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>29</v>
@@ -7741,16 +7759,16 @@
     </row>
     <row r="188" ht="15.75" spans="1:8">
       <c r="A188" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>12</v>
@@ -7765,16 +7783,16 @@
     </row>
     <row r="189" ht="15.75" spans="1:8">
       <c r="A189" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B189" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="C189" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="D189" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>12</v>
@@ -7789,22 +7807,22 @@
     </row>
     <row r="190" ht="15.75" spans="1:8">
       <c r="A190" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>56</v>
@@ -7813,22 +7831,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G191" s="9" t="s">
         <v>31</v>
@@ -7837,22 +7855,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>86</v>
@@ -7861,22 +7879,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G193" s="9" t="s">
         <v>51</v>
@@ -7885,22 +7903,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G194" s="9" t="s">
         <v>51</v>
@@ -7909,22 +7927,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G195" s="9" t="s">
         <v>51</v>
@@ -7933,22 +7951,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>25</v>
@@ -7957,22 +7975,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="D197" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>25</v>
@@ -7981,7 +7999,7 @@
     </row>
     <row r="198" ht="26.25" spans="1:8">
       <c r="A198" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>248</v>
@@ -7990,7 +8008,7 @@
         <v>123</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>41</v>
@@ -8005,16 +8023,16 @@
     </row>
     <row r="199" ht="26.25" spans="1:8">
       <c r="A199" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>18</v>
@@ -8029,16 +8047,16 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>267</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>29</v>
@@ -8053,16 +8071,16 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>18</v>
@@ -8077,16 +8095,16 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>460</v>
-      </c>
       <c r="D202" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>18</v>
@@ -8101,16 +8119,16 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>41</v>
@@ -8125,16 +8143,16 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>29</v>
@@ -8149,22 +8167,22 @@
     </row>
     <row r="205" ht="26.25" spans="1:8">
       <c r="A205" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G205" s="9" t="s">
         <v>51</v>
@@ -8173,22 +8191,22 @@
     </row>
     <row r="206" ht="26.25" spans="1:8">
       <c r="A206" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G206" s="9" t="s">
         <v>51</v>
@@ -8197,16 +8215,16 @@
     </row>
     <row r="207" ht="26.25" spans="1:8">
       <c r="A207" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>469</v>
-      </c>
       <c r="D207" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>12</v>
@@ -8221,16 +8239,16 @@
     </row>
     <row r="208" ht="26.25" spans="1:8">
       <c r="A208" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>280</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>12</v>
@@ -8245,16 +8263,16 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>29</v>
@@ -8269,22 +8287,22 @@
     </row>
     <row r="210" ht="26.25" spans="1:8">
       <c r="A210" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B210" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="C210" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>475</v>
-      </c>
       <c r="D210" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G210" s="9" t="s">
         <v>20</v>
@@ -8293,22 +8311,22 @@
     </row>
     <row r="211" ht="15.75" spans="1:8">
       <c r="A211" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>478</v>
+        <v>131</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G211" s="9" t="s">
         <v>20</v>
@@ -8317,16 +8335,16 @@
     </row>
     <row r="212" ht="15.75" spans="1:8">
       <c r="A212" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>12</v>
@@ -8341,16 +8359,16 @@
     </row>
     <row r="213" ht="15.75" spans="1:8">
       <c r="A213" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>41</v>
@@ -8365,22 +8383,22 @@
     </row>
     <row r="214" ht="15.75" spans="1:8">
       <c r="A214" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G214" s="9" t="s">
         <v>20</v>
@@ -8389,22 +8407,22 @@
     </row>
     <row r="215" ht="15.75" spans="1:8">
       <c r="A215" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>486</v>
+        <v>160</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G215" s="9" t="s">
         <v>20</v>
@@ -8413,16 +8431,16 @@
     </row>
     <row r="216" ht="15.75" spans="1:8">
       <c r="A216" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>12</v>
@@ -8437,22 +8455,22 @@
     </row>
     <row r="217" ht="15.75" spans="1:8">
       <c r="A217" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>91</v>
@@ -8461,7 +8479,7 @@
     </row>
     <row r="218" ht="26.25" spans="1:8">
       <c r="A218" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>287</v>
@@ -8470,7 +8488,7 @@
         <v>123</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>18</v>
@@ -8485,22 +8503,22 @@
     </row>
     <row r="219" ht="26.25" spans="1:8">
       <c r="A219" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G219" s="9" t="s">
         <v>128</v>
@@ -8509,16 +8527,16 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>12</v>
@@ -8533,22 +8551,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G221" s="9" t="s">
         <v>20</v>
@@ -8557,16 +8575,16 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>18</v>
@@ -8579,18 +8597,18 @@
       </c>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" ht="15.75" spans="1:8">
       <c r="A223" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>12</v>
@@ -8603,18 +8621,18 @@
       </c>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" ht="15.75" spans="1:8">
       <c r="A224" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>504</v>
+        <v>66</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>29</v>
@@ -8627,24 +8645,24 @@
       </c>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" ht="15.75" spans="1:8">
       <c r="A225" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>118</v>
@@ -8653,22 +8671,22 @@
     </row>
     <row r="226" ht="15.75" spans="1:8">
       <c r="A226" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G226" s="9" t="s">
         <v>101</v>
@@ -8677,22 +8695,22 @@
     </row>
     <row r="227" ht="15.75" spans="1:8">
       <c r="A227" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G227" s="9" t="s">
         <v>101</v>
@@ -8701,22 +8719,22 @@
     </row>
     <row r="228" ht="15.75" spans="1:8">
       <c r="A228" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G228" s="9" t="s">
         <v>101</v>
@@ -8725,22 +8743,22 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>101</v>
@@ -8749,22 +8767,22 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G230" s="6" t="s">
         <v>63</v>
@@ -8773,22 +8791,22 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G231" s="9" t="s">
         <v>128</v>
@@ -8797,7 +8815,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>22</v>
@@ -8806,7 +8824,7 @@
         <v>23</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>41</v>
@@ -8821,22 +8839,22 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G233" s="6" t="s">
         <v>63</v>
@@ -8845,22 +8863,22 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G234" s="9" t="s">
         <v>128</v>
@@ -8869,7 +8887,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>103</v>
@@ -8878,7 +8896,7 @@
         <v>108</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>18</v>
@@ -8893,7 +8911,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>107</v>
@@ -8902,7 +8920,7 @@
         <v>108</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>71</v>
@@ -8917,7 +8935,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>116</v>
@@ -8926,7 +8944,7 @@
         <v>40</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>29</v>
@@ -8941,16 +8959,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>12</v>
@@ -8965,16 +8983,16 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>41</v>
@@ -8989,16 +9007,16 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>29</v>
@@ -9013,16 +9031,16 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>41</v>
@@ -9037,16 +9055,16 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>12</v>
@@ -9061,16 +9079,16 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>41</v>
@@ -9085,16 +9103,16 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>12</v>
@@ -9109,16 +9127,16 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>41</v>
@@ -9133,16 +9151,16 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E246" s="8" t="s">
         <v>71</v>
@@ -9157,16 +9175,16 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E247" s="8" t="s">
         <v>41</v>
@@ -9181,16 +9199,16 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>29</v>
@@ -9205,16 +9223,16 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E249" s="8" t="s">
         <v>12</v>
@@ -9229,22 +9247,22 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G250" s="6" t="s">
         <v>63</v>
@@ -9253,16 +9271,16 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E251" s="8" t="s">
         <v>29</v>
@@ -9277,16 +9295,16 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>29</v>
@@ -9310,7 +9328,7 @@
         <v>163</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>29</v>
@@ -9325,16 +9343,16 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>29</v>
@@ -9349,22 +9367,22 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="D255" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G255" s="6" t="s">
         <v>91</v>
@@ -9373,16 +9391,16 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>29</v>
@@ -9397,16 +9415,16 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E257" s="8" t="s">
         <v>18</v>
@@ -9421,16 +9439,16 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>12</v>
@@ -9445,16 +9463,16 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>41</v>
@@ -9469,7 +9487,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>188</v>
@@ -9478,7 +9496,7 @@
         <v>189</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>71</v>
@@ -9493,16 +9511,16 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>41</v>
@@ -9517,16 +9535,16 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>29</v>
@@ -9541,16 +9559,16 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>12</v>
@@ -9565,7 +9583,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>195</v>
@@ -9574,13 +9592,13 @@
         <v>172</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G264" s="6" t="s">
         <v>63</v>
@@ -9589,7 +9607,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>197</v>
@@ -9598,7 +9616,7 @@
         <v>198</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E265" s="8" t="s">
         <v>12</v>
@@ -9622,7 +9640,7 @@
         <v>198</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>29</v>
@@ -9637,16 +9655,16 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>12</v>
@@ -9661,16 +9679,16 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>12</v>
@@ -9685,7 +9703,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>202</v>
@@ -9694,13 +9712,13 @@
         <v>44</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G269" s="9" t="s">
         <v>20</v>
@@ -9709,7 +9727,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>202</v>
@@ -9718,13 +9736,13 @@
         <v>93</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G270" s="9" t="s">
         <v>20</v>
@@ -9733,7 +9751,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>218</v>
@@ -9742,7 +9760,7 @@
         <v>141</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E271" s="8" t="s">
         <v>12</v>
@@ -9757,7 +9775,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>218</v>
@@ -9766,13 +9784,13 @@
         <v>157</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G272" s="9" t="s">
         <v>20</v>
@@ -9781,7 +9799,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>218</v>
@@ -9790,13 +9808,13 @@
         <v>157</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G273" s="9" t="s">
         <v>20</v>
@@ -9805,7 +9823,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>218</v>
@@ -9814,7 +9832,7 @@
         <v>131</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>29</v>
@@ -9829,22 +9847,22 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E275" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G275" s="9" t="s">
         <v>58</v>
@@ -9853,7 +9871,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>229</v>
@@ -9862,7 +9880,7 @@
         <v>146</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>41</v>
@@ -9877,16 +9895,16 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E277" s="8" t="s">
         <v>29</v>
@@ -9901,7 +9919,7 @@
     </row>
     <row r="278" ht="15.75" spans="1:8">
       <c r="A278" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>229</v>
@@ -9910,7 +9928,7 @@
         <v>219</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>18</v>
@@ -9925,16 +9943,16 @@
     </row>
     <row r="279" ht="15.75" spans="1:8">
       <c r="A279" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E279" s="8" t="s">
         <v>12</v>
@@ -9949,22 +9967,22 @@
     </row>
     <row r="280" ht="15.75" spans="1:8">
       <c r="A280" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G280" s="9" t="s">
         <v>56</v>
@@ -9973,22 +9991,22 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E281" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G281" s="9" t="s">
         <v>31</v>
@@ -9997,22 +10015,22 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G282" s="6" t="s">
         <v>86</v>
@@ -10021,22 +10039,22 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E283" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G283" s="9" t="s">
         <v>51</v>
@@ -10045,22 +10063,22 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G284" s="9" t="s">
         <v>51</v>
@@ -10069,22 +10087,22 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E285" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G285" s="9" t="s">
         <v>51</v>
@@ -10093,22 +10111,22 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G286" s="6" t="s">
         <v>25</v>
@@ -10117,22 +10135,22 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="D287" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G287" s="6" t="s">
         <v>25</v>
@@ -10141,16 +10159,16 @@
     </row>
     <row r="288" ht="26.25" spans="1:8">
       <c r="A288" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>18</v>
@@ -10165,7 +10183,7 @@
     </row>
     <row r="289" ht="15.75" spans="1:8">
       <c r="A289" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>266</v>
@@ -10174,7 +10192,7 @@
         <v>267</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E289" s="8" t="s">
         <v>29</v>
@@ -10189,7 +10207,7 @@
     </row>
     <row r="290" ht="15.75" spans="1:8">
       <c r="A290" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>266</v>
@@ -10198,7 +10216,7 @@
         <v>146</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>18</v>
@@ -10213,16 +10231,16 @@
     </row>
     <row r="291" ht="15.75" spans="1:8">
       <c r="A291" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>18</v>
@@ -10237,16 +10255,16 @@
     </row>
     <row r="292" ht="15.75" spans="1:8">
       <c r="A292" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>41</v>
@@ -10261,16 +10279,16 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>29</v>
@@ -10285,7 +10303,7 @@
     </row>
     <row r="294" ht="26.25" spans="1:8">
       <c r="A294" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>276</v>
@@ -10294,13 +10312,13 @@
         <v>89</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G294" s="9" t="s">
         <v>51</v>
@@ -10309,7 +10327,7 @@
     </row>
     <row r="295" ht="26.25" spans="1:8">
       <c r="A295" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>276</v>
@@ -10318,13 +10336,13 @@
         <v>280</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E295" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G295" s="9" t="s">
         <v>51</v>
@@ -10333,16 +10351,16 @@
     </row>
     <row r="296" ht="26.25" spans="1:8">
       <c r="A296" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>12</v>
@@ -10357,7 +10375,7 @@
     </row>
     <row r="297" ht="26.25" spans="1:8">
       <c r="A297" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>276</v>
@@ -10366,7 +10384,7 @@
         <v>280</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>12</v>
@@ -10381,16 +10399,16 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E298" s="8" t="s">
         <v>29</v>
@@ -10405,22 +10423,22 @@
     </row>
     <row r="299" ht="26.25" spans="1:8">
       <c r="A299" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E299" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G299" s="9" t="s">
         <v>20</v>
@@ -10429,22 +10447,22 @@
     </row>
     <row r="300" ht="15.75" spans="1:8">
       <c r="A300" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>478</v>
+        <v>131</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G300" s="9" t="s">
         <v>20</v>
@@ -10453,16 +10471,16 @@
     </row>
     <row r="301" ht="15.75" spans="1:8">
       <c r="A301" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E301" s="8" t="s">
         <v>12</v>
@@ -10477,16 +10495,16 @@
     </row>
     <row r="302" ht="15.75" spans="1:8">
       <c r="A302" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E302" s="8" t="s">
         <v>41</v>
@@ -10501,22 +10519,22 @@
     </row>
     <row r="303" ht="15.75" spans="1:8">
       <c r="A303" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E303" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G303" s="9" t="s">
         <v>20</v>
@@ -10525,22 +10543,22 @@
     </row>
     <row r="304" ht="15.75" spans="1:8">
       <c r="A304" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>486</v>
+        <v>160</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E304" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G304" s="9" t="s">
         <v>20</v>
@@ -10549,16 +10567,16 @@
     </row>
     <row r="305" ht="15.75" spans="1:8">
       <c r="A305" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>12</v>
@@ -10573,22 +10591,22 @@
     </row>
     <row r="306" ht="15.75" spans="1:8">
       <c r="A306" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>91</v>
@@ -10597,16 +10615,16 @@
     </row>
     <row r="307" ht="26.25" spans="1:8">
       <c r="A307" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E307" s="8" t="s">
         <v>18</v>
@@ -10621,22 +10639,22 @@
     </row>
     <row r="308" ht="26.25" spans="1:8">
       <c r="A308" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E308" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G308" s="9" t="s">
         <v>128</v>
@@ -10645,16 +10663,16 @@
     </row>
     <row r="309" ht="15.75" spans="1:8">
       <c r="A309" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E309" s="8" t="s">
         <v>12</v>
@@ -10669,22 +10687,22 @@
     </row>
     <row r="310" ht="15.75" spans="1:8">
       <c r="A310" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G310" s="9" t="s">
         <v>20</v>
@@ -10693,16 +10711,16 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E311" s="8" t="s">
         <v>18</v>
@@ -10715,18 +10733,18 @@
       </c>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" ht="15.75" spans="1:8">
       <c r="A312" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>12</v>
@@ -10739,18 +10757,18 @@
       </c>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" ht="15.75" spans="1:8">
       <c r="A313" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>504</v>
+        <v>66</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>29</v>
@@ -10763,24 +10781,24 @@
       </c>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" ht="15.75" spans="1:8">
       <c r="A314" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="C314" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C314" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="D314" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>63</v>
@@ -10789,22 +10807,22 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B315" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B315" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="C315" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E315" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G315" s="9" t="s">
         <v>128</v>
@@ -10816,13 +10834,13 @@
         <v>87</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E316" s="8" t="s">
         <v>12</v>
@@ -10840,13 +10858,13 @@
         <v>87</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>29</v>
@@ -10861,16 +10879,16 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B318" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D318" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E318" s="8" t="s">
         <v>12</v>
@@ -10885,16 +10903,16 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E319" s="4" t="s">
         <v>12</v>
@@ -10909,16 +10927,16 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>18</v>
@@ -10933,16 +10951,16 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E321" s="8" t="s">
         <v>29</v>
@@ -10957,16 +10975,16 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>41</v>
@@ -10981,22 +10999,22 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E323" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>63</v>
@@ -11014,7 +11032,7 @@
         <v>17</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E324" s="8" t="s">
         <v>41</v>
@@ -11032,13 +11050,13 @@
         <v>132</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E325" s="4" t="s">
         <v>18</v>
@@ -11053,16 +11071,16 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>29</v>
@@ -11077,16 +11095,16 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E327" s="8" t="s">
         <v>18</v>
@@ -11101,7 +11119,7 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>22</v>
@@ -11110,7 +11128,7 @@
         <v>23</v>
       </c>
       <c r="D328" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E328" s="8" t="s">
         <v>12</v>
@@ -11128,13 +11146,13 @@
         <v>144</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>18</v>
@@ -11149,16 +11167,16 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D330" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E330" s="4" t="s">
         <v>29</v>
@@ -11173,16 +11191,16 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>71</v>
@@ -11197,16 +11215,16 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E332" s="8" t="s">
         <v>71</v>
@@ -11221,7 +11239,7 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>27</v>
@@ -11230,7 +11248,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E333" s="8" t="s">
         <v>71</v>
@@ -11245,7 +11263,7 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>27</v>
@@ -11254,7 +11272,7 @@
         <v>28</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E334" s="4" t="s">
         <v>71</v>
@@ -11269,16 +11287,16 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C335" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D335" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E335" s="8" t="s">
         <v>41</v>
@@ -11296,13 +11314,13 @@
         <v>158</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C336" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D336" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E336" s="8" t="s">
         <v>29</v>
@@ -11317,16 +11335,16 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E337" s="8" t="s">
         <v>12</v>
@@ -11341,16 +11359,16 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C338" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D338" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E338" s="8" t="s">
         <v>29</v>
@@ -11365,16 +11383,16 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>18</v>
@@ -11392,13 +11410,13 @@
         <v>167</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E340" s="4" t="s">
         <v>12</v>
@@ -11413,16 +11431,16 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E341" s="8" t="s">
         <v>18</v>
@@ -11437,16 +11455,16 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D342" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>12</v>
@@ -11461,16 +11479,16 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E343" s="4" t="s">
         <v>41</v>
@@ -11485,16 +11503,16 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D344" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>29</v>
@@ -11518,7 +11536,7 @@
         <v>40</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E345" s="8" t="s">
         <v>41</v>
@@ -11533,16 +11551,16 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C346" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D346" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E346" s="8" t="s">
         <v>18</v>
@@ -11557,16 +11575,16 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E347" s="4" t="s">
         <v>12</v>
@@ -11581,7 +11599,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>43</v>
@@ -11590,7 +11608,7 @@
         <v>54</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E348" s="8" t="s">
         <v>41</v>
@@ -11614,7 +11632,7 @@
         <v>44</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E349" s="8" t="s">
         <v>29</v>
@@ -11629,16 +11647,16 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C350" s="8" t="s">
         <v>290</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E350" s="8" t="s">
         <v>71</v>
@@ -11653,16 +11671,16 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D351" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E351" s="8" t="s">
         <v>18</v>
@@ -11686,7 +11704,7 @@
         <v>54</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E352" s="4" t="s">
         <v>41</v>
@@ -11710,7 +11728,7 @@
         <v>54</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E353" s="8" t="s">
         <v>29</v>
@@ -11731,10 +11749,10 @@
         <v>60</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>12</v>
@@ -11749,16 +11767,16 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E355" s="8" t="s">
         <v>41</v>
@@ -11771,7 +11789,7 @@
       </c>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" ht="15.75" spans="1:8">
       <c r="A356" s="4" t="s">
         <v>64</v>
       </c>
@@ -11782,7 +11800,7 @@
         <v>66</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E356" s="4" t="s">
         <v>29</v>
@@ -11795,18 +11813,18 @@
       </c>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" ht="15.75" spans="1:8">
       <c r="A357" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>607</v>
+        <v>126</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E357" s="4" t="s">
         <v>29</v>
@@ -11819,18 +11837,18 @@
       </c>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" ht="15.75" spans="1:8">
       <c r="A358" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E358" s="8" t="s">
         <v>29</v>
@@ -11845,16 +11863,16 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D359" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E359" s="8" t="s">
         <v>12</v>
@@ -11878,7 +11896,7 @@
         <v>76</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E360" s="8" t="s">
         <v>18</v>
@@ -11902,7 +11920,7 @@
         <v>76</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E361" s="4" t="s">
         <v>29</v>
@@ -11917,22 +11935,22 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E362" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G362" s="9" t="s">
         <v>128</v>
@@ -11941,7 +11959,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>103</v>
@@ -11950,7 +11968,7 @@
         <v>108</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E363" s="8" t="s">
         <v>41</v>
@@ -11968,13 +11986,13 @@
         <v>134</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C364" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E364" s="8" t="s">
         <v>41</v>
@@ -11989,7 +12007,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>137</v>
@@ -11998,7 +12016,7 @@
         <v>123</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E365" s="4" t="s">
         <v>71</v>
@@ -12013,16 +12031,16 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D366" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E366" s="8" t="s">
         <v>18</v>
@@ -12037,7 +12055,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>151</v>
@@ -12046,7 +12064,7 @@
         <v>149</v>
       </c>
       <c r="D367" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E367" s="4" t="s">
         <v>41</v>
@@ -12061,16 +12079,16 @@
     </row>
     <row r="368" ht="15.75" spans="1:8">
       <c r="A368" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E368" s="8" t="s">
         <v>18</v>
@@ -12088,13 +12106,13 @@
         <v>170</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E369" s="8" t="s">
         <v>41</v>
@@ -12109,16 +12127,16 @@
     </row>
     <row r="370" ht="15.75" spans="1:8">
       <c r="A370" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E370" s="4" t="s">
         <v>18</v>
@@ -12133,16 +12151,16 @@
     </row>
     <row r="371" ht="15.75" spans="1:8">
       <c r="A371" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E371" s="4" t="s">
         <v>18</v>
@@ -12157,7 +12175,7 @@
     </row>
     <row r="372" ht="15.75" spans="1:8">
       <c r="A372" s="8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>174</v>
@@ -12166,7 +12184,7 @@
         <v>40</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E372" s="8" t="s">
         <v>71</v>
@@ -12181,16 +12199,16 @@
     </row>
     <row r="373" ht="15.75" spans="1:8">
       <c r="A373" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D373" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E373" s="4" t="s">
         <v>71</v>
@@ -12208,13 +12226,13 @@
         <v>59</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D374" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E374" s="4" t="s">
         <v>41</v>
@@ -12232,13 +12250,13 @@
         <v>184</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D375" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E375" s="8" t="s">
         <v>29</v>
@@ -12253,7 +12271,7 @@
     </row>
     <row r="376" ht="15.75" spans="1:8">
       <c r="A376" s="8" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>188</v>
@@ -12262,7 +12280,7 @@
         <v>191</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E376" s="8" t="s">
         <v>18</v>
@@ -12277,7 +12295,7 @@
     </row>
     <row r="377" ht="15.75" spans="1:8">
       <c r="A377" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>197</v>
@@ -12286,7 +12304,7 @@
         <v>200</v>
       </c>
       <c r="D377" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E377" s="8" t="s">
         <v>18</v>
@@ -12301,16 +12319,16 @@
     </row>
     <row r="378" ht="15.75" spans="1:8">
       <c r="A378" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E378" s="4" t="s">
         <v>41</v>
@@ -12325,16 +12343,16 @@
     </row>
     <row r="379" ht="15.75" spans="1:8">
       <c r="A379" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E379" s="4" t="s">
         <v>71</v>
@@ -12349,16 +12367,16 @@
     </row>
     <row r="380" ht="15.75" spans="1:8">
       <c r="A380" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D380" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E380" s="4" t="s">
         <v>71</v>
@@ -12373,7 +12391,7 @@
     </row>
     <row r="381" ht="15.75" spans="1:8">
       <c r="A381" s="8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>234</v>
@@ -12382,7 +12400,7 @@
         <v>240</v>
       </c>
       <c r="D381" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E381" s="8" t="s">
         <v>41</v>
@@ -12397,7 +12415,7 @@
     </row>
     <row r="382" ht="15.75" spans="1:8">
       <c r="A382" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>234</v>
@@ -12406,7 +12424,7 @@
         <v>149</v>
       </c>
       <c r="D382" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E382" s="8" t="s">
         <v>18</v>
@@ -12421,22 +12439,22 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B383" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D383" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E383" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>46</v>
@@ -12445,22 +12463,22 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B384" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B384" s="8" t="s">
-        <v>444</v>
-      </c>
       <c r="C384" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D384" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E384" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F384" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G384" s="9" t="s">
         <v>56</v>
@@ -12469,22 +12487,22 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B385" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="B385" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="C385" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D385" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E385" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F385" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G385" s="9" t="s">
         <v>31</v>
@@ -12493,22 +12511,22 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B386" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>290</v>
       </c>
       <c r="D386" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E386" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F386" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G386" s="9" t="s">
         <v>58</v>
@@ -12517,22 +12535,22 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E387" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>25</v>
@@ -12541,22 +12559,22 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D388" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>25</v>
@@ -12565,7 +12583,7 @@
     </row>
     <row r="389" ht="26.25" spans="1:8">
       <c r="A389" s="8" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>251</v>
@@ -12574,7 +12592,7 @@
         <v>123</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E389" s="8" t="s">
         <v>18</v>
@@ -12589,22 +12607,22 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D390" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E390" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>25</v>
@@ -12613,22 +12631,22 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E391" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>25</v>
@@ -12637,16 +12655,16 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E392" s="4" t="s">
         <v>41</v>
@@ -12661,16 +12679,16 @@
     </row>
     <row r="393" ht="26.25" spans="1:8">
       <c r="A393" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E393" s="4" t="s">
         <v>12</v>
@@ -12685,22 +12703,22 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D394" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E394" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F394" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>118</v>
@@ -12709,7 +12727,7 @@
     </row>
     <row r="395" ht="26.25" spans="1:8">
       <c r="A395" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>287</v>
@@ -12718,7 +12736,7 @@
         <v>255</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E395" s="8" t="s">
         <v>41</v>
@@ -12733,16 +12751,16 @@
     </row>
     <row r="396" ht="26.25" spans="1:8">
       <c r="A396" s="8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>654</v>
+        <v>290</v>
       </c>
       <c r="D396" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E396" s="8" t="s">
         <v>41</v>
@@ -12755,24 +12773,24 @@
       </c>
       <c r="H396" s="7"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" ht="15.75" spans="1:8">
       <c r="A397" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E397" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>63</v>
@@ -12781,22 +12799,22 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D398" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E398" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F398" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>63</v>
@@ -12805,16 +12823,16 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D399" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E399" s="4" t="s">
         <v>12</v>
@@ -12829,16 +12847,16 @@
     </row>
     <row r="400" ht="15.75" spans="1:8">
       <c r="A400" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D400" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E400" s="4" t="s">
         <v>18</v>
@@ -12853,22 +12871,22 @@
     </row>
     <row r="401" ht="15.75" spans="1:8">
       <c r="A401" s="8" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D401" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E401" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G401" s="9" t="s">
         <v>101</v>
@@ -12877,22 +12895,22 @@
     </row>
     <row r="402" ht="15.75" spans="1:8">
       <c r="A402" s="8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D402" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E402" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F402" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G402" s="9" t="s">
         <v>101</v>
@@ -12904,13 +12922,13 @@
         <v>82</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>18</v>
@@ -12928,13 +12946,13 @@
         <v>85</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E404" s="4" t="s">
         <v>18</v>
@@ -12947,18 +12965,18 @@
       </c>
       <c r="H404" s="7"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" ht="15.75" spans="1:8">
       <c r="A405" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E405" s="8" t="s">
         <v>12</v>
@@ -12971,18 +12989,18 @@
       </c>
       <c r="H405" s="7"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" ht="15.75" spans="1:8">
       <c r="A406" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E406" s="8" t="s">
         <v>12</v>
@@ -12995,7 +13013,7 @@
       </c>
       <c r="H406" s="7"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" ht="15.75" spans="1:8">
       <c r="A407" s="4" t="s">
         <v>129</v>
       </c>
@@ -13006,7 +13024,7 @@
         <v>131</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>41</v>
@@ -13019,18 +13037,18 @@
       </c>
       <c r="H407" s="7"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" ht="15.75" spans="1:8">
       <c r="A408" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E408" s="4" t="s">
         <v>18</v>
@@ -13043,9 +13061,9 @@
       </c>
       <c r="H408" s="7"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" ht="15.75" spans="1:8">
       <c r="A409" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>22</v>
@@ -13054,7 +13072,7 @@
         <v>126</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>29</v>
@@ -13067,9 +13085,9 @@
       </c>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" ht="15.75" spans="1:8">
       <c r="A410" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>22</v>
@@ -13078,7 +13096,7 @@
         <v>23</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E410" s="8" t="s">
         <v>29</v>
@@ -13093,16 +13111,16 @@
     </row>
     <row r="411" ht="15.75" spans="1:8">
       <c r="A411" s="8" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E411" s="8" t="s">
         <v>29</v>
@@ -13120,13 +13138,13 @@
         <v>155</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E412" s="8" t="s">
         <v>12</v>
@@ -13141,16 +13159,16 @@
     </row>
     <row r="413" ht="15.75" spans="1:8">
       <c r="A413" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B413" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E413" s="4" t="s">
         <v>71</v>
@@ -13165,16 +13183,16 @@
     </row>
     <row r="414" ht="15.75" spans="1:8">
       <c r="A414" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B414" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="B414" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="C414" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E414" s="8" t="s">
         <v>71</v>
@@ -13189,16 +13207,16 @@
     </row>
     <row r="415" ht="15.75" spans="1:8">
       <c r="A415" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B415" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E415" s="4" t="s">
         <v>71</v>
@@ -13213,16 +13231,16 @@
     </row>
     <row r="416" ht="15.75" spans="1:8">
       <c r="A416" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B416" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="B416" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E416" s="8" t="s">
         <v>71</v>
@@ -13240,13 +13258,13 @@
         <v>158</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E417" s="8" t="s">
         <v>29</v>
@@ -13261,16 +13279,16 @@
     </row>
     <row r="418" ht="15.75" spans="1:8">
       <c r="A418" s="8" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>290</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E418" s="8" t="s">
         <v>71</v>
@@ -13285,7 +13303,7 @@
     </row>
     <row r="419" ht="15.75" spans="1:8">
       <c r="A419" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>36</v>
@@ -13294,7 +13312,7 @@
         <v>37</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>29</v>
@@ -13309,16 +13327,16 @@
     </row>
     <row r="420" ht="15.75" spans="1:8">
       <c r="A420" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E420" s="8" t="s">
         <v>12</v>
@@ -13333,16 +13351,16 @@
     </row>
     <row r="421" ht="15.75" spans="1:8">
       <c r="A421" s="8" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E421" s="8" t="s">
         <v>18</v>
@@ -13360,13 +13378,13 @@
         <v>175</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E422" s="8" t="s">
         <v>29</v>
@@ -13384,13 +13402,13 @@
         <v>178</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E423" s="8" t="s">
         <v>12</v>
@@ -13411,10 +13429,10 @@
         <v>60</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E424" s="8" t="s">
         <v>29</v>
@@ -13429,16 +13447,16 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>29</v>
@@ -13456,13 +13474,13 @@
         <v>194</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E426" s="8" t="s">
         <v>18</v>
@@ -13480,13 +13498,13 @@
         <v>87</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D427" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E427" s="8" t="s">
         <v>12</v>
@@ -13501,7 +13519,7 @@
     </row>
     <row r="428" ht="15.75" spans="1:8">
       <c r="A428" s="8" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>103</v>
@@ -13510,7 +13528,7 @@
         <v>108</v>
       </c>
       <c r="D428" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E428" s="8" t="s">
         <v>41</v>
@@ -13534,7 +13552,7 @@
         <v>108</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E429" s="8" t="s">
         <v>71</v>
@@ -13558,7 +13576,7 @@
         <v>104</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E430" s="4" t="s">
         <v>18</v>
@@ -13576,13 +13594,13 @@
         <v>134</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E431" s="8" t="s">
         <v>41</v>
@@ -13597,16 +13615,16 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>29</v>
@@ -13621,7 +13639,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="8" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>140</v>
@@ -13630,7 +13648,7 @@
         <v>141</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E433" s="8" t="s">
         <v>18</v>
@@ -13645,16 +13663,16 @@
     </row>
     <row r="434" ht="15.75" spans="1:8">
       <c r="A434" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E434" s="4" t="s">
         <v>12</v>
@@ -13678,7 +13696,7 @@
         <v>141</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>12</v>
@@ -13693,16 +13711,16 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>41</v>
@@ -13720,13 +13738,13 @@
         <v>144</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>18</v>
@@ -13741,16 +13759,16 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E438" s="8" t="s">
         <v>18</v>
@@ -13765,16 +13783,16 @@
     </row>
     <row r="439" ht="15.75" spans="1:8">
       <c r="A439" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E439" s="4" t="s">
         <v>41</v>
@@ -13798,7 +13816,7 @@
         <v>165</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>18</v>
@@ -13822,7 +13840,7 @@
         <v>163</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>18</v>
@@ -13840,13 +13858,13 @@
         <v>167</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E442" s="4" t="s">
         <v>12</v>
@@ -13861,16 +13879,16 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E443" s="8" t="s">
         <v>18</v>
@@ -13888,13 +13906,13 @@
         <v>170</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E444" s="8" t="s">
         <v>12</v>
@@ -13909,7 +13927,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B445" s="8" t="s">
         <v>174</v>
@@ -13918,7 +13936,7 @@
         <v>40</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E445" s="8" t="s">
         <v>71</v>
@@ -13942,7 +13960,7 @@
         <v>99</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>12</v>
@@ -13957,7 +13975,7 @@
     </row>
     <row r="447" ht="15.75" spans="1:8">
       <c r="A447" s="4" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>174</v>
@@ -13966,7 +13984,7 @@
         <v>99</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>41</v>
@@ -13981,16 +13999,16 @@
     </row>
     <row r="448" ht="15.75" spans="1:8">
       <c r="A448" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E448" s="8" t="s">
         <v>18</v>
@@ -14005,16 +14023,16 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D449" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>12</v>
@@ -14038,7 +14056,7 @@
         <v>54</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>41</v>
@@ -14062,7 +14080,7 @@
         <v>54</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E451" s="8" t="s">
         <v>18</v>
@@ -14086,7 +14104,7 @@
         <v>54</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E452" s="8" t="s">
         <v>29</v>
@@ -14104,13 +14122,13 @@
         <v>184</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>12</v>
@@ -14128,13 +14146,13 @@
         <v>59</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>41</v>
@@ -14152,13 +14170,13 @@
         <v>184</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E455" s="8" t="s">
         <v>12</v>
@@ -14173,16 +14191,16 @@
     </row>
     <row r="456" ht="15.75" spans="1:8">
       <c r="A456" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E456" s="8" t="s">
         <v>41</v>
@@ -14200,13 +14218,13 @@
         <v>64</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>29</v>
@@ -14230,7 +14248,7 @@
         <v>189</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E458" s="8" t="s">
         <v>71</v>
@@ -14245,7 +14263,7 @@
     </row>
     <row r="459" ht="15.75" spans="1:8">
       <c r="A459" s="8" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B459" s="8" t="s">
         <v>188</v>
@@ -14254,7 +14272,7 @@
         <v>191</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E459" s="8" t="s">
         <v>18</v>
@@ -14269,7 +14287,7 @@
     </row>
     <row r="460" ht="15.75" spans="1:8">
       <c r="A460" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>197</v>
@@ -14278,7 +14296,7 @@
         <v>198</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E460" s="4" t="s">
         <v>12</v>
@@ -14293,7 +14311,7 @@
     </row>
     <row r="461" ht="15.75" spans="1:8">
       <c r="A461" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>197</v>
@@ -14302,13 +14320,13 @@
         <v>198</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F461" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G461" s="6" t="s">
         <v>25</v>
@@ -14320,13 +14338,13 @@
         <v>201</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>29</v>
@@ -14344,13 +14362,13 @@
         <v>204</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>12</v>
@@ -14368,13 +14386,13 @@
         <v>207</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>18</v>
@@ -14392,13 +14410,13 @@
         <v>210</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E465" s="8" t="s">
         <v>29</v>
@@ -14416,13 +14434,13 @@
         <v>213</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>29</v>
@@ -14440,13 +14458,13 @@
         <v>217</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E467" s="4" t="s">
         <v>41</v>
@@ -14464,13 +14482,13 @@
         <v>221</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E468" s="4" t="s">
         <v>71</v>
@@ -14488,13 +14506,13 @@
         <v>225</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>41</v>
@@ -14512,13 +14530,13 @@
         <v>228</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C470" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E470" s="8" t="s">
         <v>41</v>
@@ -14536,13 +14554,13 @@
         <v>232</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E471" s="4" t="s">
         <v>29</v>
@@ -14557,16 +14575,16 @@
     </row>
     <row r="472" ht="15.75" spans="1:8">
       <c r="A472" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>71</v>
@@ -14581,16 +14599,16 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>71</v>
@@ -14608,13 +14626,13 @@
         <v>244</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E474" s="8" t="s">
         <v>41</v>
@@ -14629,22 +14647,22 @@
     </row>
     <row r="475" ht="15.75" spans="1:8">
       <c r="A475" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F475" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G475" s="6" t="s">
         <v>46</v>
@@ -14653,22 +14671,22 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E476" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F476" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G476" s="9" t="s">
         <v>56</v>
@@ -14677,22 +14695,22 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C477" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E477" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F477" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G477" s="9" t="s">
         <v>31</v>
@@ -14701,22 +14719,22 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>290</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E478" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F478" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G478" s="9" t="s">
         <v>58</v>
@@ -14725,22 +14743,22 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E479" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F479" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G479" s="6" t="s">
         <v>25</v>
@@ -14749,22 +14767,22 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F480" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G480" s="6" t="s">
         <v>25</v>
@@ -14782,7 +14800,7 @@
         <v>123</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E481" s="8" t="s">
         <v>71</v>
@@ -14797,7 +14815,7 @@
     </row>
     <row r="482" ht="26.25" spans="1:8">
       <c r="A482" s="8" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B482" s="8" t="s">
         <v>259</v>
@@ -14806,7 +14824,7 @@
         <v>123</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E482" s="8" t="s">
         <v>18</v>
@@ -14824,13 +14842,13 @@
         <v>260</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E483" s="8" t="s">
         <v>29</v>
@@ -14848,13 +14866,13 @@
         <v>262</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E484" s="4" t="s">
         <v>29</v>
@@ -14872,13 +14890,13 @@
         <v>265</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C485" s="8" t="s">
         <v>267</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E485" s="8" t="s">
         <v>41</v>
@@ -14896,13 +14914,13 @@
         <v>269</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>29</v>
@@ -14917,7 +14935,7 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B487" s="4" t="s">
         <v>266</v>
@@ -14926,13 +14944,13 @@
         <v>89</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E487" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F487" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G487" s="6" t="s">
         <v>25</v>
@@ -14941,22 +14959,22 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F488" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G488" s="6" t="s">
         <v>25</v>
@@ -14965,16 +14983,16 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E489" s="4" t="s">
         <v>41</v>
@@ -14992,13 +15010,13 @@
         <v>270</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E490" s="4" t="s">
         <v>41</v>
@@ -15016,13 +15034,13 @@
         <v>272</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>12</v>
@@ -15040,13 +15058,13 @@
         <v>275</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C492" s="8" t="s">
         <v>277</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E492" s="8" t="s">
         <v>41</v>
@@ -15064,13 +15082,13 @@
         <v>278</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>29</v>
@@ -15088,13 +15106,13 @@
         <v>279</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>280</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>29</v>
@@ -15112,13 +15130,13 @@
         <v>281</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E495" s="4" t="s">
         <v>71</v>
@@ -15136,13 +15154,13 @@
         <v>284</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C496" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E496" s="8" t="s">
         <v>41</v>
@@ -15157,16 +15175,16 @@
     </row>
     <row r="497" ht="26.25" spans="1:8">
       <c r="A497" s="4" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>12</v>
@@ -15181,16 +15199,16 @@
     </row>
     <row r="498" ht="26.25" spans="1:8">
       <c r="A498" s="4" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E498" s="4" t="s">
         <v>71</v>
@@ -15205,16 +15223,16 @@
     </row>
     <row r="499" ht="26.25" spans="1:8">
       <c r="A499" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C499" s="8" t="s">
         <v>255</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E499" s="8" t="s">
         <v>41</v>
@@ -15229,16 +15247,16 @@
     </row>
     <row r="500" ht="26.25" spans="1:8">
       <c r="A500" s="8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>654</v>
+        <v>290</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E500" s="8" t="s">
         <v>41</v>
@@ -15256,19 +15274,19 @@
         <v>291</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E501" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F501" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G501" s="9" t="s">
         <v>56</v>
@@ -15277,16 +15295,16 @@
     </row>
     <row r="502" ht="15.75" spans="1:8">
       <c r="A502" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E502" s="8" t="s">
         <v>12</v>
@@ -15301,16 +15319,16 @@
     </row>
     <row r="503" ht="15.75" spans="1:8">
       <c r="A503" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E503" s="8" t="s">
         <v>41</v>
@@ -15325,22 +15343,22 @@
     </row>
     <row r="504" ht="15.75" spans="1:8">
       <c r="A504" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E504" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G504" s="6" t="s">
         <v>63</v>
@@ -15349,22 +15367,22 @@
     </row>
     <row r="505" ht="15.75" spans="1:8">
       <c r="A505" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E505" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F505" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G505" s="6" t="s">
         <v>63</v>
@@ -15373,22 +15391,22 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E506" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G506" s="6" t="s">
         <v>91</v>
@@ -15397,16 +15415,16 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E507" s="4" t="s">
         <v>12</v>
@@ -15421,16 +15439,16 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E508" s="4" t="s">
         <v>18</v>
@@ -15445,16 +15463,16 @@
     </row>
     <row r="509" ht="15.75" spans="1:8">
       <c r="A509" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E509" s="4" t="s">
         <v>29</v>
@@ -15469,22 +15487,22 @@
     </row>
     <row r="510" ht="26.25" spans="1:8">
       <c r="A510" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E510" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F510" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G510" s="9" t="s">
         <v>58</v>
@@ -15493,22 +15511,22 @@
     </row>
     <row r="511" ht="15.75" spans="1:8">
       <c r="A511" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E511" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F511" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G511" s="6" t="s">
         <v>63</v>
@@ -15523,7 +15541,7 @@
         <v>263</v>
       </c>
       <c r="C512" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D512" s="12" t="s">
         <v>11</v>
@@ -15565,13 +15583,13 @@
     </row>
     <row r="514" ht="26.25" spans="1:8">
       <c r="A514" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B514" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B514" s="11" t="s">
-        <v>308</v>
-      </c>
       <c r="C514" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D514" s="12" t="s">
         <v>11</v>
@@ -15580,7 +15598,7 @@
         <v>12</v>
       </c>
       <c r="F514" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G514" s="13" t="s">
         <v>58</v>
@@ -15589,16 +15607,16 @@
     </row>
     <row r="515" ht="15.75" spans="1:8">
       <c r="A515" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B515" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B515" s="11" t="s">
-        <v>438</v>
-      </c>
       <c r="C515" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D515" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E515" s="11" t="s">
         <v>12</v>
@@ -15613,16 +15631,16 @@
     </row>
     <row r="516" ht="15.75" spans="1:8">
       <c r="A516" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B516" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C516" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D516" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E516" s="11" t="s">
         <v>12</v>
@@ -15635,18 +15653,18 @@
       </c>
       <c r="H516" s="14"/>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" ht="15.75" spans="1:8">
       <c r="A517" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B517" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C517" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D517" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E517" s="11" t="s">
         <v>41</v>
@@ -15661,16 +15679,16 @@
     </row>
     <row r="518" ht="15.75" spans="1:8">
       <c r="A518" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B518" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C518" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D518" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E518" s="11" t="s">
         <v>12</v>
@@ -15684,47 +15702,47 @@
       <c r="H518" s="14"/>
     </row>
     <row r="519" ht="15.75" spans="1:8">
-      <c r="A519" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B519" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C519" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="D519" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E519" s="11" t="s">
+      <c r="A519" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D519" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E519" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F519" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="G519" s="13" t="s">
+      <c r="F519" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G519" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H519" s="14"/>
+      <c r="H519" s="15"/>
     </row>
     <row r="520" ht="15.75" spans="1:8">
       <c r="A520" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B520" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C520" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D520" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E520" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F520" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G520" s="13" t="s">
         <v>101</v>
@@ -15733,16 +15751,16 @@
     </row>
     <row r="521" ht="15.75" spans="1:8">
       <c r="A521" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B521" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D521" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E521" s="11" t="s">
         <v>12</v>
@@ -15757,16 +15775,16 @@
     </row>
     <row r="522" ht="15.75" spans="1:8">
       <c r="A522" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B522" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C522" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D522" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E522" s="11" t="s">
         <v>12</v>
@@ -15779,18 +15797,18 @@
       </c>
       <c r="H522" s="14"/>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" ht="15.75" spans="1:8">
       <c r="A523" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B523" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E523" s="11" t="s">
         <v>41</v>
@@ -15805,16 +15823,16 @@
     </row>
     <row r="524" ht="15.75" spans="1:8">
       <c r="A524" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B524" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C524" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D524" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E524" s="11" t="s">
         <v>12</v>
@@ -15828,47 +15846,47 @@
       <c r="H524" s="14"/>
     </row>
     <row r="525" ht="15.75" spans="1:8">
-      <c r="A525" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B525" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="C525" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="D525" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="E525" s="11" t="s">
+      <c r="A525" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C525" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D525" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E525" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F525" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="G525" s="13" t="s">
+      <c r="F525" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G525" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H525" s="14"/>
+      <c r="H525" s="15"/>
     </row>
     <row r="526" ht="15.75" spans="1:8">
       <c r="A526" s="11" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B526" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C526" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D526" s="12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E526" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F526" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G526" s="13" t="s">
         <v>101</v>
@@ -15880,13 +15898,13 @@
         <v>262</v>
       </c>
       <c r="B527" s="11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E527" s="11" t="s">
         <v>29</v>
@@ -15904,13 +15922,13 @@
         <v>284</v>
       </c>
       <c r="B528" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C528" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D528" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E528" s="11" t="s">
         <v>41</v>
@@ -15925,16 +15943,16 @@
     </row>
     <row r="529" ht="15.75" spans="1:8">
       <c r="A529" s="11" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B529" s="11" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C529" s="11" t="s">
         <v>177</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E529" s="11" t="s">
         <v>12</v>
@@ -15949,31 +15967,319 @@
     </row>
     <row r="530" ht="26.25" spans="1:8">
       <c r="A530" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B530" s="11" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C530" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D530" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E530" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F530" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G530" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H530" s="14"/>
     </row>
+    <row r="531" ht="15.75" spans="1:8">
+      <c r="A531" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C531" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E531" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F531" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G531" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H531" s="19"/>
+    </row>
+    <row r="532" ht="15.75" spans="1:8">
+      <c r="A532" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B532" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C532" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D532" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E532" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F532" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G532" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H532" s="19"/>
+    </row>
+    <row r="533" ht="15.75" spans="1:8">
+      <c r="A533" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B533" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C533" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D533" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E533" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F533" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="G533" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H533" s="19"/>
+    </row>
+    <row r="534" ht="15.75" spans="1:8">
+      <c r="A534" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B534" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C534" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D534" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E534" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F534" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G534" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H534" s="19"/>
+    </row>
+    <row r="535" ht="15.75" spans="1:8">
+      <c r="A535" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B535" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C535" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D535" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E535" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F535" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G535" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H535" s="19"/>
+    </row>
+    <row r="536" ht="15.75" spans="1:8">
+      <c r="A536" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B536" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C536" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D536" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E536" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F536" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="G536" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H536" s="19"/>
+    </row>
+    <row r="537" ht="15.75" spans="1:8">
+      <c r="A537" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B537" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C537" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D537" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E537" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F537" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G537" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H537" s="19"/>
+    </row>
+    <row r="538" ht="26.25" spans="1:8">
+      <c r="A538" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B538" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C538" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D538" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E538" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F538" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G538" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H538" s="19"/>
+    </row>
+    <row r="539" ht="26.25" spans="1:8">
+      <c r="A539" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B539" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C539" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D539" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="E539" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F539" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G539" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H539" s="19"/>
+    </row>
+    <row r="540" ht="15.75" spans="1:8">
+      <c r="A540" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B540" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="C540" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="E540" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F540" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G540" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H540" s="19"/>
+    </row>
+    <row r="541" ht="15.75" spans="1:8">
+      <c r="A541" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B541" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C541" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D541" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E541" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F541" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G541" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H541" s="23"/>
+    </row>
+    <row r="542" ht="15.75" spans="1:8">
+      <c r="A542" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B542" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C542" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D542" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E542" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F542" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G542" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H542" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H530" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:H530">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H542" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:H542">
       <sortCondition ref="D1"/>
     </sortState>
     <extLst/>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="712">
   <si>
     <t>Enseignements</t>
   </si>
@@ -1980,9 +1980,6 @@
   </si>
   <si>
     <t>TP Thermodynamique (SG62)</t>
-  </si>
-  <si>
-    <t>Badis</t>
   </si>
   <si>
     <t>TP Thermodynamique (SG52)</t>
@@ -3245,7 +3242,7 @@
   <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3404,7 +3401,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="15.75" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3428,7 +3425,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="15.75" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -3452,7 +3449,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="15.75" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -3860,7 +3857,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" ht="15.75" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
@@ -3884,7 +3881,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" ht="15.75" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>110</v>
       </c>
@@ -3908,7 +3905,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" ht="15.75" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>113</v>
       </c>
@@ -4292,7 +4289,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" ht="15.75" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>158</v>
       </c>
@@ -4316,7 +4313,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" ht="15.75" spans="1:8">
       <c r="A45" s="8" t="s">
         <v>161</v>
       </c>
@@ -4340,7 +4337,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" ht="15.75" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>164</v>
       </c>
@@ -4364,7 +4361,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" ht="15.75" spans="1:8">
       <c r="A47" s="8" t="s">
         <v>166</v>
       </c>
@@ -4388,7 +4385,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" ht="15.75" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>167</v>
       </c>
@@ -4412,7 +4409,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" ht="15.75" spans="1:8">
       <c r="A49" s="8" t="s">
         <v>170</v>
       </c>
@@ -4436,7 +4433,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" ht="15.75" spans="1:8">
       <c r="A50" s="8" t="s">
         <v>173</v>
       </c>
@@ -4460,7 +4457,7 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" ht="15.75" spans="1:8">
       <c r="A51" s="8" t="s">
         <v>175</v>
       </c>
@@ -5780,7 +5777,7 @@
       </c>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" ht="15.75" spans="1:8">
       <c r="A106" s="8" t="s">
         <v>318</v>
       </c>
@@ -5804,7 +5801,7 @@
       </c>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" ht="15.75" spans="1:8">
       <c r="A107" s="8" t="s">
         <v>110</v>
       </c>
@@ -5828,7 +5825,7 @@
       </c>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" ht="15.75" spans="1:8">
       <c r="A108" s="8" t="s">
         <v>113</v>
       </c>
@@ -6236,7 +6233,7 @@
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" ht="15.75" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>329</v>
       </c>
@@ -6260,7 +6257,7 @@
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" ht="15.75" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>331</v>
       </c>
@@ -6476,7 +6473,7 @@
       </c>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" ht="15.75" spans="1:8">
       <c r="A135" s="8" t="s">
         <v>353</v>
       </c>
@@ -6500,7 +6497,7 @@
       </c>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" ht="15.75" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>355</v>
       </c>
@@ -6524,7 +6521,7 @@
       </c>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" ht="15.75" spans="1:8">
       <c r="A137" s="8" t="s">
         <v>357</v>
       </c>
@@ -6548,7 +6545,7 @@
       </c>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" ht="15.75" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>357</v>
       </c>
@@ -6572,7 +6569,7 @@
       </c>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" ht="15.75" spans="1:8">
       <c r="A139" s="8" t="s">
         <v>355</v>
       </c>
@@ -7004,7 +7001,7 @@
       </c>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" ht="15.75" spans="1:8">
       <c r="A157" s="8" t="s">
         <v>386</v>
       </c>
@@ -7028,7 +7025,7 @@
       </c>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" ht="15.75" spans="1:8">
       <c r="A158" s="8" t="s">
         <v>387</v>
       </c>
@@ -7052,7 +7049,7 @@
       </c>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" ht="15.75" spans="1:8">
       <c r="A159" s="8" t="s">
         <v>388</v>
       </c>
@@ -7820,7 +7817,7 @@
       </c>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" ht="15.75" spans="1:8">
       <c r="A191" s="8" t="s">
         <v>440</v>
       </c>
@@ -7844,7 +7841,7 @@
       </c>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" ht="15.75" spans="1:8">
       <c r="A192" s="4" t="s">
         <v>440</v>
       </c>
@@ -7964,7 +7961,7 @@
       </c>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" ht="15.75" spans="1:8">
       <c r="A197" s="4" t="s">
         <v>448</v>
       </c>
@@ -8540,7 +8537,7 @@
       </c>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" ht="15.75" spans="1:8">
       <c r="A221" s="8" t="s">
         <v>491</v>
       </c>
@@ -8564,7 +8561,7 @@
       </c>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" ht="15.75" spans="1:8">
       <c r="A222" s="8" t="s">
         <v>493</v>
       </c>
@@ -8667,7 +8664,7 @@
       <c r="B226" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D226" s="5" t="s">
@@ -8715,7 +8712,7 @@
       <c r="B228" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D228" s="5" t="s">
@@ -8900,7 +8897,7 @@
       </c>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" ht="15.75" spans="1:8">
       <c r="A236" s="8" t="s">
         <v>386</v>
       </c>
@@ -8924,7 +8921,7 @@
       </c>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" ht="15.75" spans="1:8">
       <c r="A237" s="8" t="s">
         <v>387</v>
       </c>
@@ -8948,7 +8945,7 @@
       </c>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" ht="15.75" spans="1:8">
       <c r="A238" s="8" t="s">
         <v>388</v>
       </c>
@@ -9308,7 +9305,7 @@
       </c>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" ht="15.75" spans="1:8">
       <c r="A253" s="4" t="s">
         <v>166</v>
       </c>
@@ -9332,7 +9329,7 @@
       </c>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" ht="15.75" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>524</v>
       </c>
@@ -9980,7 +9977,7 @@
       </c>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" ht="15.75" spans="1:8">
       <c r="A281" s="8" t="s">
         <v>440</v>
       </c>
@@ -10004,7 +10001,7 @@
       </c>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" ht="15.75" spans="1:8">
       <c r="A282" s="4" t="s">
         <v>440</v>
       </c>
@@ -10124,7 +10121,7 @@
       </c>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" ht="15.75" spans="1:8">
       <c r="A287" s="4" t="s">
         <v>448</v>
       </c>
@@ -10700,7 +10697,7 @@
       </c>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" ht="15.75" spans="1:8">
       <c r="A311" s="8" t="s">
         <v>493</v>
       </c>
@@ -10844,7 +10841,7 @@
       </c>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" ht="15.75" spans="1:8">
       <c r="A317" s="4" t="s">
         <v>87</v>
       </c>
@@ -10868,7 +10865,7 @@
       </c>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" ht="15.75" spans="1:8">
       <c r="A318" s="8" t="s">
         <v>312</v>
       </c>
@@ -10892,7 +10889,7 @@
       </c>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" ht="15.75" spans="1:8">
       <c r="A319" s="4" t="s">
         <v>549</v>
       </c>
@@ -11492,7 +11489,7 @@
       </c>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" ht="15.75" spans="1:8">
       <c r="A344" s="4" t="s">
         <v>585</v>
       </c>
@@ -11516,7 +11513,7 @@
       </c>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" ht="15.75" spans="1:8">
       <c r="A345" s="8" t="s">
         <v>38</v>
       </c>
@@ -11540,7 +11537,7 @@
       </c>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" ht="15.75" spans="1:8">
       <c r="A346" s="8" t="s">
         <v>587</v>
       </c>
@@ -11612,7 +11609,7 @@
       </c>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" ht="15.75" spans="1:8">
       <c r="A349" s="8" t="s">
         <v>42</v>
       </c>
@@ -11636,7 +11633,7 @@
       </c>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" ht="15.75" spans="1:8">
       <c r="A350" s="8" t="s">
         <v>592</v>
       </c>
@@ -11660,7 +11657,7 @@
       </c>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" ht="15.75" spans="1:8">
       <c r="A351" s="8" t="s">
         <v>594</v>
       </c>
@@ -11835,7 +11832,7 @@
       <c r="B358" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C358" s="8" t="s">
+      <c r="C358" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D358" s="10" t="s">
@@ -11852,7 +11849,7 @@
       </c>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" ht="15.75" spans="1:8">
       <c r="A359" s="8" t="s">
         <v>602</v>
       </c>
@@ -12428,7 +12425,7 @@
       </c>
       <c r="H382" s="7"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" ht="15.75" spans="1:8">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -12452,7 +12449,7 @@
       </c>
       <c r="H383" s="7"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" ht="15.75" spans="1:8">
       <c r="A384" s="8" t="s">
         <v>440</v>
       </c>
@@ -12476,7 +12473,7 @@
       </c>
       <c r="H384" s="7"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" ht="15.75" spans="1:8">
       <c r="A385" s="8" t="s">
         <v>440</v>
       </c>
@@ -12500,7 +12497,7 @@
       </c>
       <c r="H385" s="7"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" ht="15.75" spans="1:8">
       <c r="A386" s="8" t="s">
         <v>440</v>
       </c>
@@ -12524,7 +12521,7 @@
       </c>
       <c r="H386" s="7"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" ht="15.75" spans="1:8">
       <c r="A387" s="4" t="s">
         <v>629</v>
       </c>
@@ -12548,7 +12545,7 @@
       </c>
       <c r="H387" s="7"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" ht="15.75" spans="1:8">
       <c r="A388" s="4" t="s">
         <v>630</v>
       </c>
@@ -12867,8 +12864,8 @@
       <c r="B401" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C401" s="8" t="s">
-        <v>650</v>
+      <c r="C401" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D401" s="10" t="s">
         <v>548</v>
@@ -12886,12 +12883,12 @@
     </row>
     <row r="402" ht="15.75" spans="1:8">
       <c r="A402" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C402" s="8" t="s">
+      <c r="C402" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D402" s="10" t="s">
@@ -12908,18 +12905,18 @@
       </c>
       <c r="H402" s="7"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" ht="15.75" spans="1:8">
       <c r="A403" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>18</v>
@@ -12937,13 +12934,13 @@
         <v>85</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E404" s="4" t="s">
         <v>18</v>
@@ -12967,7 +12964,7 @@
         <v>114</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E405" s="8" t="s">
         <v>12</v>
@@ -12985,13 +12982,13 @@
         <v>124</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E406" s="8" t="s">
         <v>12</v>
@@ -13015,7 +13012,7 @@
         <v>131</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>41</v>
@@ -13033,13 +13030,13 @@
         <v>132</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E408" s="4" t="s">
         <v>18</v>
@@ -13063,7 +13060,7 @@
         <v>126</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>29</v>
@@ -13087,7 +13084,7 @@
         <v>23</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E410" s="8" t="s">
         <v>29</v>
@@ -13102,7 +13099,7 @@
     </row>
     <row r="411" ht="15.75" spans="1:8">
       <c r="A411" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>567</v>
@@ -13111,7 +13108,7 @@
         <v>149</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E411" s="8" t="s">
         <v>29</v>
@@ -13129,13 +13126,13 @@
         <v>155</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E412" s="8" t="s">
         <v>12</v>
@@ -13159,7 +13156,7 @@
         <v>126</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E413" s="4" t="s">
         <v>71</v>
@@ -13183,7 +13180,7 @@
         <v>126</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E414" s="8" t="s">
         <v>71</v>
@@ -13207,7 +13204,7 @@
         <v>126</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E415" s="4" t="s">
         <v>71</v>
@@ -13231,7 +13228,7 @@
         <v>126</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E416" s="8" t="s">
         <v>71</v>
@@ -13249,13 +13246,13 @@
         <v>158</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E417" s="8" t="s">
         <v>29</v>
@@ -13270,16 +13267,16 @@
     </row>
     <row r="418" ht="15.75" spans="1:8">
       <c r="A418" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B418" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="B418" s="8" t="s">
-        <v>660</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>289</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E418" s="8" t="s">
         <v>71</v>
@@ -13294,7 +13291,7 @@
     </row>
     <row r="419" ht="15.75" spans="1:8">
       <c r="A419" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>36</v>
@@ -13303,7 +13300,7 @@
         <v>37</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>29</v>
@@ -13327,7 +13324,7 @@
         <v>218</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E420" s="8" t="s">
         <v>12</v>
@@ -13342,16 +13339,16 @@
     </row>
     <row r="421" ht="15.75" spans="1:8">
       <c r="A421" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B421" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="B421" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>436</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E421" s="8" t="s">
         <v>18</v>
@@ -13369,13 +13366,13 @@
         <v>175</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E422" s="8" t="s">
         <v>29</v>
@@ -13393,13 +13390,13 @@
         <v>178</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E423" s="8" t="s">
         <v>12</v>
@@ -13423,7 +13420,7 @@
         <v>490</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E424" s="8" t="s">
         <v>29</v>
@@ -13436,7 +13433,7 @@
       </c>
       <c r="H424" s="7"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" ht="15.75" spans="1:8">
       <c r="A425" s="4" t="s">
         <v>600</v>
       </c>
@@ -13447,7 +13444,7 @@
         <v>330</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>29</v>
@@ -13460,18 +13457,18 @@
       </c>
       <c r="H425" s="7"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" ht="15.75" spans="1:8">
       <c r="A426" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E426" s="8" t="s">
         <v>18</v>
@@ -13489,13 +13486,13 @@
         <v>87</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D427" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E427" s="8" t="s">
         <v>12</v>
@@ -13510,7 +13507,7 @@
     </row>
     <row r="428" ht="15.75" spans="1:8">
       <c r="A428" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>103</v>
@@ -13519,7 +13516,7 @@
         <v>108</v>
       </c>
       <c r="D428" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E428" s="8" t="s">
         <v>41</v>
@@ -13543,7 +13540,7 @@
         <v>108</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E429" s="8" t="s">
         <v>71</v>
@@ -13567,7 +13564,7 @@
         <v>104</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E430" s="4" t="s">
         <v>18</v>
@@ -13585,13 +13582,13 @@
         <v>134</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E431" s="8" t="s">
         <v>41</v>
@@ -13609,13 +13606,13 @@
         <v>561</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>29</v>
@@ -13630,7 +13627,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>140</v>
@@ -13639,7 +13636,7 @@
         <v>141</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E433" s="8" t="s">
         <v>18</v>
@@ -13654,7 +13651,7 @@
     </row>
     <row r="434" ht="15.75" spans="1:8">
       <c r="A434" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>140</v>
@@ -13663,7 +13660,7 @@
         <v>374</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E434" s="4" t="s">
         <v>12</v>
@@ -13687,7 +13684,7 @@
         <v>141</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>12</v>
@@ -13705,13 +13702,13 @@
         <v>508</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>41</v>
@@ -13729,13 +13726,13 @@
         <v>144</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>18</v>
@@ -13759,7 +13756,7 @@
         <v>609</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E438" s="8" t="s">
         <v>18</v>
@@ -13783,7 +13780,7 @@
         <v>149</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E439" s="4" t="s">
         <v>41</v>
@@ -13796,7 +13793,7 @@
       </c>
       <c r="H439" s="7"/>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" ht="15.75" spans="1:8">
       <c r="A440" s="4" t="s">
         <v>164</v>
       </c>
@@ -13807,7 +13804,7 @@
         <v>165</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>18</v>
@@ -13820,7 +13817,7 @@
       </c>
       <c r="H440" s="7"/>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" ht="15.75" spans="1:8">
       <c r="A441" s="4" t="s">
         <v>161</v>
       </c>
@@ -13831,7 +13828,7 @@
         <v>163</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>18</v>
@@ -13849,13 +13846,13 @@
         <v>167</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E442" s="4" t="s">
         <v>12</v>
@@ -13873,13 +13870,13 @@
         <v>579</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E443" s="8" t="s">
         <v>18</v>
@@ -13897,13 +13894,13 @@
         <v>170</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E444" s="8" t="s">
         <v>12</v>
@@ -13916,7 +13913,7 @@
       </c>
       <c r="H444" s="7"/>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" ht="15.75" spans="1:8">
       <c r="A445" s="8" t="s">
         <v>398</v>
       </c>
@@ -13927,7 +13924,7 @@
         <v>40</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E445" s="8" t="s">
         <v>71</v>
@@ -13940,7 +13937,7 @@
       </c>
       <c r="H445" s="7"/>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" ht="15.75" spans="1:8">
       <c r="A446" s="4" t="s">
         <v>173</v>
       </c>
@@ -13951,7 +13948,7 @@
         <v>99</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>12</v>
@@ -13966,7 +13963,7 @@
     </row>
     <row r="447" ht="15.75" spans="1:8">
       <c r="A447" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>174</v>
@@ -13975,7 +13972,7 @@
         <v>99</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>41</v>
@@ -13993,13 +13990,13 @@
         <v>587</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>282</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E448" s="8" t="s">
         <v>18</v>
@@ -14017,13 +14014,13 @@
         <v>589</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D449" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>12</v>
@@ -14047,7 +14044,7 @@
         <v>54</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>41</v>
@@ -14071,7 +14068,7 @@
         <v>54</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E451" s="8" t="s">
         <v>18</v>
@@ -14095,7 +14092,7 @@
         <v>54</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E452" s="8" t="s">
         <v>29</v>
@@ -14113,13 +14110,13 @@
         <v>184</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>12</v>
@@ -14137,13 +14134,13 @@
         <v>59</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>617</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>41</v>
@@ -14161,13 +14158,13 @@
         <v>184</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E455" s="8" t="s">
         <v>12</v>
@@ -14185,13 +14182,13 @@
         <v>596</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C456" s="8" t="s">
         <v>496</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E456" s="8" t="s">
         <v>41</v>
@@ -14209,13 +14206,13 @@
         <v>64</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>29</v>
@@ -14239,7 +14236,7 @@
         <v>189</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E458" s="8" t="s">
         <v>71</v>
@@ -14263,7 +14260,7 @@
         <v>191</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E459" s="8" t="s">
         <v>18</v>
@@ -14278,7 +14275,7 @@
     </row>
     <row r="460" ht="15.75" spans="1:8">
       <c r="A460" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>197</v>
@@ -14287,7 +14284,7 @@
         <v>198</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E460" s="4" t="s">
         <v>12</v>
@@ -14311,7 +14308,7 @@
         <v>198</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>41</v>
@@ -14335,7 +14332,7 @@
         <v>93</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>29</v>
@@ -14353,13 +14350,13 @@
         <v>204</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>12</v>
@@ -14377,13 +14374,13 @@
         <v>207</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>18</v>
@@ -14401,13 +14398,13 @@
         <v>210</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E465" s="8" t="s">
         <v>29</v>
@@ -14425,13 +14422,13 @@
         <v>213</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>29</v>
@@ -14455,7 +14452,7 @@
         <v>218</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E467" s="4" t="s">
         <v>41</v>
@@ -14473,13 +14470,13 @@
         <v>220</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E468" s="4" t="s">
         <v>71</v>
@@ -14497,13 +14494,13 @@
         <v>224</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>41</v>
@@ -14527,7 +14524,7 @@
         <v>229</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E470" s="8" t="s">
         <v>41</v>
@@ -14551,7 +14548,7 @@
         <v>218</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E471" s="4" t="s">
         <v>29</v>
@@ -14575,7 +14572,7 @@
         <v>436</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>71</v>
@@ -14599,7 +14596,7 @@
         <v>352</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>71</v>
@@ -14612,18 +14609,18 @@
       </c>
       <c r="H473" s="7"/>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" ht="15.75" spans="1:8">
       <c r="A474" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>222</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E474" s="8" t="s">
         <v>41</v>
@@ -14647,7 +14644,7 @@
         <v>289</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>12</v>
@@ -14660,7 +14657,7 @@
       </c>
       <c r="H475" s="7"/>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" ht="15.75" spans="1:8">
       <c r="A476" s="8" t="s">
         <v>440</v>
       </c>
@@ -14671,7 +14668,7 @@
         <v>627</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E476" s="8" t="s">
         <v>71</v>
@@ -14684,7 +14681,7 @@
       </c>
       <c r="H476" s="7"/>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" ht="15.75" spans="1:8">
       <c r="A477" s="8" t="s">
         <v>440</v>
       </c>
@@ -14695,7 +14692,7 @@
         <v>131</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E477" s="8" t="s">
         <v>71</v>
@@ -14708,7 +14705,7 @@
       </c>
       <c r="H477" s="7"/>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" ht="15.75" spans="1:8">
       <c r="A478" s="8" t="s">
         <v>440</v>
       </c>
@@ -14719,7 +14716,7 @@
         <v>289</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E478" s="8" t="s">
         <v>41</v>
@@ -14732,7 +14729,7 @@
       </c>
       <c r="H478" s="7"/>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" ht="15.75" spans="1:8">
       <c r="A479" s="4" t="s">
         <v>629</v>
       </c>
@@ -14743,7 +14740,7 @@
         <v>163</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E479" s="4" t="s">
         <v>41</v>
@@ -14756,7 +14753,7 @@
       </c>
       <c r="H479" s="7"/>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" ht="15.75" spans="1:8">
       <c r="A480" s="4" t="s">
         <v>630</v>
       </c>
@@ -14767,7 +14764,7 @@
         <v>165</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>41</v>
@@ -14791,7 +14788,7 @@
         <v>123</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E481" s="8" t="s">
         <v>71</v>
@@ -14815,7 +14812,7 @@
         <v>123</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E482" s="8" t="s">
         <v>18</v>
@@ -14833,13 +14830,13 @@
         <v>259</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E483" s="8" t="s">
         <v>29</v>
@@ -14857,13 +14854,13 @@
         <v>261</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E484" s="4" t="s">
         <v>29</v>
@@ -14887,7 +14884,7 @@
         <v>266</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E485" s="8" t="s">
         <v>41</v>
@@ -14911,7 +14908,7 @@
         <v>146</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>29</v>
@@ -14935,7 +14932,7 @@
         <v>89</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E487" s="4" t="s">
         <v>71</v>
@@ -14959,7 +14956,7 @@
         <v>457</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>71</v>
@@ -14977,13 +14974,13 @@
         <v>636</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E489" s="4" t="s">
         <v>41</v>
@@ -15001,13 +14998,13 @@
         <v>269</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E490" s="4" t="s">
         <v>41</v>
@@ -15025,13 +15022,13 @@
         <v>271</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>12</v>
@@ -15055,7 +15052,7 @@
         <v>276</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E492" s="8" t="s">
         <v>41</v>
@@ -15079,7 +15076,7 @@
         <v>276</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>29</v>
@@ -15103,7 +15100,7 @@
         <v>279</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>29</v>
@@ -15121,13 +15118,13 @@
         <v>280</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E495" s="4" t="s">
         <v>71</v>
@@ -15145,13 +15142,13 @@
         <v>283</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C496" s="8" t="s">
         <v>282</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E496" s="8" t="s">
         <v>41</v>
@@ -15166,7 +15163,7 @@
     </row>
     <row r="497" ht="26.25" spans="1:8">
       <c r="A497" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B497" s="4" t="s">
         <v>639</v>
@@ -15175,7 +15172,7 @@
         <v>640</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>12</v>
@@ -15190,7 +15187,7 @@
     </row>
     <row r="498" ht="26.25" spans="1:8">
       <c r="A498" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B498" s="4" t="s">
         <v>639</v>
@@ -15199,7 +15196,7 @@
         <v>642</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E498" s="4" t="s">
         <v>71</v>
@@ -15223,7 +15220,7 @@
         <v>254</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E499" s="8" t="s">
         <v>41</v>
@@ -15247,7 +15244,7 @@
         <v>289</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E500" s="8" t="s">
         <v>41</v>
@@ -15265,13 +15262,13 @@
         <v>290</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C501" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E501" s="8" t="s">
         <v>41</v>
@@ -15286,16 +15283,16 @@
     </row>
     <row r="502" ht="15.75" spans="1:8">
       <c r="A502" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B502" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="B502" s="8" t="s">
+      <c r="C502" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="C502" s="8" t="s">
-        <v>705</v>
-      </c>
       <c r="D502" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E502" s="8" t="s">
         <v>12</v>
@@ -15313,13 +15310,13 @@
         <v>293</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E503" s="8" t="s">
         <v>41</v>
@@ -15343,7 +15340,7 @@
         <v>183</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E504" s="4" t="s">
         <v>12</v>
@@ -15367,7 +15364,7 @@
         <v>183</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E505" s="4" t="s">
         <v>18</v>
@@ -15391,7 +15388,7 @@
         <v>49</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E506" s="4" t="s">
         <v>41</v>
@@ -15415,7 +15412,7 @@
         <v>61</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E507" s="4" t="s">
         <v>12</v>
@@ -15439,7 +15436,7 @@
         <v>617</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E508" s="4" t="s">
         <v>18</v>
@@ -15457,13 +15454,13 @@
         <v>303</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E509" s="4" t="s">
         <v>29</v>
@@ -15481,13 +15478,13 @@
         <v>305</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>307</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E510" s="8" t="s">
         <v>12</v>
@@ -15511,7 +15508,7 @@
         <v>10</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E511" s="4" t="s">
         <v>71</v>
@@ -15532,7 +15529,7 @@
         <v>262</v>
       </c>
       <c r="C512" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D512" s="12" t="s">
         <v>11</v>
@@ -15604,7 +15601,7 @@
         <v>435</v>
       </c>
       <c r="C515" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D515" s="12" t="s">
         <v>333</v>
@@ -15723,7 +15720,7 @@
       <c r="B520" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C520" s="11" t="s">
+      <c r="C520" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D520" s="12" t="s">
@@ -15748,7 +15745,7 @@
         <v>536</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D521" s="12" t="s">
         <v>509</v>
@@ -15889,13 +15886,13 @@
         <v>261</v>
       </c>
       <c r="B527" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E527" s="11" t="s">
         <v>29</v>
@@ -15913,13 +15910,13 @@
         <v>283</v>
       </c>
       <c r="B528" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C528" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D528" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E528" s="11" t="s">
         <v>41</v>
@@ -15934,16 +15931,16 @@
     </row>
     <row r="529" ht="15.75" spans="1:8">
       <c r="A529" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B529" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="B529" s="11" t="s">
-        <v>704</v>
       </c>
       <c r="C529" s="11" t="s">
         <v>177</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E529" s="11" t="s">
         <v>12</v>
@@ -15961,13 +15958,13 @@
         <v>305</v>
       </c>
       <c r="B530" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C530" s="11" t="s">
         <v>472</v>
       </c>
       <c r="D530" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E530" s="11" t="s">
         <v>12</v>
@@ -16060,7 +16057,7 @@
         <v>498</v>
       </c>
       <c r="C534" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D534" s="17" t="s">
         <v>333</v>
@@ -16132,7 +16129,7 @@
         <v>546</v>
       </c>
       <c r="C537" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D537" s="17" t="s">
         <v>509</v>
@@ -16180,10 +16177,10 @@
         <v>328</v>
       </c>
       <c r="C539" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D539" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E539" s="16" t="s">
         <v>41</v>
@@ -16201,13 +16198,13 @@
         <v>290</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D540" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E540" s="16" t="s">
         <v>41</v>
@@ -16276,7 +16273,7 @@
         <v>233</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D543" s="5" t="s">
         <v>333</v>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Mers fichiers sourve à actualisés\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$543</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="752">
   <si>
     <t>Enseignements</t>
   </si>
@@ -1874,9 +1879,6 @@
     <t>KHATIR</t>
   </si>
   <si>
-    <t>Td-Système Asservis 2</t>
-  </si>
-  <si>
     <t>TD-SA2</t>
   </si>
   <si>
@@ -2280,19 +2282,22 @@
   </si>
   <si>
     <t>TURKI</t>
+  </si>
+  <si>
+    <t>TD-Régulation Industrielle</t>
+  </si>
+  <si>
+    <t>TD-Système Asservis 2</t>
+  </si>
+  <si>
+    <t>MILOUA.FETHI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2305,160 +2310,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2485,192 +2352,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2721,253 +2408,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3018,62 +2463,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgule" xfId="1" builtinId="3"/>
-    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
-    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
-    <cellStyle name="Milliers [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Monétaire [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Avertissement" xfId="9" builtinId="11"/>
-    <cellStyle name="Titre" xfId="10" builtinId="15"/>
-    <cellStyle name="CTexte explicatif" xfId="11" builtinId="53"/>
-    <cellStyle name="Titre 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Titre 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Titre 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrée" xfId="16" builtinId="20"/>
-    <cellStyle name="Sortie" xfId="17" builtinId="21"/>
-    <cellStyle name="Calcul" xfId="18" builtinId="22"/>
-    <cellStyle name="Vérification de cellule" xfId="19" builtinId="23"/>
-    <cellStyle name="Cellule liée" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Satisfaisant" xfId="22" builtinId="26"/>
-    <cellStyle name="Insatisfaisant" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutre" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20 % - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40 % - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60 % - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20 % - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40 % - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60 % - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20 % - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40 % - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60 % - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20 % - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40 % - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60 % - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20 % - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40 % - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60 % - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20 % - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40 % - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60 % - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3331,29 +2745,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F547" sqref="F547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.5714285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.4285714285714" style="1"/>
-    <col min="8" max="8" width="16.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +2794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:8">
+    <row r="2" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3403,7 +2818,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" ht="15.75" spans="1:8">
+    <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -3427,31 +2842,31 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" ht="15.75" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
+      <c r="D4" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" ht="15.75" spans="1:8">
+    <row r="5" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -3475,7 +2890,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" ht="15.75" spans="1:8">
+    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -3499,7 +2914,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" ht="15.75" spans="1:8">
+    <row r="7" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3523,7 +2938,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" ht="15.75" spans="1:8">
+    <row r="8" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -3547,7 +2962,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="15.75" spans="1:8">
+    <row r="9" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -3571,55 +2986,55 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" ht="15.75" spans="1:8">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" ht="15.75" spans="1:8">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" ht="15.75" spans="1:8">
+    <row r="12" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -3643,7 +3058,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" ht="15.75" spans="1:8">
+    <row r="13" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
@@ -3667,7 +3082,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -3691,7 +3106,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" ht="15.75" spans="1:8">
+    <row r="15" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -3715,7 +3130,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" ht="15.75" spans="1:8">
+    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -3739,7 +3154,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" ht="15.75" spans="1:8">
+    <row r="17" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
@@ -3763,7 +3178,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" ht="15.75" spans="1:8">
+    <row r="18" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
@@ -3787,7 +3202,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" ht="15.75" spans="1:8">
+    <row r="19" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
@@ -3811,7 +3226,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" ht="15.75" spans="1:8">
+    <row r="20" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -3835,7 +3250,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" ht="15.75" spans="1:8">
+    <row r="21" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -3859,7 +3274,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" ht="15.75" spans="1:8">
+    <row r="22" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="8" t="s">
         <v>90</v>
       </c>
@@ -3883,7 +3298,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" ht="15.75" spans="1:8">
+    <row r="23" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="8" t="s">
         <v>90</v>
       </c>
@@ -3907,7 +3322,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" ht="15.75" spans="1:8">
+    <row r="24" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="8" t="s">
         <v>100</v>
       </c>
@@ -3931,7 +3346,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" ht="15.75" spans="1:8">
+    <row r="25" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
@@ -3955,7 +3370,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" ht="15.75" spans="1:8">
+    <row r="26" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="8" t="s">
         <v>109</v>
       </c>
@@ -3979,7 +3394,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" ht="15.75" spans="1:8">
+    <row r="27" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -4003,7 +3418,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" ht="15.75" spans="1:8">
+    <row r="28" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>116</v>
       </c>
@@ -4027,7 +3442,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" ht="15.75" spans="1:8">
+    <row r="29" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>118</v>
       </c>
@@ -4051,7 +3466,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" ht="15.75" spans="1:8">
+    <row r="30" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A30" s="8" t="s">
         <v>122</v>
       </c>
@@ -4075,7 +3490,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" ht="15.75" spans="1:8">
+    <row r="31" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -4099,7 +3514,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" ht="15.75" spans="1:8">
+    <row r="32" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>127</v>
       </c>
@@ -4123,7 +3538,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" ht="15.75" spans="1:8">
+    <row r="33" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
@@ -4147,7 +3562,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" ht="15.75" spans="1:8">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>134</v>
       </c>
@@ -4171,7 +3586,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" ht="15.75" spans="1:8">
+    <row r="35" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>136</v>
       </c>
@@ -4195,7 +3610,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" ht="15.75" spans="1:8">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="4" t="s">
         <v>138</v>
       </c>
@@ -4219,7 +3634,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" ht="15.75" spans="1:8">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>141</v>
       </c>
@@ -4243,7 +3658,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" ht="15.75" spans="1:8">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>146</v>
       </c>
@@ -4267,7 +3682,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" ht="15.75" spans="1:8">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
@@ -4291,7 +3706,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" ht="15.75" spans="1:8">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="8" t="s">
         <v>150</v>
       </c>
@@ -4315,7 +3730,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" ht="15.75" spans="1:8">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="8" t="s">
         <v>153</v>
       </c>
@@ -4339,7 +3754,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" ht="15.75" spans="1:8">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="8" t="s">
         <v>156</v>
       </c>
@@ -4363,7 +3778,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" ht="15.75" spans="1:8">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="8" t="s">
         <v>158</v>
       </c>
@@ -4387,7 +3802,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" ht="15.75" spans="1:8">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="8" t="s">
         <v>161</v>
       </c>
@@ -4411,7 +3826,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" ht="15.75" spans="1:8">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="8" t="s">
         <v>164</v>
       </c>
@@ -4435,7 +3850,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" ht="15.75" spans="1:8">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="8" t="s">
         <v>167</v>
       </c>
@@ -4459,7 +3874,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" ht="15.75" spans="1:8">
+    <row r="47" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="8" t="s">
         <v>168</v>
       </c>
@@ -4483,7 +3898,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" ht="15.75" spans="1:8">
+    <row r="48" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A48" s="4" t="s">
         <v>169</v>
       </c>
@@ -4507,7 +3922,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" ht="15.75" spans="1:8">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="8" t="s">
         <v>172</v>
       </c>
@@ -4531,7 +3946,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" ht="15.75" spans="1:8">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="8" t="s">
         <v>175</v>
       </c>
@@ -4555,7 +3970,7 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" ht="15.75" spans="1:8">
+    <row r="51" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A51" s="8" t="s">
         <v>177</v>
       </c>
@@ -4579,7 +3994,7 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" ht="15.75" spans="1:8">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="8" t="s">
         <v>180</v>
       </c>
@@ -4603,7 +4018,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" ht="15.75" spans="1:8">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="8" t="s">
         <v>182</v>
       </c>
@@ -4627,7 +4042,7 @@
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" ht="15.75" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="8" t="s">
         <v>184</v>
       </c>
@@ -4651,7 +4066,7 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" ht="15.75" spans="1:8">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="8" t="s">
         <v>187</v>
       </c>
@@ -4675,7 +4090,7 @@
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" ht="15.75" spans="1:8">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="8" t="s">
         <v>190</v>
       </c>
@@ -4699,7 +4114,7 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" ht="15.75" spans="1:8">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="8" t="s">
         <v>193</v>
       </c>
@@ -4723,7 +4138,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" ht="15.75" spans="1:8">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="8" t="s">
         <v>195</v>
       </c>
@@ -4747,7 +4162,7 @@
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" ht="15.75" spans="1:8">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="8" t="s">
         <v>197</v>
       </c>
@@ -4771,7 +4186,7 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" ht="15.75" spans="1:8">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>200</v>
       </c>
@@ -4795,7 +4210,7 @@
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" ht="15.75" spans="1:8">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="8" t="s">
         <v>203</v>
       </c>
@@ -4819,7 +4234,7 @@
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" ht="15.75" spans="1:8">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="4" t="s">
         <v>205</v>
       </c>
@@ -4843,7 +4258,7 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" ht="15.75" spans="1:8">
+    <row r="63" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A63" s="4" t="s">
         <v>207</v>
       </c>
@@ -4867,7 +4282,7 @@
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" ht="26.25" spans="1:8">
+    <row r="64" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A64" s="4" t="s">
         <v>210</v>
       </c>
@@ -4891,7 +4306,7 @@
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" ht="26.25" spans="1:8">
+    <row r="65" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A65" s="8" t="s">
         <v>213</v>
       </c>
@@ -4915,7 +4330,7 @@
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" ht="15.75" spans="1:8">
+    <row r="66" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A66" s="4" t="s">
         <v>216</v>
       </c>
@@ -4939,7 +4354,7 @@
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" ht="15.75" spans="1:8">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="4" t="s">
         <v>219</v>
       </c>
@@ -4963,7 +4378,7 @@
       </c>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" ht="26.25" spans="1:8">
+    <row r="68" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A68" s="4" t="s">
         <v>223</v>
       </c>
@@ -4987,7 +4402,7 @@
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" ht="26.25" spans="1:8">
+    <row r="69" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A69" s="4" t="s">
         <v>227</v>
       </c>
@@ -5011,7 +4426,7 @@
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" ht="15.75" spans="1:8">
+    <row r="70" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A70" s="8" t="s">
         <v>230</v>
       </c>
@@ -5035,7 +4450,7 @@
       </c>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" ht="15.75" spans="1:8">
+    <row r="71" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
@@ -5059,7 +4474,7 @@
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" ht="15.75" spans="1:8">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>235</v>
       </c>
@@ -5083,7 +4498,7 @@
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" ht="15.75" spans="1:8">
+    <row r="73" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A73" s="4" t="s">
         <v>239</v>
       </c>
@@ -5107,7 +4522,7 @@
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" ht="15.75" spans="1:8">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="8" t="s">
         <v>241</v>
       </c>
@@ -5131,7 +4546,7 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" ht="15.75" spans="1:8">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="8" t="s">
         <v>243</v>
       </c>
@@ -5155,7 +4570,7 @@
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" ht="15.75" spans="1:8">
+    <row r="76" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="8" t="s">
         <v>246</v>
       </c>
@@ -5179,7 +4594,7 @@
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" ht="26.25" spans="1:8">
+    <row r="77" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A77" s="8" t="s">
         <v>249</v>
       </c>
@@ -5203,7 +4618,7 @@
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" ht="26.25" spans="1:8">
+    <row r="78" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A78" s="8" t="s">
         <v>252</v>
       </c>
@@ -5227,7 +4642,7 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" ht="26.25" spans="1:8">
+    <row r="79" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A79" s="8" t="s">
         <v>256</v>
       </c>
@@ -5251,7 +4666,7 @@
       </c>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" ht="26.25" spans="1:8">
+    <row r="80" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A80" s="8" t="s">
         <v>259</v>
       </c>
@@ -5275,7 +4690,7 @@
       </c>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" ht="26.25" spans="1:8">
+    <row r="81" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A81" s="8" t="s">
         <v>260</v>
       </c>
@@ -5299,7 +4714,7 @@
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" ht="15.75" spans="1:8">
+    <row r="82" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A82" s="8" t="s">
         <v>262</v>
       </c>
@@ -5323,7 +4738,7 @@
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" ht="15.75" spans="1:8">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>264</v>
       </c>
@@ -5347,7 +4762,7 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" ht="15.75" spans="1:8">
+    <row r="84" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A84" s="8" t="s">
         <v>267</v>
       </c>
@@ -5371,7 +4786,7 @@
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" ht="15.75" spans="1:8">
+    <row r="85" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A85" s="4" t="s">
         <v>271</v>
       </c>
@@ -5395,7 +4810,7 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" ht="15.75" spans="1:8">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="4" t="s">
         <v>272</v>
       </c>
@@ -5419,7 +4834,7 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" ht="15.75" spans="1:8">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="4" t="s">
         <v>274</v>
       </c>
@@ -5443,7 +4858,7 @@
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" ht="26.25" spans="1:8">
+    <row r="88" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A88" s="8" t="s">
         <v>277</v>
       </c>
@@ -5467,7 +4882,7 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" ht="26.25" spans="1:8">
+    <row r="89" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A89" s="4" t="s">
         <v>280</v>
       </c>
@@ -5491,7 +4906,7 @@
       </c>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" ht="26.25" spans="1:8">
+    <row r="90" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A90" s="4" t="s">
         <v>281</v>
       </c>
@@ -5515,7 +4930,7 @@
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" ht="26.25" spans="1:8">
+    <row r="91" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A91" s="4" t="s">
         <v>283</v>
       </c>
@@ -5539,7 +4954,7 @@
       </c>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" ht="15.75" spans="1:8">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="8" t="s">
         <v>286</v>
       </c>
@@ -5563,7 +4978,7 @@
       </c>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" ht="26.25" spans="1:8">
+    <row r="93" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A93" s="8" t="s">
         <v>288</v>
       </c>
@@ -5587,7 +5002,7 @@
       </c>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" ht="26.25" spans="1:8">
+    <row r="94" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A94" s="8" t="s">
         <v>290</v>
       </c>
@@ -5611,7 +5026,7 @@
       </c>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" ht="26.25" spans="1:8">
+    <row r="95" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A95" s="8" t="s">
         <v>291</v>
       </c>
@@ -5635,7 +5050,7 @@
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" ht="15.75" spans="1:8">
+    <row r="96" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="8" t="s">
         <v>293</v>
       </c>
@@ -5659,7 +5074,7 @@
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" ht="15.75" spans="1:8">
+    <row r="97" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A97" s="8" t="s">
         <v>296</v>
       </c>
@@ -5683,31 +5098,31 @@
       </c>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" ht="15.75" spans="1:8">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A98" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="22" t="s">
         <v>94</v>
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" ht="15.75" spans="1:8">
+    <row r="99" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="8" t="s">
         <v>300</v>
       </c>
@@ -5731,7 +5146,7 @@
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" ht="15.75" spans="1:8">
+    <row r="100" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A100" s="8" t="s">
         <v>303</v>
       </c>
@@ -5755,7 +5170,7 @@
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" ht="15.75" spans="1:8">
+    <row r="101" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A101" s="4" t="s">
         <v>305</v>
       </c>
@@ -5779,7 +5194,7 @@
       </c>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" ht="26.25" spans="1:8">
+    <row r="102" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A102" s="8" t="s">
         <v>307</v>
       </c>
@@ -5803,7 +5218,7 @@
       </c>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" ht="15.75" spans="1:8">
+    <row r="103" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A103" s="4" t="s">
         <v>311</v>
       </c>
@@ -5827,7 +5242,7 @@
       </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" ht="15.75" spans="1:8">
+    <row r="104" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A104" s="4" t="s">
         <v>314</v>
       </c>
@@ -5851,7 +5266,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" ht="15.75" spans="1:8">
+    <row r="105" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="4" t="s">
         <v>317</v>
       </c>
@@ -5875,7 +5290,7 @@
       </c>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" ht="15.75" spans="1:8">
+    <row r="106" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="8" t="s">
         <v>320</v>
       </c>
@@ -5899,7 +5314,7 @@
       </c>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" ht="15.75" spans="1:8">
+    <row r="107" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="8" t="s">
         <v>113</v>
       </c>
@@ -5923,7 +5338,7 @@
       </c>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" ht="15.75" spans="1:8">
+    <row r="108" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="8" t="s">
         <v>116</v>
       </c>
@@ -5947,7 +5362,7 @@
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" ht="15.75" spans="1:8">
+    <row r="109" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="8" t="s">
         <v>122</v>
       </c>
@@ -5971,7 +5386,7 @@
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" ht="15.75" spans="1:8">
+    <row r="110" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="8" t="s">
         <v>150</v>
       </c>
@@ -5995,7 +5410,7 @@
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" ht="15.75" spans="1:8">
+    <row r="111" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="8" t="s">
         <v>153</v>
       </c>
@@ -6019,7 +5434,7 @@
       </c>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" ht="15.75" spans="1:8">
+    <row r="112" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="8" t="s">
         <v>156</v>
       </c>
@@ -6043,7 +5458,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" ht="15.75" spans="1:8">
+    <row r="113" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A113" s="4" t="s">
         <v>324</v>
       </c>
@@ -6067,7 +5482,7 @@
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" ht="15.75" spans="1:8">
+    <row r="114" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A114" s="8" t="s">
         <v>193</v>
       </c>
@@ -6091,7 +5506,7 @@
       </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" ht="15.75" spans="1:8">
+    <row r="115" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A115" s="8" t="s">
         <v>195</v>
       </c>
@@ -6115,7 +5530,7 @@
       </c>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" ht="26.25" spans="1:8">
+    <row r="116" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A116" s="8" t="s">
         <v>327</v>
       </c>
@@ -6139,7 +5554,7 @@
       </c>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" ht="26.25" spans="1:8">
+    <row r="117" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A117" s="8" t="s">
         <v>252</v>
       </c>
@@ -6163,7 +5578,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" ht="26.25" spans="1:8">
+    <row r="118" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A118" s="8" t="s">
         <v>256</v>
       </c>
@@ -6187,7 +5602,7 @@
       </c>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" ht="26.25" spans="1:8">
+    <row r="119" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A119" s="8" t="s">
         <v>259</v>
       </c>
@@ -6211,7 +5626,7 @@
       </c>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" ht="26.25" spans="1:8">
+    <row r="120" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A120" s="8" t="s">
         <v>328</v>
       </c>
@@ -6235,7 +5650,7 @@
       </c>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" ht="26.25" spans="1:8">
+    <row r="121" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A121" s="8" t="s">
         <v>329</v>
       </c>
@@ -6259,7 +5674,7 @@
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" ht="26.25" spans="1:8">
+    <row r="122" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A122" s="8" t="s">
         <v>288</v>
       </c>
@@ -6283,7 +5698,7 @@
       </c>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" ht="26.25" spans="1:8">
+    <row r="123" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A123" s="8" t="s">
         <v>290</v>
       </c>
@@ -6307,7 +5722,7 @@
       </c>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" ht="26.25" spans="1:8">
+    <row r="124" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A124" s="8" t="s">
         <v>291</v>
       </c>
@@ -6331,7 +5746,7 @@
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" ht="15.75" spans="1:8">
+    <row r="125" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A125" s="4" t="s">
         <v>331</v>
       </c>
@@ -6355,7 +5770,7 @@
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" ht="15.75" spans="1:8">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="4" t="s">
         <v>333</v>
       </c>
@@ -6379,7 +5794,7 @@
       </c>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" ht="15.75" spans="1:8">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="8" t="s">
         <v>335</v>
       </c>
@@ -6403,7 +5818,7 @@
       </c>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" ht="15.75" spans="1:8">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="4" t="s">
         <v>337</v>
       </c>
@@ -6427,7 +5842,7 @@
       </c>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" ht="15.75" spans="1:8">
+    <row r="129" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="8" t="s">
         <v>339</v>
       </c>
@@ -6451,7 +5866,7 @@
       </c>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" ht="15.75" spans="1:8">
+    <row r="130" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A130" s="4" t="s">
         <v>342</v>
       </c>
@@ -6475,7 +5890,7 @@
       </c>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" ht="15.75" spans="1:8">
+    <row r="131" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A131" s="4" t="s">
         <v>344</v>
       </c>
@@ -6499,7 +5914,7 @@
       </c>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" ht="15.75" spans="1:8">
+    <row r="132" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="4" t="s">
         <v>346</v>
       </c>
@@ -6523,7 +5938,7 @@
       </c>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" ht="15.75" spans="1:8">
+    <row r="133" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="8" t="s">
         <v>349</v>
       </c>
@@ -6547,7 +5962,7 @@
       </c>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" ht="15.75" spans="1:8">
+    <row r="134" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="4" t="s">
         <v>351</v>
       </c>
@@ -6571,7 +5986,7 @@
       </c>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" ht="15.75" spans="1:8">
+    <row r="135" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="8" t="s">
         <v>354</v>
       </c>
@@ -6595,7 +6010,7 @@
       </c>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" ht="15.75" spans="1:8">
+    <row r="136" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="4" t="s">
         <v>356</v>
       </c>
@@ -6619,7 +6034,7 @@
       </c>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" ht="15.75" spans="1:8">
+    <row r="137" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="8" t="s">
         <v>358</v>
       </c>
@@ -6643,7 +6058,7 @@
       </c>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" ht="15.75" spans="1:8">
+    <row r="138" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="4" t="s">
         <v>358</v>
       </c>
@@ -6667,7 +6082,7 @@
       </c>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" ht="15.75" spans="1:8">
+    <row r="139" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="8" t="s">
         <v>356</v>
       </c>
@@ -6691,7 +6106,7 @@
       </c>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" ht="15.75" spans="1:8">
+    <row r="140" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
@@ -6715,7 +6130,7 @@
       </c>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" ht="15.75" spans="1:8">
+    <row r="141" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="4" t="s">
         <v>38</v>
       </c>
@@ -6739,7 +6154,7 @@
       </c>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" ht="15.75" spans="1:8">
+    <row r="142" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="4" t="s">
         <v>363</v>
       </c>
@@ -6763,7 +6178,7 @@
       </c>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" ht="15.75" spans="1:8">
+    <row r="143" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="8" t="s">
         <v>365</v>
       </c>
@@ -6787,7 +6202,7 @@
       </c>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" ht="15.75" spans="1:8">
+    <row r="144" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="4" t="s">
         <v>367</v>
       </c>
@@ -6811,7 +6226,7 @@
       </c>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" ht="15.75" spans="1:8">
+    <row r="145" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A145" s="4" t="s">
         <v>369</v>
       </c>
@@ -6835,7 +6250,7 @@
       </c>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" ht="15.75" spans="1:8">
+    <row r="146" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A146" s="8" t="s">
         <v>371</v>
       </c>
@@ -6859,7 +6274,7 @@
       </c>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" ht="15.75" spans="1:8">
+    <row r="147" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A147" s="8" t="s">
         <v>373</v>
       </c>
@@ -6883,7 +6298,7 @@
       </c>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" ht="15.75" spans="1:8">
+    <row r="148" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A148" s="4" t="s">
         <v>373</v>
       </c>
@@ -6907,7 +6322,7 @@
       </c>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" ht="15.75" spans="1:8">
+    <row r="149" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A149" s="8" t="s">
         <v>377</v>
       </c>
@@ -6931,7 +6346,7 @@
       </c>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" ht="15.75" spans="1:8">
+    <row r="150" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A150" s="4" t="s">
         <v>377</v>
       </c>
@@ -6955,7 +6370,7 @@
       </c>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" ht="15.75" spans="1:8">
+    <row r="151" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A151" s="4" t="s">
         <v>378</v>
       </c>
@@ -6979,7 +6394,7 @@
       </c>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" ht="15.75" spans="1:8">
+    <row r="152" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A152" s="4" t="s">
         <v>381</v>
       </c>
@@ -7003,7 +6418,7 @@
       </c>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" ht="15.75" spans="1:8">
+    <row r="153" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A153" s="8" t="s">
         <v>381</v>
       </c>
@@ -7027,7 +6442,7 @@
       </c>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" ht="15.75" spans="1:8">
+    <row r="154" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A154" s="8" t="s">
         <v>384</v>
       </c>
@@ -7051,7 +6466,7 @@
       </c>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" ht="15.75" spans="1:8">
+    <row r="155" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A155" s="8" t="s">
         <v>385</v>
       </c>
@@ -7075,7 +6490,7 @@
       </c>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" ht="15.75" spans="1:8">
+    <row r="156" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A156" s="4" t="s">
         <v>386</v>
       </c>
@@ -7099,7 +6514,7 @@
       </c>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" ht="15.75" spans="1:8">
+    <row r="157" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="8" t="s">
         <v>388</v>
       </c>
@@ -7123,7 +6538,7 @@
       </c>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" ht="15.75" spans="1:8">
+    <row r="158" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="8" t="s">
         <v>389</v>
       </c>
@@ -7147,7 +6562,7 @@
       </c>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" ht="15.75" spans="1:8">
+    <row r="159" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="8" t="s">
         <v>390</v>
       </c>
@@ -7171,7 +6586,7 @@
       </c>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" ht="15.75" spans="1:8">
+    <row r="160" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A160" s="4" t="s">
         <v>392</v>
       </c>
@@ -7195,7 +6610,7 @@
       </c>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" ht="15.75" spans="1:8">
+    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A161" s="4" t="s">
         <v>141</v>
       </c>
@@ -7219,7 +6634,7 @@
       </c>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" ht="15.75" spans="1:8">
+    <row r="162" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A162" s="4" t="s">
         <v>394</v>
       </c>
@@ -7243,7 +6658,7 @@
       </c>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" ht="15.75" spans="1:8">
+    <row r="163" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A163" s="8" t="s">
         <v>395</v>
       </c>
@@ -7267,7 +6682,7 @@
       </c>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" ht="15.75" spans="1:8">
+    <row r="164" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A164" s="8" t="s">
         <v>396</v>
       </c>
@@ -7291,7 +6706,7 @@
       </c>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" ht="15.75" spans="1:8">
+    <row r="165" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A165" s="8" t="s">
         <v>397</v>
       </c>
@@ -7315,7 +6730,7 @@
       </c>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" ht="15.75" spans="1:8">
+    <row r="166" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A166" s="8" t="s">
         <v>398</v>
       </c>
@@ -7339,7 +6754,7 @@
       </c>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" ht="15.75" spans="1:8">
+    <row r="167" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A167" s="4" t="s">
         <v>400</v>
       </c>
@@ -7363,7 +6778,7 @@
       </c>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" ht="15.75" spans="1:8">
+    <row r="168" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A168" s="8" t="s">
         <v>401</v>
       </c>
@@ -7387,7 +6802,7 @@
       </c>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" ht="15.75" spans="1:8">
+    <row r="169" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A169" s="8" t="s">
         <v>402</v>
       </c>
@@ -7411,7 +6826,7 @@
       </c>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" ht="15.75" spans="1:8">
+    <row r="170" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A170" s="8" t="s">
         <v>405</v>
       </c>
@@ -7435,7 +6850,7 @@
       </c>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" ht="15.75" spans="1:8">
+    <row r="171" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A171" s="8" t="s">
         <v>406</v>
       </c>
@@ -7459,7 +6874,7 @@
       </c>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" ht="15.75" spans="1:8">
+    <row r="172" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A172" s="4" t="s">
         <v>408</v>
       </c>
@@ -7483,7 +6898,7 @@
       </c>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" ht="15.75" spans="1:8">
+    <row r="173" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A173" s="4" t="s">
         <v>409</v>
       </c>
@@ -7507,7 +6922,7 @@
       </c>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" ht="15.75" spans="1:8">
+    <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A174" s="4" t="s">
         <v>411</v>
       </c>
@@ -7531,7 +6946,7 @@
       </c>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" ht="15.75" spans="1:8">
+    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A175" s="8" t="s">
         <v>412</v>
       </c>
@@ -7555,7 +6970,7 @@
       </c>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" ht="15.75" spans="1:8">
+    <row r="176" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A176" s="8" t="s">
         <v>415</v>
       </c>
@@ -7579,7 +6994,7 @@
       </c>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" ht="15.75" spans="1:8">
+    <row r="177" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A177" s="8" t="s">
         <v>417</v>
       </c>
@@ -7603,55 +7018,55 @@
       </c>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" ht="15.75" spans="1:8">
+    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="8" t="s">
-        <v>419</v>
+        <v>684</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>418</v>
+        <v>685</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="G178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A179" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G179" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H178" s="7"/>
-    </row>
-    <row r="179" ht="15.75" spans="1:8">
-      <c r="A179" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H179" s="7"/>
-    </row>
-    <row r="180" ht="15.75" spans="1:8">
+      <c r="H179" s="23"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A180" s="4" t="s">
         <v>422</v>
       </c>
@@ -7675,7 +7090,7 @@
       </c>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" ht="15.75" spans="1:8">
+    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A181" s="8" t="s">
         <v>423</v>
       </c>
@@ -7699,7 +7114,7 @@
       </c>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" ht="15.75" spans="1:8">
+    <row r="182" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A182" s="8" t="s">
         <v>426</v>
       </c>
@@ -7723,7 +7138,7 @@
       </c>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" ht="15.75" spans="1:8">
+    <row r="183" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A183" s="8" t="s">
         <v>428</v>
       </c>
@@ -7747,7 +7162,7 @@
       </c>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" ht="15.75" spans="1:8">
+    <row r="184" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A184" s="4" t="s">
         <v>430</v>
       </c>
@@ -7771,7 +7186,7 @@
       </c>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" ht="15.75" spans="1:8">
+    <row r="185" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A185" s="8" t="s">
         <v>431</v>
       </c>
@@ -7795,7 +7210,7 @@
       </c>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" ht="15.75" spans="1:8">
+    <row r="186" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A186" s="8" t="s">
         <v>433</v>
       </c>
@@ -7819,7 +7234,7 @@
       </c>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" ht="15.75" spans="1:8">
+    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A187" s="8" t="s">
         <v>434</v>
       </c>
@@ -7843,7 +7258,7 @@
       </c>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" ht="15.75" spans="1:8">
+    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A188" s="8" t="s">
         <v>435</v>
       </c>
@@ -7867,7 +7282,7 @@
       </c>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" ht="15.75" spans="1:8">
+    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A189" s="8" t="s">
         <v>437</v>
       </c>
@@ -7891,7 +7306,7 @@
       </c>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" ht="15.75" spans="1:8">
+    <row r="190" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A190" s="8" t="s">
         <v>440</v>
       </c>
@@ -7915,7 +7330,7 @@
       </c>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" ht="15.75" spans="1:8">
+    <row r="191" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A191" s="8" t="s">
         <v>443</v>
       </c>
@@ -7939,7 +7354,7 @@
       </c>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" ht="15.75" spans="1:8">
+    <row r="192" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A192" s="4" t="s">
         <v>443</v>
       </c>
@@ -7963,7 +7378,7 @@
       </c>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" ht="15.75" spans="1:8">
+    <row r="193" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A193" s="8" t="s">
         <v>446</v>
       </c>
@@ -7987,7 +7402,7 @@
       </c>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" ht="15.75" spans="1:8">
+    <row r="194" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A194" s="8" t="s">
         <v>448</v>
       </c>
@@ -8011,7 +7426,7 @@
       </c>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" ht="15.75" spans="1:8">
+    <row r="195" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A195" s="8" t="s">
         <v>449</v>
       </c>
@@ -8035,7 +7450,7 @@
       </c>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" ht="15.75" spans="1:8">
+    <row r="196" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A196" s="4" t="s">
         <v>450</v>
       </c>
@@ -8059,7 +7474,7 @@
       </c>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" ht="15.75" spans="1:8">
+    <row r="197" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A197" s="4" t="s">
         <v>451</v>
       </c>
@@ -8083,7 +7498,7 @@
       </c>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" ht="26.25" spans="1:8">
+    <row r="198" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A198" s="8" t="s">
         <v>453</v>
       </c>
@@ -8107,7 +7522,7 @@
       </c>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" ht="26.25" spans="1:8">
+    <row r="199" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A199" s="4" t="s">
         <v>454</v>
       </c>
@@ -8131,7 +7546,7 @@
       </c>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" ht="15.75" spans="1:8">
+    <row r="200" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A200" s="8" t="s">
         <v>456</v>
       </c>
@@ -8155,7 +7570,7 @@
       </c>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" ht="15.75" spans="1:8">
+    <row r="201" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A201" s="8" t="s">
         <v>458</v>
       </c>
@@ -8179,7 +7594,7 @@
       </c>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" ht="15.75" spans="1:8">
+    <row r="202" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A202" s="4" t="s">
         <v>459</v>
       </c>
@@ -8203,7 +7618,7 @@
       </c>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" ht="15.75" spans="1:8">
+    <row r="203" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A203" s="8" t="s">
         <v>461</v>
       </c>
@@ -8227,7 +7642,7 @@
       </c>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" ht="15.75" spans="1:8">
+    <row r="204" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A204" s="8" t="s">
         <v>463</v>
       </c>
@@ -8251,7 +7666,7 @@
       </c>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" ht="26.25" spans="1:8">
+    <row r="205" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A205" s="8" t="s">
         <v>464</v>
       </c>
@@ -8275,7 +7690,7 @@
       </c>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" ht="26.25" spans="1:8">
+    <row r="206" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A206" s="8" t="s">
         <v>467</v>
       </c>
@@ -8299,7 +7714,7 @@
       </c>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" ht="26.25" spans="1:8">
+    <row r="207" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A207" s="4" t="s">
         <v>468</v>
       </c>
@@ -8323,7 +7738,7 @@
       </c>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" ht="26.25" spans="1:8">
+    <row r="208" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A208" s="4" t="s">
         <v>470</v>
       </c>
@@ -8347,7 +7762,7 @@
       </c>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" ht="15.75" spans="1:8">
+    <row r="209" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A209" s="8" t="s">
         <v>471</v>
       </c>
@@ -8371,7 +7786,7 @@
       </c>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" ht="26.25" spans="1:8">
+    <row r="210" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A210" s="8" t="s">
         <v>473</v>
       </c>
@@ -8395,7 +7810,7 @@
       </c>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" ht="15.75" spans="1:8">
+    <row r="211" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A211" s="8" t="s">
         <v>477</v>
       </c>
@@ -8419,7 +7834,7 @@
       </c>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" ht="15.75" spans="1:8">
+    <row r="212" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A212" s="8" t="s">
         <v>479</v>
       </c>
@@ -8443,7 +7858,7 @@
       </c>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" ht="15.75" spans="1:8">
+    <row r="213" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A213" s="8" t="s">
         <v>481</v>
       </c>
@@ -8467,7 +7882,7 @@
       </c>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" ht="15.75" spans="1:8">
+    <row r="214" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A214" s="8" t="s">
         <v>482</v>
       </c>
@@ -8491,7 +7906,7 @@
       </c>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" ht="15.75" spans="1:8">
+    <row r="215" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A215" s="8" t="s">
         <v>484</v>
       </c>
@@ -8515,7 +7930,7 @@
       </c>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" ht="15.75" spans="1:8">
+    <row r="216" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A216" s="4" t="s">
         <v>486</v>
       </c>
@@ -8539,7 +7954,7 @@
       </c>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" ht="15.75" spans="1:8">
+    <row r="217" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A217" s="4" t="s">
         <v>487</v>
       </c>
@@ -8563,7 +7978,7 @@
       </c>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" ht="26.25" spans="1:8">
+    <row r="218" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A218" s="8" t="s">
         <v>488</v>
       </c>
@@ -8587,7 +8002,7 @@
       </c>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" ht="26.25" spans="1:8">
+    <row r="219" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A219" s="8" t="s">
         <v>489</v>
       </c>
@@ -8611,7 +8026,7 @@
       </c>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" ht="15.75" spans="1:8">
+    <row r="220" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A220" s="8" t="s">
         <v>491</v>
       </c>
@@ -8635,7 +8050,7 @@
       </c>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" ht="15.75" spans="1:8">
+    <row r="221" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A221" s="8" t="s">
         <v>494</v>
       </c>
@@ -8659,7 +8074,7 @@
       </c>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" ht="15.75" spans="1:8">
+    <row r="222" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A222" s="8" t="s">
         <v>496</v>
       </c>
@@ -8683,31 +8098,31 @@
       </c>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" ht="15.75" spans="1:8">
-      <c r="A223" s="8" t="s">
+    <row r="223" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A223" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D223" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F223" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G223" s="9" t="s">
+      <c r="G223" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" ht="15.75" spans="1:8">
+    <row r="224" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A224" s="4" t="s">
         <v>499</v>
       </c>
@@ -8731,7 +8146,7 @@
       </c>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" ht="15.75" spans="1:8">
+    <row r="225" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A225" s="4" t="s">
         <v>501</v>
       </c>
@@ -8755,7 +8170,7 @@
       </c>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" ht="15.75" spans="1:8">
+    <row r="226" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A226" s="8" t="s">
         <v>502</v>
       </c>
@@ -8779,7 +8194,7 @@
       </c>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" ht="15.75" spans="1:8">
+    <row r="227" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A227" s="8" t="s">
         <v>503</v>
       </c>
@@ -8803,7 +8218,7 @@
       </c>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" ht="15.75" spans="1:8">
+    <row r="228" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A228" s="8" t="s">
         <v>504</v>
       </c>
@@ -8827,7 +8242,7 @@
       </c>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" ht="15.75" spans="1:8">
+    <row r="229" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A229" s="8" t="s">
         <v>505</v>
       </c>
@@ -8851,7 +8266,7 @@
       </c>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" ht="15.75" spans="1:8">
+    <row r="230" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A230" s="4" t="s">
         <v>311</v>
       </c>
@@ -8875,7 +8290,7 @@
       </c>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" ht="15.75" spans="1:8">
+    <row r="231" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A231" s="8" t="s">
         <v>311</v>
       </c>
@@ -8899,31 +8314,31 @@
       </c>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" ht="15.75" spans="1:8">
-      <c r="A232" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C232" s="4" t="s">
+    <row r="232" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A232" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C232" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>25</v>
+        <v>560</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" ht="15.75" spans="1:8">
+    <row r="233" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A233" s="4" t="s">
         <v>381</v>
       </c>
@@ -8947,7 +8362,7 @@
       </c>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" ht="15.75" spans="1:8">
+    <row r="234" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A234" s="8" t="s">
         <v>381</v>
       </c>
@@ -8971,7 +8386,7 @@
       </c>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" ht="15.75" spans="1:8">
+    <row r="235" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A235" s="8" t="s">
         <v>511</v>
       </c>
@@ -8995,7 +8410,7 @@
       </c>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" ht="15.75" spans="1:8">
+    <row r="236" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A236" s="8" t="s">
         <v>388</v>
       </c>
@@ -9019,7 +8434,7 @@
       </c>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" ht="15.75" spans="1:8">
+    <row r="237" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A237" s="8" t="s">
         <v>389</v>
       </c>
@@ -9043,7 +8458,7 @@
       </c>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" ht="15.75" spans="1:8">
+    <row r="238" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A238" s="8" t="s">
         <v>390</v>
       </c>
@@ -9067,7 +8482,7 @@
       </c>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" ht="15.75" spans="1:8">
+    <row r="239" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A239" s="4" t="s">
         <v>513</v>
       </c>
@@ -9091,7 +8506,7 @@
       </c>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" ht="15.75" spans="1:8">
+    <row r="240" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A240" s="8" t="s">
         <v>515</v>
       </c>
@@ -9115,7 +8530,7 @@
       </c>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" ht="15.75" spans="1:8">
+    <row r="241" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A241" s="4" t="s">
         <v>517</v>
       </c>
@@ -9139,7 +8554,7 @@
       </c>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" ht="15.75" spans="1:8">
+    <row r="242" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A242" s="8" t="s">
         <v>519</v>
       </c>
@@ -9163,7 +8578,7 @@
       </c>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" ht="15.75" spans="1:8">
+    <row r="243" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A243" s="4" t="s">
         <v>521</v>
       </c>
@@ -9187,7 +8602,7 @@
       </c>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" ht="15.75" spans="1:8">
+    <row r="244" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A244" s="4" t="s">
         <v>523</v>
       </c>
@@ -9211,7 +8626,7 @@
       </c>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" ht="15.75" spans="1:8">
+    <row r="245" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A245" s="4" t="s">
         <v>524</v>
       </c>
@@ -9235,7 +8650,7 @@
       </c>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" ht="15.75" spans="1:8">
+    <row r="246" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A246" s="8" t="s">
         <v>395</v>
       </c>
@@ -9259,7 +8674,7 @@
       </c>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" ht="15.75" spans="1:8">
+    <row r="247" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A247" s="8" t="s">
         <v>396</v>
       </c>
@@ -9283,7 +8698,7 @@
       </c>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" ht="15.75" spans="1:8">
+    <row r="248" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A248" s="8" t="s">
         <v>397</v>
       </c>
@@ -9307,7 +8722,7 @@
       </c>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" ht="15.75" spans="1:8">
+    <row r="249" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A249" s="8" t="s">
         <v>398</v>
       </c>
@@ -9331,7 +8746,7 @@
       </c>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" ht="15.75" spans="1:8">
+    <row r="250" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A250" s="4" t="s">
         <v>527</v>
       </c>
@@ -9355,7 +8770,7 @@
       </c>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" ht="15.75" spans="1:8">
+    <row r="251" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A251" s="8" t="s">
         <v>529</v>
       </c>
@@ -9379,7 +8794,7 @@
       </c>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" ht="15.75" spans="1:8">
+    <row r="252" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A252" s="8" t="s">
         <v>531</v>
       </c>
@@ -9403,7 +8818,7 @@
       </c>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" ht="15.75" spans="1:8">
+    <row r="253" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A253" s="4" t="s">
         <v>168</v>
       </c>
@@ -9427,7 +8842,7 @@
       </c>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" ht="15.75" spans="1:8">
+    <row r="254" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A254" s="4" t="s">
         <v>533</v>
       </c>
@@ -9451,7 +8866,7 @@
       </c>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" ht="15.75" spans="1:8">
+    <row r="255" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A255" s="4" t="s">
         <v>534</v>
       </c>
@@ -9475,7 +8890,7 @@
       </c>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" ht="15.75" spans="1:8">
+    <row r="256" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A256" s="4" t="s">
         <v>536</v>
       </c>
@@ -9499,7 +8914,7 @@
       </c>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" ht="15.75" spans="1:8">
+    <row r="257" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A257" s="8" t="s">
         <v>537</v>
       </c>
@@ -9523,7 +8938,7 @@
       </c>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" ht="15.75" spans="1:8">
+    <row r="258" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A258" s="4" t="s">
         <v>539</v>
       </c>
@@ -9547,7 +8962,7 @@
       </c>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" ht="15.75" spans="1:8">
+    <row r="259" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A259" s="4" t="s">
         <v>541</v>
       </c>
@@ -9571,7 +8986,7 @@
       </c>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" ht="15.75" spans="1:8">
+    <row r="260" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A260" s="8" t="s">
         <v>401</v>
       </c>
@@ -9595,7 +9010,7 @@
       </c>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" ht="15.75" spans="1:8">
+    <row r="261" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A261" s="8" t="s">
         <v>402</v>
       </c>
@@ -9619,7 +9034,7 @@
       </c>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" ht="15.75" spans="1:8">
+    <row r="262" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A262" s="8" t="s">
         <v>405</v>
       </c>
@@ -9643,7 +9058,7 @@
       </c>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" ht="15.75" spans="1:8">
+    <row r="263" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A263" s="8" t="s">
         <v>406</v>
       </c>
@@ -9667,7 +9082,7 @@
       </c>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" ht="15.75" spans="1:8">
+    <row r="264" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A264" s="4" t="s">
         <v>545</v>
       </c>
@@ -9691,7 +9106,7 @@
       </c>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" ht="15.75" spans="1:8">
+    <row r="265" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A265" s="8" t="s">
         <v>546</v>
       </c>
@@ -9715,7 +9130,7 @@
       </c>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" ht="15.75" spans="1:8">
+    <row r="266" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A266" s="4" t="s">
         <v>203</v>
       </c>
@@ -9739,7 +9154,7 @@
       </c>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" ht="15.75" spans="1:8">
+    <row r="267" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A267" s="4" t="s">
         <v>409</v>
       </c>
@@ -9763,7 +9178,7 @@
       </c>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" ht="15.75" spans="1:8">
+    <row r="268" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A268" s="4" t="s">
         <v>411</v>
       </c>
@@ -9787,7 +9202,7 @@
       </c>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" ht="15.75" spans="1:8">
+    <row r="269" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A269" s="8" t="s">
         <v>412</v>
       </c>
@@ -9811,7 +9226,7 @@
       </c>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" ht="15.75" spans="1:8">
+    <row r="270" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A270" s="8" t="s">
         <v>415</v>
       </c>
@@ -9835,7 +9250,7 @@
       </c>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" ht="15.75" spans="1:8">
+    <row r="271" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A271" s="8" t="s">
         <v>417</v>
       </c>
@@ -9859,55 +9274,55 @@
       </c>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" ht="15.75" spans="1:8">
-      <c r="A272" s="8" t="s">
+    <row r="272" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A272" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="G272" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H272" s="23"/>
+    </row>
+    <row r="273" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A273" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B273" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C273" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D272" s="5" t="s">
+      <c r="D273" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E272" s="8" t="s">
+      <c r="E273" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F272" s="8" t="s">
+      <c r="F273" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="G272" s="9" t="s">
+      <c r="G273" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H272" s="7"/>
-    </row>
-    <row r="273" ht="15.75" spans="1:8">
-      <c r="A273" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F273" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G273" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H273" s="7"/>
-    </row>
-    <row r="274" ht="15.75" spans="1:8">
+      <c r="H273" s="23"/>
+    </row>
+    <row r="274" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A274" s="4" t="s">
         <v>422</v>
       </c>
@@ -9931,7 +9346,7 @@
       </c>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" ht="15.75" spans="1:8">
+    <row r="275" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A275" s="8" t="s">
         <v>423</v>
       </c>
@@ -9955,7 +9370,7 @@
       </c>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" ht="15.75" spans="1:8">
+    <row r="276" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A276" s="8" t="s">
         <v>426</v>
       </c>
@@ -9979,7 +9394,7 @@
       </c>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" ht="15.75" spans="1:8">
+    <row r="277" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A277" s="8" t="s">
         <v>428</v>
       </c>
@@ -10003,7 +9418,7 @@
       </c>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" ht="15.75" spans="1:8">
+    <row r="278" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A278" s="4" t="s">
         <v>430</v>
       </c>
@@ -10027,7 +9442,7 @@
       </c>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" ht="15.75" spans="1:8">
+    <row r="279" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A279" s="8" t="s">
         <v>437</v>
       </c>
@@ -10051,7 +9466,7 @@
       </c>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" ht="15.75" spans="1:8">
+    <row r="280" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A280" s="8" t="s">
         <v>440</v>
       </c>
@@ -10075,7 +9490,7 @@
       </c>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" ht="15.75" spans="1:8">
+    <row r="281" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A281" s="8" t="s">
         <v>443</v>
       </c>
@@ -10099,7 +9514,7 @@
       </c>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" ht="15.75" spans="1:8">
+    <row r="282" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A282" s="4" t="s">
         <v>443</v>
       </c>
@@ -10123,7 +9538,7 @@
       </c>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" ht="15.75" spans="1:8">
+    <row r="283" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A283" s="8" t="s">
         <v>446</v>
       </c>
@@ -10147,7 +9562,7 @@
       </c>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" ht="15.75" spans="1:8">
+    <row r="284" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A284" s="8" t="s">
         <v>448</v>
       </c>
@@ -10171,7 +9586,7 @@
       </c>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" ht="15.75" spans="1:8">
+    <row r="285" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A285" s="8" t="s">
         <v>449</v>
       </c>
@@ -10195,7 +9610,7 @@
       </c>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" ht="15.75" spans="1:8">
+    <row r="286" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A286" s="4" t="s">
         <v>450</v>
       </c>
@@ -10219,7 +9634,7 @@
       </c>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" ht="15.75" spans="1:8">
+    <row r="287" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A287" s="4" t="s">
         <v>451</v>
       </c>
@@ -10243,7 +9658,7 @@
       </c>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" ht="26.25" spans="1:8">
+    <row r="288" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A288" s="4" t="s">
         <v>454</v>
       </c>
@@ -10267,7 +9682,7 @@
       </c>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" ht="15.75" spans="1:8">
+    <row r="289" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A289" s="8" t="s">
         <v>456</v>
       </c>
@@ -10291,7 +9706,7 @@
       </c>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" ht="15.75" spans="1:8">
+    <row r="290" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A290" s="8" t="s">
         <v>458</v>
       </c>
@@ -10315,7 +9730,7 @@
       </c>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" ht="15.75" spans="1:8">
+    <row r="291" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A291" s="4" t="s">
         <v>459</v>
       </c>
@@ -10339,7 +9754,7 @@
       </c>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" ht="15.75" spans="1:8">
+    <row r="292" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A292" s="8" t="s">
         <v>461</v>
       </c>
@@ -10363,7 +9778,7 @@
       </c>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" ht="15.75" spans="1:8">
+    <row r="293" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A293" s="8" t="s">
         <v>463</v>
       </c>
@@ -10387,7 +9802,7 @@
       </c>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" ht="26.25" spans="1:8">
+    <row r="294" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A294" s="8" t="s">
         <v>464</v>
       </c>
@@ -10411,7 +9826,7 @@
       </c>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" ht="26.25" spans="1:8">
+    <row r="295" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A295" s="8" t="s">
         <v>467</v>
       </c>
@@ -10435,7 +9850,7 @@
       </c>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" ht="26.25" spans="1:8">
+    <row r="296" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A296" s="4" t="s">
         <v>468</v>
       </c>
@@ -10459,7 +9874,7 @@
       </c>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" ht="26.25" spans="1:8">
+    <row r="297" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A297" s="4" t="s">
         <v>470</v>
       </c>
@@ -10483,7 +9898,7 @@
       </c>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" ht="15.75" spans="1:8">
+    <row r="298" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A298" s="8" t="s">
         <v>471</v>
       </c>
@@ -10507,7 +9922,7 @@
       </c>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" ht="26.25" spans="1:8">
+    <row r="299" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A299" s="8" t="s">
         <v>473</v>
       </c>
@@ -10531,7 +9946,7 @@
       </c>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" ht="15.75" spans="1:8">
+    <row r="300" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A300" s="8" t="s">
         <v>477</v>
       </c>
@@ -10555,7 +9970,7 @@
       </c>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" ht="15.75" spans="1:8">
+    <row r="301" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A301" s="8" t="s">
         <v>479</v>
       </c>
@@ -10579,7 +9994,7 @@
       </c>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" ht="15.75" spans="1:8">
+    <row r="302" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A302" s="8" t="s">
         <v>481</v>
       </c>
@@ -10603,7 +10018,7 @@
       </c>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" ht="15.75" spans="1:8">
+    <row r="303" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A303" s="8" t="s">
         <v>482</v>
       </c>
@@ -10627,7 +10042,7 @@
       </c>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" ht="15.75" spans="1:8">
+    <row r="304" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A304" s="8" t="s">
         <v>484</v>
       </c>
@@ -10651,7 +10066,7 @@
       </c>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" ht="15.75" spans="1:8">
+    <row r="305" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A305" s="4" t="s">
         <v>486</v>
       </c>
@@ -10675,7 +10090,7 @@
       </c>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" ht="15.75" spans="1:8">
+    <row r="306" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A306" s="4" t="s">
         <v>487</v>
       </c>
@@ -10699,7 +10114,7 @@
       </c>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" ht="26.25" spans="1:8">
+    <row r="307" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A307" s="8" t="s">
         <v>488</v>
       </c>
@@ -10723,7 +10138,7 @@
       </c>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" ht="26.25" spans="1:8">
+    <row r="308" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A308" s="8" t="s">
         <v>489</v>
       </c>
@@ -10747,7 +10162,7 @@
       </c>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" ht="15.75" spans="1:8">
+    <row r="309" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A309" s="8" t="s">
         <v>491</v>
       </c>
@@ -10771,7 +10186,7 @@
       </c>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" ht="15.75" spans="1:8">
+    <row r="310" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A310" s="8" t="s">
         <v>494</v>
       </c>
@@ -10795,7 +10210,7 @@
       </c>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" ht="15.75" spans="1:8">
+    <row r="311" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A311" s="8" t="s">
         <v>496</v>
       </c>
@@ -10819,31 +10234,31 @@
       </c>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" ht="15.75" spans="1:8">
-      <c r="A312" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B312" s="4" t="s">
+    <row r="312" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A312" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="B312" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C312" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D312" s="5" t="s">
+      <c r="D312" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="E312" s="4" t="s">
+      <c r="E312" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F312" s="4" t="s">
+      <c r="F312" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G312" s="6" t="s">
+      <c r="G312" s="22" t="s">
         <v>94</v>
       </c>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" ht="15.75" spans="1:8">
+    <row r="313" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A313" s="4" t="s">
         <v>499</v>
       </c>
@@ -10867,7 +10282,7 @@
       </c>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" ht="15.75" spans="1:8">
+    <row r="314" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A314" s="4" t="s">
         <v>311</v>
       </c>
@@ -10891,7 +10306,7 @@
       </c>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" ht="15.75" spans="1:8">
+    <row r="315" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A315" s="8" t="s">
         <v>311</v>
       </c>
@@ -10915,7 +10330,7 @@
       </c>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" ht="15.75" spans="1:8">
+    <row r="316" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A316" s="8" t="s">
         <v>562</v>
       </c>
@@ -10939,7 +10354,7 @@
       </c>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" ht="15.75" spans="1:8">
+    <row r="317" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A317" s="4" t="s">
         <v>562</v>
       </c>
@@ -10963,7 +10378,7 @@
       </c>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" ht="15.75" spans="1:8">
+    <row r="318" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A318" s="8" t="s">
         <v>314</v>
       </c>
@@ -10987,7 +10402,7 @@
       </c>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" ht="15.75" spans="1:8">
+    <row r="319" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A319" s="4" t="s">
         <v>564</v>
       </c>
@@ -11011,7 +10426,7 @@
       </c>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" ht="15.75" spans="1:8">
+    <row r="320" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A320" s="4" t="s">
         <v>566</v>
       </c>
@@ -11035,7 +10450,7 @@
       </c>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" ht="15.75" spans="1:8">
+    <row r="321" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A321" s="8" t="s">
         <v>568</v>
       </c>
@@ -11059,7 +10474,7 @@
       </c>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" ht="15.75" spans="1:8">
+    <row r="322" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A322" s="4" t="s">
         <v>570</v>
       </c>
@@ -11083,7 +10498,7 @@
       </c>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" ht="15.75" spans="1:8">
+    <row r="323" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A323" s="4" t="s">
         <v>572</v>
       </c>
@@ -11107,7 +10522,7 @@
       </c>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" ht="15.75" spans="1:8">
+    <row r="324" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A324" s="8" t="s">
         <v>15</v>
       </c>
@@ -11131,7 +10546,7 @@
       </c>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" ht="15.75" spans="1:8">
+    <row r="325" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A325" s="4" t="s">
         <v>574</v>
       </c>
@@ -11155,7 +10570,7 @@
       </c>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" ht="15.75" spans="1:8">
+    <row r="326" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A326" s="4" t="s">
         <v>576</v>
       </c>
@@ -11179,7 +10594,7 @@
       </c>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" ht="15.75" spans="1:8">
+    <row r="327" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A327" s="8" t="s">
         <v>578</v>
       </c>
@@ -11203,7 +10618,7 @@
       </c>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" ht="15.75" spans="1:8">
+    <row r="328" spans="1:8" ht="15.75" thickBot="1">
       <c r="A328" s="8" t="s">
         <v>21</v>
       </c>
@@ -11227,7 +10642,7 @@
       </c>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" ht="15.75" spans="1:8">
+    <row r="329" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A329" s="4" t="s">
         <v>580</v>
       </c>
@@ -11251,7 +10666,7 @@
       </c>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" ht="15.75" spans="1:8">
+    <row r="330" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A330" s="4" t="s">
         <v>582</v>
       </c>
@@ -11275,7 +10690,7 @@
       </c>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" ht="15.75" spans="1:8">
+    <row r="331" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A331" s="4" t="s">
         <v>584</v>
       </c>
@@ -11299,7 +10714,7 @@
       </c>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" ht="15.75" spans="1:8">
+    <row r="332" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A332" s="8" t="s">
         <v>584</v>
       </c>
@@ -11323,7 +10738,7 @@
       </c>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" ht="15.75" spans="1:8">
+    <row r="333" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A333" s="8" t="s">
         <v>585</v>
       </c>
@@ -11347,7 +10762,7 @@
       </c>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" ht="15.75" spans="1:8">
+    <row r="334" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A334" s="4" t="s">
         <v>586</v>
       </c>
@@ -11371,7 +10786,7 @@
       </c>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" ht="15.75" spans="1:8">
+    <row r="335" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A335" s="8" t="s">
         <v>587</v>
       </c>
@@ -11395,7 +10810,7 @@
       </c>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" ht="15.75" spans="1:8">
+    <row r="336" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A336" s="8" t="s">
         <v>589</v>
       </c>
@@ -11419,7 +10834,7 @@
       </c>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" ht="15.75" spans="1:8">
+    <row r="337" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A337" s="8" t="s">
         <v>591</v>
       </c>
@@ -11443,7 +10858,7 @@
       </c>
       <c r="H337" s="7"/>
     </row>
-    <row r="338" ht="15.75" spans="1:8">
+    <row r="338" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A338" s="8" t="s">
         <v>593</v>
       </c>
@@ -11467,7 +10882,7 @@
       </c>
       <c r="H338" s="7"/>
     </row>
-    <row r="339" ht="15.75" spans="1:8">
+    <row r="339" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A339" s="4" t="s">
         <v>593</v>
       </c>
@@ -11491,7 +10906,7 @@
       </c>
       <c r="H339" s="7"/>
     </row>
-    <row r="340" ht="15.75" spans="1:8">
+    <row r="340" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A340" s="4" t="s">
         <v>595</v>
       </c>
@@ -11515,31 +10930,31 @@
       </c>
       <c r="H340" s="7"/>
     </row>
-    <row r="341" ht="15.75" spans="1:8">
+    <row r="341" spans="1:8" ht="15.75" thickBot="1">
       <c r="A341" s="8" t="s">
-        <v>597</v>
+        <v>21</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>598</v>
+        <v>22</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D341" s="10" t="s">
-        <v>299</v>
+      <c r="D341" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>130</v>
+        <v>376</v>
       </c>
       <c r="G341" s="9" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="H341" s="7"/>
     </row>
-    <row r="342" ht="15.75" spans="1:8">
+    <row r="342" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A342" s="4" t="s">
         <v>599</v>
       </c>
@@ -11563,7 +10978,7 @@
       </c>
       <c r="H342" s="7"/>
     </row>
-    <row r="343" ht="15.75" spans="1:8">
+    <row r="343" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A343" s="4" t="s">
         <v>601</v>
       </c>
@@ -11587,7 +11002,7 @@
       </c>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" ht="15.75" spans="1:8">
+    <row r="344" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A344" s="4" t="s">
         <v>603</v>
       </c>
@@ -11611,7 +11026,7 @@
       </c>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" ht="15.75" spans="1:8">
+    <row r="345" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A345" s="8" t="s">
         <v>38</v>
       </c>
@@ -11635,7 +11050,7 @@
       </c>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" ht="15.75" spans="1:8">
+    <row r="346" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A346" s="8" t="s">
         <v>605</v>
       </c>
@@ -11659,7 +11074,7 @@
       </c>
       <c r="H346" s="7"/>
     </row>
-    <row r="347" ht="15.75" spans="1:8">
+    <row r="347" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A347" s="4" t="s">
         <v>607</v>
       </c>
@@ -11683,7 +11098,7 @@
       </c>
       <c r="H347" s="7"/>
     </row>
-    <row r="348" ht="15.75" spans="1:8">
+    <row r="348" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A348" s="8" t="s">
         <v>609</v>
       </c>
@@ -11707,7 +11122,7 @@
       </c>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" ht="15.75" spans="1:8">
+    <row r="349" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A349" s="8" t="s">
         <v>42</v>
       </c>
@@ -11731,7 +11146,7 @@
       </c>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" ht="15.75" spans="1:8">
+    <row r="350" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A350" s="8" t="s">
         <v>610</v>
       </c>
@@ -11755,7 +11170,7 @@
       </c>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" ht="15.75" spans="1:8">
+    <row r="351" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A351" s="8" t="s">
         <v>612</v>
       </c>
@@ -11779,7 +11194,7 @@
       </c>
       <c r="H351" s="7"/>
     </row>
-    <row r="352" ht="15.75" spans="1:8">
+    <row r="352" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A352" s="4" t="s">
         <v>55</v>
       </c>
@@ -11803,7 +11218,7 @@
       </c>
       <c r="H352" s="7"/>
     </row>
-    <row r="353" ht="15.75" spans="1:8">
+    <row r="353" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A353" s="8" t="s">
         <v>55</v>
       </c>
@@ -11827,39 +11242,39 @@
       </c>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" ht="15.75" spans="1:8">
-      <c r="A354" s="8" t="s">
+    <row r="354" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A354" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="B354" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="B354" s="8" t="s">
+      <c r="C354" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D354" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E354" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F354" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G354" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H354" s="7"/>
+    </row>
+    <row r="355" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A355" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="C354" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E354" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F354" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G354" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H354" s="7"/>
-    </row>
-    <row r="355" ht="15.75" spans="1:8">
-      <c r="A355" s="8" t="s">
+      <c r="B355" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="C355" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>618</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>11</v>
@@ -11875,7 +11290,7 @@
       </c>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" ht="15.75" spans="1:8">
+    <row r="356" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A356" s="4" t="s">
         <v>67</v>
       </c>
@@ -11899,12 +11314,12 @@
       </c>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" ht="15.75" spans="1:8">
+    <row r="357" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A357" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B357" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>129</v>
@@ -11923,12 +11338,12 @@
       </c>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" ht="15.75" spans="1:8">
+    <row r="358" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A358" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B358" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>332</v>
@@ -11947,12 +11362,12 @@
       </c>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" ht="15.75" spans="1:8">
+    <row r="359" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A359" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B359" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>624</v>
       </c>
       <c r="C359" s="8" t="s">
         <v>309</v>
@@ -11971,7 +11386,7 @@
       </c>
       <c r="H359" s="7"/>
     </row>
-    <row r="360" ht="15.75" spans="1:8">
+    <row r="360" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A360" s="8" t="s">
         <v>77</v>
       </c>
@@ -11995,7 +11410,7 @@
       </c>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" ht="15.75" spans="1:8">
+    <row r="361" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A361" s="4" t="s">
         <v>77</v>
       </c>
@@ -12019,9 +11434,9 @@
       </c>
       <c r="H361" s="7"/>
     </row>
-    <row r="362" ht="15.75" spans="1:8">
+    <row r="362" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A362" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>82</v>
@@ -12043,9 +11458,9 @@
       </c>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" ht="15.75" spans="1:8">
+    <row r="363" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A363" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>106</v>
@@ -12067,33 +11482,33 @@
       </c>
       <c r="H363" s="7"/>
     </row>
-    <row r="364" ht="15.75" spans="1:8">
-      <c r="A364" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B364" s="8" t="s">
+    <row r="364" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A364" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C364" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D364" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E364" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F364" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G364" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H364" s="23"/>
+    </row>
+    <row r="365" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A365" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="C364" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D364" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F364" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G364" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H364" s="7"/>
-    </row>
-    <row r="365" ht="15.75" spans="1:8">
-      <c r="A365" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>139</v>
@@ -12115,15 +11530,15 @@
       </c>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" ht="15.75" spans="1:8">
+    <row r="366" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A366" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>299</v>
@@ -12139,9 +11554,9 @@
       </c>
       <c r="H366" s="7"/>
     </row>
-    <row r="367" ht="15.75" spans="1:8">
+    <row r="367" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A367" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>154</v>
@@ -12163,12 +11578,12 @@
       </c>
       <c r="H367" s="7"/>
     </row>
-    <row r="368" ht="15.75" spans="1:8">
+    <row r="368" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A368" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B368" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>633</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>225</v>
@@ -12187,12 +11602,12 @@
       </c>
       <c r="H368" s="7"/>
     </row>
-    <row r="369" ht="15.75" spans="1:8">
+    <row r="369" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A369" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>174</v>
@@ -12211,12 +11626,12 @@
       </c>
       <c r="H369" s="7"/>
     </row>
-    <row r="370" ht="15.75" spans="1:8">
+    <row r="370" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A370" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B370" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>64</v>
@@ -12235,12 +11650,12 @@
       </c>
       <c r="H370" s="7"/>
     </row>
-    <row r="371" ht="15.75" spans="1:8">
+    <row r="371" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A371" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B371" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>276</v>
@@ -12259,7 +11674,7 @@
       </c>
       <c r="H371" s="7"/>
     </row>
-    <row r="372" ht="15.75" spans="1:8">
+    <row r="372" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A372" s="8" t="s">
         <v>536</v>
       </c>
@@ -12283,12 +11698,12 @@
       </c>
       <c r="H372" s="7"/>
     </row>
-    <row r="373" ht="15.75" spans="1:8">
+    <row r="373" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A373" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>285</v>
@@ -12307,15 +11722,15 @@
       </c>
       <c r="H373" s="7"/>
     </row>
-    <row r="374" ht="15.75" spans="1:8">
+    <row r="374" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A374" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B374" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="C374" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>299</v>
@@ -12331,12 +11746,12 @@
       </c>
       <c r="H374" s="7"/>
     </row>
-    <row r="375" ht="15.75" spans="1:8">
+    <row r="375" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A375" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C375" s="8" t="s">
         <v>493</v>
@@ -12355,9 +11770,9 @@
       </c>
       <c r="H375" s="7"/>
     </row>
-    <row r="376" ht="15.75" spans="1:8">
+    <row r="376" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A376" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>191</v>
@@ -12379,7 +11794,7 @@
       </c>
       <c r="H376" s="7"/>
     </row>
-    <row r="377" ht="15.75" spans="1:8">
+    <row r="377" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A377" s="8" t="s">
         <v>408</v>
       </c>
@@ -12403,12 +11818,12 @@
       </c>
       <c r="H377" s="7"/>
     </row>
-    <row r="378" ht="15.75" spans="1:8">
+    <row r="378" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A378" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>232</v>
@@ -12427,15 +11842,15 @@
       </c>
       <c r="H378" s="7"/>
     </row>
-    <row r="379" ht="15.75" spans="1:8">
+    <row r="379" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A379" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C379" s="4" t="s">
-        <v>439</v>
+      <c r="C379" s="24" t="s">
+        <v>751</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>299</v>
@@ -12451,9 +11866,9 @@
       </c>
       <c r="H379" s="7"/>
     </row>
-    <row r="380" ht="15.75" spans="1:8">
+    <row r="380" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A380" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>427</v>
@@ -12475,9 +11890,9 @@
       </c>
       <c r="H380" s="7"/>
     </row>
-    <row r="381" ht="15.75" spans="1:8">
+    <row r="381" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A381" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>236</v>
@@ -12499,9 +11914,9 @@
       </c>
       <c r="H381" s="7"/>
     </row>
-    <row r="382" ht="15.75" spans="1:8">
+    <row r="382" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A382" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>236</v>
@@ -12523,7 +11938,7 @@
       </c>
       <c r="H382" s="7"/>
     </row>
-    <row r="383" ht="15.75" spans="1:8">
+    <row r="383" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A383" s="4" t="s">
         <v>443</v>
       </c>
@@ -12540,14 +11955,14 @@
         <v>12</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H383" s="7"/>
     </row>
-    <row r="384" ht="15.75" spans="1:8">
+    <row r="384" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A384" s="8" t="s">
         <v>443</v>
       </c>
@@ -12555,7 +11970,7 @@
         <v>444</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>299</v>
@@ -12564,14 +11979,14 @@
         <v>74</v>
       </c>
       <c r="F384" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G384" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H384" s="7"/>
     </row>
-    <row r="385" ht="15.75" spans="1:8">
+    <row r="385" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A385" s="8" t="s">
         <v>443</v>
       </c>
@@ -12595,7 +12010,7 @@
       </c>
       <c r="H385" s="7"/>
     </row>
-    <row r="386" ht="15.75" spans="1:8">
+    <row r="386" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A386" s="8" t="s">
         <v>443</v>
       </c>
@@ -12619,9 +12034,9 @@
       </c>
       <c r="H386" s="7"/>
     </row>
-    <row r="387" ht="15.75" spans="1:8">
+    <row r="387" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A387" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>447</v>
@@ -12643,9 +12058,9 @@
       </c>
       <c r="H387" s="7"/>
     </row>
-    <row r="388" ht="15.75" spans="1:8">
+    <row r="388" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A388" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>447</v>
@@ -12667,9 +12082,9 @@
       </c>
       <c r="H388" s="7"/>
     </row>
-    <row r="389" ht="26.25" spans="1:8">
+    <row r="389" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A389" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>253</v>
@@ -12691,9 +12106,9 @@
       </c>
       <c r="H389" s="7"/>
     </row>
-    <row r="390" ht="15.75" spans="1:8">
+    <row r="390" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A390" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>457</v>
@@ -12708,16 +12123,16 @@
         <v>74</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H390" s="7"/>
     </row>
-    <row r="391" ht="15.75" spans="1:8">
+    <row r="391" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A391" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>457</v>
@@ -12732,19 +12147,19 @@
         <v>74</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H391" s="7"/>
     </row>
-    <row r="392" ht="15.75" spans="1:8">
+    <row r="392" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A392" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B392" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>460</v>
@@ -12763,15 +12178,15 @@
       </c>
       <c r="H392" s="7"/>
     </row>
-    <row r="393" ht="26.25" spans="1:8">
+    <row r="393" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A393" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B393" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="C393" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>299</v>
@@ -12787,15 +12202,15 @@
       </c>
       <c r="H393" s="7"/>
     </row>
-    <row r="394" ht="15.75" spans="1:8">
+    <row r="394" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A394" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C394" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>299</v>
@@ -12804,16 +12219,16 @@
         <v>74</v>
       </c>
       <c r="F394" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H394" s="7"/>
     </row>
-    <row r="395" ht="26.25" spans="1:8">
+    <row r="395" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A395" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>289</v>
@@ -12835,9 +12250,9 @@
       </c>
       <c r="H395" s="7"/>
     </row>
-    <row r="396" ht="26.25" spans="1:8">
+    <row r="396" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A396" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>289</v>
@@ -12859,9 +12274,9 @@
       </c>
       <c r="H396" s="7"/>
     </row>
-    <row r="397" ht="15.75" spans="1:8">
+    <row r="397" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A397" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>490</v>
@@ -12876,16 +12291,16 @@
         <v>12</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H397" s="7"/>
     </row>
-    <row r="398" ht="15.75" spans="1:8">
+    <row r="398" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A398" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>490</v>
@@ -12900,16 +12315,16 @@
         <v>18</v>
       </c>
       <c r="F398" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H398" s="7"/>
     </row>
-    <row r="399" ht="15.75" spans="1:8">
+    <row r="399" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A399" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>492</v>
@@ -12931,33 +12346,33 @@
       </c>
       <c r="H399" s="7"/>
     </row>
-    <row r="400" ht="15.75" spans="1:8">
+    <row r="400" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A400" s="4" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>492</v>
+        <v>716</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D400" s="10" t="s">
-        <v>299</v>
+        <v>642</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F400" s="4" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H400" s="7"/>
     </row>
-    <row r="401" ht="15.75" spans="1:8">
+    <row r="401" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A401" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>301</v>
@@ -12979,9 +12394,9 @@
       </c>
       <c r="H401" s="7"/>
     </row>
-    <row r="402" ht="15.75" spans="1:8">
+    <row r="402" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A402" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>301</v>
@@ -13003,12 +12418,12 @@
       </c>
       <c r="H402" s="7"/>
     </row>
-    <row r="403" ht="15.75" spans="1:8">
+    <row r="403" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A403" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>87</v>
@@ -13027,12 +12442,12 @@
       </c>
       <c r="H403" s="7"/>
     </row>
-    <row r="404" ht="15.75" spans="1:8">
+    <row r="404" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A404" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>87</v>
@@ -13051,7 +12466,7 @@
       </c>
       <c r="H404" s="7"/>
     </row>
-    <row r="405" ht="15.75" spans="1:8">
+    <row r="405" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A405" s="8" t="s">
         <v>566</v>
       </c>
@@ -13075,12 +12490,12 @@
       </c>
       <c r="H405" s="7"/>
     </row>
-    <row r="406" ht="15.75" spans="1:8">
+    <row r="406" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A406" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B406" s="8" t="s">
         <v>680</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>681</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>129</v>
@@ -13099,9 +12514,9 @@
       </c>
       <c r="H406" s="7"/>
     </row>
-    <row r="407" ht="15.75" spans="1:8">
+    <row r="407" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A407" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>16</v>
@@ -13123,12 +12538,12 @@
       </c>
       <c r="H407" s="7"/>
     </row>
-    <row r="408" ht="15.75" spans="1:8">
+    <row r="408" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A408" s="4" t="s">
         <v>574</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>135</v>
@@ -13147,7 +12562,7 @@
       </c>
       <c r="H408" s="7"/>
     </row>
-    <row r="409" ht="15.75" spans="1:8">
+    <row r="409" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A409" s="4" t="s">
         <v>21</v>
       </c>
@@ -13171,33 +12586,33 @@
       </c>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" ht="15.75" spans="1:8">
-      <c r="A410" s="8" t="s">
+    <row r="410" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A410" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B410" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C410" s="8" t="s">
+      <c r="C410" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E410" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F410" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="G410" s="9" t="s">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G410" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H410" s="7"/>
     </row>
-    <row r="411" ht="15.75" spans="1:8">
+    <row r="411" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A411" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>583</v>
@@ -13219,31 +12634,31 @@
       </c>
       <c r="H411" s="7"/>
     </row>
-    <row r="412" ht="15.75" spans="1:8">
-      <c r="A412" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="B412" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C412" s="8" t="s">
+    <row r="412" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A412" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C412" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D412" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E412" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F412" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G412" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H412" s="7"/>
-    </row>
-    <row r="413" ht="15.75" spans="1:8">
+      <c r="D412" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E412" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F412" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G412" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H412" s="23"/>
+    </row>
+    <row r="413" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A413" s="4" t="s">
         <v>351</v>
       </c>
@@ -13267,7 +12682,7 @@
       </c>
       <c r="H413" s="7"/>
     </row>
-    <row r="414" ht="15.75" spans="1:8">
+    <row r="414" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A414" s="8" t="s">
         <v>351</v>
       </c>
@@ -13291,7 +12706,7 @@
       </c>
       <c r="H414" s="7"/>
     </row>
-    <row r="415" ht="15.75" spans="1:8">
+    <row r="415" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A415" s="4" t="s">
         <v>351</v>
       </c>
@@ -13315,7 +12730,7 @@
       </c>
       <c r="H415" s="7"/>
     </row>
-    <row r="416" ht="15.75" spans="1:8">
+    <row r="416" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A416" s="8" t="s">
         <v>351</v>
       </c>
@@ -13339,12 +12754,12 @@
       </c>
       <c r="H416" s="7"/>
     </row>
-    <row r="417" ht="15.75" spans="1:8">
+    <row r="417" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A417" s="8" t="s">
         <v>589</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>163</v>
@@ -13363,12 +12778,12 @@
       </c>
       <c r="H417" s="7"/>
     </row>
-    <row r="418" ht="15.75" spans="1:8">
+    <row r="418" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A418" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B418" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="B418" s="8" t="s">
-        <v>689</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>292</v>
@@ -13387,9 +12802,9 @@
       </c>
       <c r="H418" s="7"/>
     </row>
-    <row r="419" ht="15.75" spans="1:8">
+    <row r="419" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A419" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>36</v>
@@ -13411,7 +12826,7 @@
       </c>
       <c r="H419" s="7"/>
     </row>
-    <row r="420" ht="15.75" spans="1:8">
+    <row r="420" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A420" s="8" t="s">
         <v>599</v>
       </c>
@@ -13435,12 +12850,12 @@
       </c>
       <c r="H420" s="7"/>
     </row>
-    <row r="421" ht="15.75" spans="1:8">
+    <row r="421" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A421" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B421" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="B421" s="8" t="s">
-        <v>692</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>439</v>
@@ -13459,12 +12874,12 @@
       </c>
       <c r="H421" s="7"/>
     </row>
-    <row r="422" ht="15.75" spans="1:8">
+    <row r="422" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A422" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B422" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="B422" s="8" t="s">
-        <v>694</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>179</v>
@@ -13483,12 +12898,12 @@
       </c>
       <c r="H422" s="7"/>
     </row>
-    <row r="423" ht="15.75" spans="1:8">
+    <row r="423" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A423" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B423" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="B423" s="8" t="s">
-        <v>696</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>163</v>
@@ -13507,7 +12922,7 @@
       </c>
       <c r="H423" s="7"/>
     </row>
-    <row r="424" ht="15.75" spans="1:8">
+    <row r="424" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A424" s="8" t="s">
         <v>298</v>
       </c>
@@ -13531,12 +12946,12 @@
       </c>
       <c r="H424" s="7"/>
     </row>
-    <row r="425" ht="15.75" spans="1:8">
+    <row r="425" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A425" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B425" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>622</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>332</v>
@@ -13555,12 +12970,12 @@
       </c>
       <c r="H425" s="7"/>
     </row>
-    <row r="426" ht="15.75" spans="1:8">
+    <row r="426" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A426" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B426" s="8" t="s">
         <v>697</v>
-      </c>
-      <c r="B426" s="8" t="s">
-        <v>698</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>199</v>
@@ -13579,12 +12994,12 @@
       </c>
       <c r="H426" s="7"/>
     </row>
-    <row r="427" ht="15.75" spans="1:8">
+    <row r="427" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A427" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>96</v>
@@ -13603,9 +13018,9 @@
       </c>
       <c r="H427" s="7"/>
     </row>
-    <row r="428" ht="15.75" spans="1:8">
+    <row r="428" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A428" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>106</v>
@@ -13627,7 +13042,7 @@
       </c>
       <c r="H428" s="7"/>
     </row>
-    <row r="429" ht="15.75" spans="1:8">
+    <row r="429" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A429" s="8" t="s">
         <v>109</v>
       </c>
@@ -13651,7 +13066,7 @@
       </c>
       <c r="H429" s="7"/>
     </row>
-    <row r="430" ht="15.75" spans="1:8">
+    <row r="430" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A430" s="4" t="s">
         <v>118</v>
       </c>
@@ -13675,12 +13090,12 @@
       </c>
       <c r="H430" s="7"/>
     </row>
-    <row r="431" ht="15.75" spans="1:8">
+    <row r="431" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A431" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>17</v>
@@ -13699,12 +13114,12 @@
       </c>
       <c r="H431" s="7"/>
     </row>
-    <row r="432" ht="15.75" spans="1:8">
+    <row r="432" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A432" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B432" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="B432" s="4" t="s">
-        <v>703</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>225</v>
@@ -13723,9 +13138,9 @@
       </c>
       <c r="H432" s="7"/>
     </row>
-    <row r="433" ht="15.75" spans="1:8">
+    <row r="433" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A433" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>142</v>
@@ -13747,9 +13162,9 @@
       </c>
       <c r="H433" s="7"/>
     </row>
-    <row r="434" ht="15.75" spans="1:8">
+    <row r="434" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A434" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>142</v>
@@ -13771,7 +13186,7 @@
       </c>
       <c r="H434" s="7"/>
     </row>
-    <row r="435" ht="15.75" spans="1:8">
+    <row r="435" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A435" s="4" t="s">
         <v>146</v>
       </c>
@@ -13795,12 +13210,12 @@
       </c>
       <c r="H435" s="7"/>
     </row>
-    <row r="436" ht="15.75" spans="1:8">
+    <row r="436" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A436" s="4" t="s">
         <v>524</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>375</v>
@@ -13819,12 +13234,12 @@
       </c>
       <c r="H436" s="7"/>
     </row>
-    <row r="437" ht="15.75" spans="1:8">
+    <row r="437" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A437" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>149</v>
@@ -13843,15 +13258,15 @@
       </c>
       <c r="H437" s="7"/>
     </row>
-    <row r="438" ht="15.75" spans="1:8">
+    <row r="438" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A438" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>560</v>
@@ -13867,9 +13282,9 @@
       </c>
       <c r="H438" s="7"/>
     </row>
-    <row r="439" ht="15.75" spans="1:8">
+    <row r="439" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A439" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>322</v>
@@ -13891,7 +13306,7 @@
       </c>
       <c r="H439" s="7"/>
     </row>
-    <row r="440" ht="15.75" spans="1:8">
+    <row r="440" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A440" s="4" t="s">
         <v>167</v>
       </c>
@@ -13915,7 +13330,7 @@
       </c>
       <c r="H440" s="7"/>
     </row>
-    <row r="441" ht="15.75" spans="1:8">
+    <row r="441" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A441" s="4" t="s">
         <v>164</v>
       </c>
@@ -13939,12 +13354,12 @@
       </c>
       <c r="H441" s="7"/>
     </row>
-    <row r="442" ht="15.75" spans="1:8">
+    <row r="442" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A442" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>44</v>
@@ -13963,36 +13378,36 @@
       </c>
       <c r="H442" s="7"/>
     </row>
-    <row r="443" ht="15.75" spans="1:8">
-      <c r="A443" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="B443" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="C443" s="8" t="s">
+    <row r="443" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A443" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E443" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F443" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G443" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E443" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F443" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G443" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H443" s="7"/>
     </row>
-    <row r="444" ht="15.75" spans="1:8">
+    <row r="444" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A444" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>174</v>
@@ -14011,7 +13426,7 @@
       </c>
       <c r="H444" s="7"/>
     </row>
-    <row r="445" ht="15.75" spans="1:8">
+    <row r="445" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A445" s="8" t="s">
         <v>400</v>
       </c>
@@ -14035,7 +13450,7 @@
       </c>
       <c r="H445" s="7"/>
     </row>
-    <row r="446" ht="15.75" spans="1:8">
+    <row r="446" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A446" s="4" t="s">
         <v>175</v>
       </c>
@@ -14059,9 +13474,9 @@
       </c>
       <c r="H446" s="7"/>
     </row>
-    <row r="447" ht="15.75" spans="1:8">
+    <row r="447" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A447" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>176</v>
@@ -14083,12 +13498,12 @@
       </c>
       <c r="H447" s="7"/>
     </row>
-    <row r="448" ht="15.75" spans="1:8">
+    <row r="448" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A448" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B448" s="8" t="s">
         <v>712</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>713</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>285</v>
@@ -14107,12 +13522,12 @@
       </c>
       <c r="H448" s="7"/>
     </row>
-    <row r="449" ht="15.75" spans="1:8">
+    <row r="449" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A449" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B449" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>10</v>
@@ -14131,9 +13546,9 @@
       </c>
       <c r="H449" s="7"/>
     </row>
-    <row r="450" ht="15.75" spans="1:8">
+    <row r="450" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A450" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>183</v>
@@ -14155,9 +13570,9 @@
       </c>
       <c r="H450" s="7"/>
     </row>
-    <row r="451" ht="15.75" spans="1:8">
+    <row r="451" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A451" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B451" s="8" t="s">
         <v>183</v>
@@ -14179,9 +13594,9 @@
       </c>
       <c r="H451" s="7"/>
     </row>
-    <row r="452" ht="15.75" spans="1:8">
+    <row r="452" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A452" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B452" s="8" t="s">
         <v>183</v>
@@ -14203,15 +13618,15 @@
       </c>
       <c r="H452" s="7"/>
     </row>
-    <row r="453" ht="15.75" spans="1:8">
+    <row r="453" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A453" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B453" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B453" s="4" t="s">
+      <c r="C453" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="C453" s="4" t="s">
-        <v>618</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>11</v>
@@ -14227,36 +13642,36 @@
       </c>
       <c r="H453" s="7"/>
     </row>
-    <row r="454" ht="15.75" spans="1:8">
+    <row r="454" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A454" s="4" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>717</v>
+        <v>492</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D454" s="5" t="s">
-        <v>560</v>
+        <v>642</v>
+      </c>
+      <c r="D454" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F454" s="4" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="G454" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H454" s="7"/>
     </row>
-    <row r="455" ht="15.75" spans="1:8">
+    <row r="455" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A455" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>189</v>
@@ -14275,42 +13690,42 @@
       </c>
       <c r="H455" s="7"/>
     </row>
-    <row r="456" ht="15.75" spans="1:8">
+    <row r="456" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A456" s="4" t="s">
-        <v>719</v>
+        <v>673</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C456" s="8" t="s">
-        <v>49</v>
+      <c r="C456" s="4" t="s">
+        <v>642</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F456" s="4" t="s">
-        <v>414</v>
+        <v>248</v>
       </c>
       <c r="G456" s="6" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H456" s="7"/>
     </row>
-    <row r="457" ht="15.75" spans="1:8">
+    <row r="457" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A457" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B457" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B457" s="4" t="s">
-        <v>721</v>
-      </c>
       <c r="C457" s="8" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>54</v>
+        <v>560</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>29</v>
@@ -14323,7 +13738,7 @@
       </c>
       <c r="H457" s="7"/>
     </row>
-    <row r="458" ht="15.75" spans="1:8">
+    <row r="458" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A458" s="8" t="s">
         <v>190</v>
       </c>
@@ -14347,9 +13762,9 @@
       </c>
       <c r="H458" s="7"/>
     </row>
-    <row r="459" ht="15.75" spans="1:8">
+    <row r="459" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A459" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B459" s="8" t="s">
         <v>191</v>
@@ -14371,9 +13786,9 @@
       </c>
       <c r="H459" s="7"/>
     </row>
-    <row r="460" ht="15.75" spans="1:8">
+    <row r="460" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A460" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>201</v>
@@ -14395,7 +13810,7 @@
       </c>
       <c r="H460" s="7"/>
     </row>
-    <row r="461" ht="15.75" spans="1:8">
+    <row r="461" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A461" s="4" t="s">
         <v>546</v>
       </c>
@@ -14419,7 +13834,7 @@
       </c>
       <c r="H461" s="7"/>
     </row>
-    <row r="462" ht="15.75" spans="1:8">
+    <row r="462" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A462" s="4" t="s">
         <v>205</v>
       </c>
@@ -14443,12 +13858,12 @@
       </c>
       <c r="H462" s="7"/>
     </row>
-    <row r="463" ht="15.75" spans="1:8">
+    <row r="463" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A463" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>135</v>
@@ -14467,12 +13882,12 @@
       </c>
       <c r="H463" s="7"/>
     </row>
-    <row r="464" ht="26.25" spans="1:8">
+    <row r="464" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A464" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>10</v>
@@ -14491,12 +13906,12 @@
       </c>
       <c r="H464" s="7"/>
     </row>
-    <row r="465" ht="26.25" spans="1:8">
+    <row r="465" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A465" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>186</v>
@@ -14515,12 +13930,12 @@
       </c>
       <c r="H465" s="7"/>
     </row>
-    <row r="466" ht="15.75" spans="1:8">
+    <row r="466" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A466" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>17</v>
@@ -14539,7 +13954,7 @@
       </c>
       <c r="H466" s="7"/>
     </row>
-    <row r="467" ht="15.75" spans="1:8">
+    <row r="467" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A467" s="4" t="s">
         <v>219</v>
       </c>
@@ -14563,12 +13978,12 @@
       </c>
       <c r="H467" s="7"/>
     </row>
-    <row r="468" ht="26.25" spans="1:8">
+    <row r="468" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A468" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>225</v>
@@ -14587,12 +14002,12 @@
       </c>
       <c r="H468" s="7"/>
     </row>
-    <row r="469" ht="26.25" spans="1:8">
+    <row r="469" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A469" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>229</v>
@@ -14611,7 +14026,7 @@
       </c>
       <c r="H469" s="7"/>
     </row>
-    <row r="470" ht="15.75" spans="1:8">
+    <row r="470" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A470" s="8" t="s">
         <v>230</v>
       </c>
@@ -14635,7 +14050,7 @@
       </c>
       <c r="H470" s="7"/>
     </row>
-    <row r="471" ht="15.75" spans="1:8">
+    <row r="471" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A471" s="4" t="s">
         <v>234</v>
       </c>
@@ -14659,15 +14074,15 @@
       </c>
       <c r="H471" s="7"/>
     </row>
-    <row r="472" ht="15.75" spans="1:8">
+    <row r="472" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A472" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C472" s="4" t="s">
-        <v>439</v>
+      <c r="C472" s="24" t="s">
+        <v>751</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>560</v>
@@ -14683,9 +14098,9 @@
       </c>
       <c r="H472" s="7"/>
     </row>
-    <row r="473" ht="15.75" spans="1:8">
+    <row r="473" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A473" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>231</v>
@@ -14707,12 +14122,12 @@
       </c>
       <c r="H473" s="7"/>
     </row>
-    <row r="474" ht="15.75" spans="1:8">
+    <row r="474" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A474" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>225</v>
@@ -14731,7 +14146,7 @@
       </c>
       <c r="H474" s="7"/>
     </row>
-    <row r="475" ht="15.75" spans="1:8">
+    <row r="475" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A475" s="4" t="s">
         <v>443</v>
       </c>
@@ -14748,14 +14163,14 @@
         <v>12</v>
       </c>
       <c r="F475" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G475" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H475" s="7"/>
     </row>
-    <row r="476" ht="15.75" spans="1:8">
+    <row r="476" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A476" s="8" t="s">
         <v>443</v>
       </c>
@@ -14763,7 +14178,7 @@
         <v>551</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>560</v>
@@ -14772,14 +14187,14 @@
         <v>74</v>
       </c>
       <c r="F476" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G476" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H476" s="7"/>
     </row>
-    <row r="477" ht="15.75" spans="1:8">
+    <row r="477" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A477" s="8" t="s">
         <v>443</v>
       </c>
@@ -14803,7 +14218,7 @@
       </c>
       <c r="H477" s="7"/>
     </row>
-    <row r="478" ht="15.75" spans="1:8">
+    <row r="478" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A478" s="8" t="s">
         <v>443</v>
       </c>
@@ -14827,9 +14242,9 @@
       </c>
       <c r="H478" s="7"/>
     </row>
-    <row r="479" ht="15.75" spans="1:8">
+    <row r="479" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A479" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>552</v>
@@ -14851,9 +14266,9 @@
       </c>
       <c r="H479" s="7"/>
     </row>
-    <row r="480" ht="15.75" spans="1:8">
+    <row r="480" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A480" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>552</v>
@@ -14875,7 +14290,7 @@
       </c>
       <c r="H480" s="7"/>
     </row>
-    <row r="481" ht="26.25" spans="1:8">
+    <row r="481" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A481" s="8" t="s">
         <v>260</v>
       </c>
@@ -14899,9 +14314,9 @@
       </c>
       <c r="H481" s="7"/>
     </row>
-    <row r="482" ht="26.25" spans="1:8">
+    <row r="482" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A482" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B482" s="8" t="s">
         <v>261</v>
@@ -14923,12 +14338,12 @@
       </c>
       <c r="H482" s="7"/>
     </row>
-    <row r="483" ht="15.75" spans="1:8">
+    <row r="483" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A483" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>232</v>
@@ -14947,12 +14362,12 @@
       </c>
       <c r="H483" s="7"/>
     </row>
-    <row r="484" ht="15.75" spans="1:8">
+    <row r="484" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A484" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>37</v>
@@ -14971,7 +14386,7 @@
       </c>
       <c r="H484" s="7"/>
     </row>
-    <row r="485" ht="15.75" spans="1:8">
+    <row r="485" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A485" s="8" t="s">
         <v>267</v>
       </c>
@@ -14995,7 +14410,7 @@
       </c>
       <c r="H485" s="7"/>
     </row>
-    <row r="486" ht="15.75" spans="1:8">
+    <row r="486" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A486" s="4" t="s">
         <v>271</v>
       </c>
@@ -15019,9 +14434,9 @@
       </c>
       <c r="H486" s="7"/>
     </row>
-    <row r="487" ht="15.75" spans="1:8">
+    <row r="487" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A487" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B487" s="4" t="s">
         <v>268</v>
@@ -15036,16 +14451,16 @@
         <v>74</v>
       </c>
       <c r="F487" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G487" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H487" s="7"/>
     </row>
-    <row r="488" ht="15.75" spans="1:8">
+    <row r="488" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A488" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>268</v>
@@ -15060,19 +14475,19 @@
         <v>74</v>
       </c>
       <c r="F488" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G488" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H488" s="7"/>
     </row>
-    <row r="489" ht="15.75" spans="1:8">
+    <row r="489" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A489" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>460</v>
@@ -15091,12 +14506,12 @@
       </c>
       <c r="H489" s="7"/>
     </row>
-    <row r="490" ht="15.75" spans="1:8">
+    <row r="490" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A490" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>64</v>
@@ -15115,12 +14530,12 @@
       </c>
       <c r="H490" s="7"/>
     </row>
-    <row r="491" ht="15.75" spans="1:8">
+    <row r="491" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A491" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>276</v>
@@ -15139,7 +14554,7 @@
       </c>
       <c r="H491" s="7"/>
     </row>
-    <row r="492" ht="26.25" spans="1:8">
+    <row r="492" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A492" s="8" t="s">
         <v>277</v>
       </c>
@@ -15163,7 +14578,7 @@
       </c>
       <c r="H492" s="7"/>
     </row>
-    <row r="493" ht="26.25" spans="1:8">
+    <row r="493" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A493" s="4" t="s">
         <v>280</v>
       </c>
@@ -15187,7 +14602,7 @@
       </c>
       <c r="H493" s="7"/>
     </row>
-    <row r="494" ht="26.25" spans="1:8">
+    <row r="494" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A494" s="4" t="s">
         <v>281</v>
       </c>
@@ -15211,12 +14626,12 @@
       </c>
       <c r="H494" s="7"/>
     </row>
-    <row r="495" ht="26.25" spans="1:8">
+    <row r="495" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A495" s="4" t="s">
         <v>283</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>285</v>
@@ -15235,12 +14650,12 @@
       </c>
       <c r="H495" s="7"/>
     </row>
-    <row r="496" ht="15.75" spans="1:8">
+    <row r="496" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A496" s="8" t="s">
         <v>286</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C496" s="8" t="s">
         <v>285</v>
@@ -15259,15 +14674,15 @@
       </c>
       <c r="H496" s="7"/>
     </row>
-    <row r="497" ht="26.25" spans="1:8">
+    <row r="497" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A497" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B497" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C497" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="D497" s="5" t="s">
         <v>560</v>
@@ -15283,15 +14698,15 @@
       </c>
       <c r="H497" s="7"/>
     </row>
-    <row r="498" ht="26.25" spans="1:8">
+    <row r="498" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A498" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D498" s="5" t="s">
         <v>560</v>
@@ -15307,9 +14722,9 @@
       </c>
       <c r="H498" s="7"/>
     </row>
-    <row r="499" ht="26.25" spans="1:8">
+    <row r="499" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A499" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B499" s="8" t="s">
         <v>330</v>
@@ -15331,9 +14746,9 @@
       </c>
       <c r="H499" s="7"/>
     </row>
-    <row r="500" ht="26.25" spans="1:8">
+    <row r="500" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A500" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B500" s="8" t="s">
         <v>330</v>
@@ -15355,12 +14770,12 @@
       </c>
       <c r="H500" s="7"/>
     </row>
-    <row r="501" ht="15.75" spans="1:8">
+    <row r="501" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A501" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C501" s="8" t="s">
         <v>163</v>
@@ -15379,15 +14794,15 @@
       </c>
       <c r="H501" s="7"/>
     </row>
-    <row r="502" ht="15.75" spans="1:8">
+    <row r="502" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A502" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B502" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="B502" s="8" t="s">
+      <c r="C502" s="8" t="s">
         <v>741</v>
-      </c>
-      <c r="C502" s="8" t="s">
-        <v>742</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>560</v>
@@ -15403,12 +14818,12 @@
       </c>
       <c r="H502" s="7"/>
     </row>
-    <row r="503" ht="15.75" spans="1:8">
+    <row r="503" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A503" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>57</v>
@@ -15427,9 +14842,9 @@
       </c>
       <c r="H503" s="7"/>
     </row>
-    <row r="504" ht="15.75" spans="1:8">
+    <row r="504" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A504" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B504" s="4" t="s">
         <v>557</v>
@@ -15444,16 +14859,16 @@
         <v>12</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G504" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H504" s="7"/>
     </row>
-    <row r="505" ht="15.75" spans="1:8">
+    <row r="505" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A505" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>557</v>
@@ -15468,22 +14883,22 @@
         <v>18</v>
       </c>
       <c r="F505" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G505" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H505" s="7"/>
     </row>
-    <row r="506" ht="15.75" spans="1:8">
+    <row r="506" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A506" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B506" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>49</v>
+        <v>642</v>
       </c>
       <c r="D506" s="5" t="s">
         <v>54</v>
@@ -15499,15 +14914,15 @@
       </c>
       <c r="H506" s="7"/>
     </row>
-    <row r="507" ht="15.75" spans="1:8">
+    <row r="507" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A507" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B507" s="4" t="s">
         <v>558</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>49</v>
+        <v>617</v>
       </c>
       <c r="D507" s="5" t="s">
         <v>54</v>
@@ -15523,36 +14938,36 @@
       </c>
       <c r="H507" s="7"/>
     </row>
-    <row r="508" ht="15.75" spans="1:8">
+    <row r="508" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A508" s="4" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="B508" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C508" s="4" t="s">
-        <v>643</v>
+      <c r="C508" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>560</v>
+        <v>50</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
       <c r="G508" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H508" s="7"/>
     </row>
-    <row r="509" ht="15.75" spans="1:8">
+    <row r="509" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A509" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>174</v>
@@ -15571,12 +14986,12 @@
       </c>
       <c r="H509" s="7"/>
     </row>
-    <row r="510" ht="26.25" spans="1:8">
+    <row r="510" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A510" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>309</v>
@@ -15595,7 +15010,7 @@
       </c>
       <c r="H510" s="7"/>
     </row>
-    <row r="511" ht="15.75" spans="1:8">
+    <row r="511" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A511" s="4" t="s">
         <v>311</v>
       </c>
@@ -15619,7 +15034,7 @@
       </c>
       <c r="H511" s="7"/>
     </row>
-    <row r="512" ht="15.75" spans="1:8">
+    <row r="512" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A512" s="11" t="s">
         <v>264</v>
       </c>
@@ -15627,7 +15042,7 @@
         <v>265</v>
       </c>
       <c r="C512" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D512" s="12" t="s">
         <v>11</v>
@@ -15643,7 +15058,7 @@
       </c>
       <c r="H512" s="14"/>
     </row>
-    <row r="513" ht="15.75" spans="1:8">
+    <row r="513" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A513" s="11" t="s">
         <v>286</v>
       </c>
@@ -15667,7 +15082,7 @@
       </c>
       <c r="H513" s="14"/>
     </row>
-    <row r="514" ht="26.25" spans="1:8">
+    <row r="514" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A514" s="11" t="s">
         <v>307</v>
       </c>
@@ -15691,7 +15106,7 @@
       </c>
       <c r="H514" s="14"/>
     </row>
-    <row r="515" ht="15.75" spans="1:8">
+    <row r="515" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A515" s="11" t="s">
         <v>437</v>
       </c>
@@ -15699,7 +15114,7 @@
         <v>438</v>
       </c>
       <c r="C515" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D515" s="12" t="s">
         <v>50</v>
@@ -15715,7 +15130,7 @@
       </c>
       <c r="H515" s="14"/>
     </row>
-    <row r="516" ht="15.75" spans="1:8">
+    <row r="516" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A516" s="11" t="s">
         <v>479</v>
       </c>
@@ -15739,7 +15154,7 @@
       </c>
       <c r="H516" s="14"/>
     </row>
-    <row r="517" ht="15.75" spans="1:8">
+    <row r="517" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A517" s="11" t="s">
         <v>481</v>
       </c>
@@ -15763,7 +15178,7 @@
       </c>
       <c r="H517" s="14"/>
     </row>
-    <row r="518" ht="15.75" spans="1:8">
+    <row r="518" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A518" s="11" t="s">
         <v>486</v>
       </c>
@@ -15787,7 +15202,7 @@
       </c>
       <c r="H518" s="14"/>
     </row>
-    <row r="519" ht="15.75" spans="1:8">
+    <row r="519" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A519" s="8" t="s">
         <v>487</v>
       </c>
@@ -15811,7 +15226,7 @@
       </c>
       <c r="H519" s="15"/>
     </row>
-    <row r="520" ht="15.75" spans="1:8">
+    <row r="520" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A520" s="11" t="s">
         <v>503</v>
       </c>
@@ -15835,7 +15250,7 @@
       </c>
       <c r="H520" s="14"/>
     </row>
-    <row r="521" ht="15.75" spans="1:8">
+    <row r="521" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A521" s="11" t="s">
         <v>437</v>
       </c>
@@ -15843,7 +15258,7 @@
         <v>549</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D521" s="12" t="s">
         <v>54</v>
@@ -15859,7 +15274,7 @@
       </c>
       <c r="H521" s="14"/>
     </row>
-    <row r="522" ht="15.75" spans="1:8">
+    <row r="522" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A522" s="11" t="s">
         <v>479</v>
       </c>
@@ -15883,7 +15298,7 @@
       </c>
       <c r="H522" s="14"/>
     </row>
-    <row r="523" ht="15.75" spans="1:8">
+    <row r="523" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A523" s="11" t="s">
         <v>481</v>
       </c>
@@ -15907,7 +15322,7 @@
       </c>
       <c r="H523" s="14"/>
     </row>
-    <row r="524" ht="15.75" spans="1:8">
+    <row r="524" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A524" s="11" t="s">
         <v>486</v>
       </c>
@@ -15931,7 +15346,7 @@
       </c>
       <c r="H524" s="14"/>
     </row>
-    <row r="525" ht="15.75" spans="1:8">
+    <row r="525" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A525" s="8" t="s">
         <v>487</v>
       </c>
@@ -15955,9 +15370,9 @@
       </c>
       <c r="H525" s="15"/>
     </row>
-    <row r="526" ht="15.75" spans="1:8">
+    <row r="526" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A526" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B526" s="11" t="s">
         <v>301</v>
@@ -15979,15 +15394,15 @@
       </c>
       <c r="H526" s="14"/>
     </row>
-    <row r="527" ht="15.75" spans="1:8">
+    <row r="527" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A527" s="11" t="s">
         <v>264</v>
       </c>
       <c r="B527" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D527" s="12" t="s">
         <v>560</v>
@@ -16003,12 +15418,12 @@
       </c>
       <c r="H527" s="14"/>
     </row>
-    <row r="528" ht="15.75" spans="1:8">
+    <row r="528" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A528" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B528" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C528" s="11" t="s">
         <v>149</v>
@@ -16027,12 +15442,12 @@
       </c>
       <c r="H528" s="14"/>
     </row>
-    <row r="529" ht="15.75" spans="1:8">
+    <row r="529" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A529" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B529" s="11" t="s">
         <v>740</v>
-      </c>
-      <c r="B529" s="11" t="s">
-        <v>741</v>
       </c>
       <c r="C529" s="11" t="s">
         <v>179</v>
@@ -16051,12 +15466,12 @@
       </c>
       <c r="H529" s="14"/>
     </row>
-    <row r="530" ht="26.25" spans="1:8">
+    <row r="530" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A530" s="11" t="s">
         <v>307</v>
       </c>
       <c r="B530" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C530" s="11" t="s">
         <v>475</v>
@@ -16075,7 +15490,7 @@
       </c>
       <c r="H530" s="14"/>
     </row>
-    <row r="531" ht="15.75" spans="1:8">
+    <row r="531" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A531" s="16" t="s">
         <v>293</v>
       </c>
@@ -16099,7 +15514,7 @@
       </c>
       <c r="H531" s="19"/>
     </row>
-    <row r="532" ht="15.75" spans="1:8">
+    <row r="532" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A532" s="16" t="s">
         <v>477</v>
       </c>
@@ -16123,7 +15538,7 @@
       </c>
       <c r="H532" s="19"/>
     </row>
-    <row r="533" ht="15.75" spans="1:8">
+    <row r="533" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A533" s="16" t="s">
         <v>484</v>
       </c>
@@ -16147,7 +15562,7 @@
       </c>
       <c r="H533" s="19"/>
     </row>
-    <row r="534" ht="15.75" spans="1:8">
+    <row r="534" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A534" s="16" t="s">
         <v>499</v>
       </c>
@@ -16155,7 +15570,7 @@
         <v>500</v>
       </c>
       <c r="C534" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D534" s="17" t="s">
         <v>50</v>
@@ -16171,7 +15586,7 @@
       </c>
       <c r="H534" s="19"/>
     </row>
-    <row r="535" ht="15.75" spans="1:8">
+    <row r="535" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A535" s="16" t="s">
         <v>477</v>
       </c>
@@ -16195,7 +15610,7 @@
       </c>
       <c r="H535" s="19"/>
     </row>
-    <row r="536" ht="15.75" spans="1:8">
+    <row r="536" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A536" s="16" t="s">
         <v>484</v>
       </c>
@@ -16219,7 +15634,7 @@
       </c>
       <c r="H536" s="19"/>
     </row>
-    <row r="537" ht="15.75" spans="1:8">
+    <row r="537" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A537" s="16" t="s">
         <v>499</v>
       </c>
@@ -16227,7 +15642,7 @@
         <v>561</v>
       </c>
       <c r="C537" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D537" s="17" t="s">
         <v>54</v>
@@ -16243,9 +15658,9 @@
       </c>
       <c r="H537" s="19"/>
     </row>
-    <row r="538" ht="26.25" spans="1:8">
+    <row r="538" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A538" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B538" s="16" t="s">
         <v>289</v>
@@ -16267,15 +15682,15 @@
       </c>
       <c r="H538" s="19"/>
     </row>
-    <row r="539" ht="26.25" spans="1:8">
+    <row r="539" spans="1:8" ht="26.25" hidden="1" thickBot="1">
       <c r="A539" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B539" s="16" t="s">
         <v>330</v>
       </c>
       <c r="C539" s="16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D539" s="17" t="s">
         <v>560</v>
@@ -16291,12 +15706,12 @@
       </c>
       <c r="H539" s="19"/>
     </row>
-    <row r="540" ht="15.75" spans="1:8">
+    <row r="540" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A540" s="16" t="s">
         <v>293</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>10</v>
@@ -16315,7 +15730,7 @@
       </c>
       <c r="H540" s="19"/>
     </row>
-    <row r="541" ht="15.75" spans="1:8">
+    <row r="541" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A541" s="16" t="s">
         <v>487</v>
       </c>
@@ -16339,7 +15754,7 @@
       </c>
       <c r="H541" s="19"/>
     </row>
-    <row r="542" ht="15.75" spans="1:8">
+    <row r="542" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A542" s="16" t="s">
         <v>487</v>
       </c>
@@ -16363,7 +15778,7 @@
       </c>
       <c r="H542" s="19"/>
     </row>
-    <row r="543" ht="15.75" spans="1:8">
+    <row r="543" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A543" s="8" t="s">
         <v>431</v>
       </c>
@@ -16371,7 +15786,7 @@
         <v>236</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D543" s="5" t="s">
         <v>50</v>
@@ -16388,14 +15803,17 @@
       <c r="H543" s="7"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H543" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:H543">
-      <sortCondition ref="D1"/>
+  <autoFilter ref="A1:H543">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="BENDAOUD"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:H443">
+      <sortCondition ref="G1:G543"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -131,7 +131,7 @@
     <t>TD-CSEE</t>
   </si>
   <si>
-    <t>15h30-17</t>
+    <t>15h30-17h</t>
   </si>
   <si>
     <t>TP-Eléments d'IA appliquée</t>
@@ -2081,10 +2081,10 @@
     <t>TP-Init. Programmation (SG31/32)</t>
   </si>
   <si>
-    <t>10h-11</t>
-  </si>
-  <si>
-    <t>11h-12</t>
+    <t>10h-11h</t>
+  </si>
+  <si>
+    <t>11h-12h</t>
   </si>
   <si>
     <t>TP-Init. Programmation (SG71/72)</t>
@@ -2598,7 +2598,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2623,6 +2623,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3137,16 +3143,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3155,119 +3158,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3284,6 +3290,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3612,11 +3621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3687,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" ht="15" hidden="1" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -3702,7 +3711,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" ht="15" hidden="1" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3726,7 +3735,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" ht="15" spans="1:8">
+    <row r="5" ht="15" hidden="1" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3750,7 +3759,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" ht="15" spans="1:8">
+    <row r="6" ht="15" hidden="1" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -3774,7 +3783,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" ht="15" spans="1:8">
+    <row r="7" ht="15" hidden="1" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -3798,7 +3807,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" ht="15" spans="1:8">
+    <row r="8" ht="15" hidden="1" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" ht="15" spans="1:8">
+    <row r="9" ht="15" hidden="1" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -3870,7 +3879,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" ht="15" spans="1:8">
+    <row r="11" ht="15" hidden="1" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -3894,7 +3903,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" ht="15" spans="1:8">
+    <row r="12" ht="15" hidden="1" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" ht="15" hidden="1" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -3942,7 +3951,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="15" spans="1:8">
+    <row r="14" ht="15" hidden="1" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -3990,7 +3999,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" ht="15" spans="1:8">
+    <row r="16" hidden="1" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -4014,7 +4023,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" ht="15" spans="1:8">
+    <row r="17" ht="15" hidden="1" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -4038,7 +4047,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" ht="15" spans="1:8">
+    <row r="18" ht="15" hidden="1" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -4062,7 +4071,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" ht="15" spans="1:8">
+    <row r="19" ht="15" hidden="1" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -4110,7 +4119,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="15" spans="1:8">
+    <row r="21" hidden="1" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4134,7 +4143,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" ht="15" spans="1:8">
+    <row r="22" ht="15" hidden="1" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -4158,7 +4167,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" ht="15" spans="1:8">
+    <row r="23" ht="15" hidden="1" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -4182,7 +4191,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" ht="15" spans="1:8">
+    <row r="24" ht="15" hidden="1" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -4206,7 +4215,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" ht="15" spans="1:8">
+    <row r="25" ht="15" hidden="1" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -4230,7 +4239,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" ht="15" spans="1:7">
+    <row r="26" ht="15" hidden="1" spans="1:7">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:7">
+    <row r="27" ht="15" hidden="1" spans="1:7">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" ht="15" hidden="1" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -4299,7 +4308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:7">
+    <row r="29" ht="15" hidden="1" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -4368,7 +4377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:7">
+    <row r="32" ht="15" hidden="1" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:7">
+    <row r="33" ht="15" hidden="1" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:7">
+    <row r="34" ht="15" hidden="1" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:7">
+    <row r="35" ht="15" hidden="1" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:7">
+    <row r="36" ht="15" hidden="1" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
@@ -4506,7 +4515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:7">
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:7">
+    <row r="39" ht="15" hidden="1" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>103</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:7">
+    <row r="40" ht="15" hidden="1" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:7">
+    <row r="41" ht="15" hidden="1" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>105</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:7">
+    <row r="42" ht="15" hidden="1" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>109</v>
       </c>
@@ -4690,7 +4699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:7">
+    <row r="46" ht="15" hidden="1" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>111</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:7">
+    <row r="47" ht="15" hidden="1" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>114</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:7">
+    <row r="48" ht="15" hidden="1" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -4759,7 +4768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:7">
+    <row r="49" ht="15" hidden="1" spans="1:7">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:7">
+    <row r="50" ht="15" hidden="1" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:7">
+    <row r="51" ht="15" hidden="1" spans="1:7">
       <c r="A51" s="5" t="s">
         <v>121</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:7">
+    <row r="52" ht="15" hidden="1" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>124</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
@@ -4897,7 +4906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:7">
+    <row r="55" ht="15" hidden="1" spans="1:7">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:7">
+    <row r="56" ht="15" hidden="1" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>132</v>
       </c>
@@ -4943,7 +4952,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:7">
+    <row r="57" ht="15" hidden="1" spans="1:7">
       <c r="A57" s="5" t="s">
         <v>136</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:7">
+    <row r="58" ht="15" hidden="1" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -4989,7 +4998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:7">
+    <row r="59" ht="15" hidden="1" spans="1:7">
       <c r="A59" s="5" t="s">
         <v>132</v>
       </c>
@@ -5012,7 +5021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:7">
+    <row r="60" ht="15" hidden="1" spans="1:7">
       <c r="A60" s="5" t="s">
         <v>136</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:7">
+    <row r="61" ht="15" hidden="1" spans="1:7">
       <c r="A61" s="5" t="s">
         <v>141</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:7">
+    <row r="63" hidden="1" spans="1:7">
       <c r="A63" s="5" t="s">
         <v>146</v>
       </c>
@@ -5104,7 +5113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:7">
+    <row r="64" ht="15" hidden="1" spans="1:7">
       <c r="A64" s="5" t="s">
         <v>146</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:7">
+    <row r="65" ht="15" hidden="1" spans="1:7">
       <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:7">
+    <row r="66" ht="15" hidden="1" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>151</v>
       </c>
@@ -5173,7 +5182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:7">
+    <row r="67" ht="15" hidden="1" spans="1:7">
       <c r="A67" s="5" t="s">
         <v>153</v>
       </c>
@@ -5196,7 +5205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:7">
+    <row r="68" ht="15" hidden="1" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>155</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:7">
+    <row r="69" ht="15" hidden="1" spans="1:7">
       <c r="A69" s="5" t="s">
         <v>156</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:7">
+    <row r="70" ht="15" hidden="1" spans="1:7">
       <c r="A70" s="5" t="s">
         <v>34</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:7">
+    <row r="71" ht="15" hidden="1" spans="1:7">
       <c r="A71" s="5" t="s">
         <v>34</v>
       </c>
@@ -5288,7 +5297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:7">
+    <row r="72" ht="15" hidden="1" spans="1:7">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="1:7">
+    <row r="73" ht="15" hidden="1" spans="1:7">
       <c r="A73" s="5" t="s">
         <v>161</v>
       </c>
@@ -5334,7 +5343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:7">
+    <row r="74" ht="15" hidden="1" spans="1:7">
       <c r="A74" s="5" t="s">
         <v>165</v>
       </c>
@@ -5357,7 +5366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="1:7">
+    <row r="75" ht="15" hidden="1" spans="1:7">
       <c r="A75" s="5" t="s">
         <v>167</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="1:7">
+    <row r="76" ht="15" hidden="1" spans="1:7">
       <c r="A76" s="5" t="s">
         <v>170</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="1:7">
+    <row r="77" ht="15" hidden="1" spans="1:7">
       <c r="A77" s="5" t="s">
         <v>172</v>
       </c>
@@ -5426,7 +5435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="1:7">
+    <row r="78" ht="15" hidden="1" spans="1:7">
       <c r="A78" s="5" t="s">
         <v>174</v>
       </c>
@@ -5472,7 +5481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="1:7">
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="5" t="s">
         <v>176</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="1:7">
+    <row r="81" ht="15" hidden="1" spans="1:7">
       <c r="A81" s="5" t="s">
         <v>179</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="1:7">
+    <row r="82" ht="15" hidden="1" spans="1:7">
       <c r="A82" s="5" t="s">
         <v>156</v>
       </c>
@@ -5541,7 +5550,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="1:7">
+    <row r="83" ht="15" hidden="1" spans="1:7">
       <c r="A83" s="5" t="s">
         <v>181</v>
       </c>
@@ -5587,7 +5596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" s="5" t="s">
         <v>186</v>
       </c>
@@ -5610,7 +5619,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="1:7">
+    <row r="86" ht="15" hidden="1" spans="1:7">
       <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
@@ -5633,7 +5642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="1:7">
+    <row r="87" ht="15" hidden="1" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>191</v>
       </c>
@@ -5656,7 +5665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="1:7">
+    <row r="88" ht="15" hidden="1" spans="1:7">
       <c r="A88" s="5" t="s">
         <v>193</v>
       </c>
@@ -5725,7 +5734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="1:7">
+    <row r="91" hidden="1" spans="1:7">
       <c r="A91" s="5" t="s">
         <v>198</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="1:7">
+    <row r="92" ht="15" hidden="1" spans="1:7">
       <c r="A92" s="5" t="s">
         <v>200</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:7">
+    <row r="93" ht="15" hidden="1" spans="1:7">
       <c r="A93" s="5" t="s">
         <v>201</v>
       </c>
@@ -5794,7 +5803,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="1:7">
+    <row r="94" ht="15" hidden="1" spans="1:7">
       <c r="A94" s="5" t="s">
         <v>72</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="1:7">
+    <row r="95" ht="15" hidden="1" spans="1:7">
       <c r="A95" s="5" t="s">
         <v>202</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="1:7">
+    <row r="96" ht="15" hidden="1" spans="1:7">
       <c r="A96" s="5" t="s">
         <v>206</v>
       </c>
@@ -5863,7 +5872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="1:7">
+    <row r="97" ht="15" hidden="1" spans="1:7">
       <c r="A97" s="5" t="s">
         <v>209</v>
       </c>
@@ -5886,7 +5895,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="1:7">
+    <row r="98" ht="15" hidden="1" spans="1:7">
       <c r="A98" s="5" t="s">
         <v>211</v>
       </c>
@@ -5909,7 +5918,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="1:7">
+    <row r="99" ht="15" hidden="1" spans="1:7">
       <c r="A99" s="5" t="s">
         <v>211</v>
       </c>
@@ -5932,7 +5941,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="1:7">
+    <row r="100" ht="15" hidden="1" spans="1:7">
       <c r="A100" s="5" t="s">
         <v>216</v>
       </c>
@@ -5942,7 +5951,7 @@
       <c r="C100" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -5978,7 +5987,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:7">
+    <row r="102" hidden="1" spans="1:7">
       <c r="A102" s="5" t="s">
         <v>218</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:7">
+    <row r="103" ht="15" hidden="1" spans="1:7">
       <c r="A103" s="5" t="s">
         <v>219</v>
       </c>
@@ -6024,7 +6033,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:7">
+    <row r="104" ht="15" hidden="1" spans="1:7">
       <c r="A104" s="5" t="s">
         <v>219</v>
       </c>
@@ -6047,7 +6056,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:7">
+    <row r="105" ht="15" hidden="1" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>221</v>
       </c>
@@ -6070,7 +6079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:7">
+    <row r="106" ht="15" hidden="1" spans="1:7">
       <c r="A106" s="5" t="s">
         <v>221</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:7">
+    <row r="107" ht="15" hidden="1" spans="1:7">
       <c r="A107" s="5" t="s">
         <v>223</v>
       </c>
@@ -6116,7 +6125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="1:7">
+    <row r="108" ht="15" hidden="1" spans="1:7">
       <c r="A108" s="5" t="s">
         <v>223</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="1:7">
+    <row r="109" ht="15" hidden="1" spans="1:7">
       <c r="A109" s="5" t="s">
         <v>225</v>
       </c>
@@ -6162,7 +6171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="1:7">
+    <row r="110" ht="15" hidden="1" spans="1:7">
       <c r="A110" s="5" t="s">
         <v>225</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="1:7">
+    <row r="111" ht="15" hidden="1" spans="1:7">
       <c r="A111" s="5" t="s">
         <v>227</v>
       </c>
@@ -6208,7 +6217,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="1:7">
+    <row r="112" ht="15" hidden="1" spans="1:7">
       <c r="A112" s="5" t="s">
         <v>153</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="1:7">
+    <row r="113" ht="15" hidden="1" spans="1:7">
       <c r="A113" s="5" t="s">
         <v>155</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="1:7">
+    <row r="114" ht="15" hidden="1" spans="1:7">
       <c r="A114" s="5" t="s">
         <v>230</v>
       </c>
@@ -6300,7 +6309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="1:7">
+    <row r="116" hidden="1" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>234</v>
       </c>
@@ -6323,7 +6332,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="1:7">
+    <row r="117" ht="15" hidden="1" spans="1:7">
       <c r="A117" s="5" t="s">
         <v>236</v>
       </c>
@@ -6346,7 +6355,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:7">
+    <row r="118" ht="15" hidden="1" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>239</v>
       </c>
@@ -6369,7 +6378,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="1:7">
+    <row r="119" ht="15" hidden="1" spans="1:7">
       <c r="A119" s="5" t="s">
         <v>241</v>
       </c>
@@ -6415,7 +6424,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>193</v>
       </c>
@@ -6438,7 +6447,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="1:7">
+    <row r="122" ht="15" hidden="1" spans="1:7">
       <c r="A122" s="5" t="s">
         <v>197</v>
       </c>
@@ -6461,7 +6470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:7">
+    <row r="123" ht="15" hidden="1" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>72</v>
       </c>
@@ -6484,7 +6493,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="1:7">
+    <row r="124" ht="15" hidden="1" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>245</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="1:7">
+    <row r="125" ht="15" hidden="1" spans="1:7">
       <c r="A125" s="5" t="s">
         <v>248</v>
       </c>
@@ -6530,7 +6539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:7">
+    <row r="126" ht="15" hidden="1" spans="1:7">
       <c r="A126" s="5" t="s">
         <v>252</v>
       </c>
@@ -6553,7 +6562,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:7">
+    <row r="127" ht="15" hidden="1" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>255</v>
       </c>
@@ -6576,7 +6585,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="1:7">
+    <row r="128" ht="15" hidden="1" spans="1:7">
       <c r="A128" s="5" t="s">
         <v>257</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="1:7">
+    <row r="130" hidden="1" spans="1:7">
       <c r="A130" s="5" t="s">
         <v>262</v>
       </c>
@@ -6645,7 +6654,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="1:7">
+    <row r="131" ht="15" hidden="1" spans="1:7">
       <c r="A131" s="5" t="s">
         <v>153</v>
       </c>
@@ -6668,7 +6677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="1:7">
+    <row r="132" ht="15" hidden="1" spans="1:7">
       <c r="A132" s="5" t="s">
         <v>155</v>
       </c>
@@ -6691,7 +6700,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" ht="15" spans="1:7">
+    <row r="133" ht="15" hidden="1" spans="1:7">
       <c r="A133" s="5" t="s">
         <v>265</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="5" t="s">
         <v>269</v>
       </c>
@@ -6760,7 +6769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:7">
+    <row r="136" ht="15" hidden="1" spans="1:7">
       <c r="A136" s="5" t="s">
         <v>271</v>
       </c>
@@ -6783,7 +6792,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="1:7">
+    <row r="137" ht="15" hidden="1" spans="1:7">
       <c r="A137" s="5" t="s">
         <v>273</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="1:7">
+    <row r="138" ht="15" hidden="1" spans="1:7">
       <c r="A138" s="5" t="s">
         <v>275</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="1:7">
+    <row r="139" ht="15" hidden="1" spans="1:7">
       <c r="A139" s="5" t="s">
         <v>278</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="1:7">
+    <row r="140" ht="15" hidden="1" spans="1:7">
       <c r="A140" s="5" t="s">
         <v>280</v>
       </c>
@@ -6875,7 +6884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="1:7">
+    <row r="141" ht="15" hidden="1" spans="1:7">
       <c r="A141" s="5" t="s">
         <v>282</v>
       </c>
@@ -6898,7 +6907,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" ht="15" spans="1:7">
+    <row r="142" ht="15" hidden="1" spans="1:7">
       <c r="A142" s="5" t="s">
         <v>285</v>
       </c>
@@ -6921,7 +6930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" ht="15" spans="1:7">
+    <row r="143" ht="15" hidden="1" spans="1:7">
       <c r="A143" s="5" t="s">
         <v>288</v>
       </c>
@@ -6944,7 +6953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="1:7">
+    <row r="144" ht="15" hidden="1" spans="1:7">
       <c r="A144" s="5" t="s">
         <v>290</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" ht="15" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="5" t="s">
         <v>293</v>
       </c>
@@ -7013,7 +7022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" ht="15" spans="1:7">
+    <row r="147" ht="15" hidden="1" spans="1:7">
       <c r="A147" s="5" t="s">
         <v>298</v>
       </c>
@@ -7036,7 +7045,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" ht="15" spans="1:7">
+    <row r="148" ht="15" hidden="1" spans="1:7">
       <c r="A148" s="5" t="s">
         <v>302</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" ht="15" spans="1:7">
+    <row r="149" ht="15" hidden="1" spans="1:7">
       <c r="A149" s="5" t="s">
         <v>304</v>
       </c>
@@ -7082,7 +7091,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="1:7">
+    <row r="150" ht="15" hidden="1" spans="1:7">
       <c r="A150" s="5" t="s">
         <v>307</v>
       </c>
@@ -7105,7 +7114,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" ht="15" spans="1:7">
+    <row r="151" ht="15" hidden="1" spans="1:7">
       <c r="A151" s="5" t="s">
         <v>309</v>
       </c>
@@ -7128,7 +7137,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="1:7">
+    <row r="152" ht="15" hidden="1" spans="1:7">
       <c r="A152" s="5" t="s">
         <v>311</v>
       </c>
@@ -7151,7 +7160,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" ht="15" spans="1:7">
+    <row r="153" ht="15" hidden="1" spans="1:7">
       <c r="A153" s="5" t="s">
         <v>311</v>
       </c>
@@ -7174,7 +7183,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" ht="15" spans="1:7">
+    <row r="154" ht="15" hidden="1" spans="1:7">
       <c r="A154" s="5" t="s">
         <v>314</v>
       </c>
@@ -7197,7 +7206,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" ht="15" spans="1:7">
+    <row r="155" ht="15" hidden="1" spans="1:7">
       <c r="A155" s="5" t="s">
         <v>314</v>
       </c>
@@ -7220,7 +7229,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" ht="15" spans="1:7">
+    <row r="156" ht="15" hidden="1" spans="1:7">
       <c r="A156" s="5" t="s">
         <v>316</v>
       </c>
@@ -7243,7 +7252,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" ht="15" spans="1:7">
+    <row r="157" ht="15" hidden="1" spans="1:7">
       <c r="A157" s="5" t="s">
         <v>316</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="158" ht="15" spans="1:7">
+    <row r="158" ht="15" hidden="1" spans="1:7">
       <c r="A158" s="5" t="s">
         <v>319</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" ht="15" spans="1:7">
+    <row r="159" ht="15" hidden="1" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>320</v>
       </c>
@@ -7496,7 +7505,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" ht="15" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="5" t="s">
         <v>330</v>
       </c>
@@ -7519,7 +7528,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="1:7">
+    <row r="169" ht="15" hidden="1" spans="1:7">
       <c r="A169" s="5" t="s">
         <v>332</v>
       </c>
@@ -7542,7 +7551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" ht="15" spans="1:7">
+    <row r="170" ht="15" hidden="1" spans="1:7">
       <c r="A170" s="5" t="s">
         <v>334</v>
       </c>
@@ -7565,7 +7574,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="171" ht="15" spans="1:7">
+    <row r="171" ht="15" hidden="1" spans="1:7">
       <c r="A171" s="5" t="s">
         <v>336</v>
       </c>
@@ -7588,7 +7597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" ht="15" spans="1:7">
+    <row r="172" ht="15" hidden="1" spans="1:7">
       <c r="A172" s="5" t="s">
         <v>338</v>
       </c>
@@ -7611,7 +7620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="173" ht="15" spans="1:7">
+    <row r="173" ht="15" hidden="1" spans="1:7">
       <c r="A173" s="5" t="s">
         <v>341</v>
       </c>
@@ -7634,7 +7643,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" ht="15" spans="1:7">
+    <row r="174" ht="15" hidden="1" spans="1:7">
       <c r="A174" s="5" t="s">
         <v>343</v>
       </c>
@@ -7657,7 +7666,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" ht="15" spans="1:7">
+    <row r="175" ht="15" hidden="1" spans="1:7">
       <c r="A175" s="5" t="s">
         <v>345</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" ht="15" spans="1:7">
+    <row r="176" ht="15" hidden="1" spans="1:7">
       <c r="A176" s="5" t="s">
         <v>347</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" ht="15" spans="1:7">
+    <row r="177" ht="15" hidden="1" spans="1:7">
       <c r="A177" s="5" t="s">
         <v>347</v>
       </c>
@@ -7726,7 +7735,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="178" ht="15" spans="1:7">
+    <row r="178" ht="15" hidden="1" spans="1:7">
       <c r="A178" s="5" t="s">
         <v>348</v>
       </c>
@@ -7749,7 +7758,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" ht="15" spans="1:7">
+    <row r="179" ht="15" hidden="1" spans="1:7">
       <c r="A179" s="5" t="s">
         <v>348</v>
       </c>
@@ -7772,7 +7781,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" ht="15" spans="1:7">
+    <row r="180" ht="15" hidden="1" spans="1:7">
       <c r="A180" s="5" t="s">
         <v>351</v>
       </c>
@@ -7933,7 +7942,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" ht="15" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" s="5" t="s">
         <v>359</v>
       </c>
@@ -7956,7 +7965,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" ht="15" spans="1:7">
+    <row r="188" ht="15" hidden="1" spans="1:7">
       <c r="A188" s="5" t="s">
         <v>361</v>
       </c>
@@ -7979,7 +7988,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" ht="15" spans="1:7">
+    <row r="189" ht="15" hidden="1" spans="1:7">
       <c r="A189" s="5" t="s">
         <v>363</v>
       </c>
@@ -8002,7 +8011,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" ht="15" spans="1:7">
+    <row r="190" ht="15" hidden="1" spans="1:7">
       <c r="A190" s="5" t="s">
         <v>366</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" ht="15" spans="1:7">
+    <row r="191" ht="15" hidden="1" spans="1:7">
       <c r="A191" s="5" t="s">
         <v>368</v>
       </c>
@@ -8048,7 +8057,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="192" ht="15" spans="1:7">
+    <row r="192" ht="15" hidden="1" spans="1:7">
       <c r="A192" s="5" t="s">
         <v>370</v>
       </c>
@@ -8071,7 +8080,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" ht="15" spans="1:7">
+    <row r="193" ht="15" hidden="1" spans="1:7">
       <c r="A193" s="5" t="s">
         <v>371</v>
       </c>
@@ -8186,7 +8195,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" ht="15" spans="1:7">
+    <row r="198" hidden="1" spans="1:7">
       <c r="A198" s="5" t="s">
         <v>377</v>
       </c>
@@ -8209,7 +8218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" ht="15" spans="1:7">
+    <row r="199" ht="15" hidden="1" spans="1:7">
       <c r="A199" s="5" t="s">
         <v>379</v>
       </c>
@@ -8232,7 +8241,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" ht="15" spans="1:7">
+    <row r="200" ht="15" hidden="1" spans="1:7">
       <c r="A200" s="5" t="s">
         <v>330</v>
       </c>
@@ -8255,7 +8264,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" ht="15" spans="1:7">
+    <row r="201" ht="15" hidden="1" spans="1:7">
       <c r="A201" s="5" t="s">
         <v>381</v>
       </c>
@@ -8278,7 +8287,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" ht="15" spans="1:7">
+    <row r="202" ht="15" hidden="1" spans="1:7">
       <c r="A202" s="5" t="s">
         <v>382</v>
       </c>
@@ -8301,7 +8310,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" ht="15" spans="1:7">
+    <row r="203" ht="15" hidden="1" spans="1:7">
       <c r="A203" s="5" t="s">
         <v>382</v>
       </c>
@@ -8324,7 +8333,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="204" ht="15" spans="1:7">
+    <row r="204" ht="15" hidden="1" spans="1:7">
       <c r="A204" s="5" t="s">
         <v>384</v>
       </c>
@@ -8439,7 +8448,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" ht="15" spans="1:7">
+    <row r="209" hidden="1" spans="1:7">
       <c r="A209" s="5" t="s">
         <v>389</v>
       </c>
@@ -8462,7 +8471,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" ht="15" spans="1:7">
+    <row r="210" ht="15" hidden="1" spans="1:7">
       <c r="A210" s="5" t="s">
         <v>361</v>
       </c>
@@ -8485,7 +8494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="211" ht="15" spans="1:7">
+    <row r="211" ht="15" hidden="1" spans="1:7">
       <c r="A211" s="5" t="s">
         <v>393</v>
       </c>
@@ -8508,7 +8517,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="212" ht="15" spans="1:7">
+    <row r="212" ht="15" hidden="1" spans="1:7">
       <c r="A212" s="5" t="s">
         <v>395</v>
       </c>
@@ -8531,7 +8540,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" ht="15" spans="1:7">
+    <row r="213" ht="15" hidden="1" spans="1:7">
       <c r="A213" s="5" t="s">
         <v>398</v>
       </c>
@@ -8554,7 +8563,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="214" ht="15" spans="1:7">
+    <row r="214" ht="15" hidden="1" spans="1:7">
       <c r="A214" s="5" t="s">
         <v>398</v>
       </c>
@@ -8577,7 +8586,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="215" ht="15" spans="1:7">
+    <row r="215" ht="15" hidden="1" spans="1:7">
       <c r="A215" s="5" t="s">
         <v>399</v>
       </c>
@@ -8600,7 +8609,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="216" ht="15" spans="1:7">
+    <row r="216" ht="15" hidden="1" spans="1:7">
       <c r="A216" s="5" t="s">
         <v>399</v>
       </c>
@@ -8715,7 +8724,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="221" ht="15" spans="1:7">
+    <row r="221" hidden="1" spans="1:7">
       <c r="A221" s="5" t="s">
         <v>402</v>
       </c>
@@ -8738,7 +8747,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="222" ht="15" spans="1:7">
+    <row r="222" ht="15" hidden="1" spans="1:7">
       <c r="A222" s="5" t="s">
         <v>405</v>
       </c>
@@ -8761,7 +8770,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" ht="15" spans="1:7">
+    <row r="223" ht="15" hidden="1" spans="1:7">
       <c r="A223" s="5" t="s">
         <v>408</v>
       </c>
@@ -8784,7 +8793,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" ht="15" spans="1:7">
+    <row r="224" ht="15" hidden="1" spans="1:7">
       <c r="A224" s="5" t="s">
         <v>409</v>
       </c>
@@ -8830,7 +8839,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" ht="15" spans="1:7">
+    <row r="226" hidden="1" spans="1:7">
       <c r="A226" s="5" t="s">
         <v>293</v>
       </c>
@@ -8853,7 +8862,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" ht="15" spans="1:7">
+    <row r="227" ht="15" hidden="1" spans="1:7">
       <c r="A227" s="5" t="s">
         <v>411</v>
       </c>
@@ -8876,7 +8885,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="228" ht="15" spans="1:7">
+    <row r="228" ht="15" hidden="1" spans="1:7">
       <c r="A228" s="5" t="s">
         <v>412</v>
       </c>
@@ -8899,7 +8908,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" ht="15" spans="1:7">
+    <row r="229" ht="15" hidden="1" spans="1:7">
       <c r="A229" s="5" t="s">
         <v>412</v>
       </c>
@@ -8922,7 +8931,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="230" ht="15" spans="1:7">
+    <row r="230" ht="15" hidden="1" spans="1:7">
       <c r="A230" s="5" t="s">
         <v>414</v>
       </c>
@@ -8945,7 +8954,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="231" ht="15" spans="1:7">
+    <row r="231" ht="15" hidden="1" spans="1:7">
       <c r="A231" s="5" t="s">
         <v>415</v>
       </c>
@@ -8968,7 +8977,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="232" ht="15" spans="1:7">
+    <row r="232" ht="15" hidden="1" spans="1:7">
       <c r="A232" s="5" t="s">
         <v>415</v>
       </c>
@@ -8991,7 +9000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="233" ht="15" spans="1:7">
+    <row r="233" ht="15" hidden="1" spans="1:7">
       <c r="A233" s="5" t="s">
         <v>269</v>
       </c>
@@ -9037,7 +9046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" ht="15" spans="1:7">
+    <row r="235" hidden="1" spans="1:7">
       <c r="A235" s="5" t="s">
         <v>421</v>
       </c>
@@ -9060,7 +9069,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="236" ht="15" spans="1:7">
+    <row r="236" ht="15" hidden="1" spans="1:7">
       <c r="A236" s="5" t="s">
         <v>421</v>
       </c>
@@ -9083,7 +9092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" ht="15" spans="1:7">
+    <row r="237" ht="15" hidden="1" spans="1:7">
       <c r="A237" s="5" t="s">
         <v>424</v>
       </c>
@@ -9106,7 +9115,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="238" ht="15" spans="1:7">
+    <row r="238" ht="15" hidden="1" spans="1:7">
       <c r="A238" s="5" t="s">
         <v>425</v>
       </c>
@@ -9129,7 +9138,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="239" ht="15" spans="1:7">
+    <row r="239" ht="15" hidden="1" spans="1:7">
       <c r="A239" s="5" t="s">
         <v>428</v>
       </c>
@@ -9152,7 +9161,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="240" ht="15" spans="1:7">
+    <row r="240" ht="15" hidden="1" spans="1:7">
       <c r="A240" s="5" t="s">
         <v>429</v>
       </c>
@@ -9175,7 +9184,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="241" ht="15" spans="1:7">
+    <row r="241" ht="15" hidden="1" spans="1:7">
       <c r="A241" s="5" t="s">
         <v>432</v>
       </c>
@@ -9198,7 +9207,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="242" ht="15" spans="1:7">
+    <row r="242" ht="15" hidden="1" spans="1:7">
       <c r="A242" s="5" t="s">
         <v>434</v>
       </c>
@@ -9244,7 +9253,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="244" ht="15" spans="1:7">
+    <row r="244" hidden="1" spans="1:7">
       <c r="A244" s="5" t="s">
         <v>438</v>
       </c>
@@ -9267,7 +9276,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="245" ht="15" spans="1:7">
+    <row r="245" ht="15" hidden="1" spans="1:7">
       <c r="A245" s="5" t="s">
         <v>440</v>
       </c>
@@ -9290,7 +9299,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="246" ht="15" spans="1:7">
+    <row r="246" ht="15" hidden="1" spans="1:7">
       <c r="A246" s="5" t="s">
         <v>442</v>
       </c>
@@ -9313,7 +9322,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="247" ht="15" spans="1:7">
+    <row r="247" ht="15" hidden="1" spans="1:7">
       <c r="A247" s="5" t="s">
         <v>445</v>
       </c>
@@ -9336,7 +9345,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="248" ht="15" spans="1:7">
+    <row r="248" ht="15" hidden="1" spans="1:7">
       <c r="A248" s="5" t="s">
         <v>447</v>
       </c>
@@ -9359,7 +9368,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="249" ht="15" spans="1:7">
+    <row r="249" ht="15" hidden="1" spans="1:7">
       <c r="A249" s="5" t="s">
         <v>449</v>
       </c>
@@ -9382,7 +9391,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" ht="15" spans="1:7">
+    <row r="250" ht="15" hidden="1" spans="1:7">
       <c r="A250" s="5" t="s">
         <v>451</v>
       </c>
@@ -9405,7 +9414,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" ht="15" spans="1:7">
+    <row r="251" ht="15" hidden="1" spans="1:7">
       <c r="A251" s="5" t="s">
         <v>454</v>
       </c>
@@ -9428,7 +9437,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" ht="15" spans="1:7">
+    <row r="252" ht="15" hidden="1" spans="1:7">
       <c r="A252" s="5" t="s">
         <v>456</v>
       </c>
@@ -9451,7 +9460,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" ht="15" spans="1:7">
+    <row r="253" ht="15" hidden="1" spans="1:7">
       <c r="A253" s="5" t="s">
         <v>458</v>
       </c>
@@ -9497,7 +9506,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" ht="15" spans="1:7">
+    <row r="255" hidden="1" spans="1:7">
       <c r="A255" s="5" t="s">
         <v>462</v>
       </c>
@@ -9520,7 +9529,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="256" ht="15" spans="1:7">
+    <row r="256" ht="15" hidden="1" spans="1:7">
       <c r="A256" s="5" t="s">
         <v>465</v>
       </c>
@@ -9543,7 +9552,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="257" ht="15" spans="1:7">
+    <row r="257" ht="15" hidden="1" spans="1:7">
       <c r="A257" s="5" t="s">
         <v>467</v>
       </c>
@@ -9566,7 +9575,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" ht="15" spans="1:7">
+    <row r="258" ht="15" hidden="1" spans="1:7">
       <c r="A258" s="5" t="s">
         <v>470</v>
       </c>
@@ -9589,7 +9598,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="259" ht="15" spans="1:7">
+    <row r="259" ht="15" hidden="1" spans="1:7">
       <c r="A259" s="5" t="s">
         <v>473</v>
       </c>
@@ -9658,7 +9667,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="262" ht="15" spans="1:7">
+    <row r="262" hidden="1" spans="1:7">
       <c r="A262" s="5" t="s">
         <v>479</v>
       </c>
@@ -9681,7 +9690,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="263" ht="15" spans="1:7">
+    <row r="263" ht="15" hidden="1" spans="1:7">
       <c r="A263" s="5" t="s">
         <v>480</v>
       </c>
@@ -9727,7 +9736,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" hidden="1" spans="1:7">
       <c r="A265" s="5" t="s">
         <v>484</v>
       </c>
@@ -9750,7 +9759,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" hidden="1" spans="1:7">
       <c r="A266" s="5" t="s">
         <v>489</v>
       </c>
@@ -9773,7 +9782,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" hidden="1" spans="1:7">
       <c r="A267" s="5" t="s">
         <v>492</v>
       </c>
@@ -9796,7 +9805,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" ht="15" spans="1:7">
+    <row r="268" ht="15" hidden="1" spans="1:7">
       <c r="A268" s="5" t="s">
         <v>496</v>
       </c>
@@ -9819,7 +9828,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="269" ht="15" spans="1:7">
+    <row r="269" ht="15" hidden="1" spans="1:7">
       <c r="A269" s="5" t="s">
         <v>498</v>
       </c>
@@ -9842,7 +9851,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="270" ht="15" spans="1:7">
+    <row r="270" ht="15" hidden="1" spans="1:7">
       <c r="A270" s="5" t="s">
         <v>500</v>
       </c>
@@ -9865,7 +9874,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" hidden="1" spans="1:7">
       <c r="A271" s="5" t="s">
         <v>502</v>
       </c>
@@ -9888,7 +9897,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" hidden="1" spans="1:7">
       <c r="A272" s="5" t="s">
         <v>502</v>
       </c>
@@ -9911,7 +9920,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" hidden="1" spans="1:7">
       <c r="A273" s="5" t="s">
         <v>505</v>
       </c>
@@ -9934,7 +9943,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" ht="15" hidden="1" spans="1:7">
       <c r="A274" s="5" t="s">
         <v>507</v>
       </c>
@@ -9957,7 +9966,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" ht="15" spans="1:7">
       <c r="A275" s="5" t="s">
         <v>510</v>
       </c>
@@ -9980,7 +9989,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" ht="15" spans="1:7">
       <c r="A276" s="5" t="s">
         <v>510</v>
       </c>
@@ -10003,7 +10012,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" ht="15" spans="1:7">
       <c r="A277" s="5" t="s">
         <v>512</v>
       </c>
@@ -10026,7 +10035,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" ht="15" spans="1:7">
       <c r="A278" s="5" t="s">
         <v>513</v>
       </c>
@@ -10049,7 +10058,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" hidden="1" spans="1:7">
       <c r="A279" s="5" t="s">
         <v>515</v>
       </c>
@@ -10072,7 +10081,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" hidden="1" spans="1:7">
       <c r="A280" s="5" t="s">
         <v>516</v>
       </c>
@@ -10095,7 +10104,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" hidden="1" spans="1:7">
       <c r="A281" s="5" t="s">
         <v>517</v>
       </c>
@@ -10118,7 +10127,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" hidden="1" spans="1:7">
       <c r="A282" s="5" t="s">
         <v>519</v>
       </c>
@@ -10141,7 +10150,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" hidden="1" spans="1:7">
       <c r="A283" s="5" t="s">
         <v>521</v>
       </c>
@@ -10164,7 +10173,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" hidden="1" spans="1:7">
       <c r="A284" s="5" t="s">
         <v>522</v>
       </c>
@@ -10187,7 +10196,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" hidden="1" spans="1:7">
       <c r="A285" s="5" t="s">
         <v>523</v>
       </c>
@@ -10210,7 +10219,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" ht="15" hidden="1" spans="1:7">
       <c r="A286" s="5" t="s">
         <v>526</v>
       </c>
@@ -10256,7 +10265,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" hidden="1" spans="1:7">
       <c r="A288" s="5" t="s">
         <v>528</v>
       </c>
@@ -10279,7 +10288,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" ht="15" spans="1:7">
+    <row r="289" ht="15" hidden="1" spans="1:7">
       <c r="A289" s="5" t="s">
         <v>531</v>
       </c>
@@ -10302,7 +10311,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="290" ht="15" spans="1:7">
+    <row r="290" ht="15" hidden="1" spans="1:7">
       <c r="A290" s="5" t="s">
         <v>531</v>
       </c>
@@ -10325,7 +10334,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" hidden="1" spans="1:7">
       <c r="A291" s="5" t="s">
         <v>534</v>
       </c>
@@ -10348,7 +10357,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" hidden="1" spans="1:7">
       <c r="A292" s="5" t="s">
         <v>537</v>
       </c>
@@ -10371,7 +10380,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" hidden="1" spans="1:7">
       <c r="A293" s="5" t="s">
         <v>539</v>
       </c>
@@ -10394,7 +10403,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" hidden="1" spans="1:7">
       <c r="A294" s="5" t="s">
         <v>540</v>
       </c>
@@ -10417,7 +10426,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" hidden="1" spans="1:7">
       <c r="A295" s="5" t="s">
         <v>541</v>
       </c>
@@ -10440,7 +10449,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="296" ht="15" spans="1:7">
+    <row r="296" ht="15" hidden="1" spans="1:7">
       <c r="A296" s="5" t="s">
         <v>543</v>
       </c>
@@ -10463,7 +10472,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="297" ht="15" spans="1:7">
+    <row r="297" ht="15" hidden="1" spans="1:7">
       <c r="A297" s="5" t="s">
         <v>544</v>
       </c>
@@ -10486,7 +10495,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" ht="15" spans="1:7">
       <c r="A298" s="5" t="s">
         <v>545</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" ht="15" spans="1:7">
       <c r="A299" s="5" t="s">
         <v>546</v>
       </c>
@@ -10578,7 +10587,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" hidden="1" spans="1:7">
       <c r="A302" s="5" t="s">
         <v>550</v>
       </c>
@@ -10601,7 +10610,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="303" ht="15" spans="1:7">
+    <row r="303" ht="15" hidden="1" spans="1:7">
       <c r="A303" s="5" t="s">
         <v>552</v>
       </c>
@@ -10624,7 +10633,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" ht="15" spans="1:7">
+    <row r="304" ht="15" hidden="1" spans="1:7">
       <c r="A304" s="5" t="s">
         <v>553</v>
       </c>
@@ -10647,7 +10656,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" hidden="1" spans="1:7">
       <c r="A305" s="5" t="s">
         <v>554</v>
       </c>
@@ -10670,7 +10679,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" hidden="1" spans="1:7">
       <c r="A306" s="5" t="s">
         <v>556</v>
       </c>
@@ -10693,7 +10702,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="307" ht="15" spans="1:7">
+    <row r="307" ht="15" hidden="1" spans="1:7">
       <c r="A307" s="5" t="s">
         <v>558</v>
       </c>
@@ -10716,7 +10725,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="308" ht="15" spans="1:7">
+    <row r="308" ht="15" hidden="1" spans="1:7">
       <c r="A308" s="5" t="s">
         <v>558</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" ht="15" hidden="1" spans="1:7">
       <c r="A309" s="5" t="s">
         <v>559</v>
       </c>
@@ -10762,7 +10771,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" ht="15" spans="1:7">
+    <row r="310" ht="15" hidden="1" spans="1:7">
       <c r="A310" s="5" t="s">
         <v>561</v>
       </c>
@@ -10785,7 +10794,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" ht="15" hidden="1" spans="1:7">
       <c r="A311" s="5" t="s">
         <v>562</v>
       </c>
@@ -10808,7 +10817,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="312" ht="15" spans="1:7">
+    <row r="312" ht="15" hidden="1" spans="1:7">
       <c r="A312" s="5" t="s">
         <v>564</v>
       </c>
@@ -10831,7 +10840,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="313" ht="15" spans="1:7">
+    <row r="313" ht="15" hidden="1" spans="1:7">
       <c r="A313" s="5" t="s">
         <v>564</v>
       </c>
@@ -10854,7 +10863,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" hidden="1" spans="1:7">
       <c r="A314" s="5" t="s">
         <v>566</v>
       </c>
@@ -10877,7 +10886,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="315" ht="15" spans="1:7">
+    <row r="315" ht="15" hidden="1" spans="1:7">
       <c r="A315" s="5" t="s">
         <v>568</v>
       </c>
@@ -10900,7 +10909,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="316" ht="15" spans="1:7">
+    <row r="316" ht="15" hidden="1" spans="1:7">
       <c r="A316" s="5" t="s">
         <v>500</v>
       </c>
@@ -10923,7 +10932,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" hidden="1" spans="1:7">
       <c r="A317" s="5" t="s">
         <v>556</v>
       </c>
@@ -10946,7 +10955,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" hidden="1" spans="1:7">
       <c r="A318" s="5" t="s">
         <v>484</v>
       </c>
@@ -10969,7 +10978,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" ht="15" hidden="1" spans="1:7">
       <c r="A319" s="5" t="s">
         <v>526</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" ht="15" spans="1:7">
       <c r="A320" s="5" t="s">
         <v>554</v>
       </c>
@@ -11015,7 +11024,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" hidden="1" spans="1:7">
       <c r="A321" s="5" t="s">
         <v>523</v>
       </c>
@@ -11038,7 +11047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="322" ht="15" spans="1:7">
+    <row r="322" ht="15" hidden="1" spans="1:7">
       <c r="A322" s="5" t="s">
         <v>573</v>
       </c>
@@ -11061,7 +11070,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" hidden="1" spans="1:7">
       <c r="A323" s="5" t="s">
         <v>574</v>
       </c>
@@ -11084,7 +11093,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" hidden="1" spans="1:7">
       <c r="A324" s="5" t="s">
         <v>576</v>
       </c>
@@ -11107,7 +11116,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325" ht="15" spans="1:7">
+    <row r="325" ht="15" hidden="1" spans="1:7">
       <c r="A325" s="5" t="s">
         <v>577</v>
       </c>
@@ -11130,7 +11139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" hidden="1" spans="1:7">
       <c r="A326" s="5" t="s">
         <v>579</v>
       </c>
@@ -11153,7 +11162,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" hidden="1" spans="1:7">
       <c r="A327" s="5" t="s">
         <v>581</v>
       </c>
@@ -11176,7 +11185,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="328" ht="15" spans="1:7">
+    <row r="328" ht="15" hidden="1" spans="1:7">
       <c r="A328" s="5" t="s">
         <v>582</v>
       </c>
@@ -11199,7 +11208,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="329" ht="15" spans="1:7">
+    <row r="329" ht="15" hidden="1" spans="1:7">
       <c r="A329" s="5" t="s">
         <v>582</v>
       </c>
@@ -11222,7 +11231,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" hidden="1" spans="1:7">
       <c r="A330" s="5" t="s">
         <v>584</v>
       </c>
@@ -11245,7 +11254,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" ht="15" hidden="1" spans="1:7">
       <c r="A331" s="5" t="s">
         <v>586</v>
       </c>
@@ -11314,7 +11323,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" ht="15" spans="1:7">
       <c r="A334" s="5" t="s">
         <v>588</v>
       </c>
@@ -11337,7 +11346,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" ht="15" spans="1:7">
       <c r="A335" s="5" t="s">
         <v>589</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" hidden="1" spans="1:7">
       <c r="A336" s="5" t="s">
         <v>550</v>
       </c>
@@ -11383,7 +11392,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" hidden="1" spans="1:7">
       <c r="A337" s="5" t="s">
         <v>500</v>
       </c>
@@ -11406,7 +11415,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338" ht="15" spans="1:7">
+    <row r="338" ht="15" hidden="1" spans="1:7">
       <c r="A338" s="5" t="s">
         <v>543</v>
       </c>
@@ -11429,7 +11438,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="339" ht="15" spans="1:7">
+    <row r="339" ht="15" hidden="1" spans="1:7">
       <c r="A339" s="5" t="s">
         <v>553</v>
       </c>
@@ -11452,7 +11461,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" hidden="1" spans="1:7">
       <c r="A340" s="5" t="s">
         <v>546</v>
       </c>
@@ -11475,7 +11484,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" ht="15" spans="1:7">
+    <row r="341" ht="15" hidden="1" spans="1:7">
       <c r="A341" s="5" t="s">
         <v>591</v>
       </c>
@@ -11498,7 +11507,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" hidden="1" spans="1:7">
       <c r="A342" s="5" t="s">
         <v>592</v>
       </c>
@@ -11521,7 +11530,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" ht="15" hidden="1" spans="1:7">
       <c r="A343" s="5" t="s">
         <v>593</v>
       </c>
@@ -11567,7 +11576,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" ht="15" spans="1:7">
       <c r="A345" s="5" t="s">
         <v>595</v>
       </c>
@@ -11590,7 +11599,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" ht="15" spans="1:7">
       <c r="A346" s="5" t="s">
         <v>596</v>
       </c>
@@ -11613,7 +11622,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" hidden="1" spans="1:7">
       <c r="A347" s="5" t="s">
         <v>528</v>
       </c>
@@ -11636,7 +11645,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" hidden="1" spans="1:7">
       <c r="A348" s="5" t="s">
         <v>541</v>
       </c>
@@ -11659,7 +11668,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="349" ht="15" spans="1:7">
+    <row r="349" ht="15" hidden="1" spans="1:7">
       <c r="A349" s="5" t="s">
         <v>496</v>
       </c>
@@ -11682,7 +11691,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" hidden="1" spans="1:7">
       <c r="A350" s="5" t="s">
         <v>597</v>
       </c>
@@ -11705,7 +11714,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351" ht="15" spans="1:7">
+    <row r="351" ht="15" hidden="1" spans="1:7">
       <c r="A351" s="5" t="s">
         <v>552</v>
       </c>
@@ -11728,7 +11737,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="352" ht="15" spans="1:7">
+    <row r="352" ht="15" hidden="1" spans="1:7">
       <c r="A352" s="5" t="s">
         <v>498</v>
       </c>
@@ -11751,7 +11760,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="353" ht="15" spans="1:7">
+    <row r="353" ht="15" hidden="1" spans="1:7">
       <c r="A353" s="5" t="s">
         <v>547</v>
       </c>
@@ -11774,7 +11783,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" hidden="1" spans="1:7">
       <c r="A354" s="5" t="s">
         <v>598</v>
       </c>
@@ -11797,7 +11806,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" hidden="1" spans="1:7">
       <c r="A355" s="5" t="s">
         <v>599</v>
       </c>
@@ -11820,7 +11829,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" ht="15" hidden="1" spans="1:7">
       <c r="A356" s="5" t="s">
         <v>600</v>
       </c>
@@ -11843,7 +11852,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" ht="15" spans="1:7">
       <c r="A357" s="5" t="s">
         <v>601</v>
       </c>
@@ -11866,7 +11875,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" ht="15" spans="1:7">
       <c r="A358" s="5" t="s">
         <v>602</v>
       </c>
@@ -11889,7 +11898,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" ht="15" spans="1:7">
       <c r="A359" s="5" t="s">
         <v>603</v>
       </c>
@@ -11912,7 +11921,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" hidden="1" spans="1:7">
       <c r="A360" s="5" t="s">
         <v>545</v>
       </c>
@@ -11935,7 +11944,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" hidden="1" spans="1:7">
       <c r="A361" s="5" t="s">
         <v>540</v>
       </c>
@@ -11958,7 +11967,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" hidden="1" spans="1:7">
       <c r="A362" s="5" t="s">
         <v>489</v>
       </c>
@@ -11981,7 +11990,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="363" ht="15" spans="1:7">
+    <row r="363" ht="15" hidden="1" spans="1:7">
       <c r="A363" s="5" t="s">
         <v>568</v>
       </c>
@@ -12004,7 +12013,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="364" ht="15" spans="1:7">
+    <row r="364" ht="15" hidden="1" spans="1:7">
       <c r="A364" s="5" t="s">
         <v>604</v>
       </c>
@@ -12027,7 +12036,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="365" ht="15" spans="1:7">
+    <row r="365" ht="15" hidden="1" spans="1:7">
       <c r="A365" s="5" t="s">
         <v>607</v>
       </c>
@@ -12050,7 +12059,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="366" ht="15" spans="1:7">
+    <row r="366" ht="15" hidden="1" spans="1:7">
       <c r="A366" s="5" t="s">
         <v>607</v>
       </c>
@@ -12073,7 +12082,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="367" ht="15" spans="1:7">
+    <row r="367" ht="15" hidden="1" spans="1:7">
       <c r="A367" s="5" t="s">
         <v>523</v>
       </c>
@@ -12119,7 +12128,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="369" ht="15" spans="1:7">
+    <row r="369" hidden="1" spans="1:7">
       <c r="A369" s="5" t="s">
         <v>610</v>
       </c>
@@ -12142,7 +12151,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="370" ht="15" spans="1:7">
+    <row r="370" ht="15" hidden="1" spans="1:7">
       <c r="A370" s="5" t="s">
         <v>612</v>
       </c>
@@ -12165,7 +12174,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="371" ht="15" spans="1:7">
+    <row r="371" ht="15" hidden="1" spans="1:7">
       <c r="A371" s="5" t="s">
         <v>614</v>
       </c>
@@ -12188,7 +12197,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="372" ht="15" spans="1:7">
+    <row r="372" ht="15" hidden="1" spans="1:7">
       <c r="A372" s="5" t="s">
         <v>616</v>
       </c>
@@ -12211,7 +12220,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="373" ht="15" spans="1:7">
+    <row r="373" ht="15" hidden="1" spans="1:7">
       <c r="A373" s="5" t="s">
         <v>618</v>
       </c>
@@ -12257,7 +12266,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="375" ht="15" spans="1:7">
+    <row r="375" hidden="1" spans="1:7">
       <c r="A375" s="5" t="s">
         <v>621</v>
       </c>
@@ -12280,7 +12289,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="376" ht="15" spans="1:7">
+    <row r="376" ht="15" hidden="1" spans="1:7">
       <c r="A376" s="5" t="s">
         <v>500</v>
       </c>
@@ -12303,7 +12312,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="377" ht="15" spans="1:7">
+    <row r="377" ht="15" hidden="1" spans="1:7">
       <c r="A377" s="5" t="s">
         <v>528</v>
       </c>
@@ -12349,7 +12358,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" ht="15" spans="1:7">
+    <row r="379" hidden="1" spans="1:7">
       <c r="A379" s="5" t="s">
         <v>626</v>
       </c>
@@ -12372,7 +12381,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="380" ht="15" spans="1:7">
+    <row r="380" ht="15" hidden="1" spans="1:7">
       <c r="A380" s="5" t="s">
         <v>629</v>
       </c>
@@ -12395,7 +12404,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="381" ht="15" spans="1:7">
+    <row r="381" ht="15" hidden="1" spans="1:7">
       <c r="A381" s="5" t="s">
         <v>631</v>
       </c>
@@ -12418,7 +12427,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="382" ht="15" spans="1:7">
+    <row r="382" ht="15" hidden="1" spans="1:7">
       <c r="A382" s="5" t="s">
         <v>633</v>
       </c>
@@ -12441,7 +12450,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="383" ht="15" spans="1:7">
+    <row r="383" ht="15" hidden="1" spans="1:7">
       <c r="A383" s="5" t="s">
         <v>635</v>
       </c>
@@ -12464,7 +12473,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="384" ht="15" spans="1:7">
+    <row r="384" ht="15" hidden="1" spans="1:7">
       <c r="A384" s="5" t="s">
         <v>637</v>
       </c>
@@ -12487,7 +12496,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="385" ht="15" spans="1:7">
+    <row r="385" ht="15" hidden="1" spans="1:7">
       <c r="A385" s="5" t="s">
         <v>638</v>
       </c>
@@ -12510,7 +12519,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="386" ht="15" spans="1:7">
+    <row r="386" ht="15" hidden="1" spans="1:7">
       <c r="A386" s="5" t="s">
         <v>643</v>
       </c>
@@ -12533,7 +12542,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="387" ht="15" spans="1:7">
+    <row r="387" ht="15" hidden="1" spans="1:7">
       <c r="A387" s="5" t="s">
         <v>644</v>
       </c>
@@ -12556,7 +12565,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="388" ht="15" spans="1:7">
+    <row r="388" ht="15" hidden="1" spans="1:7">
       <c r="A388" s="5" t="s">
         <v>646</v>
       </c>
@@ -12602,7 +12611,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" ht="15" spans="1:7">
+    <row r="390" hidden="1" spans="1:7">
       <c r="A390" s="5" t="s">
         <v>649</v>
       </c>
@@ -12625,7 +12634,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="391" ht="15" spans="1:7">
+    <row r="391" ht="15" hidden="1" spans="1:7">
       <c r="A391" s="5" t="s">
         <v>649</v>
       </c>
@@ -12648,7 +12657,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="392" ht="15" spans="1:7">
+    <row r="392" ht="15" hidden="1" spans="1:7">
       <c r="A392" s="5" t="s">
         <v>653</v>
       </c>
@@ -12694,7 +12703,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="394" ht="15" spans="1:7">
+    <row r="394" hidden="1" spans="1:7">
       <c r="A394" s="5" t="s">
         <v>654</v>
       </c>
@@ -12717,7 +12726,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="395" ht="15" spans="1:7">
+    <row r="395" ht="15" hidden="1" spans="1:7">
       <c r="A395" s="5" t="s">
         <v>658</v>
       </c>
@@ -12740,7 +12749,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="396" ht="15" spans="1:7">
+    <row r="396" ht="15" hidden="1" spans="1:7">
       <c r="A396" s="5" t="s">
         <v>661</v>
       </c>
@@ -12763,7 +12772,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="397" ht="15" spans="1:7">
+    <row r="397" ht="15" hidden="1" spans="1:7">
       <c r="A397" s="5" t="s">
         <v>662</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="398" ht="15" spans="1:7">
+    <row r="398" ht="15" hidden="1" spans="1:7">
       <c r="A398" s="5" t="s">
         <v>663</v>
       </c>
@@ -12809,7 +12818,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="399" ht="15" spans="1:7">
+    <row r="399" ht="15" hidden="1" spans="1:7">
       <c r="A399" s="5" t="s">
         <v>664</v>
       </c>
@@ -12832,7 +12841,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="400" ht="15" spans="1:7">
+    <row r="400" ht="15" hidden="1" spans="1:7">
       <c r="A400" s="5" t="s">
         <v>666</v>
       </c>
@@ -12855,7 +12864,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="401" ht="15" spans="1:7">
+    <row r="401" ht="15" hidden="1" spans="1:7">
       <c r="A401" s="5" t="s">
         <v>666</v>
       </c>
@@ -12878,7 +12887,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="402" ht="15" spans="1:7">
+    <row r="402" ht="15" hidden="1" spans="1:7">
       <c r="A402" s="5" t="s">
         <v>667</v>
       </c>
@@ -12924,7 +12933,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="404" ht="15" spans="1:7">
+    <row r="404" hidden="1" spans="1:7">
       <c r="A404" s="5" t="s">
         <v>668</v>
       </c>
@@ -12947,7 +12956,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="405" ht="15" spans="1:7">
+    <row r="405" ht="15" hidden="1" spans="1:7">
       <c r="A405" s="5" t="s">
         <v>671</v>
       </c>
@@ -12970,7 +12979,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="406" ht="15" spans="1:7">
+    <row r="406" ht="15" hidden="1" spans="1:7">
       <c r="A406" s="5" t="s">
         <v>673</v>
       </c>
@@ -12993,7 +13002,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="407" ht="15" spans="1:7">
+    <row r="407" ht="15" hidden="1" spans="1:7">
       <c r="A407" s="5" t="s">
         <v>676</v>
       </c>
@@ -13016,7 +13025,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="408" ht="15" spans="1:7">
+    <row r="408" ht="15" hidden="1" spans="1:7">
       <c r="A408" s="5" t="s">
         <v>676</v>
       </c>
@@ -13039,7 +13048,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="409" ht="15" spans="1:7">
+    <row r="409" ht="15" hidden="1" spans="1:7">
       <c r="A409" s="5" t="s">
         <v>682</v>
       </c>
@@ -13062,7 +13071,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" ht="15" spans="1:7">
+    <row r="410" ht="15" hidden="1" spans="1:7">
       <c r="A410" s="5" t="s">
         <v>682</v>
       </c>
@@ -13085,7 +13094,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="411" ht="15" spans="1:7">
+    <row r="411" ht="15" hidden="1" spans="1:7">
       <c r="A411" s="5" t="s">
         <v>685</v>
       </c>
@@ -13108,7 +13117,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="412" ht="15" spans="1:7">
+    <row r="412" ht="15" hidden="1" spans="1:7">
       <c r="A412" s="5" t="s">
         <v>685</v>
       </c>
@@ -13131,7 +13140,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="413" ht="15" spans="1:7">
+    <row r="413" ht="15" hidden="1" spans="1:7">
       <c r="A413" s="5" t="s">
         <v>689</v>
       </c>
@@ -13154,7 +13163,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="414" ht="15" spans="1:7">
+    <row r="414" ht="15" hidden="1" spans="1:7">
       <c r="A414" s="5" t="s">
         <v>689</v>
       </c>
@@ -13177,7 +13186,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="415" ht="15" spans="1:7">
+    <row r="415" ht="15" hidden="1" spans="1:7">
       <c r="A415" s="5" t="s">
         <v>692</v>
       </c>
@@ -13200,7 +13209,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="416" ht="15" spans="1:7">
+    <row r="416" ht="15" hidden="1" spans="1:7">
       <c r="A416" s="5" t="s">
         <v>692</v>
       </c>
@@ -13223,7 +13232,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="417" ht="15" spans="1:7">
+    <row r="417" ht="15" hidden="1" spans="1:7">
       <c r="A417" s="5" t="s">
         <v>694</v>
       </c>
@@ -13246,7 +13255,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="418" ht="15" spans="1:7">
+    <row r="418" ht="15" hidden="1" spans="1:7">
       <c r="A418" s="5" t="s">
         <v>694</v>
       </c>
@@ -13269,7 +13278,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" ht="15" spans="1:7">
+    <row r="419" ht="15" hidden="1" spans="1:7">
       <c r="A419" s="5" t="s">
         <v>695</v>
       </c>
@@ -13292,7 +13301,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="420" ht="15" spans="1:7">
+    <row r="420" ht="15" hidden="1" spans="1:7">
       <c r="A420" s="5" t="s">
         <v>695</v>
       </c>
@@ -13315,7 +13324,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="421" ht="15" spans="1:7">
+    <row r="421" ht="15" hidden="1" spans="1:7">
       <c r="A421" s="5" t="s">
         <v>696</v>
       </c>
@@ -13338,7 +13347,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="422" ht="15" spans="1:7">
+    <row r="422" ht="15" hidden="1" spans="1:7">
       <c r="A422" s="5" t="s">
         <v>696</v>
       </c>
@@ -13361,7 +13370,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="423" ht="15" spans="1:7">
+    <row r="423" ht="15" hidden="1" spans="1:7">
       <c r="A423" s="5" t="s">
         <v>700</v>
       </c>
@@ -13384,7 +13393,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="424" ht="15" spans="1:7">
+    <row r="424" ht="15" hidden="1" spans="1:7">
       <c r="A424" s="5" t="s">
         <v>703</v>
       </c>
@@ -13407,7 +13416,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="425" ht="15" spans="1:7">
+    <row r="425" ht="15" hidden="1" spans="1:7">
       <c r="A425" s="5" t="s">
         <v>704</v>
       </c>
@@ -13430,7 +13439,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="426" ht="15" spans="1:7">
+    <row r="426" ht="15" hidden="1" spans="1:7">
       <c r="A426" s="5" t="s">
         <v>706</v>
       </c>
@@ -13453,7 +13462,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="427" ht="15" spans="1:7">
+    <row r="427" ht="15" hidden="1" spans="1:7">
       <c r="A427" s="5" t="s">
         <v>708</v>
       </c>
@@ -13499,7 +13508,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="429" ht="15" spans="1:7">
+    <row r="429" hidden="1" spans="1:7">
       <c r="A429" s="5" t="s">
         <v>712</v>
       </c>
@@ -13545,7 +13554,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" ht="15" spans="1:7">
+    <row r="431" hidden="1" spans="1:7">
       <c r="A431" s="5" t="s">
         <v>715</v>
       </c>
@@ -13591,1368 +13600,1368 @@
         <v>642</v>
       </c>
     </row>
-    <row r="433" ht="15" spans="1:7">
-      <c r="A433" s="7" t="s">
+    <row r="433" hidden="1" spans="1:7">
+      <c r="A433" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C433" s="7" t="s">
+      <c r="C433" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="D433" s="7" t="s">
+      <c r="D433" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E433" s="7" t="s">
+      <c r="E433" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F433" s="7" t="s">
+      <c r="F433" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="G433" s="7" t="s">
+      <c r="G433" s="8" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="434" ht="15" spans="1:7">
-      <c r="A434" s="8" t="s">
+    <row r="434" ht="15" hidden="1" spans="1:7">
+      <c r="A434" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B434" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C434" s="8" t="s">
+      <c r="C434" s="9" t="s">
         <v>716</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E434" s="8" t="s">
+      <c r="E434" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F434" s="8" t="s">
+      <c r="F434" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G434" s="8" t="s">
+      <c r="G434" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="435" ht="15" spans="1:7">
-      <c r="A435" s="8" t="s">
+    <row r="435" ht="15" hidden="1" spans="1:7">
+      <c r="A435" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B435" s="8" t="s">
+      <c r="B435" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C435" s="8" t="s">
+      <c r="C435" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D435" s="8" t="s">
+      <c r="D435" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E435" s="8" t="s">
+      <c r="E435" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F435" s="8" t="s">
+      <c r="F435" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G435" s="8" t="s">
+      <c r="G435" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="436" ht="15" spans="1:7">
-      <c r="A436" s="8" t="s">
+    <row r="436" ht="15" hidden="1" spans="1:7">
+      <c r="A436" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B436" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C436" s="8" t="s">
+      <c r="C436" s="9" t="s">
         <v>292</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E436" s="8" t="s">
+      <c r="E436" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F436" s="8" t="s">
+      <c r="F436" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G436" s="8" t="s">
+      <c r="G436" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="437" ht="15" spans="1:7">
-      <c r="A437" s="8" t="s">
+    <row r="437" ht="15" hidden="1" spans="1:7">
+      <c r="A437" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="B437" s="8" t="s">
+      <c r="B437" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C437" s="8" t="s">
+      <c r="C437" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D437" s="8" t="s">
+      <c r="D437" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E437" s="8" t="s">
+      <c r="E437" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F437" s="8" t="s">
+      <c r="F437" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G437" s="8" t="s">
+      <c r="G437" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:7">
-      <c r="A438" s="8" t="s">
+      <c r="A438" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B438" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C438" s="8" t="s">
+      <c r="C438" s="9" t="s">
         <v>721</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E438" s="8" t="s">
+      <c r="E438" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F438" s="8" t="s">
+      <c r="F438" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G438" s="8" t="s">
+      <c r="G438" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="439" ht="15" spans="1:7">
-      <c r="A439" s="8" t="s">
+    <row r="439" hidden="1" spans="1:7">
+      <c r="A439" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C439" s="8" t="s">
+      <c r="C439" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D439" s="8" t="s">
+      <c r="D439" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E439" s="8" t="s">
+      <c r="E439" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F439" s="8" t="s">
+      <c r="F439" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G439" s="8" t="s">
+      <c r="G439" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="440" ht="15" spans="1:7">
-      <c r="A440" s="8" t="s">
+      <c r="A440" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B440" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C440" s="8" t="s">
+      <c r="C440" s="9" t="s">
         <v>721</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E440" s="8" t="s">
+      <c r="E440" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F440" s="8" t="s">
+      <c r="F440" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G440" s="8" t="s">
+      <c r="G440" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
-      <c r="A441" s="8" t="s">
+    <row r="441" hidden="1" spans="1:7">
+      <c r="A441" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B441" s="8" t="s">
+      <c r="B441" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C441" s="8" t="s">
+      <c r="C441" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D441" s="8" t="s">
+      <c r="D441" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="E441" s="8" t="s">
+      <c r="E441" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F441" s="8" t="s">
+      <c r="F441" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G441" s="8" t="s">
+      <c r="G441" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
-      <c r="A442" s="8" t="s">
+    <row r="442" hidden="1" spans="1:7">
+      <c r="A442" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B442" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C442" s="8" t="s">
+      <c r="C442" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D442" s="8" t="s">
+      <c r="D442" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="E442" s="8" t="s">
+      <c r="E442" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F442" s="8" t="s">
+      <c r="F442" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G442" s="8" t="s">
+      <c r="G442" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
-      <c r="A443" s="8" t="s">
+    <row r="443" hidden="1" spans="1:7">
+      <c r="A443" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B443" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C443" s="8" t="s">
+      <c r="C443" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D443" s="8" t="s">
+      <c r="D443" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="E443" s="8" t="s">
+      <c r="E443" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F443" s="8" t="s">
+      <c r="F443" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G443" s="8" t="s">
+      <c r="G443" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
-      <c r="A444" s="8" t="s">
+    <row r="444" hidden="1" spans="1:7">
+      <c r="A444" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B444" s="8" t="s">
+      <c r="B444" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C444" s="8" t="s">
+      <c r="C444" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D444" s="8" t="s">
+      <c r="D444" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="E444" s="8" t="s">
+      <c r="E444" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F444" s="8" t="s">
+      <c r="F444" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G444" s="8" t="s">
+      <c r="G444" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="445" ht="15" spans="1:7">
-      <c r="A445" s="8" t="s">
+    <row r="445" ht="15" hidden="1" spans="1:7">
+      <c r="A445" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B445" s="8" t="s">
+      <c r="B445" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C445" s="8" t="s">
+      <c r="C445" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D445" s="8" t="s">
+      <c r="D445" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E445" s="8" t="s">
+      <c r="E445" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F445" s="8" t="s">
+      <c r="F445" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G445" s="8" t="s">
+      <c r="G445" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:7">
-      <c r="A446" s="8" t="s">
+      <c r="A446" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B446" s="8" t="s">
+      <c r="B446" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C446" s="8" t="s">
+      <c r="C446" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E446" s="8" t="s">
+      <c r="E446" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F446" s="8" t="s">
+      <c r="F446" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G446" s="8" t="s">
+      <c r="G446" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
-      <c r="A447" s="8" t="s">
+    <row r="447" hidden="1" spans="1:7">
+      <c r="A447" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C447" s="8" t="s">
+      <c r="C447" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D447" s="8" t="s">
+      <c r="D447" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E447" s="8" t="s">
+      <c r="E447" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F447" s="8" t="s">
+      <c r="F447" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G447" s="8" t="s">
+      <c r="G447" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="448" ht="15" spans="1:7">
-      <c r="A448" s="8" t="s">
+    <row r="448" ht="15" hidden="1" spans="1:7">
+      <c r="A448" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B448" s="8" t="s">
+      <c r="B448" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C448" s="8" t="s">
+      <c r="C448" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D448" s="8" t="s">
+      <c r="D448" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E448" s="8" t="s">
+      <c r="E448" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F448" s="8" t="s">
+      <c r="F448" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G448" s="8" t="s">
+      <c r="G448" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="449" ht="15" spans="1:7">
-      <c r="A449" s="8" t="s">
+    <row r="449" ht="15" hidden="1" spans="1:7">
+      <c r="A449" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B449" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C449" s="8" t="s">
+      <c r="C449" s="9" t="s">
         <v>728</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E449" s="8" t="s">
+      <c r="E449" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F449" s="8" t="s">
+      <c r="F449" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G449" s="8" t="s">
+      <c r="G449" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="450" ht="15" spans="1:7">
-      <c r="A450" s="8" t="s">
+    <row r="450" ht="15" hidden="1" spans="1:7">
+      <c r="A450" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B450" s="8" t="s">
+      <c r="B450" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C450" s="8" t="s">
+      <c r="C450" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D450" s="8" t="s">
+      <c r="D450" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E450" s="8" t="s">
+      <c r="E450" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F450" s="8" t="s">
+      <c r="F450" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G450" s="8" t="s">
+      <c r="G450" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="451" ht="15" spans="1:7">
-      <c r="A451" s="8" t="s">
+      <c r="A451" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B451" s="8" t="s">
+      <c r="B451" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C451" s="8" t="s">
+      <c r="C451" s="9" t="s">
         <v>728</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E451" s="8" t="s">
+      <c r="E451" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F451" s="8" t="s">
+      <c r="F451" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G451" s="8" t="s">
+      <c r="G451" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="452" ht="15" spans="1:7">
-      <c r="A452" s="8" t="s">
+    <row r="452" hidden="1" spans="1:7">
+      <c r="A452" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B452" s="8" t="s">
+      <c r="B452" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C452" s="8" t="s">
+      <c r="C452" s="9" t="s">
         <v>733</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E452" s="8" t="s">
+      <c r="E452" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F452" s="8" t="s">
+      <c r="F452" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G452" s="8" t="s">
+      <c r="G452" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="453" ht="15" spans="1:7">
-      <c r="A453" s="8" t="s">
+    <row r="453" ht="15" hidden="1" spans="1:7">
+      <c r="A453" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B453" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C453" s="8" t="s">
+      <c r="C453" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D453" s="8" t="s">
+      <c r="D453" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E453" s="8" t="s">
+      <c r="E453" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F453" s="8" t="s">
+      <c r="F453" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G453" s="8" t="s">
+      <c r="G453" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="454" ht="15" spans="1:7">
-      <c r="A454" s="8" t="s">
+    <row r="454" ht="15" hidden="1" spans="1:7">
+      <c r="A454" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B454" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C454" s="8" t="s">
+      <c r="C454" s="9" t="s">
         <v>733</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E454" s="8" t="s">
+      <c r="E454" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F454" s="8" t="s">
+      <c r="F454" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G454" s="8" t="s">
+      <c r="G454" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="455" ht="15" spans="1:7">
-      <c r="A455" s="8" t="s">
+    <row r="455" ht="15" hidden="1" spans="1:7">
+      <c r="A455" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C455" s="8" t="s">
+      <c r="C455" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D455" s="8" t="s">
+      <c r="D455" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E455" s="8" t="s">
+      <c r="E455" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F455" s="8" t="s">
+      <c r="F455" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G455" s="8" t="s">
+      <c r="G455" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:7">
-      <c r="A456" s="8" t="s">
+      <c r="A456" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B456" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C456" s="8" t="s">
+      <c r="C456" s="9" t="s">
         <v>733</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E456" s="8" t="s">
+      <c r="E456" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F456" s="8" t="s">
+      <c r="F456" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G456" s="8" t="s">
+      <c r="G456" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="457" ht="15" spans="1:7">
-      <c r="A457" s="8" t="s">
+    <row r="457" hidden="1" spans="1:7">
+      <c r="A457" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B457" s="8" t="s">
+      <c r="B457" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C457" s="8" t="s">
+      <c r="C457" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D457" s="8" t="s">
+      <c r="D457" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E457" s="8" t="s">
+      <c r="E457" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F457" s="8" t="s">
+      <c r="F457" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G457" s="8" t="s">
+      <c r="G457" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="458" ht="15" spans="1:7">
-      <c r="A458" s="8" t="s">
+    <row r="458" ht="15" hidden="1" spans="1:7">
+      <c r="A458" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B458" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C458" s="8" t="s">
+      <c r="C458" s="9" t="s">
         <v>733</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E458" s="8" t="s">
+      <c r="E458" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F458" s="8" t="s">
+      <c r="F458" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G458" s="8" t="s">
+      <c r="G458" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="459" ht="15" spans="1:7">
-      <c r="A459" s="8" t="s">
+    <row r="459" ht="15" hidden="1" spans="1:7">
+      <c r="A459" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B459" s="8" t="s">
+      <c r="B459" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C459" s="8" t="s">
+      <c r="C459" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D459" s="8" t="s">
+      <c r="D459" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E459" s="8" t="s">
+      <c r="E459" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F459" s="8" t="s">
+      <c r="F459" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G459" s="8" t="s">
+      <c r="G459" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="460" ht="15" spans="1:7">
-      <c r="A460" s="8" t="s">
+    <row r="460" ht="15" hidden="1" spans="1:7">
+      <c r="A460" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B460" s="8" t="s">
+      <c r="B460" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C460" s="8" t="s">
+      <c r="C460" s="9" t="s">
         <v>570</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E460" s="8" t="s">
+      <c r="E460" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F460" s="8" t="s">
+      <c r="F460" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G460" s="8" t="s">
+      <c r="G460" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="461" ht="15" spans="1:7">
-      <c r="A461" s="8" t="s">
+    <row r="461" ht="15" hidden="1" spans="1:7">
+      <c r="A461" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B461" s="8" t="s">
+      <c r="B461" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C461" s="8" t="s">
+      <c r="C461" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D461" s="8" t="s">
+      <c r="D461" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E461" s="8" t="s">
+      <c r="E461" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F461" s="8" t="s">
+      <c r="F461" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G461" s="8" t="s">
+      <c r="G461" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="462" ht="15" spans="1:7">
-      <c r="A462" s="8" t="s">
+      <c r="A462" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B462" s="8" t="s">
+      <c r="B462" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C462" s="8" t="s">
+      <c r="C462" s="9" t="s">
         <v>570</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E462" s="8" t="s">
+      <c r="E462" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F462" s="8" t="s">
+      <c r="F462" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G462" s="8" t="s">
+      <c r="G462" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="8" t="s">
+    <row r="463" hidden="1" spans="1:7">
+      <c r="A463" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B463" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C463" s="8" t="s">
+      <c r="C463" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D463" s="8" t="s">
+      <c r="D463" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E463" s="8" t="s">
+      <c r="E463" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F463" s="8" t="s">
+      <c r="F463" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G463" s="8" t="s">
+      <c r="G463" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="8" t="s">
+    <row r="464" hidden="1" spans="1:7">
+      <c r="A464" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="B464" s="8" t="s">
+      <c r="B464" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C464" s="8" t="s">
+      <c r="C464" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D464" s="8" t="s">
+      <c r="D464" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E464" s="8" t="s">
+      <c r="E464" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F464" s="8" t="s">
+      <c r="F464" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G464" s="8" t="s">
+      <c r="G464" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
-      <c r="A465" s="8" t="s">
+    <row r="465" hidden="1" spans="1:7">
+      <c r="A465" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="B465" s="8" t="s">
+      <c r="B465" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C465" s="8" t="s">
+      <c r="C465" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D465" s="8" t="s">
+      <c r="D465" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E465" s="8" t="s">
+      <c r="E465" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F465" s="8" t="s">
+      <c r="F465" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G465" s="8" t="s">
+      <c r="G465" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="466" ht="15" spans="1:7">
-      <c r="A466" s="8" t="s">
+    <row r="466" ht="15" hidden="1" spans="1:7">
+      <c r="A466" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B466" s="8" t="s">
+      <c r="B466" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C466" s="8" t="s">
+      <c r="C466" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D466" s="8" t="s">
+      <c r="D466" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E466" s="8" t="s">
+      <c r="E466" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F466" s="8" t="s">
+      <c r="F466" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G466" s="8" t="s">
+      <c r="G466" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="467" ht="15" spans="1:7">
-      <c r="A467" s="8" t="s">
+    <row r="467" ht="15" hidden="1" spans="1:7">
+      <c r="A467" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="B467" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C467" s="8" t="s">
+      <c r="C467" s="9" t="s">
         <v>754</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E467" s="8" t="s">
+      <c r="E467" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F467" s="8" t="s">
+      <c r="F467" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G467" s="8" t="s">
+      <c r="G467" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="8" t="s">
+    <row r="468" hidden="1" spans="1:7">
+      <c r="A468" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="B468" s="8" t="s">
+      <c r="B468" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="C468" s="8" t="s">
+      <c r="C468" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D468" s="8" t="s">
+      <c r="D468" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E468" s="8" t="s">
+      <c r="E468" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F468" s="8" t="s">
+      <c r="F468" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="G468" s="8" t="s">
+      <c r="G468" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="8" t="s">
+    <row r="469" hidden="1" spans="1:7">
+      <c r="A469" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="B469" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="C469" s="8" t="s">
+      <c r="C469" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D469" s="8" t="s">
+      <c r="D469" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E469" s="8" t="s">
+      <c r="E469" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F469" s="8" t="s">
+      <c r="F469" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="G469" s="8" t="s">
+      <c r="G469" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="8" t="s">
+    <row r="470" hidden="1" spans="1:7">
+      <c r="A470" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="B470" s="8" t="s">
+      <c r="B470" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="C470" s="8" t="s">
+      <c r="C470" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D470" s="8" t="s">
+      <c r="D470" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E470" s="8" t="s">
+      <c r="E470" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F470" s="8" t="s">
+      <c r="F470" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G470" s="8" t="s">
+      <c r="G470" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
-      <c r="A471" s="8" t="s">
+    <row r="471" hidden="1" spans="1:7">
+      <c r="A471" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B471" s="8" t="s">
+      <c r="B471" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="C471" s="8" t="s">
+      <c r="C471" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D471" s="8" t="s">
+      <c r="D471" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E471" s="8" t="s">
+      <c r="E471" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F471" s="8" t="s">
+      <c r="F471" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G471" s="8" t="s">
+      <c r="G471" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="472" ht="15" spans="1:7">
-      <c r="A472" s="8" t="s">
+    <row r="472" ht="15" hidden="1" spans="1:7">
+      <c r="A472" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B472" s="8" t="s">
+      <c r="B472" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C472" s="8" t="s">
+      <c r="C472" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D472" s="8" t="s">
+      <c r="D472" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E472" s="8" t="s">
+      <c r="E472" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F472" s="8" t="s">
+      <c r="F472" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="G472" s="8" t="s">
+      <c r="G472" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="473" ht="15" spans="1:7">
-      <c r="A473" s="8" t="s">
+    <row r="473" ht="15" hidden="1" spans="1:7">
+      <c r="A473" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B473" s="8" t="s">
+      <c r="B473" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C473" s="8" t="s">
+      <c r="C473" s="9" t="s">
         <v>760</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E473" s="8" t="s">
+      <c r="E473" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F473" s="8" t="s">
+      <c r="F473" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="G473" s="8" t="s">
+      <c r="G473" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="474" ht="15" spans="1:7">
-      <c r="A474" s="8" t="s">
+    <row r="474" ht="15" hidden="1" spans="1:7">
+      <c r="A474" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B474" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C474" s="8" t="s">
+      <c r="C474" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D474" s="8" t="s">
+      <c r="D474" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E474" s="8" t="s">
+      <c r="E474" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F474" s="8" t="s">
+      <c r="F474" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G474" s="8" t="s">
+      <c r="G474" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="475" ht="15" spans="1:7">
-      <c r="A475" s="8" t="s">
+    <row r="475" ht="15" hidden="1" spans="1:7">
+      <c r="A475" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B475" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C475" s="8" t="s">
+      <c r="C475" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E475" s="8" t="s">
+      <c r="E475" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F475" s="8" t="s">
+      <c r="F475" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G475" s="8" t="s">
+      <c r="G475" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
-      <c r="A476" s="8" t="s">
+    <row r="476" hidden="1" spans="1:7">
+      <c r="A476" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="B476" s="8" t="s">
+      <c r="B476" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C476" s="8" t="s">
+      <c r="C476" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D476" s="8" t="s">
+      <c r="D476" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E476" s="8" t="s">
+      <c r="E476" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F476" s="8" t="s">
+      <c r="F476" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G476" s="8" t="s">
+      <c r="G476" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="477" ht="15" spans="1:7">
-      <c r="A477" s="8" t="s">
+    <row r="477" ht="15" hidden="1" spans="1:7">
+      <c r="A477" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B477" s="8" t="s">
+      <c r="B477" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C477" s="8" t="s">
+      <c r="C477" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D477" s="8" t="s">
+      <c r="D477" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E477" s="8" t="s">
+      <c r="E477" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F477" s="8" t="s">
+      <c r="F477" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G477" s="8" t="s">
+      <c r="G477" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="478" ht="15" spans="1:7">
-      <c r="A478" s="8" t="s">
+    <row r="478" ht="15" hidden="1" spans="1:7">
+      <c r="A478" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B478" s="8" t="s">
+      <c r="B478" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C478" s="8" t="s">
+      <c r="C478" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E478" s="8" t="s">
+      <c r="E478" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F478" s="8" t="s">
+      <c r="F478" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G478" s="8" t="s">
+      <c r="G478" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
-      <c r="A479" s="8" t="s">
+    <row r="479" hidden="1" spans="1:7">
+      <c r="A479" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B479" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C479" s="8" t="s">
+      <c r="C479" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D479" s="8" t="s">
+      <c r="D479" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="E479" s="8" t="s">
+      <c r="E479" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F479" s="8" t="s">
+      <c r="F479" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G479" s="8" t="s">
+      <c r="G479" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
-      <c r="A480" s="8" t="s">
+    <row r="480" hidden="1" spans="1:7">
+      <c r="A480" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B480" s="8" t="s">
+      <c r="B480" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="C480" s="8" t="s">
+      <c r="C480" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D480" s="8" t="s">
+      <c r="D480" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E480" s="8" t="s">
+      <c r="E480" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F480" s="8" t="s">
+      <c r="F480" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G480" s="8" t="s">
+      <c r="G480" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="481" ht="15" spans="1:7">
-      <c r="A481" s="8" t="s">
+    <row r="481" ht="15" hidden="1" spans="1:7">
+      <c r="A481" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C481" s="8" t="s">
+      <c r="C481" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D481" s="8" t="s">
+      <c r="D481" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E481" s="8" t="s">
+      <c r="E481" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F481" s="8" t="s">
+      <c r="F481" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G481" s="8" t="s">
+      <c r="G481" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="482" ht="15" spans="1:7">
-      <c r="A482" s="8" t="s">
+    <row r="482" ht="15" hidden="1" spans="1:7">
+      <c r="A482" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B482" s="8" t="s">
+      <c r="B482" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="C482" s="8" t="s">
+      <c r="C482" s="9" t="s">
         <v>773</v>
       </c>
       <c r="D482" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E482" s="8" t="s">
+      <c r="E482" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F482" s="8" t="s">
+      <c r="F482" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G482" s="8" t="s">
+      <c r="G482" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="483" ht="15" spans="1:7">
-      <c r="A483" s="8" t="s">
+    <row r="483" ht="15" hidden="1" spans="1:7">
+      <c r="A483" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B483" s="8" t="s">
+      <c r="B483" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C483" s="8" t="s">
+      <c r="C483" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D483" s="8" t="s">
+      <c r="D483" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E483" s="8" t="s">
+      <c r="E483" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F483" s="8" t="s">
+      <c r="F483" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G483" s="8" t="s">
+      <c r="G483" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="484" ht="15" spans="1:7">
-      <c r="A484" s="8" t="s">
+    <row r="484" ht="15" hidden="1" spans="1:7">
+      <c r="A484" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B484" s="8" t="s">
+      <c r="B484" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C484" s="8" t="s">
+      <c r="C484" s="9" t="s">
         <v>773</v>
       </c>
       <c r="D484" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E484" s="8" t="s">
+      <c r="E484" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F484" s="8" t="s">
+      <c r="F484" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G484" s="8" t="s">
+      <c r="G484" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
-      <c r="A485" s="8" t="s">
+    <row r="485" hidden="1" spans="1:7">
+      <c r="A485" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B485" s="8" t="s">
+      <c r="B485" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C485" s="8" t="s">
+      <c r="C485" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D485" s="8" t="s">
+      <c r="D485" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E485" s="8" t="s">
+      <c r="E485" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F485" s="8" t="s">
+      <c r="F485" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G485" s="8" t="s">
+      <c r="G485" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="486" ht="15" spans="1:7">
-      <c r="A486" s="8" t="s">
+    <row r="486" ht="15" hidden="1" spans="1:7">
+      <c r="A486" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B486" s="8" t="s">
+      <c r="B486" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C486" s="8" t="s">
+      <c r="C486" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D486" s="8" t="s">
+      <c r="D486" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E486" s="8" t="s">
+      <c r="E486" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F486" s="8" t="s">
+      <c r="F486" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G486" s="8" t="s">
+      <c r="G486" s="9" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="487" ht="15" spans="1:7">
-      <c r="A487" s="8" t="s">
+      <c r="A487" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B487" s="8" t="s">
+      <c r="B487" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C487" s="8" t="s">
+      <c r="C487" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D487" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E487" s="8" t="s">
+      <c r="E487" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F487" s="8" t="s">
+      <c r="F487" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="G487" s="8" t="s">
+      <c r="G487" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="488" ht="15" spans="1:7">
-      <c r="A488" s="8" t="s">
+    <row r="488" hidden="1" spans="1:7">
+      <c r="A488" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B488" s="8" t="s">
+      <c r="B488" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="C488" s="8" t="s">
+      <c r="C488" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D488" s="8" t="s">
+      <c r="D488" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E488" s="8" t="s">
+      <c r="E488" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F488" s="8" t="s">
+      <c r="F488" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G488" s="8" t="s">
+      <c r="G488" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="489" ht="15" spans="1:7">
-      <c r="A489" s="8" t="s">
+    <row r="489" ht="15" hidden="1" spans="1:7">
+      <c r="A489" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B489" s="8" t="s">
+      <c r="B489" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="C489" s="8" t="s">
+      <c r="C489" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D489" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E489" s="8" t="s">
+      <c r="E489" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F489" s="8" t="s">
+      <c r="F489" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G489" s="8" t="s">
+      <c r="G489" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
-      <c r="A490" s="8" t="s">
+    <row r="490" hidden="1" spans="1:7">
+      <c r="A490" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B490" s="8" t="s">
+      <c r="B490" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C490" s="8" t="s">
+      <c r="C490" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D490" s="8" t="s">
+      <c r="D490" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E490" s="8" t="s">
+      <c r="E490" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F490" s="8" t="s">
+      <c r="F490" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G490" s="8" t="s">
+      <c r="G490" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="491" ht="15" spans="1:7">
-      <c r="A491" s="8" t="s">
+    <row r="491" ht="15" hidden="1" spans="1:7">
+      <c r="A491" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B491" s="8" t="s">
+      <c r="B491" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C491" s="8" t="s">
+      <c r="C491" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D491" s="8" t="s">
+      <c r="D491" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E491" s="8" t="s">
+      <c r="E491" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F491" s="8" t="s">
+      <c r="F491" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="G491" s="8" t="s">
+      <c r="G491" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="492" ht="15" spans="1:7">
-      <c r="A492" s="8" t="s">
+    <row r="492" ht="15" hidden="1" spans="1:7">
+      <c r="A492" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="B492" s="8" t="s">
+      <c r="B492" s="9" t="s">
         <v>788</v>
       </c>
       <c r="C492" s="5" t="s">
@@ -14961,44 +14970,44 @@
       <c r="D492" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E492" s="8" t="s">
+      <c r="E492" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F492" s="8" t="s">
+      <c r="F492" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G492" s="8" t="s">
+      <c r="G492" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="493" ht="15" spans="1:7">
-      <c r="A493" s="8" t="s">
+    <row r="493" ht="15" hidden="1" spans="1:7">
+      <c r="A493" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="B493" s="8" t="s">
+      <c r="B493" s="9" t="s">
         <v>788</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D493" s="8" t="s">
+      <c r="D493" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E493" s="8" t="s">
+      <c r="E493" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F493" s="8" t="s">
+      <c r="F493" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G493" s="8" t="s">
+      <c r="G493" s="9" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="494" ht="15" spans="1:7">
-      <c r="A494" s="8" t="s">
+      <c r="A494" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B494" s="8" t="s">
+      <c r="B494" s="9" t="s">
         <v>788</v>
       </c>
       <c r="C494" s="5" t="s">
@@ -15007,711 +15016,711 @@
       <c r="D494" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E494" s="8" t="s">
+      <c r="E494" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F494" s="8" t="s">
+      <c r="F494" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G494" s="8" t="s">
+      <c r="G494" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="495" ht="15" spans="1:7">
-      <c r="A495" s="8" t="s">
+    <row r="495" hidden="1" spans="1:7">
+      <c r="A495" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="B495" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C495" s="8" t="s">
+      <c r="C495" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D495" s="8" t="s">
+      <c r="D495" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E495" s="8" t="s">
+      <c r="E495" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F495" s="8" t="s">
+      <c r="F495" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G495" s="8" t="s">
+      <c r="G495" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="496" ht="15" spans="1:7">
-      <c r="A496" s="8" t="s">
+    <row r="496" ht="15" hidden="1" spans="1:7">
+      <c r="A496" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B496" s="8" t="s">
+      <c r="B496" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C496" s="8" t="s">
+      <c r="C496" s="9" t="s">
         <v>773</v>
       </c>
       <c r="D496" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E496" s="8" t="s">
+      <c r="E496" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F496" s="8" t="s">
+      <c r="F496" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G496" s="8" t="s">
+      <c r="G496" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="497" ht="15" spans="1:7">
-      <c r="A497" s="8" t="s">
+    <row r="497" ht="15" hidden="1" spans="1:7">
+      <c r="A497" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="B497" s="8" t="s">
+      <c r="B497" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C497" s="8" t="s">
+      <c r="C497" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="D497" s="8" t="s">
+      <c r="D497" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E497" s="8" t="s">
+      <c r="E497" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F497" s="8" t="s">
+      <c r="F497" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G497" s="8" t="s">
+      <c r="G497" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="498" ht="15" spans="1:7">
-      <c r="A498" s="8" t="s">
+    <row r="498" ht="15" hidden="1" spans="1:7">
+      <c r="A498" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B498" s="8" t="s">
+      <c r="B498" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="C498" s="8" t="s">
+      <c r="C498" s="9" t="s">
         <v>793</v>
       </c>
       <c r="D498" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E498" s="8" t="s">
+      <c r="E498" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F498" s="8" t="s">
+      <c r="F498" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G498" s="8" t="s">
+      <c r="G498" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
-      <c r="A499" s="8" t="s">
+    <row r="499" hidden="1" spans="1:7">
+      <c r="A499" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B499" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C499" s="8" t="s">
+      <c r="C499" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="D499" s="8" t="s">
+      <c r="D499" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E499" s="8" t="s">
+      <c r="E499" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F499" s="8" t="s">
+      <c r="F499" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G499" s="8" t="s">
+      <c r="G499" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
-      <c r="A500" s="8" t="s">
+    <row r="500" hidden="1" spans="1:7">
+      <c r="A500" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="B500" s="8" t="s">
+      <c r="B500" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C500" s="8" t="s">
+      <c r="C500" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D500" s="8" t="s">
+      <c r="D500" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E500" s="8" t="s">
+      <c r="E500" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F500" s="8" t="s">
+      <c r="F500" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="G500" s="8" t="s">
+      <c r="G500" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="501" ht="15" spans="1:7">
-      <c r="A501" s="8" t="s">
+    <row r="501" ht="15" hidden="1" spans="1:7">
+      <c r="A501" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B501" s="8" t="s">
+      <c r="B501" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="C501" s="8" t="s">
+      <c r="C501" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D501" s="8" t="s">
+      <c r="D501" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E501" s="8" t="s">
+      <c r="E501" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F501" s="8" t="s">
+      <c r="F501" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G501" s="8" t="s">
+      <c r="G501" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="502" ht="15" spans="1:7">
-      <c r="A502" s="8" t="s">
+    <row r="502" ht="15" hidden="1" spans="1:7">
+      <c r="A502" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B502" s="8" t="s">
+      <c r="B502" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C502" s="8" t="s">
+      <c r="C502" s="9" t="s">
         <v>656</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E502" s="8" t="s">
+      <c r="E502" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F502" s="8" t="s">
+      <c r="F502" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G502" s="8" t="s">
+      <c r="G502" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="503" ht="15" spans="1:7">
-      <c r="A503" s="8" t="s">
+    <row r="503" ht="15" hidden="1" spans="1:7">
+      <c r="A503" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B503" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C503" s="8" t="s">
+      <c r="C503" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="D503" s="8" t="s">
+      <c r="D503" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E503" s="8" t="s">
+      <c r="E503" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F503" s="8" t="s">
+      <c r="F503" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="G503" s="8" t="s">
+      <c r="G503" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="504" ht="15" spans="1:7">
-      <c r="A504" s="8" t="s">
+    <row r="504" ht="15" hidden="1" spans="1:7">
+      <c r="A504" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="B504" s="8" t="s">
+      <c r="B504" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C504" s="8" t="s">
+      <c r="C504" s="9" t="s">
         <v>798</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E504" s="8" t="s">
+      <c r="E504" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F504" s="8" t="s">
+      <c r="F504" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G504" s="8" t="s">
+      <c r="G504" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
-      <c r="A505" s="8" t="s">
+    <row r="505" hidden="1" spans="1:7">
+      <c r="A505" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B505" s="8" t="s">
+      <c r="B505" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C505" s="8" t="s">
+      <c r="C505" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="D505" s="8" t="s">
+      <c r="D505" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E505" s="8" t="s">
+      <c r="E505" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F505" s="8" t="s">
+      <c r="F505" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G505" s="8" t="s">
+      <c r="G505" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="506" ht="15" spans="1:7">
-      <c r="A506" s="8" t="s">
+    <row r="506" ht="15" hidden="1" spans="1:7">
+      <c r="A506" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B506" s="8" t="s">
+      <c r="B506" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C506" s="8" t="s">
+      <c r="C506" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D506" s="8" t="s">
+      <c r="D506" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E506" s="8" t="s">
+      <c r="E506" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F506" s="8" t="s">
+      <c r="F506" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G506" s="8" t="s">
+      <c r="G506" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="507" ht="15" spans="1:7">
-      <c r="A507" s="8" t="s">
+    <row r="507" ht="15" hidden="1" spans="1:7">
+      <c r="A507" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="B507" s="8" t="s">
+      <c r="B507" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C507" s="8" t="s">
+      <c r="C507" s="9" t="s">
         <v>752</v>
       </c>
       <c r="D507" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E507" s="8" t="s">
+      <c r="E507" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F507" s="8" t="s">
+      <c r="F507" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G507" s="8" t="s">
+      <c r="G507" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="508" ht="15" spans="1:7">
-      <c r="A508" s="8" t="s">
+    <row r="508" ht="15" hidden="1" spans="1:7">
+      <c r="A508" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="B508" s="8" t="s">
+      <c r="B508" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C508" s="8" t="s">
+      <c r="C508" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D508" s="8" t="s">
+      <c r="D508" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E508" s="8" t="s">
+      <c r="E508" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F508" s="8" t="s">
+      <c r="F508" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G508" s="8" t="s">
+      <c r="G508" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="509" ht="15" spans="1:7">
-      <c r="A509" s="8" t="s">
+    <row r="509" ht="15" hidden="1" spans="1:7">
+      <c r="A509" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="B509" s="8" t="s">
+      <c r="B509" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="C509" s="8" t="s">
+      <c r="C509" s="9" t="s">
         <v>292</v>
       </c>
       <c r="D509" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E509" s="8" t="s">
+      <c r="E509" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F509" s="8" t="s">
+      <c r="F509" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G509" s="8" t="s">
+      <c r="G509" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
-      <c r="A510" s="8" t="s">
+    <row r="510" hidden="1" spans="1:7">
+      <c r="A510" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="B510" s="8" t="s">
+      <c r="B510" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C510" s="8" t="s">
+      <c r="C510" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="D510" s="8" t="s">
+      <c r="D510" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E510" s="8" t="s">
+      <c r="E510" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F510" s="8" t="s">
+      <c r="F510" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G510" s="8" t="s">
+      <c r="G510" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="511" ht="15" spans="1:7">
-      <c r="A511" s="8" t="s">
+    <row r="511" ht="15" hidden="1" spans="1:7">
+      <c r="A511" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="B511" s="8" t="s">
+      <c r="B511" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C511" s="8" t="s">
+      <c r="C511" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D511" s="8" t="s">
+      <c r="D511" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E511" s="8" t="s">
+      <c r="E511" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F511" s="8" t="s">
+      <c r="F511" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G511" s="8" t="s">
+      <c r="G511" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="512" ht="15" spans="1:7">
-      <c r="A512" s="8" t="s">
+    <row r="512" ht="15" hidden="1" spans="1:7">
+      <c r="A512" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="B512" s="8" t="s">
+      <c r="B512" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C512" s="8" t="s">
+      <c r="C512" s="9" t="s">
         <v>705</v>
       </c>
       <c r="D512" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E512" s="8" t="s">
+      <c r="E512" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F512" s="8" t="s">
+      <c r="F512" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="G512" s="8" t="s">
+      <c r="G512" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="513" ht="15" spans="1:7">
-      <c r="A513" s="8" t="s">
+    <row r="513" ht="15" hidden="1" spans="1:7">
+      <c r="A513" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B513" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="C513" s="8" t="s">
+      <c r="C513" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D513" s="8" t="s">
+      <c r="D513" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E513" s="8" t="s">
+      <c r="E513" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F513" s="8" t="s">
+      <c r="F513" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G513" s="8" t="s">
+      <c r="G513" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="514" ht="15" spans="1:7">
-      <c r="A514" s="8" t="s">
+    <row r="514" ht="15" hidden="1" spans="1:7">
+      <c r="A514" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B514" s="8" t="s">
+      <c r="B514" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C514" s="8" t="s">
+      <c r="C514" s="9" t="s">
         <v>656</v>
       </c>
       <c r="D514" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E514" s="8" t="s">
+      <c r="E514" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F514" s="8" t="s">
+      <c r="F514" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G514" s="8" t="s">
+      <c r="G514" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="515" ht="15" spans="1:7">
-      <c r="A515" s="9" t="s">
+    <row r="515" ht="15" hidden="1" spans="1:7">
+      <c r="A515" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C515" s="9" t="s">
+      <c r="C515" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D515" s="9" t="s">
+      <c r="D515" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E515" s="9" t="s">
+      <c r="E515" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F515" s="9" t="s">
+      <c r="F515" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="G515" s="9" t="s">
+      <c r="G515" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="516" ht="15" spans="1:7">
-      <c r="A516" s="9" t="s">
+    <row r="516" ht="15" hidden="1" spans="1:7">
+      <c r="A516" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C516" s="9" t="s">
+      <c r="C516" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D516" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E516" s="9" t="s">
+      <c r="E516" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F516" s="9" t="s">
+      <c r="F516" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G516" s="9" t="s">
+      <c r="G516" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="517" ht="15" spans="1:7">
-      <c r="A517" s="9" t="s">
+    <row r="517" ht="15" hidden="1" spans="1:7">
+      <c r="A517" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C517" s="9" t="s">
+      <c r="C517" s="10" t="s">
         <v>504</v>
       </c>
       <c r="D517" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E517" s="9" t="s">
+      <c r="E517" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F517" s="9" t="s">
+      <c r="F517" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G517" s="9" t="s">
+      <c r="G517" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="518" ht="15" spans="1:7">
-      <c r="A518" s="9" t="s">
+    <row r="518" ht="15" hidden="1" spans="1:7">
+      <c r="A518" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C518" s="9" t="s">
+      <c r="C518" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D518" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E518" s="9" t="s">
+      <c r="E518" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F518" s="9" t="s">
+      <c r="F518" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G518" s="9" t="s">
+      <c r="G518" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
-      <c r="A519" s="9" t="s">
+    <row r="519" hidden="1" spans="1:7">
+      <c r="A519" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C519" s="9" t="s">
+      <c r="C519" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D519" s="9" t="s">
+      <c r="D519" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E519" s="9" t="s">
+      <c r="E519" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F519" s="9" t="s">
+      <c r="F519" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G519" s="9" t="s">
+      <c r="G519" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
-      <c r="A520" s="9" t="s">
+    <row r="520" hidden="1" spans="1:7">
+      <c r="A520" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C520" s="9" t="s">
+      <c r="C520" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D520" s="9" t="s">
+      <c r="D520" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E520" s="9" t="s">
+      <c r="E520" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F520" s="9" t="s">
+      <c r="F520" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G520" s="9" t="s">
+      <c r="G520" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
-      <c r="A521" s="9" t="s">
+    <row r="521" hidden="1" spans="1:7">
+      <c r="A521" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C521" s="9" t="s">
+      <c r="C521" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D521" s="9" t="s">
+      <c r="D521" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E521" s="9" t="s">
+      <c r="E521" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F521" s="9" t="s">
+      <c r="F521" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G521" s="9" t="s">
+      <c r="G521" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="522" ht="15" spans="1:7">
-      <c r="A522" s="9" t="s">
+    <row r="522" ht="15" hidden="1" spans="1:7">
+      <c r="A522" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="C522" s="9" t="s">
+      <c r="C522" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D522" s="9" t="s">
+      <c r="D522" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E522" s="9" t="s">
+      <c r="E522" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F522" s="9" t="s">
+      <c r="F522" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G522" s="9" t="s">
+      <c r="G522" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="523" ht="15" spans="1:7">
-      <c r="A523" s="9" t="s">
+    <row r="523" ht="15" hidden="1" spans="1:7">
+      <c r="A523" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D523" s="9" t="s">
+      <c r="D523" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E523" s="9" t="s">
+      <c r="E523" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F523" s="9" t="s">
+      <c r="F523" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="G523" s="9" t="s">
+      <c r="G523" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="524" ht="15" spans="1:7">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C524" s="10" t="s">
         <v>300</v>
       </c>
       <c r="D524" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E524" s="9" t="s">
+      <c r="E524" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F524" s="9" t="s">
+      <c r="F524" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G524" s="9" t="s">
+      <c r="G524" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="525" ht="15" spans="1:7">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C525" s="5" t="s">
@@ -15720,409 +15729,414 @@
       <c r="D525" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E525" s="9" t="s">
+      <c r="E525" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F525" s="9" t="s">
+      <c r="F525" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="G525" s="9" t="s">
+      <c r="G525" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="526" ht="15" spans="1:7">
-      <c r="A526" s="9" t="s">
+    <row r="526" hidden="1" spans="1:7">
+      <c r="A526" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C526" s="9" t="s">
+      <c r="C526" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D526" s="9" t="s">
+      <c r="D526" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E526" s="9" t="s">
+      <c r="E526" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F526" s="9" t="s">
+      <c r="F526" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="G526" s="9" t="s">
+      <c r="G526" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="527" ht="15" spans="1:7">
-      <c r="A527" s="9" t="s">
+    <row r="527" ht="15" hidden="1" spans="1:7">
+      <c r="A527" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="C527" s="9" t="s">
+      <c r="C527" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D527" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E527" s="9" t="s">
+      <c r="E527" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F527" s="9" t="s">
+      <c r="F527" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="G527" s="9" t="s">
+      <c r="G527" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="528" ht="15" spans="1:7">
-      <c r="A528" s="9" t="s">
+    <row r="528" ht="15" hidden="1" spans="1:7">
+      <c r="A528" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="C528" s="9" t="s">
+      <c r="C528" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D528" s="9" t="s">
+      <c r="D528" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E528" s="9" t="s">
+      <c r="E528" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F528" s="9" t="s">
+      <c r="F528" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="G528" s="9" t="s">
+      <c r="G528" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="529" ht="15" spans="1:7">
-      <c r="A529" s="9" t="s">
+      <c r="A529" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C529" s="9" t="s">
+      <c r="C529" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D529" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E529" s="9" t="s">
+      <c r="E529" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F529" s="9" t="s">
+      <c r="F529" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="G529" s="9" t="s">
+      <c r="G529" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="530" ht="15" spans="1:7">
-      <c r="A530" s="9" t="s">
+    <row r="530" hidden="1" spans="1:7">
+      <c r="A530" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="C530" s="9" t="s">
+      <c r="C530" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D530" s="9" t="s">
+      <c r="D530" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E530" s="9" t="s">
+      <c r="E530" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F530" s="9" t="s">
+      <c r="F530" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="G530" s="9" t="s">
+      <c r="G530" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="531" ht="15" spans="1:7">
-      <c r="A531" s="9" t="s">
+    <row r="531" ht="15" hidden="1" spans="1:7">
+      <c r="A531" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="C531" s="9" t="s">
+      <c r="C531" s="10" t="s">
         <v>331</v>
       </c>
       <c r="D531" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E531" s="9" t="s">
+      <c r="E531" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F531" s="9" t="s">
+      <c r="F531" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="G531" s="9" t="s">
+      <c r="G531" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="532" ht="15" spans="1:7">
-      <c r="A532" s="9" t="s">
+    <row r="532" ht="15" hidden="1" spans="1:7">
+      <c r="A532" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="C532" s="9" t="s">
+      <c r="C532" s="10" t="s">
         <v>306</v>
       </c>
       <c r="D532" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E532" s="9" t="s">
+      <c r="E532" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F532" s="9" t="s">
+      <c r="F532" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="G532" s="9" t="s">
+      <c r="G532" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
-      <c r="A533" s="9" t="s">
+    <row r="533" hidden="1" spans="1:7">
+      <c r="A533" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="C533" s="9" t="s">
+      <c r="C533" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D533" s="9" t="s">
+      <c r="D533" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E533" s="9" t="s">
+      <c r="E533" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F533" s="9" t="s">
+      <c r="F533" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="G533" s="9" t="s">
+      <c r="G533" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
-      <c r="A534" s="9" t="s">
+    <row r="534" hidden="1" spans="1:7">
+      <c r="A534" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="C534" s="9" t="s">
+      <c r="C534" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D534" s="9" t="s">
+      <c r="D534" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E534" s="9" t="s">
+      <c r="E534" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F534" s="9" t="s">
+      <c r="F534" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="G534" s="9" t="s">
+      <c r="G534" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="535" ht="15" spans="1:7">
-      <c r="A535" s="9" t="s">
+    <row r="535" ht="15" hidden="1" spans="1:7">
+      <c r="A535" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B535" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="C535" s="9" t="s">
+      <c r="C535" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D535" s="9" t="s">
+      <c r="D535" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E535" s="9" t="s">
+      <c r="E535" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F535" s="9" t="s">
+      <c r="F535" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G535" s="9" t="s">
+      <c r="G535" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="536" ht="15" spans="1:7">
-      <c r="A536" s="9" t="s">
+      <c r="A536" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C536" s="10" t="s">
         <v>306</v>
       </c>
       <c r="D536" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E536" s="9" t="s">
+      <c r="E536" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F536" s="9" t="s">
+      <c r="F536" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G536" s="9" t="s">
+      <c r="G536" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="537" ht="15" spans="1:7">
-      <c r="A537" s="9" t="s">
+    <row r="537" hidden="1" spans="1:7">
+      <c r="A537" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C537" s="9" t="s">
+      <c r="C537" s="10" t="s">
         <v>538</v>
       </c>
       <c r="D537" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E537" s="9" t="s">
+      <c r="E537" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F537" s="9" t="s">
+      <c r="F537" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="G537" s="9" t="s">
+      <c r="G537" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="538" ht="15" spans="1:7">
-      <c r="A538" s="9" t="s">
+    <row r="538" ht="15" hidden="1" spans="1:7">
+      <c r="A538" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C538" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D538" s="9" t="s">
+      <c r="D538" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E538" s="9" t="s">
+      <c r="E538" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F538" s="9" t="s">
+      <c r="F538" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G538" s="9" t="s">
+      <c r="G538" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="539" ht="15" spans="1:7">
-      <c r="A539" s="9" t="s">
+      <c r="A539" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="B539" s="9" t="s">
+      <c r="B539" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C539" s="9" t="s">
+      <c r="C539" s="10" t="s">
         <v>300</v>
       </c>
       <c r="D539" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E539" s="9" t="s">
+      <c r="E539" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F539" s="9" t="s">
+      <c r="F539" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G539" s="9" t="s">
+      <c r="G539" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
-      <c r="A540" s="9" t="s">
+    <row r="540" hidden="1" spans="1:7">
+      <c r="A540" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C540" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D540" s="9" t="s">
+      <c r="D540" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E540" s="9" t="s">
+      <c r="E540" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F540" s="9" t="s">
+      <c r="F540" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G540" s="9" t="s">
+      <c r="G540" s="10" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="541" ht="15" spans="1:7">
-      <c r="A541" s="9" t="s">
+    <row r="541" ht="15" hidden="1" spans="1:7">
+      <c r="A541" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C541" s="9" t="s">
+      <c r="C541" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D541" s="9" t="s">
+      <c r="D541" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E541" s="9" t="s">
+      <c r="E541" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F541" s="9" t="s">
+      <c r="F541" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="G541" s="9" t="s">
+      <c r="G541" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="542" ht="15" spans="1:7">
-      <c r="A542" s="9" t="s">
+      <c r="A542" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C542" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D542" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E542" s="9" t="s">
+      <c r="E542" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F542" s="9" t="s">
+      <c r="F542" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="G542" s="9" t="s">
+      <c r="G542" s="10" t="s">
         <v>814</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G542" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="15h30-17"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A1:G542">
       <sortCondition ref="C1"/>
     </sortState>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -80,7 +80,7 @@
     <t>TP-TPRE-a</t>
   </si>
   <si>
-    <t>9h30-11</t>
+    <t>9h30-11h</t>
   </si>
   <si>
     <t>Labo Réseaux</t>
@@ -3625,7 +3625,7 @@
   <dimension ref="A1:H542"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" hidden="1" spans="1:8">
+    <row r="2" ht="15" hidden="1" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" ht="15" hidden="1" spans="1:8">
+    <row r="3" ht="15" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" ht="15" hidden="1" spans="1:8">
+    <row r="4" ht="15" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" ht="15" hidden="1" spans="1:8">
+    <row r="5" ht="15" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" ht="15" hidden="1" spans="1:8">
+    <row r="6" ht="15" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" ht="15" hidden="1" spans="1:8">
+    <row r="7" hidden="1" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" ht="15" spans="1:8">
+    <row r="10" ht="15" hidden="1" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" ht="15" hidden="1" spans="1:8">
+    <row r="12" ht="15" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" ht="15" hidden="1" spans="1:8">
+    <row r="13" hidden="1" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" ht="15" spans="1:8">
+    <row r="15" ht="15" hidden="1" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" hidden="1" spans="1:8">
+    <row r="16" ht="15" hidden="1" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" ht="15" hidden="1" spans="1:8">
+    <row r="17" ht="15" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" ht="15" hidden="1" spans="1:8">
+    <row r="18" hidden="1" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" ht="15" spans="1:8">
+    <row r="20" ht="15" hidden="1" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" hidden="1" spans="1:8">
+    <row r="21" ht="15" hidden="1" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" ht="15" hidden="1" spans="1:8">
+    <row r="22" ht="15" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" ht="15" hidden="1" spans="1:8">
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" ht="15" hidden="1" spans="1:8">
+    <row r="25" ht="15" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" ht="15" hidden="1" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" ht="15" hidden="1" spans="1:7">
+    <row r="27" ht="15" spans="1:7">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="15" hidden="1" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:7">
+    <row r="30" ht="15" hidden="1" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" ht="15" hidden="1" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" ht="15" hidden="1" spans="1:7">
+    <row r="32" ht="15" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="15" hidden="1" spans="1:7">
+    <row r="33" ht="15" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" ht="15" hidden="1" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:7">
+    <row r="37" ht="15" hidden="1" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>101</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:7">
+    <row r="38" ht="15" hidden="1" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" ht="15" hidden="1" spans="1:7">
+    <row r="39" ht="15" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>103</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" ht="15" hidden="1" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:7">
+    <row r="43" ht="15" hidden="1" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:7">
+    <row r="44" ht="15" hidden="1" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>105</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:7">
+    <row r="45" ht="15" hidden="1" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>109</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" ht="15" hidden="1" spans="1:7">
+    <row r="46" ht="15" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>111</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" ht="15" hidden="1" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>114</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" ht="15" hidden="1" spans="1:7">
+    <row r="49" ht="15" spans="1:7">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" ht="15" hidden="1" spans="1:7">
+    <row r="50" hidden="1" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" ht="15" hidden="1" spans="1:7">
+    <row r="51" ht="15" spans="1:7">
       <c r="A51" s="5" t="s">
         <v>121</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" ht="15" hidden="1" spans="1:7">
+    <row r="52" hidden="1" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>124</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:7">
+    <row r="53" ht="15" hidden="1" spans="1:7">
       <c r="A53" s="5" t="s">
         <v>124</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:7">
+    <row r="54" ht="15" hidden="1" spans="1:7">
       <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" ht="15" hidden="1" spans="1:7">
+    <row r="55" ht="15" spans="1:7">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" ht="15" hidden="1" spans="1:7">
+    <row r="56" ht="15" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>132</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" ht="15" hidden="1" spans="1:7">
+    <row r="57" ht="15" spans="1:7">
       <c r="A57" s="5" t="s">
         <v>136</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" ht="15" hidden="1" spans="1:7">
+    <row r="58" hidden="1" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:7">
+    <row r="62" ht="15" hidden="1" spans="1:7">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:7">
+    <row r="63" ht="15" hidden="1" spans="1:7">
       <c r="A63" s="5" t="s">
         <v>146</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" ht="15" hidden="1" spans="1:7">
+    <row r="64" ht="15" spans="1:7">
       <c r="A64" s="5" t="s">
         <v>146</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" ht="15" hidden="1" spans="1:7">
+    <row r="65" hidden="1" spans="1:7">
       <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" ht="15" hidden="1" spans="1:7">
+    <row r="67" ht="15" spans="1:7">
       <c r="A67" s="5" t="s">
         <v>153</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" ht="15" hidden="1" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>155</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" ht="15" hidden="1" spans="1:7">
+    <row r="71" ht="15" spans="1:7">
       <c r="A71" s="5" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" ht="15" hidden="1" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" ht="15" hidden="1" spans="1:7">
+    <row r="74" ht="15" spans="1:7">
       <c r="A74" s="5" t="s">
         <v>165</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" ht="15" hidden="1" spans="1:7">
+    <row r="75" ht="15" spans="1:7">
       <c r="A75" s="5" t="s">
         <v>167</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" ht="15" hidden="1" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="5" t="s">
         <v>170</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="1:7">
+    <row r="79" ht="15" hidden="1" spans="1:7">
       <c r="A79" s="5" t="s">
         <v>175</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:7">
+    <row r="80" ht="15" hidden="1" spans="1:7">
       <c r="A80" s="5" t="s">
         <v>176</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" ht="15" hidden="1" spans="1:7">
+    <row r="81" ht="15" spans="1:7">
       <c r="A81" s="5" t="s">
         <v>179</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" ht="15" hidden="1" spans="1:7">
+    <row r="82" hidden="1" spans="1:7">
       <c r="A82" s="5" t="s">
         <v>156</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="1:7">
+    <row r="84" ht="15" hidden="1" spans="1:7">
       <c r="A84" s="5" t="s">
         <v>184</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:7">
+    <row r="85" ht="15" hidden="1" spans="1:7">
       <c r="A85" s="5" t="s">
         <v>186</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" ht="15" hidden="1" spans="1:7">
+    <row r="86" ht="15" spans="1:7">
       <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" ht="15" hidden="1" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>191</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="1:7">
+    <row r="89" ht="15" hidden="1" spans="1:7">
       <c r="A89" s="5" t="s">
         <v>195</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="1:7">
+    <row r="90" ht="15" hidden="1" spans="1:7">
       <c r="A90" s="5" t="s">
         <v>197</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:7">
+    <row r="91" ht="15" hidden="1" spans="1:7">
       <c r="A91" s="5" t="s">
         <v>198</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" ht="15" hidden="1" spans="1:7">
+    <row r="92" ht="15" spans="1:7">
       <c r="A92" s="5" t="s">
         <v>200</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" ht="15" hidden="1" spans="1:7">
+    <row r="93" hidden="1" spans="1:7">
       <c r="A93" s="5" t="s">
         <v>201</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" ht="15" hidden="1" spans="1:7">
+    <row r="94" ht="15" spans="1:7">
       <c r="A94" s="5" t="s">
         <v>72</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" ht="15" hidden="1" spans="1:7">
+    <row r="95" hidden="1" spans="1:7">
       <c r="A95" s="5" t="s">
         <v>202</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" ht="15" hidden="1" spans="1:7">
+    <row r="96" ht="15" spans="1:7">
       <c r="A96" s="5" t="s">
         <v>206</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" ht="15" hidden="1" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="5" t="s">
         <v>209</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="1:7">
+    <row r="101" ht="15" hidden="1" spans="1:7">
       <c r="A101" s="5" t="s">
         <v>216</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:7">
+    <row r="102" ht="15" hidden="1" spans="1:7">
       <c r="A102" s="5" t="s">
         <v>218</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" ht="15" hidden="1" spans="1:7">
+    <row r="103" ht="15" spans="1:7">
       <c r="A103" s="5" t="s">
         <v>219</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" ht="15" hidden="1" spans="1:7">
+    <row r="104" ht="15" spans="1:7">
       <c r="A104" s="5" t="s">
         <v>219</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" ht="15" hidden="1" spans="1:7">
+    <row r="105" ht="15" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>221</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" ht="15" hidden="1" spans="1:7">
+    <row r="106" ht="15" spans="1:7">
       <c r="A106" s="5" t="s">
         <v>221</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" ht="15" hidden="1" spans="1:7">
+    <row r="107" hidden="1" spans="1:7">
       <c r="A107" s="5" t="s">
         <v>223</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" ht="15" hidden="1" spans="1:7">
+    <row r="112" ht="15" spans="1:7">
       <c r="A112" s="5" t="s">
         <v>153</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" ht="15" hidden="1" spans="1:7">
+    <row r="113" hidden="1" spans="1:7">
       <c r="A113" s="5" t="s">
         <v>155</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="1:7">
+    <row r="115" ht="15" hidden="1" spans="1:7">
       <c r="A115" s="5" t="s">
         <v>232</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:7">
+    <row r="116" ht="15" hidden="1" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>234</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" ht="15" hidden="1" spans="1:7">
+    <row r="117" ht="15" spans="1:7">
       <c r="A117" s="5" t="s">
         <v>236</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" ht="15" hidden="1" spans="1:7">
+    <row r="118" hidden="1" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>239</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="1:7">
+    <row r="120" ht="15" hidden="1" spans="1:7">
       <c r="A120" s="5" t="s">
         <v>243</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:7">
+    <row r="121" ht="15" hidden="1" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>193</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" ht="15" hidden="1" spans="1:7">
+    <row r="122" ht="15" spans="1:7">
       <c r="A122" s="5" t="s">
         <v>197</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" ht="15" hidden="1" spans="1:7">
+    <row r="123" hidden="1" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>72</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" ht="15" hidden="1" spans="1:7">
+    <row r="126" ht="15" spans="1:7">
       <c r="A126" s="5" t="s">
         <v>252</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="15" hidden="1" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>255</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="1:7">
+    <row r="129" ht="15" hidden="1" spans="1:7">
       <c r="A129" s="5" t="s">
         <v>260</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:7">
+    <row r="130" ht="15" hidden="1" spans="1:7">
       <c r="A130" s="5" t="s">
         <v>262</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" ht="15" hidden="1" spans="1:7">
+    <row r="131" ht="15" spans="1:7">
       <c r="A131" s="5" t="s">
         <v>153</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" ht="15" hidden="1" spans="1:7">
+    <row r="132" hidden="1" spans="1:7">
       <c r="A132" s="5" t="s">
         <v>155</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" ht="15" spans="1:7">
+    <row r="134" ht="15" hidden="1" spans="1:7">
       <c r="A134" s="5" t="s">
         <v>267</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:7">
+    <row r="135" ht="15" hidden="1" spans="1:7">
       <c r="A135" s="5" t="s">
         <v>269</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" ht="15" hidden="1" spans="1:7">
+    <row r="136" ht="15" spans="1:7">
       <c r="A136" s="5" t="s">
         <v>271</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" ht="15" hidden="1" spans="1:7">
+    <row r="137" hidden="1" spans="1:7">
       <c r="A137" s="5" t="s">
         <v>273</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" ht="15" hidden="1" spans="1:7">
+    <row r="138" ht="15" spans="1:7">
       <c r="A138" s="5" t="s">
         <v>275</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" ht="15" hidden="1" spans="1:7">
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="5" t="s">
         <v>278</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" ht="15" hidden="1" spans="1:7">
+    <row r="141" ht="15" spans="1:7">
       <c r="A141" s="5" t="s">
         <v>282</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" ht="15" hidden="1" spans="1:7">
+    <row r="142" ht="15" spans="1:7">
       <c r="A142" s="5" t="s">
         <v>285</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" ht="15" hidden="1" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" s="5" t="s">
         <v>288</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" ht="15" spans="1:7">
+    <row r="145" ht="15" hidden="1" spans="1:7">
       <c r="A145" s="5" t="s">
         <v>72</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:7">
+    <row r="146" ht="15" hidden="1" spans="1:7">
       <c r="A146" s="5" t="s">
         <v>293</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" ht="15" hidden="1" spans="1:7">
+    <row r="147" ht="15" spans="1:7">
       <c r="A147" s="5" t="s">
         <v>298</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" ht="15" hidden="1" spans="1:7">
+    <row r="148" ht="15" spans="1:7">
       <c r="A148" s="5" t="s">
         <v>302</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" ht="15" hidden="1" spans="1:7">
+    <row r="149" ht="15" spans="1:7">
       <c r="A149" s="5" t="s">
         <v>304</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="15" hidden="1" spans="1:7">
+    <row r="150" hidden="1" spans="1:7">
       <c r="A150" s="5" t="s">
         <v>307</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" ht="15" spans="1:7">
+    <row r="160" ht="15" hidden="1" spans="1:7">
       <c r="A160" s="5" t="s">
         <v>323</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="161" ht="15" spans="1:7">
+    <row r="161" ht="15" hidden="1" spans="1:7">
       <c r="A161" s="5" t="s">
         <v>323</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" ht="15" spans="1:7">
+    <row r="162" ht="15" hidden="1" spans="1:7">
       <c r="A162" s="5" t="s">
         <v>325</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" ht="15" spans="1:7">
+    <row r="163" ht="15" hidden="1" spans="1:7">
       <c r="A163" s="5" t="s">
         <v>325</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" ht="15" spans="1:7">
+    <row r="164" ht="15" hidden="1" spans="1:7">
       <c r="A164" s="5" t="s">
         <v>326</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="165" ht="15" spans="1:7">
+    <row r="165" ht="15" hidden="1" spans="1:7">
       <c r="A165" s="5" t="s">
         <v>326</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="166" ht="15" spans="1:7">
+    <row r="166" ht="15" hidden="1" spans="1:7">
       <c r="A166" s="5" t="s">
         <v>327</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" ht="15" spans="1:7">
+    <row r="167" ht="15" hidden="1" spans="1:7">
       <c r="A167" s="5" t="s">
         <v>328</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:7">
+    <row r="168" ht="15" hidden="1" spans="1:7">
       <c r="A168" s="5" t="s">
         <v>330</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" ht="15" hidden="1" spans="1:7">
+    <row r="169" ht="15" spans="1:7">
       <c r="A169" s="5" t="s">
         <v>332</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" ht="15" hidden="1" spans="1:7">
+    <row r="170" ht="15" spans="1:7">
       <c r="A170" s="5" t="s">
         <v>334</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="171" ht="15" hidden="1" spans="1:7">
+    <row r="171" ht="15" spans="1:7">
       <c r="A171" s="5" t="s">
         <v>336</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" ht="15" hidden="1" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="5" t="s">
         <v>338</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" ht="15" spans="1:7">
+    <row r="181" ht="15" hidden="1" spans="1:7">
       <c r="A181" s="5" t="s">
         <v>353</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" ht="15" spans="1:7">
+    <row r="182" ht="15" hidden="1" spans="1:7">
       <c r="A182" s="5" t="s">
         <v>355</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="183" ht="15" spans="1:7">
+    <row r="183" ht="15" hidden="1" spans="1:7">
       <c r="A183" s="5" t="s">
         <v>355</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" ht="15" spans="1:7">
+    <row r="184" ht="15" hidden="1" spans="1:7">
       <c r="A184" s="5" t="s">
         <v>356</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" ht="15" spans="1:7">
+    <row r="185" ht="15" hidden="1" spans="1:7">
       <c r="A185" s="5" t="s">
         <v>356</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" ht="15" spans="1:7">
+    <row r="186" ht="15" hidden="1" spans="1:7">
       <c r="A186" s="5" t="s">
         <v>357</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:7">
+    <row r="187" ht="15" hidden="1" spans="1:7">
       <c r="A187" s="5" t="s">
         <v>359</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" ht="15" hidden="1" spans="1:7">
+    <row r="188" ht="15" spans="1:7">
       <c r="A188" s="5" t="s">
         <v>361</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" ht="15" hidden="1" spans="1:7">
+    <row r="189" hidden="1" spans="1:7">
       <c r="A189" s="5" t="s">
         <v>363</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="194" ht="15" spans="1:7">
+    <row r="194" ht="15" hidden="1" spans="1:7">
       <c r="A194" s="5" t="s">
         <v>373</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" ht="15" spans="1:7">
+    <row r="195" ht="15" hidden="1" spans="1:7">
       <c r="A195" s="5" t="s">
         <v>374</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" ht="15" spans="1:7">
+    <row r="196" ht="15" hidden="1" spans="1:7">
       <c r="A196" s="5" t="s">
         <v>375</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" ht="15" spans="1:7">
+    <row r="197" ht="15" hidden="1" spans="1:7">
       <c r="A197" s="5" t="s">
         <v>376</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:7">
+    <row r="198" ht="15" hidden="1" spans="1:7">
       <c r="A198" s="5" t="s">
         <v>377</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" ht="15" hidden="1" spans="1:7">
+    <row r="199" ht="15" spans="1:7">
       <c r="A199" s="5" t="s">
         <v>379</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" ht="15" hidden="1" spans="1:7">
+    <row r="200" hidden="1" spans="1:7">
       <c r="A200" s="5" t="s">
         <v>330</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="205" ht="15" spans="1:7">
+    <row r="205" ht="15" hidden="1" spans="1:7">
       <c r="A205" s="5" t="s">
         <v>386</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" ht="15" spans="1:7">
+    <row r="206" ht="15" hidden="1" spans="1:7">
       <c r="A206" s="5" t="s">
         <v>387</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" ht="15" spans="1:7">
+    <row r="207" ht="15" hidden="1" spans="1:7">
       <c r="A207" s="5" t="s">
         <v>387</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" ht="15" spans="1:7">
+    <row r="208" ht="15" hidden="1" spans="1:7">
       <c r="A208" s="5" t="s">
         <v>388</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:7">
+    <row r="209" ht="15" hidden="1" spans="1:7">
       <c r="A209" s="5" t="s">
         <v>389</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="211" ht="15" hidden="1" spans="1:7">
+    <row r="211" ht="15" spans="1:7">
       <c r="A211" s="5" t="s">
         <v>393</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="212" ht="15" hidden="1" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" s="5" t="s">
         <v>395</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="217" ht="15" spans="1:7">
+    <row r="217" ht="15" hidden="1" spans="1:7">
       <c r="A217" s="5" t="s">
         <v>400</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="218" ht="15" spans="1:7">
+    <row r="218" ht="15" hidden="1" spans="1:7">
       <c r="A218" s="5" t="s">
         <v>400</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="219" ht="15" spans="1:7">
+    <row r="219" ht="15" hidden="1" spans="1:7">
       <c r="A219" s="5" t="s">
         <v>401</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" ht="15" spans="1:7">
+    <row r="220" ht="15" hidden="1" spans="1:7">
       <c r="A220" s="5" t="s">
         <v>401</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:7">
+    <row r="221" ht="15" hidden="1" spans="1:7">
       <c r="A221" s="5" t="s">
         <v>402</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="222" ht="15" hidden="1" spans="1:7">
+    <row r="222" ht="15" spans="1:7">
       <c r="A222" s="5" t="s">
         <v>405</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" ht="15" hidden="1" spans="1:7">
+    <row r="223" hidden="1" spans="1:7">
       <c r="A223" s="5" t="s">
         <v>408</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="225" ht="15" spans="1:7">
+    <row r="225" ht="15" hidden="1" spans="1:7">
       <c r="A225" s="5" t="s">
         <v>410</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:7">
+    <row r="226" ht="15" hidden="1" spans="1:7">
       <c r="A226" s="5" t="s">
         <v>293</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" ht="15" hidden="1" spans="1:7">
+    <row r="227" ht="15" spans="1:7">
       <c r="A227" s="5" t="s">
         <v>411</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="228" ht="15" hidden="1" spans="1:7">
+    <row r="228" ht="15" spans="1:7">
       <c r="A228" s="5" t="s">
         <v>412</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" ht="15" hidden="1" spans="1:7">
+    <row r="229" ht="15" spans="1:7">
       <c r="A229" s="5" t="s">
         <v>412</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="230" ht="15" hidden="1" spans="1:7">
+    <row r="230" hidden="1" spans="1:7">
       <c r="A230" s="5" t="s">
         <v>414</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="234" ht="15" spans="1:7">
+    <row r="234" ht="15" hidden="1" spans="1:7">
       <c r="A234" s="5" t="s">
         <v>419</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:7">
+    <row r="235" ht="15" hidden="1" spans="1:7">
       <c r="A235" s="5" t="s">
         <v>421</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="236" ht="15" hidden="1" spans="1:7">
+    <row r="236" ht="15" spans="1:7">
       <c r="A236" s="5" t="s">
         <v>421</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" ht="15" hidden="1" spans="1:7">
+    <row r="237" hidden="1" spans="1:7">
       <c r="A237" s="5" t="s">
         <v>424</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="240" ht="15" hidden="1" spans="1:7">
+    <row r="240" ht="15" spans="1:7">
       <c r="A240" s="5" t="s">
         <v>429</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="241" ht="15" hidden="1" spans="1:7">
+    <row r="241" hidden="1" spans="1:7">
       <c r="A241" s="5" t="s">
         <v>432</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="243" ht="15" spans="1:7">
+    <row r="243" ht="15" hidden="1" spans="1:7">
       <c r="A243" s="5" t="s">
         <v>436</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:7">
+    <row r="244" ht="15" hidden="1" spans="1:7">
       <c r="A244" s="5" t="s">
         <v>438</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="245" ht="15" hidden="1" spans="1:7">
+    <row r="245" ht="15" spans="1:7">
       <c r="A245" s="5" t="s">
         <v>440</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="246" ht="15" hidden="1" spans="1:7">
+    <row r="246" hidden="1" spans="1:7">
       <c r="A246" s="5" t="s">
         <v>442</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="249" ht="15" hidden="1" spans="1:7">
+    <row r="249" ht="15" spans="1:7">
       <c r="A249" s="5" t="s">
         <v>449</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" ht="15" hidden="1" spans="1:7">
+    <row r="250" ht="15" spans="1:7">
       <c r="A250" s="5" t="s">
         <v>451</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" ht="15" hidden="1" spans="1:7">
+    <row r="251" hidden="1" spans="1:7">
       <c r="A251" s="5" t="s">
         <v>454</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="254" ht="15" spans="1:7">
+    <row r="254" ht="15" hidden="1" spans="1:7">
       <c r="A254" s="5" t="s">
         <v>460</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:7">
+    <row r="255" ht="15" hidden="1" spans="1:7">
       <c r="A255" s="5" t="s">
         <v>462</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="256" ht="15" hidden="1" spans="1:7">
+    <row r="256" ht="15" spans="1:7">
       <c r="A256" s="5" t="s">
         <v>465</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="257" ht="15" hidden="1" spans="1:7">
+    <row r="257" hidden="1" spans="1:7">
       <c r="A257" s="5" t="s">
         <v>467</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="260" ht="15" spans="1:7">
+    <row r="260" ht="15" hidden="1" spans="1:7">
       <c r="A260" s="5" t="s">
         <v>475</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="261" ht="15" spans="1:7">
+    <row r="261" ht="15" hidden="1" spans="1:7">
       <c r="A261" s="5" t="s">
         <v>477</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:7">
+    <row r="262" ht="15" hidden="1" spans="1:7">
       <c r="A262" s="5" t="s">
         <v>479</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="264" ht="15" spans="1:7">
+    <row r="264" ht="15" hidden="1" spans="1:7">
       <c r="A264" s="5" t="s">
         <v>480</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:7">
+    <row r="265" ht="15" hidden="1" spans="1:7">
       <c r="A265" s="5" t="s">
         <v>484</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:7">
+    <row r="266" ht="15" spans="1:7">
       <c r="A266" s="5" t="s">
         <v>489</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:7">
+    <row r="267" ht="15" spans="1:7">
       <c r="A267" s="5" t="s">
         <v>492</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" ht="15" hidden="1" spans="1:7">
+    <row r="268" ht="15" spans="1:7">
       <c r="A268" s="5" t="s">
         <v>496</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="269" ht="15" hidden="1" spans="1:7">
+    <row r="269" ht="15" spans="1:7">
       <c r="A269" s="5" t="s">
         <v>498</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="270" ht="15" hidden="1" spans="1:7">
+    <row r="270" hidden="1" spans="1:7">
       <c r="A270" s="5" t="s">
         <v>500</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="275" ht="15" spans="1:7">
+    <row r="275" ht="15" hidden="1" spans="1:7">
       <c r="A275" s="5" t="s">
         <v>510</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" ht="15" spans="1:7">
+    <row r="276" ht="15" hidden="1" spans="1:7">
       <c r="A276" s="5" t="s">
         <v>510</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="277" ht="15" spans="1:7">
+    <row r="277" ht="15" hidden="1" spans="1:7">
       <c r="A277" s="5" t="s">
         <v>512</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="278" ht="15" spans="1:7">
+    <row r="278" ht="15" hidden="1" spans="1:7">
       <c r="A278" s="5" t="s">
         <v>513</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:7">
+    <row r="279" ht="15" hidden="1" spans="1:7">
       <c r="A279" s="5" t="s">
         <v>515</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:7">
+    <row r="281" ht="15" hidden="1" spans="1:7">
       <c r="A281" s="5" t="s">
         <v>517</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:7">
+    <row r="282" ht="15" spans="1:7">
       <c r="A282" s="5" t="s">
         <v>519</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:7">
+    <row r="283" ht="15" spans="1:7">
       <c r="A283" s="5" t="s">
         <v>521</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:7">
+    <row r="284" ht="15" spans="1:7">
       <c r="A284" s="5" t="s">
         <v>522</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="287" ht="15" spans="1:7">
+    <row r="287" ht="15" hidden="1" spans="1:7">
       <c r="A287" s="5" t="s">
         <v>500</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:7">
+    <row r="288" ht="15" hidden="1" spans="1:7">
       <c r="A288" s="5" t="s">
         <v>528</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" ht="15" hidden="1" spans="1:7">
+    <row r="289" ht="15" spans="1:7">
       <c r="A289" s="5" t="s">
         <v>531</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="290" ht="15" hidden="1" spans="1:7">
+    <row r="290" ht="15" spans="1:7">
       <c r="A290" s="5" t="s">
         <v>531</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:7">
+    <row r="291" ht="15" spans="1:7">
       <c r="A291" s="5" t="s">
         <v>534</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:7">
+    <row r="292" ht="15" spans="1:7">
       <c r="A292" s="5" t="s">
         <v>537</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:7">
+    <row r="293" ht="15" spans="1:7">
       <c r="A293" s="5" t="s">
         <v>539</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" ht="15" spans="1:7">
+    <row r="298" ht="15" hidden="1" spans="1:7">
       <c r="A298" s="5" t="s">
         <v>545</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" ht="15" spans="1:7">
+    <row r="299" ht="15" hidden="1" spans="1:7">
       <c r="A299" s="5" t="s">
         <v>546</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="300" ht="15" spans="1:7">
+    <row r="300" ht="15" hidden="1" spans="1:7">
       <c r="A300" s="5" t="s">
         <v>547</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" ht="15" spans="1:7">
+    <row r="301" ht="15" hidden="1" spans="1:7">
       <c r="A301" s="5" t="s">
         <v>549</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:7">
+    <row r="302" ht="15" hidden="1" spans="1:7">
       <c r="A302" s="5" t="s">
         <v>550</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="303" ht="15" hidden="1" spans="1:7">
+    <row r="303" ht="15" spans="1:7">
       <c r="A303" s="5" t="s">
         <v>552</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" ht="15" hidden="1" spans="1:7">
+    <row r="304" ht="15" spans="1:7">
       <c r="A304" s="5" t="s">
         <v>553</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:7">
+    <row r="305" ht="15" spans="1:7">
       <c r="A305" s="5" t="s">
         <v>554</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:7">
+    <row r="317" ht="15" spans="1:7">
       <c r="A317" s="5" t="s">
         <v>556</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320" ht="15" spans="1:7">
+    <row r="320" ht="15" hidden="1" spans="1:7">
       <c r="A320" s="5" t="s">
         <v>554</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:7">
+    <row r="321" ht="15" hidden="1" spans="1:7">
       <c r="A321" s="5" t="s">
         <v>523</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="322" ht="15" hidden="1" spans="1:7">
+    <row r="322" ht="15" spans="1:7">
       <c r="A322" s="5" t="s">
         <v>573</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:7">
+    <row r="323" ht="15" spans="1:7">
       <c r="A323" s="5" t="s">
         <v>574</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:7">
+    <row r="324" ht="15" spans="1:7">
       <c r="A324" s="5" t="s">
         <v>576</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325" ht="15" hidden="1" spans="1:7">
+    <row r="325" hidden="1" spans="1:7">
       <c r="A325" s="5" t="s">
         <v>577</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="332" ht="15" spans="1:7">
+    <row r="332" ht="15" hidden="1" spans="1:7">
       <c r="A332" s="5" t="s">
         <v>587</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="333" ht="15" spans="1:7">
+    <row r="333" ht="15" hidden="1" spans="1:7">
       <c r="A333" s="5" t="s">
         <v>587</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="334" ht="15" spans="1:7">
+    <row r="334" ht="15" hidden="1" spans="1:7">
       <c r="A334" s="5" t="s">
         <v>588</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335" ht="15" spans="1:7">
+    <row r="335" ht="15" hidden="1" spans="1:7">
       <c r="A335" s="5" t="s">
         <v>589</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:7">
+    <row r="336" ht="15" hidden="1" spans="1:7">
       <c r="A336" s="5" t="s">
         <v>550</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:7">
+    <row r="337" ht="15" spans="1:7">
       <c r="A337" s="5" t="s">
         <v>500</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338" ht="15" hidden="1" spans="1:7">
+    <row r="338" hidden="1" spans="1:7">
       <c r="A338" s="5" t="s">
         <v>543</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="344" ht="15" spans="1:7">
+    <row r="344" ht="15" hidden="1" spans="1:7">
       <c r="A344" s="5" t="s">
         <v>594</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="345" ht="15" spans="1:7">
+    <row r="345" ht="15" hidden="1" spans="1:7">
       <c r="A345" s="5" t="s">
         <v>595</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346" ht="15" spans="1:7">
+    <row r="346" ht="15" hidden="1" spans="1:7">
       <c r="A346" s="5" t="s">
         <v>596</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:7">
+    <row r="347" ht="15" hidden="1" spans="1:7">
       <c r="A347" s="5" t="s">
         <v>528</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:7">
+    <row r="348" ht="15" hidden="1" spans="1:7">
       <c r="A348" s="5" t="s">
         <v>541</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="349" ht="15" hidden="1" spans="1:7">
+    <row r="349" ht="15" spans="1:7">
       <c r="A349" s="5" t="s">
         <v>496</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:7">
+    <row r="350" ht="15" spans="1:7">
       <c r="A350" s="5" t="s">
         <v>597</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351" ht="15" hidden="1" spans="1:7">
+    <row r="351" hidden="1" spans="1:7">
       <c r="A351" s="5" t="s">
         <v>552</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="357" ht="15" spans="1:7">
+    <row r="357" ht="15" hidden="1" spans="1:7">
       <c r="A357" s="5" t="s">
         <v>601</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="358" ht="15" spans="1:7">
+    <row r="358" ht="15" hidden="1" spans="1:7">
       <c r="A358" s="5" t="s">
         <v>602</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359" ht="15" spans="1:7">
+    <row r="359" ht="15" hidden="1" spans="1:7">
       <c r="A359" s="5" t="s">
         <v>603</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:7">
+    <row r="360" ht="15" hidden="1" spans="1:7">
       <c r="A360" s="5" t="s">
         <v>545</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:7">
+    <row r="361" ht="15" spans="1:7">
       <c r="A361" s="5" t="s">
         <v>540</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="365" ht="15" hidden="1" spans="1:7">
+    <row r="365" ht="15" spans="1:7">
       <c r="A365" s="5" t="s">
         <v>607</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="366" ht="15" hidden="1" spans="1:7">
+    <row r="366" hidden="1" spans="1:7">
       <c r="A366" s="5" t="s">
         <v>607</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="368" ht="15" spans="1:7">
+    <row r="368" ht="15" hidden="1" spans="1:7">
       <c r="A368" s="5" t="s">
         <v>554</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:7">
+    <row r="369" ht="15" hidden="1" spans="1:7">
       <c r="A369" s="5" t="s">
         <v>610</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="371" ht="15" hidden="1" spans="1:7">
+    <row r="371" ht="15" spans="1:7">
       <c r="A371" s="5" t="s">
         <v>614</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="372" ht="15" hidden="1" spans="1:7">
+    <row r="372" ht="15" spans="1:7">
       <c r="A372" s="5" t="s">
         <v>616</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="373" ht="15" hidden="1" spans="1:7">
+    <row r="373" hidden="1" spans="1:7">
       <c r="A373" s="5" t="s">
         <v>618</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="374" ht="15" spans="1:7">
+    <row r="374" ht="15" hidden="1" spans="1:7">
       <c r="A374" s="5" t="s">
         <v>619</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:7">
+    <row r="375" ht="15" hidden="1" spans="1:7">
       <c r="A375" s="5" t="s">
         <v>621</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="376" ht="15" hidden="1" spans="1:7">
+    <row r="376" ht="15" spans="1:7">
       <c r="A376" s="5" t="s">
         <v>500</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="377" ht="15" hidden="1" spans="1:7">
+    <row r="377" hidden="1" spans="1:7">
       <c r="A377" s="5" t="s">
         <v>528</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="378" ht="15" spans="1:7">
+    <row r="378" ht="15" hidden="1" spans="1:7">
       <c r="A378" s="5" t="s">
         <v>623</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:7">
+    <row r="379" ht="15" hidden="1" spans="1:7">
       <c r="A379" s="5" t="s">
         <v>626</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="381" ht="15" hidden="1" spans="1:7">
+    <row r="381" ht="15" spans="1:7">
       <c r="A381" s="5" t="s">
         <v>631</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="382" ht="15" hidden="1" spans="1:7">
+    <row r="382" hidden="1" spans="1:7">
       <c r="A382" s="5" t="s">
         <v>633</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="386" ht="15" hidden="1" spans="1:7">
+    <row r="386" ht="15" spans="1:7">
       <c r="A386" s="5" t="s">
         <v>643</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="387" ht="15" hidden="1" spans="1:7">
+    <row r="387" hidden="1" spans="1:7">
       <c r="A387" s="5" t="s">
         <v>644</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="389" ht="15" spans="1:7">
+    <row r="389" ht="15" hidden="1" spans="1:7">
       <c r="A389" s="5" t="s">
         <v>647</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:7">
+    <row r="390" ht="15" hidden="1" spans="1:7">
       <c r="A390" s="5" t="s">
         <v>649</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="393" ht="15" spans="1:7">
+    <row r="393" ht="15" hidden="1" spans="1:7">
       <c r="A393" s="5" t="s">
         <v>653</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:7">
+    <row r="394" ht="15" hidden="1" spans="1:7">
       <c r="A394" s="5" t="s">
         <v>654</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="403" ht="15" spans="1:7">
+    <row r="403" ht="15" hidden="1" spans="1:7">
       <c r="A403" s="5" t="s">
         <v>667</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:7">
+    <row r="404" ht="15" hidden="1" spans="1:7">
       <c r="A404" s="5" t="s">
         <v>668</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="405" ht="15" hidden="1" spans="1:7">
+    <row r="405" ht="15" spans="1:7">
       <c r="A405" s="5" t="s">
         <v>671</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="406" ht="15" hidden="1" spans="1:7">
+    <row r="406" hidden="1" spans="1:7">
       <c r="A406" s="5" t="s">
         <v>673</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="428" ht="15" spans="1:7">
+    <row r="428" ht="15" hidden="1" spans="1:7">
       <c r="A428" s="5" t="s">
         <v>708</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:7">
+    <row r="429" ht="15" hidden="1" spans="1:7">
       <c r="A429" s="5" t="s">
         <v>712</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="430" ht="15" spans="1:7">
+    <row r="430" ht="15" hidden="1" spans="1:7">
       <c r="A430" s="5" t="s">
         <v>712</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:7">
+    <row r="431" ht="15" hidden="1" spans="1:7">
       <c r="A431" s="5" t="s">
         <v>715</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="432" ht="15" spans="1:7">
+    <row r="432" ht="15" hidden="1" spans="1:7">
       <c r="A432" s="5" t="s">
         <v>715</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:7">
+    <row r="433" ht="15" hidden="1" spans="1:7">
       <c r="A433" s="8" t="s">
         <v>717</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="438" ht="15" spans="1:7">
+    <row r="438" ht="15" hidden="1" spans="1:7">
       <c r="A438" s="9" t="s">
         <v>719</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:7">
+    <row r="439" ht="15" hidden="1" spans="1:7">
       <c r="A439" s="9" t="s">
         <v>723</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="440" ht="15" spans="1:7">
+    <row r="440" ht="15" hidden="1" spans="1:7">
       <c r="A440" s="9" t="s">
         <v>723</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:7">
+    <row r="441" ht="15" hidden="1" spans="1:7">
       <c r="A441" s="9" t="s">
         <v>724</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="446" ht="15" spans="1:7">
+    <row r="446" ht="15" hidden="1" spans="1:7">
       <c r="A446" s="9" t="s">
         <v>726</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="451" ht="15" spans="1:7">
+    <row r="451" ht="15" hidden="1" spans="1:7">
       <c r="A451" s="9" t="s">
         <v>730</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:7">
+    <row r="452" ht="15" spans="1:7">
       <c r="A452" s="9" t="s">
         <v>731</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="453" ht="15" hidden="1" spans="1:7">
+    <row r="453" hidden="1" spans="1:7">
       <c r="A453" s="9" t="s">
         <v>734</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="456" ht="15" spans="1:7">
+    <row r="456" ht="15" hidden="1" spans="1:7">
       <c r="A456" s="9" t="s">
         <v>737</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:7">
+    <row r="457" ht="15" hidden="1" spans="1:7">
       <c r="A457" s="9" t="s">
         <v>740</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="462" ht="15" spans="1:7">
+    <row r="462" ht="15" hidden="1" spans="1:7">
       <c r="A462" s="9" t="s">
         <v>744</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="473" ht="15" hidden="1" spans="1:7">
+    <row r="473" ht="15" spans="1:7">
       <c r="A473" s="9" t="s">
         <v>763</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="474" ht="15" hidden="1" spans="1:7">
+    <row r="474" hidden="1" spans="1:7">
       <c r="A474" s="9" t="s">
         <v>764</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="478" ht="15" hidden="1" spans="1:7">
+    <row r="478" ht="15" spans="1:7">
       <c r="A478" s="9" t="s">
         <v>767</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="482" ht="15" hidden="1" spans="1:7">
+    <row r="482" ht="15" spans="1:7">
       <c r="A482" s="9" t="s">
         <v>774</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="483" ht="15" hidden="1" spans="1:7">
+    <row r="483" hidden="1" spans="1:7">
       <c r="A483" s="9" t="s">
         <v>776</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="484" ht="15" hidden="1" spans="1:7">
+    <row r="484" ht="15" spans="1:7">
       <c r="A484" s="9" t="s">
         <v>776</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="487" ht="15" spans="1:7">
+    <row r="487" ht="15" hidden="1" spans="1:7">
       <c r="A487" s="9" t="s">
         <v>778</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:7">
+    <row r="488" ht="15" hidden="1" spans="1:7">
       <c r="A488" s="9" t="s">
         <v>779</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="489" ht="15" hidden="1" spans="1:7">
+    <row r="489" ht="15" spans="1:7">
       <c r="A489" s="9" t="s">
         <v>782</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="494" ht="15" spans="1:7">
+    <row r="494" ht="15" hidden="1" spans="1:7">
       <c r="A494" s="9" t="s">
         <v>791</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:7">
+    <row r="495" ht="15" hidden="1" spans="1:7">
       <c r="A495" s="9" t="s">
         <v>792</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="496" ht="15" hidden="1" spans="1:7">
+    <row r="496" ht="15" spans="1:7">
       <c r="A496" s="9" t="s">
         <v>792</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="497" ht="15" hidden="1" spans="1:7">
+    <row r="497" hidden="1" spans="1:7">
       <c r="A497" s="9" t="s">
         <v>664</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="502" ht="15" hidden="1" spans="1:7">
+    <row r="502" ht="15" spans="1:7">
       <c r="A502" s="9" t="s">
         <v>658</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="503" ht="15" hidden="1" spans="1:7">
+    <row r="503" hidden="1" spans="1:7">
       <c r="A503" s="9" t="s">
         <v>801</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="507" ht="15" hidden="1" spans="1:7">
+    <row r="507" ht="15" spans="1:7">
       <c r="A507" s="9" t="s">
         <v>805</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="508" ht="15" hidden="1" spans="1:7">
+    <row r="508" hidden="1" spans="1:7">
       <c r="A508" s="9" t="s">
         <v>805</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="512" ht="15" hidden="1" spans="1:7">
+    <row r="512" ht="15" spans="1:7">
       <c r="A512" s="9" t="s">
         <v>809</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="513" ht="15" hidden="1" spans="1:7">
+    <row r="513" hidden="1" spans="1:7">
       <c r="A513" s="9" t="s">
         <v>811</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="516" ht="15" hidden="1" spans="1:7">
+    <row r="516" ht="15" spans="1:7">
       <c r="A516" s="10" t="s">
         <v>815</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="517" ht="15" hidden="1" spans="1:7">
+    <row r="517" ht="15" spans="1:7">
       <c r="A517" s="10" t="s">
         <v>815</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="518" ht="15" hidden="1" spans="1:7">
+    <row r="518" ht="15" spans="1:7">
       <c r="A518" s="10" t="s">
         <v>816</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="524" ht="15" spans="1:7">
+    <row r="524" ht="15" hidden="1" spans="1:7">
       <c r="A524" s="10" t="s">
         <v>822</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="525" ht="15" spans="1:7">
+    <row r="525" ht="15" hidden="1" spans="1:7">
       <c r="A525" s="10" t="s">
         <v>475</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:7">
+    <row r="526" ht="15" hidden="1" spans="1:7">
       <c r="A526" s="10" t="s">
         <v>824</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="527" ht="15" hidden="1" spans="1:7">
+    <row r="527" ht="15" spans="1:7">
       <c r="A527" s="10" t="s">
         <v>826</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="528" ht="15" hidden="1" spans="1:7">
+    <row r="528" hidden="1" spans="1:7">
       <c r="A528" s="10" t="s">
         <v>829</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="529" ht="15" spans="1:7">
+    <row r="529" ht="15" hidden="1" spans="1:7">
       <c r="A529" s="10" t="s">
         <v>830</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:7">
+    <row r="530" ht="15" hidden="1" spans="1:7">
       <c r="A530" s="10" t="s">
         <v>832</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="531" ht="15" hidden="1" spans="1:7">
+    <row r="531" ht="15" spans="1:7">
       <c r="A531" s="10" t="s">
         <v>835</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="532" ht="15" hidden="1" spans="1:7">
+    <row r="532" ht="15" spans="1:7">
       <c r="A532" s="10" t="s">
         <v>838</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="536" ht="15" spans="1:7">
+    <row r="536" ht="15" hidden="1" spans="1:7">
       <c r="A536" s="10" t="s">
         <v>846</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:7">
+    <row r="537" ht="15" spans="1:7">
       <c r="A537" s="10" t="s">
         <v>847</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="538" ht="15" hidden="1" spans="1:7">
+    <row r="538" hidden="1" spans="1:7">
       <c r="A538" s="10" t="s">
         <v>848</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="539" ht="15" spans="1:7">
+    <row r="539" ht="15" hidden="1" spans="1:7">
       <c r="A539" s="10" t="s">
         <v>850</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="542" ht="15" spans="1:7">
+    <row r="542" ht="15" hidden="1" spans="1:7">
       <c r="A542" s="10" t="s">
         <v>480</v>
       </c>
@@ -16134,7 +16134,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G542" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
-        <filter val="15h30-17"/>
+        <filter val="9h30-11"/>
       </filters>
     </filterColumn>
     <sortState ref="A1:G542">

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -1988,7 +1988,7 @@
     <t>TD-ANA-b</t>
   </si>
   <si>
-    <t>12h30-14</t>
+    <t>12h30-14h</t>
   </si>
   <si>
     <t>Td-Analyse 2 (G5)</t>
@@ -3621,11 +3621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H542"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" ht="15" hidden="1" spans="1:8">
+    <row r="2" ht="15" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" ht="15" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" hidden="1" spans="1:8">
+    <row r="7" ht="15" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" ht="15" hidden="1" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" ht="15" hidden="1" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" ht="15" hidden="1" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" ht="15" hidden="1" spans="1:8">
+    <row r="11" ht="15" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" hidden="1" spans="1:8">
+    <row r="13" ht="15" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="15" hidden="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" ht="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" ht="15" hidden="1" spans="1:8">
+    <row r="16" ht="15" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" hidden="1" spans="1:8">
+    <row r="18" ht="15" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" ht="15" hidden="1" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" ht="15" hidden="1" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="15" hidden="1" spans="1:8">
+    <row r="21" ht="15" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" hidden="1" spans="1:8">
+    <row r="23" ht="15" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" ht="15" hidden="1" spans="1:8">
+    <row r="24" ht="15" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" ht="15" spans="1:7">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:7">
+    <row r="28" ht="15" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" ht="15" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" ht="15" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="15" hidden="1" spans="1:7">
+    <row r="31" ht="15" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" ht="15" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" ht="15" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" ht="15" hidden="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" ht="15" hidden="1" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>101</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" ht="15" hidden="1" spans="1:7">
+    <row r="38" ht="15" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:7">
+    <row r="40" ht="15" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" ht="15" hidden="1" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>105</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" ht="15" hidden="1" spans="1:7">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" ht="15" hidden="1" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" ht="15" hidden="1" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>105</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" ht="15" hidden="1" spans="1:7">
+    <row r="45" ht="15" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>109</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:7">
+    <row r="47" ht="15" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>114</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" ht="15" hidden="1" spans="1:7">
+    <row r="48" ht="15" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:7">
+    <row r="50" ht="15" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:7">
+    <row r="52" ht="15" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>124</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" ht="15" hidden="1" spans="1:7">
+    <row r="53" spans="1:7">
       <c r="A53" s="5" t="s">
         <v>124</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" ht="15" hidden="1" spans="1:7">
+    <row r="54" ht="15" spans="1:7">
       <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>132</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:7">
+    <row r="58" ht="15" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" ht="15" hidden="1" spans="1:7">
+    <row r="59" spans="1:7">
       <c r="A59" s="5" t="s">
         <v>132</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" ht="15" hidden="1" spans="1:7">
+    <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
         <v>136</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" ht="15" hidden="1" spans="1:7">
+    <row r="61" spans="1:7">
       <c r="A61" s="5" t="s">
         <v>141</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" ht="15" hidden="1" spans="1:7">
+    <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" ht="15" hidden="1" spans="1:7">
+    <row r="63" ht="15" spans="1:7">
       <c r="A63" s="5" t="s">
         <v>146</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:7">
+    <row r="65" ht="15" spans="1:7">
       <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" ht="15" hidden="1" spans="1:7">
+    <row r="66" ht="15" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>151</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:7">
+    <row r="68" ht="15" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>155</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" ht="15" hidden="1" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69" s="5" t="s">
         <v>156</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="15" hidden="1" spans="1:7">
+    <row r="70" ht="15" spans="1:7">
       <c r="A70" s="5" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:7">
+    <row r="72" ht="15" spans="1:7">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" ht="15" hidden="1" spans="1:7">
+    <row r="73" ht="15" spans="1:7">
       <c r="A73" s="5" t="s">
         <v>161</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:7">
+    <row r="76" ht="15" spans="1:7">
       <c r="A76" s="5" t="s">
         <v>170</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" ht="15" hidden="1" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
         <v>172</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" ht="15" hidden="1" spans="1:7">
+    <row r="78" spans="1:7">
       <c r="A78" s="5" t="s">
         <v>174</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" ht="15" hidden="1" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79" s="5" t="s">
         <v>175</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" ht="15" hidden="1" spans="1:7">
+    <row r="80" ht="15" spans="1:7">
       <c r="A80" s="5" t="s">
         <v>176</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:7">
+    <row r="82" ht="15" spans="1:7">
       <c r="A82" s="5" t="s">
         <v>156</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" ht="15" hidden="1" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83" s="5" t="s">
         <v>181</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" ht="15" hidden="1" spans="1:7">
+    <row r="84" spans="1:7">
       <c r="A84" s="5" t="s">
         <v>184</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" ht="15" hidden="1" spans="1:7">
+    <row r="85" ht="15" spans="1:7">
       <c r="A85" s="5" t="s">
         <v>186</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:7">
+    <row r="87" ht="15" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>191</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" ht="15" hidden="1" spans="1:7">
+    <row r="88" spans="1:7">
       <c r="A88" s="5" t="s">
         <v>193</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" ht="15" hidden="1" spans="1:7">
+    <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
         <v>195</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" ht="15" hidden="1" spans="1:7">
+    <row r="90" spans="1:7">
       <c r="A90" s="5" t="s">
         <v>197</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" ht="15" hidden="1" spans="1:7">
+    <row r="91" ht="15" spans="1:7">
       <c r="A91" s="5" t="s">
         <v>198</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:7">
+    <row r="93" ht="15" spans="1:7">
       <c r="A93" s="5" t="s">
         <v>201</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:7">
+    <row r="95" ht="15" spans="1:7">
       <c r="A95" s="5" t="s">
         <v>202</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:7">
+    <row r="97" ht="15" spans="1:7">
       <c r="A97" s="5" t="s">
         <v>209</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" ht="15" hidden="1" spans="1:7">
+    <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
         <v>211</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" ht="15" hidden="1" spans="1:7">
+    <row r="99" spans="1:7">
       <c r="A99" s="5" t="s">
         <v>211</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" ht="15" hidden="1" spans="1:7">
+    <row r="100" spans="1:7">
       <c r="A100" s="5" t="s">
         <v>216</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" ht="15" hidden="1" spans="1:7">
+    <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
         <v>216</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" ht="15" hidden="1" spans="1:7">
+    <row r="102" ht="15" spans="1:7">
       <c r="A102" s="5" t="s">
         <v>218</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:7">
+    <row r="104" spans="1:7">
       <c r="A104" s="5" t="s">
         <v>219</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:7">
+    <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>221</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:7">
+    <row r="107" ht="15" spans="1:7">
       <c r="A107" s="5" t="s">
         <v>223</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" ht="15" hidden="1" spans="1:7">
+    <row r="108" spans="1:7">
       <c r="A108" s="5" t="s">
         <v>223</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" ht="15" hidden="1" spans="1:7">
+    <row r="109" spans="1:7">
       <c r="A109" s="5" t="s">
         <v>225</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" ht="15" hidden="1" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110" s="5" t="s">
         <v>225</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" ht="15" hidden="1" spans="1:7">
+    <row r="111" ht="15" spans="1:7">
       <c r="A111" s="5" t="s">
         <v>227</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:7">
+    <row r="113" ht="15" spans="1:7">
       <c r="A113" s="5" t="s">
         <v>155</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" ht="15" hidden="1" spans="1:7">
+    <row r="114" spans="1:7">
       <c r="A114" s="5" t="s">
         <v>230</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" ht="15" hidden="1" spans="1:7">
+    <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
         <v>232</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" ht="15" hidden="1" spans="1:7">
+    <row r="116" ht="15" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>234</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:7">
+    <row r="118" ht="15" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>239</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" ht="15" hidden="1" spans="1:7">
+    <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
         <v>241</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" ht="15" hidden="1" spans="1:7">
+    <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
         <v>243</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" ht="15" hidden="1" spans="1:7">
+    <row r="121" ht="15" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>193</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:7">
+    <row r="123" ht="15" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>72</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" ht="15" hidden="1" spans="1:7">
+    <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>245</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" ht="15" hidden="1" spans="1:7">
+    <row r="125" ht="15" spans="1:7">
       <c r="A125" s="5" t="s">
         <v>248</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:7">
+    <row r="127" ht="15" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>255</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" ht="15" hidden="1" spans="1:7">
+    <row r="128" spans="1:7">
       <c r="A128" s="5" t="s">
         <v>257</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" ht="15" hidden="1" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129" s="5" t="s">
         <v>260</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" ht="15" hidden="1" spans="1:7">
+    <row r="130" ht="15" spans="1:7">
       <c r="A130" s="5" t="s">
         <v>262</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:7">
+    <row r="132" ht="15" spans="1:7">
       <c r="A132" s="5" t="s">
         <v>155</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" ht="15" hidden="1" spans="1:7">
+    <row r="133" spans="1:7">
       <c r="A133" s="5" t="s">
         <v>265</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" ht="15" hidden="1" spans="1:7">
+    <row r="134" spans="1:7">
       <c r="A134" s="5" t="s">
         <v>267</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" ht="15" hidden="1" spans="1:7">
+    <row r="135" ht="15" spans="1:7">
       <c r="A135" s="5" t="s">
         <v>269</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:7">
+    <row r="137" ht="15" spans="1:7">
       <c r="A137" s="5" t="s">
         <v>273</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:7">
+    <row r="139" ht="15" spans="1:7">
       <c r="A139" s="5" t="s">
         <v>278</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" ht="15" hidden="1" spans="1:7">
+    <row r="140" ht="15" spans="1:7">
       <c r="A140" s="5" t="s">
         <v>280</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:7">
+    <row r="143" ht="15" spans="1:7">
       <c r="A143" s="5" t="s">
         <v>288</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" ht="15" hidden="1" spans="1:7">
+    <row r="144" spans="1:7">
       <c r="A144" s="5" t="s">
         <v>290</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" ht="15" hidden="1" spans="1:7">
+    <row r="145" spans="1:7">
       <c r="A145" s="5" t="s">
         <v>72</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" ht="15" hidden="1" spans="1:7">
+    <row r="146" ht="15" spans="1:7">
       <c r="A146" s="5" t="s">
         <v>293</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" ht="15" spans="1:7">
+    <row r="148" spans="1:7">
       <c r="A148" s="5" t="s">
         <v>302</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:7">
+    <row r="150" ht="15" spans="1:7">
       <c r="A150" s="5" t="s">
         <v>307</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" ht="15" hidden="1" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151" s="5" t="s">
         <v>309</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" ht="15" hidden="1" spans="1:7">
+    <row r="152" spans="1:7">
       <c r="A152" s="5" t="s">
         <v>311</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" ht="15" hidden="1" spans="1:7">
+    <row r="153" spans="1:7">
       <c r="A153" s="5" t="s">
         <v>311</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" ht="15" hidden="1" spans="1:7">
+    <row r="154" spans="1:7">
       <c r="A154" s="5" t="s">
         <v>314</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" ht="15" hidden="1" spans="1:7">
+    <row r="155" spans="1:7">
       <c r="A155" s="5" t="s">
         <v>314</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" ht="15" hidden="1" spans="1:7">
+    <row r="156" spans="1:7">
       <c r="A156" s="5" t="s">
         <v>316</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" ht="15" hidden="1" spans="1:7">
+    <row r="157" spans="1:7">
       <c r="A157" s="5" t="s">
         <v>316</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="158" ht="15" hidden="1" spans="1:7">
+    <row r="158" spans="1:7">
       <c r="A158" s="5" t="s">
         <v>319</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" ht="15" hidden="1" spans="1:7">
+    <row r="159" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>320</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" ht="15" hidden="1" spans="1:7">
+    <row r="160" spans="1:7">
       <c r="A160" s="5" t="s">
         <v>323</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="161" ht="15" hidden="1" spans="1:7">
+    <row r="161" spans="1:7">
       <c r="A161" s="5" t="s">
         <v>323</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" ht="15" hidden="1" spans="1:7">
+    <row r="162" spans="1:7">
       <c r="A162" s="5" t="s">
         <v>325</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" ht="15" hidden="1" spans="1:7">
+    <row r="163" spans="1:7">
       <c r="A163" s="5" t="s">
         <v>325</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" ht="15" hidden="1" spans="1:7">
+    <row r="164" spans="1:7">
       <c r="A164" s="5" t="s">
         <v>326</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="165" ht="15" hidden="1" spans="1:7">
+    <row r="165" spans="1:7">
       <c r="A165" s="5" t="s">
         <v>326</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="166" ht="15" hidden="1" spans="1:7">
+    <row r="166" spans="1:7">
       <c r="A166" s="5" t="s">
         <v>327</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" ht="15" hidden="1" spans="1:7">
+    <row r="167" spans="1:7">
       <c r="A167" s="5" t="s">
         <v>328</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" ht="15" hidden="1" spans="1:7">
+    <row r="168" ht="15" spans="1:7">
       <c r="A168" s="5" t="s">
         <v>330</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" ht="15" spans="1:7">
+    <row r="170" spans="1:7">
       <c r="A170" s="5" t="s">
         <v>334</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:7">
+    <row r="172" ht="15" spans="1:7">
       <c r="A172" s="5" t="s">
         <v>338</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="173" ht="15" hidden="1" spans="1:7">
+    <row r="173" spans="1:7">
       <c r="A173" s="5" t="s">
         <v>341</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" ht="15" hidden="1" spans="1:7">
+    <row r="174" spans="1:7">
       <c r="A174" s="5" t="s">
         <v>343</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" ht="15" hidden="1" spans="1:7">
+    <row r="175" spans="1:7">
       <c r="A175" s="5" t="s">
         <v>345</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" ht="15" hidden="1" spans="1:7">
+    <row r="176" spans="1:7">
       <c r="A176" s="5" t="s">
         <v>347</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" ht="15" hidden="1" spans="1:7">
+    <row r="177" spans="1:7">
       <c r="A177" s="5" t="s">
         <v>347</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="178" ht="15" hidden="1" spans="1:7">
+    <row r="178" spans="1:7">
       <c r="A178" s="5" t="s">
         <v>348</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" ht="15" hidden="1" spans="1:7">
+    <row r="179" spans="1:7">
       <c r="A179" s="5" t="s">
         <v>348</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" ht="15" hidden="1" spans="1:7">
+    <row r="180" spans="1:7">
       <c r="A180" s="5" t="s">
         <v>351</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" ht="15" hidden="1" spans="1:7">
+    <row r="181" spans="1:7">
       <c r="A181" s="5" t="s">
         <v>353</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" ht="15" hidden="1" spans="1:7">
+    <row r="182" spans="1:7">
       <c r="A182" s="5" t="s">
         <v>355</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="183" ht="15" hidden="1" spans="1:7">
+    <row r="183" spans="1:7">
       <c r="A183" s="5" t="s">
         <v>355</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" ht="15" hidden="1" spans="1:7">
+    <row r="184" spans="1:7">
       <c r="A184" s="5" t="s">
         <v>356</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" ht="15" hidden="1" spans="1:7">
+    <row r="185" spans="1:7">
       <c r="A185" s="5" t="s">
         <v>356</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" ht="15" hidden="1" spans="1:7">
+    <row r="186" spans="1:7">
       <c r="A186" s="5" t="s">
         <v>357</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" ht="15" hidden="1" spans="1:7">
+    <row r="187" ht="15" spans="1:7">
       <c r="A187" s="5" t="s">
         <v>359</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:7">
+    <row r="189" ht="15" spans="1:7">
       <c r="A189" s="5" t="s">
         <v>363</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" ht="15" hidden="1" spans="1:7">
+    <row r="190" spans="1:7">
       <c r="A190" s="5" t="s">
         <v>366</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" ht="15" hidden="1" spans="1:7">
+    <row r="191" spans="1:7">
       <c r="A191" s="5" t="s">
         <v>368</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="192" ht="15" hidden="1" spans="1:7">
+    <row r="192" spans="1:7">
       <c r="A192" s="5" t="s">
         <v>370</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" ht="15" hidden="1" spans="1:7">
+    <row r="193" spans="1:7">
       <c r="A193" s="5" t="s">
         <v>371</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="194" ht="15" hidden="1" spans="1:7">
+    <row r="194" spans="1:7">
       <c r="A194" s="5" t="s">
         <v>373</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" ht="15" hidden="1" spans="1:7">
+    <row r="195" spans="1:7">
       <c r="A195" s="5" t="s">
         <v>374</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" ht="15" hidden="1" spans="1:7">
+    <row r="196" spans="1:7">
       <c r="A196" s="5" t="s">
         <v>375</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" ht="15" hidden="1" spans="1:7">
+    <row r="197" spans="1:7">
       <c r="A197" s="5" t="s">
         <v>376</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" ht="15" hidden="1" spans="1:7">
+    <row r="198" ht="15" spans="1:7">
       <c r="A198" s="5" t="s">
         <v>377</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:7">
+    <row r="200" ht="15" spans="1:7">
       <c r="A200" s="5" t="s">
         <v>330</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" ht="15" hidden="1" spans="1:7">
+    <row r="201" spans="1:7">
       <c r="A201" s="5" t="s">
         <v>381</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" ht="15" hidden="1" spans="1:7">
+    <row r="202" spans="1:7">
       <c r="A202" s="5" t="s">
         <v>382</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" ht="15" hidden="1" spans="1:7">
+    <row r="203" spans="1:7">
       <c r="A203" s="5" t="s">
         <v>382</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="204" ht="15" hidden="1" spans="1:7">
+    <row r="204" spans="1:7">
       <c r="A204" s="5" t="s">
         <v>384</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="205" ht="15" hidden="1" spans="1:7">
+    <row r="205" spans="1:7">
       <c r="A205" s="5" t="s">
         <v>386</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" ht="15" hidden="1" spans="1:7">
+    <row r="206" spans="1:7">
       <c r="A206" s="5" t="s">
         <v>387</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" ht="15" hidden="1" spans="1:7">
+    <row r="207" spans="1:7">
       <c r="A207" s="5" t="s">
         <v>387</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" ht="15" hidden="1" spans="1:7">
+    <row r="208" spans="1:7">
       <c r="A208" s="5" t="s">
         <v>388</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" ht="15" hidden="1" spans="1:7">
+    <row r="209" spans="1:7">
       <c r="A209" s="5" t="s">
         <v>389</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" ht="15" hidden="1" spans="1:7">
+    <row r="210" ht="15" spans="1:7">
       <c r="A210" s="5" t="s">
         <v>361</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:7">
+    <row r="212" ht="15" spans="1:7">
       <c r="A212" s="5" t="s">
         <v>395</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" ht="15" hidden="1" spans="1:7">
+    <row r="213" spans="1:7">
       <c r="A213" s="5" t="s">
         <v>398</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="214" ht="15" hidden="1" spans="1:7">
+    <row r="214" spans="1:7">
       <c r="A214" s="5" t="s">
         <v>398</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="215" ht="15" hidden="1" spans="1:7">
+    <row r="215" spans="1:7">
       <c r="A215" s="5" t="s">
         <v>399</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="216" ht="15" hidden="1" spans="1:7">
+    <row r="216" spans="1:7">
       <c r="A216" s="5" t="s">
         <v>399</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="217" ht="15" hidden="1" spans="1:7">
+    <row r="217" spans="1:7">
       <c r="A217" s="5" t="s">
         <v>400</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="218" ht="15" hidden="1" spans="1:7">
+    <row r="218" spans="1:7">
       <c r="A218" s="5" t="s">
         <v>400</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="219" ht="15" hidden="1" spans="1:7">
+    <row r="219" spans="1:7">
       <c r="A219" s="5" t="s">
         <v>401</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" ht="15" hidden="1" spans="1:7">
+    <row r="220" spans="1:7">
       <c r="A220" s="5" t="s">
         <v>401</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="221" ht="15" hidden="1" spans="1:7">
+    <row r="221" ht="15" spans="1:7">
       <c r="A221" s="5" t="s">
         <v>402</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:7">
+    <row r="223" ht="15" spans="1:7">
       <c r="A223" s="5" t="s">
         <v>408</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" ht="15" hidden="1" spans="1:7">
+    <row r="224" spans="1:7">
       <c r="A224" s="5" t="s">
         <v>409</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="225" ht="15" hidden="1" spans="1:7">
+    <row r="225" spans="1:7">
       <c r="A225" s="5" t="s">
         <v>410</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" ht="15" hidden="1" spans="1:7">
+    <row r="226" ht="15" spans="1:7">
       <c r="A226" s="5" t="s">
         <v>293</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="228" ht="15" spans="1:7">
+    <row r="228" spans="1:7">
       <c r="A228" s="5" t="s">
         <v>412</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:7">
+    <row r="230" ht="15" spans="1:7">
       <c r="A230" s="5" t="s">
         <v>414</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="231" ht="15" hidden="1" spans="1:7">
+    <row r="231" spans="1:7">
       <c r="A231" s="5" t="s">
         <v>415</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="232" ht="15" hidden="1" spans="1:7">
+    <row r="232" spans="1:7">
       <c r="A232" s="5" t="s">
         <v>415</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="233" ht="15" hidden="1" spans="1:7">
+    <row r="233" spans="1:7">
       <c r="A233" s="5" t="s">
         <v>269</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="234" ht="15" hidden="1" spans="1:7">
+    <row r="234" spans="1:7">
       <c r="A234" s="5" t="s">
         <v>419</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" ht="15" hidden="1" spans="1:7">
+    <row r="235" ht="15" spans="1:7">
       <c r="A235" s="5" t="s">
         <v>421</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:7">
+    <row r="237" ht="15" spans="1:7">
       <c r="A237" s="5" t="s">
         <v>424</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="238" ht="15" hidden="1" spans="1:7">
+    <row r="238" spans="1:7">
       <c r="A238" s="5" t="s">
         <v>425</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="239" ht="15" hidden="1" spans="1:7">
+    <row r="239" ht="15" spans="1:7">
       <c r="A239" s="5" t="s">
         <v>428</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:7">
+    <row r="241" ht="15" spans="1:7">
       <c r="A241" s="5" t="s">
         <v>432</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="242" ht="15" hidden="1" spans="1:7">
+    <row r="242" spans="1:7">
       <c r="A242" s="5" t="s">
         <v>434</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="243" ht="15" hidden="1" spans="1:7">
+    <row r="243" spans="1:7">
       <c r="A243" s="5" t="s">
         <v>436</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="244" ht="15" hidden="1" spans="1:7">
+    <row r="244" ht="15" spans="1:7">
       <c r="A244" s="5" t="s">
         <v>438</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:7">
+    <row r="246" ht="15" spans="1:7">
       <c r="A246" s="5" t="s">
         <v>442</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="247" ht="15" hidden="1" spans="1:7">
+    <row r="247" spans="1:7">
       <c r="A247" s="5" t="s">
         <v>445</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="248" ht="15" hidden="1" spans="1:7">
+    <row r="248" ht="15" spans="1:7">
       <c r="A248" s="5" t="s">
         <v>447</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:7">
+    <row r="251" ht="15" spans="1:7">
       <c r="A251" s="5" t="s">
         <v>454</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" ht="15" hidden="1" spans="1:7">
+    <row r="252" spans="1:7">
       <c r="A252" s="5" t="s">
         <v>456</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" ht="15" hidden="1" spans="1:7">
+    <row r="253" spans="1:7">
       <c r="A253" s="5" t="s">
         <v>458</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="254" ht="15" hidden="1" spans="1:7">
+    <row r="254" spans="1:7">
       <c r="A254" s="5" t="s">
         <v>460</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" ht="15" hidden="1" spans="1:7">
+    <row r="255" ht="15" spans="1:7">
       <c r="A255" s="5" t="s">
         <v>462</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:7">
+    <row r="257" ht="15" spans="1:7">
       <c r="A257" s="5" t="s">
         <v>467</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" ht="15" hidden="1" spans="1:7">
+    <row r="258" spans="1:7">
       <c r="A258" s="5" t="s">
         <v>470</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="259" ht="15" hidden="1" spans="1:7">
+    <row r="259" spans="1:7">
       <c r="A259" s="5" t="s">
         <v>473</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="260" ht="15" hidden="1" spans="1:7">
+    <row r="260" spans="1:7">
       <c r="A260" s="5" t="s">
         <v>475</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="261" ht="15" hidden="1" spans="1:7">
+    <row r="261" spans="1:7">
       <c r="A261" s="5" t="s">
         <v>477</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="262" ht="15" hidden="1" spans="1:7">
+    <row r="262" spans="1:7">
       <c r="A262" s="5" t="s">
         <v>479</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="263" ht="15" hidden="1" spans="1:7">
+    <row r="263" spans="1:7">
       <c r="A263" s="5" t="s">
         <v>480</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="264" ht="15" hidden="1" spans="1:7">
+    <row r="264" spans="1:7">
       <c r="A264" s="5" t="s">
         <v>480</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="265" ht="15" hidden="1" spans="1:7">
+    <row r="265" ht="15" spans="1:7">
       <c r="A265" s="5" t="s">
         <v>484</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="267" ht="15" spans="1:7">
+    <row r="267" spans="1:7">
       <c r="A267" s="5" t="s">
         <v>492</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" ht="15" spans="1:7">
+    <row r="268" spans="1:7">
       <c r="A268" s="5" t="s">
         <v>496</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:7">
+    <row r="270" ht="15" spans="1:7">
       <c r="A270" s="5" t="s">
         <v>500</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:7">
+    <row r="271" spans="1:7">
       <c r="A271" s="5" t="s">
         <v>502</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:7">
+    <row r="272" spans="1:7">
       <c r="A272" s="5" t="s">
         <v>502</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:7">
+    <row r="273" spans="1:7">
       <c r="A273" s="5" t="s">
         <v>505</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="274" ht="15" hidden="1" spans="1:7">
+    <row r="274" spans="1:7">
       <c r="A274" s="5" t="s">
         <v>507</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="275" ht="15" hidden="1" spans="1:7">
+    <row r="275" spans="1:7">
       <c r="A275" s="5" t="s">
         <v>510</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" ht="15" hidden="1" spans="1:7">
+    <row r="276" spans="1:7">
       <c r="A276" s="5" t="s">
         <v>510</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="277" ht="15" hidden="1" spans="1:7">
+    <row r="277" spans="1:7">
       <c r="A277" s="5" t="s">
         <v>512</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="278" ht="15" hidden="1" spans="1:7">
+    <row r="278" spans="1:7">
       <c r="A278" s="5" t="s">
         <v>513</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" ht="15" hidden="1" spans="1:7">
+    <row r="279" spans="1:7">
       <c r="A279" s="5" t="s">
         <v>515</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:7">
+    <row r="280" spans="1:7">
       <c r="A280" s="5" t="s">
         <v>516</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="281" ht="15" hidden="1" spans="1:7">
+    <row r="281" ht="15" spans="1:7">
       <c r="A281" s="5" t="s">
         <v>517</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="283" ht="15" spans="1:7">
+    <row r="283" spans="1:7">
       <c r="A283" s="5" t="s">
         <v>521</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:7">
+    <row r="285" ht="15" spans="1:7">
       <c r="A285" s="5" t="s">
         <v>523</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="286" ht="15" hidden="1" spans="1:7">
+    <row r="286" spans="1:7">
       <c r="A286" s="5" t="s">
         <v>526</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="287" ht="15" hidden="1" spans="1:7">
+    <row r="287" spans="1:7">
       <c r="A287" s="5" t="s">
         <v>500</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" ht="15" hidden="1" spans="1:7">
+    <row r="288" ht="15" spans="1:7">
       <c r="A288" s="5" t="s">
         <v>528</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="290" ht="15" spans="1:7">
+    <row r="290" spans="1:7">
       <c r="A290" s="5" t="s">
         <v>531</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" ht="15" spans="1:7">
+    <row r="291" spans="1:7">
       <c r="A291" s="5" t="s">
         <v>534</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" ht="15" spans="1:7">
+    <row r="292" spans="1:7">
       <c r="A292" s="5" t="s">
         <v>537</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:7">
+    <row r="294" ht="15" spans="1:7">
       <c r="A294" s="5" t="s">
         <v>540</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:7">
+    <row r="295" spans="1:7">
       <c r="A295" s="5" t="s">
         <v>541</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="296" ht="15" hidden="1" spans="1:7">
+    <row r="296" spans="1:7">
       <c r="A296" s="5" t="s">
         <v>543</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="297" ht="15" hidden="1" spans="1:7">
+    <row r="297" spans="1:7">
       <c r="A297" s="5" t="s">
         <v>544</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" ht="15" hidden="1" spans="1:7">
+    <row r="298" spans="1:7">
       <c r="A298" s="5" t="s">
         <v>545</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" ht="15" hidden="1" spans="1:7">
+    <row r="299" spans="1:7">
       <c r="A299" s="5" t="s">
         <v>546</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="300" ht="15" hidden="1" spans="1:7">
+    <row r="300" spans="1:7">
       <c r="A300" s="5" t="s">
         <v>547</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" ht="15" hidden="1" spans="1:7">
+    <row r="301" spans="1:7">
       <c r="A301" s="5" t="s">
         <v>549</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="302" ht="15" hidden="1" spans="1:7">
+    <row r="302" ht="15" spans="1:7">
       <c r="A302" s="5" t="s">
         <v>550</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" ht="15" spans="1:7">
+    <row r="304" spans="1:7">
       <c r="A304" s="5" t="s">
         <v>553</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:7">
+    <row r="306" ht="15" spans="1:7">
       <c r="A306" s="5" t="s">
         <v>556</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="307" ht="15" hidden="1" spans="1:7">
+    <row r="307" spans="1:7">
       <c r="A307" s="5" t="s">
         <v>558</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="308" ht="15" hidden="1" spans="1:7">
+    <row r="308" spans="1:7">
       <c r="A308" s="5" t="s">
         <v>558</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="309" ht="15" hidden="1" spans="1:7">
+    <row r="309" spans="1:7">
       <c r="A309" s="5" t="s">
         <v>559</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" ht="15" hidden="1" spans="1:7">
+    <row r="310" spans="1:7">
       <c r="A310" s="5" t="s">
         <v>561</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="311" ht="15" hidden="1" spans="1:7">
+    <row r="311" spans="1:7">
       <c r="A311" s="5" t="s">
         <v>562</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="312" ht="15" hidden="1" spans="1:7">
+    <row r="312" spans="1:7">
       <c r="A312" s="5" t="s">
         <v>564</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="313" ht="15" hidden="1" spans="1:7">
+    <row r="313" spans="1:7">
       <c r="A313" s="5" t="s">
         <v>564</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:7">
+    <row r="314" spans="1:7">
       <c r="A314" s="5" t="s">
         <v>566</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="315" ht="15" hidden="1" spans="1:7">
+    <row r="315" spans="1:7">
       <c r="A315" s="5" t="s">
         <v>568</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="316" ht="15" hidden="1" spans="1:7">
+    <row r="316" ht="15" spans="1:7">
       <c r="A316" s="5" t="s">
         <v>500</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:7">
+    <row r="318" ht="15" spans="1:7">
       <c r="A318" s="5" t="s">
         <v>484</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="319" ht="15" hidden="1" spans="1:7">
+    <row r="319" spans="1:7">
       <c r="A319" s="5" t="s">
         <v>526</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320" ht="15" hidden="1" spans="1:7">
+    <row r="320" spans="1:7">
       <c r="A320" s="5" t="s">
         <v>554</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321" ht="15" hidden="1" spans="1:7">
+    <row r="321" ht="15" spans="1:7">
       <c r="A321" s="5" t="s">
         <v>523</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" ht="15" spans="1:7">
+    <row r="323" spans="1:7">
       <c r="A323" s="5" t="s">
         <v>574</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:7">
+    <row r="325" ht="15" spans="1:7">
       <c r="A325" s="5" t="s">
         <v>577</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:7">
+    <row r="326" spans="1:7">
       <c r="A326" s="5" t="s">
         <v>579</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:7">
+    <row r="327" spans="1:7">
       <c r="A327" s="5" t="s">
         <v>581</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="328" ht="15" hidden="1" spans="1:7">
+    <row r="328" spans="1:7">
       <c r="A328" s="5" t="s">
         <v>582</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="329" ht="15" hidden="1" spans="1:7">
+    <row r="329" spans="1:7">
       <c r="A329" s="5" t="s">
         <v>582</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:7">
+    <row r="330" spans="1:7">
       <c r="A330" s="5" t="s">
         <v>584</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="331" ht="15" hidden="1" spans="1:7">
+    <row r="331" spans="1:7">
       <c r="A331" s="5" t="s">
         <v>586</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="332" ht="15" hidden="1" spans="1:7">
+    <row r="332" spans="1:7">
       <c r="A332" s="5" t="s">
         <v>587</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="333" ht="15" hidden="1" spans="1:7">
+    <row r="333" spans="1:7">
       <c r="A333" s="5" t="s">
         <v>587</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="334" ht="15" hidden="1" spans="1:7">
+    <row r="334" spans="1:7">
       <c r="A334" s="5" t="s">
         <v>588</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335" ht="15" hidden="1" spans="1:7">
+    <row r="335" spans="1:7">
       <c r="A335" s="5" t="s">
         <v>589</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="336" ht="15" hidden="1" spans="1:7">
+    <row r="336" ht="15" spans="1:7">
       <c r="A336" s="5" t="s">
         <v>550</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:7">
+    <row r="338" ht="15" spans="1:7">
       <c r="A338" s="5" t="s">
         <v>543</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="339" ht="15" hidden="1" spans="1:7">
+    <row r="339" spans="1:7">
       <c r="A339" s="5" t="s">
         <v>553</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:7">
+    <row r="340" spans="1:7">
       <c r="A340" s="5" t="s">
         <v>546</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" ht="15" hidden="1" spans="1:7">
+    <row r="341" spans="1:7">
       <c r="A341" s="5" t="s">
         <v>591</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:7">
+    <row r="342" spans="1:7">
       <c r="A342" s="5" t="s">
         <v>592</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" ht="15" hidden="1" spans="1:7">
+    <row r="343" spans="1:7">
       <c r="A343" s="5" t="s">
         <v>593</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="344" ht="15" hidden="1" spans="1:7">
+    <row r="344" spans="1:7">
       <c r="A344" s="5" t="s">
         <v>594</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="345" ht="15" hidden="1" spans="1:7">
+    <row r="345" spans="1:7">
       <c r="A345" s="5" t="s">
         <v>595</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346" ht="15" hidden="1" spans="1:7">
+    <row r="346" spans="1:7">
       <c r="A346" s="5" t="s">
         <v>596</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347" ht="15" hidden="1" spans="1:7">
+    <row r="347" spans="1:7">
       <c r="A347" s="5" t="s">
         <v>528</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="348" ht="15" hidden="1" spans="1:7">
+    <row r="348" ht="15" spans="1:7">
       <c r="A348" s="5" t="s">
         <v>541</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:7">
+    <row r="351" ht="15" spans="1:7">
       <c r="A351" s="5" t="s">
         <v>552</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="352" ht="15" hidden="1" spans="1:7">
+    <row r="352" spans="1:7">
       <c r="A352" s="5" t="s">
         <v>498</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="353" ht="15" hidden="1" spans="1:7">
+    <row r="353" spans="1:7">
       <c r="A353" s="5" t="s">
         <v>547</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:7">
+    <row r="354" spans="1:7">
       <c r="A354" s="5" t="s">
         <v>598</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:7">
+    <row r="355" spans="1:7">
       <c r="A355" s="5" t="s">
         <v>599</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="356" ht="15" hidden="1" spans="1:7">
+    <row r="356" spans="1:7">
       <c r="A356" s="5" t="s">
         <v>600</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="357" ht="15" hidden="1" spans="1:7">
+    <row r="357" spans="1:7">
       <c r="A357" s="5" t="s">
         <v>601</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="358" ht="15" hidden="1" spans="1:7">
+    <row r="358" spans="1:7">
       <c r="A358" s="5" t="s">
         <v>602</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359" ht="15" hidden="1" spans="1:7">
+    <row r="359" spans="1:7">
       <c r="A359" s="5" t="s">
         <v>603</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="360" ht="15" hidden="1" spans="1:7">
+    <row r="360" ht="15" spans="1:7">
       <c r="A360" s="5" t="s">
         <v>545</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:7">
+    <row r="362" ht="15" spans="1:7">
       <c r="A362" s="5" t="s">
         <v>489</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="363" ht="15" hidden="1" spans="1:7">
+    <row r="363" spans="1:7">
       <c r="A363" s="5" t="s">
         <v>568</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="364" ht="15" hidden="1" spans="1:7">
+    <row r="364" ht="15" spans="1:7">
       <c r="A364" s="5" t="s">
         <v>604</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:7">
+    <row r="366" ht="15" spans="1:7">
       <c r="A366" s="5" t="s">
         <v>607</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="367" ht="15" hidden="1" spans="1:7">
+    <row r="367" spans="1:7">
       <c r="A367" s="5" t="s">
         <v>523</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="368" ht="15" hidden="1" spans="1:7">
+    <row r="368" spans="1:7">
       <c r="A368" s="5" t="s">
         <v>554</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="369" ht="15" hidden="1" spans="1:7">
+    <row r="369" spans="1:7">
       <c r="A369" s="5" t="s">
         <v>610</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="370" ht="15" hidden="1" spans="1:7">
+    <row r="370" ht="15" spans="1:7">
       <c r="A370" s="5" t="s">
         <v>612</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:7">
+    <row r="373" ht="15" spans="1:7">
       <c r="A373" s="5" t="s">
         <v>618</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="374" ht="15" hidden="1" spans="1:7">
+    <row r="374" spans="1:7">
       <c r="A374" s="5" t="s">
         <v>619</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="375" ht="15" hidden="1" spans="1:7">
+    <row r="375" ht="15" spans="1:7">
       <c r="A375" s="5" t="s">
         <v>621</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:7">
+    <row r="377" ht="15" spans="1:7">
       <c r="A377" s="5" t="s">
         <v>528</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="378" ht="15" hidden="1" spans="1:7">
+    <row r="378" spans="1:7">
       <c r="A378" s="5" t="s">
         <v>623</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" ht="15" hidden="1" spans="1:7">
+    <row r="379" spans="1:7">
       <c r="A379" s="5" t="s">
         <v>626</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="380" ht="15" hidden="1" spans="1:7">
+    <row r="380" ht="15" spans="1:7">
       <c r="A380" s="5" t="s">
         <v>629</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:7">
+    <row r="382" ht="15" spans="1:7">
       <c r="A382" s="5" t="s">
         <v>633</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="383" ht="15" hidden="1" spans="1:7">
+    <row r="383" spans="1:7">
       <c r="A383" s="5" t="s">
         <v>635</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="384" ht="15" hidden="1" spans="1:7">
+    <row r="384" spans="1:7">
       <c r="A384" s="5" t="s">
         <v>637</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="385" ht="15" hidden="1" spans="1:7">
+    <row r="385" ht="15" spans="1:7">
       <c r="A385" s="5" t="s">
         <v>638</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:7">
+    <row r="387" ht="15" spans="1:7">
       <c r="A387" s="5" t="s">
         <v>644</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="388" ht="15" hidden="1" spans="1:7">
+    <row r="388" spans="1:7">
       <c r="A388" s="5" t="s">
         <v>646</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="389" ht="15" hidden="1" spans="1:7">
+    <row r="389" spans="1:7">
       <c r="A389" s="5" t="s">
         <v>647</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" ht="15" hidden="1" spans="1:7">
+    <row r="390" ht="15" spans="1:7">
       <c r="A390" s="5" t="s">
         <v>649</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="391" ht="15" hidden="1" spans="1:7">
+    <row r="391" ht="15" spans="1:7">
       <c r="A391" s="5" t="s">
         <v>649</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="392" ht="15" hidden="1" spans="1:7">
+    <row r="392" ht="15" spans="1:7">
       <c r="A392" s="5" t="s">
         <v>653</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="393" ht="15" hidden="1" spans="1:7">
+    <row r="393" spans="1:7">
       <c r="A393" s="5" t="s">
         <v>653</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="394" ht="15" hidden="1" spans="1:7">
+    <row r="394" spans="1:7">
       <c r="A394" s="5" t="s">
         <v>654</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="395" ht="15" hidden="1" spans="1:7">
+    <row r="395" spans="1:7">
       <c r="A395" s="5" t="s">
         <v>658</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="396" ht="15" hidden="1" spans="1:7">
+    <row r="396" spans="1:7">
       <c r="A396" s="5" t="s">
         <v>661</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="397" ht="15" hidden="1" spans="1:7">
+    <row r="397" spans="1:7">
       <c r="A397" s="5" t="s">
         <v>662</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="398" ht="15" hidden="1" spans="1:7">
+    <row r="398" spans="1:7">
       <c r="A398" s="5" t="s">
         <v>663</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="399" ht="15" hidden="1" spans="1:7">
+    <row r="399" spans="1:7">
       <c r="A399" s="5" t="s">
         <v>664</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="400" ht="15" hidden="1" spans="1:7">
+    <row r="400" ht="15" spans="1:7">
       <c r="A400" s="5" t="s">
         <v>666</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="401" ht="15" hidden="1" spans="1:7">
+    <row r="401" ht="15" spans="1:7">
       <c r="A401" s="5" t="s">
         <v>666</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="402" ht="15" hidden="1" spans="1:7">
+    <row r="402" ht="15" spans="1:7">
       <c r="A402" s="5" t="s">
         <v>667</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="403" ht="15" hidden="1" spans="1:7">
+    <row r="403" spans="1:7">
       <c r="A403" s="5" t="s">
         <v>667</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="404" ht="15" hidden="1" spans="1:7">
+    <row r="404" ht="15" spans="1:7">
       <c r="A404" s="5" t="s">
         <v>668</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:7">
+    <row r="406" ht="15" spans="1:7">
       <c r="A406" s="5" t="s">
         <v>673</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="407" ht="15" hidden="1" spans="1:7">
+    <row r="407" spans="1:7">
       <c r="A407" s="5" t="s">
         <v>676</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="408" ht="15" hidden="1" spans="1:7">
+    <row r="408" spans="1:7">
       <c r="A408" s="5" t="s">
         <v>676</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="409" ht="15" hidden="1" spans="1:7">
+    <row r="409" spans="1:7">
       <c r="A409" s="5" t="s">
         <v>682</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" ht="15" hidden="1" spans="1:7">
+    <row r="410" spans="1:7">
       <c r="A410" s="5" t="s">
         <v>682</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="411" ht="15" hidden="1" spans="1:7">
+    <row r="411" spans="1:7">
       <c r="A411" s="5" t="s">
         <v>685</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="412" ht="15" hidden="1" spans="1:7">
+    <row r="412" spans="1:7">
       <c r="A412" s="5" t="s">
         <v>685</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="413" ht="15" hidden="1" spans="1:7">
+    <row r="413" ht="15" spans="1:7">
       <c r="A413" s="5" t="s">
         <v>689</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="414" ht="15" hidden="1" spans="1:7">
+    <row r="414" ht="15" spans="1:7">
       <c r="A414" s="5" t="s">
         <v>689</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="415" ht="15" hidden="1" spans="1:7">
+    <row r="415" ht="15" spans="1:7">
       <c r="A415" s="5" t="s">
         <v>692</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="416" ht="15" hidden="1" spans="1:7">
+    <row r="416" spans="1:7">
       <c r="A416" s="5" t="s">
         <v>692</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="417" ht="15" hidden="1" spans="1:7">
+    <row r="417" spans="1:7">
       <c r="A417" s="5" t="s">
         <v>694</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="418" ht="15" hidden="1" spans="1:7">
+    <row r="418" spans="1:7">
       <c r="A418" s="5" t="s">
         <v>694</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" ht="15" hidden="1" spans="1:7">
+    <row r="419" ht="15" spans="1:7">
       <c r="A419" s="5" t="s">
         <v>695</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="420" ht="15" hidden="1" spans="1:7">
+    <row r="420" ht="15" spans="1:7">
       <c r="A420" s="5" t="s">
         <v>695</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="421" ht="15" hidden="1" spans="1:7">
+    <row r="421" ht="15" spans="1:7">
       <c r="A421" s="5" t="s">
         <v>696</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="422" ht="15" hidden="1" spans="1:7">
+    <row r="422" ht="15" spans="1:7">
       <c r="A422" s="5" t="s">
         <v>696</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="423" ht="15" hidden="1" spans="1:7">
+    <row r="423" ht="15" spans="1:7">
       <c r="A423" s="5" t="s">
         <v>700</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="424" ht="15" hidden="1" spans="1:7">
+    <row r="424" spans="1:7">
       <c r="A424" s="5" t="s">
         <v>703</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="425" ht="15" hidden="1" spans="1:7">
+    <row r="425" spans="1:7">
       <c r="A425" s="5" t="s">
         <v>704</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="426" ht="15" hidden="1" spans="1:7">
+    <row r="426" spans="1:7">
       <c r="A426" s="5" t="s">
         <v>706</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="427" ht="15" hidden="1" spans="1:7">
+    <row r="427" spans="1:7">
       <c r="A427" s="5" t="s">
         <v>708</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="428" ht="15" hidden="1" spans="1:7">
+    <row r="428" spans="1:7">
       <c r="A428" s="5" t="s">
         <v>708</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="429" ht="15" hidden="1" spans="1:7">
+    <row r="429" spans="1:7">
       <c r="A429" s="5" t="s">
         <v>712</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="430" ht="15" hidden="1" spans="1:7">
+    <row r="430" spans="1:7">
       <c r="A430" s="5" t="s">
         <v>712</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" ht="15" hidden="1" spans="1:7">
+    <row r="431" spans="1:7">
       <c r="A431" s="5" t="s">
         <v>715</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="432" ht="15" hidden="1" spans="1:7">
+    <row r="432" spans="1:7">
       <c r="A432" s="5" t="s">
         <v>715</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="433" ht="15" hidden="1" spans="1:7">
+    <row r="433" ht="15" spans="1:7">
       <c r="A433" s="8" t="s">
         <v>717</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="434" ht="15" hidden="1" spans="1:7">
+    <row r="434" ht="15" spans="1:7">
       <c r="A434" s="9" t="s">
         <v>717</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="435" ht="15" hidden="1" spans="1:7">
+    <row r="435" ht="15" spans="1:7">
       <c r="A435" s="9" t="s">
         <v>718</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="436" ht="15" hidden="1" spans="1:7">
+    <row r="436" ht="15" spans="1:7">
       <c r="A436" s="9" t="s">
         <v>718</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="437" ht="15" hidden="1" spans="1:7">
+    <row r="437" ht="15" spans="1:7">
       <c r="A437" s="9" t="s">
         <v>719</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="438" ht="15" hidden="1" spans="1:7">
+    <row r="438" spans="1:7">
       <c r="A438" s="9" t="s">
         <v>719</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="439" ht="15" hidden="1" spans="1:7">
+    <row r="439" spans="1:7">
       <c r="A439" s="9" t="s">
         <v>723</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="440" ht="15" hidden="1" spans="1:7">
+    <row r="440" spans="1:7">
       <c r="A440" s="9" t="s">
         <v>723</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="441" ht="15" hidden="1" spans="1:7">
+    <row r="441" spans="1:7">
       <c r="A441" s="9" t="s">
         <v>724</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:7">
+    <row r="442" spans="1:7">
       <c r="A442" s="9" t="s">
         <v>724</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:7">
+    <row r="443" spans="1:7">
       <c r="A443" s="9" t="s">
         <v>725</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:7">
+    <row r="444" spans="1:7">
       <c r="A444" s="9" t="s">
         <v>725</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="445" ht="15" hidden="1" spans="1:7">
+    <row r="445" spans="1:7">
       <c r="A445" s="9" t="s">
         <v>726</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="446" ht="15" hidden="1" spans="1:7">
+    <row r="446" spans="1:7">
       <c r="A446" s="9" t="s">
         <v>726</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:7">
+    <row r="447" spans="1:7">
       <c r="A447" s="9" t="s">
         <v>727</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="448" ht="15" hidden="1" spans="1:7">
+    <row r="448" ht="15" spans="1:7">
       <c r="A448" s="9" t="s">
         <v>729</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="449" ht="15" hidden="1" spans="1:7">
+    <row r="449" ht="15" spans="1:7">
       <c r="A449" s="9" t="s">
         <v>729</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="450" ht="15" hidden="1" spans="1:7">
+    <row r="450" ht="15" spans="1:7">
       <c r="A450" s="9" t="s">
         <v>730</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="451" ht="15" hidden="1" spans="1:7">
+    <row r="451" ht="15" spans="1:7">
       <c r="A451" s="9" t="s">
         <v>730</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:7">
+    <row r="453" ht="15" spans="1:7">
       <c r="A453" s="9" t="s">
         <v>734</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="454" ht="15" hidden="1" spans="1:7">
+    <row r="454" ht="15" spans="1:7">
       <c r="A454" s="9" t="s">
         <v>734</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="455" ht="15" hidden="1" spans="1:7">
+    <row r="455" ht="15" spans="1:7">
       <c r="A455" s="9" t="s">
         <v>737</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="456" ht="15" hidden="1" spans="1:7">
+    <row r="456" spans="1:7">
       <c r="A456" s="9" t="s">
         <v>737</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="457" ht="15" hidden="1" spans="1:7">
+    <row r="457" ht="15" spans="1:7">
       <c r="A457" s="9" t="s">
         <v>740</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="458" ht="15" hidden="1" spans="1:7">
+    <row r="458" ht="15" spans="1:7">
       <c r="A458" s="9" t="s">
         <v>740</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="459" ht="15" hidden="1" spans="1:7">
+    <row r="459" ht="15" spans="1:7">
       <c r="A459" s="9" t="s">
         <v>741</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="460" ht="15" hidden="1" spans="1:7">
+    <row r="460" ht="15" spans="1:7">
       <c r="A460" s="9" t="s">
         <v>741</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="461" ht="15" hidden="1" spans="1:7">
+    <row r="461" ht="15" spans="1:7">
       <c r="A461" s="9" t="s">
         <v>744</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="462" ht="15" hidden="1" spans="1:7">
+    <row r="462" spans="1:7">
       <c r="A462" s="9" t="s">
         <v>744</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:7">
+    <row r="463" spans="1:7">
       <c r="A463" s="9" t="s">
         <v>747</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:7">
+    <row r="464" spans="1:7">
       <c r="A464" s="9" t="s">
         <v>748</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:7">
+    <row r="465" spans="1:7">
       <c r="A465" s="9" t="s">
         <v>751</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="466" ht="15" hidden="1" spans="1:7">
+    <row r="466" ht="15" spans="1:7">
       <c r="A466" s="9" t="s">
         <v>753</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="467" ht="15" hidden="1" spans="1:7">
+    <row r="467" ht="15" spans="1:7">
       <c r="A467" s="9" t="s">
         <v>753</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:7">
+    <row r="468" spans="1:7">
       <c r="A468" s="9" t="s">
         <v>755</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:7">
+    <row r="469" spans="1:7">
       <c r="A469" s="9" t="s">
         <v>757</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:7">
+    <row r="470" spans="1:7">
       <c r="A470" s="9" t="s">
         <v>758</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:7">
+    <row r="471" spans="1:7">
       <c r="A471" s="9" t="s">
         <v>761</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="472" ht="15" hidden="1" spans="1:7">
+    <row r="472" ht="15" spans="1:7">
       <c r="A472" s="9" t="s">
         <v>763</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:7">
+    <row r="474" ht="15" spans="1:7">
       <c r="A474" s="9" t="s">
         <v>764</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="475" ht="15" hidden="1" spans="1:7">
+    <row r="475" ht="15" spans="1:7">
       <c r="A475" s="9" t="s">
         <v>765</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:7">
+    <row r="476" spans="1:7">
       <c r="A476" s="9" t="s">
         <v>766</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="477" ht="15" hidden="1" spans="1:7">
+    <row r="477" ht="15" spans="1:7">
       <c r="A477" s="9" t="s">
         <v>767</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:7">
+    <row r="479" spans="1:7">
       <c r="A479" s="9" t="s">
         <v>768</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:7">
+    <row r="480" spans="1:7">
       <c r="A480" s="9" t="s">
         <v>769</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="481" ht="15" hidden="1" spans="1:7">
+    <row r="481" ht="15" spans="1:7">
       <c r="A481" s="9" t="s">
         <v>772</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:7">
+    <row r="483" ht="15" spans="1:7">
       <c r="A483" s="9" t="s">
         <v>776</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:7">
+    <row r="485" spans="1:7">
       <c r="A485" s="9" t="s">
         <v>777</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="486" ht="15" hidden="1" spans="1:7">
+    <row r="486" spans="1:7">
       <c r="A486" s="9" t="s">
         <v>778</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="487" ht="15" hidden="1" spans="1:7">
+    <row r="487" spans="1:7">
       <c r="A487" s="9" t="s">
         <v>778</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="488" ht="15" hidden="1" spans="1:7">
+    <row r="488" ht="15" spans="1:7">
       <c r="A488" s="9" t="s">
         <v>779</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:7">
+    <row r="490" spans="1:7">
       <c r="A490" s="9" t="s">
         <v>783</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="491" ht="15" hidden="1" spans="1:7">
+    <row r="491" ht="15" spans="1:7">
       <c r="A491" s="9" t="s">
         <v>764</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="492" ht="15" hidden="1" spans="1:7">
+    <row r="492" ht="15" spans="1:7">
       <c r="A492" s="9" t="s">
         <v>787</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="493" ht="15" hidden="1" spans="1:7">
+    <row r="493" ht="15" spans="1:7">
       <c r="A493" s="9" t="s">
         <v>790</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="494" ht="15" hidden="1" spans="1:7">
+    <row r="494" spans="1:7">
       <c r="A494" s="9" t="s">
         <v>791</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="495" ht="15" hidden="1" spans="1:7">
+    <row r="495" ht="15" spans="1:7">
       <c r="A495" s="9" t="s">
         <v>792</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:7">
+    <row r="497" ht="15" spans="1:7">
       <c r="A497" s="9" t="s">
         <v>664</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="498" ht="15" hidden="1" spans="1:7">
+    <row r="498" ht="15" spans="1:7">
       <c r="A498" s="9" t="s">
         <v>794</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:7">
+    <row r="499" spans="1:7">
       <c r="A499" s="9" t="s">
         <v>796</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:7">
+    <row r="500" spans="1:7">
       <c r="A500" s="9" t="s">
         <v>799</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="501" ht="15" hidden="1" spans="1:7">
+    <row r="501" ht="15" spans="1:7">
       <c r="A501" s="9" t="s">
         <v>800</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:7">
+    <row r="503" ht="15" spans="1:7">
       <c r="A503" s="9" t="s">
         <v>801</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="504" ht="15" hidden="1" spans="1:7">
+    <row r="504" ht="15" spans="1:7">
       <c r="A504" s="9" t="s">
         <v>803</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:7">
+    <row r="505" spans="1:7">
       <c r="A505" s="9" t="s">
         <v>804</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="506" ht="15" hidden="1" spans="1:7">
+    <row r="506" ht="15" spans="1:7">
       <c r="A506" s="9" t="s">
         <v>731</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:7">
+    <row r="508" ht="15" spans="1:7">
       <c r="A508" s="9" t="s">
         <v>805</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="509" ht="15" hidden="1" spans="1:7">
+    <row r="509" ht="15" spans="1:7">
       <c r="A509" s="9" t="s">
         <v>806</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:7">
+    <row r="510" spans="1:7">
       <c r="A510" s="9" t="s">
         <v>796</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="511" ht="15" hidden="1" spans="1:7">
+    <row r="511" ht="15" spans="1:7">
       <c r="A511" s="9" t="s">
         <v>808</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:7">
+    <row r="513" ht="15" spans="1:7">
       <c r="A513" s="9" t="s">
         <v>811</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="514" ht="15" hidden="1" spans="1:7">
+    <row r="514" ht="15" spans="1:7">
       <c r="A514" s="9" t="s">
         <v>804</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="515" ht="15" hidden="1" spans="1:7">
+    <row r="515" ht="15" spans="1:7">
       <c r="A515" s="10" t="s">
         <v>812</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:7">
+    <row r="519" spans="1:7">
       <c r="A519" s="10" t="s">
         <v>817</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:7">
+    <row r="520" spans="1:7">
       <c r="A520" s="10" t="s">
         <v>817</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:7">
+    <row r="521" spans="1:7">
       <c r="A521" s="10" t="s">
         <v>818</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="522" ht="15" hidden="1" spans="1:7">
+    <row r="522" spans="1:7">
       <c r="A522" s="10" t="s">
         <v>819</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="523" ht="15" hidden="1" spans="1:7">
+    <row r="523" ht="15" spans="1:7">
       <c r="A523" s="10" t="s">
         <v>470</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="524" ht="15" hidden="1" spans="1:7">
+    <row r="524" ht="15" spans="1:7">
       <c r="A524" s="10" t="s">
         <v>822</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="525" ht="15" hidden="1" spans="1:7">
+    <row r="525" ht="15" spans="1:7">
       <c r="A525" s="10" t="s">
         <v>475</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="526" ht="15" hidden="1" spans="1:7">
+    <row r="526" ht="15" spans="1:7">
       <c r="A526" s="10" t="s">
         <v>824</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:7">
+    <row r="528" ht="15" spans="1:7">
       <c r="A528" s="10" t="s">
         <v>829</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="529" ht="15" hidden="1" spans="1:7">
+    <row r="529" ht="15" spans="1:7">
       <c r="A529" s="10" t="s">
         <v>830</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="530" ht="15" hidden="1" spans="1:7">
+    <row r="530" ht="15" spans="1:7">
       <c r="A530" s="10" t="s">
         <v>832</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:7">
+    <row r="533" spans="1:7">
       <c r="A533" s="10" t="s">
         <v>840</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:7">
+    <row r="534" spans="1:7">
       <c r="A534" s="10" t="s">
         <v>842</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="535" ht="15" hidden="1" spans="1:7">
+    <row r="535" ht="15" spans="1:7">
       <c r="A535" s="10" t="s">
         <v>844</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="536" ht="15" hidden="1" spans="1:7">
+    <row r="536" ht="15" spans="1:7">
       <c r="A536" s="10" t="s">
         <v>846</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:7">
+    <row r="538" ht="15" spans="1:7">
       <c r="A538" s="10" t="s">
         <v>848</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="539" ht="15" hidden="1" spans="1:7">
+    <row r="539" ht="15" spans="1:7">
       <c r="A539" s="10" t="s">
         <v>850</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:7">
+    <row r="540" spans="1:7">
       <c r="A540" s="10" t="s">
         <v>479</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="541" ht="15" hidden="1" spans="1:7">
+    <row r="541" ht="15" spans="1:7">
       <c r="A541" s="10" t="s">
         <v>480</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="542" ht="15" hidden="1" spans="1:7">
+    <row r="542" ht="15" spans="1:7">
       <c r="A542" s="10" t="s">
         <v>480</v>
       </c>
@@ -16132,13 +16132,8 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G542" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="9h30-11"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A1:G542">
-      <sortCondition ref="C1"/>
+    <sortState ref="A2:G542">
+      <sortCondition ref="D1"/>
     </sortState>
     <extLst/>
   </autoFilter>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Exporter la liste_Horaire" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille2!$A$1:$G$542</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille2!$A$1:$G$544</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="858">
   <si>
     <t>Enseignements</t>
   </si>
@@ -2052,282 +2052,279 @@
     <t>Cours-PROG</t>
   </si>
   <si>
-    <t>TP-Logiciels Libres (SG81/82)</t>
+    <t>TP-Logiciels Libres (SG81/SG82)</t>
+  </si>
+  <si>
+    <t>TP-LL-a</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (SG11/12)</t>
+  </si>
+  <si>
+    <t>TP-PROG-a</t>
+  </si>
+  <si>
+    <t>BENCELLA</t>
+  </si>
+  <si>
+    <t>8h-9h</t>
+  </si>
+  <si>
+    <t>TP-PROG-b</t>
+  </si>
+  <si>
+    <t>9h-10h</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (SG31/32)</t>
+  </si>
+  <si>
+    <t>10h-11h</t>
+  </si>
+  <si>
+    <t>11h-12h</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (SG71/72)</t>
+  </si>
+  <si>
+    <t>12h-13h</t>
+  </si>
+  <si>
+    <t>Salle Micro Bis</t>
+  </si>
+  <si>
+    <t>13h-14h</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (SG61/62)</t>
+  </si>
+  <si>
+    <t>TP-LL-b</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (SG41/42)</t>
+  </si>
+  <si>
+    <t>BENHALOUCHE</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (SG81/82)</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (SG51/52)</t>
+  </si>
+  <si>
+    <t>Td-Elec. &amp; Magnétisme (G1)</t>
+  </si>
+  <si>
+    <t>TD-EM-G1a</t>
+  </si>
+  <si>
+    <t>BOULARAF</t>
+  </si>
+  <si>
+    <t>TD-EM-G1b</t>
+  </si>
+  <si>
+    <t>TP-Elec. &amp; Magnétisme (SG61)</t>
+  </si>
+  <si>
+    <t>TP-EM</t>
+  </si>
+  <si>
+    <t>Labo Phys 1</t>
+  </si>
+  <si>
+    <t>TP-Elec. &amp; Magnétisme (SG21)</t>
+  </si>
+  <si>
+    <t>TP-Elec. &amp; Magnétisme (SG51)</t>
+  </si>
+  <si>
+    <t>BOURAHLA</t>
+  </si>
+  <si>
+    <t>TP-Elec. &amp; Magnétisme (SG71)</t>
+  </si>
+  <si>
+    <t>DRICI</t>
+  </si>
+  <si>
+    <t>Td-Elec. &amp; Magnétisme (G5)</t>
+  </si>
+  <si>
+    <t>TD-EM-G5a</t>
+  </si>
+  <si>
+    <t>DRIEF</t>
+  </si>
+  <si>
+    <t>TD-EM-G5b</t>
+  </si>
+  <si>
+    <t>Td-Elec. &amp; Magnétisme (G3)</t>
+  </si>
+  <si>
+    <t>TD-EM-a</t>
+  </si>
+  <si>
+    <t>TD-EM-b</t>
+  </si>
+  <si>
+    <t>Td-Elec. &amp; Magnétisme (G2)</t>
+  </si>
+  <si>
+    <t>DRIF</t>
+  </si>
+  <si>
+    <t>Td-Elec. &amp; Magnétisme (G4)</t>
+  </si>
+  <si>
+    <t>Td-Elec. &amp; Magnétisme (G7)</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G1)</t>
+  </si>
+  <si>
+    <t>TD-THER-a</t>
+  </si>
+  <si>
+    <t>EL-GHOUDAS</t>
+  </si>
+  <si>
+    <t>TD-THER-b</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G4)</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (G61/62)</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (SG21/22)</t>
+  </si>
+  <si>
+    <t>TP-Init. Programmation (G51/52)</t>
+  </si>
+  <si>
+    <t>TP-Thermodynamique (SG32)</t>
+  </si>
+  <si>
+    <t>HEMMAR</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G2)</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G6)</t>
+  </si>
+  <si>
+    <t>Cours-Analyse 2</t>
+  </si>
+  <si>
+    <t>Cours-ANA2</t>
+  </si>
+  <si>
+    <t>LALEDJ</t>
+  </si>
+  <si>
+    <t>Td-Analyse 2 (G2)</t>
+  </si>
+  <si>
+    <t>TD-ANA-G2a</t>
+  </si>
+  <si>
+    <t>TD-ANA-G2b</t>
+  </si>
+  <si>
+    <t>Td-Analyse 2 (G6)</t>
+  </si>
+  <si>
+    <t>TD-ANA-G6a</t>
+  </si>
+  <si>
+    <t>TD-ANA-G6b</t>
+  </si>
+  <si>
+    <t>Td-Analyse 2 (G4)</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G3)</t>
+  </si>
+  <si>
+    <t>TD-THER-G3a</t>
+  </si>
+  <si>
+    <t>TD-THER-G3b</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G7)</t>
+  </si>
+  <si>
+    <t>TD-THER-G7a</t>
+  </si>
+  <si>
+    <t>TD-THER-G7b</t>
+  </si>
+  <si>
+    <t>TP-Thermodynamique (SG12)</t>
+  </si>
+  <si>
+    <t>TP-Elec. &amp; Magnétisme (SG41)</t>
+  </si>
+  <si>
+    <t>TP-EM-SG41</t>
+  </si>
+  <si>
+    <t>MEKHALEF</t>
+  </si>
+  <si>
+    <t>Td-Algèbre 1 (G6)</t>
+  </si>
+  <si>
+    <t>MERADJAH</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G5)</t>
+  </si>
+  <si>
+    <t>MILOUD</t>
+  </si>
+  <si>
+    <t>Td-Algèbre 2 (G2)</t>
+  </si>
+  <si>
+    <t>Salle A10</t>
+  </si>
+  <si>
+    <t>Td-Algèbre 2 (G1)</t>
+  </si>
+  <si>
+    <t>TP-Thermodynamique (SG42)</t>
+  </si>
+  <si>
+    <t>TP-THER-SG42</t>
+  </si>
+  <si>
+    <t>MOKADEM</t>
+  </si>
+  <si>
+    <t>TP-Thermodynamique (SG82)</t>
+  </si>
+  <si>
+    <t>TP-THER-SG82</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G8)</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (G11/12)</t>
   </si>
   <si>
     <t>TP-LL</t>
   </si>
   <si>
-    <t>11h-14h</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (SG11/12)</t>
-  </si>
-  <si>
-    <t>TP-PROG-a</t>
-  </si>
-  <si>
-    <t>BENCELLA</t>
-  </si>
-  <si>
-    <t>8h-9h</t>
-  </si>
-  <si>
-    <t>TP-PROG-b</t>
-  </si>
-  <si>
-    <t>9h-10h</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (SG31/32)</t>
-  </si>
-  <si>
-    <t>10h-11h</t>
-  </si>
-  <si>
-    <t>11h-12h</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (SG71/72)</t>
-  </si>
-  <si>
-    <t>12h-13h</t>
-  </si>
-  <si>
-    <t>Salle Micro Bis</t>
-  </si>
-  <si>
-    <t>13h-14h</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (SG61/62)</t>
-  </si>
-  <si>
-    <t>TP-LL-a</t>
-  </si>
-  <si>
-    <t>TP-LL-b</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (SG41/42)</t>
-  </si>
-  <si>
-    <t>BENHALOUCHE</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (SG81/82)</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (SG51/52)</t>
-  </si>
-  <si>
-    <t>Td-Elec. &amp; Magnétisme (G1)</t>
-  </si>
-  <si>
-    <t>TD-EM-G1a</t>
-  </si>
-  <si>
-    <t>BOULARAF</t>
-  </si>
-  <si>
-    <t>TD-EM-G1b</t>
-  </si>
-  <si>
-    <t>TP-Elec. &amp; Magnétisme (SG61)</t>
-  </si>
-  <si>
-    <t>TP-EM</t>
-  </si>
-  <si>
-    <t>Labo Phys 1</t>
-  </si>
-  <si>
-    <t>TP-Elec. &amp; Magnétisme (SG21)</t>
-  </si>
-  <si>
-    <t>TP-Elec. &amp; Magnétisme (SG51)</t>
-  </si>
-  <si>
-    <t>BOURAHLA</t>
-  </si>
-  <si>
-    <t>TP-Elec. &amp; Magnétisme (SG71)</t>
-  </si>
-  <si>
-    <t>DRICI</t>
-  </si>
-  <si>
-    <t>Td-Elec. &amp; Magnétisme (G5)</t>
-  </si>
-  <si>
-    <t>TD-EM-G5a</t>
-  </si>
-  <si>
-    <t>DRIEF</t>
-  </si>
-  <si>
-    <t>TD-EM-G5b</t>
-  </si>
-  <si>
-    <t>Td-Elec. &amp; Magnétisme (G3)</t>
-  </si>
-  <si>
-    <t>TD-EM-a</t>
-  </si>
-  <si>
-    <t>TD-EM-b</t>
-  </si>
-  <si>
-    <t>Td-Elec. &amp; Magnétisme (G2)</t>
-  </si>
-  <si>
-    <t>DRIF</t>
-  </si>
-  <si>
-    <t>Td-Elec. &amp; Magnétisme (G4)</t>
-  </si>
-  <si>
-    <t>Td-Elec. &amp; Magnétisme (G7)</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G1)</t>
-  </si>
-  <si>
-    <t>TD-THER-a</t>
-  </si>
-  <si>
-    <t>EL-GHOUDAS</t>
-  </si>
-  <si>
-    <t>TD-THER-b</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G4)</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (G61/62)</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (SG21/22)</t>
-  </si>
-  <si>
-    <t>TP-Init. Programmation (G51/52)</t>
-  </si>
-  <si>
-    <t>TP-Thermodynamique (SG32)</t>
-  </si>
-  <si>
-    <t>HEMMAR</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G2)</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G6)</t>
-  </si>
-  <si>
-    <t>Cours-Analyse 2</t>
-  </si>
-  <si>
-    <t>Cours-ANA2</t>
-  </si>
-  <si>
-    <t>LALEDJ</t>
-  </si>
-  <si>
-    <t>Td-Analyse 2 (G2)</t>
-  </si>
-  <si>
-    <t>TD-ANA-G2a</t>
-  </si>
-  <si>
-    <t>TD-ANA-G2b</t>
-  </si>
-  <si>
-    <t>Td-Analyse 2 (G6)</t>
-  </si>
-  <si>
-    <t>TD-ANA-G6a</t>
-  </si>
-  <si>
-    <t>TD-ANA-G6b</t>
-  </si>
-  <si>
-    <t>Td-Analyse 2 (G4)</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G3)</t>
-  </si>
-  <si>
-    <t>TD-THER-G3a</t>
-  </si>
-  <si>
-    <t>TD-THER-G3b</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G7)</t>
-  </si>
-  <si>
-    <t>TD-THER-G7a</t>
-  </si>
-  <si>
-    <t>TD-THER-G7b</t>
-  </si>
-  <si>
-    <t>TP-Thermodynamique (SG12)</t>
-  </si>
-  <si>
-    <t>TP-Elec. &amp; Magnétisme (SG41)</t>
-  </si>
-  <si>
-    <t>TP-EM-SG41</t>
-  </si>
-  <si>
-    <t>MEKHALEF</t>
-  </si>
-  <si>
-    <t>Td-Algèbre 1 (G6)</t>
-  </si>
-  <si>
-    <t>MERADJAH</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G5)</t>
-  </si>
-  <si>
-    <t>MILOUD</t>
-  </si>
-  <si>
-    <t>Td-Algèbre 2 (G2)</t>
-  </si>
-  <si>
-    <t>Salle A10</t>
-  </si>
-  <si>
-    <t>Td-Algèbre 2 (G1)</t>
-  </si>
-  <si>
-    <t>TP-Thermodynamique (SG42)</t>
-  </si>
-  <si>
-    <t>TP-THER-SG42</t>
-  </si>
-  <si>
-    <t>MOKADEM</t>
-  </si>
-  <si>
-    <t>TP-Thermodynamique (SG82)</t>
-  </si>
-  <si>
-    <t>TP-THER-SG82</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G8)</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (G11/12)</t>
-  </si>
-  <si>
     <t>TP-Logiciels Libres (G21/22)</t>
   </si>
   <si>
@@ -2337,7 +2334,7 @@
     <t>TP-Logiciels Libres (G71/G72)</t>
   </si>
   <si>
-    <t>TP-Logiciels Libres (G31/G32)</t>
+    <t>TP-Logiciels Libres (SG31/SG32)</t>
   </si>
   <si>
     <t>TP-Elec. &amp; Magnétisme (SG81)</t>
@@ -3645,11 +3642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H542"/>
+  <sheetPr/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3687,7 +3684,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" hidden="1" spans="1:8">
+    <row r="2" ht="15" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3711,7 +3708,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="15" hidden="1" spans="1:8">
+    <row r="3" ht="15" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3732,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" hidden="1" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3756,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" hidden="1" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3780,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="15" hidden="1" spans="1:8">
+    <row r="6" ht="15" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3807,7 +3804,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="15" hidden="1" spans="1:8">
+    <row r="7" ht="15" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -3831,7 +3828,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" hidden="1" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +3852,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" hidden="1" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -3879,7 +3876,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" hidden="1" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -3903,7 +3900,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="15" hidden="1" spans="1:8">
+    <row r="11" ht="15" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="15" hidden="1" spans="1:8">
+    <row r="12" ht="15" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -3951,7 +3948,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="15" hidden="1" spans="1:8">
+    <row r="13" ht="15" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" hidden="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -4023,7 +4020,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" ht="15" hidden="1" spans="1:8">
+    <row r="16" ht="15" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -4047,7 +4044,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" ht="15" hidden="1" spans="1:8">
+    <row r="17" ht="15" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -4071,7 +4068,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" ht="15" hidden="1" spans="1:8">
+    <row r="18" ht="15" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
@@ -4095,7 +4092,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" hidden="1" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -4119,7 +4116,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" hidden="1" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
@@ -4143,7 +4140,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="15" hidden="1" spans="1:8">
+    <row r="21" ht="15" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -4167,7 +4164,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="15" hidden="1" spans="1:8">
+    <row r="22" ht="15" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
@@ -4191,7 +4188,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="15" hidden="1" spans="1:8">
+    <row r="23" ht="15" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
@@ -4215,7 +4212,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" ht="15" hidden="1" spans="1:8">
+    <row r="24" ht="15" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -4239,7 +4236,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" ht="15" hidden="1" spans="1:8">
+    <row r="25" ht="15" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" ht="15" hidden="1" spans="1:7">
+    <row r="26" ht="15" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" ht="15" hidden="1" spans="1:7">
+    <row r="27" ht="15" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -4309,7 +4306,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="15" hidden="1" spans="1:7">
+    <row r="28" ht="15" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>83</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="15" hidden="1" spans="1:7">
+    <row r="31" ht="15" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" ht="15" hidden="1" spans="1:7">
+    <row r="32" ht="15" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
@@ -4424,7 +4421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="15" hidden="1" spans="1:7">
+    <row r="33" ht="15" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>93</v>
       </c>
@@ -4447,7 +4444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" ht="15" hidden="1" spans="1:7">
+    <row r="34" ht="15" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
@@ -4470,7 +4467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>93</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>99</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>101</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" ht="15" hidden="1" spans="1:7">
+    <row r="38" ht="15" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>79</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" ht="15" hidden="1" spans="1:7">
+    <row r="39" ht="15" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>103</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" ht="15" hidden="1" spans="1:7">
+    <row r="40" ht="15" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>105</v>
       </c>
@@ -4631,7 +4628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:7">
+    <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>105</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>105</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
@@ -4700,7 +4697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" ht="15" hidden="1" spans="1:7">
+    <row r="45" ht="15" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>109</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" ht="15" hidden="1" spans="1:7">
+    <row r="46" ht="15" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>111</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" ht="15" hidden="1" spans="1:7">
+    <row r="47" ht="15" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>114</v>
       </c>
@@ -4769,7 +4766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" ht="15" hidden="1" spans="1:7">
+    <row r="48" ht="15" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>69</v>
       </c>
@@ -4792,7 +4789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" ht="15" hidden="1" spans="1:7">
+    <row r="49" ht="15" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>72</v>
       </c>
@@ -4815,7 +4812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" ht="15" hidden="1" spans="1:7">
+    <row r="50" ht="15" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>117</v>
       </c>
@@ -4838,7 +4835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" ht="15" hidden="1" spans="1:7">
+    <row r="51" ht="15" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -4861,7 +4858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" ht="15" hidden="1" spans="1:7">
+    <row r="52" ht="15" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -4884,7 +4881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:7">
+    <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>124</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" ht="15" hidden="1" spans="1:7">
+    <row r="54" ht="15" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -4930,7 +4927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" ht="15" hidden="1" spans="1:7">
+    <row r="55" ht="15" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>132</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
@@ -4976,7 +4973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" ht="15" hidden="1" spans="1:7">
+    <row r="57" ht="15" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>136</v>
       </c>
@@ -4999,7 +4996,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" ht="15" hidden="1" spans="1:7">
+    <row r="58" ht="15" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>132</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:7">
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>132</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:7">
+    <row r="60" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>136</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:7">
+    <row r="61" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>141</v>
       </c>
@@ -5091,7 +5088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:7">
+    <row r="62" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>144</v>
       </c>
@@ -5114,7 +5111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" ht="15" hidden="1" spans="1:7">
+    <row r="63" ht="15" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>146</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" ht="15" hidden="1" spans="1:7">
+    <row r="64" ht="15" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>146</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" ht="15" hidden="1" spans="1:7">
+    <row r="65" ht="15" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" ht="15" hidden="1" spans="1:7">
+    <row r="66" ht="15" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>151</v>
       </c>
@@ -5206,7 +5203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" ht="15" hidden="1" spans="1:7">
+    <row r="67" ht="15" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>153</v>
       </c>
@@ -5229,7 +5226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" ht="15" hidden="1" spans="1:7">
+    <row r="68" ht="15" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>155</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>156</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="15" hidden="1" spans="1:7">
+    <row r="70" ht="15" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>34</v>
       </c>
@@ -5298,7 +5295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" ht="15" hidden="1" spans="1:7">
+    <row r="71" ht="15" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
@@ -5321,7 +5318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" ht="15" hidden="1" spans="1:7">
+    <row r="72" ht="15" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>72</v>
       </c>
@@ -5344,7 +5341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" ht="15" hidden="1" spans="1:7">
+    <row r="73" ht="15" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>161</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" ht="15" hidden="1" spans="1:7">
+    <row r="74" ht="15" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5390,7 +5387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" ht="15" hidden="1" spans="1:7">
+    <row r="75" ht="15" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>167</v>
       </c>
@@ -5413,7 +5410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" ht="15" hidden="1" spans="1:7">
+    <row r="76" ht="15" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>170</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>172</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:7">
+    <row r="78" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -5482,7 +5479,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>175</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" ht="15" hidden="1" spans="1:7">
+    <row r="80" ht="15" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>176</v>
       </c>
@@ -5528,7 +5525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" ht="15" hidden="1" spans="1:7">
+    <row r="81" ht="15" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>179</v>
       </c>
@@ -5551,7 +5548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" ht="15" hidden="1" spans="1:7">
+    <row r="82" ht="15" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>156</v>
       </c>
@@ -5574,7 +5571,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>181</v>
       </c>
@@ -5597,7 +5594,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:7">
+    <row r="84" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>184</v>
       </c>
@@ -5620,7 +5617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" ht="15" hidden="1" spans="1:7">
+    <row r="85" ht="15" spans="1:7">
       <c r="A85" s="6" t="s">
         <v>186</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" ht="15" hidden="1" spans="1:7">
+    <row r="86" ht="15" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>189</v>
       </c>
@@ -5666,7 +5663,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" ht="15" hidden="1" spans="1:7">
+    <row r="87" ht="15" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>191</v>
       </c>
@@ -5689,7 +5686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:7">
+    <row r="88" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>193</v>
       </c>
@@ -5712,7 +5709,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:7">
+    <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
         <v>195</v>
       </c>
@@ -5735,7 +5732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:7">
+    <row r="90" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>197</v>
       </c>
@@ -5758,7 +5755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" ht="15" hidden="1" spans="1:7">
+    <row r="91" ht="15" spans="1:7">
       <c r="A91" s="6" t="s">
         <v>198</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" ht="15" hidden="1" spans="1:7">
+    <row r="92" ht="15" spans="1:7">
       <c r="A92" s="6" t="s">
         <v>200</v>
       </c>
@@ -5804,7 +5801,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" ht="15" hidden="1" spans="1:7">
+    <row r="93" ht="15" spans="1:7">
       <c r="A93" s="6" t="s">
         <v>201</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" ht="15" hidden="1" spans="1:7">
+    <row r="94" ht="15" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>72</v>
       </c>
@@ -5850,7 +5847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" ht="15" hidden="1" spans="1:7">
+    <row r="95" ht="15" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>202</v>
       </c>
@@ -5873,7 +5870,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" ht="15" hidden="1" spans="1:7">
+    <row r="96" ht="15" spans="1:7">
       <c r="A96" s="6" t="s">
         <v>206</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" ht="15" hidden="1" spans="1:7">
+    <row r="97" ht="15" spans="1:7">
       <c r="A97" s="6" t="s">
         <v>209</v>
       </c>
@@ -5919,7 +5916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:7">
+    <row r="98" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>211</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:7">
+    <row r="99" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>211</v>
       </c>
@@ -5965,7 +5962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:7">
+    <row r="100" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>216</v>
       </c>
@@ -5988,7 +5985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:7">
+    <row r="101" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>216</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" ht="15" hidden="1" spans="1:7">
+    <row r="102" ht="15" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>218</v>
       </c>
@@ -6034,7 +6031,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" ht="15" hidden="1" spans="1:7">
+    <row r="103" ht="15" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>219</v>
       </c>
@@ -6057,7 +6054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:7">
+    <row r="104" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>219</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:7">
+    <row r="105" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>221</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" ht="15" hidden="1" spans="1:7">
+    <row r="106" ht="15" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>221</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" ht="15" hidden="1" spans="1:7">
+    <row r="107" ht="15" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>223</v>
       </c>
@@ -6149,7 +6146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:7">
+    <row r="108" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>223</v>
       </c>
@@ -6172,7 +6169,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:7">
+    <row r="109" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>225</v>
       </c>
@@ -6195,7 +6192,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>225</v>
       </c>
@@ -6218,7 +6215,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" ht="15" hidden="1" spans="1:7">
+    <row r="111" ht="15" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>227</v>
       </c>
@@ -6241,7 +6238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" ht="15" hidden="1" spans="1:7">
+    <row r="112" ht="15" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>153</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" ht="15" hidden="1" spans="1:7">
+    <row r="113" ht="15" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>155</v>
       </c>
@@ -6287,7 +6284,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:7">
+    <row r="114" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>230</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:7">
+    <row r="115" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>232</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" ht="15" hidden="1" spans="1:7">
+    <row r="116" ht="15" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>234</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" ht="15" hidden="1" spans="1:7">
+    <row r="117" ht="15" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>236</v>
       </c>
@@ -6379,7 +6376,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" ht="15" hidden="1" spans="1:7">
+    <row r="118" ht="15" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>239</v>
       </c>
@@ -6402,7 +6399,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:7">
+    <row r="119" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>241</v>
       </c>
@@ -6425,7 +6422,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:7">
+    <row r="120" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>243</v>
       </c>
@@ -6448,7 +6445,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" ht="15" hidden="1" spans="1:7">
+    <row r="121" ht="15" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>193</v>
       </c>
@@ -6471,7 +6468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" ht="15" hidden="1" spans="1:7">
+    <row r="122" ht="15" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>197</v>
       </c>
@@ -6494,7 +6491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" ht="15" hidden="1" spans="1:7">
+    <row r="123" ht="15" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:7">
+    <row r="124" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
@@ -6540,7 +6537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" ht="15" hidden="1" spans="1:7">
+    <row r="125" ht="15" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>248</v>
       </c>
@@ -6563,7 +6560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" ht="15" hidden="1" spans="1:7">
+    <row r="126" ht="15" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>252</v>
       </c>
@@ -6586,7 +6583,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="15" hidden="1" spans="1:7">
+    <row r="127" ht="15" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>255</v>
       </c>
@@ -6609,7 +6606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:7">
+    <row r="128" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>257</v>
       </c>
@@ -6632,7 +6629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>260</v>
       </c>
@@ -6655,7 +6652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" ht="15" hidden="1" spans="1:7">
+    <row r="130" ht="15" spans="1:7">
       <c r="A130" s="6" t="s">
         <v>262</v>
       </c>
@@ -6678,7 +6675,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" ht="15" hidden="1" spans="1:7">
+    <row r="131" ht="15" spans="1:7">
       <c r="A131" s="6" t="s">
         <v>153</v>
       </c>
@@ -6701,7 +6698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" ht="15" hidden="1" spans="1:7">
+    <row r="132" ht="15" spans="1:7">
       <c r="A132" s="6" t="s">
         <v>155</v>
       </c>
@@ -6724,7 +6721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:7">
+    <row r="133" spans="1:7">
       <c r="A133" s="6" t="s">
         <v>265</v>
       </c>
@@ -6747,7 +6744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:7">
+    <row r="134" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>267</v>
       </c>
@@ -6770,7 +6767,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" ht="15" hidden="1" spans="1:7">
+    <row r="135" ht="15" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>269</v>
       </c>
@@ -6793,7 +6790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" ht="15" hidden="1" spans="1:7">
+    <row r="136" ht="15" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>271</v>
       </c>
@@ -6816,7 +6813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" ht="15" hidden="1" spans="1:7">
+    <row r="137" ht="15" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>273</v>
       </c>
@@ -6839,7 +6836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" ht="15" hidden="1" spans="1:7">
+    <row r="138" ht="15" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>275</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" ht="15" hidden="1" spans="1:7">
+    <row r="139" ht="15" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>278</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" ht="15" hidden="1" spans="1:7">
+    <row r="140" ht="15" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>280</v>
       </c>
@@ -6908,7 +6905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" ht="15" hidden="1" spans="1:7">
+    <row r="141" ht="15" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>282</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" ht="15" hidden="1" spans="1:7">
+    <row r="142" ht="15" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>285</v>
       </c>
@@ -6954,7 +6951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" ht="15" hidden="1" spans="1:7">
+    <row r="143" ht="15" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>288</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:7">
+    <row r="144" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>290</v>
       </c>
@@ -7000,7 +6997,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:7">
+    <row r="145" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>72</v>
       </c>
@@ -7023,7 +7020,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" ht="15" hidden="1" spans="1:7">
+    <row r="146" ht="15" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>293</v>
       </c>
@@ -7046,7 +7043,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" ht="15" hidden="1" spans="1:7">
+    <row r="147" ht="15" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>298</v>
       </c>
@@ -7069,7 +7066,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:7">
+    <row r="148" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>302</v>
       </c>
@@ -7092,7 +7089,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" ht="15" hidden="1" spans="1:7">
+    <row r="149" ht="15" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>304</v>
       </c>
@@ -7115,7 +7112,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="15" hidden="1" spans="1:7">
+    <row r="150" ht="15" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>307</v>
       </c>
@@ -7138,7 +7135,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>309</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:7">
+    <row r="152" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>311</v>
       </c>
@@ -7184,7 +7181,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:7">
+    <row r="153" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>311</v>
       </c>
@@ -7207,7 +7204,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:7">
+    <row r="154" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>314</v>
       </c>
@@ -7230,7 +7227,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:7">
+    <row r="155" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>314</v>
       </c>
@@ -7253,7 +7250,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:7">
+    <row r="156" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>316</v>
       </c>
@@ -7276,7 +7273,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:7">
+    <row r="157" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>316</v>
       </c>
@@ -7299,7 +7296,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:7">
+    <row r="158" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>319</v>
       </c>
@@ -7322,7 +7319,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:7">
+    <row r="159" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>320</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:7">
+    <row r="160" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>323</v>
       </c>
@@ -7368,7 +7365,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:7">
+    <row r="161" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>323</v>
       </c>
@@ -7391,7 +7388,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:7">
+    <row r="162" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>325</v>
       </c>
@@ -7414,7 +7411,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:7">
+    <row r="163" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>325</v>
       </c>
@@ -7437,7 +7434,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:7">
+    <row r="164" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>326</v>
       </c>
@@ -7460,7 +7457,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:7">
+    <row r="165" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>326</v>
       </c>
@@ -7483,7 +7480,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:7">
+    <row r="166" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>327</v>
       </c>
@@ -7506,7 +7503,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:7">
+    <row r="167" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>328</v>
       </c>
@@ -7529,7 +7526,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" ht="15" hidden="1" spans="1:7">
+    <row r="168" ht="15" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>330</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" ht="15" hidden="1" spans="1:7">
+    <row r="169" ht="15" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>332</v>
       </c>
@@ -7575,7 +7572,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:7">
+    <row r="170" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>334</v>
       </c>
@@ -7598,7 +7595,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="171" ht="15" hidden="1" spans="1:7">
+    <row r="171" ht="15" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>336</v>
       </c>
@@ -7621,7 +7618,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" ht="15" hidden="1" spans="1:7">
+    <row r="172" ht="15" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>338</v>
       </c>
@@ -7644,7 +7641,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:7">
+    <row r="173" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>341</v>
       </c>
@@ -7667,7 +7664,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:7">
+    <row r="174" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>343</v>
       </c>
@@ -7690,7 +7687,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:7">
+    <row r="175" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>345</v>
       </c>
@@ -7713,7 +7710,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:7">
+    <row r="176" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>347</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:7">
+    <row r="177" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>347</v>
       </c>
@@ -7759,7 +7756,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:7">
+    <row r="178" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>348</v>
       </c>
@@ -7782,7 +7779,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:7">
+    <row r="179" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>348</v>
       </c>
@@ -7805,7 +7802,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:7">
+    <row r="180" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>351</v>
       </c>
@@ -7828,7 +7825,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:7">
+    <row r="181" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>353</v>
       </c>
@@ -7851,7 +7848,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:7">
+    <row r="182" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>355</v>
       </c>
@@ -7874,7 +7871,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:7">
+    <row r="183" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>355</v>
       </c>
@@ -7897,7 +7894,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:7">
+    <row r="184" spans="1:7">
       <c r="A184" s="6" t="s">
         <v>356</v>
       </c>
@@ -7920,7 +7917,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:7">
+    <row r="185" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>356</v>
       </c>
@@ -7943,7 +7940,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:7">
+    <row r="186" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>357</v>
       </c>
@@ -7966,7 +7963,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" ht="15" hidden="1" spans="1:7">
+    <row r="187" ht="15" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>359</v>
       </c>
@@ -7989,7 +7986,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" ht="15" hidden="1" spans="1:7">
+    <row r="188" ht="15" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>361</v>
       </c>
@@ -8012,7 +8009,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" ht="15" hidden="1" spans="1:7">
+    <row r="189" ht="15" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>363</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:7">
+    <row r="190" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>366</v>
       </c>
@@ -8058,7 +8055,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:7">
+    <row r="191" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>368</v>
       </c>
@@ -8081,7 +8078,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:7">
+    <row r="192" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>370</v>
       </c>
@@ -8104,7 +8101,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:7">
+    <row r="193" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>371</v>
       </c>
@@ -8127,7 +8124,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:7">
+    <row r="194" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>373</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:7">
+    <row r="195" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>374</v>
       </c>
@@ -8173,7 +8170,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:7">
+    <row r="196" spans="1:7">
       <c r="A196" s="6" t="s">
         <v>375</v>
       </c>
@@ -8196,7 +8193,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:7">
+    <row r="197" spans="1:7">
       <c r="A197" s="6" t="s">
         <v>376</v>
       </c>
@@ -8219,7 +8216,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" ht="15" hidden="1" spans="1:7">
+    <row r="198" ht="15" spans="1:7">
       <c r="A198" s="6" t="s">
         <v>377</v>
       </c>
@@ -8242,7 +8239,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" ht="15" hidden="1" spans="1:7">
+    <row r="199" ht="15" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>379</v>
       </c>
@@ -8265,7 +8262,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" ht="15" hidden="1" spans="1:7">
+    <row r="200" ht="15" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>330</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:7">
+    <row r="201" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>381</v>
       </c>
@@ -8311,7 +8308,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:7">
+    <row r="202" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>382</v>
       </c>
@@ -8334,7 +8331,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:7">
+    <row r="203" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>382</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:7">
+    <row r="204" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>384</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:7">
+    <row r="205" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>386</v>
       </c>
@@ -8403,7 +8400,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:7">
+    <row r="206" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>387</v>
       </c>
@@ -8426,7 +8423,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:7">
+    <row r="207" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>387</v>
       </c>
@@ -8449,7 +8446,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:7">
+    <row r="208" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>388</v>
       </c>
@@ -8472,7 +8469,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:7">
+    <row r="209" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>389</v>
       </c>
@@ -8495,7 +8492,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" ht="15" hidden="1" spans="1:7">
+    <row r="210" ht="15" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>361</v>
       </c>
@@ -8518,7 +8515,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="211" ht="15" hidden="1" spans="1:7">
+    <row r="211" ht="15" spans="1:7">
       <c r="A211" s="6" t="s">
         <v>393</v>
       </c>
@@ -8541,7 +8538,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="212" ht="15" hidden="1" spans="1:7">
+    <row r="212" ht="15" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>395</v>
       </c>
@@ -8564,7 +8561,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:7">
+    <row r="213" spans="1:7">
       <c r="A213" s="6" t="s">
         <v>398</v>
       </c>
@@ -8587,7 +8584,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:7">
+    <row r="214" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>398</v>
       </c>
@@ -8610,7 +8607,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:7">
+    <row r="215" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>399</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:7">
+    <row r="216" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>399</v>
       </c>
@@ -8656,7 +8653,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:7">
+    <row r="217" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>400</v>
       </c>
@@ -8679,7 +8676,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:7">
+    <row r="218" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>400</v>
       </c>
@@ -8702,7 +8699,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:7">
+    <row r="219" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>401</v>
       </c>
@@ -8725,7 +8722,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:7">
+    <row r="220" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>401</v>
       </c>
@@ -8748,7 +8745,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="221" ht="15" hidden="1" spans="1:7">
+    <row r="221" ht="15" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>402</v>
       </c>
@@ -8771,7 +8768,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="222" ht="15" hidden="1" spans="1:7">
+    <row r="222" ht="15" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>405</v>
       </c>
@@ -8794,7 +8791,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" ht="15" hidden="1" spans="1:7">
+    <row r="223" ht="15" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>408</v>
       </c>
@@ -8817,7 +8814,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:7">
+    <row r="224" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>409</v>
       </c>
@@ -8840,7 +8837,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:7">
+    <row r="225" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>410</v>
       </c>
@@ -8863,7 +8860,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" ht="15" hidden="1" spans="1:7">
+    <row r="226" ht="15" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>293</v>
       </c>
@@ -8886,7 +8883,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" ht="15" hidden="1" spans="1:7">
+    <row r="227" ht="15" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>411</v>
       </c>
@@ -8909,7 +8906,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:7">
+    <row r="228" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>412</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" ht="15" hidden="1" spans="1:7">
+    <row r="229" ht="15" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>412</v>
       </c>
@@ -8955,7 +8952,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="230" ht="15" hidden="1" spans="1:7">
+    <row r="230" ht="15" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>414</v>
       </c>
@@ -8978,7 +8975,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:7">
+    <row r="231" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>415</v>
       </c>
@@ -9001,7 +8998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:7">
+    <row r="232" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>415</v>
       </c>
@@ -9024,7 +9021,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:7">
+    <row r="233" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>269</v>
       </c>
@@ -9047,7 +9044,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:7">
+    <row r="234" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>419</v>
       </c>
@@ -9070,7 +9067,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" ht="15" hidden="1" spans="1:7">
+    <row r="235" ht="15" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>421</v>
       </c>
@@ -9093,7 +9090,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="236" ht="15" hidden="1" spans="1:7">
+    <row r="236" ht="15" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>421</v>
       </c>
@@ -9116,7 +9113,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" ht="15" hidden="1" spans="1:7">
+    <row r="237" ht="15" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>424</v>
       </c>
@@ -9139,7 +9136,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:7">
+    <row r="238" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>425</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="239" ht="15" hidden="1" spans="1:7">
+    <row r="239" ht="15" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>428</v>
       </c>
@@ -9185,7 +9182,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="240" ht="15" hidden="1" spans="1:7">
+    <row r="240" ht="15" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>429</v>
       </c>
@@ -9208,7 +9205,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="241" ht="15" hidden="1" spans="1:7">
+    <row r="241" ht="15" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>432</v>
       </c>
@@ -9231,7 +9228,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:7">
+    <row r="242" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>434</v>
       </c>
@@ -9254,7 +9251,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:7">
+    <row r="243" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>436</v>
       </c>
@@ -9277,7 +9274,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="244" ht="15" hidden="1" spans="1:7">
+    <row r="244" ht="15" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>438</v>
       </c>
@@ -9300,7 +9297,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="245" ht="15" hidden="1" spans="1:7">
+    <row r="245" ht="15" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>440</v>
       </c>
@@ -9323,7 +9320,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="246" ht="15" hidden="1" spans="1:7">
+    <row r="246" ht="15" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>442</v>
       </c>
@@ -9346,7 +9343,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:7">
+    <row r="247" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>445</v>
       </c>
@@ -9369,7 +9366,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="248" ht="15" hidden="1" spans="1:7">
+    <row r="248" ht="15" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>447</v>
       </c>
@@ -9392,7 +9389,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="249" ht="15" hidden="1" spans="1:7">
+    <row r="249" ht="15" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>449</v>
       </c>
@@ -9415,7 +9412,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" ht="15" hidden="1" spans="1:7">
+    <row r="250" ht="15" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>451</v>
       </c>
@@ -9438,7 +9435,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" ht="15" hidden="1" spans="1:7">
+    <row r="251" ht="15" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>454</v>
       </c>
@@ -9461,7 +9458,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:7">
+    <row r="252" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>456</v>
       </c>
@@ -9484,7 +9481,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:7">
+    <row r="253" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>458</v>
       </c>
@@ -9507,7 +9504,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:7">
+    <row r="254" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>460</v>
       </c>
@@ -9530,7 +9527,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" ht="15" hidden="1" spans="1:7">
+    <row r="255" ht="15" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>462</v>
       </c>
@@ -9553,7 +9550,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="256" ht="15" hidden="1" spans="1:7">
+    <row r="256" ht="15" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>465</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="257" ht="15" hidden="1" spans="1:7">
+    <row r="257" ht="15" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>467</v>
       </c>
@@ -9599,7 +9596,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:7">
+    <row r="258" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>470</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:7">
+    <row r="259" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>473</v>
       </c>
@@ -9645,7 +9642,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:7">
+    <row r="260" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>475</v>
       </c>
@@ -9668,7 +9665,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:7">
+    <row r="261" spans="1:7">
       <c r="A261" s="6" t="s">
         <v>477</v>
       </c>
@@ -9691,7 +9688,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:7">
+    <row r="262" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>479</v>
       </c>
@@ -9714,7 +9711,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:7">
+    <row r="263" spans="1:7">
       <c r="A263" s="6" t="s">
         <v>480</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:7">
+    <row r="264" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>480</v>
       </c>
@@ -9760,7 +9757,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="265" ht="15" hidden="1" spans="1:7">
+    <row r="265" ht="15" spans="1:7">
       <c r="A265" s="6" t="s">
         <v>484</v>
       </c>
@@ -9783,7 +9780,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="266" ht="15" hidden="1" spans="1:7">
+    <row r="266" ht="15" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>489</v>
       </c>
@@ -9806,7 +9803,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:7">
+    <row r="267" spans="1:7">
       <c r="A267" s="6" t="s">
         <v>492</v>
       </c>
@@ -9829,7 +9826,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:7">
+    <row r="268" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>496</v>
       </c>
@@ -9852,7 +9849,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="269" ht="15" hidden="1" spans="1:7">
+    <row r="269" ht="15" spans="1:7">
       <c r="A269" s="6" t="s">
         <v>498</v>
       </c>
@@ -9875,7 +9872,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="270" ht="15" hidden="1" spans="1:7">
+    <row r="270" ht="15" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>500</v>
       </c>
@@ -9898,7 +9895,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:7">
+    <row r="271" spans="1:7">
       <c r="A271" s="6" t="s">
         <v>502</v>
       </c>
@@ -9921,7 +9918,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:7">
+    <row r="272" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>502</v>
       </c>
@@ -9944,7 +9941,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:7">
+    <row r="273" spans="1:7">
       <c r="A273" s="6" t="s">
         <v>505</v>
       </c>
@@ -9967,7 +9964,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:7">
+    <row r="274" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>507</v>
       </c>
@@ -9990,7 +9987,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:7">
+    <row r="275" spans="1:7">
       <c r="A275" s="6" t="s">
         <v>510</v>
       </c>
@@ -10013,7 +10010,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:7">
+    <row r="276" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>510</v>
       </c>
@@ -10036,7 +10033,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:7">
+    <row r="277" spans="1:7">
       <c r="A277" s="6" t="s">
         <v>512</v>
       </c>
@@ -10059,7 +10056,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:7">
+    <row r="278" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>513</v>
       </c>
@@ -10082,7 +10079,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:7">
+    <row r="279" spans="1:7">
       <c r="A279" s="6" t="s">
         <v>515</v>
       </c>
@@ -10105,7 +10102,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:7">
+    <row r="280" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>516</v>
       </c>
@@ -10128,7 +10125,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="281" ht="15" hidden="1" spans="1:7">
+    <row r="281" ht="15" spans="1:7">
       <c r="A281" s="6" t="s">
         <v>517</v>
       </c>
@@ -10151,7 +10148,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="282" ht="15" hidden="1" spans="1:7">
+    <row r="282" ht="15" spans="1:7">
       <c r="A282" s="6" t="s">
         <v>519</v>
       </c>
@@ -10174,7 +10171,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:7">
+    <row r="283" spans="1:7">
       <c r="A283" s="6" t="s">
         <v>521</v>
       </c>
@@ -10197,7 +10194,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="284" ht="15" hidden="1" spans="1:7">
+    <row r="284" ht="15" spans="1:7">
       <c r="A284" s="6" t="s">
         <v>522</v>
       </c>
@@ -10220,7 +10217,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="285" ht="15" hidden="1" spans="1:7">
+    <row r="285" ht="15" spans="1:7">
       <c r="A285" s="6" t="s">
         <v>523</v>
       </c>
@@ -10243,7 +10240,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:7">
+    <row r="286" spans="1:7">
       <c r="A286" s="6" t="s">
         <v>526</v>
       </c>
@@ -10266,7 +10263,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:7">
+    <row r="287" spans="1:7">
       <c r="A287" s="6" t="s">
         <v>500</v>
       </c>
@@ -10289,7 +10286,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" ht="15" hidden="1" spans="1:7">
+    <row r="288" ht="15" spans="1:7">
       <c r="A288" s="6" t="s">
         <v>528</v>
       </c>
@@ -10312,7 +10309,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" ht="15" hidden="1" spans="1:7">
+    <row r="289" ht="15" spans="1:7">
       <c r="A289" s="6" t="s">
         <v>531</v>
       </c>
@@ -10335,7 +10332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:7">
+    <row r="290" spans="1:7">
       <c r="A290" s="6" t="s">
         <v>531</v>
       </c>
@@ -10358,7 +10355,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:7">
+    <row r="291" spans="1:7">
       <c r="A291" s="6" t="s">
         <v>534</v>
       </c>
@@ -10381,7 +10378,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:7">
+    <row r="292" spans="1:7">
       <c r="A292" s="6" t="s">
         <v>537</v>
       </c>
@@ -10404,7 +10401,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" ht="15" hidden="1" spans="1:7">
+    <row r="293" ht="15" spans="1:7">
       <c r="A293" s="6" t="s">
         <v>539</v>
       </c>
@@ -10427,7 +10424,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" ht="15" hidden="1" spans="1:7">
+    <row r="294" ht="15" spans="1:7">
       <c r="A294" s="6" t="s">
         <v>540</v>
       </c>
@@ -10450,7 +10447,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:7">
+    <row r="295" spans="1:7">
       <c r="A295" s="6" t="s">
         <v>541</v>
       </c>
@@ -10473,7 +10470,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:7">
+    <row r="296" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>543</v>
       </c>
@@ -10496,7 +10493,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:7">
+    <row r="297" spans="1:7">
       <c r="A297" s="6" t="s">
         <v>544</v>
       </c>
@@ -10519,7 +10516,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:7">
+    <row r="298" spans="1:7">
       <c r="A298" s="6" t="s">
         <v>545</v>
       </c>
@@ -10542,7 +10539,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:7">
+    <row r="299" spans="1:7">
       <c r="A299" s="6" t="s">
         <v>546</v>
       </c>
@@ -10565,7 +10562,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:7">
+    <row r="300" spans="1:7">
       <c r="A300" s="6" t="s">
         <v>547</v>
       </c>
@@ -10588,7 +10585,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:7">
+    <row r="301" spans="1:7">
       <c r="A301" s="6" t="s">
         <v>549</v>
       </c>
@@ -10611,7 +10608,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="302" ht="15" hidden="1" spans="1:7">
+    <row r="302" ht="15" spans="1:7">
       <c r="A302" s="6" t="s">
         <v>550</v>
       </c>
@@ -10634,7 +10631,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="303" ht="15" hidden="1" spans="1:7">
+    <row r="303" ht="15" spans="1:7">
       <c r="A303" s="6" t="s">
         <v>552</v>
       </c>
@@ -10657,7 +10654,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:7">
+    <row r="304" spans="1:7">
       <c r="A304" s="6" t="s">
         <v>553</v>
       </c>
@@ -10680,7 +10677,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="305" ht="15" hidden="1" spans="1:7">
+    <row r="305" ht="15" spans="1:7">
       <c r="A305" s="6" t="s">
         <v>554</v>
       </c>
@@ -10703,7 +10700,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="306" ht="15" hidden="1" spans="1:7">
+    <row r="306" ht="15" spans="1:7">
       <c r="A306" s="6" t="s">
         <v>556</v>
       </c>
@@ -10726,7 +10723,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:7">
+    <row r="307" spans="1:7">
       <c r="A307" s="6" t="s">
         <v>558</v>
       </c>
@@ -10749,7 +10746,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:7">
+    <row r="308" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>558</v>
       </c>
@@ -10772,7 +10769,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:7">
+    <row r="309" spans="1:7">
       <c r="A309" s="6" t="s">
         <v>559</v>
       </c>
@@ -10795,7 +10792,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:7">
+    <row r="310" spans="1:7">
       <c r="A310" s="6" t="s">
         <v>561</v>
       </c>
@@ -10818,7 +10815,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:7">
+    <row r="311" spans="1:7">
       <c r="A311" s="6" t="s">
         <v>562</v>
       </c>
@@ -10841,7 +10838,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:7">
+    <row r="312" spans="1:7">
       <c r="A312" s="6" t="s">
         <v>564</v>
       </c>
@@ -10864,7 +10861,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:7">
+    <row r="313" spans="1:7">
       <c r="A313" s="6" t="s">
         <v>564</v>
       </c>
@@ -10887,7 +10884,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:7">
+    <row r="314" spans="1:7">
       <c r="A314" s="6" t="s">
         <v>566</v>
       </c>
@@ -10910,7 +10907,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:7">
+    <row r="315" spans="1:7">
       <c r="A315" s="6" t="s">
         <v>568</v>
       </c>
@@ -10933,7 +10930,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="316" ht="15" hidden="1" spans="1:7">
+    <row r="316" ht="15" spans="1:7">
       <c r="A316" s="6" t="s">
         <v>500</v>
       </c>
@@ -10956,7 +10953,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="317" ht="15" hidden="1" spans="1:7">
+    <row r="317" ht="15" spans="1:7">
       <c r="A317" s="6" t="s">
         <v>556</v>
       </c>
@@ -10979,7 +10976,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="318" ht="15" hidden="1" spans="1:7">
+    <row r="318" ht="15" spans="1:7">
       <c r="A318" s="6" t="s">
         <v>484</v>
       </c>
@@ -11002,7 +10999,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:7">
+    <row r="319" spans="1:7">
       <c r="A319" s="6" t="s">
         <v>526</v>
       </c>
@@ -11025,7 +11022,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:7">
+    <row r="320" spans="1:7">
       <c r="A320" s="6" t="s">
         <v>554</v>
       </c>
@@ -11048,7 +11045,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321" ht="15" hidden="1" spans="1:7">
+    <row r="321" ht="15" spans="1:7">
       <c r="A321" s="6" t="s">
         <v>523</v>
       </c>
@@ -11071,7 +11068,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="322" ht="15" hidden="1" spans="1:7">
+    <row r="322" ht="15" spans="1:7">
       <c r="A322" s="6" t="s">
         <v>573</v>
       </c>
@@ -11094,7 +11091,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:7">
+    <row r="323" spans="1:7">
       <c r="A323" s="6" t="s">
         <v>574</v>
       </c>
@@ -11117,7 +11114,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" ht="15" hidden="1" spans="1:7">
+    <row r="324" ht="15" spans="1:7">
       <c r="A324" s="6" t="s">
         <v>576</v>
       </c>
@@ -11140,7 +11137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325" ht="15" hidden="1" spans="1:7">
+    <row r="325" ht="15" spans="1:7">
       <c r="A325" s="6" t="s">
         <v>577</v>
       </c>
@@ -11163,7 +11160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:7">
+    <row r="326" spans="1:7">
       <c r="A326" s="6" t="s">
         <v>579</v>
       </c>
@@ -11186,7 +11183,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:7">
+    <row r="327" spans="1:7">
       <c r="A327" s="6" t="s">
         <v>581</v>
       </c>
@@ -11209,7 +11206,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:7">
+    <row r="328" spans="1:7">
       <c r="A328" s="6" t="s">
         <v>582</v>
       </c>
@@ -11232,7 +11229,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:7">
+    <row r="329" spans="1:7">
       <c r="A329" s="6" t="s">
         <v>582</v>
       </c>
@@ -11255,7 +11252,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:7">
+    <row r="330" spans="1:7">
       <c r="A330" s="6" t="s">
         <v>584</v>
       </c>
@@ -11278,7 +11275,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:7">
+    <row r="331" spans="1:7">
       <c r="A331" s="6" t="s">
         <v>586</v>
       </c>
@@ -11301,7 +11298,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:7">
+    <row r="332" spans="1:7">
       <c r="A332" s="6" t="s">
         <v>587</v>
       </c>
@@ -11324,7 +11321,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:7">
+    <row r="333" spans="1:7">
       <c r="A333" s="6" t="s">
         <v>587</v>
       </c>
@@ -11347,7 +11344,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:7">
+    <row r="334" spans="1:7">
       <c r="A334" s="6" t="s">
         <v>588</v>
       </c>
@@ -11370,7 +11367,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:7">
+    <row r="335" spans="1:7">
       <c r="A335" s="6" t="s">
         <v>589</v>
       </c>
@@ -11393,7 +11390,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="336" ht="15" hidden="1" spans="1:7">
+    <row r="336" ht="15" spans="1:7">
       <c r="A336" s="6" t="s">
         <v>550</v>
       </c>
@@ -11416,7 +11413,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="337" ht="15" hidden="1" spans="1:7">
+    <row r="337" ht="15" spans="1:7">
       <c r="A337" s="6" t="s">
         <v>500</v>
       </c>
@@ -11439,7 +11436,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338" ht="15" hidden="1" spans="1:7">
+    <row r="338" ht="15" spans="1:7">
       <c r="A338" s="6" t="s">
         <v>543</v>
       </c>
@@ -11462,7 +11459,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:7">
+    <row r="339" spans="1:7">
       <c r="A339" s="6" t="s">
         <v>553</v>
       </c>
@@ -11485,7 +11482,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:7">
+    <row r="340" spans="1:7">
       <c r="A340" s="6" t="s">
         <v>546</v>
       </c>
@@ -11508,7 +11505,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:7">
+    <row r="341" spans="1:7">
       <c r="A341" s="6" t="s">
         <v>591</v>
       </c>
@@ -11531,7 +11528,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:7">
+    <row r="342" spans="1:7">
       <c r="A342" s="6" t="s">
         <v>592</v>
       </c>
@@ -11554,7 +11551,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:7">
+    <row r="343" spans="1:7">
       <c r="A343" s="6" t="s">
         <v>593</v>
       </c>
@@ -11577,7 +11574,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:7">
+    <row r="344" spans="1:7">
       <c r="A344" s="6" t="s">
         <v>594</v>
       </c>
@@ -11600,7 +11597,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:7">
+    <row r="345" spans="1:7">
       <c r="A345" s="6" t="s">
         <v>595</v>
       </c>
@@ -11623,7 +11620,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:7">
+    <row r="346" spans="1:7">
       <c r="A346" s="6" t="s">
         <v>596</v>
       </c>
@@ -11646,7 +11643,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:7">
+    <row r="347" spans="1:7">
       <c r="A347" s="6" t="s">
         <v>528</v>
       </c>
@@ -11669,7 +11666,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="348" ht="15" hidden="1" spans="1:7">
+    <row r="348" ht="15" spans="1:7">
       <c r="A348" s="6" t="s">
         <v>541</v>
       </c>
@@ -11692,7 +11689,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="349" ht="15" hidden="1" spans="1:7">
+    <row r="349" ht="15" spans="1:7">
       <c r="A349" s="6" t="s">
         <v>496</v>
       </c>
@@ -11715,7 +11712,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="350" ht="15" hidden="1" spans="1:7">
+    <row r="350" ht="15" spans="1:7">
       <c r="A350" s="6" t="s">
         <v>597</v>
       </c>
@@ -11738,7 +11735,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351" ht="15" hidden="1" spans="1:7">
+    <row r="351" ht="15" spans="1:7">
       <c r="A351" s="6" t="s">
         <v>552</v>
       </c>
@@ -11761,7 +11758,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:7">
+    <row r="352" spans="1:7">
       <c r="A352" s="6" t="s">
         <v>498</v>
       </c>
@@ -11784,7 +11781,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:7">
+    <row r="353" spans="1:7">
       <c r="A353" s="6" t="s">
         <v>547</v>
       </c>
@@ -11807,7 +11804,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:7">
+    <row r="354" spans="1:7">
       <c r="A354" s="6" t="s">
         <v>598</v>
       </c>
@@ -11830,7 +11827,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:7">
+    <row r="355" spans="1:7">
       <c r="A355" s="6" t="s">
         <v>599</v>
       </c>
@@ -11853,7 +11850,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:7">
+    <row r="356" spans="1:7">
       <c r="A356" s="6" t="s">
         <v>600</v>
       </c>
@@ -11876,7 +11873,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:7">
+    <row r="357" spans="1:7">
       <c r="A357" s="6" t="s">
         <v>601</v>
       </c>
@@ -11899,7 +11896,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:7">
+    <row r="358" spans="1:7">
       <c r="A358" s="6" t="s">
         <v>602</v>
       </c>
@@ -11922,7 +11919,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:7">
+    <row r="359" spans="1:7">
       <c r="A359" s="6" t="s">
         <v>603</v>
       </c>
@@ -11945,7 +11942,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="360" ht="15" hidden="1" spans="1:7">
+    <row r="360" ht="15" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>545</v>
       </c>
@@ -11968,7 +11965,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="361" ht="15" hidden="1" spans="1:7">
+    <row r="361" ht="15" spans="1:7">
       <c r="A361" s="6" t="s">
         <v>540</v>
       </c>
@@ -11991,7 +11988,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="362" ht="15" hidden="1" spans="1:7">
+    <row r="362" ht="15" spans="1:7">
       <c r="A362" s="6" t="s">
         <v>489</v>
       </c>
@@ -12014,7 +12011,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:7">
+    <row r="363" spans="1:7">
       <c r="A363" s="6" t="s">
         <v>568</v>
       </c>
@@ -12037,7 +12034,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="364" ht="15" hidden="1" spans="1:7">
+    <row r="364" ht="15" spans="1:7">
       <c r="A364" s="6" t="s">
         <v>604</v>
       </c>
@@ -12060,7 +12057,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="365" ht="15" hidden="1" spans="1:7">
+    <row r="365" ht="15" spans="1:7">
       <c r="A365" s="6" t="s">
         <v>607</v>
       </c>
@@ -12083,7 +12080,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="366" ht="15" hidden="1" spans="1:7">
+    <row r="366" ht="15" spans="1:7">
       <c r="A366" s="6" t="s">
         <v>607</v>
       </c>
@@ -12106,7 +12103,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:7">
+    <row r="367" spans="1:7">
       <c r="A367" s="6" t="s">
         <v>523</v>
       </c>
@@ -12129,7 +12126,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:7">
+    <row r="368" spans="1:7">
       <c r="A368" s="6" t="s">
         <v>554</v>
       </c>
@@ -12152,7 +12149,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:7">
+    <row r="369" spans="1:7">
       <c r="A369" s="6" t="s">
         <v>610</v>
       </c>
@@ -12175,7 +12172,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="370" ht="15" hidden="1" spans="1:7">
+    <row r="370" ht="15" spans="1:7">
       <c r="A370" s="6" t="s">
         <v>612</v>
       </c>
@@ -12198,7 +12195,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="371" ht="15" hidden="1" spans="1:7">
+    <row r="371" ht="15" spans="1:7">
       <c r="A371" s="6" t="s">
         <v>614</v>
       </c>
@@ -12221,7 +12218,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="372" ht="15" hidden="1" spans="1:7">
+    <row r="372" ht="15" spans="1:7">
       <c r="A372" s="6" t="s">
         <v>616</v>
       </c>
@@ -12244,7 +12241,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="373" ht="15" hidden="1" spans="1:7">
+    <row r="373" ht="15" spans="1:7">
       <c r="A373" s="6" t="s">
         <v>618</v>
       </c>
@@ -12267,7 +12264,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:7">
+    <row r="374" spans="1:7">
       <c r="A374" s="6" t="s">
         <v>619</v>
       </c>
@@ -12290,7 +12287,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="375" ht="15" hidden="1" spans="1:7">
+    <row r="375" ht="15" spans="1:7">
       <c r="A375" s="6" t="s">
         <v>621</v>
       </c>
@@ -12313,7 +12310,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="376" ht="15" hidden="1" spans="1:7">
+    <row r="376" ht="15" spans="1:7">
       <c r="A376" s="6" t="s">
         <v>500</v>
       </c>
@@ -12336,7 +12333,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="377" ht="15" hidden="1" spans="1:7">
+    <row r="377" ht="15" spans="1:7">
       <c r="A377" s="6" t="s">
         <v>528</v>
       </c>
@@ -12359,7 +12356,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:7">
+    <row r="378" spans="1:7">
       <c r="A378" s="6" t="s">
         <v>623</v>
       </c>
@@ -12382,7 +12379,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:7">
+    <row r="379" spans="1:7">
       <c r="A379" s="6" t="s">
         <v>626</v>
       </c>
@@ -12405,7 +12402,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="380" ht="15" hidden="1" spans="1:7">
+    <row r="380" ht="15" spans="1:7">
       <c r="A380" s="6" t="s">
         <v>629</v>
       </c>
@@ -12428,7 +12425,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="381" ht="15" hidden="1" spans="1:7">
+    <row r="381" ht="15" spans="1:7">
       <c r="A381" s="6" t="s">
         <v>631</v>
       </c>
@@ -12451,7 +12448,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="382" ht="15" hidden="1" spans="1:7">
+    <row r="382" ht="15" spans="1:7">
       <c r="A382" s="6" t="s">
         <v>633</v>
       </c>
@@ -12474,7 +12471,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:7">
+    <row r="383" spans="1:7">
       <c r="A383" s="6" t="s">
         <v>635</v>
       </c>
@@ -12497,7 +12494,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:7">
+    <row r="384" spans="1:7">
       <c r="A384" s="6" t="s">
         <v>637</v>
       </c>
@@ -12520,7 +12517,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="385" ht="15" hidden="1" spans="1:7">
+    <row r="385" ht="15" spans="1:7">
       <c r="A385" s="6" t="s">
         <v>638</v>
       </c>
@@ -12543,7 +12540,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="386" ht="15" hidden="1" spans="1:7">
+    <row r="386" ht="15" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>643</v>
       </c>
@@ -12566,7 +12563,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="387" ht="15" hidden="1" spans="1:7">
+    <row r="387" ht="15" spans="1:7">
       <c r="A387" s="6" t="s">
         <v>644</v>
       </c>
@@ -12589,7 +12586,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:7">
+    <row r="388" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>646</v>
       </c>
@@ -12612,7 +12609,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:7">
+    <row r="389" spans="1:7">
       <c r="A389" s="6" t="s">
         <v>647</v>
       </c>
@@ -12635,7 +12632,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" ht="15" hidden="1" spans="1:7">
+    <row r="390" ht="15" spans="1:7">
       <c r="A390" s="6" t="s">
         <v>649</v>
       </c>
@@ -12658,7 +12655,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="391" ht="15" hidden="1" spans="1:7">
+    <row r="391" ht="15" spans="1:7">
       <c r="A391" s="6" t="s">
         <v>649</v>
       </c>
@@ -12681,7 +12678,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="392" ht="15" hidden="1" spans="1:7">
+    <row r="392" ht="15" spans="1:7">
       <c r="A392" s="6" t="s">
         <v>653</v>
       </c>
@@ -12704,7 +12701,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:7">
+    <row r="393" spans="1:7">
       <c r="A393" s="6" t="s">
         <v>653</v>
       </c>
@@ -12727,7 +12724,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:7">
+    <row r="394" spans="1:7">
       <c r="A394" s="6" t="s">
         <v>654</v>
       </c>
@@ -12750,7 +12747,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:7">
+    <row r="395" spans="1:7">
       <c r="A395" s="6" t="s">
         <v>658</v>
       </c>
@@ -12773,7 +12770,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:7">
+    <row r="396" spans="1:7">
       <c r="A396" s="6" t="s">
         <v>661</v>
       </c>
@@ -12796,7 +12793,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:7">
+    <row r="397" spans="1:7">
       <c r="A397" s="6" t="s">
         <v>662</v>
       </c>
@@ -12819,7 +12816,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:7">
+    <row r="398" spans="1:7">
       <c r="A398" s="6" t="s">
         <v>663</v>
       </c>
@@ -12842,7 +12839,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:7">
+    <row r="399" spans="1:7">
       <c r="A399" s="6" t="s">
         <v>664</v>
       </c>
@@ -12865,7 +12862,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="400" ht="15" hidden="1" spans="1:7">
+    <row r="400" ht="15" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>666</v>
       </c>
@@ -12888,7 +12885,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="401" ht="15" hidden="1" spans="1:7">
+    <row r="401" ht="15" spans="1:7">
       <c r="A401" s="6" t="s">
         <v>666</v>
       </c>
@@ -12911,7 +12908,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="402" ht="15" hidden="1" spans="1:7">
+    <row r="402" ht="15" spans="1:7">
       <c r="A402" s="6" t="s">
         <v>667</v>
       </c>
@@ -12934,7 +12931,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:7">
+    <row r="403" spans="1:7">
       <c r="A403" s="6" t="s">
         <v>667</v>
       </c>
@@ -12957,7 +12954,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="404" ht="15" hidden="1" spans="1:7">
+    <row r="404" ht="15" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>668</v>
       </c>
@@ -12980,7 +12977,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="405" ht="15" hidden="1" spans="1:7">
+    <row r="405" ht="15" spans="1:7">
       <c r="A405" s="6" t="s">
         <v>671</v>
       </c>
@@ -13014,7 +13011,7 @@
         <v>670</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>675</v>
+        <v>25</v>
       </c>
       <c r="E406" s="6" t="s">
         <v>75</v>
@@ -13026,18 +13023,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="407" ht="15" hidden="1" spans="1:7">
+    <row r="407" ht="15" spans="1:7">
       <c r="A407" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B407" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="C407" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C407" s="6" t="s">
+      <c r="D407" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>679</v>
       </c>
       <c r="E407" s="6" t="s">
         <v>37</v>
@@ -13049,18 +13046,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="408" ht="15" hidden="1" spans="1:7">
+    <row r="408" ht="15" spans="1:7">
       <c r="A408" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B408" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D408" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D408" s="6" t="s">
-        <v>681</v>
       </c>
       <c r="E408" s="6" t="s">
         <v>37</v>
@@ -13072,18 +13069,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="409" ht="15" hidden="1" spans="1:7">
+    <row r="409" ht="15" spans="1:7">
       <c r="A409" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D409" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="C409" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D409" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="E409" s="6" t="s">
         <v>37</v>
@@ -13095,18 +13092,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:7">
+    <row r="410" ht="15" spans="1:7">
       <c r="A410" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E410" s="6" t="s">
         <v>37</v>
@@ -13120,22 +13117,22 @@
     </row>
     <row r="411" ht="15" spans="1:7">
       <c r="A411" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D411" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D411" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="E411" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G411" s="6" t="s">
         <v>642</v>
@@ -13143,36 +13140,36 @@
     </row>
     <row r="412" ht="15" spans="1:7">
       <c r="A412" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E412" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F412" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G412" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="413" ht="15" hidden="1" spans="1:7">
+    <row r="413" ht="15" spans="1:7">
       <c r="A413" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>25</v>
@@ -13187,15 +13184,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="414" ht="15" hidden="1" spans="1:7">
+    <row r="414" ht="15" spans="1:7">
       <c r="A414" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B414" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="C414" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>652</v>
@@ -13210,47 +13207,47 @@
         <v>642</v>
       </c>
     </row>
-    <row r="415" ht="15" hidden="1" spans="1:7">
+    <row r="415" ht="15" spans="1:7">
       <c r="A415" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E415" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F415" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G415" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:7">
+    <row r="416" ht="15" spans="1:7">
       <c r="A416" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E416" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G416" s="6" t="s">
         <v>642</v>
@@ -13258,16 +13255,16 @@
     </row>
     <row r="417" ht="15" spans="1:7">
       <c r="A417" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E417" s="6" t="s">
         <v>37</v>
@@ -13281,16 +13278,16 @@
     </row>
     <row r="418" ht="15" spans="1:7">
       <c r="A418" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E418" s="6" t="s">
         <v>37</v>
@@ -13302,15 +13299,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" ht="15" hidden="1" spans="1:7">
+    <row r="419" ht="15" spans="1:7">
       <c r="A419" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>25</v>
@@ -13319,21 +13316,21 @@
         <v>48</v>
       </c>
       <c r="F419" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G419" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="420" ht="15" hidden="1" spans="1:7">
+    <row r="420" ht="15" spans="1:7">
       <c r="A420" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B420" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C420" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="C420" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>652</v>
@@ -13342,21 +13339,21 @@
         <v>48</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G420" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="421" ht="15" hidden="1" spans="1:7">
+    <row r="421" ht="15" spans="1:7">
       <c r="A421" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C421" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C421" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>25</v>
@@ -13371,15 +13368,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="422" ht="15" hidden="1" spans="1:7">
+    <row r="422" ht="15" spans="1:7">
       <c r="A422" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C422" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C422" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>652</v>
@@ -13394,15 +13391,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="423" ht="15" hidden="1" spans="1:7">
+    <row r="423" ht="15" spans="1:7">
       <c r="A423" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>10</v>
@@ -13411,21 +13408,21 @@
         <v>37</v>
       </c>
       <c r="F423" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G423" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:7">
+    <row r="424" spans="1:7">
       <c r="A424" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>29</v>
@@ -13434,21 +13431,21 @@
         <v>48</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G424" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:7">
+    <row r="425" spans="1:7">
       <c r="A425" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>10</v>
@@ -13457,21 +13454,21 @@
         <v>62</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G425" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:7">
+    <row r="426" spans="1:7">
       <c r="A426" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>29</v>
@@ -13480,21 +13477,21 @@
         <v>75</v>
       </c>
       <c r="F426" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G426" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:7">
+    <row r="427" spans="1:7">
       <c r="A427" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C427" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C427" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>29</v>
@@ -13509,15 +13506,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:7">
+    <row r="428" spans="1:7">
       <c r="A428" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C428" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="C428" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>33</v>
@@ -13532,15 +13529,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:7">
+    <row r="429" spans="1:7">
       <c r="A429" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>29</v>
@@ -13555,15 +13552,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:7">
+    <row r="430" spans="1:7">
       <c r="A430" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B430" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="B430" s="6" t="s">
-        <v>714</v>
-      </c>
       <c r="C430" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>33</v>
@@ -13578,15 +13575,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:7">
+    <row r="431" spans="1:7">
       <c r="A431" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>29</v>
@@ -13601,15 +13598,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:7">
+    <row r="432" spans="1:7">
       <c r="A432" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B432" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C432" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="C432" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>33</v>
@@ -13624,15 +13621,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="433" ht="15" hidden="1" spans="1:7">
+    <row r="433" ht="15" spans="1:7">
       <c r="A433" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>25</v>
@@ -13647,15 +13644,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="434" ht="15" hidden="1" spans="1:7">
+    <row r="434" ht="15" spans="1:7">
       <c r="A434" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B434" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C434" s="10" t="s">
         <v>714</v>
-      </c>
-      <c r="C434" s="10" t="s">
-        <v>716</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>652</v>
@@ -13670,12 +13667,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="435" ht="15" hidden="1" spans="1:7">
+    <row r="435" ht="15" spans="1:7">
       <c r="A435" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C435" s="10" t="s">
         <v>292</v>
@@ -13693,12 +13690,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="436" ht="15" hidden="1" spans="1:7">
+    <row r="436" ht="15" spans="1:7">
       <c r="A436" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C436" s="10" t="s">
         <v>292</v>
@@ -13716,15 +13713,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="437" ht="15" hidden="1" spans="1:7">
+    <row r="437" ht="15" spans="1:7">
       <c r="A437" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C437" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="B437" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="C437" s="10" t="s">
-        <v>721</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>29</v>
@@ -13739,15 +13736,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:7">
+    <row r="438" spans="1:7">
       <c r="A438" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C438" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="B438" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C438" s="10" t="s">
-        <v>721</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>33</v>
@@ -13762,15 +13759,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:7">
+    <row r="439" spans="1:7">
       <c r="A439" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>29</v>
@@ -13785,15 +13782,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:7">
+    <row r="440" ht="15" spans="1:7">
       <c r="A440" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>33</v>
@@ -13808,18 +13805,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:7">
+    <row r="441" ht="15" spans="1:7">
       <c r="A441" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C441" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E441" s="10" t="s">
         <v>11</v>
@@ -13833,16 +13830,16 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C442" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D442" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E442" s="10" t="s">
         <v>11</v>
@@ -13854,58 +13851,58 @@
         <v>642</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:7">
+    <row r="443" spans="1:7">
       <c r="A443" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C443" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D443" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E443" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F443" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G443" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:7">
+    <row r="444" spans="1:7">
       <c r="A444" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C444" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D444" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E444" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F444" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G444" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="445" ht="15" hidden="1" spans="1:7">
+    <row r="445" ht="15" spans="1:7">
       <c r="A445" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C445" s="10" t="s">
         <v>143</v>
@@ -13923,12 +13920,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:7">
+    <row r="446" spans="1:7">
       <c r="A446" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C446" s="10" t="s">
         <v>143</v>
@@ -13946,15 +13943,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:7">
+    <row r="447" spans="1:7">
       <c r="A447" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>655</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>29</v>
@@ -13969,15 +13966,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="448" ht="15" hidden="1" spans="1:7">
+    <row r="448" ht="15" spans="1:7">
       <c r="A448" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>25</v>
@@ -13992,15 +13989,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="449" ht="15" hidden="1" spans="1:7">
+    <row r="449" ht="15" spans="1:7">
       <c r="A449" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>652</v>
@@ -14015,15 +14012,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="450" ht="15" hidden="1" spans="1:7">
+    <row r="450" ht="15" spans="1:7">
       <c r="A450" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>29</v>
@@ -14038,15 +14035,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="451" ht="15" hidden="1" spans="1:7">
+    <row r="451" ht="15" spans="1:7">
       <c r="A451" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>33</v>
@@ -14061,15 +14058,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="452" ht="15" hidden="1" spans="1:7">
+    <row r="452" ht="15" spans="1:7">
       <c r="A452" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C452" s="10" t="s">
         <v>731</v>
-      </c>
-      <c r="B452" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="C452" s="10" t="s">
-        <v>733</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>16</v>
@@ -14084,15 +14081,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="453" ht="15" hidden="1" spans="1:7">
+    <row r="453" ht="15" spans="1:7">
       <c r="A453" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>25</v>
@@ -14107,15 +14104,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="454" ht="15" hidden="1" spans="1:7">
+    <row r="454" ht="15" spans="1:7">
       <c r="A454" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B454" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="B454" s="10" t="s">
-        <v>736</v>
-      </c>
       <c r="C454" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>652</v>
@@ -14130,15 +14127,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="455" ht="15" hidden="1" spans="1:7">
+    <row r="455" ht="15" spans="1:7">
       <c r="A455" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>29</v>
@@ -14153,15 +14150,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:7">
+    <row r="456" spans="1:7">
       <c r="A456" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="B456" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B456" s="10" t="s">
-        <v>739</v>
-      </c>
       <c r="C456" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>33</v>
@@ -14176,15 +14173,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="457" ht="15" hidden="1" spans="1:7">
+    <row r="457" ht="15" spans="1:7">
       <c r="A457" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B457" s="10" t="s">
         <v>650</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>25</v>
@@ -14199,15 +14196,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="458" ht="15" hidden="1" spans="1:7">
+    <row r="458" ht="15" spans="1:7">
       <c r="A458" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B458" s="10" t="s">
         <v>651</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>652</v>
@@ -14222,12 +14219,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="459" ht="15" hidden="1" spans="1:7">
+    <row r="459" ht="15" spans="1:7">
       <c r="A459" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C459" s="10" t="s">
         <v>570</v>
@@ -14245,12 +14242,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="460" ht="15" hidden="1" spans="1:7">
+    <row r="460" ht="15" spans="1:7">
       <c r="A460" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B460" s="10" t="s">
         <v>741</v>
-      </c>
-      <c r="B460" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="C460" s="10" t="s">
         <v>570</v>
@@ -14268,12 +14265,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="461" ht="15" hidden="1" spans="1:7">
+    <row r="461" ht="15" spans="1:7">
       <c r="A461" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C461" s="10" t="s">
         <v>570</v>
@@ -14291,12 +14288,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:7">
+    <row r="462" spans="1:7">
       <c r="A462" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B462" s="10" t="s">
         <v>744</v>
-      </c>
-      <c r="B462" s="10" t="s">
-        <v>746</v>
       </c>
       <c r="C462" s="10" t="s">
         <v>570</v>
@@ -14314,9 +14311,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:7">
+    <row r="463" spans="1:7">
       <c r="A463" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B463" s="10" t="s">
         <v>655</v>
@@ -14337,15 +14334,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:7">
+    <row r="464" spans="1:7">
       <c r="A464" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C464" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="B464" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C464" s="10" t="s">
-        <v>750</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>25</v>
@@ -14354,21 +14351,21 @@
         <v>11</v>
       </c>
       <c r="F464" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G464" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:7">
+    <row r="465" spans="1:7">
       <c r="A465" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B465" s="10" t="s">
         <v>639</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>25</v>
@@ -14383,15 +14380,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="466" ht="15" hidden="1" spans="1:7">
+    <row r="466" ht="15" spans="1:7">
       <c r="A466" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>25</v>
@@ -14406,15 +14403,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="467" ht="15" hidden="1" spans="1:7">
+    <row r="467" ht="15" spans="1:7">
       <c r="A467" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>652</v>
@@ -14429,9 +14426,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:7">
+    <row r="468" spans="1:7">
       <c r="A468" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B468" s="10" t="s">
         <v>645</v>
@@ -14446,15 +14443,15 @@
         <v>62</v>
       </c>
       <c r="F468" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G468" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:7">
+    <row r="469" spans="1:7">
       <c r="A469" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B469" s="10" t="s">
         <v>645</v>
@@ -14469,21 +14466,21 @@
         <v>62</v>
       </c>
       <c r="F469" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G469" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:7">
+    <row r="470" spans="1:7">
       <c r="A470" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C470" s="10" t="s">
         <v>758</v>
-      </c>
-      <c r="B470" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="C470" s="10" t="s">
-        <v>760</v>
       </c>
       <c r="D470" s="10" t="s">
         <v>25</v>
@@ -14498,15 +14495,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:7">
+    <row r="471" spans="1:7">
       <c r="A471" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D471" s="10" t="s">
         <v>29</v>
@@ -14521,15 +14518,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="472" ht="15" hidden="1" spans="1:7">
+    <row r="472" ht="15" spans="1:7">
       <c r="A472" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>10</v>
@@ -14538,21 +14535,21 @@
         <v>62</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G472" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="473" ht="15" hidden="1" spans="1:7">
+    <row r="473" ht="15" spans="1:7">
       <c r="A473" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>16</v>
@@ -14561,18 +14558,18 @@
         <v>62</v>
       </c>
       <c r="F473" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G473" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="474" ht="15" hidden="1" spans="1:7">
+    <row r="474" ht="15" spans="1:7">
       <c r="A474" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="C474" s="10" t="s">
         <v>126</v>
@@ -14590,12 +14587,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="475" ht="15" hidden="1" spans="1:7">
+    <row r="475" ht="15" spans="1:7">
       <c r="A475" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="C475" s="10" t="s">
         <v>126</v>
@@ -14613,12 +14610,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:7">
+    <row r="476" spans="1:7">
       <c r="A476" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="C476" s="10" t="s">
         <v>126</v>
@@ -14636,12 +14633,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="477" ht="15" hidden="1" spans="1:7">
+    <row r="477" ht="15" spans="1:7">
       <c r="A477" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C477" s="10" t="s">
         <v>126</v>
@@ -14659,12 +14656,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="478" ht="15" hidden="1" spans="1:7">
+    <row r="478" ht="15" spans="1:7">
       <c r="A478" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C478" s="10" t="s">
         <v>126</v>
@@ -14682,18 +14679,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" ht="15" spans="1:7">
       <c r="A479" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C479" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D479" s="10" t="s">
-        <v>675</v>
+      <c r="D479" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E479" s="10" t="s">
         <v>62</v>
@@ -14705,15 +14702,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:7">
+    <row r="480" spans="1:7">
       <c r="A480" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B480" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="B480" s="10" t="s">
+      <c r="C480" s="10" t="s">
         <v>770</v>
-      </c>
-      <c r="C480" s="10" t="s">
-        <v>771</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>29</v>
@@ -14722,21 +14719,21 @@
         <v>11</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G480" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="481" ht="15" hidden="1" spans="1:7">
+    <row r="481" ht="15" spans="1:7">
       <c r="A481" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C481" s="10" t="s">
         <v>772</v>
-      </c>
-      <c r="B481" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C481" s="10" t="s">
-        <v>773</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>29</v>
@@ -14745,21 +14742,21 @@
         <v>37</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G481" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="482" ht="15" hidden="1" spans="1:7">
+    <row r="482" ht="15" spans="1:7">
       <c r="A482" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B482" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B482" s="10" t="s">
-        <v>775</v>
-      </c>
       <c r="C482" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D482" s="6" t="s">
         <v>16</v>
@@ -14774,15 +14771,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="483" ht="15" hidden="1" spans="1:7">
+    <row r="483" ht="15" spans="1:7">
       <c r="A483" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C483" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D483" s="10" t="s">
         <v>10</v>
@@ -14797,15 +14794,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="484" ht="15" hidden="1" spans="1:7">
+    <row r="484" ht="15" spans="1:7">
       <c r="A484" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C484" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D484" s="6" t="s">
         <v>16</v>
@@ -14820,15 +14817,15 @@
         <v>642</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:7">
+    <row r="485" spans="1:7">
       <c r="A485" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D485" s="10" t="s">
         <v>25</v>
@@ -14837,18 +14834,18 @@
         <v>62</v>
       </c>
       <c r="F485" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G485" s="10" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:7">
+    <row r="486" spans="1:7">
       <c r="A486" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C486" s="10" t="s">
         <v>9</v>
@@ -14866,12 +14863,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:7">
+    <row r="487" spans="1:7">
       <c r="A487" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C487" s="10" t="s">
         <v>9</v>
@@ -14889,12 +14886,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="488" ht="15" hidden="1" spans="1:7">
+    <row r="488" ht="15" spans="1:7">
       <c r="A488" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B488" s="10" t="s">
         <v>779</v>
-      </c>
-      <c r="B488" s="10" t="s">
-        <v>780</v>
       </c>
       <c r="C488" s="10" t="s">
         <v>143</v>
@@ -14906,18 +14903,18 @@
         <v>11</v>
       </c>
       <c r="F488" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G488" s="10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="489" ht="15" spans="1:7">
+      <c r="A489" s="10" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="489" ht="15" hidden="1" spans="1:7">
-      <c r="A489" s="10" t="s">
-        <v>782</v>
-      </c>
       <c r="B489" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C489" s="10" t="s">
         <v>143</v>
@@ -14929,18 +14926,18 @@
         <v>11</v>
       </c>
       <c r="F489" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G489" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="490" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
       <c r="A490" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B490" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="B490" s="10" t="s">
-        <v>784</v>
       </c>
       <c r="C490" s="10" t="s">
         <v>126</v>
@@ -14952,18 +14949,18 @@
         <v>11</v>
       </c>
       <c r="F490" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G490" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="491" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="491" ht="15" spans="1:7">
       <c r="A491" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="C491" s="10" t="s">
         <v>126</v>
@@ -14975,18 +14972,18 @@
         <v>11</v>
       </c>
       <c r="F491" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="G491" s="10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="492" ht="15" spans="1:7">
+      <c r="A492" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="G491" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="492" ht="15" hidden="1" spans="1:7">
-      <c r="A492" s="10" t="s">
+      <c r="B492" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="B492" s="10" t="s">
-        <v>788</v>
       </c>
       <c r="C492" s="6" t="s">
         <v>404</v>
@@ -14998,18 +14995,18 @@
         <v>11</v>
       </c>
       <c r="F492" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="G492" s="10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="493" ht="15" spans="1:7">
+      <c r="A493" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="G492" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="493" ht="15" hidden="1" spans="1:7">
-      <c r="A493" s="10" t="s">
-        <v>790</v>
-      </c>
       <c r="B493" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>404</v>
@@ -15021,18 +15018,18 @@
         <v>11</v>
       </c>
       <c r="F493" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G493" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="494" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
       <c r="A494" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B494" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C494" s="6" t="s">
         <v>404</v>
@@ -15044,21 +15041,21 @@
         <v>11</v>
       </c>
       <c r="F494" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G494" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="495" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="495" ht="15" spans="1:7">
       <c r="A495" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D495" s="10" t="s">
         <v>10</v>
@@ -15067,21 +15064,21 @@
         <v>37</v>
       </c>
       <c r="F495" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G495" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="496" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="496" ht="15" spans="1:7">
       <c r="A496" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D496" s="6" t="s">
         <v>16</v>
@@ -15090,13 +15087,13 @@
         <v>37</v>
       </c>
       <c r="F496" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G496" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="497" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="497" ht="15" spans="1:7">
       <c r="A497" s="10" t="s">
         <v>664</v>
       </c>
@@ -15104,7 +15101,7 @@
         <v>665</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D497" s="10" t="s">
         <v>25</v>
@@ -15113,21 +15110,21 @@
         <v>37</v>
       </c>
       <c r="F497" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G497" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="498" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="498" ht="15" spans="1:7">
       <c r="A498" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="B498" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="B498" s="10" t="s">
-        <v>795</v>
-      </c>
       <c r="C498" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D498" s="6" t="s">
         <v>652</v>
@@ -15136,21 +15133,21 @@
         <v>37</v>
       </c>
       <c r="F498" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G498" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="499" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
       <c r="A499" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B499" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="B499" s="10" t="s">
+      <c r="C499" s="10" t="s">
         <v>797</v>
-      </c>
-      <c r="C499" s="10" t="s">
-        <v>798</v>
       </c>
       <c r="D499" s="10" t="s">
         <v>29</v>
@@ -15159,18 +15156,18 @@
         <v>37</v>
       </c>
       <c r="F499" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G499" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="500" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
       <c r="A500" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="C500" s="10" t="s">
         <v>126</v>
@@ -15182,21 +15179,21 @@
         <v>37</v>
       </c>
       <c r="F500" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G500" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="501" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="501" ht="15" spans="1:7">
       <c r="A501" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D501" s="10" t="s">
         <v>10</v>
@@ -15205,13 +15202,13 @@
         <v>48</v>
       </c>
       <c r="F501" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G501" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="502" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="502" ht="15" spans="1:7">
       <c r="A502" s="10" t="s">
         <v>658</v>
       </c>
@@ -15228,21 +15225,21 @@
         <v>48</v>
       </c>
       <c r="F502" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G502" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="503" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="503" ht="15" spans="1:7">
       <c r="A503" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C503" s="10" t="s">
         <v>801</v>
-      </c>
-      <c r="B503" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C503" s="10" t="s">
-        <v>802</v>
       </c>
       <c r="D503" s="10" t="s">
         <v>25</v>
@@ -15251,21 +15248,21 @@
         <v>48</v>
       </c>
       <c r="F503" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G503" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="504" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="504" ht="15" spans="1:7">
       <c r="A504" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B504" s="10" t="s">
         <v>655</v>
       </c>
       <c r="C504" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D504" s="6" t="s">
         <v>652</v>
@@ -15277,18 +15274,18 @@
         <v>657</v>
       </c>
       <c r="G504" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="505" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
       <c r="A505" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B505" s="10" t="s">
         <v>655</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D505" s="10" t="s">
         <v>29</v>
@@ -15300,18 +15297,18 @@
         <v>657</v>
       </c>
       <c r="G505" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="506" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="506" ht="15" spans="1:7">
       <c r="A506" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B506" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D506" s="10" t="s">
         <v>10</v>
@@ -15320,21 +15317,21 @@
         <v>62</v>
       </c>
       <c r="F506" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G506" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="507" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="507" ht="15" spans="1:7">
       <c r="A507" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B507" s="10" t="s">
         <v>650</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D507" s="6" t="s">
         <v>16</v>
@@ -15343,21 +15340,21 @@
         <v>62</v>
       </c>
       <c r="F507" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G507" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="508" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="508" ht="15" spans="1:7">
       <c r="A508" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B508" s="10" t="s">
         <v>651</v>
       </c>
       <c r="C508" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D508" s="10" t="s">
         <v>25</v>
@@ -15366,18 +15363,18 @@
         <v>62</v>
       </c>
       <c r="F508" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G508" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="509" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="509" ht="15" spans="1:7">
       <c r="A509" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B509" s="10" t="s">
         <v>806</v>
-      </c>
-      <c r="B509" s="10" t="s">
-        <v>807</v>
       </c>
       <c r="C509" s="10" t="s">
         <v>292</v>
@@ -15389,21 +15386,21 @@
         <v>62</v>
       </c>
       <c r="F509" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G509" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="510" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
       <c r="A510" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B510" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="B510" s="10" t="s">
+      <c r="C510" s="10" t="s">
         <v>797</v>
-      </c>
-      <c r="C510" s="10" t="s">
-        <v>798</v>
       </c>
       <c r="D510" s="10" t="s">
         <v>29</v>
@@ -15412,15 +15409,15 @@
         <v>62</v>
       </c>
       <c r="F510" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G510" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="511" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="511" ht="15" spans="1:7">
       <c r="A511" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B511" s="10" t="s">
         <v>669</v>
@@ -15438,18 +15435,18 @@
         <v>660</v>
       </c>
       <c r="G511" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="512" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="512" ht="15" spans="1:7">
       <c r="A512" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B512" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D512" s="6" t="s">
         <v>16</v>
@@ -15458,18 +15455,18 @@
         <v>75</v>
       </c>
       <c r="F512" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="G512" s="10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="513" ht="15" spans="1:7">
+      <c r="A513" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="G512" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="513" ht="15" hidden="1" spans="1:7">
-      <c r="A513" s="10" t="s">
-        <v>811</v>
-      </c>
       <c r="B513" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C513" s="10" t="s">
         <v>126</v>
@@ -15481,15 +15478,15 @@
         <v>75</v>
       </c>
       <c r="F513" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G513" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="514" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="514" ht="15" spans="1:7">
       <c r="A514" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B514" s="10" t="s">
         <v>655</v>
@@ -15507,12 +15504,12 @@
         <v>657</v>
       </c>
       <c r="G514" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="515" ht="15" hidden="1" spans="1:7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="515" ht="15" spans="1:7">
       <c r="A515" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B515" s="11" t="s">
         <v>362</v>
@@ -15527,15 +15524,15 @@
         <v>11</v>
       </c>
       <c r="F515" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="G515" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="G515" s="11" t="s">
+    </row>
+    <row r="516" ht="15" spans="1:7">
+      <c r="A516" s="11" t="s">
         <v>814</v>
-      </c>
-    </row>
-    <row r="516" ht="15" hidden="1" spans="1:7">
-      <c r="A516" s="11" t="s">
-        <v>815</v>
       </c>
       <c r="B516" s="11" t="s">
         <v>321</v>
@@ -15553,12 +15550,12 @@
         <v>138</v>
       </c>
       <c r="G516" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="517" ht="15" spans="1:7">
+      <c r="A517" s="11" t="s">
         <v>814</v>
-      </c>
-    </row>
-    <row r="517" ht="15" hidden="1" spans="1:7">
-      <c r="A517" s="11" t="s">
-        <v>815</v>
       </c>
       <c r="B517" s="11" t="s">
         <v>321</v>
@@ -15576,12 +15573,12 @@
         <v>138</v>
       </c>
       <c r="G517" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="518" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="518" ht="15" spans="1:7">
       <c r="A518" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B518" s="11" t="s">
         <v>474</v>
@@ -15599,12 +15596,12 @@
         <v>313</v>
       </c>
       <c r="G518" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="519" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
       <c r="A519" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B519" s="11" t="s">
         <v>329</v>
@@ -15622,12 +15619,12 @@
         <v>138</v>
       </c>
       <c r="G519" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="520" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
       <c r="A520" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B520" s="11" t="s">
         <v>329</v>
@@ -15645,12 +15642,12 @@
         <v>138</v>
       </c>
       <c r="G520" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="521" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
       <c r="A521" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B521" s="11" t="s">
         <v>478</v>
@@ -15668,15 +15665,15 @@
         <v>313</v>
       </c>
       <c r="G521" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="522" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
       <c r="A522" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B522" s="11" t="s">
         <v>819</v>
-      </c>
-      <c r="B522" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="C522" s="11" t="s">
         <v>300</v>
@@ -15691,10 +15688,10 @@
         <v>44</v>
       </c>
       <c r="G522" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="523" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="523" ht="15" spans="1:7">
       <c r="A523" s="11" t="s">
         <v>470</v>
       </c>
@@ -15711,18 +15708,18 @@
         <v>11</v>
       </c>
       <c r="F523" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="G523" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="524" ht="15" spans="1:7">
+      <c r="A524" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="G523" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="524" ht="15" hidden="1" spans="1:7">
-      <c r="A524" s="11" t="s">
+      <c r="B524" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="B524" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="C524" s="11" t="s">
         <v>300</v>
@@ -15737,10 +15734,10 @@
         <v>44</v>
       </c>
       <c r="G524" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="525" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="525" ht="15" spans="1:7">
       <c r="A525" s="11" t="s">
         <v>475</v>
       </c>
@@ -15757,15 +15754,15 @@
         <v>11</v>
       </c>
       <c r="F525" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G525" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="526" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="526" ht="15" spans="1:7">
       <c r="A526" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B526" s="11" t="s">
         <v>394</v>
@@ -15780,18 +15777,18 @@
         <v>37</v>
       </c>
       <c r="F526" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="G526" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="527" ht="15" spans="1:7">
+      <c r="A527" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="G526" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="527" ht="15" hidden="1" spans="1:7">
-      <c r="A527" s="11" t="s">
+      <c r="B527" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="B527" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="C527" s="11" t="s">
         <v>494</v>
@@ -15803,18 +15800,18 @@
         <v>37</v>
       </c>
       <c r="F527" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="G527" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="528" ht="15" spans="1:7">
+      <c r="A528" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="G527" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="528" ht="15" hidden="1" spans="1:7">
-      <c r="A528" s="11" t="s">
-        <v>829</v>
-      </c>
       <c r="B528" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C528" s="11" t="s">
         <v>494</v>
@@ -15826,18 +15823,18 @@
         <v>37</v>
       </c>
       <c r="F528" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G528" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="529" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="529" ht="15" spans="1:7">
       <c r="A529" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="B529" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="B529" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="C529" s="11" t="s">
         <v>494</v>
@@ -15849,18 +15846,18 @@
         <v>37</v>
       </c>
       <c r="F529" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G529" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="530" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="530" ht="15" spans="1:7">
       <c r="A530" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B530" s="11" t="s">
         <v>832</v>
-      </c>
-      <c r="B530" s="11" t="s">
-        <v>833</v>
       </c>
       <c r="C530" s="11" t="s">
         <v>331</v>
@@ -15872,18 +15869,18 @@
         <v>48</v>
       </c>
       <c r="F530" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="G530" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="531" ht="15" spans="1:7">
+      <c r="A531" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="G530" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="531" ht="15" hidden="1" spans="1:7">
-      <c r="A531" s="11" t="s">
+      <c r="B531" s="11" t="s">
         <v>835</v>
-      </c>
-      <c r="B531" s="11" t="s">
-        <v>836</v>
       </c>
       <c r="C531" s="11" t="s">
         <v>331</v>
@@ -15895,18 +15892,18 @@
         <v>48</v>
       </c>
       <c r="F531" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="G531" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="532" ht="15" spans="1:7">
+      <c r="A532" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="G531" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="532" ht="15" hidden="1" spans="1:7">
-      <c r="A532" s="11" t="s">
+      <c r="B532" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="B532" s="11" t="s">
-        <v>839</v>
       </c>
       <c r="C532" s="11" t="s">
         <v>306</v>
@@ -15921,15 +15918,15 @@
         <v>214</v>
       </c>
       <c r="G532" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="533" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
       <c r="A533" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B533" s="11" t="s">
         <v>840</v>
-      </c>
-      <c r="B533" s="11" t="s">
-        <v>841</v>
       </c>
       <c r="C533" s="11" t="s">
         <v>331</v>
@@ -15941,18 +15938,18 @@
         <v>48</v>
       </c>
       <c r="F533" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G533" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="534" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
       <c r="A534" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B534" s="11" t="s">
         <v>842</v>
-      </c>
-      <c r="B534" s="11" t="s">
-        <v>843</v>
       </c>
       <c r="C534" s="11" t="s">
         <v>306</v>
@@ -15967,15 +15964,15 @@
         <v>214</v>
       </c>
       <c r="G534" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="535" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="535" ht="15" spans="1:7">
       <c r="A535" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B535" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="B535" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="C535" s="11" t="s">
         <v>306</v>
@@ -15990,12 +15987,12 @@
         <v>391</v>
       </c>
       <c r="G535" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="536" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="536" ht="15" spans="1:7">
       <c r="A536" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B536" s="11" t="s">
         <v>240</v>
@@ -16013,12 +16010,12 @@
         <v>391</v>
       </c>
       <c r="G536" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="537" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="537" ht="15" spans="1:7">
       <c r="A537" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B537" s="11" t="s">
         <v>468</v>
@@ -16033,18 +16030,18 @@
         <v>62</v>
       </c>
       <c r="F537" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G537" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="538" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="538" ht="15" spans="1:7">
       <c r="A538" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="B538" s="11" t="s">
         <v>848</v>
-      </c>
-      <c r="B538" s="11" t="s">
-        <v>849</v>
       </c>
       <c r="C538" s="11" t="s">
         <v>300</v>
@@ -16059,15 +16056,15 @@
         <v>391</v>
       </c>
       <c r="G538" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="539" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="539" ht="15" spans="1:7">
       <c r="A539" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B539" s="11" t="s">
         <v>850</v>
-      </c>
-      <c r="B539" s="11" t="s">
-        <v>851</v>
       </c>
       <c r="C539" s="11" t="s">
         <v>300</v>
@@ -16082,10 +16079,10 @@
         <v>391</v>
       </c>
       <c r="G539" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="540" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
       <c r="A540" s="11" t="s">
         <v>479</v>
       </c>
@@ -16105,10 +16102,10 @@
         <v>76</v>
       </c>
       <c r="G540" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="541" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="541" ht="15" spans="1:7">
       <c r="A541" s="11" t="s">
         <v>480</v>
       </c>
@@ -16128,10 +16125,10 @@
         <v>482</v>
       </c>
       <c r="G541" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="542" ht="15" hidden="1" spans="1:7">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="542" ht="15" spans="1:7">
       <c r="A542" s="11" t="s">
         <v>480</v>
       </c>
@@ -16151,19 +16148,58 @@
         <v>482</v>
       </c>
       <c r="G542" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="543" ht="15" spans="1:7">
+      <c r="A543" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C543" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D543" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E543" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F543" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G543" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="544" ht="15" spans="1:7">
+      <c r="A544" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D544" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E544" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F544" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G544" s="10" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G542" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="12h-13"/>
-        <filter val="11h-14"/>
-        <filter val="13h-14"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:G542">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:G544">
       <sortCondition ref="D1"/>
     </sortState>
     <extLst/>
@@ -16192,15 +16228,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1" t="s">
         <v>852</v>
-      </c>
-      <c r="C1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -16211,7 +16247,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -16233,7 +16269,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -16244,7 +16280,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -16266,7 +16302,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -16299,7 +16335,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -16321,7 +16357,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B13">
         <v>2</v>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -1545,7 +1545,7 @@
     <t>TP-MN-a</t>
   </si>
   <si>
-    <t>RADJALA</t>
+    <t>REDJALA</t>
   </si>
   <si>
     <t>TP-Méthodes numériques (SG11) (a)</t>
@@ -3642,11 +3642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C549" sqref="C549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" ht="15" hidden="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" hidden="1" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" hidden="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="15" spans="1:8">
+    <row r="6" ht="15" hidden="1" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="15" spans="1:8">
+    <row r="7" ht="15" hidden="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" hidden="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="1:8">
+    <row r="11" ht="15" hidden="1" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="1:8">
+    <row r="12" ht="15" hidden="1" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" ht="15" hidden="1" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" hidden="1" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" ht="15" spans="1:8">
+    <row r="16" ht="15" hidden="1" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" ht="15" spans="1:8">
+    <row r="17" ht="15" hidden="1" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" ht="15" spans="1:8">
+    <row r="18" ht="15" hidden="1" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" hidden="1" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="15" spans="1:8">
+    <row r="21" ht="15" hidden="1" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="15" spans="1:8">
+    <row r="22" ht="15" hidden="1" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="15" spans="1:8">
+    <row r="23" ht="15" hidden="1" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" ht="15" spans="1:8">
+    <row r="24" ht="15" hidden="1" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" ht="15" spans="1:8">
+    <row r="25" ht="15" hidden="1" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" ht="15" spans="1:7">
+    <row r="26" ht="15" hidden="1" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:7">
+    <row r="27" ht="15" hidden="1" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" ht="15" hidden="1" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>83</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:7">
+    <row r="31" ht="15" hidden="1" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:7">
+    <row r="32" ht="15" hidden="1" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:7">
+    <row r="33" ht="15" hidden="1" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>93</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:7">
+    <row r="34" ht="15" hidden="1" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>93</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>99</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>101</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:7">
+    <row r="38" ht="15" hidden="1" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>79</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:7">
+    <row r="39" ht="15" hidden="1" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>103</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:7">
+    <row r="40" ht="15" hidden="1" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>105</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>105</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>105</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:7">
+    <row r="45" ht="15" hidden="1" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>109</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:7">
+    <row r="46" ht="15" hidden="1" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>111</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:7">
+    <row r="47" ht="15" hidden="1" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>114</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:7">
+    <row r="48" ht="15" hidden="1" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>69</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:7">
+    <row r="49" ht="15" hidden="1" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>72</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:7">
+    <row r="50" ht="15" hidden="1" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>117</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:7">
+    <row r="51" ht="15" hidden="1" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:7">
+    <row r="52" ht="15" hidden="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" hidden="1" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>124</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:7">
+    <row r="54" ht="15" hidden="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:7">
+    <row r="55" ht="15" hidden="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>132</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" hidden="1" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:7">
+    <row r="57" ht="15" hidden="1" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>136</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:7">
+    <row r="58" ht="15" hidden="1" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>132</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" hidden="1" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>132</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" hidden="1" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>136</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>141</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>144</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:7">
+    <row r="63" ht="15" hidden="1" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>146</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:7">
+    <row r="64" ht="15" hidden="1" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>146</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:7">
+    <row r="65" ht="15" hidden="1" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:7">
+    <row r="66" ht="15" hidden="1" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>151</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:7">
+    <row r="67" ht="15" hidden="1" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>153</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:7">
+    <row r="68" ht="15" hidden="1" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>155</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" hidden="1" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>156</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:7">
+    <row r="70" ht="15" hidden="1" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>34</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:7">
+    <row r="71" ht="15" hidden="1" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:7">
+    <row r="72" ht="15" hidden="1" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>72</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="1:7">
+    <row r="73" ht="15" hidden="1" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>161</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:7">
+    <row r="74" ht="15" hidden="1" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="1:7">
+    <row r="75" ht="15" hidden="1" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>167</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="1:7">
+    <row r="76" ht="15" hidden="1" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>170</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>172</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" hidden="1" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" hidden="1" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>175</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="1:7">
+    <row r="80" ht="15" hidden="1" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>176</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="1:7">
+    <row r="81" ht="15" hidden="1" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>179</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="1:7">
+    <row r="82" ht="15" hidden="1" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>156</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>181</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>184</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="1:7">
+    <row r="85" ht="15" hidden="1" spans="1:7">
       <c r="A85" s="6" t="s">
         <v>186</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="1:7">
+    <row r="86" ht="15" hidden="1" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>189</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="1:7">
+    <row r="87" ht="15" hidden="1" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>191</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>193</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" hidden="1" spans="1:7">
       <c r="A89" s="6" t="s">
         <v>195</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>197</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="1:7">
+    <row r="91" ht="15" hidden="1" spans="1:7">
       <c r="A91" s="6" t="s">
         <v>198</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="1:7">
+    <row r="92" ht="15" hidden="1" spans="1:7">
       <c r="A92" s="6" t="s">
         <v>200</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:7">
+    <row r="93" ht="15" hidden="1" spans="1:7">
       <c r="A93" s="6" t="s">
         <v>201</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="1:7">
+    <row r="94" ht="15" hidden="1" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>72</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="1:7">
+    <row r="95" ht="15" hidden="1" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>202</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="1:7">
+    <row r="96" ht="15" hidden="1" spans="1:7">
       <c r="A96" s="6" t="s">
         <v>206</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="1:7">
+    <row r="97" ht="15" hidden="1" spans="1:7">
       <c r="A97" s="6" t="s">
         <v>209</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>211</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>211</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>216</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" hidden="1" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>216</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:7">
+    <row r="102" ht="15" hidden="1" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>218</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:7">
+    <row r="103" ht="15" hidden="1" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>219</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>219</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>221</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:7">
+    <row r="106" ht="15" hidden="1" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>221</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:7">
+    <row r="107" ht="15" hidden="1" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>223</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" hidden="1" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>223</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" hidden="1" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>225</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" hidden="1" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>225</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="1:7">
+    <row r="111" ht="15" hidden="1" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>227</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="1:7">
+    <row r="112" ht="15" hidden="1" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>153</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="1:7">
+    <row r="113" ht="15" hidden="1" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>155</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" hidden="1" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>230</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" hidden="1" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>232</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="1:7">
+    <row r="116" ht="15" hidden="1" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>234</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="1:7">
+    <row r="117" ht="15" hidden="1" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>236</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:7">
+    <row r="118" ht="15" hidden="1" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>239</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" hidden="1" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>241</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" hidden="1" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>243</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:7">
+    <row r="121" ht="15" hidden="1" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>193</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="1:7">
+    <row r="122" ht="15" hidden="1" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>197</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:7">
+    <row r="123" ht="15" hidden="1" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" hidden="1" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="1:7">
+    <row r="125" ht="15" hidden="1" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>248</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:7">
+    <row r="126" ht="15" hidden="1" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>252</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:7">
+    <row r="127" ht="15" hidden="1" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>255</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" hidden="1" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>257</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>260</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="1:7">
+    <row r="130" ht="15" hidden="1" spans="1:7">
       <c r="A130" s="6" t="s">
         <v>262</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="1:7">
+    <row r="131" ht="15" hidden="1" spans="1:7">
       <c r="A131" s="6" t="s">
         <v>153</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="1:7">
+    <row r="132" ht="15" hidden="1" spans="1:7">
       <c r="A132" s="6" t="s">
         <v>155</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" hidden="1" spans="1:7">
       <c r="A133" s="6" t="s">
         <v>265</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" hidden="1" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>267</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="1:7">
+    <row r="135" ht="15" hidden="1" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>269</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:7">
+    <row r="136" ht="15" hidden="1" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>271</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="1:7">
+    <row r="137" ht="15" hidden="1" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>273</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="1:7">
+    <row r="138" ht="15" hidden="1" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>275</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="1:7">
+    <row r="139" ht="15" hidden="1" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>278</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="1:7">
+    <row r="140" ht="15" hidden="1" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>280</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="1:7">
+    <row r="141" ht="15" hidden="1" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>282</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" ht="15" spans="1:7">
+    <row r="142" ht="15" hidden="1" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>285</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" ht="15" spans="1:7">
+    <row r="143" ht="15" hidden="1" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>288</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>290</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" hidden="1" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>72</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" ht="15" spans="1:7">
+    <row r="146" ht="15" hidden="1" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>293</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" ht="15" spans="1:7">
+    <row r="147" ht="15" hidden="1" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>298</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" hidden="1" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>302</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" ht="15" spans="1:7">
+    <row r="149" ht="15" hidden="1" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>304</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="1:7">
+    <row r="150" ht="15" hidden="1" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>307</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>309</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>311</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" hidden="1" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>311</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>314</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>314</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>316</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>316</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>319</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" hidden="1" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>320</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" hidden="1" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>323</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" hidden="1" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>323</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>325</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>325</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>326</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>326</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>327</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" hidden="1" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>328</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" ht="15" spans="1:7">
+    <row r="168" ht="15" hidden="1" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>330</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="1:7">
+    <row r="169" ht="15" hidden="1" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>332</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>334</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="171" ht="15" spans="1:7">
+    <row r="171" ht="15" hidden="1" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>336</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" ht="15" spans="1:7">
+    <row r="172" ht="15" hidden="1" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>338</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" hidden="1" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>341</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>343</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>345</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" hidden="1" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>347</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" hidden="1" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>347</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" hidden="1" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>348</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>348</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" hidden="1" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>351</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" hidden="1" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>353</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" hidden="1" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>355</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" hidden="1" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>355</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="6" t="s">
         <v>356</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" hidden="1" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>356</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" hidden="1" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>357</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" ht="15" spans="1:7">
+    <row r="187" ht="15" hidden="1" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>359</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" ht="15" spans="1:7">
+    <row r="188" ht="15" hidden="1" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>361</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" ht="15" spans="1:7">
+    <row r="189" ht="15" hidden="1" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>363</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>366</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>368</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>370</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" hidden="1" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>371</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" hidden="1" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>373</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" hidden="1" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>374</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" hidden="1" spans="1:7">
       <c r="A196" s="6" t="s">
         <v>375</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" hidden="1" spans="1:7">
       <c r="A197" s="6" t="s">
         <v>376</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" ht="15" spans="1:7">
+    <row r="198" ht="15" hidden="1" spans="1:7">
       <c r="A198" s="6" t="s">
         <v>377</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" ht="15" spans="1:7">
+    <row r="199" ht="15" hidden="1" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>379</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" ht="15" spans="1:7">
+    <row r="200" ht="15" hidden="1" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>330</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>381</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" hidden="1" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>382</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" hidden="1" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>382</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>384</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" hidden="1" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>386</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" hidden="1" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>387</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" hidden="1" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>387</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" hidden="1" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>388</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" hidden="1" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>389</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" ht="15" spans="1:7">
+    <row r="210" ht="15" hidden="1" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>361</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="211" ht="15" spans="1:7">
+    <row r="211" ht="15" hidden="1" spans="1:7">
       <c r="A211" s="6" t="s">
         <v>393</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="212" ht="15" spans="1:7">
+    <row r="212" ht="15" hidden="1" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>395</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" hidden="1" spans="1:7">
       <c r="A213" s="6" t="s">
         <v>398</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" hidden="1" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>398</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" hidden="1" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>399</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" hidden="1" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>399</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" hidden="1" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>400</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" hidden="1" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>400</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" hidden="1" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>401</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" hidden="1" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>401</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="221" ht="15" spans="1:7">
+    <row r="221" ht="15" hidden="1" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>402</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="222" ht="15" spans="1:7">
+    <row r="222" ht="15" hidden="1" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>405</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="223" ht="15" spans="1:7">
+    <row r="223" ht="15" hidden="1" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>408</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" hidden="1" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>409</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" hidden="1" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>410</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" ht="15" spans="1:7">
+    <row r="226" ht="15" hidden="1" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>293</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" ht="15" spans="1:7">
+    <row r="227" ht="15" hidden="1" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>411</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" hidden="1" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>412</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" ht="15" spans="1:7">
+    <row r="229" ht="15" hidden="1" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>412</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="230" ht="15" spans="1:7">
+    <row r="230" ht="15" hidden="1" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>414</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" hidden="1" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>415</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" hidden="1" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>415</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" hidden="1" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>269</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" hidden="1" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>419</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="235" ht="15" spans="1:7">
+    <row r="235" ht="15" hidden="1" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>421</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="236" ht="15" spans="1:7">
+    <row r="236" ht="15" hidden="1" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>421</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" ht="15" spans="1:7">
+    <row r="237" ht="15" hidden="1" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>424</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" hidden="1" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>425</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="239" ht="15" spans="1:7">
+    <row r="239" ht="15" hidden="1" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>428</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="240" ht="15" spans="1:7">
+    <row r="240" ht="15" hidden="1" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>429</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="241" ht="15" spans="1:7">
+    <row r="241" ht="15" hidden="1" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>432</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" hidden="1" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>434</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" hidden="1" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>436</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="244" ht="15" spans="1:7">
+    <row r="244" ht="15" hidden="1" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>438</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="245" ht="15" spans="1:7">
+    <row r="245" ht="15" hidden="1" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>440</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="246" ht="15" spans="1:7">
+    <row r="246" ht="15" hidden="1" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>442</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" hidden="1" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>445</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="248" ht="15" spans="1:7">
+    <row r="248" ht="15" hidden="1" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>447</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="249" ht="15" spans="1:7">
+    <row r="249" ht="15" hidden="1" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>449</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" ht="15" spans="1:7">
+    <row r="250" ht="15" hidden="1" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>451</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" ht="15" spans="1:7">
+    <row r="251" ht="15" hidden="1" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>454</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" hidden="1" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>456</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" hidden="1" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>458</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" hidden="1" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>460</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" ht="15" spans="1:7">
+    <row r="255" ht="15" hidden="1" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>462</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="256" ht="15" spans="1:7">
+    <row r="256" ht="15" hidden="1" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>465</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="257" ht="15" spans="1:7">
+    <row r="257" ht="15" hidden="1" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>467</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" hidden="1" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>470</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" hidden="1" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>473</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" hidden="1" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>475</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" hidden="1" spans="1:7">
       <c r="A261" s="6" t="s">
         <v>477</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" hidden="1" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>479</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" hidden="1" spans="1:7">
       <c r="A263" s="6" t="s">
         <v>480</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" hidden="1" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>480</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="265" ht="15" spans="1:7">
+    <row r="265" ht="15" hidden="1" spans="1:7">
       <c r="A265" s="6" t="s">
         <v>484</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="266" ht="15" spans="1:7">
+    <row r="266" ht="15" hidden="1" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>489</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" hidden="1" spans="1:7">
       <c r="A267" s="6" t="s">
         <v>492</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" hidden="1" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>496</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="269" ht="15" spans="1:7">
+    <row r="269" ht="15" hidden="1" spans="1:7">
       <c r="A269" s="6" t="s">
         <v>498</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="270" ht="15" spans="1:7">
+    <row r="270" ht="15" hidden="1" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>500</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" hidden="1" spans="1:7">
       <c r="A271" s="6" t="s">
         <v>502</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" ht="15" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>502</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" hidden="1" spans="1:7">
       <c r="A273" s="6" t="s">
         <v>505</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" hidden="1" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>507</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" ht="15" hidden="1" spans="1:7">
       <c r="A275" s="6" t="s">
         <v>510</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" ht="15" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>510</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" hidden="1" spans="1:7">
       <c r="A277" s="6" t="s">
         <v>512</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" hidden="1" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>513</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" hidden="1" spans="1:7">
       <c r="A279" s="6" t="s">
         <v>515</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" hidden="1" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>516</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="281" ht="15" spans="1:7">
+    <row r="281" ht="15" hidden="1" spans="1:7">
       <c r="A281" s="6" t="s">
         <v>517</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="282" ht="15" spans="1:7">
+    <row r="282" ht="15" hidden="1" spans="1:7">
       <c r="A282" s="6" t="s">
         <v>519</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" hidden="1" spans="1:7">
       <c r="A283" s="6" t="s">
         <v>521</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="284" ht="15" spans="1:7">
+    <row r="284" ht="15" hidden="1" spans="1:7">
       <c r="A284" s="6" t="s">
         <v>522</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="285" ht="15" spans="1:7">
+    <row r="285" ht="15" hidden="1" spans="1:7">
       <c r="A285" s="6" t="s">
         <v>523</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" hidden="1" spans="1:7">
       <c r="A286" s="6" t="s">
         <v>526</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" hidden="1" spans="1:7">
       <c r="A287" s="6" t="s">
         <v>500</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" ht="15" spans="1:7">
+    <row r="288" ht="15" hidden="1" spans="1:7">
       <c r="A288" s="6" t="s">
         <v>528</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" ht="15" spans="1:7">
+    <row r="289" ht="15" hidden="1" spans="1:7">
       <c r="A289" s="6" t="s">
         <v>531</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" hidden="1" spans="1:7">
       <c r="A290" s="6" t="s">
         <v>531</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" hidden="1" spans="1:7">
       <c r="A291" s="6" t="s">
         <v>534</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" hidden="1" spans="1:7">
       <c r="A292" s="6" t="s">
         <v>537</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" ht="15" spans="1:7">
+    <row r="293" ht="15" hidden="1" spans="1:7">
       <c r="A293" s="6" t="s">
         <v>539</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" ht="15" spans="1:7">
+    <row r="294" ht="15" hidden="1" spans="1:7">
       <c r="A294" s="6" t="s">
         <v>540</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" hidden="1" spans="1:7">
       <c r="A295" s="6" t="s">
         <v>541</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" hidden="1" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>543</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" hidden="1" spans="1:7">
       <c r="A297" s="6" t="s">
         <v>544</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" hidden="1" spans="1:7">
       <c r="A298" s="6" t="s">
         <v>545</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" hidden="1" spans="1:7">
       <c r="A299" s="6" t="s">
         <v>546</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" hidden="1" spans="1:7">
       <c r="A300" s="6" t="s">
         <v>547</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" hidden="1" spans="1:7">
       <c r="A301" s="6" t="s">
         <v>549</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="302" ht="15" spans="1:7">
+    <row r="302" ht="15" hidden="1" spans="1:7">
       <c r="A302" s="6" t="s">
         <v>550</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="303" ht="15" spans="1:7">
+    <row r="303" ht="15" hidden="1" spans="1:7">
       <c r="A303" s="6" t="s">
         <v>552</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" hidden="1" spans="1:7">
       <c r="A304" s="6" t="s">
         <v>553</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="305" ht="15" spans="1:7">
+    <row r="305" ht="15" hidden="1" spans="1:7">
       <c r="A305" s="6" t="s">
         <v>554</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="306" ht="15" spans="1:7">
+    <row r="306" ht="15" hidden="1" spans="1:7">
       <c r="A306" s="6" t="s">
         <v>556</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" hidden="1" spans="1:7">
       <c r="A307" s="6" t="s">
         <v>558</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" hidden="1" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>558</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" hidden="1" spans="1:7">
       <c r="A309" s="6" t="s">
         <v>559</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" hidden="1" spans="1:7">
       <c r="A310" s="6" t="s">
         <v>561</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" hidden="1" spans="1:7">
       <c r="A311" s="6" t="s">
         <v>562</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" hidden="1" spans="1:7">
       <c r="A312" s="6" t="s">
         <v>564</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" hidden="1" spans="1:7">
       <c r="A313" s="6" t="s">
         <v>564</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" hidden="1" spans="1:7">
       <c r="A314" s="6" t="s">
         <v>566</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" hidden="1" spans="1:7">
       <c r="A315" s="6" t="s">
         <v>568</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="316" ht="15" spans="1:7">
+    <row r="316" ht="15" hidden="1" spans="1:7">
       <c r="A316" s="6" t="s">
         <v>500</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="317" ht="15" spans="1:7">
+    <row r="317" ht="15" hidden="1" spans="1:7">
       <c r="A317" s="6" t="s">
         <v>556</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="318" ht="15" spans="1:7">
+    <row r="318" ht="15" hidden="1" spans="1:7">
       <c r="A318" s="6" t="s">
         <v>484</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" hidden="1" spans="1:7">
       <c r="A319" s="6" t="s">
         <v>526</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" hidden="1" spans="1:7">
       <c r="A320" s="6" t="s">
         <v>554</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="321" ht="15" spans="1:7">
+    <row r="321" ht="15" hidden="1" spans="1:7">
       <c r="A321" s="6" t="s">
         <v>523</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="322" ht="15" spans="1:7">
+    <row r="322" ht="15" hidden="1" spans="1:7">
       <c r="A322" s="6" t="s">
         <v>573</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" hidden="1" spans="1:7">
       <c r="A323" s="6" t="s">
         <v>574</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" ht="15" spans="1:7">
+    <row r="324" ht="15" hidden="1" spans="1:7">
       <c r="A324" s="6" t="s">
         <v>576</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325" ht="15" spans="1:7">
+    <row r="325" ht="15" hidden="1" spans="1:7">
       <c r="A325" s="6" t="s">
         <v>577</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" hidden="1" spans="1:7">
       <c r="A326" s="6" t="s">
         <v>579</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" hidden="1" spans="1:7">
       <c r="A327" s="6" t="s">
         <v>581</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" hidden="1" spans="1:7">
       <c r="A328" s="6" t="s">
         <v>582</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" hidden="1" spans="1:7">
       <c r="A329" s="6" t="s">
         <v>582</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" hidden="1" spans="1:7">
       <c r="A330" s="6" t="s">
         <v>584</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" hidden="1" spans="1:7">
       <c r="A331" s="6" t="s">
         <v>586</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" hidden="1" spans="1:7">
       <c r="A332" s="6" t="s">
         <v>587</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" hidden="1" spans="1:7">
       <c r="A333" s="6" t="s">
         <v>587</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" hidden="1" spans="1:7">
       <c r="A334" s="6" t="s">
         <v>588</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" hidden="1" spans="1:7">
       <c r="A335" s="6" t="s">
         <v>589</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="336" ht="15" spans="1:7">
+    <row r="336" ht="15" hidden="1" spans="1:7">
       <c r="A336" s="6" t="s">
         <v>550</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="337" ht="15" spans="1:7">
+    <row r="337" ht="15" hidden="1" spans="1:7">
       <c r="A337" s="6" t="s">
         <v>500</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338" ht="15" spans="1:7">
+    <row r="338" ht="15" hidden="1" spans="1:7">
       <c r="A338" s="6" t="s">
         <v>543</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" hidden="1" spans="1:7">
       <c r="A339" s="6" t="s">
         <v>553</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" hidden="1" spans="1:7">
       <c r="A340" s="6" t="s">
         <v>546</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" hidden="1" spans="1:7">
       <c r="A341" s="6" t="s">
         <v>591</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" hidden="1" spans="1:7">
       <c r="A342" s="6" t="s">
         <v>592</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" hidden="1" spans="1:7">
       <c r="A343" s="6" t="s">
         <v>593</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" hidden="1" spans="1:7">
       <c r="A344" s="6" t="s">
         <v>594</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" hidden="1" spans="1:7">
       <c r="A345" s="6" t="s">
         <v>595</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" hidden="1" spans="1:7">
       <c r="A346" s="6" t="s">
         <v>596</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" hidden="1" spans="1:7">
       <c r="A347" s="6" t="s">
         <v>528</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="348" ht="15" spans="1:7">
+    <row r="348" ht="15" hidden="1" spans="1:7">
       <c r="A348" s="6" t="s">
         <v>541</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="349" ht="15" spans="1:7">
+    <row r="349" ht="15" hidden="1" spans="1:7">
       <c r="A349" s="6" t="s">
         <v>496</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="350" ht="15" spans="1:7">
+    <row r="350" ht="15" hidden="1" spans="1:7">
       <c r="A350" s="6" t="s">
         <v>597</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351" ht="15" spans="1:7">
+    <row r="351" ht="15" hidden="1" spans="1:7">
       <c r="A351" s="6" t="s">
         <v>552</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" hidden="1" spans="1:7">
       <c r="A352" s="6" t="s">
         <v>498</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" hidden="1" spans="1:7">
       <c r="A353" s="6" t="s">
         <v>547</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" hidden="1" spans="1:7">
       <c r="A354" s="6" t="s">
         <v>598</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" hidden="1" spans="1:7">
       <c r="A355" s="6" t="s">
         <v>599</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" hidden="1" spans="1:7">
       <c r="A356" s="6" t="s">
         <v>600</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" hidden="1" spans="1:7">
       <c r="A357" s="6" t="s">
         <v>601</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" hidden="1" spans="1:7">
       <c r="A358" s="6" t="s">
         <v>602</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" hidden="1" spans="1:7">
       <c r="A359" s="6" t="s">
         <v>603</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="360" ht="15" spans="1:7">
+    <row r="360" ht="15" hidden="1" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>545</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="361" ht="15" spans="1:7">
+    <row r="361" ht="15" hidden="1" spans="1:7">
       <c r="A361" s="6" t="s">
         <v>540</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="362" ht="15" spans="1:7">
+    <row r="362" ht="15" hidden="1" spans="1:7">
       <c r="A362" s="6" t="s">
         <v>489</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" hidden="1" spans="1:7">
       <c r="A363" s="6" t="s">
         <v>568</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="364" ht="15" spans="1:7">
+    <row r="364" ht="15" hidden="1" spans="1:7">
       <c r="A364" s="6" t="s">
         <v>604</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="365" ht="15" spans="1:7">
+    <row r="365" ht="15" hidden="1" spans="1:7">
       <c r="A365" s="6" t="s">
         <v>607</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="366" ht="15" spans="1:7">
+    <row r="366" ht="15" hidden="1" spans="1:7">
       <c r="A366" s="6" t="s">
         <v>607</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" hidden="1" spans="1:7">
       <c r="A367" s="6" t="s">
         <v>523</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" hidden="1" spans="1:7">
       <c r="A368" s="6" t="s">
         <v>554</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" hidden="1" spans="1:7">
       <c r="A369" s="6" t="s">
         <v>610</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="370" ht="15" spans="1:7">
+    <row r="370" ht="15" hidden="1" spans="1:7">
       <c r="A370" s="6" t="s">
         <v>612</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="371" ht="15" spans="1:7">
+    <row r="371" ht="15" hidden="1" spans="1:7">
       <c r="A371" s="6" t="s">
         <v>614</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="372" ht="15" spans="1:7">
+    <row r="372" ht="15" hidden="1" spans="1:7">
       <c r="A372" s="6" t="s">
         <v>616</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="373" ht="15" spans="1:7">
+    <row r="373" ht="15" hidden="1" spans="1:7">
       <c r="A373" s="6" t="s">
         <v>618</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" hidden="1" spans="1:7">
       <c r="A374" s="6" t="s">
         <v>619</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="375" ht="15" spans="1:7">
+    <row r="375" ht="15" hidden="1" spans="1:7">
       <c r="A375" s="6" t="s">
         <v>621</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="376" ht="15" spans="1:7">
+    <row r="376" ht="15" hidden="1" spans="1:7">
       <c r="A376" s="6" t="s">
         <v>500</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="377" ht="15" spans="1:7">
+    <row r="377" ht="15" hidden="1" spans="1:7">
       <c r="A377" s="6" t="s">
         <v>528</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" hidden="1" spans="1:7">
       <c r="A378" s="6" t="s">
         <v>623</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" hidden="1" spans="1:7">
       <c r="A379" s="6" t="s">
         <v>626</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="380" ht="15" spans="1:7">
+    <row r="380" ht="15" hidden="1" spans="1:7">
       <c r="A380" s="6" t="s">
         <v>629</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="381" ht="15" spans="1:7">
+    <row r="381" ht="15" hidden="1" spans="1:7">
       <c r="A381" s="6" t="s">
         <v>631</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="382" ht="15" spans="1:7">
+    <row r="382" ht="15" hidden="1" spans="1:7">
       <c r="A382" s="6" t="s">
         <v>633</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" hidden="1" spans="1:7">
       <c r="A383" s="6" t="s">
         <v>635</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" hidden="1" spans="1:7">
       <c r="A384" s="6" t="s">
         <v>637</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="385" ht="15" spans="1:7">
+    <row r="385" ht="15" hidden="1" spans="1:7">
       <c r="A385" s="6" t="s">
         <v>638</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="386" ht="15" spans="1:7">
+    <row r="386" ht="15" hidden="1" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>643</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="387" ht="15" spans="1:7">
+    <row r="387" ht="15" hidden="1" spans="1:7">
       <c r="A387" s="6" t="s">
         <v>644</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" hidden="1" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>646</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" hidden="1" spans="1:7">
       <c r="A389" s="6" t="s">
         <v>647</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" ht="15" spans="1:7">
+    <row r="390" ht="15" hidden="1" spans="1:7">
       <c r="A390" s="6" t="s">
         <v>649</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="391" ht="15" spans="1:7">
+    <row r="391" ht="15" hidden="1" spans="1:7">
       <c r="A391" s="6" t="s">
         <v>649</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="392" ht="15" spans="1:7">
+    <row r="392" ht="15" hidden="1" spans="1:7">
       <c r="A392" s="6" t="s">
         <v>653</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" hidden="1" spans="1:7">
       <c r="A393" s="6" t="s">
         <v>653</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" hidden="1" spans="1:7">
       <c r="A394" s="6" t="s">
         <v>654</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" hidden="1" spans="1:7">
       <c r="A395" s="6" t="s">
         <v>658</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" hidden="1" spans="1:7">
       <c r="A396" s="6" t="s">
         <v>661</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" hidden="1" spans="1:7">
       <c r="A397" s="6" t="s">
         <v>662</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" hidden="1" spans="1:7">
       <c r="A398" s="6" t="s">
         <v>663</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" hidden="1" spans="1:7">
       <c r="A399" s="6" t="s">
         <v>664</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="400" ht="15" spans="1:7">
+    <row r="400" ht="15" hidden="1" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>666</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="401" ht="15" spans="1:7">
+    <row r="401" ht="15" hidden="1" spans="1:7">
       <c r="A401" s="6" t="s">
         <v>666</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="402" ht="15" spans="1:7">
+    <row r="402" ht="15" hidden="1" spans="1:7">
       <c r="A402" s="6" t="s">
         <v>667</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" hidden="1" spans="1:7">
       <c r="A403" s="6" t="s">
         <v>667</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="404" ht="15" spans="1:7">
+    <row r="404" ht="15" hidden="1" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>668</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="405" ht="15" spans="1:7">
+    <row r="405" ht="15" hidden="1" spans="1:7">
       <c r="A405" s="6" t="s">
         <v>671</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="406" ht="15" spans="1:7">
+    <row r="406" ht="15" hidden="1" spans="1:7">
       <c r="A406" s="6" t="s">
         <v>673</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="407" ht="15" spans="1:7">
+    <row r="407" ht="15" hidden="1" spans="1:7">
       <c r="A407" s="6" t="s">
         <v>675</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="408" ht="15" spans="1:7">
+    <row r="408" ht="15" hidden="1" spans="1:7">
       <c r="A408" s="6" t="s">
         <v>675</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="409" ht="15" spans="1:7">
+    <row r="409" ht="15" hidden="1" spans="1:7">
       <c r="A409" s="6" t="s">
         <v>681</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" ht="15" spans="1:7">
+    <row r="410" ht="15" hidden="1" spans="1:7">
       <c r="A410" s="6" t="s">
         <v>681</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="411" ht="15" spans="1:7">
+    <row r="411" ht="15" hidden="1" spans="1:7">
       <c r="A411" s="6" t="s">
         <v>684</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="412" ht="15" spans="1:7">
+    <row r="412" ht="15" hidden="1" spans="1:7">
       <c r="A412" s="6" t="s">
         <v>684</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="413" ht="15" spans="1:7">
+    <row r="413" ht="15" hidden="1" spans="1:7">
       <c r="A413" s="6" t="s">
         <v>688</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="414" ht="15" spans="1:7">
+    <row r="414" ht="15" hidden="1" spans="1:7">
       <c r="A414" s="6" t="s">
         <v>688</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="415" ht="15" spans="1:7">
+    <row r="415" ht="15" hidden="1" spans="1:7">
       <c r="A415" s="6" t="s">
         <v>690</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="416" ht="15" spans="1:7">
+    <row r="416" ht="15" hidden="1" spans="1:7">
       <c r="A416" s="6" t="s">
         <v>690</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="417" ht="15" spans="1:7">
+    <row r="417" ht="15" hidden="1" spans="1:7">
       <c r="A417" s="6" t="s">
         <v>692</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="418" ht="15" spans="1:7">
+    <row r="418" ht="15" hidden="1" spans="1:7">
       <c r="A418" s="6" t="s">
         <v>692</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" ht="15" spans="1:7">
+    <row r="419" ht="15" hidden="1" spans="1:7">
       <c r="A419" s="6" t="s">
         <v>693</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="420" ht="15" spans="1:7">
+    <row r="420" ht="15" hidden="1" spans="1:7">
       <c r="A420" s="6" t="s">
         <v>693</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="421" ht="15" spans="1:7">
+    <row r="421" ht="15" hidden="1" spans="1:7">
       <c r="A421" s="6" t="s">
         <v>694</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="422" ht="15" spans="1:7">
+    <row r="422" ht="15" hidden="1" spans="1:7">
       <c r="A422" s="6" t="s">
         <v>694</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="423" ht="15" spans="1:7">
+    <row r="423" ht="15" hidden="1" spans="1:7">
       <c r="A423" s="6" t="s">
         <v>698</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" hidden="1" spans="1:7">
       <c r="A424" s="6" t="s">
         <v>701</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" hidden="1" spans="1:7">
       <c r="A425" s="6" t="s">
         <v>702</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" hidden="1" spans="1:7">
       <c r="A426" s="6" t="s">
         <v>704</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" hidden="1" spans="1:7">
       <c r="A427" s="6" t="s">
         <v>706</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" hidden="1" spans="1:7">
       <c r="A428" s="6" t="s">
         <v>706</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" hidden="1" spans="1:7">
       <c r="A429" s="6" t="s">
         <v>710</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" hidden="1" spans="1:7">
       <c r="A430" s="6" t="s">
         <v>710</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" hidden="1" spans="1:7">
       <c r="A431" s="6" t="s">
         <v>713</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" hidden="1" spans="1:7">
       <c r="A432" s="6" t="s">
         <v>713</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="433" ht="15" spans="1:7">
+    <row r="433" ht="15" hidden="1" spans="1:7">
       <c r="A433" s="9" t="s">
         <v>715</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="434" ht="15" spans="1:7">
+    <row r="434" ht="15" hidden="1" spans="1:7">
       <c r="A434" s="10" t="s">
         <v>715</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="435" ht="15" spans="1:7">
+    <row r="435" ht="15" hidden="1" spans="1:7">
       <c r="A435" s="10" t="s">
         <v>716</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="436" ht="15" spans="1:7">
+    <row r="436" ht="15" hidden="1" spans="1:7">
       <c r="A436" s="10" t="s">
         <v>716</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="437" ht="15" spans="1:7">
+    <row r="437" ht="15" hidden="1" spans="1:7">
       <c r="A437" s="10" t="s">
         <v>717</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" hidden="1" spans="1:7">
       <c r="A438" s="10" t="s">
         <v>717</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" hidden="1" spans="1:7">
       <c r="A439" s="10" t="s">
         <v>721</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="440" ht="15" spans="1:7">
+    <row r="440" ht="15" hidden="1" spans="1:7">
       <c r="A440" s="10" t="s">
         <v>721</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="441" ht="15" spans="1:7">
+    <row r="441" ht="15" hidden="1" spans="1:7">
       <c r="A441" s="10" t="s">
         <v>722</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" hidden="1" spans="1:7">
       <c r="A442" s="10" t="s">
         <v>722</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" hidden="1" spans="1:7">
       <c r="A443" s="10" t="s">
         <v>723</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" hidden="1" spans="1:7">
       <c r="A444" s="10" t="s">
         <v>723</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="445" ht="15" spans="1:7">
+    <row r="445" ht="15" hidden="1" spans="1:7">
       <c r="A445" s="10" t="s">
         <v>724</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" hidden="1" spans="1:7">
       <c r="A446" s="10" t="s">
         <v>724</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" hidden="1" spans="1:7">
       <c r="A447" s="10" t="s">
         <v>725</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="448" ht="15" spans="1:7">
+    <row r="448" ht="15" hidden="1" spans="1:7">
       <c r="A448" s="10" t="s">
         <v>727</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="449" ht="15" spans="1:7">
+    <row r="449" ht="15" hidden="1" spans="1:7">
       <c r="A449" s="10" t="s">
         <v>727</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="450" ht="15" spans="1:7">
+    <row r="450" ht="15" hidden="1" spans="1:7">
       <c r="A450" s="10" t="s">
         <v>728</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="451" ht="15" spans="1:7">
+    <row r="451" ht="15" hidden="1" spans="1:7">
       <c r="A451" s="10" t="s">
         <v>728</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="452" ht="15" spans="1:7">
+    <row r="452" ht="15" hidden="1" spans="1:7">
       <c r="A452" s="10" t="s">
         <v>729</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="453" ht="15" spans="1:7">
+    <row r="453" ht="15" hidden="1" spans="1:7">
       <c r="A453" s="10" t="s">
         <v>732</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="454" ht="15" spans="1:7">
+    <row r="454" ht="15" hidden="1" spans="1:7">
       <c r="A454" s="10" t="s">
         <v>732</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="455" ht="15" spans="1:7">
+    <row r="455" ht="15" hidden="1" spans="1:7">
       <c r="A455" s="10" t="s">
         <v>735</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" hidden="1" spans="1:7">
       <c r="A456" s="10" t="s">
         <v>735</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="457" ht="15" spans="1:7">
+    <row r="457" ht="15" hidden="1" spans="1:7">
       <c r="A457" s="10" t="s">
         <v>738</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="458" ht="15" spans="1:7">
+    <row r="458" ht="15" hidden="1" spans="1:7">
       <c r="A458" s="10" t="s">
         <v>738</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="459" ht="15" spans="1:7">
+    <row r="459" ht="15" hidden="1" spans="1:7">
       <c r="A459" s="10" t="s">
         <v>739</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="460" ht="15" spans="1:7">
+    <row r="460" ht="15" hidden="1" spans="1:7">
       <c r="A460" s="10" t="s">
         <v>739</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="461" ht="15" spans="1:7">
+    <row r="461" ht="15" hidden="1" spans="1:7">
       <c r="A461" s="10" t="s">
         <v>742</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" hidden="1" spans="1:7">
       <c r="A462" s="10" t="s">
         <v>742</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" hidden="1" spans="1:7">
       <c r="A463" s="10" t="s">
         <v>745</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" hidden="1" spans="1:7">
       <c r="A464" s="10" t="s">
         <v>746</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" hidden="1" spans="1:7">
       <c r="A465" s="10" t="s">
         <v>749</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="466" ht="15" spans="1:7">
+    <row r="466" ht="15" hidden="1" spans="1:7">
       <c r="A466" s="10" t="s">
         <v>751</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="467" ht="15" spans="1:7">
+    <row r="467" ht="15" hidden="1" spans="1:7">
       <c r="A467" s="10" t="s">
         <v>751</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" hidden="1" spans="1:7">
       <c r="A468" s="10" t="s">
         <v>753</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" hidden="1" spans="1:7">
       <c r="A469" s="10" t="s">
         <v>755</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" hidden="1" spans="1:7">
       <c r="A470" s="10" t="s">
         <v>756</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" hidden="1" spans="1:7">
       <c r="A471" s="10" t="s">
         <v>759</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="472" ht="15" spans="1:7">
+    <row r="472" ht="15" hidden="1" spans="1:7">
       <c r="A472" s="10" t="s">
         <v>761</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="473" ht="15" spans="1:7">
+    <row r="473" ht="15" hidden="1" spans="1:7">
       <c r="A473" s="10" t="s">
         <v>761</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="474" ht="15" spans="1:7">
+    <row r="474" ht="15" hidden="1" spans="1:7">
       <c r="A474" s="10" t="s">
         <v>762</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="475" ht="15" spans="1:7">
+    <row r="475" ht="15" hidden="1" spans="1:7">
       <c r="A475" s="10" t="s">
         <v>764</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" hidden="1" spans="1:7">
       <c r="A476" s="10" t="s">
         <v>765</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="477" ht="15" spans="1:7">
+    <row r="477" ht="15" hidden="1" spans="1:7">
       <c r="A477" s="10" t="s">
         <v>766</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="478" ht="15" spans="1:7">
+    <row r="478" ht="15" hidden="1" spans="1:7">
       <c r="A478" s="10" t="s">
         <v>766</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="479" ht="15" spans="1:7">
+    <row r="479" ht="15" hidden="1" spans="1:7">
       <c r="A479" s="10" t="s">
         <v>767</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" hidden="1" spans="1:7">
       <c r="A480" s="10" t="s">
         <v>768</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="481" ht="15" spans="1:7">
+    <row r="481" ht="15" hidden="1" spans="1:7">
       <c r="A481" s="10" t="s">
         <v>771</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="482" ht="15" spans="1:7">
+    <row r="482" ht="15" hidden="1" spans="1:7">
       <c r="A482" s="10" t="s">
         <v>773</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="483" ht="15" spans="1:7">
+    <row r="483" ht="15" hidden="1" spans="1:7">
       <c r="A483" s="10" t="s">
         <v>775</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="484" ht="15" spans="1:7">
+    <row r="484" ht="15" hidden="1" spans="1:7">
       <c r="A484" s="10" t="s">
         <v>775</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" hidden="1" spans="1:7">
       <c r="A485" s="10" t="s">
         <v>776</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" hidden="1" spans="1:7">
       <c r="A486" s="10" t="s">
         <v>777</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" hidden="1" spans="1:7">
       <c r="A487" s="10" t="s">
         <v>777</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="488" ht="15" spans="1:7">
+    <row r="488" ht="15" hidden="1" spans="1:7">
       <c r="A488" s="10" t="s">
         <v>778</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="489" ht="15" spans="1:7">
+    <row r="489" ht="15" hidden="1" spans="1:7">
       <c r="A489" s="10" t="s">
         <v>781</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" hidden="1" spans="1:7">
       <c r="A490" s="10" t="s">
         <v>782</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="491" ht="15" spans="1:7">
+    <row r="491" ht="15" hidden="1" spans="1:7">
       <c r="A491" s="10" t="s">
         <v>762</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="492" ht="15" spans="1:7">
+    <row r="492" ht="15" hidden="1" spans="1:7">
       <c r="A492" s="10" t="s">
         <v>786</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="493" ht="15" spans="1:7">
+    <row r="493" ht="15" hidden="1" spans="1:7">
       <c r="A493" s="10" t="s">
         <v>789</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" hidden="1" spans="1:7">
       <c r="A494" s="10" t="s">
         <v>790</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="495" ht="15" spans="1:7">
+    <row r="495" ht="15" hidden="1" spans="1:7">
       <c r="A495" s="10" t="s">
         <v>791</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="496" ht="15" spans="1:7">
+    <row r="496" ht="15" hidden="1" spans="1:7">
       <c r="A496" s="10" t="s">
         <v>791</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="497" ht="15" spans="1:7">
+    <row r="497" ht="15" hidden="1" spans="1:7">
       <c r="A497" s="10" t="s">
         <v>664</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="498" ht="15" spans="1:7">
+    <row r="498" ht="15" hidden="1" spans="1:7">
       <c r="A498" s="10" t="s">
         <v>793</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" hidden="1" spans="1:7">
       <c r="A499" s="10" t="s">
         <v>795</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" hidden="1" spans="1:7">
       <c r="A500" s="10" t="s">
         <v>798</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="501" ht="15" spans="1:7">
+    <row r="501" ht="15" hidden="1" spans="1:7">
       <c r="A501" s="10" t="s">
         <v>799</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="502" ht="15" spans="1:7">
+    <row r="502" ht="15" hidden="1" spans="1:7">
       <c r="A502" s="10" t="s">
         <v>658</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="503" ht="15" spans="1:7">
+    <row r="503" ht="15" hidden="1" spans="1:7">
       <c r="A503" s="10" t="s">
         <v>800</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="504" ht="15" spans="1:7">
+    <row r="504" ht="15" hidden="1" spans="1:7">
       <c r="A504" s="10" t="s">
         <v>802</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" hidden="1" spans="1:7">
       <c r="A505" s="10" t="s">
         <v>803</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="506" ht="15" spans="1:7">
+    <row r="506" ht="15" hidden="1" spans="1:7">
       <c r="A506" s="10" t="s">
         <v>729</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="507" ht="15" spans="1:7">
+    <row r="507" ht="15" hidden="1" spans="1:7">
       <c r="A507" s="10" t="s">
         <v>804</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="508" ht="15" spans="1:7">
+    <row r="508" ht="15" hidden="1" spans="1:7">
       <c r="A508" s="10" t="s">
         <v>804</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="509" ht="15" spans="1:7">
+    <row r="509" ht="15" hidden="1" spans="1:7">
       <c r="A509" s="10" t="s">
         <v>805</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" hidden="1" spans="1:7">
       <c r="A510" s="10" t="s">
         <v>795</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="511" ht="15" spans="1:7">
+    <row r="511" ht="15" hidden="1" spans="1:7">
       <c r="A511" s="10" t="s">
         <v>807</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="512" ht="15" spans="1:7">
+    <row r="512" ht="15" hidden="1" spans="1:7">
       <c r="A512" s="10" t="s">
         <v>808</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="513" ht="15" spans="1:7">
+    <row r="513" ht="15" hidden="1" spans="1:7">
       <c r="A513" s="10" t="s">
         <v>810</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="514" ht="15" spans="1:7">
+    <row r="514" ht="15" hidden="1" spans="1:7">
       <c r="A514" s="10" t="s">
         <v>803</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="515" ht="15" spans="1:7">
+    <row r="515" ht="15" hidden="1" spans="1:7">
       <c r="A515" s="11" t="s">
         <v>811</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="516" ht="15" spans="1:7">
+    <row r="516" ht="15" hidden="1" spans="1:7">
       <c r="A516" s="11" t="s">
         <v>814</v>
       </c>
@@ -15560,7 +15560,7 @@
       <c r="B517" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C517" s="11" t="s">
+      <c r="C517" s="6" t="s">
         <v>504</v>
       </c>
       <c r="D517" s="6" t="s">
@@ -15576,7 +15576,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="518" ht="15" spans="1:7">
+    <row r="518" hidden="1" spans="1:7">
       <c r="A518" s="11" t="s">
         <v>815</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" ht="15" hidden="1" spans="1:7">
       <c r="A519" s="11" t="s">
         <v>816</v>
       </c>
@@ -15622,14 +15622,14 @@
         <v>813</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" ht="15" spans="1:7">
       <c r="A520" s="11" t="s">
         <v>816</v>
       </c>
       <c r="B520" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C520" s="11" t="s">
+      <c r="C520" s="6" t="s">
         <v>504</v>
       </c>
       <c r="D520" s="11" t="s">
@@ -15645,7 +15645,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" hidden="1" spans="1:7">
       <c r="A521" s="11" t="s">
         <v>817</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" hidden="1" spans="1:7">
       <c r="A522" s="11" t="s">
         <v>818</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="523" ht="15" spans="1:7">
+    <row r="523" ht="15" hidden="1" spans="1:7">
       <c r="A523" s="11" t="s">
         <v>470</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="524" ht="15" spans="1:7">
+    <row r="524" ht="15" hidden="1" spans="1:7">
       <c r="A524" s="11" t="s">
         <v>821</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="525" ht="15" spans="1:7">
+    <row r="525" ht="15" hidden="1" spans="1:7">
       <c r="A525" s="11" t="s">
         <v>475</v>
       </c>
@@ -15767,7 +15767,7 @@
       <c r="B526" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C526" s="11" t="s">
+      <c r="C526" s="6" t="s">
         <v>504</v>
       </c>
       <c r="D526" s="11" t="s">
@@ -15783,7 +15783,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="527" ht="15" spans="1:7">
+    <row r="527" hidden="1" spans="1:7">
       <c r="A527" s="11" t="s">
         <v>825</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="528" ht="15" spans="1:7">
+    <row r="528" ht="15" hidden="1" spans="1:7">
       <c r="A528" s="11" t="s">
         <v>828</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="529" ht="15" spans="1:7">
+    <row r="529" ht="15" hidden="1" spans="1:7">
       <c r="A529" s="11" t="s">
         <v>829</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="530" ht="15" spans="1:7">
+    <row r="530" ht="15" hidden="1" spans="1:7">
       <c r="A530" s="11" t="s">
         <v>831</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="531" ht="15" spans="1:7">
+    <row r="531" ht="15" hidden="1" spans="1:7">
       <c r="A531" s="11" t="s">
         <v>834</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="532" ht="15" spans="1:7">
+    <row r="532" ht="15" hidden="1" spans="1:7">
       <c r="A532" s="11" t="s">
         <v>837</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" hidden="1" spans="1:7">
       <c r="A533" s="11" t="s">
         <v>839</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" hidden="1" spans="1:7">
       <c r="A534" s="11" t="s">
         <v>841</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="535" ht="15" spans="1:7">
+    <row r="535" ht="15" hidden="1" spans="1:7">
       <c r="A535" s="11" t="s">
         <v>843</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="536" ht="15" spans="1:7">
+    <row r="536" ht="15" hidden="1" spans="1:7">
       <c r="A536" s="11" t="s">
         <v>845</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="537" ht="15" spans="1:7">
+    <row r="537" ht="15" hidden="1" spans="1:7">
       <c r="A537" s="11" t="s">
         <v>846</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="538" ht="15" spans="1:7">
+    <row r="538" ht="15" hidden="1" spans="1:7">
       <c r="A538" s="11" t="s">
         <v>847</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="539" ht="15" spans="1:7">
+    <row r="539" ht="15" hidden="1" spans="1:7">
       <c r="A539" s="11" t="s">
         <v>849</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" hidden="1" spans="1:7">
       <c r="A540" s="11" t="s">
         <v>479</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="541" ht="15" spans="1:7">
+    <row r="541" ht="15" hidden="1" spans="1:7">
       <c r="A541" s="11" t="s">
         <v>480</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="542" ht="15" spans="1:7">
+    <row r="542" ht="15" hidden="1" spans="1:7">
       <c r="A542" s="11" t="s">
         <v>480</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="543" ht="15" spans="1:7">
+    <row r="543" ht="15" hidden="1" spans="1:7">
       <c r="A543" s="6" t="s">
         <v>673</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="544" ht="15" spans="1:7">
+    <row r="544" ht="15" hidden="1" spans="1:7">
       <c r="A544" s="10" t="s">
         <v>767</v>
       </c>
@@ -16199,6 +16199,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RADJALA"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G544">
       <sortCondition ref="D1"/>
     </sortState>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -1323,7 +1323,7 @@
     <t>TP-ETT fondamentale (SG41) (a)</t>
   </si>
   <si>
-    <t>MILOUA-2</t>
+    <t>FETHIMILOUA</t>
   </si>
   <si>
     <t>FELLAH</t>
@@ -1479,6 +1479,9 @@
     <t>HANAFI</t>
   </si>
   <si>
+    <t>ND</t>
+  </si>
+  <si>
     <t>Cours-Energie solaire thermique</t>
   </si>
   <si>
@@ -2157,9 +2160,6 @@
     <t>TP-GER-a</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
     <t>CC-EL BIS</t>
   </si>
   <si>
@@ -2433,7 +2433,7 @@
     <t>Cours-TS</t>
   </si>
   <si>
-    <t>TABET</t>
+    <t>TABET DERRAZ</t>
   </si>
   <si>
     <t>TILMATINE</t>
@@ -3266,7 +3266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3290,9 +3290,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3630,11 +3627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3672,7 +3669,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="15" hidden="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15" hidden="1" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3744,7 +3741,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15" hidden="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="15" hidden="1" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3792,7 +3789,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="15" hidden="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3816,7 +3813,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="15" hidden="1" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3840,7 +3837,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="15" hidden="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" ht="15" hidden="1" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3888,7 +3885,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" ht="15" hidden="1" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -3912,7 +3909,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="15" hidden="1" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" ht="15" hidden="1" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3957,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" ht="15" hidden="1" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -3984,7 +3981,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" ht="15" hidden="1" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -4008,7 +4005,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" ht="15" hidden="1" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" ht="15" hidden="1" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
@@ -4056,7 +4053,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" ht="15" hidden="1" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -4080,7 +4077,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" ht="15" hidden="1" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -4104,7 +4101,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" ht="15" hidden="1" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
@@ -4128,7 +4125,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" ht="15" hidden="1" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -4152,7 +4149,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" ht="15" hidden="1" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" ht="15" hidden="1" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>69</v>
       </c>
@@ -4200,7 +4197,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" ht="15" hidden="1" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
@@ -4224,7 +4221,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" ht="15" hidden="1" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
@@ -4248,7 +4245,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" ht="15" hidden="1" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>76</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="15" hidden="1" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
@@ -4294,7 +4291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" ht="15" hidden="1" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
@@ -4317,7 +4314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" ht="15" hidden="1" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>84</v>
       </c>
@@ -4340,7 +4337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" ht="15" hidden="1" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
@@ -4363,7 +4360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" ht="15" hidden="1" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
@@ -4386,7 +4383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" ht="15" hidden="1" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
@@ -4409,7 +4406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" ht="15" hidden="1" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>85</v>
       </c>
@@ -4432,7 +4429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" ht="15" hidden="1" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
@@ -4455,7 +4452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" ht="15" hidden="1" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -4478,7 +4475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" ht="15" hidden="1" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>85</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="15" hidden="1" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>85</v>
       </c>
@@ -4524,7 +4521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" ht="15" hidden="1" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -4547,7 +4544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" ht="15" hidden="1" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" ht="15" hidden="1" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>100</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" ht="15" hidden="1" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>103</v>
       </c>
@@ -4616,7 +4613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" ht="15" hidden="1" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>105</v>
       </c>
@@ -4639,7 +4636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" ht="15" hidden="1" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>105</v>
       </c>
@@ -4662,7 +4659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" ht="15" hidden="1" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>109</v>
       </c>
@@ -4685,7 +4682,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" ht="15" hidden="1" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
@@ -4708,7 +4705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" ht="15" hidden="1" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" ht="15" hidden="1" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" ht="15" hidden="1" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -4777,7 +4774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" ht="15" hidden="1" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>121</v>
       </c>
@@ -4800,7 +4797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" ht="15" hidden="1" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>122</v>
       </c>
@@ -4823,7 +4820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" ht="15" hidden="1" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>124</v>
       </c>
@@ -4846,7 +4843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" ht="15" hidden="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
@@ -4869,7 +4866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" ht="15" hidden="1" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>122</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" ht="15" hidden="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" ht="15" hidden="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>132</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" ht="15" hidden="1" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>134</v>
       </c>
@@ -4961,7 +4958,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" ht="15" hidden="1" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>97</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" ht="15" hidden="1" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>99</v>
       </c>
@@ -5007,7 +5004,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" ht="15" hidden="1" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>138</v>
       </c>
@@ -5030,7 +5027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" ht="15" hidden="1" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>140</v>
       </c>
@@ -5053,7 +5050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" ht="15" hidden="1" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>141</v>
       </c>
@@ -5076,7 +5073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" ht="15" hidden="1" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" ht="15" hidden="1" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -5122,7 +5119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" ht="15" hidden="1" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>148</v>
       </c>
@@ -5145,7 +5142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" ht="15" hidden="1" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -5168,7 +5165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" ht="15" hidden="1" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>153</v>
       </c>
@@ -5191,7 +5188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" ht="15" hidden="1" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -5214,7 +5211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" ht="15" hidden="1" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -5237,7 +5234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" ht="15" hidden="1" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>158</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" ht="15" hidden="1" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>153</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" ht="15" hidden="1" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>161</v>
       </c>
@@ -5306,7 +5303,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" ht="15" hidden="1" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>162</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" ht="15" hidden="1" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>162</v>
       </c>
@@ -5352,7 +5349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" ht="15" hidden="1" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5375,7 +5372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" ht="15" hidden="1" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>167</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" ht="15" hidden="1" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>168</v>
       </c>
@@ -5421,7 +5418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" ht="15" hidden="1" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>169</v>
       </c>
@@ -5444,7 +5441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" ht="15" hidden="1" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>171</v>
       </c>
@@ -5467,7 +5464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" ht="15" hidden="1" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>171</v>
       </c>
@@ -5490,7 +5487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" ht="15" hidden="1" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>172</v>
       </c>
@@ -5513,7 +5510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" ht="15" hidden="1" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>172</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" ht="15" hidden="1" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>173</v>
       </c>
@@ -5559,7 +5556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" ht="15" hidden="1" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>173</v>
       </c>
@@ -5582,7 +5579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" ht="15" hidden="1" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>178</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" ht="15" hidden="1" spans="1:7">
       <c r="A85" s="6" t="s">
         <v>182</v>
       </c>
@@ -5628,7 +5625,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" ht="29.25" spans="1:7">
+    <row r="86" ht="29.25" hidden="1" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>184</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" ht="29.25" spans="1:7">
+    <row r="87" ht="29.25" hidden="1" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>187</v>
       </c>
@@ -5674,7 +5671,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" ht="15" hidden="1" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>189</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" ht="15" hidden="1" spans="1:7">
       <c r="A89" s="6" t="s">
         <v>191</v>
       </c>
@@ -5720,7 +5717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" ht="15" hidden="1" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>192</v>
       </c>
@@ -5743,7 +5740,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" ht="15" hidden="1" spans="1:7">
       <c r="A91" s="6" t="s">
         <v>193</v>
       </c>
@@ -5766,7 +5763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" ht="15" hidden="1" spans="1:7">
       <c r="A92" s="6" t="s">
         <v>194</v>
       </c>
@@ -5789,7 +5786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" ht="15" hidden="1" spans="1:7">
       <c r="A93" s="6" t="s">
         <v>197</v>
       </c>
@@ -5812,7 +5809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" ht="15" hidden="1" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>199</v>
       </c>
@@ -5835,7 +5832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" ht="15" hidden="1" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>200</v>
       </c>
@@ -5858,7 +5855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" ht="15" hidden="1" spans="1:7">
       <c r="A96" s="8" t="s">
         <v>201</v>
       </c>
@@ -5881,7 +5878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" ht="15" hidden="1" spans="1:7">
       <c r="A97" s="8" t="s">
         <v>205</v>
       </c>
@@ -5904,7 +5901,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" ht="15" hidden="1" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>207</v>
       </c>
@@ -5927,7 +5924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" ht="15" hidden="1" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>210</v>
       </c>
@@ -5950,7 +5947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" ht="15" hidden="1" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>212</v>
       </c>
@@ -5973,7 +5970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" ht="15" hidden="1" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>212</v>
       </c>
@@ -5996,7 +5993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" ht="15" hidden="1" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>120</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" ht="15" hidden="1" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>121</v>
       </c>
@@ -6042,7 +6039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" ht="15" hidden="1" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>217</v>
       </c>
@@ -6065,7 +6062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" ht="15" hidden="1" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>221</v>
       </c>
@@ -6088,7 +6085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" ht="15" hidden="1" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>222</v>
       </c>
@@ -6111,7 +6108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" ht="15" hidden="1" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>223</v>
       </c>
@@ -6134,7 +6131,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" ht="15" hidden="1" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>226</v>
       </c>
@@ -6157,7 +6154,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" ht="15" hidden="1" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>228</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" ht="15" hidden="1" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>231</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" ht="15" hidden="1" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>231</v>
       </c>
@@ -6226,7 +6223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" ht="15" hidden="1" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>238</v>
       </c>
@@ -6249,7 +6246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" ht="15" hidden="1" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>238</v>
       </c>
@@ -6272,7 +6269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" ht="15" hidden="1" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>241</v>
       </c>
@@ -6295,7 +6292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" ht="15" hidden="1" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>241</v>
       </c>
@@ -6318,7 +6315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" ht="15" hidden="1" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>245</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" ht="15" hidden="1" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>245</v>
       </c>
@@ -6364,7 +6361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" ht="15" hidden="1" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>246</v>
       </c>
@@ -6387,7 +6384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" ht="15" hidden="1" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>249</v>
       </c>
@@ -6410,7 +6407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" ht="15" hidden="1" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>251</v>
       </c>
@@ -6433,7 +6430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" ht="15" hidden="1" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>251</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" ht="15" hidden="1" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>251</v>
       </c>
@@ -6479,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" ht="15" hidden="1" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>251</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" ht="15" hidden="1" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>253</v>
       </c>
@@ -6525,7 +6522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" ht="15" hidden="1" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>253</v>
       </c>
@@ -6548,7 +6545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" ht="15" hidden="1" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>253</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" ht="15" hidden="1" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>253</v>
       </c>
@@ -6594,7 +6591,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" ht="15" hidden="1" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>257</v>
       </c>
@@ -6617,7 +6614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" ht="15" hidden="1" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>261</v>
       </c>
@@ -6640,14 +6637,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" ht="15" hidden="1" spans="1:7">
       <c r="A130" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D130" s="8" t="s">
@@ -6663,14 +6660,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" ht="15" hidden="1" spans="1:7">
       <c r="A131" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D131" s="7" t="s">
@@ -6686,14 +6683,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" ht="15" hidden="1" spans="1:7">
       <c r="A132" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D132" s="8" t="s">
@@ -6709,14 +6706,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" ht="15" hidden="1" spans="1:7">
       <c r="A133" s="8" t="s">
         <v>270</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D133" s="7" t="s">
@@ -6732,7 +6729,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" ht="15" hidden="1" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>272</v>
       </c>
@@ -6755,7 +6752,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" ht="15" hidden="1" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>275</v>
       </c>
@@ -6778,7 +6775,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" ht="15" hidden="1" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>277</v>
       </c>
@@ -6801,7 +6798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" ht="15" hidden="1" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>278</v>
       </c>
@@ -6824,7 +6821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="1:7">
+    <row r="138" ht="15" hidden="1" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>280</v>
       </c>
@@ -6847,7 +6844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="1:7">
+    <row r="139" ht="15" hidden="1" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>281</v>
       </c>
@@ -6870,7 +6867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" ht="15" hidden="1" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>281</v>
       </c>
@@ -6893,7 +6890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" ht="15" hidden="1" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>283</v>
       </c>
@@ -6916,7 +6913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" ht="15" hidden="1" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>283</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" ht="15" hidden="1" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>284</v>
       </c>
@@ -6962,7 +6959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" ht="15" hidden="1" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>284</v>
       </c>
@@ -6985,7 +6982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" ht="15" hidden="1" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>285</v>
       </c>
@@ -7008,7 +7005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" ht="15" hidden="1" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>285</v>
       </c>
@@ -7031,7 +7028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" ht="15" hidden="1" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>289</v>
       </c>
@@ -7054,7 +7051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" ht="15" hidden="1" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>291</v>
       </c>
@@ -7077,7 +7074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" ht="15" hidden="1" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>293</v>
       </c>
@@ -7100,7 +7097,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" ht="15" hidden="1" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>295</v>
       </c>
@@ -7123,7 +7120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" ht="15" hidden="1" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>297</v>
       </c>
@@ -7146,7 +7143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" ht="15" hidden="1" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>299</v>
       </c>
@@ -7169,7 +7166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" ht="15" hidden="1" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>301</v>
       </c>
@@ -7192,7 +7189,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" ht="15" hidden="1" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>303</v>
       </c>
@@ -7215,7 +7212,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" ht="15" hidden="1" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>305</v>
       </c>
@@ -7238,7 +7235,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" ht="15" hidden="1" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>307</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" ht="15" hidden="1" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>309</v>
       </c>
@@ -7284,7 +7281,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" ht="15" hidden="1" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>311</v>
       </c>
@@ -7307,7 +7304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" ht="15" hidden="1" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>169</v>
       </c>
@@ -7330,7 +7327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" ht="15" hidden="1" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>314</v>
       </c>
@@ -7353,7 +7350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" ht="15" hidden="1" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>316</v>
       </c>
@@ -7376,7 +7373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" ht="15" hidden="1" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>316</v>
       </c>
@@ -7399,7 +7396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" ht="15" hidden="1" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>319</v>
       </c>
@@ -7422,7 +7419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" ht="15" hidden="1" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>70</v>
       </c>
@@ -7445,7 +7442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" ht="15" hidden="1" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>70</v>
       </c>
@@ -7468,7 +7465,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" ht="15" hidden="1" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>321</v>
       </c>
@@ -7491,7 +7488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" ht="15" hidden="1" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>324</v>
       </c>
@@ -7514,7 +7511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" ht="15" hidden="1" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>326</v>
       </c>
@@ -7537,7 +7534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" ht="15" hidden="1" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>328</v>
       </c>
@@ -7560,7 +7557,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" ht="15" hidden="1" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>326</v>
       </c>
@@ -7583,7 +7580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" ht="15" hidden="1" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>329</v>
       </c>
@@ -7606,7 +7603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" ht="15" hidden="1" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>331</v>
       </c>
@@ -7629,7 +7626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" ht="15" hidden="1" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>333</v>
       </c>
@@ -7652,7 +7649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" ht="15" hidden="1" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>336</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" ht="15" hidden="1" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>339</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" ht="15" hidden="1" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>340</v>
       </c>
@@ -7721,7 +7718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" ht="15" hidden="1" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>162</v>
       </c>
@@ -7744,7 +7741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" ht="15" hidden="1" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>342</v>
       </c>
@@ -7767,7 +7764,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" ht="15" hidden="1" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>345</v>
       </c>
@@ -7790,7 +7787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" ht="15" hidden="1" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>346</v>
       </c>
@@ -7813,7 +7810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" ht="15" hidden="1" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>347</v>
       </c>
@@ -7836,7 +7833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" ht="15" hidden="1" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>348</v>
       </c>
@@ -7859,7 +7856,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" ht="15" hidden="1" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>349</v>
       </c>
@@ -7882,14 +7879,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" ht="15" hidden="1" spans="1:7">
       <c r="A184" s="8" t="s">
         <v>349</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>344</v>
       </c>
       <c r="D184" s="8" t="s">
@@ -7905,7 +7902,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" ht="15" hidden="1" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>350</v>
       </c>
@@ -7928,7 +7925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" ht="15" hidden="1" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>350</v>
       </c>
@@ -7951,7 +7948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" ht="15" hidden="1" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>354</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" ht="15" hidden="1" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>357</v>
       </c>
@@ -7997,7 +7994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" ht="15" hidden="1" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>358</v>
       </c>
@@ -8020,7 +8017,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" ht="15" hidden="1" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>360</v>
       </c>
@@ -8043,7 +8040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" ht="15" hidden="1" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>362</v>
       </c>
@@ -8066,7 +8063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" ht="15" hidden="1" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>364</v>
       </c>
@@ -8089,7 +8086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" ht="15" hidden="1" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>345</v>
       </c>
@@ -8112,7 +8109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" ht="15" hidden="1" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>346</v>
       </c>
@@ -8135,7 +8132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" ht="15" hidden="1" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>360</v>
       </c>
@@ -8158,14 +8155,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" ht="15" hidden="1" spans="1:7">
       <c r="A196" s="8" t="s">
         <v>366</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D196" s="8" t="s">
@@ -8181,14 +8178,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" ht="15" hidden="1" spans="1:7">
       <c r="A197" s="8" t="s">
         <v>368</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D197" s="7" t="s">
@@ -8204,14 +8201,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" ht="15" hidden="1" spans="1:7">
       <c r="A198" s="8" t="s">
         <v>371</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D198" s="8" t="s">
@@ -8227,7 +8224,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" ht="15" hidden="1" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>373</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" ht="15" hidden="1" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>375</v>
       </c>
@@ -8273,7 +8270,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" ht="15" hidden="1" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>377</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" ht="15" hidden="1" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>381</v>
       </c>
@@ -8319,7 +8316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" ht="15" hidden="1" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>384</v>
       </c>
@@ -8342,7 +8339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" ht="15" hidden="1" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>386</v>
       </c>
@@ -8365,7 +8362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" ht="15" hidden="1" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>388</v>
       </c>
@@ -8388,7 +8385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" ht="15" hidden="1" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>391</v>
       </c>
@@ -8411,7 +8408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" ht="15" hidden="1" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>392</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" ht="15" hidden="1" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>393</v>
       </c>
@@ -8457,7 +8454,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" ht="15" hidden="1" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>395</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" ht="15" hidden="1" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>393</v>
       </c>
@@ -8503,7 +8500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" ht="15" hidden="1" spans="1:7">
       <c r="A211" s="6" t="s">
         <v>396</v>
       </c>
@@ -8526,7 +8523,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" ht="15" hidden="1" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>399</v>
       </c>
@@ -8549,7 +8546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" ht="15" hidden="1" spans="1:7">
       <c r="A213" s="6" t="s">
         <v>399</v>
       </c>
@@ -8572,7 +8569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" ht="15" hidden="1" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>402</v>
       </c>
@@ -8595,7 +8592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" ht="15" hidden="1" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>404</v>
       </c>
@@ -8618,7 +8615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" ht="15" hidden="1" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>407</v>
       </c>
@@ -8641,7 +8638,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" ht="15" hidden="1" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>161</v>
       </c>
@@ -8664,7 +8661,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" ht="15" hidden="1" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>404</v>
       </c>
@@ -8687,7 +8684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" ht="15" hidden="1" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>408</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" ht="15" hidden="1" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>410</v>
       </c>
@@ -8733,7 +8730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" ht="15" hidden="1" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>410</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" ht="15" hidden="1" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>414</v>
       </c>
@@ -8779,7 +8776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" ht="15" hidden="1" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>414</v>
       </c>
@@ -8802,7 +8799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" ht="15" hidden="1" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>417</v>
       </c>
@@ -8825,7 +8822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" ht="15" hidden="1" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>417</v>
       </c>
@@ -8848,7 +8845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" ht="15" hidden="1" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>419</v>
       </c>
@@ -8871,7 +8868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" ht="15" hidden="1" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>419</v>
       </c>
@@ -8894,7 +8891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" ht="15" hidden="1" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>253</v>
       </c>
@@ -8917,7 +8914,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" ht="15" hidden="1" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>421</v>
       </c>
@@ -8940,7 +8937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" ht="15" hidden="1" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>421</v>
       </c>
@@ -8963,7 +8960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" ht="15" hidden="1" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>422</v>
       </c>
@@ -8986,7 +8983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" ht="15" hidden="1" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>424</v>
       </c>
@@ -9009,7 +9006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" ht="15" hidden="1" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>424</v>
       </c>
@@ -9032,7 +9029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" ht="15" hidden="1" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>428</v>
       </c>
@@ -9055,7 +9052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" ht="15" spans="1:7">
+    <row r="235" ht="15" hidden="1" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>428</v>
       </c>
@@ -9078,7 +9075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" ht="15" spans="1:7">
+    <row r="236" ht="15" hidden="1" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>429</v>
       </c>
@@ -9101,7 +9098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="237" ht="15" spans="1:7">
+    <row r="237" ht="15" hidden="1" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>64</v>
       </c>
@@ -9124,7 +9121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" ht="15" hidden="1" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>432</v>
       </c>
@@ -9147,7 +9144,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" ht="15" hidden="1" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>434</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" ht="15" hidden="1" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>435</v>
       </c>
@@ -9193,7 +9190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" ht="15" hidden="1" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>436</v>
       </c>
@@ -9216,7 +9213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" ht="15" hidden="1" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>438</v>
       </c>
@@ -9239,7 +9236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" ht="15" hidden="1" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>440</v>
       </c>
@@ -9262,7 +9259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" ht="15" hidden="1" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>442</v>
       </c>
@@ -9285,7 +9282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" ht="15" hidden="1" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>444</v>
       </c>
@@ -9308,7 +9305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" ht="15" hidden="1" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>444</v>
       </c>
@@ -9331,7 +9328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" ht="15" hidden="1" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>449</v>
       </c>
@@ -9354,7 +9351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" ht="15" hidden="1" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>451</v>
       </c>
@@ -9377,7 +9374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" ht="15" hidden="1" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>293</v>
       </c>
@@ -9400,7 +9397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" ht="15" hidden="1" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>295</v>
       </c>
@@ -9423,7 +9420,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" ht="15" hidden="1" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>453</v>
       </c>
@@ -9446,7 +9443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" ht="15" hidden="1" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>454</v>
       </c>
@@ -9469,7 +9466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" ht="15" hidden="1" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>456</v>
       </c>
@@ -9492,7 +9489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" ht="15" hidden="1" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>457</v>
       </c>
@@ -9515,7 +9512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" ht="15" hidden="1" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>458</v>
       </c>
@@ -9538,7 +9535,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" ht="15" hidden="1" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>459</v>
       </c>
@@ -9561,7 +9558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" ht="15" hidden="1" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>461</v>
       </c>
@@ -9584,7 +9581,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" ht="15" hidden="1" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>461</v>
       </c>
@@ -9607,7 +9604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" ht="15" hidden="1" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>459</v>
       </c>
@@ -9630,7 +9627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" ht="15" hidden="1" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>463</v>
       </c>
@@ -9653,7 +9650,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" ht="15" hidden="1" spans="1:7">
       <c r="A261" s="6" t="s">
         <v>465</v>
       </c>
@@ -9676,7 +9673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" ht="15" hidden="1" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>468</v>
       </c>
@@ -9699,7 +9696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" ht="15" hidden="1" spans="1:7">
       <c r="A263" s="6" t="s">
         <v>336</v>
       </c>
@@ -9722,7 +9719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" ht="15" hidden="1" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>339</v>
       </c>
@@ -9745,7 +9742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" ht="15" hidden="1" spans="1:7">
       <c r="A265" s="6" t="s">
         <v>471</v>
       </c>
@@ -9768,7 +9765,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" ht="15" hidden="1" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>473</v>
       </c>
@@ -9791,7 +9788,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" ht="15" hidden="1" spans="1:7">
       <c r="A267" s="6" t="s">
         <v>475</v>
       </c>
@@ -9814,7 +9811,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" ht="15" hidden="1" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>336</v>
       </c>
@@ -9837,7 +9834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" ht="15" hidden="1" spans="1:7">
       <c r="A269" s="6" t="s">
         <v>339</v>
       </c>
@@ -9860,7 +9857,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" ht="15" hidden="1" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>477</v>
       </c>
@@ -9883,7 +9880,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" ht="15" hidden="1" spans="1:7">
       <c r="A271" s="6" t="s">
         <v>478</v>
       </c>
@@ -9906,7 +9903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" ht="15" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>479</v>
       </c>
@@ -9929,7 +9926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" ht="15" spans="1:7">
       <c r="A273" s="6" t="s">
         <v>479</v>
       </c>
@@ -9937,7 +9934,7 @@
         <v>480</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>25</v>
@@ -9952,15 +9949,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" ht="15" hidden="1" spans="1:7">
       <c r="A274" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>10</v>
@@ -9975,15 +9972,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" ht="15" hidden="1" spans="1:7">
       <c r="A275" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C275" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>16</v>
@@ -9998,15 +9995,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" ht="15" hidden="1" spans="1:7">
       <c r="A276" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>10</v>
@@ -10021,15 +10018,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" ht="15" hidden="1" spans="1:7">
       <c r="A277" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>16</v>
@@ -10044,15 +10041,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" ht="15" hidden="1" spans="1:7">
       <c r="A278" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>33</v>
@@ -10067,15 +10064,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" ht="15" hidden="1" spans="1:7">
       <c r="A279" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>19</v>
@@ -10090,15 +10087,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" ht="15" hidden="1" spans="1:7">
       <c r="A280" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>460</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>16</v>
@@ -10113,15 +10110,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" ht="15" hidden="1" spans="1:7">
       <c r="A281" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>240</v>
@@ -10136,15 +10133,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" ht="15" hidden="1" spans="1:7">
       <c r="A282" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>242</v>
@@ -10159,15 +10156,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" ht="15" hidden="1" spans="1:7">
       <c r="A283" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>234</v>
@@ -10182,15 +10179,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" ht="15" hidden="1" spans="1:7">
       <c r="A284" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>237</v>
@@ -10205,15 +10202,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" ht="15" hidden="1" spans="1:7">
       <c r="A285" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>10</v>
@@ -10228,15 +10225,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" ht="15" hidden="1" spans="1:7">
       <c r="A286" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>16</v>
@@ -10251,15 +10248,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" ht="15" hidden="1" spans="1:7">
       <c r="A287" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>33</v>
@@ -10274,15 +10271,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" ht="15" hidden="1" spans="1:7">
       <c r="A288" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B288" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B288" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="C288" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>19</v>
@@ -10297,15 +10294,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" ht="15" hidden="1" spans="1:7">
       <c r="A289" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>10</v>
@@ -10320,15 +10317,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" ht="15" hidden="1" spans="1:7">
       <c r="A290" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>25</v>
@@ -10343,15 +10340,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" ht="15" hidden="1" spans="1:7">
       <c r="A291" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B291" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>51</v>
@@ -10366,15 +10363,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" ht="15" hidden="1" spans="1:7">
       <c r="A292" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>10</v>
@@ -10389,15 +10386,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" ht="15" hidden="1" spans="1:7">
       <c r="A293" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>16</v>
@@ -10412,15 +10409,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" ht="15" hidden="1" spans="1:7">
       <c r="A294" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>33</v>
@@ -10435,15 +10432,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" ht="15" hidden="1" spans="1:7">
       <c r="A295" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C295" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>19</v>
@@ -10458,7 +10455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" ht="15" hidden="1" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>173</v>
       </c>
@@ -10466,7 +10463,7 @@
         <v>174</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D296" s="7" t="s">
         <v>19</v>
@@ -10481,7 +10478,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" ht="15" hidden="1" spans="1:7">
       <c r="A297" s="6" t="s">
         <v>173</v>
       </c>
@@ -10489,7 +10486,7 @@
         <v>177</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D297" s="7" t="s">
         <v>25</v>
@@ -10504,15 +10501,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" ht="15" hidden="1" spans="1:7">
       <c r="A298" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>33</v>
@@ -10527,15 +10524,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" ht="15" hidden="1" spans="1:7">
       <c r="A299" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>19</v>
@@ -10550,15 +10547,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" ht="15" hidden="1" spans="1:7">
       <c r="A300" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>25</v>
@@ -10573,15 +10570,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" ht="15" hidden="1" spans="1:7">
       <c r="A301" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>25</v>
@@ -10596,7 +10593,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" ht="15" hidden="1" spans="1:7">
       <c r="A302" s="6" t="s">
         <v>189</v>
       </c>
@@ -10604,7 +10601,7 @@
         <v>77</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>10</v>
@@ -10619,7 +10616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" ht="15" hidden="1" spans="1:7">
       <c r="A303" s="6" t="s">
         <v>191</v>
       </c>
@@ -10627,7 +10624,7 @@
         <v>81</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>16</v>
@@ -10642,7 +10639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" ht="15" hidden="1" spans="1:7">
       <c r="A304" s="6" t="s">
         <v>192</v>
       </c>
@@ -10650,7 +10647,7 @@
         <v>77</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D304" s="7" t="s">
         <v>10</v>
@@ -10665,7 +10662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" ht="15" hidden="1" spans="1:7">
       <c r="A305" s="6" t="s">
         <v>193</v>
       </c>
@@ -10673,7 +10670,7 @@
         <v>81</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>16</v>
@@ -10688,15 +10685,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" ht="15" hidden="1" spans="1:7">
       <c r="A306" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>33</v>
@@ -10711,7 +10708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" ht="15" hidden="1" spans="1:7">
       <c r="A307" s="6" t="s">
         <v>392</v>
       </c>
@@ -10719,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D307" s="7" t="s">
         <v>19</v>
@@ -10734,7 +10731,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" ht="15" hidden="1" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>395</v>
       </c>
@@ -10742,7 +10739,7 @@
         <v>27</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>10</v>
@@ -10757,15 +10754,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" ht="15" hidden="1" spans="1:7">
       <c r="A309" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>19</v>
@@ -10780,15 +10777,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" ht="15" hidden="1" spans="1:7">
       <c r="A310" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C310" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>25</v>
@@ -10803,15 +10800,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" ht="15" hidden="1" spans="1:7">
       <c r="A311" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C311" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="D311" s="7" t="s">
         <v>51</v>
@@ -10826,15 +10823,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" ht="15" hidden="1" spans="1:7">
       <c r="A312" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>10</v>
@@ -10849,15 +10846,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" ht="15" hidden="1" spans="1:7">
       <c r="A313" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D313" s="7" t="s">
         <v>16</v>
@@ -10872,15 +10869,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" ht="15" hidden="1" spans="1:7">
       <c r="A314" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>25</v>
@@ -10895,15 +10892,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" ht="15" hidden="1" spans="1:7">
       <c r="A315" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D315" s="7" t="s">
         <v>51</v>
@@ -10918,15 +10915,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" ht="15" hidden="1" spans="1:7">
       <c r="A316" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D316" s="7" t="s">
         <v>10</v>
@@ -10941,15 +10938,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" ht="15" hidden="1" spans="1:7">
       <c r="A317" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>33</v>
@@ -10958,21 +10955,21 @@
         <v>49</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G317" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" ht="15" hidden="1" spans="1:7">
       <c r="A318" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>33</v>
@@ -10987,15 +10984,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" ht="15" hidden="1" spans="1:7">
       <c r="A319" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>19</v>
@@ -11010,15 +11007,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" ht="15" hidden="1" spans="1:7">
       <c r="A320" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>33</v>
@@ -11033,15 +11030,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" ht="15" hidden="1" spans="1:7">
       <c r="A321" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C321" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>51</v>
@@ -11050,21 +11047,21 @@
         <v>56</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G321" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" ht="15" hidden="1" spans="1:7">
       <c r="A322" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>10</v>
@@ -11073,21 +11070,21 @@
         <v>56</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G322" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" ht="15" hidden="1" spans="1:7">
       <c r="A323" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>16</v>
@@ -11096,21 +11093,21 @@
         <v>56</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G323" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" ht="15" hidden="1" spans="1:7">
       <c r="A324" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C324" s="10" t="s">
         <v>546</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>19</v>
@@ -11119,21 +11116,21 @@
         <v>56</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G324" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" ht="15" hidden="1" spans="1:7">
       <c r="A325" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D325" s="7" t="s">
         <v>25</v>
@@ -11142,21 +11139,21 @@
         <v>56</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G325" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" ht="15" hidden="1" spans="1:7">
       <c r="A326" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C326" s="10" t="s">
-        <v>546</v>
+      <c r="C326" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D326" s="7" t="s">
         <v>10</v>
@@ -11165,21 +11162,21 @@
         <v>56</v>
       </c>
       <c r="F326" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G326" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" ht="15" hidden="1" spans="1:7">
       <c r="A327" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C327" s="10" t="s">
-        <v>546</v>
+      <c r="C327" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D327" s="7" t="s">
         <v>16</v>
@@ -11188,21 +11185,21 @@
         <v>56</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G327" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" ht="15" hidden="1" spans="1:7">
       <c r="A328" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>19</v>
@@ -11217,15 +11214,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" ht="15" hidden="1" spans="1:7">
       <c r="A329" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C329" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>25</v>
@@ -11240,15 +11237,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" ht="15" hidden="1" spans="1:7">
       <c r="A330" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>10</v>
@@ -11263,15 +11260,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" ht="15" hidden="1" spans="1:7">
       <c r="A331" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>16</v>
@@ -11286,15 +11283,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" ht="15" hidden="1" spans="1:7">
       <c r="A332" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>19</v>
@@ -11309,15 +11306,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" ht="15" hidden="1" spans="1:7">
       <c r="A333" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>10</v>
@@ -11326,21 +11323,21 @@
         <v>20</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G333" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" ht="15" hidden="1" spans="1:7">
       <c r="A334" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>16</v>
@@ -11349,21 +11346,21 @@
         <v>20</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G334" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" ht="15" hidden="1" spans="1:7">
       <c r="A335" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>10</v>
@@ -11378,15 +11375,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" ht="15" hidden="1" spans="1:7">
       <c r="A336" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>16</v>
@@ -11401,15 +11398,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" ht="15" hidden="1" spans="1:7">
       <c r="A337" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>25</v>
@@ -11424,7 +11421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" ht="15" hidden="1" spans="1:7">
       <c r="A338" s="6" t="s">
         <v>201</v>
       </c>
@@ -11432,7 +11429,7 @@
         <v>202</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D338" s="7" t="s">
         <v>10</v>
@@ -11441,13 +11438,13 @@
         <v>43</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G338" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" ht="15" hidden="1" spans="1:7">
       <c r="A339" s="6" t="s">
         <v>205</v>
       </c>
@@ -11455,7 +11452,7 @@
         <v>206</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D339" s="7" t="s">
         <v>16</v>
@@ -11464,21 +11461,21 @@
         <v>43</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G339" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" ht="15" hidden="1" spans="1:7">
       <c r="A340" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D340" s="7" t="s">
         <v>33</v>
@@ -11493,15 +11490,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" ht="15" hidden="1" spans="1:7">
       <c r="A341" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B341" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D341" s="7" t="s">
         <v>19</v>
@@ -11516,15 +11513,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" ht="15" hidden="1" spans="1:7">
       <c r="A342" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C342" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="B342" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D342" s="7" t="s">
         <v>25</v>
@@ -11539,15 +11536,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" ht="15" hidden="1" spans="1:7">
       <c r="A343" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B343" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>10</v>
@@ -11562,15 +11559,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" ht="15" hidden="1" spans="1:7">
       <c r="A344" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D344" s="7" t="s">
         <v>16</v>
@@ -11585,15 +11582,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" ht="15" hidden="1" spans="1:7">
       <c r="A345" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B345" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D345" s="7" t="s">
         <v>10</v>
@@ -11608,15 +11605,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" ht="15" hidden="1" spans="1:7">
       <c r="A346" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D346" s="7" t="s">
         <v>16</v>
@@ -11631,15 +11628,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" ht="15" hidden="1" spans="1:7">
       <c r="A347" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D347" s="7" t="s">
         <v>19</v>
@@ -11654,15 +11651,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" ht="15" hidden="1" spans="1:7">
       <c r="A348" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C348" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="B348" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>25</v>
@@ -11677,15 +11674,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" ht="15" hidden="1" spans="1:7">
       <c r="A349" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D349" s="7" t="s">
         <v>19</v>
@@ -11700,15 +11697,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" ht="15" hidden="1" spans="1:7">
       <c r="A350" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>33</v>
@@ -11723,15 +11720,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" ht="15" hidden="1" spans="1:7">
       <c r="A351" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>10</v>
@@ -11746,15 +11743,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" ht="15" hidden="1" spans="1:7">
       <c r="A352" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>10</v>
@@ -11769,15 +11766,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" ht="15" hidden="1" spans="1:7">
       <c r="A353" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C353" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="D353" s="7" t="s">
         <v>10</v>
@@ -11792,15 +11789,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" ht="15" hidden="1" spans="1:7">
       <c r="A354" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D354" s="7" t="s">
         <v>25</v>
@@ -11815,15 +11812,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" ht="15" hidden="1" spans="1:7">
       <c r="A355" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D355" s="7" t="s">
         <v>51</v>
@@ -11838,15 +11835,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" ht="15" hidden="1" spans="1:7">
       <c r="A356" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D356" s="7" t="s">
         <v>10</v>
@@ -11861,15 +11858,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" ht="15" hidden="1" spans="1:7">
       <c r="A357" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D357" s="7" t="s">
         <v>16</v>
@@ -11884,15 +11881,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" ht="15" hidden="1" spans="1:7">
       <c r="A358" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D358" s="7" t="s">
         <v>25</v>
@@ -11907,7 +11904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" ht="15" hidden="1" spans="1:7">
       <c r="A359" s="6" t="s">
         <v>221</v>
       </c>
@@ -11915,7 +11912,7 @@
         <v>218</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D359" s="7" t="s">
         <v>10</v>
@@ -11930,7 +11927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" ht="15" hidden="1" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>217</v>
       </c>
@@ -11938,7 +11935,7 @@
         <v>218</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D360" s="7" t="s">
         <v>16</v>
@@ -11953,15 +11950,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" ht="15" hidden="1" spans="1:7">
       <c r="A361" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D361" s="7" t="s">
         <v>25</v>
@@ -11976,15 +11973,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" ht="15" hidden="1" spans="1:7">
       <c r="A362" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B362" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D362" s="7" t="s">
         <v>25</v>
@@ -11999,15 +11996,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" ht="15" hidden="1" spans="1:7">
       <c r="A363" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>33</v>
@@ -12022,15 +12019,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" ht="15" hidden="1" spans="1:7">
       <c r="A364" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>19</v>
@@ -12045,15 +12042,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" ht="15" hidden="1" spans="1:7">
       <c r="A365" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>25</v>
@@ -12068,15 +12065,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" ht="15" hidden="1" spans="1:7">
       <c r="A366" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D366" s="7" t="s">
         <v>10</v>
@@ -12091,15 +12088,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" ht="15" hidden="1" spans="1:7">
       <c r="A367" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C367" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>16</v>
@@ -12114,15 +12111,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" ht="15" hidden="1" spans="1:7">
       <c r="A368" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D368" s="7" t="s">
         <v>19</v>
@@ -12131,21 +12128,21 @@
         <v>49</v>
       </c>
       <c r="F368" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G368" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" ht="15" hidden="1" spans="1:7">
       <c r="A369" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D369" s="7" t="s">
         <v>25</v>
@@ -12154,21 +12151,21 @@
         <v>49</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G369" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" ht="15" hidden="1" spans="1:7">
       <c r="A370" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D370" s="7" t="s">
         <v>33</v>
@@ -12177,21 +12174,21 @@
         <v>43</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G370" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" ht="15" hidden="1" spans="1:7">
       <c r="A371" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D371" s="7" t="s">
         <v>19</v>
@@ -12206,15 +12203,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" ht="15" hidden="1" spans="1:7">
       <c r="A372" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>19</v>
@@ -12229,15 +12226,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" ht="15" hidden="1" spans="1:7">
       <c r="A373" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D373" s="7" t="s">
         <v>16</v>
@@ -12252,15 +12249,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" ht="15" hidden="1" spans="1:7">
       <c r="A374" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D374" s="7" t="s">
         <v>16</v>
@@ -12275,15 +12272,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" ht="15" hidden="1" spans="1:7">
       <c r="A375" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D375" s="7" t="s">
         <v>25</v>
@@ -12298,15 +12295,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" ht="15" hidden="1" spans="1:7">
       <c r="A376" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C376" s="8" t="s">
-        <v>621</v>
+        <v>626</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>19</v>
@@ -12315,21 +12312,21 @@
         <v>56</v>
       </c>
       <c r="F376" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G376" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" ht="15" hidden="1" spans="1:7">
       <c r="A377" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>621</v>
+        <v>628</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="D377" s="8" t="s">
         <v>25</v>
@@ -12338,21 +12335,21 @@
         <v>56</v>
       </c>
       <c r="F377" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G377" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" ht="15" hidden="1" spans="1:7">
       <c r="A378" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="C378" s="8" t="s">
-        <v>621</v>
+        <v>630</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="D378" s="7" t="s">
         <v>19</v>
@@ -12367,15 +12364,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" ht="15" hidden="1" spans="1:7">
       <c r="A379" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B379" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="C379" s="8" t="s">
-        <v>621</v>
+      <c r="C379" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>10</v>
@@ -12390,15 +12387,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="380" ht="15" spans="1:7">
+    <row r="380" ht="15" hidden="1" spans="1:7">
       <c r="A380" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="C380" s="8" t="s">
-        <v>621</v>
+        <v>633</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="D380" s="7" t="s">
         <v>16</v>
@@ -12413,15 +12410,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="381" ht="15" spans="1:7">
+    <row r="381" ht="15" hidden="1" spans="1:7">
       <c r="A381" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>10</v>
@@ -12430,44 +12427,44 @@
         <v>56</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="382" ht="15" spans="1:7">
+    <row r="382" ht="15" hidden="1" spans="1:7">
       <c r="A382" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="D382" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D382" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E382" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="383" ht="15" spans="1:7">
+    <row r="383" ht="15" hidden="1" spans="1:7">
       <c r="A383" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>19</v>
@@ -12482,15 +12479,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" ht="15" spans="1:7">
+    <row r="384" ht="15" hidden="1" spans="1:7">
       <c r="A384" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>25</v>
@@ -12505,15 +12502,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" ht="15" hidden="1" spans="1:7">
       <c r="A385" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>51</v>
@@ -12528,7 +12525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" ht="15" hidden="1" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>253</v>
       </c>
@@ -12536,7 +12533,7 @@
         <v>254</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D386" s="7" t="s">
         <v>19</v>
@@ -12551,7 +12548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" ht="15" hidden="1" spans="1:7">
       <c r="A387" s="6" t="s">
         <v>477</v>
       </c>
@@ -12559,7 +12556,7 @@
         <v>77</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D387" s="7" t="s">
         <v>10</v>
@@ -12574,7 +12571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" ht="15" hidden="1" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>478</v>
       </c>
@@ -12582,7 +12579,7 @@
         <v>81</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>16</v>
@@ -12597,15 +12594,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" ht="15" hidden="1" spans="1:7">
       <c r="A389" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C389" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="B389" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>19</v>
@@ -12620,15 +12617,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" ht="15" hidden="1" spans="1:7">
       <c r="A390" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>25</v>
@@ -12643,7 +12640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" ht="15" hidden="1" spans="1:7">
       <c r="A391" s="6" t="s">
         <v>251</v>
       </c>
@@ -12651,7 +12648,7 @@
         <v>252</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>19</v>
@@ -12666,15 +12663,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" ht="15" hidden="1" spans="1:7">
       <c r="A392" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>19</v>
@@ -12689,15 +12686,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" ht="15" hidden="1" spans="1:7">
       <c r="A393" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C393" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="B393" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>19</v>
@@ -12712,15 +12709,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" ht="15" hidden="1" spans="1:7">
       <c r="A394" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D394" s="7" t="s">
         <v>25</v>
@@ -12735,15 +12732,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" ht="15" hidden="1" spans="1:7">
       <c r="A395" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>650</v>
+        <v>657</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="D395" s="7" t="s">
         <v>19</v>
@@ -12752,21 +12749,21 @@
         <v>20</v>
       </c>
       <c r="F395" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G395" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" ht="15" hidden="1" spans="1:7">
       <c r="A396" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>25</v>
@@ -12775,21 +12772,21 @@
         <v>20</v>
       </c>
       <c r="F396" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G396" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" ht="15" hidden="1" spans="1:7">
       <c r="A397" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>650</v>
+        <v>661</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>10</v>
@@ -12804,15 +12801,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" ht="15" hidden="1" spans="1:7">
       <c r="A398" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C398" s="8" t="s">
-        <v>650</v>
+      <c r="C398" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>16</v>
@@ -12827,7 +12824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" ht="15" hidden="1" spans="1:7">
       <c r="A399" s="6" t="s">
         <v>168</v>
       </c>
@@ -12835,7 +12832,7 @@
         <v>166</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>19</v>
@@ -12850,7 +12847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" ht="15" hidden="1" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>167</v>
       </c>
@@ -12858,7 +12855,7 @@
         <v>166</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D400" s="7" t="s">
         <v>10</v>
@@ -12873,7 +12870,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" ht="15" hidden="1" spans="1:7">
       <c r="A401" s="6" t="s">
         <v>165</v>
       </c>
@@ -12881,7 +12878,7 @@
         <v>166</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>16</v>
@@ -12896,15 +12893,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" ht="15" hidden="1" spans="1:7">
       <c r="A402" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>25</v>
@@ -12919,15 +12916,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" ht="15" hidden="1" spans="1:7">
       <c r="A403" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B403" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D403" s="7" t="s">
         <v>10</v>
@@ -12942,15 +12939,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" ht="15" hidden="1" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B404" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C404" s="10" t="s">
-        <v>665</v>
+      <c r="C404" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>10</v>
@@ -12965,15 +12962,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" ht="15" hidden="1" spans="1:7">
       <c r="A405" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C405" s="10" t="s">
-        <v>665</v>
+      <c r="C405" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>16</v>
@@ -12988,15 +12985,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" ht="15" hidden="1" spans="1:7">
       <c r="A406" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C406" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="B406" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="C406" s="10" t="s">
-        <v>665</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>33</v>
@@ -13011,15 +13008,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" ht="15" hidden="1" spans="1:7">
       <c r="A407" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C407" s="10" t="s">
-        <v>665</v>
+        <v>670</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>19</v>
@@ -13034,15 +13031,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" ht="15" hidden="1" spans="1:7">
       <c r="A408" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C408" s="10" t="s">
-        <v>665</v>
+        <v>672</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>25</v>
@@ -13057,15 +13054,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" ht="15" hidden="1" spans="1:7">
       <c r="A409" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="C409" s="10" t="s">
-        <v>665</v>
+        <v>626</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>10</v>
@@ -13074,21 +13071,21 @@
         <v>43</v>
       </c>
       <c r="F409" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G409" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" ht="15" hidden="1" spans="1:7">
       <c r="A410" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="C410" s="10" t="s">
-        <v>665</v>
+        <v>628</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>16</v>
@@ -13097,21 +13094,21 @@
         <v>43</v>
       </c>
       <c r="F410" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G410" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" ht="15" hidden="1" spans="1:7">
       <c r="A411" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>25</v>
@@ -13126,15 +13123,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" ht="15" hidden="1" spans="1:7">
       <c r="A412" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C412" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="B412" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>676</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>10</v>
@@ -13149,15 +13146,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" ht="15" hidden="1" spans="1:7">
       <c r="A413" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>33</v>
@@ -13172,15 +13169,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" ht="15" hidden="1" spans="1:7">
       <c r="A414" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>19</v>
@@ -13195,15 +13192,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" ht="15" hidden="1" spans="1:7">
       <c r="A415" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>33</v>
@@ -13218,15 +13215,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" ht="15" hidden="1" spans="1:7">
       <c r="A416" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C416" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="B416" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>19</v>
@@ -13241,15 +13238,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" ht="15" hidden="1" spans="1:7">
       <c r="A417" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C417" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="B417" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>25</v>
@@ -13264,15 +13261,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" ht="15" hidden="1" spans="1:7">
       <c r="A418" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>33</v>
@@ -13287,7 +13284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" ht="15" hidden="1" spans="1:7">
       <c r="A419" s="6" t="s">
         <v>138</v>
       </c>
@@ -13295,7 +13292,7 @@
         <v>77</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>10</v>
@@ -13310,7 +13307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" ht="15" hidden="1" spans="1:7">
       <c r="A420" s="6" t="s">
         <v>140</v>
       </c>
@@ -13318,7 +13315,7 @@
         <v>81</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>16</v>
@@ -13333,15 +13330,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" ht="15" hidden="1" spans="1:7">
       <c r="A421" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>10</v>
@@ -13356,15 +13353,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" ht="15" hidden="1" spans="1:7">
       <c r="A422" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>16</v>
@@ -13379,15 +13376,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" ht="15" hidden="1" spans="1:7">
       <c r="A423" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C423" s="8" t="s">
-        <v>682</v>
+      <c r="C423" s="7" t="s">
+        <v>683</v>
       </c>
       <c r="D423" s="8" t="s">
         <v>33</v>
@@ -13402,15 +13399,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" ht="15" hidden="1" spans="1:7">
       <c r="A424" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C424" s="8" t="s">
-        <v>682</v>
+      <c r="C424" s="7" t="s">
+        <v>683</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>19</v>
@@ -13425,15 +13422,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" ht="15" hidden="1" spans="1:7">
       <c r="A425" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C425" s="8" t="s">
-        <v>682</v>
+      <c r="C425" s="7" t="s">
+        <v>683</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>25</v>
@@ -13448,7 +13445,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" ht="15" hidden="1" spans="1:7">
       <c r="A426" s="6" t="s">
         <v>228</v>
       </c>
@@ -13456,7 +13453,7 @@
         <v>229</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>19</v>
@@ -13471,15 +13468,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" ht="15" hidden="1" spans="1:7">
       <c r="A427" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C427" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="B427" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>25</v>
@@ -13494,15 +13491,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" ht="15" hidden="1" spans="1:7">
       <c r="A428" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>33</v>
@@ -13517,15 +13514,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" ht="15" hidden="1" spans="1:7">
       <c r="A429" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D429" s="7" t="s">
         <v>10</v>
@@ -13540,15 +13537,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" ht="15" hidden="1" spans="1:7">
       <c r="A430" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>16</v>
@@ -13563,15 +13560,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" ht="15" hidden="1" spans="1:7">
       <c r="A431" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>33</v>
@@ -13586,15 +13583,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" ht="15" hidden="1" spans="1:7">
       <c r="A432" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>10</v>
@@ -13609,1368 +13606,1368 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
-      <c r="A433" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B433" s="13" t="s">
+    <row r="433" ht="15" hidden="1" spans="1:7">
+      <c r="A433" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="C433" s="13" t="s">
+      <c r="B433" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="D433" s="13" t="s">
+      <c r="C433" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D433" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E433" s="13" t="s">
+      <c r="E433" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F433" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="G433" s="13" t="s">
+      <c r="G433" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
-      <c r="A434" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="B434" s="15" t="s">
+    <row r="434" ht="15" hidden="1" spans="1:7">
+      <c r="A434" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B434" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="C434" s="15" t="s">
-        <v>708</v>
+      <c r="C434" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D434" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E434" s="15" t="s">
+      <c r="E434" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="G434" s="15" t="s">
+      <c r="G434" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
-      <c r="A435" s="14" t="s">
+    <row r="435" ht="15" hidden="1" spans="1:7">
+      <c r="A435" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="B435" s="15" t="s">
+      <c r="B435" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="C435" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D435" s="15" t="s">
+      <c r="C435" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D435" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E435" s="15" t="s">
+      <c r="E435" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F435" s="15" t="s">
+      <c r="F435" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="G435" s="15" t="s">
+      <c r="G435" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
-      <c r="A436" s="14" t="s">
+    <row r="436" ht="15" hidden="1" spans="1:7">
+      <c r="A436" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="B436" s="15" t="s">
+      <c r="B436" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C436" s="15" t="s">
-        <v>708</v>
+      <c r="C436" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E436" s="15" t="s">
+      <c r="E436" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F436" s="15" t="s">
+      <c r="F436" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="G436" s="15" t="s">
+      <c r="G436" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
-      <c r="A437" s="14" t="s">
+    <row r="437" ht="15" hidden="1" spans="1:7">
+      <c r="A437" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="B437" s="15" t="s">
+      <c r="B437" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="C437" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D437" s="15" t="s">
+      <c r="C437" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D437" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E437" s="15" t="s">
+      <c r="E437" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F437" s="15" t="s">
+      <c r="F437" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="G437" s="15" t="s">
+      <c r="G437" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
-      <c r="A438" s="14" t="s">
+    <row r="438" ht="15" hidden="1" spans="1:7">
+      <c r="A438" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="B438" s="15" t="s">
+      <c r="B438" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C438" s="15" t="s">
-        <v>708</v>
+      <c r="C438" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D438" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E438" s="15" t="s">
+      <c r="E438" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F438" s="15" t="s">
+      <c r="F438" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G438" s="15" t="s">
+      <c r="G438" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
-      <c r="A439" s="14" t="s">
+    <row r="439" ht="15" hidden="1" spans="1:7">
+      <c r="A439" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="B439" s="15" t="s">
+      <c r="B439" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C439" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D439" s="15" t="s">
+      <c r="C439" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D439" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E439" s="15" t="s">
+      <c r="E439" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F439" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G439" s="15" t="s">
+      <c r="G439" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
-      <c r="A440" s="14" t="s">
+    <row r="440" ht="15" hidden="1" spans="1:7">
+      <c r="A440" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="B440" s="15" t="s">
+      <c r="B440" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C440" s="15" t="s">
-        <v>708</v>
+      <c r="C440" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D440" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E440" s="15" t="s">
+      <c r="E440" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G440" s="15" t="s">
+      <c r="G440" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
-      <c r="A441" s="14" t="s">
+    <row r="441" ht="15" hidden="1" spans="1:7">
+      <c r="A441" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="B441" s="15" t="s">
+      <c r="B441" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C441" s="15" t="s">
-        <v>708</v>
+      <c r="C441" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D441" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E441" s="15" t="s">
+      <c r="E441" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F441" s="15" t="s">
+      <c r="F441" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G441" s="15" t="s">
+      <c r="G441" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
-      <c r="A442" s="14" t="s">
+    <row r="442" ht="15" hidden="1" spans="1:7">
+      <c r="A442" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="B442" s="15" t="s">
+      <c r="B442" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C442" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D442" s="15" t="s">
+      <c r="C442" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D442" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E442" s="15" t="s">
+      <c r="E442" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F442" s="15" t="s">
+      <c r="F442" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G442" s="15" t="s">
+      <c r="G442" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
-      <c r="A443" s="14" t="s">
+    <row r="443" ht="15" hidden="1" spans="1:7">
+      <c r="A443" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="B443" s="15" t="s">
+      <c r="B443" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C443" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D443" s="15" t="s">
+      <c r="C443" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D443" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E443" s="15" t="s">
+      <c r="E443" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F443" s="15" t="s">
+      <c r="F443" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G443" s="15" t="s">
+      <c r="G443" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
-      <c r="A444" s="14" t="s">
+    <row r="444" ht="15" hidden="1" spans="1:7">
+      <c r="A444" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="B444" s="15" t="s">
+      <c r="B444" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C444" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D444" s="15" t="s">
+      <c r="C444" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D444" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E444" s="15" t="s">
+      <c r="E444" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F444" s="15" t="s">
+      <c r="F444" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G444" s="15" t="s">
+      <c r="G444" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
-      <c r="A445" s="14" t="s">
+    <row r="445" ht="15" hidden="1" spans="1:7">
+      <c r="A445" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="B445" s="15" t="s">
+      <c r="B445" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C445" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D445" s="15" t="s">
+      <c r="C445" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D445" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E445" s="15" t="s">
+      <c r="E445" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F445" s="15" t="s">
+      <c r="F445" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="G445" s="15" t="s">
+      <c r="G445" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
-      <c r="A446" s="14" t="s">
+    <row r="446" ht="15" hidden="1" spans="1:7">
+      <c r="A446" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="B446" s="15" t="s">
+      <c r="B446" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C446" s="15" t="s">
-        <v>708</v>
+      <c r="C446" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D446" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E446" s="15" t="s">
+      <c r="E446" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F446" s="15" t="s">
+      <c r="F446" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="G446" s="15" t="s">
+      <c r="G446" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
-      <c r="A447" s="14" t="s">
+    <row r="447" ht="15" hidden="1" spans="1:7">
+      <c r="A447" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B447" s="15" t="s">
+      <c r="B447" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C447" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D447" s="15" t="s">
+      <c r="C447" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D447" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E447" s="15" t="s">
+      <c r="E447" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F447" s="15" t="s">
+      <c r="F447" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G447" s="15" t="s">
+      <c r="G447" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="14" t="s">
+    <row r="448" ht="15" hidden="1" spans="1:7">
+      <c r="A448" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="B448" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="C448" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D448" s="15" t="s">
+      <c r="B448" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D448" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E448" s="15" t="s">
+      <c r="E448" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F448" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="G448" s="15" t="s">
+      <c r="F448" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="G448" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
-      <c r="A449" s="16" t="s">
+    <row r="449" ht="15" hidden="1" spans="1:7">
+      <c r="A449" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="B449" s="16" t="s">
+      <c r="B449" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C449" s="16" t="s">
-        <v>708</v>
+      <c r="C449" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D449" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E449" s="16" t="s">
+      <c r="E449" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F449" s="16" t="s">
+      <c r="F449" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="G449" s="16" t="s">
+      <c r="G449" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
-      <c r="A450" s="16" t="s">
+    <row r="450" ht="15" hidden="1" spans="1:7">
+      <c r="A450" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="B450" s="16" t="s">
+      <c r="B450" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="C450" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="D450" s="15" t="s">
+      <c r="C450" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D450" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E450" s="16" t="s">
+      <c r="E450" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F450" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="G450" s="16" t="s">
+      <c r="G450" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="14" t="s">
+    <row r="451" ht="15" hidden="1" spans="1:7">
+      <c r="A451" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="B451" s="15" t="s">
+      <c r="B451" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C451" s="15" t="s">
-        <v>708</v>
+      <c r="C451" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="D451" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E451" s="15" t="s">
+      <c r="E451" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F451" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G451" s="15" t="s">
+      <c r="G451" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="14" t="s">
+    <row r="452" ht="15" hidden="1" spans="1:7">
+      <c r="A452" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="B452" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C452" s="15" t="s">
+      <c r="B452" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C452" s="7" t="s">
         <v>731</v>
       </c>
       <c r="D452" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E452" s="15" t="s">
+      <c r="E452" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F452" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G452" s="15" t="s">
+      <c r="G452" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="14" t="s">
+    <row r="453" ht="15" hidden="1" spans="1:7">
+      <c r="A453" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="B453" s="15" t="s">
+      <c r="B453" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="C453" s="15" t="s">
+      <c r="C453" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="D453" s="15" t="s">
+      <c r="D453" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E453" s="15" t="s">
+      <c r="E453" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F453" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G453" s="15" t="s">
+      <c r="F453" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G453" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
-      <c r="A454" s="14" t="s">
+    <row r="454" ht="15" hidden="1" spans="1:7">
+      <c r="A454" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="B454" s="15" t="s">
+      <c r="B454" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="C454" s="15" t="s">
+      <c r="C454" s="7" t="s">
         <v>731</v>
       </c>
       <c r="D454" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E454" s="15" t="s">
+      <c r="E454" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F454" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G454" s="15" t="s">
+      <c r="F454" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G454" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
-      <c r="A455" s="14" t="s">
+    <row r="455" ht="15" hidden="1" spans="1:7">
+      <c r="A455" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="B455" s="15" t="s">
+      <c r="B455" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="C455" s="15" t="s">
+      <c r="C455" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="D455" s="15" t="s">
+      <c r="D455" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E455" s="15" t="s">
+      <c r="E455" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F455" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G455" s="15" t="s">
+      <c r="F455" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G455" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
-      <c r="A456" s="14" t="s">
+    <row r="456" ht="15" hidden="1" spans="1:7">
+      <c r="A456" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="B456" s="15" t="s">
+      <c r="B456" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="C456" s="15" t="s">
+      <c r="C456" s="7" t="s">
         <v>731</v>
       </c>
       <c r="D456" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E456" s="15" t="s">
+      <c r="E456" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F456" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G456" s="15" t="s">
+      <c r="F456" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G456" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
-      <c r="A457" s="14" t="s">
+    <row r="457" ht="15" hidden="1" spans="1:7">
+      <c r="A457" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="B457" s="15" t="s">
+      <c r="B457" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C457" s="15" t="s">
+      <c r="C457" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="D457" s="15" t="s">
+      <c r="D457" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E457" s="15" t="s">
+      <c r="E457" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F457" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G457" s="15" t="s">
+      <c r="F457" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G457" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
-      <c r="A458" s="14" t="s">
+    <row r="458" ht="15" hidden="1" spans="1:7">
+      <c r="A458" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="B458" s="15" t="s">
+      <c r="B458" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C458" s="15" t="s">
+      <c r="C458" s="7" t="s">
         <v>731</v>
       </c>
       <c r="D458" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E458" s="15" t="s">
+      <c r="E458" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F458" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G458" s="15" t="s">
+      <c r="F458" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G458" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
-      <c r="A459" s="14" t="s">
+    <row r="459" ht="15" hidden="1" spans="1:7">
+      <c r="A459" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="B459" s="15" t="s">
+      <c r="B459" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C459" s="15" t="s">
+      <c r="C459" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D459" s="15" t="s">
+      <c r="D459" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E459" s="15" t="s">
+      <c r="E459" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F459" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G459" s="15" t="s">
+      <c r="G459" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="14" t="s">
+    <row r="460" ht="15" hidden="1" spans="1:7">
+      <c r="A460" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="B460" s="15" t="s">
+      <c r="B460" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="C460" s="15" t="s">
+      <c r="C460" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E460" s="15" t="s">
+      <c r="E460" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F460" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G460" s="15" t="s">
+      <c r="G460" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
-      <c r="A461" s="14" t="s">
+    <row r="461" ht="15" hidden="1" spans="1:7">
+      <c r="A461" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="B461" s="15" t="s">
+      <c r="B461" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="C461" s="15" t="s">
+      <c r="C461" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D461" s="15" t="s">
+      <c r="D461" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E461" s="15" t="s">
+      <c r="E461" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F461" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G461" s="15" t="s">
+      <c r="G461" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="14" t="s">
+    <row r="462" ht="15" hidden="1" spans="1:7">
+      <c r="A462" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="B462" s="15" t="s">
+      <c r="B462" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C462" s="15" t="s">
+      <c r="C462" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E462" s="15" t="s">
+      <c r="E462" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F462" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G462" s="15" t="s">
+      <c r="G462" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="14" t="s">
+    <row r="463" ht="15" hidden="1" spans="1:7">
+      <c r="A463" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="B463" s="15" t="s">
+      <c r="B463" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C463" s="15" t="s">
+      <c r="C463" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D463" s="15" t="s">
+      <c r="D463" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E463" s="15" t="s">
+      <c r="E463" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F463" s="15" t="s">
+      <c r="F463" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G463" s="15" t="s">
+      <c r="G463" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="14" t="s">
+    <row r="464" ht="15" hidden="1" spans="1:7">
+      <c r="A464" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="B464" s="15" t="s">
+      <c r="B464" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="C464" s="15" t="s">
+      <c r="C464" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D464" s="15" t="s">
+      <c r="D464" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E464" s="15" t="s">
+      <c r="E464" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F464" s="15" t="s">
+      <c r="F464" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G464" s="15" t="s">
+      <c r="G464" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
-      <c r="A465" s="14" t="s">
+    <row r="465" ht="15" hidden="1" spans="1:7">
+      <c r="A465" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="B465" s="15" t="s">
+      <c r="B465" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="C465" s="15" t="s">
+      <c r="C465" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D465" s="15" t="s">
+      <c r="D465" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E465" s="15" t="s">
+      <c r="E465" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F465" s="15" t="s">
+      <c r="F465" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G465" s="15" t="s">
+      <c r="G465" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
-      <c r="A466" s="16" t="s">
+    <row r="466" ht="15" hidden="1" spans="1:7">
+      <c r="A466" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="B466" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="C466" s="16" t="s">
+      <c r="B466" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C466" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D466" s="15" t="s">
+      <c r="D466" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E466" s="16" t="s">
+      <c r="E466" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F466" s="16" t="s">
+      <c r="F466" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G466" s="16" t="s">
+      <c r="G466" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
-      <c r="A467" s="14" t="s">
+    <row r="467" ht="15" hidden="1" spans="1:7">
+      <c r="A467" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="B467" s="15" t="s">
+      <c r="B467" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C467" s="15" t="s">
+      <c r="C467" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E467" s="15" t="s">
+      <c r="E467" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F467" s="15" t="s">
+      <c r="F467" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G467" s="15" t="s">
+      <c r="G467" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="14" t="s">
+    <row r="468" ht="15" hidden="1" spans="1:7">
+      <c r="A468" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="B468" s="15" t="s">
+      <c r="B468" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C468" s="15" t="s">
+      <c r="C468" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D468" s="15" t="s">
+      <c r="D468" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E468" s="15" t="s">
+      <c r="E468" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F468" s="15" t="s">
+      <c r="F468" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G468" s="15" t="s">
+      <c r="G468" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="14" t="s">
+    <row r="469" ht="15" hidden="1" spans="1:7">
+      <c r="A469" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="B469" s="15" t="s">
+      <c r="B469" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="C469" s="15" t="s">
+      <c r="C469" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D469" s="15" t="s">
+      <c r="D469" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E469" s="15" t="s">
+      <c r="E469" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F469" s="15" t="s">
+      <c r="F469" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G469" s="15" t="s">
+      <c r="G469" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="14" t="s">
+    <row r="470" ht="15" hidden="1" spans="1:7">
+      <c r="A470" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="B470" s="15" t="s">
+      <c r="B470" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C470" s="15" t="s">
+      <c r="C470" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D470" s="15" t="s">
+      <c r="D470" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E470" s="15" t="s">
+      <c r="E470" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F470" s="15" t="s">
+      <c r="F470" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G470" s="15" t="s">
+      <c r="G470" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
-      <c r="A471" s="14" t="s">
+    <row r="471" ht="15" hidden="1" spans="1:7">
+      <c r="A471" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="B471" s="15" t="s">
+      <c r="B471" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C471" s="15" t="s">
+      <c r="C471" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D471" s="15" t="s">
+      <c r="D471" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E471" s="15" t="s">
+      <c r="E471" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F471" s="15" t="s">
+      <c r="F471" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G471" s="15" t="s">
+      <c r="G471" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
-      <c r="A472" s="14" t="s">
+    <row r="472" ht="15" hidden="1" spans="1:7">
+      <c r="A472" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="B472" s="15" t="s">
+      <c r="B472" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C472" s="15" t="s">
+      <c r="C472" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D472" s="15" t="s">
+      <c r="D472" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E472" s="15" t="s">
+      <c r="E472" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F472" s="15" t="s">
+      <c r="F472" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G472" s="15" t="s">
+      <c r="G472" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
-      <c r="A473" s="14" t="s">
+    <row r="473" ht="15" hidden="1" spans="1:7">
+      <c r="A473" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="B473" s="15" t="s">
+      <c r="B473" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C473" s="15" t="s">
+      <c r="C473" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E473" s="15" t="s">
+      <c r="E473" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F473" s="15" t="s">
+      <c r="F473" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="G473" s="15" t="s">
+      <c r="G473" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
-      <c r="A474" s="14" t="s">
+    <row r="474" ht="15" hidden="1" spans="1:7">
+      <c r="A474" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="B474" s="15" t="s">
+      <c r="B474" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C474" s="15" t="s">
+      <c r="C474" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D474" s="15" t="s">
+      <c r="D474" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E474" s="15" t="s">
+      <c r="E474" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F474" s="15" t="s">
+      <c r="F474" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="G474" s="15" t="s">
+      <c r="G474" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
-      <c r="A475" s="14" t="s">
+    <row r="475" ht="15" hidden="1" spans="1:7">
+      <c r="A475" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="B475" s="15" t="s">
+      <c r="B475" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C475" s="15" t="s">
+      <c r="C475" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E475" s="15" t="s">
+      <c r="E475" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F475" s="15" t="s">
+      <c r="F475" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G475" s="15" t="s">
+      <c r="G475" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
-      <c r="A476" s="14" t="s">
+    <row r="476" ht="15" hidden="1" spans="1:7">
+      <c r="A476" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="B476" s="15" t="s">
+      <c r="B476" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C476" s="15" t="s">
+      <c r="C476" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D476" s="15" t="s">
+      <c r="D476" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E476" s="15" t="s">
+      <c r="E476" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F476" s="15" t="s">
+      <c r="F476" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G476" s="15" t="s">
+      <c r="G476" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
-      <c r="A477" s="14" t="s">
+    <row r="477" ht="15" hidden="1" spans="1:7">
+      <c r="A477" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="B477" s="15" t="s">
+      <c r="B477" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C477" s="15" t="s">
+      <c r="C477" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D477" s="15" t="s">
+      <c r="D477" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E477" s="15" t="s">
+      <c r="E477" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F477" s="15" t="s">
+      <c r="F477" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G477" s="15" t="s">
+      <c r="G477" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
-      <c r="A478" s="14" t="s">
+    <row r="478" ht="15" hidden="1" spans="1:7">
+      <c r="A478" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="B478" s="15" t="s">
+      <c r="B478" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C478" s="15" t="s">
+      <c r="C478" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E478" s="15" t="s">
+      <c r="E478" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F478" s="15" t="s">
+      <c r="F478" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G478" s="15" t="s">
+      <c r="G478" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
-      <c r="A479" s="14" t="s">
+    <row r="479" ht="15" hidden="1" spans="1:7">
+      <c r="A479" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="B479" s="15" t="s">
+      <c r="B479" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C479" s="15" t="s">
+      <c r="C479" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E479" s="15" t="s">
+      <c r="E479" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F479" s="15" t="s">
+      <c r="F479" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G479" s="15" t="s">
+      <c r="G479" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
-      <c r="A480" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="B480" s="16" t="s">
+    <row r="480" ht="15" hidden="1" spans="1:7">
+      <c r="A480" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B480" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C480" s="15" t="s">
+      <c r="C480" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="D480" s="15" t="s">
+      <c r="D480" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E480" s="16" t="s">
+      <c r="E480" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F480" s="16" t="s">
+      <c r="F480" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G480" s="16" t="s">
+      <c r="G480" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
-      <c r="A481" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="B481" s="16" t="s">
+    <row r="481" ht="15" hidden="1" spans="1:7">
+      <c r="A481" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="B481" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C481" s="15" t="s">
+      <c r="C481" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="D481" s="16" t="s">
+      <c r="D481" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E481" s="16" t="s">
+      <c r="E481" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F481" s="16" t="s">
+      <c r="F481" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G481" s="16" t="s">
+      <c r="G481" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
-      <c r="A482" s="16" t="s">
+    <row r="482" ht="15" hidden="1" spans="1:7">
+      <c r="A482" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="B482" s="16" t="s">
+      <c r="B482" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C482" s="15" t="s">
+      <c r="C482" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D482" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E482" s="16" t="s">
+      <c r="E482" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F482" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G482" s="16" t="s">
+      <c r="G482" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
-      <c r="A483" s="14" t="s">
+    <row r="483" ht="15" hidden="1" spans="1:7">
+      <c r="A483" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B483" s="15" t="s">
+      <c r="B483" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C483" s="15" t="s">
+      <c r="C483" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="D483" s="15" t="s">
+      <c r="D483" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E483" s="15" t="s">
+      <c r="E483" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F483" s="15" t="s">
+      <c r="F483" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G483" s="15" t="s">
+      <c r="G483" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
-      <c r="A484" s="14" t="s">
+    <row r="484" ht="15" hidden="1" spans="1:7">
+      <c r="A484" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B484" s="15" t="s">
+      <c r="B484" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C484" s="15" t="s">
+      <c r="C484" s="7" t="s">
         <v>772</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E484" s="15" t="s">
+      <c r="E484" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F484" s="15" t="s">
+      <c r="F484" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G484" s="15" t="s">
+      <c r="G484" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
-      <c r="A485" s="14" t="s">
+    <row r="485" ht="15" hidden="1" spans="1:7">
+      <c r="A485" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="B485" s="15" t="s">
+      <c r="B485" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C485" s="15" t="s">
+      <c r="C485" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="D485" s="15" t="s">
+      <c r="D485" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E485" s="15" t="s">
+      <c r="E485" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F485" s="15" t="s">
+      <c r="F485" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G485" s="15" t="s">
+      <c r="G485" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
-      <c r="A486" s="14" t="s">
+    <row r="486" ht="15" hidden="1" spans="1:7">
+      <c r="A486" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B486" s="15" t="s">
+      <c r="B486" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C486" s="15" t="s">
+      <c r="C486" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="D486" s="15" t="s">
+      <c r="D486" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E486" s="15" t="s">
+      <c r="E486" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F486" s="15" t="s">
+      <c r="F486" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="G486" s="15" t="s">
+      <c r="G486" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
-      <c r="A487" s="14" t="s">
+    <row r="487" ht="15" hidden="1" spans="1:7">
+      <c r="A487" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B487" s="15" t="s">
+      <c r="B487" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C487" s="15" t="s">
+      <c r="C487" s="7" t="s">
         <v>772</v>
       </c>
       <c r="D487" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E487" s="15" t="s">
+      <c r="E487" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F487" s="15" t="s">
+      <c r="F487" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G487" s="15" t="s">
+      <c r="G487" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
-      <c r="A488" s="14" t="s">
+    <row r="488" ht="15" hidden="1" spans="1:7">
+      <c r="A488" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="B488" s="15" t="s">
+      <c r="B488" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C488" s="15" t="s">
+      <c r="C488" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="D488" s="15" t="s">
+      <c r="D488" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E488" s="15" t="s">
+      <c r="E488" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F488" s="15" t="s">
+      <c r="F488" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G488" s="15" t="s">
+      <c r="G488" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="489" ht="15" spans="1:7">
-      <c r="A489" s="14" t="s">
+    <row r="489" ht="15" hidden="1" spans="1:7">
+      <c r="A489" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="B489" s="15" t="s">
+      <c r="B489" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C489" s="15" t="s">
+      <c r="C489" s="7" t="s">
         <v>777</v>
       </c>
       <c r="D489" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E489" s="15" t="s">
+      <c r="E489" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F489" s="15" t="s">
+      <c r="F489" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G489" s="15" t="s">
+      <c r="G489" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
-      <c r="A490" s="14" t="s">
+    <row r="490" ht="15" hidden="1" spans="1:7">
+      <c r="A490" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="B490" s="15" t="s">
+      <c r="B490" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C490" s="15" t="s">
+      <c r="C490" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D490" s="15" t="s">
+      <c r="D490" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E490" s="15" t="s">
+      <c r="E490" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F490" s="15" t="s">
+      <c r="F490" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G490" s="15" t="s">
+      <c r="G490" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
-      <c r="A491" s="14" t="s">
+    <row r="491" ht="15" hidden="1" spans="1:7">
+      <c r="A491" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="B491" s="15" t="s">
+      <c r="B491" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C491" s="15" t="s">
+      <c r="C491" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D491" s="15" t="s">
+      <c r="D491" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E491" s="15" t="s">
+      <c r="E491" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F491" s="15" t="s">
+      <c r="F491" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G491" s="15" t="s">
+      <c r="G491" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
-      <c r="A492" s="14" t="s">
+    <row r="492" ht="15" hidden="1" spans="1:7">
+      <c r="A492" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="B492" s="15" t="s">
+      <c r="B492" s="14" t="s">
         <v>779</v>
       </c>
       <c r="C492" s="7" t="s">
@@ -14979,44 +14976,44 @@
       <c r="D492" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E492" s="15" t="s">
+      <c r="E492" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F492" s="15" t="s">
+      <c r="F492" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G492" s="15" t="s">
+      <c r="G492" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
-      <c r="A493" s="14" t="s">
+    <row r="493" ht="15" hidden="1" spans="1:7">
+      <c r="A493" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="B493" s="15" t="s">
+      <c r="B493" s="14" t="s">
         <v>781</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D493" s="15" t="s">
+      <c r="D493" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E493" s="15" t="s">
+      <c r="E493" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F493" s="15" t="s">
+      <c r="F493" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G493" s="15" t="s">
+      <c r="G493" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
-      <c r="A494" s="14" t="s">
+    <row r="494" ht="15" hidden="1" spans="1:7">
+      <c r="A494" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="B494" s="15" t="s">
+      <c r="B494" s="14" t="s">
         <v>273</v>
       </c>
       <c r="C494" s="7" t="s">
@@ -15025,527 +15022,527 @@
       <c r="D494" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E494" s="15" t="s">
+      <c r="E494" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F494" s="15" t="s">
+      <c r="F494" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G494" s="15" t="s">
+      <c r="G494" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
-      <c r="A495" s="14" t="s">
+    <row r="495" ht="15" hidden="1" spans="1:7">
+      <c r="A495" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="B495" s="15" t="s">
+      <c r="B495" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C495" s="15" t="s">
+      <c r="C495" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D495" s="15" t="s">
+      <c r="D495" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E495" s="15" t="s">
+      <c r="E495" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F495" s="15" t="s">
+      <c r="F495" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G495" s="15" t="s">
+      <c r="G495" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="496" ht="15" spans="1:7">
-      <c r="A496" s="14" t="s">
+    <row r="496" ht="15" hidden="1" spans="1:7">
+      <c r="A496" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="B496" s="15" t="s">
+      <c r="B496" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C496" s="15" t="s">
+      <c r="C496" s="7" t="s">
         <v>780</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E496" s="15" t="s">
+      <c r="E496" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F496" s="15" t="s">
+      <c r="F496" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G496" s="15" t="s">
+      <c r="G496" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="497" ht="15" spans="1:7">
-      <c r="A497" s="14" t="s">
+    <row r="497" ht="15" hidden="1" spans="1:7">
+      <c r="A497" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="B497" s="15" t="s">
+      <c r="B497" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="C497" s="15" t="s">
+      <c r="C497" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="D497" s="15" t="s">
+      <c r="D497" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E497" s="15" t="s">
+      <c r="E497" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F497" s="15" t="s">
+      <c r="F497" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G497" s="15" t="s">
+      <c r="G497" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
-      <c r="A498" s="14" t="s">
+    <row r="498" ht="15" hidden="1" spans="1:7">
+      <c r="A498" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="B498" s="15" t="s">
+      <c r="B498" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="C498" s="15" t="s">
+      <c r="C498" s="7" t="s">
         <v>789</v>
       </c>
       <c r="D498" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E498" s="15" t="s">
+      <c r="E498" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F498" s="15" t="s">
+      <c r="F498" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G498" s="15" t="s">
+      <c r="G498" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
-      <c r="A499" s="14" t="s">
+    <row r="499" ht="15" hidden="1" spans="1:7">
+      <c r="A499" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="B499" s="15" t="s">
+      <c r="B499" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="C499" s="15" t="s">
+      <c r="C499" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="D499" s="15" t="s">
+      <c r="D499" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E499" s="15" t="s">
+      <c r="E499" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F499" s="15" t="s">
+      <c r="F499" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G499" s="15" t="s">
+      <c r="G499" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
-      <c r="A500" s="14" t="s">
+    <row r="500" ht="15" hidden="1" spans="1:7">
+      <c r="A500" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="B500" s="15" t="s">
+      <c r="B500" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="C500" s="15" t="s">
+      <c r="C500" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="D500" s="15" t="s">
+      <c r="D500" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E500" s="15" t="s">
+      <c r="E500" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F500" s="15" t="s">
+      <c r="F500" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G500" s="15" t="s">
+      <c r="G500" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
-      <c r="A501" s="14" t="s">
+    <row r="501" ht="15" hidden="1" spans="1:7">
+      <c r="A501" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="B501" s="15" t="s">
+      <c r="B501" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C501" s="15" t="s">
+      <c r="C501" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="D501" s="15" t="s">
+      <c r="D501" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E501" s="15" t="s">
+      <c r="E501" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F501" s="15" t="s">
+      <c r="F501" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G501" s="15" t="s">
+      <c r="G501" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
-      <c r="A502" s="14" t="s">
+    <row r="502" ht="15" hidden="1" spans="1:7">
+      <c r="A502" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="B502" s="15" t="s">
+      <c r="B502" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C502" s="15" t="s">
+      <c r="C502" s="7" t="s">
         <v>789</v>
       </c>
       <c r="D502" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E502" s="15" t="s">
+      <c r="E502" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F502" s="15" t="s">
+      <c r="F502" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G502" s="15" t="s">
+      <c r="G502" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
-      <c r="A503" s="14" t="s">
+    <row r="503" ht="15" hidden="1" spans="1:7">
+      <c r="A503" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="B503" s="15" t="s">
+      <c r="B503" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C503" s="15" t="s">
+      <c r="C503" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D503" s="15" t="s">
+      <c r="D503" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E503" s="15" t="s">
+      <c r="E503" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F503" s="15" t="s">
+      <c r="F503" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G503" s="15" t="s">
+      <c r="G503" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
-      <c r="A504" s="14" t="s">
+    <row r="504" ht="15" hidden="1" spans="1:7">
+      <c r="A504" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="B504" s="15" t="s">
+      <c r="B504" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C504" s="15" t="s">
+      <c r="C504" s="7" t="s">
         <v>800</v>
       </c>
       <c r="D504" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E504" s="15" t="s">
+      <c r="E504" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F504" s="15" t="s">
+      <c r="F504" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G504" s="15" t="s">
+      <c r="G504" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
-      <c r="A505" s="14" t="s">
+    <row r="505" ht="15" hidden="1" spans="1:7">
+      <c r="A505" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="B505" s="15" t="s">
+      <c r="B505" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C505" s="15" t="s">
+      <c r="C505" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D505" s="15" t="s">
+      <c r="D505" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E505" s="15" t="s">
+      <c r="E505" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F505" s="15" t="s">
+      <c r="F505" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G505" s="15" t="s">
+      <c r="G505" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
-      <c r="A506" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="B506" s="15" t="s">
+    <row r="506" ht="15" hidden="1" spans="1:7">
+      <c r="A506" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="C506" s="15" t="s">
+      <c r="B506" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C506" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D506" s="15" t="s">
+      <c r="D506" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E506" s="15" t="s">
+      <c r="E506" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F506" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G506" s="15" t="s">
+      <c r="F506" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G506" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
-      <c r="A507" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B507" s="15" t="s">
+    <row r="507" ht="15" hidden="1" spans="1:7">
+      <c r="A507" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="C507" s="15" t="s">
+      <c r="B507" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C507" s="7" t="s">
         <v>801</v>
       </c>
       <c r="D507" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E507" s="15" t="s">
+      <c r="E507" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F507" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G507" s="15" t="s">
+      <c r="F507" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G507" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
-      <c r="A508" s="14" t="s">
+    <row r="508" ht="15" hidden="1" spans="1:7">
+      <c r="A508" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="B508" s="15" t="s">
+      <c r="B508" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C508" s="15" t="s">
+      <c r="C508" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D508" s="15" t="s">
+      <c r="D508" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E508" s="15" t="s">
+      <c r="E508" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F508" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G508" s="15" t="s">
+      <c r="F508" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G508" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
-      <c r="A509" s="14" t="s">
+    <row r="509" ht="15" hidden="1" spans="1:7">
+      <c r="A509" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="B509" s="15" t="s">
+      <c r="B509" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C509" s="15" t="s">
+      <c r="C509" s="7" t="s">
         <v>801</v>
       </c>
       <c r="D509" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E509" s="15" t="s">
+      <c r="E509" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F509" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G509" s="15" t="s">
+      <c r="F509" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G509" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
-      <c r="A510" s="14" t="s">
+    <row r="510" ht="15" hidden="1" spans="1:7">
+      <c r="A510" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="B510" s="15" t="s">
+      <c r="B510" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C510" s="15" t="s">
+      <c r="C510" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="D510" s="15" t="s">
+      <c r="D510" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E510" s="15" t="s">
+      <c r="E510" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F510" s="15" t="s">
+      <c r="F510" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G510" s="15" t="s">
+      <c r="G510" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
-      <c r="A511" s="14" t="s">
+    <row r="511" ht="15" hidden="1" spans="1:7">
+      <c r="A511" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="B511" s="15" t="s">
+      <c r="B511" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C511" s="15" t="s">
+      <c r="C511" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="D511" s="15" t="s">
+      <c r="D511" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E511" s="15" t="s">
+      <c r="E511" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F511" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G511" s="15" t="s">
+      <c r="G511" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
-      <c r="A512" s="14" t="s">
+    <row r="512" ht="15" hidden="1" spans="1:7">
+      <c r="A512" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="B512" s="15" t="s">
+      <c r="B512" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="C512" s="15" t="s">
+      <c r="C512" s="7" t="s">
         <v>803</v>
       </c>
       <c r="D512" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E512" s="15" t="s">
+      <c r="E512" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F512" s="15" t="s">
+      <c r="F512" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G512" s="15" t="s">
+      <c r="G512" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
-      <c r="A513" s="14" t="s">
+    <row r="513" ht="15" hidden="1" spans="1:7">
+      <c r="A513" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="B513" s="15" t="s">
+      <c r="B513" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C513" s="15" t="s">
+      <c r="C513" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="D513" s="15" t="s">
+      <c r="D513" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E513" s="15" t="s">
+      <c r="E513" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F513" s="15" t="s">
+      <c r="F513" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G513" s="15" t="s">
+      <c r="G513" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
-      <c r="A514" s="14" t="s">
+    <row r="514" ht="15" hidden="1" spans="1:7">
+      <c r="A514" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="B514" s="15" t="s">
+      <c r="B514" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="C514" s="15" t="s">
+      <c r="C514" s="7" t="s">
         <v>803</v>
       </c>
       <c r="D514" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E514" s="15" t="s">
+      <c r="E514" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F514" s="15" t="s">
+      <c r="F514" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G514" s="15" t="s">
+      <c r="G514" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
-      <c r="A515" s="14" t="s">
+    <row r="515" ht="15" hidden="1" spans="1:7">
+      <c r="A515" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="B515" s="15" t="s">
+      <c r="B515" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C515" s="15" t="s">
+      <c r="C515" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="D515" s="15" t="s">
+      <c r="D515" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E515" s="15" t="s">
+      <c r="E515" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F515" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="G515" s="15" t="s">
+      <c r="G515" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
-      <c r="A516" s="14" t="s">
+    <row r="516" ht="15" hidden="1" spans="1:7">
+      <c r="A516" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="B516" s="15" t="s">
+      <c r="B516" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="C516" s="15" t="s">
+      <c r="C516" s="7" t="s">
         <v>814</v>
       </c>
       <c r="D516" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E516" s="15" t="s">
+      <c r="E516" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F516" s="15" t="s">
+      <c r="F516" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G516" s="15" t="s">
+      <c r="G516" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
-      <c r="A517" s="14" t="s">
+    <row r="517" ht="15" hidden="1" spans="1:7">
+      <c r="A517" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="B517" s="15" t="s">
+      <c r="B517" s="14" t="s">
         <v>816</v>
       </c>
       <c r="C517" s="7" t="s">
@@ -15554,182 +15551,182 @@
       <c r="D517" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E517" s="15" t="s">
+      <c r="E517" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F517" s="15" t="s">
+      <c r="F517" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G517" s="15" t="s">
+      <c r="G517" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
-      <c r="A518" s="14" t="s">
+    <row r="518" ht="15" hidden="1" spans="1:7">
+      <c r="A518" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="B518" s="15" t="s">
+      <c r="B518" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C518" s="15" t="s">
+      <c r="C518" s="7" t="s">
         <v>814</v>
       </c>
       <c r="D518" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E518" s="15" t="s">
+      <c r="E518" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F518" s="15" t="s">
+      <c r="F518" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G518" s="15" t="s">
+      <c r="G518" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
-      <c r="A519" s="14" t="s">
+    <row r="519" ht="15" hidden="1" spans="1:7">
+      <c r="A519" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="B519" s="15" t="s">
+      <c r="B519" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C519" s="15" t="s">
+      <c r="C519" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D519" s="15" t="s">
+      <c r="D519" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E519" s="15" t="s">
+      <c r="E519" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F519" s="15" t="s">
+      <c r="F519" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G519" s="15" t="s">
+      <c r="G519" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
-      <c r="A520" s="14" t="s">
+    <row r="520" ht="15" hidden="1" spans="1:7">
+      <c r="A520" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="B520" s="15" t="s">
+      <c r="B520" s="14" t="s">
         <v>822</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D520" s="15" t="s">
+      <c r="D520" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E520" s="15" t="s">
+      <c r="E520" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F520" s="15" t="s">
+      <c r="F520" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G520" s="15" t="s">
+      <c r="G520" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
-      <c r="A521" s="14" t="s">
+    <row r="521" ht="15" hidden="1" spans="1:7">
+      <c r="A521" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="B521" s="15" t="s">
+      <c r="B521" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C521" s="15" t="s">
+      <c r="C521" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D521" s="15" t="s">
+      <c r="D521" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E521" s="15" t="s">
+      <c r="E521" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F521" s="15" t="s">
+      <c r="F521" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G521" s="15" t="s">
+      <c r="G521" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
-      <c r="A522" s="14" t="s">
+    <row r="522" ht="15" hidden="1" spans="1:7">
+      <c r="A522" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="B522" s="15" t="s">
+      <c r="B522" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C522" s="15" t="s">
+      <c r="C522" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D522" s="15" t="s">
+      <c r="D522" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E522" s="15" t="s">
+      <c r="E522" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F522" s="15" t="s">
+      <c r="F522" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G522" s="15" t="s">
+      <c r="G522" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
-      <c r="A523" s="14" t="s">
+    <row r="523" ht="15" hidden="1" spans="1:7">
+      <c r="A523" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="B523" s="15" t="s">
+      <c r="B523" s="14" t="s">
         <v>355</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D523" s="15" t="s">
+      <c r="D523" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E523" s="15" t="s">
+      <c r="E523" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F523" s="15" t="s">
+      <c r="F523" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G523" s="15" t="s">
+      <c r="G523" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
-      <c r="A524" s="14" t="s">
+    <row r="524" ht="15" hidden="1" spans="1:7">
+      <c r="A524" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="B524" s="15" t="s">
+      <c r="B524" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C524" s="15" t="s">
+      <c r="C524" s="7" t="s">
         <v>820</v>
       </c>
       <c r="D524" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E524" s="15" t="s">
+      <c r="E524" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F524" s="15" t="s">
+      <c r="F524" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G524" s="15" t="s">
+      <c r="G524" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
-      <c r="A525" s="14" t="s">
+    <row r="525" ht="15" hidden="1" spans="1:7">
+      <c r="A525" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="B525" s="15" t="s">
+      <c r="B525" s="14" t="s">
         <v>416</v>
       </c>
       <c r="C525" s="7" t="s">
@@ -15738,408 +15735,408 @@
       <c r="D525" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E525" s="15" t="s">
+      <c r="E525" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F525" s="15" t="s">
+      <c r="F525" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G525" s="15" t="s">
+      <c r="G525" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
-      <c r="A526" s="14" t="s">
+    <row r="526" ht="15" hidden="1" spans="1:7">
+      <c r="A526" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="B526" s="15" t="s">
+      <c r="B526" s="14" t="s">
         <v>822</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D526" s="15" t="s">
+      <c r="D526" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E526" s="15" t="s">
+      <c r="E526" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F526" s="15" t="s">
+      <c r="F526" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G526" s="15" t="s">
+      <c r="G526" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
-      <c r="A527" s="14" t="s">
+    <row r="527" ht="15" hidden="1" spans="1:7">
+      <c r="A527" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="B527" s="15" t="s">
+      <c r="B527" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="C527" s="15" t="s">
+      <c r="C527" s="7" t="s">
         <v>829</v>
       </c>
       <c r="D527" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E527" s="15" t="s">
+      <c r="E527" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F527" s="15" t="s">
+      <c r="F527" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G527" s="15" t="s">
+      <c r="G527" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
-      <c r="A528" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="B528" s="15" t="s">
+    <row r="528" ht="15" hidden="1" spans="1:7">
+      <c r="A528" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="C528" s="15" t="s">
+      <c r="B528" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="D528" s="15" t="s">
+      <c r="D528" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E528" s="15" t="s">
+      <c r="E528" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F528" s="15" t="s">
+      <c r="F528" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G528" s="15" t="s">
+      <c r="G528" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
-      <c r="A529" s="14" t="s">
+    <row r="529" ht="15" hidden="1" spans="1:7">
+      <c r="A529" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="B529" s="15" t="s">
+      <c r="B529" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C529" s="15" t="s">
+      <c r="C529" s="7" t="s">
         <v>830</v>
       </c>
       <c r="D529" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E529" s="15" t="s">
+      <c r="E529" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F529" s="15" t="s">
+      <c r="F529" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G529" s="15" t="s">
+      <c r="G529" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
-      <c r="A530" s="14" t="s">
+    <row r="530" ht="15" hidden="1" spans="1:7">
+      <c r="A530" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="B530" s="15" t="s">
+      <c r="B530" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C530" s="15" t="s">
+      <c r="C530" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="D530" s="15" t="s">
+      <c r="D530" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E530" s="15" t="s">
+      <c r="E530" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F530" s="15" t="s">
+      <c r="F530" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G530" s="15" t="s">
+      <c r="G530" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
-      <c r="A531" s="14" t="s">
+    <row r="531" ht="15" hidden="1" spans="1:7">
+      <c r="A531" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="B531" s="15" t="s">
+      <c r="B531" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C531" s="15" t="s">
+      <c r="C531" s="7" t="s">
         <v>833</v>
       </c>
       <c r="D531" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E531" s="15" t="s">
+      <c r="E531" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F531" s="15" t="s">
+      <c r="F531" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G531" s="15" t="s">
+      <c r="G531" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
-      <c r="A532" s="14" t="s">
+    <row r="532" ht="15" hidden="1" spans="1:7">
+      <c r="A532" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="B532" s="15" t="s">
+      <c r="B532" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C532" s="15" t="s">
+      <c r="C532" s="7" t="s">
         <v>833</v>
       </c>
       <c r="D532" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E532" s="15" t="s">
+      <c r="E532" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F532" s="15" t="s">
+      <c r="F532" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G532" s="15" t="s">
+      <c r="G532" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
-      <c r="A533" s="14" t="s">
+    <row r="533" ht="15" hidden="1" spans="1:7">
+      <c r="A533" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="B533" s="15" t="s">
+      <c r="B533" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C533" s="15" t="s">
+      <c r="C533" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="D533" s="15" t="s">
+      <c r="D533" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E533" s="15" t="s">
+      <c r="E533" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F533" s="15" t="s">
+      <c r="F533" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G533" s="15" t="s">
+      <c r="G533" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
-      <c r="A534" s="14" t="s">
+    <row r="534" ht="15" hidden="1" spans="1:7">
+      <c r="A534" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B534" s="15" t="s">
+      <c r="B534" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="C534" s="15" t="s">
+      <c r="C534" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D534" s="15" t="s">
+      <c r="D534" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E534" s="15" t="s">
+      <c r="E534" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F534" s="15" t="s">
+      <c r="F534" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G534" s="15" t="s">
+      <c r="G534" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
-      <c r="A535" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="B535" s="15" t="s">
+    <row r="535" ht="15" hidden="1" spans="1:7">
+      <c r="A535" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C535" s="15" t="s">
+      <c r="B535" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C535" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D535" s="15" t="s">
+      <c r="D535" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E535" s="15" t="s">
+      <c r="E535" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F535" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G535" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="G535" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
-      <c r="A536" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="B536" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C536" s="15" t="s">
+    <row r="536" ht="15" hidden="1" spans="1:7">
+      <c r="A536" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B536" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C536" s="7" t="s">
         <v>836</v>
       </c>
       <c r="D536" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E536" s="15" t="s">
+      <c r="E536" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F536" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G536" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="G536" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
-      <c r="A537" s="14" t="s">
+    <row r="537" ht="15" hidden="1" spans="1:7">
+      <c r="A537" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="B537" s="15" t="s">
+      <c r="B537" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C537" s="15" t="s">
+      <c r="C537" s="7" t="s">
         <v>836</v>
       </c>
       <c r="D537" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E537" s="15" t="s">
+      <c r="E537" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F537" s="15" t="s">
+      <c r="F537" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G537" s="15" t="s">
+      <c r="G537" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
-      <c r="A538" s="14" t="s">
+    <row r="538" ht="15" hidden="1" spans="1:7">
+      <c r="A538" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="B538" s="15" t="s">
+      <c r="B538" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C538" s="15" t="s">
+      <c r="C538" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D538" s="15" t="s">
+      <c r="D538" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E538" s="15" t="s">
+      <c r="E538" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F538" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G538" s="15" t="s">
+      <c r="G538" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
-      <c r="A539" s="14" t="s">
+    <row r="539" ht="15" hidden="1" spans="1:7">
+      <c r="A539" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="B539" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C539" s="15" t="s">
+      <c r="B539" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C539" s="7" t="s">
         <v>836</v>
       </c>
       <c r="D539" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E539" s="15" t="s">
+      <c r="E539" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F539" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G539" s="15" t="s">
+      <c r="G539" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
-      <c r="A540" s="14" t="s">
+    <row r="540" ht="15" hidden="1" spans="1:7">
+      <c r="A540" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="B540" s="15" t="s">
+      <c r="B540" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C540" s="15" t="s">
+      <c r="C540" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D540" s="15" t="s">
+      <c r="D540" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E540" s="15" t="s">
+      <c r="E540" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F540" s="15" t="s">
+      <c r="F540" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="G540" s="15" t="s">
+      <c r="G540" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
-      <c r="A541" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="B541" s="15" t="s">
+    <row r="541" ht="15" hidden="1" spans="1:7">
+      <c r="A541" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B541" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C541" s="15" t="s">
+      <c r="C541" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D541" s="15" t="s">
+      <c r="D541" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E541" s="15" t="s">
+      <c r="E541" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F541" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="G541" s="15" t="s">
+      <c r="F541" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="G541" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
-      <c r="A542" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="B542" s="15" t="s">
+    <row r="542" ht="15" hidden="1" spans="1:7">
+      <c r="A542" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B542" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C542" s="15" t="s">
+      <c r="C542" s="7" t="s">
         <v>836</v>
       </c>
       <c r="D542" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E542" s="15" t="s">
+      <c r="E542" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F542" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="G542" s="15" t="s">
+      <c r="F542" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="G542" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" ht="15" hidden="1" spans="1:7">
       <c r="A543" s="6" t="s">
         <v>840</v>
       </c>
@@ -16162,32 +16159,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" ht="15" spans="1:7">
-      <c r="A544" s="14" t="s">
+    <row r="544" ht="15" hidden="1" spans="1:7">
+      <c r="A544" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="B544" s="15" t="s">
+      <c r="B544" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C544" s="15" t="s">
+      <c r="C544" s="7" t="s">
         <v>841</v>
       </c>
       <c r="D544" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E544" s="15" t="s">
+      <c r="E544" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F544" s="15" t="s">
+      <c r="F544" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G544" s="15" t="s">
+      <c r="G544" s="14" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:G544">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="HANAFI"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A1:G544">
       <sortCondition ref="C1"/>
     </sortState>
     <extLst/>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="850">
   <si>
     <t>Enseignements</t>
   </si>
@@ -1804,6 +1804,9 @@
   </si>
   <si>
     <t>TD-MME</t>
+  </si>
+  <si>
+    <t>MASSOUM.S</t>
   </si>
   <si>
     <t>Cours-Tech. d'expression et comm.</t>
@@ -2591,7 +2594,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,#00%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2615,6 +2618,18 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Cambria"/>
       <charset val="134"/>
     </font>
@@ -2769,7 +2784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2779,6 +2794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3136,137 +3157,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3291,7 +3312,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3627,11 +3654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C554" sqref="C554"/>
+      <selection activeCell="B547" sqref="B547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3669,7 +3696,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" hidden="1" spans="1:8">
+    <row r="2" ht="15" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3720,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="15" hidden="1" spans="1:8">
+    <row r="3" ht="15" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3744,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="15" hidden="1" spans="1:8">
+    <row r="4" ht="15" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3741,7 +3768,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" ht="15" hidden="1" spans="1:8">
+    <row r="5" ht="15" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3765,7 +3792,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="15" hidden="1" spans="1:8">
+    <row r="6" ht="15" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3789,7 +3816,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="15" hidden="1" spans="1:8">
+    <row r="7" ht="15" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3813,7 +3840,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="15" hidden="1" spans="1:8">
+    <row r="8" ht="15" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3837,7 +3864,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" ht="15" hidden="1" spans="1:8">
+    <row r="9" ht="15" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3861,7 +3888,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="15" hidden="1" spans="1:8">
+    <row r="10" ht="15" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3885,7 +3912,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="15" hidden="1" spans="1:8">
+    <row r="11" ht="15" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -3909,7 +3936,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="15" hidden="1" spans="1:8">
+    <row r="12" ht="15" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -3933,7 +3960,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="15" hidden="1" spans="1:8">
+    <row r="13" ht="15" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -3957,7 +3984,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" ht="15" hidden="1" spans="1:8">
+    <row r="14" ht="15" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -3981,7 +4008,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" ht="15" hidden="1" spans="1:8">
+    <row r="15" ht="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -4005,7 +4032,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" ht="15" hidden="1" spans="1:8">
+    <row r="16" ht="15" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -4029,7 +4056,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" ht="15" hidden="1" spans="1:8">
+    <row r="17" ht="15" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
@@ -4053,7 +4080,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" ht="15" hidden="1" spans="1:8">
+    <row r="18" ht="15" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -4077,7 +4104,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" ht="15" hidden="1" spans="1:8">
+    <row r="19" ht="15" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -4101,7 +4128,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" ht="15" hidden="1" spans="1:8">
+    <row r="20" ht="15" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
@@ -4125,7 +4152,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="15" hidden="1" spans="1:8">
+    <row r="21" ht="15" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -4149,7 +4176,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="15" hidden="1" spans="1:8">
+    <row r="22" ht="15" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4173,7 +4200,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="15" hidden="1" spans="1:8">
+    <row r="23" ht="15" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>69</v>
       </c>
@@ -4197,7 +4224,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" ht="15" hidden="1" spans="1:8">
+    <row r="24" ht="15" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
@@ -4221,7 +4248,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" ht="15" hidden="1" spans="1:8">
+    <row r="25" ht="15" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
@@ -4245,7 +4272,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" ht="15" hidden="1" spans="1:7">
+    <row r="26" ht="15" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>76</v>
       </c>
@@ -4268,7 +4295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" ht="15" hidden="1" spans="1:7">
+    <row r="27" ht="15" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
@@ -4291,7 +4318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" ht="15" hidden="1" spans="1:7">
+    <row r="28" ht="15" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
@@ -4314,7 +4341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" ht="15" hidden="1" spans="1:7">
+    <row r="29" ht="15" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>84</v>
       </c>
@@ -4337,7 +4364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" ht="15" hidden="1" spans="1:7">
+    <row r="30" ht="15" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
@@ -4360,7 +4387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" ht="15" hidden="1" spans="1:7">
+    <row r="31" ht="15" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
@@ -4383,7 +4410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" ht="15" hidden="1" spans="1:7">
+    <row r="32" ht="15" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +4433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" ht="15" hidden="1" spans="1:7">
+    <row r="33" ht="15" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>85</v>
       </c>
@@ -4429,7 +4456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" ht="15" hidden="1" spans="1:7">
+    <row r="34" ht="15" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
@@ -4452,7 +4479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" ht="15" hidden="1" spans="1:7">
+    <row r="35" ht="15" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -4475,7 +4502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" ht="15" hidden="1" spans="1:7">
+    <row r="36" ht="15" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>85</v>
       </c>
@@ -4498,7 +4525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" ht="15" hidden="1" spans="1:7">
+    <row r="37" ht="15" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>85</v>
       </c>
@@ -4521,7 +4548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" ht="15" hidden="1" spans="1:7">
+    <row r="38" ht="15" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -4544,7 +4571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" ht="15" hidden="1" spans="1:7">
+    <row r="39" ht="15" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -4567,7 +4594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" ht="15" hidden="1" spans="1:7">
+    <row r="40" ht="15" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>100</v>
       </c>
@@ -4590,7 +4617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" ht="15" hidden="1" spans="1:7">
+    <row r="41" ht="15" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>103</v>
       </c>
@@ -4613,7 +4640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" ht="15" hidden="1" spans="1:7">
+    <row r="42" ht="15" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>105</v>
       </c>
@@ -4636,7 +4663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" ht="15" hidden="1" spans="1:7">
+    <row r="43" ht="15" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>105</v>
       </c>
@@ -4659,7 +4686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" ht="15" hidden="1" spans="1:7">
+    <row r="44" ht="15" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>109</v>
       </c>
@@ -4682,7 +4709,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" ht="15" hidden="1" spans="1:7">
+    <row r="45" ht="15" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>114</v>
       </c>
@@ -4705,7 +4732,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" ht="15" hidden="1" spans="1:7">
+    <row r="46" ht="15" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -4728,7 +4755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" ht="15" hidden="1" spans="1:7">
+    <row r="47" ht="15" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -4751,7 +4778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" ht="15" hidden="1" spans="1:7">
+    <row r="48" ht="15" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -4774,7 +4801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" ht="15" hidden="1" spans="1:7">
+    <row r="49" ht="15" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>121</v>
       </c>
@@ -4797,7 +4824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" ht="15" hidden="1" spans="1:7">
+    <row r="50" ht="15" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>122</v>
       </c>
@@ -4820,7 +4847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" ht="15" hidden="1" spans="1:7">
+    <row r="51" ht="15" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>124</v>
       </c>
@@ -4843,7 +4870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" ht="15" hidden="1" spans="1:7">
+    <row r="52" ht="15" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
@@ -4866,7 +4893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" ht="15" hidden="1" spans="1:7">
+    <row r="53" ht="15" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>122</v>
       </c>
@@ -4889,7 +4916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" ht="15" hidden="1" spans="1:7">
+    <row r="54" ht="15" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -4912,7 +4939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" ht="15" hidden="1" spans="1:7">
+    <row r="55" ht="15" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>132</v>
       </c>
@@ -4935,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" ht="15" hidden="1" spans="1:7">
+    <row r="56" ht="15" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>134</v>
       </c>
@@ -4958,7 +4985,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" ht="15" hidden="1" spans="1:7">
+    <row r="57" ht="15" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>97</v>
       </c>
@@ -4981,7 +5008,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" ht="15" hidden="1" spans="1:7">
+    <row r="58" ht="15" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>99</v>
       </c>
@@ -5004,7 +5031,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" ht="15" hidden="1" spans="1:7">
+    <row r="59" ht="15" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>138</v>
       </c>
@@ -5027,7 +5054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="15" hidden="1" spans="1:7">
+    <row r="60" ht="15" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>140</v>
       </c>
@@ -5050,7 +5077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" ht="15" hidden="1" spans="1:7">
+    <row r="61" ht="15" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>141</v>
       </c>
@@ -5073,7 +5100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" ht="15" hidden="1" spans="1:7">
+    <row r="62" ht="15" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -5096,7 +5123,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" ht="15" hidden="1" spans="1:7">
+    <row r="63" ht="15" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -5119,7 +5146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="15" hidden="1" spans="1:7">
+    <row r="64" ht="15" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>148</v>
       </c>
@@ -5142,7 +5169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="15" hidden="1" spans="1:7">
+    <row r="65" ht="15" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -5165,7 +5192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" ht="15" hidden="1" spans="1:7">
+    <row r="66" ht="15" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>153</v>
       </c>
@@ -5188,7 +5215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" ht="15" hidden="1" spans="1:7">
+    <row r="67" ht="15" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -5211,7 +5238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" ht="15" hidden="1" spans="1:7">
+    <row r="68" ht="15" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -5234,7 +5261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" ht="15" hidden="1" spans="1:7">
+    <row r="69" ht="15" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>158</v>
       </c>
@@ -5257,7 +5284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" ht="15" hidden="1" spans="1:7">
+    <row r="70" ht="15" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>153</v>
       </c>
@@ -5280,7 +5307,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" ht="15" hidden="1" spans="1:7">
+    <row r="71" ht="15" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>161</v>
       </c>
@@ -5303,7 +5330,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" ht="15" hidden="1" spans="1:7">
+    <row r="72" ht="15" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>162</v>
       </c>
@@ -5326,7 +5353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" ht="15" hidden="1" spans="1:7">
+    <row r="73" ht="15" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>162</v>
       </c>
@@ -5349,7 +5376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" ht="15" hidden="1" spans="1:7">
+    <row r="74" ht="15" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5372,7 +5399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" ht="15" hidden="1" spans="1:7">
+    <row r="75" ht="15" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>167</v>
       </c>
@@ -5395,7 +5422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" ht="15" hidden="1" spans="1:7">
+    <row r="76" ht="15" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>168</v>
       </c>
@@ -5418,7 +5445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" ht="15" hidden="1" spans="1:7">
+    <row r="77" ht="15" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>169</v>
       </c>
@@ -5441,7 +5468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" ht="15" hidden="1" spans="1:7">
+    <row r="78" ht="15" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>171</v>
       </c>
@@ -5464,7 +5491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" ht="15" hidden="1" spans="1:7">
+    <row r="79" ht="15" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>171</v>
       </c>
@@ -5487,7 +5514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" ht="15" hidden="1" spans="1:7">
+    <row r="80" ht="15" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>172</v>
       </c>
@@ -5510,7 +5537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" ht="15" hidden="1" spans="1:7">
+    <row r="81" ht="15" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>172</v>
       </c>
@@ -5533,7 +5560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" ht="15" hidden="1" spans="1:7">
+    <row r="82" ht="15" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>173</v>
       </c>
@@ -5556,7 +5583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" ht="15" hidden="1" spans="1:7">
+    <row r="83" ht="15" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>173</v>
       </c>
@@ -5579,7 +5606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" ht="15" hidden="1" spans="1:7">
+    <row r="84" ht="15" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>178</v>
       </c>
@@ -5602,7 +5629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" ht="15" hidden="1" spans="1:7">
+    <row r="85" ht="15" spans="1:7">
       <c r="A85" s="6" t="s">
         <v>182</v>
       </c>
@@ -5625,7 +5652,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" ht="29.25" hidden="1" spans="1:7">
+    <row r="86" ht="29.25" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>184</v>
       </c>
@@ -5648,7 +5675,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" ht="29.25" hidden="1" spans="1:7">
+    <row r="87" ht="29.25" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>187</v>
       </c>
@@ -5671,7 +5698,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" ht="15" hidden="1" spans="1:7">
+    <row r="88" ht="15" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>189</v>
       </c>
@@ -5694,7 +5721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" ht="15" hidden="1" spans="1:7">
+    <row r="89" ht="15" spans="1:7">
       <c r="A89" s="6" t="s">
         <v>191</v>
       </c>
@@ -5717,7 +5744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" ht="15" hidden="1" spans="1:7">
+    <row r="90" ht="15" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>192</v>
       </c>
@@ -5740,7 +5767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" ht="15" hidden="1" spans="1:7">
+    <row r="91" ht="15" spans="1:7">
       <c r="A91" s="6" t="s">
         <v>193</v>
       </c>
@@ -5763,7 +5790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" ht="15" hidden="1" spans="1:7">
+    <row r="92" ht="15" spans="1:7">
       <c r="A92" s="6" t="s">
         <v>194</v>
       </c>
@@ -5786,7 +5813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" ht="15" hidden="1" spans="1:7">
+    <row r="93" ht="15" spans="1:7">
       <c r="A93" s="6" t="s">
         <v>197</v>
       </c>
@@ -5809,7 +5836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" ht="15" hidden="1" spans="1:7">
+    <row r="94" ht="15" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>199</v>
       </c>
@@ -5832,7 +5859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" ht="15" hidden="1" spans="1:7">
+    <row r="95" ht="15" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>200</v>
       </c>
@@ -5855,7 +5882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" ht="15" hidden="1" spans="1:7">
+    <row r="96" ht="15" spans="1:7">
       <c r="A96" s="8" t="s">
         <v>201</v>
       </c>
@@ -5878,7 +5905,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" ht="15" hidden="1" spans="1:7">
+    <row r="97" ht="15" spans="1:7">
       <c r="A97" s="8" t="s">
         <v>205</v>
       </c>
@@ -5901,7 +5928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" ht="15" hidden="1" spans="1:7">
+    <row r="98" ht="15" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>207</v>
       </c>
@@ -5924,7 +5951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" ht="15" hidden="1" spans="1:7">
+    <row r="99" ht="15" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>210</v>
       </c>
@@ -5947,7 +5974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" ht="15" hidden="1" spans="1:7">
+    <row r="100" ht="15" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>212</v>
       </c>
@@ -5970,7 +5997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" ht="15" hidden="1" spans="1:7">
+    <row r="101" ht="15" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>212</v>
       </c>
@@ -5993,7 +6020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" ht="15" hidden="1" spans="1:7">
+    <row r="102" ht="15" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>120</v>
       </c>
@@ -6016,7 +6043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" ht="15" hidden="1" spans="1:7">
+    <row r="103" ht="15" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>121</v>
       </c>
@@ -6039,7 +6066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" ht="15" hidden="1" spans="1:7">
+    <row r="104" ht="15" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>217</v>
       </c>
@@ -6062,7 +6089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" ht="15" hidden="1" spans="1:7">
+    <row r="105" ht="15" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>221</v>
       </c>
@@ -6085,7 +6112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" ht="15" hidden="1" spans="1:7">
+    <row r="106" ht="15" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>222</v>
       </c>
@@ -6108,7 +6135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" ht="15" hidden="1" spans="1:7">
+    <row r="107" ht="15" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>223</v>
       </c>
@@ -6131,7 +6158,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" ht="15" hidden="1" spans="1:7">
+    <row r="108" ht="15" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>226</v>
       </c>
@@ -6154,7 +6181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" ht="15" hidden="1" spans="1:7">
+    <row r="109" ht="15" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>228</v>
       </c>
@@ -6177,7 +6204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" ht="15" hidden="1" spans="1:7">
+    <row r="110" ht="15" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>231</v>
       </c>
@@ -6200,7 +6227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" ht="15" hidden="1" spans="1:7">
+    <row r="111" ht="15" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>231</v>
       </c>
@@ -6223,7 +6250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" ht="15" hidden="1" spans="1:7">
+    <row r="112" ht="15" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>238</v>
       </c>
@@ -6246,7 +6273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" ht="15" hidden="1" spans="1:7">
+    <row r="113" ht="15" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>238</v>
       </c>
@@ -6269,7 +6296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" ht="15" hidden="1" spans="1:7">
+    <row r="114" ht="15" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>241</v>
       </c>
@@ -6292,7 +6319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" ht="15" hidden="1" spans="1:7">
+    <row r="115" ht="15" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>241</v>
       </c>
@@ -6315,7 +6342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" ht="15" hidden="1" spans="1:7">
+    <row r="116" ht="15" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>245</v>
       </c>
@@ -6338,7 +6365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" ht="15" hidden="1" spans="1:7">
+    <row r="117" ht="15" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>245</v>
       </c>
@@ -6361,7 +6388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" ht="15" hidden="1" spans="1:7">
+    <row r="118" ht="15" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>246</v>
       </c>
@@ -6384,7 +6411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" ht="15" hidden="1" spans="1:7">
+    <row r="119" ht="15" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>249</v>
       </c>
@@ -6407,7 +6434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" ht="15" hidden="1" spans="1:7">
+    <row r="120" ht="15" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>251</v>
       </c>
@@ -6430,7 +6457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" ht="15" hidden="1" spans="1:7">
+    <row r="121" ht="15" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>251</v>
       </c>
@@ -6453,7 +6480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" ht="15" hidden="1" spans="1:7">
+    <row r="122" ht="15" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>251</v>
       </c>
@@ -6476,7 +6503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" ht="15" hidden="1" spans="1:7">
+    <row r="123" ht="15" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>251</v>
       </c>
@@ -6499,7 +6526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" ht="15" hidden="1" spans="1:7">
+    <row r="124" ht="15" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>253</v>
       </c>
@@ -6522,7 +6549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" ht="15" hidden="1" spans="1:7">
+    <row r="125" ht="15" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>253</v>
       </c>
@@ -6545,7 +6572,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" ht="15" hidden="1" spans="1:7">
+    <row r="126" ht="15" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>253</v>
       </c>
@@ -6568,7 +6595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" ht="15" hidden="1" spans="1:7">
+    <row r="127" ht="15" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>253</v>
       </c>
@@ -6591,7 +6618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" ht="15" hidden="1" spans="1:7">
+    <row r="128" ht="15" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>257</v>
       </c>
@@ -6614,7 +6641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" ht="15" hidden="1" spans="1:7">
+    <row r="129" ht="15" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>261</v>
       </c>
@@ -6637,7 +6664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" ht="15" hidden="1" spans="1:7">
+    <row r="130" ht="15" spans="1:7">
       <c r="A130" s="8" t="s">
         <v>263</v>
       </c>
@@ -6660,7 +6687,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" ht="15" hidden="1" spans="1:7">
+    <row r="131" ht="15" spans="1:7">
       <c r="A131" s="8" t="s">
         <v>265</v>
       </c>
@@ -6683,7 +6710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" ht="15" hidden="1" spans="1:7">
+    <row r="132" ht="15" spans="1:7">
       <c r="A132" s="8" t="s">
         <v>267</v>
       </c>
@@ -6706,7 +6733,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" ht="15" hidden="1" spans="1:7">
+    <row r="133" ht="15" spans="1:7">
       <c r="A133" s="8" t="s">
         <v>270</v>
       </c>
@@ -6729,7 +6756,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" ht="15" hidden="1" spans="1:7">
+    <row r="134" ht="15" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>272</v>
       </c>
@@ -6752,7 +6779,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" ht="15" hidden="1" spans="1:7">
+    <row r="135" ht="15" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>275</v>
       </c>
@@ -6775,7 +6802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" ht="15" hidden="1" spans="1:7">
+    <row r="136" ht="15" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>277</v>
       </c>
@@ -6798,7 +6825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" ht="15" hidden="1" spans="1:7">
+    <row r="137" ht="15" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>278</v>
       </c>
@@ -6821,7 +6848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" ht="15" hidden="1" spans="1:7">
+    <row r="138" ht="15" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>280</v>
       </c>
@@ -6844,7 +6871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" ht="15" hidden="1" spans="1:7">
+    <row r="139" ht="15" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>281</v>
       </c>
@@ -6867,7 +6894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" ht="15" hidden="1" spans="1:7">
+    <row r="140" ht="15" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>281</v>
       </c>
@@ -6890,7 +6917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" ht="15" hidden="1" spans="1:7">
+    <row r="141" ht="15" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>283</v>
       </c>
@@ -6913,7 +6940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" ht="15" hidden="1" spans="1:7">
+    <row r="142" ht="15" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>283</v>
       </c>
@@ -6936,7 +6963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" ht="15" hidden="1" spans="1:7">
+    <row r="143" ht="15" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>284</v>
       </c>
@@ -6959,7 +6986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" ht="15" hidden="1" spans="1:7">
+    <row r="144" ht="15" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>284</v>
       </c>
@@ -6982,7 +7009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" ht="15" hidden="1" spans="1:7">
+    <row r="145" ht="15" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>285</v>
       </c>
@@ -7005,7 +7032,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" ht="15" hidden="1" spans="1:7">
+    <row r="146" ht="15" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>285</v>
       </c>
@@ -7028,7 +7055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" ht="15" hidden="1" spans="1:7">
+    <row r="147" ht="15" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>289</v>
       </c>
@@ -7051,7 +7078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" ht="15" hidden="1" spans="1:7">
+    <row r="148" ht="15" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>291</v>
       </c>
@@ -7074,7 +7101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" ht="15" hidden="1" spans="1:7">
+    <row r="149" ht="15" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>293</v>
       </c>
@@ -7097,7 +7124,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="150" ht="15" hidden="1" spans="1:7">
+    <row r="150" ht="15" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>295</v>
       </c>
@@ -7120,7 +7147,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" ht="15" hidden="1" spans="1:7">
+    <row r="151" ht="15" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>297</v>
       </c>
@@ -7143,7 +7170,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="152" ht="15" hidden="1" spans="1:7">
+    <row r="152" ht="15" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>299</v>
       </c>
@@ -7166,7 +7193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" ht="15" hidden="1" spans="1:7">
+    <row r="153" ht="15" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>301</v>
       </c>
@@ -7189,7 +7216,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" ht="15" hidden="1" spans="1:7">
+    <row r="154" ht="15" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>303</v>
       </c>
@@ -7212,7 +7239,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" ht="15" hidden="1" spans="1:7">
+    <row r="155" ht="15" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>305</v>
       </c>
@@ -7235,7 +7262,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" ht="15" hidden="1" spans="1:7">
+    <row r="156" ht="15" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>307</v>
       </c>
@@ -7258,7 +7285,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" ht="15" hidden="1" spans="1:7">
+    <row r="157" ht="15" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>309</v>
       </c>
@@ -7281,7 +7308,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="158" ht="15" hidden="1" spans="1:7">
+    <row r="158" ht="15" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>311</v>
       </c>
@@ -7304,7 +7331,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="159" ht="15" hidden="1" spans="1:7">
+    <row r="159" ht="15" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>169</v>
       </c>
@@ -7327,7 +7354,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" ht="15" hidden="1" spans="1:7">
+    <row r="160" ht="15" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>314</v>
       </c>
@@ -7350,7 +7377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" ht="15" hidden="1" spans="1:7">
+    <row r="161" ht="15" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>316</v>
       </c>
@@ -7373,7 +7400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" ht="15" hidden="1" spans="1:7">
+    <row r="162" ht="15" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>316</v>
       </c>
@@ -7396,7 +7423,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" ht="15" hidden="1" spans="1:7">
+    <row r="163" ht="15" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>319</v>
       </c>
@@ -7419,7 +7446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" ht="15" hidden="1" spans="1:7">
+    <row r="164" ht="15" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>70</v>
       </c>
@@ -7442,7 +7469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" ht="15" hidden="1" spans="1:7">
+    <row r="165" ht="15" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>70</v>
       </c>
@@ -7465,7 +7492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" ht="15" hidden="1" spans="1:7">
+    <row r="166" ht="15" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>321</v>
       </c>
@@ -7488,7 +7515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="167" ht="15" hidden="1" spans="1:7">
+    <row r="167" ht="15" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>324</v>
       </c>
@@ -7511,7 +7538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" ht="15" hidden="1" spans="1:7">
+    <row r="168" ht="15" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>326</v>
       </c>
@@ -7534,7 +7561,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" ht="15" hidden="1" spans="1:7">
+    <row r="169" ht="15" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>328</v>
       </c>
@@ -7557,7 +7584,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="170" ht="15" hidden="1" spans="1:7">
+    <row r="170" ht="15" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>326</v>
       </c>
@@ -7580,7 +7607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" ht="15" hidden="1" spans="1:7">
+    <row r="171" ht="15" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>329</v>
       </c>
@@ -7603,7 +7630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" ht="15" hidden="1" spans="1:7">
+    <row r="172" ht="15" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>331</v>
       </c>
@@ -7626,7 +7653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" ht="15" hidden="1" spans="1:7">
+    <row r="173" ht="15" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>333</v>
       </c>
@@ -7649,7 +7676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="174" ht="15" hidden="1" spans="1:7">
+    <row r="174" ht="15" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>336</v>
       </c>
@@ -7672,7 +7699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="175" ht="15" hidden="1" spans="1:7">
+    <row r="175" ht="15" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>339</v>
       </c>
@@ -7695,7 +7722,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" ht="15" hidden="1" spans="1:7">
+    <row r="176" ht="15" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>340</v>
       </c>
@@ -7718,7 +7745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" ht="15" hidden="1" spans="1:7">
+    <row r="177" ht="15" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>162</v>
       </c>
@@ -7741,7 +7768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" ht="15" hidden="1" spans="1:7">
+    <row r="178" ht="15" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>342</v>
       </c>
@@ -7764,7 +7791,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="179" ht="15" hidden="1" spans="1:7">
+    <row r="179" ht="15" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>345</v>
       </c>
@@ -7787,7 +7814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" ht="15" hidden="1" spans="1:7">
+    <row r="180" ht="15" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>346</v>
       </c>
@@ -7810,7 +7837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" ht="15" hidden="1" spans="1:7">
+    <row r="181" ht="15" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>347</v>
       </c>
@@ -7833,7 +7860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" ht="15" hidden="1" spans="1:7">
+    <row r="182" ht="15" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>348</v>
       </c>
@@ -7856,7 +7883,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" ht="15" hidden="1" spans="1:7">
+    <row r="183" ht="15" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>349</v>
       </c>
@@ -7879,7 +7906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" ht="15" hidden="1" spans="1:7">
+    <row r="184" ht="15" spans="1:7">
       <c r="A184" s="8" t="s">
         <v>349</v>
       </c>
@@ -7902,7 +7929,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" ht="15" hidden="1" spans="1:7">
+    <row r="185" ht="15" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>350</v>
       </c>
@@ -7925,7 +7952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" ht="15" hidden="1" spans="1:7">
+    <row r="186" ht="15" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>350</v>
       </c>
@@ -7948,7 +7975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" ht="15" hidden="1" spans="1:7">
+    <row r="187" ht="15" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>354</v>
       </c>
@@ -7971,7 +7998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" ht="15" hidden="1" spans="1:7">
+    <row r="188" ht="15" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>357</v>
       </c>
@@ -7994,7 +8021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" ht="15" hidden="1" spans="1:7">
+    <row r="189" ht="15" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>358</v>
       </c>
@@ -8017,7 +8044,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="190" ht="15" hidden="1" spans="1:7">
+    <row r="190" ht="15" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>360</v>
       </c>
@@ -8040,7 +8067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" ht="15" hidden="1" spans="1:7">
+    <row r="191" ht="15" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>362</v>
       </c>
@@ -8063,7 +8090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" ht="15" hidden="1" spans="1:7">
+    <row r="192" ht="15" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>364</v>
       </c>
@@ -8086,7 +8113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" ht="15" hidden="1" spans="1:7">
+    <row r="193" ht="15" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>345</v>
       </c>
@@ -8109,7 +8136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" ht="15" hidden="1" spans="1:7">
+    <row r="194" ht="15" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>346</v>
       </c>
@@ -8132,7 +8159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" ht="15" hidden="1" spans="1:7">
+    <row r="195" ht="15" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>360</v>
       </c>
@@ -8155,7 +8182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" ht="15" hidden="1" spans="1:7">
+    <row r="196" ht="15" spans="1:7">
       <c r="A196" s="8" t="s">
         <v>366</v>
       </c>
@@ -8178,7 +8205,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" ht="15" hidden="1" spans="1:7">
+    <row r="197" ht="15" spans="1:7">
       <c r="A197" s="8" t="s">
         <v>368</v>
       </c>
@@ -8201,7 +8228,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="198" ht="15" hidden="1" spans="1:7">
+    <row r="198" ht="15" spans="1:7">
       <c r="A198" s="8" t="s">
         <v>371</v>
       </c>
@@ -8224,7 +8251,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" ht="15" hidden="1" spans="1:7">
+    <row r="199" ht="15" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>373</v>
       </c>
@@ -8247,7 +8274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" ht="15" hidden="1" spans="1:7">
+    <row r="200" ht="15" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>375</v>
       </c>
@@ -8270,7 +8297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="201" ht="15" hidden="1" spans="1:7">
+    <row r="201" ht="15" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>377</v>
       </c>
@@ -8293,7 +8320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" ht="15" hidden="1" spans="1:7">
+    <row r="202" ht="15" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>381</v>
       </c>
@@ -8316,7 +8343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" ht="15" hidden="1" spans="1:7">
+    <row r="203" ht="15" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>384</v>
       </c>
@@ -8339,7 +8366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" ht="15" hidden="1" spans="1:7">
+    <row r="204" ht="15" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>386</v>
       </c>
@@ -8362,7 +8389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" ht="15" hidden="1" spans="1:7">
+    <row r="205" ht="15" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>388</v>
       </c>
@@ -8385,7 +8412,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="206" ht="15" hidden="1" spans="1:7">
+    <row r="206" ht="15" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>391</v>
       </c>
@@ -8408,7 +8435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="207" ht="15" hidden="1" spans="1:7">
+    <row r="207" ht="15" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>392</v>
       </c>
@@ -8431,7 +8458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" ht="15" hidden="1" spans="1:7">
+    <row r="208" ht="15" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>393</v>
       </c>
@@ -8454,7 +8481,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="209" ht="15" hidden="1" spans="1:7">
+    <row r="209" ht="15" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>395</v>
       </c>
@@ -8477,7 +8504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" ht="15" hidden="1" spans="1:7">
+    <row r="210" ht="15" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>393</v>
       </c>
@@ -8500,7 +8527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" ht="15" hidden="1" spans="1:7">
+    <row r="211" ht="15" spans="1:7">
       <c r="A211" s="6" t="s">
         <v>396</v>
       </c>
@@ -8523,7 +8550,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="212" ht="15" hidden="1" spans="1:7">
+    <row r="212" ht="15" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>399</v>
       </c>
@@ -8546,7 +8573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="213" ht="15" hidden="1" spans="1:7">
+    <row r="213" ht="15" spans="1:7">
       <c r="A213" s="6" t="s">
         <v>399</v>
       </c>
@@ -8569,7 +8596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" ht="15" hidden="1" spans="1:7">
+    <row r="214" ht="15" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>402</v>
       </c>
@@ -8592,7 +8619,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" ht="15" hidden="1" spans="1:7">
+    <row r="215" ht="15" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>404</v>
       </c>
@@ -8615,7 +8642,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="216" ht="15" hidden="1" spans="1:7">
+    <row r="216" ht="15" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>407</v>
       </c>
@@ -8638,7 +8665,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="217" ht="15" hidden="1" spans="1:7">
+    <row r="217" ht="15" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>161</v>
       </c>
@@ -8661,7 +8688,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" ht="15" hidden="1" spans="1:7">
+    <row r="218" ht="15" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>404</v>
       </c>
@@ -8684,7 +8711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="219" ht="15" hidden="1" spans="1:7">
+    <row r="219" ht="15" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>408</v>
       </c>
@@ -8707,7 +8734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" ht="15" hidden="1" spans="1:7">
+    <row r="220" ht="15" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>410</v>
       </c>
@@ -8730,7 +8757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" ht="15" hidden="1" spans="1:7">
+    <row r="221" ht="15" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>410</v>
       </c>
@@ -8753,7 +8780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" ht="15" hidden="1" spans="1:7">
+    <row r="222" ht="15" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>414</v>
       </c>
@@ -8776,7 +8803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" ht="15" hidden="1" spans="1:7">
+    <row r="223" ht="15" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>414</v>
       </c>
@@ -8799,7 +8826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" ht="15" hidden="1" spans="1:7">
+    <row r="224" ht="15" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>417</v>
       </c>
@@ -8822,7 +8849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" ht="15" hidden="1" spans="1:7">
+    <row r="225" ht="15" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>417</v>
       </c>
@@ -8845,7 +8872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" ht="15" hidden="1" spans="1:7">
+    <row r="226" ht="15" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>419</v>
       </c>
@@ -8868,7 +8895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" ht="15" hidden="1" spans="1:7">
+    <row r="227" ht="15" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>419</v>
       </c>
@@ -8891,7 +8918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" ht="15" hidden="1" spans="1:7">
+    <row r="228" ht="15" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>253</v>
       </c>
@@ -8914,7 +8941,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="229" ht="15" hidden="1" spans="1:7">
+    <row r="229" ht="15" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>421</v>
       </c>
@@ -8937,7 +8964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" ht="15" hidden="1" spans="1:7">
+    <row r="230" ht="15" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>421</v>
       </c>
@@ -8960,7 +8987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" ht="15" hidden="1" spans="1:7">
+    <row r="231" ht="15" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>422</v>
       </c>
@@ -8983,7 +9010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="232" ht="15" hidden="1" spans="1:7">
+    <row r="232" ht="15" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>424</v>
       </c>
@@ -9006,7 +9033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" ht="15" hidden="1" spans="1:7">
+    <row r="233" ht="15" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>424</v>
       </c>
@@ -9029,7 +9056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" ht="15" hidden="1" spans="1:7">
+    <row r="234" ht="15" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>428</v>
       </c>
@@ -9052,7 +9079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" ht="15" hidden="1" spans="1:7">
+    <row r="235" ht="15" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>428</v>
       </c>
@@ -9075,7 +9102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" ht="15" hidden="1" spans="1:7">
+    <row r="236" ht="15" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>429</v>
       </c>
@@ -9098,7 +9125,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="237" ht="15" hidden="1" spans="1:7">
+    <row r="237" ht="15" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>64</v>
       </c>
@@ -9121,7 +9148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238" ht="15" hidden="1" spans="1:7">
+    <row r="238" ht="15" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>432</v>
       </c>
@@ -9144,7 +9171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="239" ht="15" hidden="1" spans="1:7">
+    <row r="239" ht="15" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>434</v>
       </c>
@@ -9167,7 +9194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="240" ht="15" hidden="1" spans="1:7">
+    <row r="240" ht="15" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>435</v>
       </c>
@@ -9190,7 +9217,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="241" ht="15" hidden="1" spans="1:7">
+    <row r="241" ht="15" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>436</v>
       </c>
@@ -9213,7 +9240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" ht="15" hidden="1" spans="1:7">
+    <row r="242" ht="15" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>438</v>
       </c>
@@ -9236,7 +9263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" ht="15" hidden="1" spans="1:7">
+    <row r="243" ht="15" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>440</v>
       </c>
@@ -9259,7 +9286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" ht="15" hidden="1" spans="1:7">
+    <row r="244" ht="15" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>442</v>
       </c>
@@ -9282,7 +9309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" ht="15" hidden="1" spans="1:7">
+    <row r="245" ht="15" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>444</v>
       </c>
@@ -9305,7 +9332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="246" ht="15" hidden="1" spans="1:7">
+    <row r="246" ht="15" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>444</v>
       </c>
@@ -9328,7 +9355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" ht="15" hidden="1" spans="1:7">
+    <row r="247" ht="15" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>449</v>
       </c>
@@ -9351,7 +9378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="248" ht="15" hidden="1" spans="1:7">
+    <row r="248" ht="15" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>451</v>
       </c>
@@ -9374,7 +9401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" ht="15" hidden="1" spans="1:7">
+    <row r="249" ht="15" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>293</v>
       </c>
@@ -9397,7 +9424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="250" ht="15" hidden="1" spans="1:7">
+    <row r="250" ht="15" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>295</v>
       </c>
@@ -9420,7 +9447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="251" ht="15" hidden="1" spans="1:7">
+    <row r="251" ht="15" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>453</v>
       </c>
@@ -9443,7 +9470,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="252" ht="15" hidden="1" spans="1:7">
+    <row r="252" ht="15" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>454</v>
       </c>
@@ -9466,7 +9493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" ht="15" hidden="1" spans="1:7">
+    <row r="253" ht="15" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>456</v>
       </c>
@@ -9489,7 +9516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" ht="15" hidden="1" spans="1:7">
+    <row r="254" ht="15" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>457</v>
       </c>
@@ -9512,7 +9539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" ht="15" hidden="1" spans="1:7">
+    <row r="255" ht="15" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>458</v>
       </c>
@@ -9535,7 +9562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="256" ht="15" hidden="1" spans="1:7">
+    <row r="256" ht="15" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>459</v>
       </c>
@@ -9558,7 +9585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" ht="15" hidden="1" spans="1:7">
+    <row r="257" ht="15" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>461</v>
       </c>
@@ -9581,7 +9608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="258" ht="15" hidden="1" spans="1:7">
+    <row r="258" ht="15" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>461</v>
       </c>
@@ -9604,7 +9631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" ht="15" hidden="1" spans="1:7">
+    <row r="259" ht="15" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>459</v>
       </c>
@@ -9627,7 +9654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" ht="15" hidden="1" spans="1:7">
+    <row r="260" ht="15" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>463</v>
       </c>
@@ -9650,7 +9677,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" ht="15" hidden="1" spans="1:7">
+    <row r="261" ht="15" spans="1:7">
       <c r="A261" s="6" t="s">
         <v>465</v>
       </c>
@@ -9673,7 +9700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" ht="15" hidden="1" spans="1:7">
+    <row r="262" ht="15" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>468</v>
       </c>
@@ -9696,7 +9723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" ht="15" hidden="1" spans="1:7">
+    <row r="263" ht="15" spans="1:7">
       <c r="A263" s="6" t="s">
         <v>336</v>
       </c>
@@ -9719,7 +9746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="264" ht="15" hidden="1" spans="1:7">
+    <row r="264" ht="15" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>339</v>
       </c>
@@ -9742,7 +9769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="265" ht="15" hidden="1" spans="1:7">
+    <row r="265" ht="15" spans="1:7">
       <c r="A265" s="6" t="s">
         <v>471</v>
       </c>
@@ -9765,7 +9792,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="266" ht="15" hidden="1" spans="1:7">
+    <row r="266" ht="15" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>473</v>
       </c>
@@ -9788,7 +9815,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="267" ht="15" hidden="1" spans="1:7">
+    <row r="267" ht="15" spans="1:7">
       <c r="A267" s="6" t="s">
         <v>475</v>
       </c>
@@ -9811,7 +9838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="268" ht="15" hidden="1" spans="1:7">
+    <row r="268" ht="15" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>336</v>
       </c>
@@ -9834,7 +9861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="269" ht="15" hidden="1" spans="1:7">
+    <row r="269" ht="15" spans="1:7">
       <c r="A269" s="6" t="s">
         <v>339</v>
       </c>
@@ -9857,7 +9884,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="270" ht="15" hidden="1" spans="1:7">
+    <row r="270" ht="15" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>477</v>
       </c>
@@ -9880,7 +9907,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="271" ht="15" hidden="1" spans="1:7">
+    <row r="271" ht="15" spans="1:7">
       <c r="A271" s="6" t="s">
         <v>478</v>
       </c>
@@ -9949,7 +9976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" ht="15" hidden="1" spans="1:7">
+    <row r="274" ht="15" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>483</v>
       </c>
@@ -9972,7 +9999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" ht="15" hidden="1" spans="1:7">
+    <row r="275" ht="15" spans="1:7">
       <c r="A275" s="6" t="s">
         <v>486</v>
       </c>
@@ -9995,7 +10022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" ht="15" hidden="1" spans="1:7">
+    <row r="276" ht="15" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>488</v>
       </c>
@@ -10018,7 +10045,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="277" ht="15" hidden="1" spans="1:7">
+    <row r="277" ht="15" spans="1:7">
       <c r="A277" s="6" t="s">
         <v>489</v>
       </c>
@@ -10041,7 +10068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="278" ht="15" hidden="1" spans="1:7">
+    <row r="278" ht="15" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>490</v>
       </c>
@@ -10064,7 +10091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="279" ht="15" hidden="1" spans="1:7">
+    <row r="279" ht="15" spans="1:7">
       <c r="A279" s="6" t="s">
         <v>491</v>
       </c>
@@ -10087,7 +10114,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="280" ht="15" hidden="1" spans="1:7">
+    <row r="280" ht="15" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>492</v>
       </c>
@@ -10110,7 +10137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="281" ht="15" hidden="1" spans="1:7">
+    <row r="281" ht="15" spans="1:7">
       <c r="A281" s="6" t="s">
         <v>493</v>
       </c>
@@ -10133,7 +10160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" ht="15" hidden="1" spans="1:7">
+    <row r="282" ht="15" spans="1:7">
       <c r="A282" s="6" t="s">
         <v>493</v>
       </c>
@@ -10156,7 +10183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" ht="15" hidden="1" spans="1:7">
+    <row r="283" ht="15" spans="1:7">
       <c r="A283" s="6" t="s">
         <v>494</v>
       </c>
@@ -10179,7 +10206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" ht="15" hidden="1" spans="1:7">
+    <row r="284" ht="15" spans="1:7">
       <c r="A284" s="6" t="s">
         <v>494</v>
       </c>
@@ -10202,7 +10229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" ht="15" hidden="1" spans="1:7">
+    <row r="285" ht="15" spans="1:7">
       <c r="A285" s="6" t="s">
         <v>495</v>
       </c>
@@ -10225,7 +10252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" ht="15" hidden="1" spans="1:7">
+    <row r="286" ht="15" spans="1:7">
       <c r="A286" s="6" t="s">
         <v>495</v>
       </c>
@@ -10248,7 +10275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" ht="15" hidden="1" spans="1:7">
+    <row r="287" ht="15" spans="1:7">
       <c r="A287" s="6" t="s">
         <v>496</v>
       </c>
@@ -10271,7 +10298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="288" ht="15" hidden="1" spans="1:7">
+    <row r="288" ht="15" spans="1:7">
       <c r="A288" s="6" t="s">
         <v>498</v>
       </c>
@@ -10294,7 +10321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="289" ht="15" hidden="1" spans="1:7">
+    <row r="289" ht="15" spans="1:7">
       <c r="A289" s="6" t="s">
         <v>499</v>
       </c>
@@ -10317,7 +10344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" ht="15" hidden="1" spans="1:7">
+    <row r="290" ht="15" spans="1:7">
       <c r="A290" s="6" t="s">
         <v>501</v>
       </c>
@@ -10340,7 +10367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" ht="15" hidden="1" spans="1:7">
+    <row r="291" ht="15" spans="1:7">
       <c r="A291" s="6" t="s">
         <v>501</v>
       </c>
@@ -10363,7 +10390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" ht="15" hidden="1" spans="1:7">
+    <row r="292" ht="15" spans="1:7">
       <c r="A292" s="6" t="s">
         <v>502</v>
       </c>
@@ -10386,7 +10413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="293" ht="15" hidden="1" spans="1:7">
+    <row r="293" ht="15" spans="1:7">
       <c r="A293" s="6" t="s">
         <v>502</v>
       </c>
@@ -10409,7 +10436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" ht="15" hidden="1" spans="1:7">
+    <row r="294" ht="15" spans="1:7">
       <c r="A294" s="6" t="s">
         <v>503</v>
       </c>
@@ -10432,7 +10459,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="295" ht="15" hidden="1" spans="1:7">
+    <row r="295" ht="15" spans="1:7">
       <c r="A295" s="6" t="s">
         <v>506</v>
       </c>
@@ -10455,7 +10482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" ht="15" hidden="1" spans="1:7">
+    <row r="296" ht="15" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>173</v>
       </c>
@@ -10478,7 +10505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="297" ht="15" hidden="1" spans="1:7">
+    <row r="297" ht="15" spans="1:7">
       <c r="A297" s="6" t="s">
         <v>173</v>
       </c>
@@ -10501,7 +10528,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="298" ht="15" hidden="1" spans="1:7">
+    <row r="298" ht="15" spans="1:7">
       <c r="A298" s="6" t="s">
         <v>508</v>
       </c>
@@ -10524,7 +10551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="299" ht="15" hidden="1" spans="1:7">
+    <row r="299" ht="15" spans="1:7">
       <c r="A299" s="6" t="s">
         <v>508</v>
       </c>
@@ -10547,7 +10574,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="300" ht="15" hidden="1" spans="1:7">
+    <row r="300" ht="15" spans="1:7">
       <c r="A300" s="6" t="s">
         <v>511</v>
       </c>
@@ -10570,7 +10597,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="301" ht="15" hidden="1" spans="1:7">
+    <row r="301" ht="15" spans="1:7">
       <c r="A301" s="6" t="s">
         <v>513</v>
       </c>
@@ -10593,7 +10620,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="302" ht="15" hidden="1" spans="1:7">
+    <row r="302" ht="15" spans="1:7">
       <c r="A302" s="6" t="s">
         <v>189</v>
       </c>
@@ -10616,7 +10643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="303" ht="15" hidden="1" spans="1:7">
+    <row r="303" ht="15" spans="1:7">
       <c r="A303" s="6" t="s">
         <v>191</v>
       </c>
@@ -10639,7 +10666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="304" ht="15" hidden="1" spans="1:7">
+    <row r="304" ht="15" spans="1:7">
       <c r="A304" s="6" t="s">
         <v>192</v>
       </c>
@@ -10662,7 +10689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="305" ht="15" hidden="1" spans="1:7">
+    <row r="305" ht="15" spans="1:7">
       <c r="A305" s="6" t="s">
         <v>193</v>
       </c>
@@ -10685,7 +10712,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="306" ht="15" hidden="1" spans="1:7">
+    <row r="306" ht="15" spans="1:7">
       <c r="A306" s="6" t="s">
         <v>515</v>
       </c>
@@ -10708,7 +10735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" ht="15" hidden="1" spans="1:7">
+    <row r="307" ht="15" spans="1:7">
       <c r="A307" s="6" t="s">
         <v>392</v>
       </c>
@@ -10731,7 +10758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" ht="15" hidden="1" spans="1:7">
+    <row r="308" ht="15" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>395</v>
       </c>
@@ -10754,7 +10781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" ht="15" hidden="1" spans="1:7">
+    <row r="309" ht="15" spans="1:7">
       <c r="A309" s="6" t="s">
         <v>519</v>
       </c>
@@ -10777,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" ht="15" hidden="1" spans="1:7">
+    <row r="310" ht="15" spans="1:7">
       <c r="A310" s="6" t="s">
         <v>522</v>
       </c>
@@ -10800,7 +10827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" ht="15" hidden="1" spans="1:7">
+    <row r="311" ht="15" spans="1:7">
       <c r="A311" s="6" t="s">
         <v>522</v>
       </c>
@@ -10823,7 +10850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" ht="15" hidden="1" spans="1:7">
+    <row r="312" ht="15" spans="1:7">
       <c r="A312" s="6" t="s">
         <v>525</v>
       </c>
@@ -10846,7 +10873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" ht="15" hidden="1" spans="1:7">
+    <row r="313" ht="15" spans="1:7">
       <c r="A313" s="6" t="s">
         <v>525</v>
       </c>
@@ -10869,7 +10896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" ht="15" hidden="1" spans="1:7">
+    <row r="314" ht="15" spans="1:7">
       <c r="A314" s="6" t="s">
         <v>528</v>
       </c>
@@ -10892,7 +10919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" ht="15" hidden="1" spans="1:7">
+    <row r="315" ht="15" spans="1:7">
       <c r="A315" s="6" t="s">
         <v>528</v>
       </c>
@@ -10915,7 +10942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" ht="15" hidden="1" spans="1:7">
+    <row r="316" ht="15" spans="1:7">
       <c r="A316" s="6" t="s">
         <v>529</v>
       </c>
@@ -10938,7 +10965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="317" ht="15" hidden="1" spans="1:7">
+    <row r="317" ht="15" spans="1:7">
       <c r="A317" s="6" t="s">
         <v>531</v>
       </c>
@@ -10961,7 +10988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="318" ht="15" hidden="1" spans="1:7">
+    <row r="318" ht="15" spans="1:7">
       <c r="A318" s="6" t="s">
         <v>533</v>
       </c>
@@ -10984,7 +11011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" ht="15" hidden="1" spans="1:7">
+    <row r="319" ht="15" spans="1:7">
       <c r="A319" s="6" t="s">
         <v>535</v>
       </c>
@@ -11007,7 +11034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" ht="15" hidden="1" spans="1:7">
+    <row r="320" ht="15" spans="1:7">
       <c r="A320" s="6" t="s">
         <v>537</v>
       </c>
@@ -11030,7 +11057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="321" ht="15" hidden="1" spans="1:7">
+    <row r="321" ht="15" spans="1:7">
       <c r="A321" s="6" t="s">
         <v>540</v>
       </c>
@@ -11053,7 +11080,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="322" ht="15" hidden="1" spans="1:7">
+    <row r="322" ht="15" spans="1:7">
       <c r="A322" s="6" t="s">
         <v>543</v>
       </c>
@@ -11076,7 +11103,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="323" ht="15" hidden="1" spans="1:7">
+    <row r="323" ht="15" spans="1:7">
       <c r="A323" s="6" t="s">
         <v>544</v>
       </c>
@@ -11099,7 +11126,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="324" ht="15" hidden="1" spans="1:7">
+    <row r="324" ht="15" spans="1:7">
       <c r="A324" s="6" t="s">
         <v>545</v>
       </c>
@@ -11122,7 +11149,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="325" ht="15" hidden="1" spans="1:7">
+    <row r="325" ht="15" spans="1:7">
       <c r="A325" s="6" t="s">
         <v>545</v>
       </c>
@@ -11145,7 +11172,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="326" ht="15" hidden="1" spans="1:7">
+    <row r="326" ht="15" spans="1:7">
       <c r="A326" s="6" t="s">
         <v>550</v>
       </c>
@@ -11168,7 +11195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" ht="15" hidden="1" spans="1:7">
+    <row r="327" ht="15" spans="1:7">
       <c r="A327" s="6" t="s">
         <v>552</v>
       </c>
@@ -11191,7 +11218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" ht="15" hidden="1" spans="1:7">
+    <row r="328" ht="15" spans="1:7">
       <c r="A328" s="6" t="s">
         <v>553</v>
       </c>
@@ -11214,7 +11241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="329" ht="15" hidden="1" spans="1:7">
+    <row r="329" ht="15" spans="1:7">
       <c r="A329" s="6" t="s">
         <v>556</v>
       </c>
@@ -11237,7 +11264,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="330" ht="15" hidden="1" spans="1:7">
+    <row r="330" ht="15" spans="1:7">
       <c r="A330" s="6" t="s">
         <v>558</v>
       </c>
@@ -11260,7 +11287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" ht="15" hidden="1" spans="1:7">
+    <row r="331" ht="15" spans="1:7">
       <c r="A331" s="6" t="s">
         <v>559</v>
       </c>
@@ -11283,7 +11310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" ht="15" hidden="1" spans="1:7">
+    <row r="332" ht="15" spans="1:7">
       <c r="A332" s="6" t="s">
         <v>560</v>
       </c>
@@ -11306,7 +11333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" ht="15" hidden="1" spans="1:7">
+    <row r="333" ht="15" spans="1:7">
       <c r="A333" s="6" t="s">
         <v>562</v>
       </c>
@@ -11329,7 +11356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" ht="15" hidden="1" spans="1:7">
+    <row r="334" ht="15" spans="1:7">
       <c r="A334" s="6" t="s">
         <v>564</v>
       </c>
@@ -11352,7 +11379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="335" ht="15" hidden="1" spans="1:7">
+    <row r="335" ht="15" spans="1:7">
       <c r="A335" s="6" t="s">
         <v>565</v>
       </c>
@@ -11375,7 +11402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="336" ht="15" hidden="1" spans="1:7">
+    <row r="336" ht="15" spans="1:7">
       <c r="A336" s="6" t="s">
         <v>566</v>
       </c>
@@ -11398,7 +11425,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" ht="15" hidden="1" spans="1:7">
+    <row r="337" ht="15" spans="1:7">
       <c r="A337" s="6" t="s">
         <v>567</v>
       </c>
@@ -11421,7 +11448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" ht="15" hidden="1" spans="1:7">
+    <row r="338" ht="15" spans="1:7">
       <c r="A338" s="6" t="s">
         <v>201</v>
       </c>
@@ -11444,7 +11471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" ht="15" hidden="1" spans="1:7">
+    <row r="339" ht="15" spans="1:7">
       <c r="A339" s="6" t="s">
         <v>205</v>
       </c>
@@ -11467,7 +11494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" ht="15" hidden="1" spans="1:7">
+    <row r="340" ht="15" spans="1:7">
       <c r="A340" s="6" t="s">
         <v>571</v>
       </c>
@@ -11490,7 +11517,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="341" ht="15" hidden="1" spans="1:7">
+    <row r="341" ht="15" spans="1:7">
       <c r="A341" s="6" t="s">
         <v>574</v>
       </c>
@@ -11513,7 +11540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" ht="15" hidden="1" spans="1:7">
+    <row r="342" ht="15" spans="1:7">
       <c r="A342" s="6" t="s">
         <v>576</v>
       </c>
@@ -11536,7 +11563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" ht="15" hidden="1" spans="1:7">
+    <row r="343" ht="15" spans="1:7">
       <c r="A343" s="6" t="s">
         <v>578</v>
       </c>
@@ -11559,7 +11586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" ht="15" hidden="1" spans="1:7">
+    <row r="344" ht="15" spans="1:7">
       <c r="A344" s="6" t="s">
         <v>579</v>
       </c>
@@ -11582,7 +11609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" ht="15" hidden="1" spans="1:7">
+    <row r="345" ht="15" spans="1:7">
       <c r="A345" s="6" t="s">
         <v>580</v>
       </c>
@@ -11605,7 +11632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" ht="15" hidden="1" spans="1:7">
+    <row r="346" ht="15" spans="1:7">
       <c r="A346" s="6" t="s">
         <v>581</v>
       </c>
@@ -11628,7 +11655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" ht="15" hidden="1" spans="1:7">
+    <row r="347" ht="15" spans="1:7">
       <c r="A347" s="6" t="s">
         <v>582</v>
       </c>
@@ -11651,7 +11678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" ht="15" hidden="1" spans="1:7">
+    <row r="348" ht="15" spans="1:7">
       <c r="A348" s="6" t="s">
         <v>585</v>
       </c>
@@ -11674,61 +11701,61 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" ht="15" hidden="1" spans="1:7">
-      <c r="A349" s="6" t="s">
+    <row r="349" ht="15" spans="1:7">
+      <c r="A349" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C349" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="D349" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F349" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G349" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" ht="15" spans="1:7">
+      <c r="A350" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D350" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E349" s="7" t="s">
+      <c r="E350" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F349" s="7" t="s">
+      <c r="F350" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G349" s="7" t="s">
+      <c r="G350" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="350" ht="15" hidden="1" spans="1:7">
-      <c r="A350" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B350" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="D350" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E350" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F350" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G350" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="351" ht="15" hidden="1" spans="1:7">
+    <row r="351" ht="15" spans="1:7">
       <c r="A351" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>10</v>
@@ -11743,15 +11770,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" ht="15" hidden="1" spans="1:7">
+    <row r="352" ht="15" spans="1:7">
       <c r="A352" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>10</v>
@@ -11766,15 +11793,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" ht="15" hidden="1" spans="1:7">
+    <row r="353" ht="15" spans="1:7">
       <c r="A353" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C353" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="D353" s="7" t="s">
         <v>10</v>
@@ -11789,15 +11816,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" ht="15" hidden="1" spans="1:7">
+    <row r="354" ht="15" spans="1:7">
       <c r="A354" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D354" s="7" t="s">
         <v>25</v>
@@ -11812,15 +11839,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" ht="15" hidden="1" spans="1:7">
+    <row r="355" ht="15" spans="1:7">
       <c r="A355" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D355" s="7" t="s">
         <v>51</v>
@@ -11835,15 +11862,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" ht="15" hidden="1" spans="1:7">
+    <row r="356" ht="15" spans="1:7">
       <c r="A356" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D356" s="7" t="s">
         <v>10</v>
@@ -11858,15 +11885,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="357" ht="15" hidden="1" spans="1:7">
+    <row r="357" ht="15" spans="1:7">
       <c r="A357" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D357" s="7" t="s">
         <v>16</v>
@@ -11881,15 +11908,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" ht="15" hidden="1" spans="1:7">
+    <row r="358" ht="15" spans="1:7">
       <c r="A358" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D358" s="7" t="s">
         <v>25</v>
@@ -11904,7 +11931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" ht="15" hidden="1" spans="1:7">
+    <row r="359" ht="15" spans="1:7">
       <c r="A359" s="6" t="s">
         <v>221</v>
       </c>
@@ -11912,7 +11939,7 @@
         <v>218</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D359" s="7" t="s">
         <v>10</v>
@@ -11927,7 +11954,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="360" ht="15" hidden="1" spans="1:7">
+    <row r="360" ht="15" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>217</v>
       </c>
@@ -11935,7 +11962,7 @@
         <v>218</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D360" s="7" t="s">
         <v>16</v>
@@ -11950,15 +11977,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="361" ht="15" hidden="1" spans="1:7">
+    <row r="361" ht="15" spans="1:7">
       <c r="A361" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D361" s="7" t="s">
         <v>25</v>
@@ -11973,15 +12000,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" ht="15" hidden="1" spans="1:7">
+    <row r="362" ht="15" spans="1:7">
       <c r="A362" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B362" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D362" s="7" t="s">
         <v>25</v>
@@ -11996,7 +12023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" ht="15" hidden="1" spans="1:7">
+    <row r="363" ht="15" spans="1:7">
       <c r="A363" s="6" t="s">
         <v>519</v>
       </c>
@@ -12004,7 +12031,7 @@
         <v>520</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>33</v>
@@ -12019,15 +12046,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="364" ht="15" hidden="1" spans="1:7">
+    <row r="364" ht="15" spans="1:7">
       <c r="A364" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>19</v>
@@ -12042,15 +12069,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="365" ht="15" hidden="1" spans="1:7">
+    <row r="365" ht="15" spans="1:7">
       <c r="A365" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>25</v>
@@ -12065,15 +12092,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="366" ht="15" hidden="1" spans="1:7">
+    <row r="366" ht="15" spans="1:7">
       <c r="A366" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D366" s="7" t="s">
         <v>10</v>
@@ -12088,15 +12115,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="367" ht="15" hidden="1" spans="1:7">
+    <row r="367" ht="15" spans="1:7">
       <c r="A367" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C367" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>16</v>
@@ -12111,15 +12138,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="368" ht="15" hidden="1" spans="1:7">
+    <row r="368" ht="15" spans="1:7">
       <c r="A368" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D368" s="7" t="s">
         <v>19</v>
@@ -12128,21 +12155,21 @@
         <v>49</v>
       </c>
       <c r="F368" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G368" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="369" ht="15" hidden="1" spans="1:7">
+    <row r="369" ht="15" spans="1:7">
       <c r="A369" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D369" s="7" t="s">
         <v>25</v>
@@ -12151,21 +12178,21 @@
         <v>49</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G369" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="370" ht="15" hidden="1" spans="1:7">
+    <row r="370" ht="15" spans="1:7">
       <c r="A370" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D370" s="7" t="s">
         <v>33</v>
@@ -12174,136 +12201,136 @@
         <v>43</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G370" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="371" ht="15" hidden="1" spans="1:7">
-      <c r="A371" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="B371" s="7" t="s">
+    <row r="371" ht="15" spans="1:7">
+      <c r="A371" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B371" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C371" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D371" s="7" t="s">
+      <c r="C371" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="D371" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E371" s="7" t="s">
+      <c r="E371" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F371" s="7" t="s">
+      <c r="F371" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="G371" s="7" t="s">
+      <c r="G371" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="372" ht="15" hidden="1" spans="1:7">
-      <c r="A372" s="6" t="s">
+    <row r="372" ht="15" spans="1:7">
+      <c r="A372" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C372" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="D372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="373" ht="15" spans="1:7">
+      <c r="A373" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B373" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C372" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D372" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E372" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F372" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G372" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="373" ht="15" hidden="1" spans="1:7">
-      <c r="A373" s="6" t="s">
+      <c r="C373" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="D373" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F373" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374" ht="15" spans="1:7">
+      <c r="A374" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B374" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C373" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D373" s="7" t="s">
+      <c r="C374" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="D374" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E373" s="7" t="s">
+      <c r="E374" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F373" s="7" t="s">
+      <c r="F374" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="G373" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="374" ht="15" hidden="1" spans="1:7">
-      <c r="A374" s="6" t="s">
+      <c r="G374" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="375" ht="15" spans="1:7">
+      <c r="A375" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C375" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B374" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D374" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E374" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F374" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G374" s="7" t="s">
+      <c r="D375" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G375" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="375" ht="15" hidden="1" spans="1:7">
-      <c r="A375" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="B375" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D375" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E375" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F375" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G375" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="376" ht="15" hidden="1" spans="1:7">
+    <row r="376" ht="15" spans="1:7">
       <c r="A376" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>19</v>
@@ -12318,15 +12345,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="377" ht="15" hidden="1" spans="1:7">
+    <row r="377" ht="15" spans="1:7">
       <c r="A377" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D377" s="8" t="s">
         <v>25</v>
@@ -12341,15 +12368,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="378" ht="15" hidden="1" spans="1:7">
+    <row r="378" ht="15" spans="1:7">
       <c r="A378" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D378" s="7" t="s">
         <v>19</v>
@@ -12364,15 +12391,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="379" ht="15" hidden="1" spans="1:7">
+    <row r="379" ht="15" spans="1:7">
       <c r="A379" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B379" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>630</v>
-      </c>
       <c r="C379" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>10</v>
@@ -12387,15 +12414,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="380" ht="15" hidden="1" spans="1:7">
+    <row r="380" ht="15" spans="1:7">
       <c r="A380" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D380" s="7" t="s">
         <v>16</v>
@@ -12410,15 +12437,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="381" ht="15" hidden="1" spans="1:7">
+    <row r="381" ht="15" spans="1:7">
       <c r="A381" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D381" s="9" t="s">
         <v>10</v>
@@ -12427,44 +12454,44 @@
         <v>56</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="382" ht="15" hidden="1" spans="1:7">
+    <row r="382" ht="15" spans="1:7">
       <c r="A382" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D382" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D382" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E382" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="383" ht="15" hidden="1" spans="1:7">
+    <row r="383" ht="15" spans="1:7">
       <c r="A383" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D383" s="9" t="s">
         <v>19</v>
@@ -12479,15 +12506,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" ht="15" hidden="1" spans="1:7">
+    <row r="384" ht="15" spans="1:7">
       <c r="A384" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>25</v>
@@ -12502,15 +12529,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="385" ht="15" hidden="1" spans="1:7">
+    <row r="385" ht="15" spans="1:7">
       <c r="A385" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>51</v>
@@ -12525,7 +12552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" ht="15" hidden="1" spans="1:7">
+    <row r="386" ht="15" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>253</v>
       </c>
@@ -12533,7 +12560,7 @@
         <v>254</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D386" s="7" t="s">
         <v>19</v>
@@ -12548,7 +12575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="387" ht="15" hidden="1" spans="1:7">
+    <row r="387" ht="15" spans="1:7">
       <c r="A387" s="6" t="s">
         <v>477</v>
       </c>
@@ -12556,7 +12583,7 @@
         <v>77</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D387" s="7" t="s">
         <v>10</v>
@@ -12571,7 +12598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="388" ht="15" hidden="1" spans="1:7">
+    <row r="388" ht="15" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>478</v>
       </c>
@@ -12579,7 +12606,7 @@
         <v>81</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>16</v>
@@ -12594,15 +12621,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="389" ht="15" hidden="1" spans="1:7">
+    <row r="389" ht="15" spans="1:7">
       <c r="A389" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C389" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="B389" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>19</v>
@@ -12617,15 +12644,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" ht="15" hidden="1" spans="1:7">
+    <row r="390" ht="15" spans="1:7">
       <c r="A390" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>25</v>
@@ -12640,7 +12667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" ht="15" hidden="1" spans="1:7">
+    <row r="391" ht="15" spans="1:7">
       <c r="A391" s="6" t="s">
         <v>251</v>
       </c>
@@ -12648,7 +12675,7 @@
         <v>252</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>19</v>
@@ -12663,15 +12690,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" ht="15" hidden="1" spans="1:7">
+    <row r="392" ht="15" spans="1:7">
       <c r="A392" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>19</v>
@@ -12686,15 +12713,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" ht="15" hidden="1" spans="1:7">
+    <row r="393" ht="15" spans="1:7">
       <c r="A393" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C393" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="B393" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>19</v>
@@ -12709,15 +12736,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" ht="15" hidden="1" spans="1:7">
+    <row r="394" ht="15" spans="1:7">
       <c r="A394" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D394" s="7" t="s">
         <v>25</v>
@@ -12732,15 +12759,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="395" ht="15" hidden="1" spans="1:7">
+    <row r="395" ht="15" spans="1:7">
       <c r="A395" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D395" s="7" t="s">
         <v>19</v>
@@ -12749,21 +12776,21 @@
         <v>20</v>
       </c>
       <c r="F395" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G395" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="396" ht="15" hidden="1" spans="1:7">
+    <row r="396" ht="15" spans="1:7">
       <c r="A396" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>25</v>
@@ -12772,21 +12799,21 @@
         <v>20</v>
       </c>
       <c r="F396" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G396" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="397" ht="15" hidden="1" spans="1:7">
+    <row r="397" ht="15" spans="1:7">
       <c r="A397" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>10</v>
@@ -12801,15 +12828,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="398" ht="15" hidden="1" spans="1:7">
+    <row r="398" ht="15" spans="1:7">
       <c r="A398" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>16</v>
@@ -12824,7 +12851,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="399" ht="15" hidden="1" spans="1:7">
+    <row r="399" ht="15" spans="1:7">
       <c r="A399" s="6" t="s">
         <v>168</v>
       </c>
@@ -12832,7 +12859,7 @@
         <v>166</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>19</v>
@@ -12847,7 +12874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="400" ht="15" hidden="1" spans="1:7">
+    <row r="400" ht="15" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>167</v>
       </c>
@@ -12855,7 +12882,7 @@
         <v>166</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D400" s="7" t="s">
         <v>10</v>
@@ -12870,7 +12897,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="401" ht="15" hidden="1" spans="1:7">
+    <row r="401" ht="15" spans="1:7">
       <c r="A401" s="6" t="s">
         <v>165</v>
       </c>
@@ -12878,7 +12905,7 @@
         <v>166</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>16</v>
@@ -12893,15 +12920,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="402" ht="15" hidden="1" spans="1:7">
+    <row r="402" ht="15" spans="1:7">
       <c r="A402" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>25</v>
@@ -12916,15 +12943,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="403" ht="15" hidden="1" spans="1:7">
+    <row r="403" ht="15" spans="1:7">
       <c r="A403" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B403" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D403" s="7" t="s">
         <v>10</v>
@@ -12939,7 +12966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="404" ht="15" hidden="1" spans="1:7">
+    <row r="404" ht="15" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>76</v>
       </c>
@@ -12947,7 +12974,7 @@
         <v>77</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>10</v>
@@ -12962,7 +12989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" ht="15" hidden="1" spans="1:7">
+    <row r="405" ht="15" spans="1:7">
       <c r="A405" s="6" t="s">
         <v>80</v>
       </c>
@@ -12970,7 +12997,7 @@
         <v>81</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>16</v>
@@ -12985,15 +13012,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="406" ht="15" hidden="1" spans="1:7">
+    <row r="406" ht="15" spans="1:7">
       <c r="A406" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C406" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="B406" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>33</v>
@@ -13008,15 +13035,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" ht="15" hidden="1" spans="1:7">
+    <row r="407" ht="15" spans="1:7">
       <c r="A407" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>19</v>
@@ -13031,15 +13058,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" ht="15" hidden="1" spans="1:7">
+    <row r="408" ht="15" spans="1:7">
       <c r="A408" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>25</v>
@@ -13054,15 +13081,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" ht="15" hidden="1" spans="1:7">
+    <row r="409" ht="15" spans="1:7">
       <c r="A409" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>10</v>
@@ -13077,15 +13104,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" ht="15" hidden="1" spans="1:7">
+    <row r="410" ht="15" spans="1:7">
       <c r="A410" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>16</v>
@@ -13100,15 +13127,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" ht="15" hidden="1" spans="1:7">
+    <row r="411" ht="15" spans="1:7">
       <c r="A411" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>25</v>
@@ -13123,15 +13150,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" ht="15" hidden="1" spans="1:7">
+    <row r="412" ht="15" spans="1:7">
       <c r="A412" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C412" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="B412" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>10</v>
@@ -13146,15 +13173,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="413" ht="15" hidden="1" spans="1:7">
+    <row r="413" ht="15" spans="1:7">
       <c r="A413" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>33</v>
@@ -13169,15 +13196,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" ht="15" hidden="1" spans="1:7">
+    <row r="414" ht="15" spans="1:7">
       <c r="A414" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>19</v>
@@ -13192,15 +13219,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="415" ht="15" hidden="1" spans="1:7">
+    <row r="415" ht="15" spans="1:7">
       <c r="A415" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>33</v>
@@ -13215,15 +13242,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="416" ht="15" hidden="1" spans="1:7">
+    <row r="416" ht="15" spans="1:7">
       <c r="A416" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C416" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="B416" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>19</v>
@@ -13238,15 +13265,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="417" ht="15" hidden="1" spans="1:7">
+    <row r="417" ht="15" spans="1:7">
       <c r="A417" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C417" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="B417" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>25</v>
@@ -13261,15 +13288,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" ht="15" hidden="1" spans="1:7">
+    <row r="418" ht="15" spans="1:7">
       <c r="A418" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>33</v>
@@ -13284,7 +13311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="419" ht="15" hidden="1" spans="1:7">
+    <row r="419" ht="15" spans="1:7">
       <c r="A419" s="6" t="s">
         <v>138</v>
       </c>
@@ -13292,7 +13319,7 @@
         <v>77</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>10</v>
@@ -13307,7 +13334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="420" ht="15" hidden="1" spans="1:7">
+    <row r="420" ht="15" spans="1:7">
       <c r="A420" s="6" t="s">
         <v>140</v>
       </c>
@@ -13315,7 +13342,7 @@
         <v>81</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>16</v>
@@ -13330,15 +13357,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="421" ht="15" hidden="1" spans="1:7">
+    <row r="421" ht="15" spans="1:7">
       <c r="A421" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>10</v>
@@ -13353,15 +13380,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" ht="15" hidden="1" spans="1:7">
+    <row r="422" ht="15" spans="1:7">
       <c r="A422" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D422" s="7" t="s">
         <v>16</v>
@@ -13376,15 +13403,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="423" ht="15" hidden="1" spans="1:7">
+    <row r="423" ht="15" spans="1:7">
       <c r="A423" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D423" s="8" t="s">
         <v>33</v>
@@ -13399,15 +13426,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="424" ht="15" hidden="1" spans="1:7">
+    <row r="424" ht="15" spans="1:7">
       <c r="A424" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>19</v>
@@ -13422,15 +13449,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="425" ht="15" hidden="1" spans="1:7">
+    <row r="425" ht="15" spans="1:7">
       <c r="A425" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>25</v>
@@ -13445,7 +13472,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="426" ht="15" hidden="1" spans="1:7">
+    <row r="426" ht="15" spans="1:7">
       <c r="A426" s="6" t="s">
         <v>228</v>
       </c>
@@ -13453,7 +13480,7 @@
         <v>229</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>19</v>
@@ -13468,15 +13495,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="427" ht="15" hidden="1" spans="1:7">
+    <row r="427" ht="15" spans="1:7">
       <c r="A427" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C427" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="B427" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>694</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>25</v>
@@ -13491,15 +13518,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="428" ht="15" hidden="1" spans="1:7">
+    <row r="428" ht="15" spans="1:7">
       <c r="A428" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>33</v>
@@ -13514,15 +13541,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="429" ht="15" hidden="1" spans="1:7">
+    <row r="429" ht="15" spans="1:7">
       <c r="A429" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D429" s="7" t="s">
         <v>10</v>
@@ -13537,15 +13564,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="430" ht="15" hidden="1" spans="1:7">
+    <row r="430" ht="15" spans="1:7">
       <c r="A430" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>16</v>
@@ -13560,15 +13587,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="431" ht="15" hidden="1" spans="1:7">
+    <row r="431" ht="15" spans="1:7">
       <c r="A431" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>33</v>
@@ -13583,15 +13610,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="432" ht="15" hidden="1" spans="1:7">
+    <row r="432" ht="15" spans="1:7">
       <c r="A432" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>10</v>
@@ -13606,35 +13633,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" ht="15" hidden="1" spans="1:7">
-      <c r="A433" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="B433" s="12" t="s">
+    <row r="433" ht="15" spans="1:7">
+      <c r="A433" s="13" t="s">
         <v>708</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D433" s="12" t="s">
+      <c r="D433" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E433" s="12" t="s">
+      <c r="E433" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="G433" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="G433" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="434" ht="15" hidden="1" spans="1:7">
-      <c r="A434" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B434" s="14" t="s">
-        <v>710</v>
+    <row r="434" ht="15" spans="1:7">
+      <c r="A434" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="B434" s="16" t="s">
+        <v>711</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>482</v>
@@ -13642,45 +13669,45 @@
       <c r="D434" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E434" s="14" t="s">
+      <c r="E434" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F434" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="G434" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="G434" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="435" ht="15" hidden="1" spans="1:7">
-      <c r="A435" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="B435" s="14" t="s">
+    <row r="435" ht="15" spans="1:7">
+      <c r="A435" s="15" t="s">
         <v>712</v>
+      </c>
+      <c r="B435" s="16" t="s">
+        <v>713</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D435" s="14" t="s">
+      <c r="D435" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E435" s="14" t="s">
+      <c r="E435" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F435" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="G435" s="14" t="s">
+      <c r="F435" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="G435" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="436" ht="15" hidden="1" spans="1:7">
-      <c r="A436" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="B436" s="14" t="s">
+    <row r="436" ht="15" spans="1:7">
+      <c r="A436" s="15" t="s">
         <v>715</v>
+      </c>
+      <c r="B436" s="16" t="s">
+        <v>716</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>482</v>
@@ -13688,45 +13715,45 @@
       <c r="D436" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E436" s="14" t="s">
+      <c r="E436" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F436" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="G436" s="14" t="s">
+      <c r="F436" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="G436" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="437" ht="15" hidden="1" spans="1:7">
-      <c r="A437" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="B437" s="14" t="s">
-        <v>717</v>
+    <row r="437" ht="15" spans="1:7">
+      <c r="A437" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="B437" s="16" t="s">
+        <v>718</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D437" s="14" t="s">
+      <c r="D437" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E437" s="14" t="s">
+      <c r="E437" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F437" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="G437" s="14" t="s">
+      <c r="F437" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="G437" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="438" ht="15" hidden="1" spans="1:7">
-      <c r="A438" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="B438" s="14" t="s">
+    <row r="438" ht="15" spans="1:7">
+      <c r="A438" s="15" t="s">
         <v>719</v>
+      </c>
+      <c r="B438" s="16" t="s">
+        <v>720</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>482</v>
@@ -13734,45 +13761,45 @@
       <c r="D438" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E438" s="14" t="s">
+      <c r="E438" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F438" s="14" t="s">
+      <c r="F438" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G438" s="14" t="s">
+      <c r="G438" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" ht="15" hidden="1" spans="1:7">
-      <c r="A439" s="13" t="s">
+    <row r="439" ht="15" spans="1:7">
+      <c r="A439" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="B439" s="16" t="s">
         <v>720</v>
-      </c>
-      <c r="B439" s="14" t="s">
-        <v>719</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D439" s="14" t="s">
+      <c r="D439" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E439" s="14" t="s">
+      <c r="E439" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F439" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G439" s="14" t="s">
+      <c r="G439" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="440" ht="15" hidden="1" spans="1:7">
-      <c r="A440" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="B440" s="14" t="s">
-        <v>719</v>
+    <row r="440" ht="15" spans="1:7">
+      <c r="A440" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>720</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>482</v>
@@ -13780,21 +13807,21 @@
       <c r="D440" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E440" s="14" t="s">
+      <c r="E440" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G440" s="14" t="s">
+      <c r="G440" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="441" ht="15" hidden="1" spans="1:7">
-      <c r="A441" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="B441" s="14" t="s">
+    <row r="441" ht="15" spans="1:7">
+      <c r="A441" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B441" s="16" t="s">
         <v>213</v>
       </c>
       <c r="C441" s="7" t="s">
@@ -13803,114 +13830,114 @@
       <c r="D441" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E441" s="14" t="s">
+      <c r="E441" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F441" s="14" t="s">
+      <c r="F441" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G441" s="14" t="s">
+      <c r="G441" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="442" ht="15" hidden="1" spans="1:7">
-      <c r="A442" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="B442" s="14" t="s">
+    <row r="442" ht="15" spans="1:7">
+      <c r="A442" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B442" s="16" t="s">
         <v>215</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D442" s="14" t="s">
+      <c r="D442" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E442" s="14" t="s">
+      <c r="E442" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F442" s="14" t="s">
+      <c r="F442" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G442" s="14" t="s">
+      <c r="G442" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="443" ht="15" hidden="1" spans="1:7">
-      <c r="A443" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="B443" s="14" t="s">
+    <row r="443" ht="15" spans="1:7">
+      <c r="A443" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="B443" s="16" t="s">
         <v>213</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D443" s="14" t="s">
+      <c r="D443" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E443" s="14" t="s">
+      <c r="E443" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F443" s="14" t="s">
+      <c r="F443" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G443" s="14" t="s">
+      <c r="G443" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="444" ht="15" hidden="1" spans="1:7">
-      <c r="A444" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="B444" s="14" t="s">
+    <row r="444" ht="15" spans="1:7">
+      <c r="A444" s="15" t="s">
         <v>725</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>726</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D444" s="14" t="s">
+      <c r="D444" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E444" s="14" t="s">
+      <c r="E444" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F444" s="14" t="s">
+      <c r="F444" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G444" s="14" t="s">
+      <c r="G444" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="445" ht="15" hidden="1" spans="1:7">
-      <c r="A445" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="B445" s="14" t="s">
+    <row r="445" ht="15" spans="1:7">
+      <c r="A445" s="15" t="s">
         <v>719</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>720</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D445" s="14" t="s">
+      <c r="D445" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E445" s="14" t="s">
+      <c r="E445" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F445" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="G445" s="14" t="s">
+      <c r="F445" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="G445" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="446" ht="15" hidden="1" spans="1:7">
-      <c r="A446" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>719</v>
+    <row r="446" ht="15" spans="1:7">
+      <c r="A446" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>720</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>482</v>
@@ -13918,68 +13945,68 @@
       <c r="D446" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E446" s="14" t="s">
+      <c r="E446" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F446" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="G446" s="14" t="s">
+      <c r="F446" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="G446" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="447" ht="15" hidden="1" spans="1:7">
-      <c r="A447" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="B447" s="14" t="s">
+    <row r="447" ht="15" spans="1:7">
+      <c r="A447" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="B447" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D447" s="14" t="s">
+      <c r="D447" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E447" s="14" t="s">
+      <c r="E447" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F447" s="14" t="s">
+      <c r="F447" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G447" s="14" t="s">
+      <c r="G447" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="448" ht="15" hidden="1" spans="1:7">
-      <c r="A448" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="B448" s="14" t="s">
+    <row r="448" ht="15" spans="1:7">
+      <c r="A448" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="B448" s="16" t="s">
         <v>541</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D448" s="14" t="s">
+      <c r="D448" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E448" s="14" t="s">
+      <c r="E448" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F448" s="14" t="s">
+      <c r="F448" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="G448" s="14" t="s">
+      <c r="G448" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="449" ht="15" hidden="1" spans="1:7">
-      <c r="A449" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="B449" s="15" t="s">
+    <row r="449" ht="15" spans="1:7">
+      <c r="A449" s="17" t="s">
         <v>715</v>
+      </c>
+      <c r="B449" s="17" t="s">
+        <v>716</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>482</v>
@@ -13987,44 +14014,44 @@
       <c r="D449" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E449" s="15" t="s">
+      <c r="E449" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F449" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="G449" s="15" t="s">
+      <c r="F449" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="G449" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="450" ht="15" hidden="1" spans="1:7">
-      <c r="A450" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="B450" s="15" t="s">
-        <v>717</v>
+    <row r="450" ht="15" spans="1:7">
+      <c r="A450" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B450" s="17" t="s">
+        <v>718</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D450" s="14" t="s">
+      <c r="D450" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E450" s="15" t="s">
+      <c r="E450" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F450" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="G450" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="G450" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="451" ht="15" hidden="1" spans="1:7">
-      <c r="A451" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="B451" s="14" t="s">
+    <row r="451" ht="15" spans="1:7">
+      <c r="A451" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="B451" s="16" t="s">
         <v>215</v>
       </c>
       <c r="C451" s="7" t="s">
@@ -14033,2118 +14060,2118 @@
       <c r="D451" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E451" s="14" t="s">
+      <c r="E451" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F451" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G451" s="14" t="s">
+      <c r="G451" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="452" ht="15" hidden="1" spans="1:7">
-      <c r="A452" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="B452" s="14" t="s">
+    <row r="452" ht="15" spans="1:7">
+      <c r="A452" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="B452" s="16" t="s">
         <v>572</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D452" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E452" s="14" t="s">
+      <c r="E452" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F452" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G452" s="14" t="s">
+      <c r="G452" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="453" ht="15" hidden="1" spans="1:7">
-      <c r="A453" s="13" t="s">
+    <row r="453" ht="15" spans="1:7">
+      <c r="A453" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="B453" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C453" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="B453" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="C453" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D453" s="14" t="s">
+      <c r="D453" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E453" s="14" t="s">
+      <c r="E453" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F453" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G453" s="14" t="s">
+      <c r="F453" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G453" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="454" ht="15" hidden="1" spans="1:7">
-      <c r="A454" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="B454" s="14" t="s">
+    <row r="454" ht="15" spans="1:7">
+      <c r="A454" s="15" t="s">
         <v>735</v>
       </c>
+      <c r="B454" s="16" t="s">
+        <v>736</v>
+      </c>
       <c r="C454" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D454" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E454" s="14" t="s">
+      <c r="E454" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F454" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G454" s="14" t="s">
+      <c r="F454" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G454" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="455" ht="15" hidden="1" spans="1:7">
-      <c r="A455" s="13" t="s">
+    <row r="455" ht="15" spans="1:7">
+      <c r="A455" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="D455" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E455" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F455" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G455" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="456" ht="15" spans="1:7">
+      <c r="A456" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="B456" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="B455" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="C455" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D455" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E455" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F455" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G455" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="456" ht="15" hidden="1" spans="1:7">
-      <c r="A456" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>735</v>
-      </c>
       <c r="C456" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D456" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E456" s="14" t="s">
+      <c r="E456" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F456" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G456" s="14" t="s">
+      <c r="F456" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G456" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="457" ht="15" hidden="1" spans="1:7">
-      <c r="A457" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="B457" s="14" t="s">
+    <row r="457" ht="15" spans="1:7">
+      <c r="A457" s="15" t="s">
         <v>739</v>
       </c>
+      <c r="B457" s="16" t="s">
+        <v>740</v>
+      </c>
       <c r="C457" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D457" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="D457" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E457" s="14" t="s">
+      <c r="E457" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F457" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G457" s="14" t="s">
+      <c r="F457" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G457" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="458" ht="15" hidden="1" spans="1:7">
-      <c r="A458" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="B458" s="14" t="s">
+    <row r="458" ht="15" spans="1:7">
+      <c r="A458" s="15" t="s">
         <v>741</v>
       </c>
+      <c r="B458" s="16" t="s">
+        <v>742</v>
+      </c>
       <c r="C458" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D458" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E458" s="14" t="s">
+      <c r="E458" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F458" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G458" s="14" t="s">
+      <c r="F458" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G458" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="459" ht="15" hidden="1" spans="1:7">
-      <c r="A459" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="B459" s="14" t="s">
+    <row r="459" ht="15" spans="1:7">
+      <c r="A459" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B459" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D459" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D459" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E459" s="14" t="s">
+      <c r="E459" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F459" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G459" s="14" t="s">
+      <c r="G459" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="460" ht="15" hidden="1" spans="1:7">
-      <c r="A460" s="13" t="s">
+    <row r="460" ht="15" spans="1:7">
+      <c r="A460" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="C460" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="B460" s="14" t="s">
-        <v>745</v>
-      </c>
-      <c r="C460" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E460" s="14" t="s">
+      <c r="E460" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F460" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G460" s="14" t="s">
+      <c r="G460" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="461" ht="15" hidden="1" spans="1:7">
-      <c r="A461" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="B461" s="14" t="s">
+    <row r="461" ht="15" spans="1:7">
+      <c r="A461" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="B461" s="16" t="s">
         <v>460</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D461" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D461" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E461" s="14" t="s">
+      <c r="E461" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F461" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G461" s="14" t="s">
+      <c r="G461" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="462" ht="15" hidden="1" spans="1:7">
-      <c r="A462" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="B462" s="14" t="s">
+    <row r="462" ht="15" spans="1:7">
+      <c r="A462" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="B462" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E462" s="14" t="s">
+      <c r="E462" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F462" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G462" s="14" t="s">
+      <c r="G462" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="463" ht="15" hidden="1" spans="1:7">
-      <c r="A463" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="B463" s="14" t="s">
+    <row r="463" ht="15" spans="1:7">
+      <c r="A463" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="B463" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D463" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D463" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E463" s="14" t="s">
+      <c r="E463" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F463" s="14" t="s">
+      <c r="F463" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G463" s="14" t="s">
+      <c r="G463" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="464" ht="15" hidden="1" spans="1:7">
-      <c r="A464" s="13" t="s">
+    <row r="464" ht="15" spans="1:7">
+      <c r="A464" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="C464" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="B464" s="14" t="s">
-        <v>745</v>
-      </c>
-      <c r="C464" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D464" s="14" t="s">
+      <c r="D464" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E464" s="14" t="s">
+      <c r="E464" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F464" s="14" t="s">
+      <c r="F464" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G464" s="14" t="s">
+      <c r="G464" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="465" ht="15" hidden="1" spans="1:7">
-      <c r="A465" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="B465" s="14" t="s">
+    <row r="465" ht="15" spans="1:7">
+      <c r="A465" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="B465" s="16" t="s">
         <v>460</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D465" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D465" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E465" s="14" t="s">
+      <c r="E465" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F465" s="14" t="s">
+      <c r="F465" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G465" s="14" t="s">
+      <c r="G465" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="466" ht="15" hidden="1" spans="1:7">
-      <c r="A466" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="B466" s="15" t="s">
+    <row r="466" ht="15" spans="1:7">
+      <c r="A466" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="B466" s="17" t="s">
         <v>568</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D466" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D466" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E466" s="15" t="s">
+      <c r="E466" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F466" s="15" t="s">
+      <c r="F466" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G466" s="15" t="s">
+      <c r="G466" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="467" ht="15" hidden="1" spans="1:7">
-      <c r="A467" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="B467" s="14" t="s">
+    <row r="467" ht="15" spans="1:7">
+      <c r="A467" s="15" t="s">
         <v>751</v>
       </c>
+      <c r="B467" s="16" t="s">
+        <v>752</v>
+      </c>
       <c r="C467" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E467" s="14" t="s">
+      <c r="E467" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F467" s="14" t="s">
+      <c r="F467" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G467" s="14" t="s">
+      <c r="G467" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="468" ht="15" hidden="1" spans="1:7">
-      <c r="A468" s="13" t="s">
+    <row r="468" ht="15" spans="1:7">
+      <c r="A468" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="C468" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="B468" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="C468" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D468" s="14" t="s">
+      <c r="D468" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E468" s="14" t="s">
+      <c r="E468" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F468" s="14" t="s">
+      <c r="F468" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G468" s="14" t="s">
+      <c r="G468" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="469" ht="15" hidden="1" spans="1:7">
-      <c r="A469" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="B469" s="14" t="s">
+    <row r="469" ht="15" spans="1:7">
+      <c r="A469" s="15" t="s">
         <v>756</v>
       </c>
+      <c r="B469" s="16" t="s">
+        <v>757</v>
+      </c>
       <c r="C469" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D469" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D469" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E469" s="14" t="s">
+      <c r="E469" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F469" s="14" t="s">
+      <c r="F469" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="G469" s="14" t="s">
+      <c r="G469" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="470" ht="15" hidden="1" spans="1:7">
-      <c r="A470" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="B470" s="14" t="s">
+    <row r="470" ht="15" spans="1:7">
+      <c r="A470" s="15" t="s">
         <v>758</v>
       </c>
+      <c r="B470" s="16" t="s">
+        <v>759</v>
+      </c>
       <c r="C470" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D470" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D470" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E470" s="14" t="s">
+      <c r="E470" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F470" s="14" t="s">
+      <c r="F470" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G470" s="14" t="s">
+      <c r="G470" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="471" ht="15" hidden="1" spans="1:7">
-      <c r="A471" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="B471" s="14" t="s">
+    <row r="471" ht="15" spans="1:7">
+      <c r="A471" s="15" t="s">
         <v>760</v>
       </c>
+      <c r="B471" s="16" t="s">
+        <v>761</v>
+      </c>
       <c r="C471" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D471" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D471" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E471" s="14" t="s">
+      <c r="E471" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F471" s="14" t="s">
+      <c r="F471" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G471" s="14" t="s">
+      <c r="G471" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="472" ht="15" hidden="1" spans="1:7">
-      <c r="A472" s="13" t="s">
+    <row r="472" ht="15" spans="1:7">
+      <c r="A472" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D472" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E472" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F472" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G472" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="473" ht="15" spans="1:7">
+      <c r="A473" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="B473" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="B472" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D472" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E472" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F472" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G472" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="473" ht="15" hidden="1" spans="1:7">
-      <c r="A473" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>760</v>
-      </c>
       <c r="C473" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E473" s="14" t="s">
+      <c r="E473" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F473" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="G473" s="14" t="s">
+      <c r="F473" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="G473" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="474" ht="15" hidden="1" spans="1:7">
-      <c r="A474" s="13" t="s">
+    <row r="474" ht="15" spans="1:7">
+      <c r="A474" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D474" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E474" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F474" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="B474" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="C474" s="7" t="s">
+      <c r="G474" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="475" ht="15" spans="1:7">
+      <c r="A475" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="B475" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="D474" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E474" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F474" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="G474" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="475" ht="15" hidden="1" spans="1:7">
-      <c r="A475" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>751</v>
-      </c>
       <c r="C475" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E475" s="14" t="s">
+      <c r="E475" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F475" s="14" t="s">
+      <c r="F475" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G475" s="14" t="s">
+      <c r="G475" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="476" ht="15" hidden="1" spans="1:7">
-      <c r="A476" s="13" t="s">
-        <v>766</v>
-      </c>
-      <c r="B476" s="14" t="s">
-        <v>760</v>
+    <row r="476" ht="15" spans="1:7">
+      <c r="A476" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>761</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D476" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D476" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E476" s="14" t="s">
+      <c r="E476" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F476" s="14" t="s">
+      <c r="F476" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G476" s="14" t="s">
+      <c r="G476" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="477" ht="15" hidden="1" spans="1:7">
-      <c r="A477" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="B477" s="14" t="s">
-        <v>762</v>
+    <row r="477" ht="15" spans="1:7">
+      <c r="A477" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>763</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D477" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D477" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E477" s="14" t="s">
+      <c r="E477" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F477" s="14" t="s">
+      <c r="F477" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G477" s="14" t="s">
+      <c r="G477" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="478" ht="15" hidden="1" spans="1:7">
-      <c r="A478" s="13" t="s">
-        <v>768</v>
-      </c>
-      <c r="B478" s="14" t="s">
+    <row r="478" ht="15" spans="1:7">
+      <c r="A478" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B478" s="16" t="s">
         <v>273</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E478" s="14" t="s">
+      <c r="E478" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F478" s="14" t="s">
+      <c r="F478" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G478" s="14" t="s">
+      <c r="G478" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="479" ht="15" hidden="1" spans="1:7">
-      <c r="A479" s="13" t="s">
+    <row r="479" ht="15" spans="1:7">
+      <c r="A479" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C479" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="B479" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C479" s="7" t="s">
-        <v>769</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E479" s="14" t="s">
+      <c r="E479" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F479" s="14" t="s">
+      <c r="F479" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G479" s="14" t="s">
+      <c r="G479" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="480" ht="15" hidden="1" spans="1:7">
-      <c r="A480" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="B480" s="15" t="s">
+    <row r="480" ht="15" spans="1:7">
+      <c r="A480" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="B480" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="D480" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="D480" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E480" s="15" t="s">
+      <c r="E480" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F480" s="15" t="s">
+      <c r="F480" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G480" s="15" t="s">
+      <c r="G480" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="481" ht="15" hidden="1" spans="1:7">
-      <c r="A481" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="B481" s="15" t="s">
+    <row r="481" ht="15" spans="1:7">
+      <c r="A481" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B481" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="D481" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="D481" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E481" s="15" t="s">
+      <c r="E481" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F481" s="15" t="s">
+      <c r="F481" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G481" s="15" t="s">
+      <c r="G481" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="482" ht="15" hidden="1" spans="1:7">
-      <c r="A482" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="B482" s="15" t="s">
+    <row r="482" ht="15" spans="1:7">
+      <c r="A482" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B482" s="17" t="s">
         <v>433</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D482" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E482" s="15" t="s">
+      <c r="E482" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F482" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G482" s="15" t="s">
+      <c r="G482" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="483" ht="15" hidden="1" spans="1:7">
-      <c r="A483" s="13" t="s">
+    <row r="483" ht="15" spans="1:7">
+      <c r="A483" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="D483" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="D483" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E483" s="14" t="s">
+      <c r="E483" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F483" s="14" t="s">
+      <c r="F483" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G483" s="14" t="s">
+      <c r="G483" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="484" ht="15" hidden="1" spans="1:7">
-      <c r="A484" s="13" t="s">
+    <row r="484" ht="15" spans="1:7">
+      <c r="A484" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E484" s="14" t="s">
+      <c r="E484" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F484" s="14" t="s">
+      <c r="F484" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G484" s="14" t="s">
+      <c r="G484" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="485" ht="15" hidden="1" spans="1:7">
-      <c r="A485" s="13" t="s">
+    <row r="485" ht="15" spans="1:7">
+      <c r="A485" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B485" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C485" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="D485" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E485" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F485" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G485" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="486" ht="15" spans="1:7">
+      <c r="A486" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B486" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C485" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="D485" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E485" s="14" t="s">
+      <c r="C486" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D486" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E486" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F485" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G485" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="486" ht="15" hidden="1" spans="1:7">
-      <c r="A486" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B486" s="14" t="s">
+      <c r="F486" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="G486" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="487" ht="15" spans="1:7">
+      <c r="A487" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B487" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C486" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="D486" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E486" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F486" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G486" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="487" ht="15" hidden="1" spans="1:7">
-      <c r="A487" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B487" s="14" t="s">
-        <v>325</v>
-      </c>
       <c r="C487" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D487" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E487" s="14" t="s">
+      <c r="E487" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F487" s="14" t="s">
+      <c r="F487" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G487" s="14" t="s">
+      <c r="G487" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="488" ht="15" hidden="1" spans="1:7">
-      <c r="A488" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="B488" s="14" t="s">
+    <row r="488" ht="15" spans="1:7">
+      <c r="A488" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B488" s="16" t="s">
         <v>325</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="D488" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="D488" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E488" s="14" t="s">
+      <c r="E488" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F488" s="14" t="s">
+      <c r="F488" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G488" s="14" t="s">
+      <c r="G488" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="489" ht="15" hidden="1" spans="1:7">
-      <c r="A489" s="13" t="s">
-        <v>775</v>
-      </c>
-      <c r="B489" s="14" t="s">
+    <row r="489" ht="15" spans="1:7">
+      <c r="A489" s="15" t="s">
         <v>776</v>
       </c>
+      <c r="B489" s="16" t="s">
+        <v>777</v>
+      </c>
       <c r="C489" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D489" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E489" s="14" t="s">
+      <c r="E489" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F489" s="14" t="s">
+      <c r="F489" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="G489" s="14" t="s">
+      <c r="G489" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="490" ht="15" hidden="1" spans="1:7">
-      <c r="A490" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="B490" s="14" t="s">
+    <row r="490" ht="15" spans="1:7">
+      <c r="A490" s="15" t="s">
         <v>779</v>
       </c>
+      <c r="B490" s="16" t="s">
+        <v>780</v>
+      </c>
       <c r="C490" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D490" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E490" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F490" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G490" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="491" ht="15" spans="1:7">
+      <c r="A491" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="B491" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D491" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E491" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F491" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G491" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="492" ht="15" spans="1:7">
+      <c r="A492" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B492" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="D490" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E490" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F490" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G490" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="491" ht="15" hidden="1" spans="1:7">
-      <c r="A491" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="B491" s="14" t="s">
+      <c r="C492" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="C491" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D491" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E491" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F491" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G491" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="492" ht="15" hidden="1" spans="1:7">
-      <c r="A492" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="B492" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="C492" s="7" t="s">
-        <v>780</v>
       </c>
       <c r="D492" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E492" s="14" t="s">
+      <c r="E492" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F492" s="14" t="s">
+      <c r="F492" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G492" s="14" t="s">
+      <c r="G492" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="493" ht="15" hidden="1" spans="1:7">
-      <c r="A493" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="B493" s="14" t="s">
+    <row r="493" ht="15" spans="1:7">
+      <c r="A493" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="B493" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C493" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="C493" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D493" s="14" t="s">
+      <c r="D493" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E493" s="14" t="s">
+      <c r="E493" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F493" s="14" t="s">
+      <c r="F493" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G493" s="14" t="s">
+      <c r="G493" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="494" ht="15" hidden="1" spans="1:7">
-      <c r="A494" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="B494" s="14" t="s">
+    <row r="494" ht="15" spans="1:7">
+      <c r="A494" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="B494" s="16" t="s">
         <v>273</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D494" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E494" s="14" t="s">
+      <c r="E494" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F494" s="14" t="s">
+      <c r="F494" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G494" s="14" t="s">
+      <c r="G494" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="495" ht="15" hidden="1" spans="1:7">
-      <c r="A495" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="B495" s="14" t="s">
+    <row r="495" ht="15" spans="1:7">
+      <c r="A495" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="B495" s="16" t="s">
         <v>273</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D495" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="D495" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E495" s="14" t="s">
+      <c r="E495" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F495" s="14" t="s">
+      <c r="F495" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G495" s="14" t="s">
+      <c r="G495" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="496" ht="15" hidden="1" spans="1:7">
-      <c r="A496" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B496" s="14" t="s">
+    <row r="496" ht="15" spans="1:7">
+      <c r="A496" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B496" s="16" t="s">
         <v>276</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E496" s="14" t="s">
+      <c r="E496" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F496" s="14" t="s">
+      <c r="F496" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G496" s="14" t="s">
+      <c r="G496" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="497" ht="15" hidden="1" spans="1:7">
-      <c r="A497" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="B497" s="14" t="s">
+    <row r="497" ht="15" spans="1:7">
+      <c r="A497" s="15" t="s">
         <v>788</v>
       </c>
+      <c r="B497" s="16" t="s">
+        <v>789</v>
+      </c>
       <c r="C497" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D497" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D497" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E497" s="14" t="s">
+      <c r="E497" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F497" s="14" t="s">
+      <c r="F497" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G497" s="14" t="s">
+      <c r="G497" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="498" ht="15" hidden="1" spans="1:7">
-      <c r="A498" s="13" t="s">
+    <row r="498" ht="15" spans="1:7">
+      <c r="A498" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="B498" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C498" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="B498" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="C498" s="7" t="s">
-        <v>789</v>
       </c>
       <c r="D498" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E498" s="14" t="s">
+      <c r="E498" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F498" s="14" t="s">
+      <c r="F498" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G498" s="14" t="s">
+      <c r="G498" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="499" ht="15" hidden="1" spans="1:7">
-      <c r="A499" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="B499" s="14" t="s">
+    <row r="499" ht="15" spans="1:7">
+      <c r="A499" s="15" t="s">
         <v>793</v>
       </c>
+      <c r="B499" s="16" t="s">
+        <v>794</v>
+      </c>
       <c r="C499" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D499" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D499" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E499" s="14" t="s">
+      <c r="E499" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F499" s="14" t="s">
+      <c r="F499" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G499" s="14" t="s">
+      <c r="G499" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="500" ht="15" hidden="1" spans="1:7">
-      <c r="A500" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="B500" s="14" t="s">
+    <row r="500" ht="15" spans="1:7">
+      <c r="A500" s="15" t="s">
         <v>795</v>
       </c>
+      <c r="B500" s="16" t="s">
+        <v>796</v>
+      </c>
       <c r="C500" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D500" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D500" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E500" s="14" t="s">
+      <c r="E500" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F500" s="14" t="s">
+      <c r="F500" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G500" s="14" t="s">
+      <c r="G500" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="501" ht="15" hidden="1" spans="1:7">
-      <c r="A501" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="B501" s="14" t="s">
-        <v>796</v>
+    <row r="501" ht="15" spans="1:7">
+      <c r="A501" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="B501" s="16" t="s">
+        <v>797</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D501" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D501" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E501" s="14" t="s">
+      <c r="E501" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F501" s="14" t="s">
+      <c r="F501" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G501" s="14" t="s">
+      <c r="G501" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="502" ht="15" hidden="1" spans="1:7">
-      <c r="A502" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B502" s="14" t="s">
+    <row r="502" ht="15" spans="1:7">
+      <c r="A502" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="B502" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D502" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E502" s="14" t="s">
+      <c r="E502" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F502" s="14" t="s">
+      <c r="F502" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G502" s="14" t="s">
+      <c r="G502" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="503" ht="15" hidden="1" spans="1:7">
-      <c r="A503" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="B503" s="14" t="s">
+    <row r="503" ht="15" spans="1:7">
+      <c r="A503" s="15" t="s">
         <v>799</v>
       </c>
+      <c r="B503" s="16" t="s">
+        <v>800</v>
+      </c>
       <c r="C503" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="D503" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E503" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F503" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G503" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="504" ht="15" spans="1:7">
+      <c r="A504" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="B504" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="D503" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E503" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F503" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G503" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="504" ht="15" hidden="1" spans="1:7">
-      <c r="A504" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="B504" s="14" t="s">
-        <v>799</v>
-      </c>
       <c r="C504" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D504" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E504" s="14" t="s">
+      <c r="E504" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F504" s="14" t="s">
+      <c r="F504" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G504" s="14" t="s">
+      <c r="G504" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="505" ht="15" hidden="1" spans="1:7">
-      <c r="A505" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="B505" s="14" t="s">
+    <row r="505" ht="15" spans="1:7">
+      <c r="A505" s="15" t="s">
         <v>799</v>
       </c>
+      <c r="B505" s="16" t="s">
+        <v>800</v>
+      </c>
       <c r="C505" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="D505" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="D505" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E505" s="14" t="s">
+      <c r="E505" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F505" s="14" t="s">
+      <c r="F505" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G505" s="14" t="s">
+      <c r="G505" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="506" ht="15" hidden="1" spans="1:7">
-      <c r="A506" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="B506" s="14" t="s">
+    <row r="506" ht="15" spans="1:7">
+      <c r="A506" s="15" t="s">
         <v>635</v>
       </c>
+      <c r="B506" s="16" t="s">
+        <v>636</v>
+      </c>
       <c r="C506" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="D506" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="D506" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E506" s="14" t="s">
+      <c r="E506" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F506" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G506" s="14" t="s">
+      <c r="F506" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G506" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="507" ht="15" hidden="1" spans="1:7">
-      <c r="A507" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="B507" s="14" t="s">
+    <row r="507" ht="15" spans="1:7">
+      <c r="A507" s="15" t="s">
         <v>639</v>
       </c>
+      <c r="B507" s="16" t="s">
+        <v>640</v>
+      </c>
       <c r="C507" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D507" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E507" s="14" t="s">
+      <c r="E507" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F507" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G507" s="14" t="s">
+      <c r="F507" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G507" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="508" ht="15" hidden="1" spans="1:7">
-      <c r="A508" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="B508" s="14" t="s">
+    <row r="508" ht="15" spans="1:7">
+      <c r="A508" s="15" t="s">
         <v>739</v>
       </c>
+      <c r="B508" s="16" t="s">
+        <v>740</v>
+      </c>
       <c r="C508" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="D508" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="D508" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E508" s="14" t="s">
+      <c r="E508" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F508" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G508" s="14" t="s">
+      <c r="F508" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G508" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="509" ht="15" hidden="1" spans="1:7">
-      <c r="A509" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="B509" s="14" t="s">
+    <row r="509" ht="15" spans="1:7">
+      <c r="A509" s="15" t="s">
         <v>741</v>
       </c>
+      <c r="B509" s="16" t="s">
+        <v>742</v>
+      </c>
       <c r="C509" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D509" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E509" s="14" t="s">
+      <c r="E509" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F509" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="G509" s="14" t="s">
+      <c r="F509" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G509" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="510" ht="15" hidden="1" spans="1:7">
-      <c r="A510" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B510" s="14" t="s">
+    <row r="510" ht="15" spans="1:7">
+      <c r="A510" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="B510" s="16" t="s">
         <v>472</v>
       </c>
       <c r="C510" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D510" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E510" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F510" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G510" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="511" ht="15" spans="1:7">
+      <c r="A511" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="D510" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E510" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F510" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G510" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="511" ht="15" hidden="1" spans="1:7">
-      <c r="A511" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B511" s="14" t="s">
+      <c r="B511" s="16" t="s">
         <v>472</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="D511" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="D511" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E511" s="14" t="s">
+      <c r="E511" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F511" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G511" s="14" t="s">
+      <c r="G511" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="512" ht="15" hidden="1" spans="1:7">
-      <c r="A512" s="13" t="s">
+    <row r="512" ht="15" spans="1:7">
+      <c r="A512" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="B512" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="C512" s="7" t="s">
         <v>804</v>
-      </c>
-      <c r="B512" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="C512" s="7" t="s">
-        <v>803</v>
       </c>
       <c r="D512" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E512" s="14" t="s">
+      <c r="E512" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F512" s="14" t="s">
+      <c r="F512" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G512" s="14" t="s">
+      <c r="G512" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="513" ht="15" hidden="1" spans="1:7">
-      <c r="A513" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="B513" s="14" t="s">
+    <row r="513" ht="15" spans="1:7">
+      <c r="A513" s="15" t="s">
         <v>807</v>
       </c>
+      <c r="B513" s="16" t="s">
+        <v>808</v>
+      </c>
       <c r="C513" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="D513" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="D513" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E513" s="14" t="s">
+      <c r="E513" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F513" s="14" t="s">
+      <c r="F513" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="G513" s="14" t="s">
+      <c r="G513" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="514" ht="15" hidden="1" spans="1:7">
-      <c r="A514" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="B514" s="14" t="s">
-        <v>808</v>
+    <row r="514" ht="15" spans="1:7">
+      <c r="A514" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="B514" s="16" t="s">
+        <v>809</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D514" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E514" s="14" t="s">
+      <c r="E514" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F514" s="14" t="s">
+      <c r="F514" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="G514" s="14" t="s">
+      <c r="G514" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="515" ht="15" hidden="1" spans="1:7">
-      <c r="A515" s="13" t="s">
-        <v>809</v>
-      </c>
-      <c r="B515" s="14" t="s">
+    <row r="515" ht="15" spans="1:7">
+      <c r="A515" s="15" t="s">
         <v>810</v>
       </c>
+      <c r="B515" s="16" t="s">
+        <v>811</v>
+      </c>
       <c r="C515" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="D515" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="D515" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E515" s="14" t="s">
+      <c r="E515" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F515" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="G515" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="G515" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="516" ht="15" hidden="1" spans="1:7">
-      <c r="A516" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="B516" s="14" t="s">
+    <row r="516" ht="15" spans="1:7">
+      <c r="A516" s="15" t="s">
         <v>813</v>
       </c>
+      <c r="B516" s="16" t="s">
+        <v>814</v>
+      </c>
       <c r="C516" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D516" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E516" s="14" t="s">
+      <c r="E516" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F516" s="14" t="s">
+      <c r="F516" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G516" s="14" t="s">
+      <c r="G516" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="517" ht="15" hidden="1" spans="1:7">
-      <c r="A517" s="13" t="s">
+    <row r="517" ht="15" spans="1:7">
+      <c r="A517" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="B517" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="C517" s="7" t="s">
         <v>815</v>
-      </c>
-      <c r="B517" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="C517" s="7" t="s">
-        <v>814</v>
       </c>
       <c r="D517" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E517" s="14" t="s">
+      <c r="E517" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F517" s="14" t="s">
+      <c r="F517" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G517" s="14" t="s">
+      <c r="G517" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="518" ht="15" hidden="1" spans="1:7">
-      <c r="A518" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="B518" s="14" t="s">
+    <row r="518" ht="15" spans="1:7">
+      <c r="A518" s="15" t="s">
         <v>818</v>
       </c>
+      <c r="B518" s="16" t="s">
+        <v>819</v>
+      </c>
       <c r="C518" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D518" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E518" s="14" t="s">
+      <c r="E518" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F518" s="14" t="s">
+      <c r="F518" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G518" s="14" t="s">
+      <c r="G518" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="519" ht="15" hidden="1" spans="1:7">
-      <c r="A519" s="13" t="s">
-        <v>819</v>
-      </c>
-      <c r="B519" s="14" t="s">
+    <row r="519" ht="15" spans="1:7">
+      <c r="A519" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="B519" s="16" t="s">
         <v>355</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D519" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="D519" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E519" s="14" t="s">
+      <c r="E519" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F519" s="14" t="s">
+      <c r="F519" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="G519" s="14" t="s">
+      <c r="G519" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="520" ht="15" hidden="1" spans="1:7">
-      <c r="A520" s="13" t="s">
+    <row r="520" ht="15" spans="1:7">
+      <c r="A520" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="B520" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="C520" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="B520" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="C520" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D520" s="14" t="s">
+      <c r="D520" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E520" s="14" t="s">
+      <c r="E520" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F520" s="14" t="s">
+      <c r="F520" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G520" s="14" t="s">
+      <c r="G520" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="521" ht="15" hidden="1" spans="1:7">
-      <c r="A521" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="B521" s="14" t="s">
+    <row r="521" ht="15" spans="1:7">
+      <c r="A521" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="B521" s="16" t="s">
         <v>415</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D521" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="D521" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E521" s="14" t="s">
+      <c r="E521" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F521" s="14" t="s">
+      <c r="F521" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G521" s="14" t="s">
+      <c r="G521" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="522" ht="15" hidden="1" spans="1:7">
-      <c r="A522" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="B522" s="14" t="s">
+    <row r="522" ht="15" spans="1:7">
+      <c r="A522" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="B522" s="16" t="s">
         <v>416</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D522" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="D522" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E522" s="14" t="s">
+      <c r="E522" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F522" s="14" t="s">
+      <c r="F522" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G522" s="14" t="s">
+      <c r="G522" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="523" ht="15" hidden="1" spans="1:7">
-      <c r="A523" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="B523" s="14" t="s">
+    <row r="523" ht="15" spans="1:7">
+      <c r="A523" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="B523" s="16" t="s">
         <v>355</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D523" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="D523" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E523" s="14" t="s">
+      <c r="E523" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F523" s="14" t="s">
+      <c r="F523" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="G523" s="14" t="s">
+      <c r="G523" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="524" ht="15" hidden="1" spans="1:7">
-      <c r="A524" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="B524" s="14" t="s">
+    <row r="524" ht="15" spans="1:7">
+      <c r="A524" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="B524" s="16" t="s">
         <v>415</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D524" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E524" s="14" t="s">
+      <c r="E524" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F524" s="14" t="s">
+      <c r="F524" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G524" s="14" t="s">
+      <c r="G524" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="525" ht="15" hidden="1" spans="1:7">
-      <c r="A525" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="B525" s="14" t="s">
+    <row r="525" ht="15" spans="1:7">
+      <c r="A525" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="B525" s="16" t="s">
         <v>416</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D525" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E525" s="14" t="s">
+      <c r="E525" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F525" s="14" t="s">
+      <c r="F525" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G525" s="14" t="s">
+      <c r="G525" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="526" ht="15" hidden="1" spans="1:7">
-      <c r="A526" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="B526" s="14" t="s">
-        <v>822</v>
+    <row r="526" ht="15" spans="1:7">
+      <c r="A526" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="B526" s="16" t="s">
+        <v>823</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D526" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="D526" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E526" s="14" t="s">
+      <c r="E526" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F526" s="14" t="s">
+      <c r="F526" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G526" s="14" t="s">
+      <c r="G526" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="527" ht="15" hidden="1" spans="1:7">
-      <c r="A527" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="B527" s="14" t="s">
+    <row r="527" ht="15" spans="1:7">
+      <c r="A527" s="15" t="s">
         <v>828</v>
       </c>
+      <c r="B527" s="16" t="s">
+        <v>829</v>
+      </c>
       <c r="C527" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D527" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E527" s="14" t="s">
+      <c r="E527" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F527" s="14" t="s">
+      <c r="F527" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G527" s="14" t="s">
+      <c r="G527" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="528" ht="15" hidden="1" spans="1:7">
-      <c r="A528" s="13" t="s">
+    <row r="528" ht="15" spans="1:7">
+      <c r="A528" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="B528" s="14" t="s">
+      <c r="B528" s="16" t="s">
         <v>572</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="D528" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="D528" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E528" s="14" t="s">
+      <c r="E528" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F528" s="14" t="s">
+      <c r="F528" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G528" s="14" t="s">
+      <c r="G528" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="529" ht="15" hidden="1" spans="1:7">
-      <c r="A529" s="13" t="s">
+    <row r="529" ht="15" spans="1:7">
+      <c r="A529" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="B529" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>831</v>
-      </c>
-      <c r="B529" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="C529" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="D529" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E529" s="14" t="s">
+      <c r="E529" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F529" s="14" t="s">
+      <c r="F529" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G529" s="14" t="s">
+      <c r="G529" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="530" ht="15" hidden="1" spans="1:7">
-      <c r="A530" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="B530" s="14" t="s">
+    <row r="530" ht="15" spans="1:7">
+      <c r="A530" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B530" s="16" t="s">
         <v>325</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="D530" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="D530" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E530" s="14" t="s">
+      <c r="E530" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F530" s="14" t="s">
+      <c r="F530" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G530" s="14" t="s">
+      <c r="G530" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="531" ht="15" hidden="1" spans="1:7">
-      <c r="A531" s="13" t="s">
-        <v>768</v>
-      </c>
-      <c r="B531" s="14" t="s">
+    <row r="531" ht="15" spans="1:7">
+      <c r="A531" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B531" s="16" t="s">
         <v>273</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D531" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E531" s="14" t="s">
+      <c r="E531" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F531" s="14" t="s">
+      <c r="F531" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G531" s="14" t="s">
+      <c r="G531" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="532" ht="15" hidden="1" spans="1:7">
-      <c r="A532" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="B532" s="14" t="s">
+    <row r="532" ht="15" spans="1:7">
+      <c r="A532" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B532" s="16" t="s">
         <v>276</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D532" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E532" s="14" t="s">
+      <c r="E532" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F532" s="14" t="s">
+      <c r="F532" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G532" s="14" t="s">
+      <c r="G532" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="533" ht="15" hidden="1" spans="1:7">
-      <c r="A533" s="13" t="s">
+    <row r="533" ht="15" spans="1:7">
+      <c r="A533" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="B533" s="14" t="s">
+      <c r="B533" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="D533" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="D533" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E533" s="14" t="s">
+      <c r="E533" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F533" s="14" t="s">
+      <c r="F533" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G533" s="14" t="s">
+      <c r="G533" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="534" ht="15" hidden="1" spans="1:7">
-      <c r="A534" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="B534" s="14" t="s">
+    <row r="534" ht="15" spans="1:7">
+      <c r="A534" s="15" t="s">
         <v>835</v>
       </c>
+      <c r="B534" s="16" t="s">
+        <v>836</v>
+      </c>
       <c r="C534" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D534" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D534" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E534" s="14" t="s">
+      <c r="E534" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F534" s="14" t="s">
+      <c r="F534" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G534" s="14" t="s">
+      <c r="G534" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="535" ht="15" hidden="1" spans="1:7">
-      <c r="A535" s="13" t="s">
+    <row r="535" ht="15" spans="1:7">
+      <c r="A535" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="B535" s="14" t="s">
+      <c r="B535" s="16" t="s">
         <v>546</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D535" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D535" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E535" s="14" t="s">
+      <c r="E535" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F535" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G535" s="14" t="s">
+      <c r="G535" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="536" ht="15" hidden="1" spans="1:7">
-      <c r="A536" s="13" t="s">
+    <row r="536" ht="15" spans="1:7">
+      <c r="A536" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="B536" s="14" t="s">
+      <c r="B536" s="16" t="s">
         <v>549</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D536" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E536" s="14" t="s">
+      <c r="E536" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F536" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G536" s="14" t="s">
+      <c r="G536" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="537" ht="15" hidden="1" spans="1:7">
-      <c r="A537" s="13" t="s">
+    <row r="537" ht="15" spans="1:7">
+      <c r="A537" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B537" s="14" t="s">
+      <c r="B537" s="16" t="s">
         <v>474</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D537" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E537" s="14" t="s">
+      <c r="E537" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F537" s="14" t="s">
+      <c r="F537" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G537" s="14" t="s">
+      <c r="G537" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="538" ht="15" hidden="1" spans="1:7">
-      <c r="A538" s="13" t="s">
+    <row r="538" ht="15" spans="1:7">
+      <c r="A538" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="16" t="s">
         <v>476</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D538" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D538" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E538" s="14" t="s">
+      <c r="E538" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F538" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G538" s="14" t="s">
+      <c r="G538" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="539" ht="15" hidden="1" spans="1:7">
-      <c r="A539" s="13" t="s">
+    <row r="539" ht="15" spans="1:7">
+      <c r="A539" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="B539" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C539" s="7" t="s">
         <v>837</v>
-      </c>
-      <c r="B539" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C539" s="7" t="s">
-        <v>836</v>
       </c>
       <c r="D539" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E539" s="14" t="s">
+      <c r="E539" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F539" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G539" s="14" t="s">
+      <c r="G539" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="540" ht="15" hidden="1" spans="1:7">
-      <c r="A540" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="B540" s="14" t="s">
+    <row r="540" ht="15" spans="1:7">
+      <c r="A540" s="15" t="s">
         <v>839</v>
       </c>
+      <c r="B540" s="16" t="s">
+        <v>840</v>
+      </c>
       <c r="C540" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D540" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D540" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E540" s="14" t="s">
+      <c r="E540" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F540" s="14" t="s">
+      <c r="F540" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G540" s="14" t="s">
+      <c r="G540" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="541" ht="15" hidden="1" spans="1:7">
-      <c r="A541" s="13" t="s">
+    <row r="541" ht="15" spans="1:7">
+      <c r="A541" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="B541" s="14" t="s">
+      <c r="B541" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D541" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D541" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E541" s="14" t="s">
+      <c r="E541" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F541" s="14" t="s">
+      <c r="F541" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="G541" s="14" t="s">
+      <c r="G541" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="542" ht="15" hidden="1" spans="1:7">
-      <c r="A542" s="13" t="s">
+    <row r="542" ht="15" spans="1:7">
+      <c r="A542" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="B542" s="14" t="s">
+      <c r="B542" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D542" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E542" s="14" t="s">
+      <c r="E542" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F542" s="14" t="s">
+      <c r="F542" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="G542" s="14" t="s">
+      <c r="G542" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="543" ht="15" hidden="1" spans="1:7">
+    <row r="543" ht="15" spans="1:7">
       <c r="A543" s="6" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B543" s="7" t="s">
         <v>415</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D543" s="7" t="s">
         <v>10</v>
@@ -16159,36 +16186,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" ht="15" hidden="1" spans="1:7">
-      <c r="A544" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="B544" s="14" t="s">
+    <row r="544" ht="15" spans="1:7">
+      <c r="A544" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="B544" s="16" t="s">
         <v>416</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D544" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E544" s="14" t="s">
+      <c r="E544" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F544" s="14" t="s">
+      <c r="F544" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G544" s="14" t="s">
+      <c r="G544" s="16" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="HANAFI"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A1:G544">
       <sortCondition ref="C1"/>
     </sortState>
@@ -16218,10 +16240,10 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16259,7 +16281,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -16270,7 +16292,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -16292,7 +16314,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -16325,7 +16347,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -16347,7 +16369,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B13">
         <v>2</v>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6900"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille2" sheetId="2" r:id="rId1"/>
@@ -540,100 +540,100 @@
     <t>TP-Syst. conversion PV (G1)</t>
   </si>
   <si>
+    <t>TP-PV-b</t>
+  </si>
+  <si>
+    <t>BECHEKIR</t>
+  </si>
+  <si>
+    <t>Labo PV</t>
+  </si>
+  <si>
+    <t>TP-API et supervision (b)</t>
+  </si>
+  <si>
+    <t>TP-API-b</t>
+  </si>
+  <si>
+    <t>Salle Micro Auto</t>
+  </si>
+  <si>
+    <t>ING4</t>
+  </si>
+  <si>
+    <t>TP-PFC et stage pratique (G1) (a)</t>
+  </si>
+  <si>
+    <t>TP-Microproc. et Microcontr. (G1)</t>
+  </si>
+  <si>
+    <t>TP-μP-a</t>
+  </si>
+  <si>
+    <t>Labo µP</t>
+  </si>
+  <si>
+    <t>ING3EI</t>
+  </si>
+  <si>
+    <t>TP-Logique comb. &amp; séq. (G21/22) (a)</t>
+  </si>
+  <si>
+    <t>TP-LCS-a</t>
+  </si>
+  <si>
+    <t>TP-PFC (G12) (a)</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>TP-Logique comb. &amp; séq. (G11/12) (a)</t>
+  </si>
+  <si>
+    <t>TP-PFC et stage pratique (G1) (b)</t>
+  </si>
+  <si>
+    <t>TP-Microproc. et Microcontr. (G2)</t>
+  </si>
+  <si>
+    <t>TP-μP-b</t>
+  </si>
+  <si>
+    <t>TP-Logique comb. &amp; séq. (G21/22) (b)</t>
+  </si>
+  <si>
+    <t>TP-LCS-b</t>
+  </si>
+  <si>
+    <t>TP-PFC (G12) (b)</t>
+  </si>
+  <si>
+    <t>TP-Logique comb. &amp; séq. (G11/12) (b)</t>
+  </si>
+  <si>
+    <t>Cours-API et supervision</t>
+  </si>
+  <si>
+    <t>Cours-API</t>
+  </si>
+  <si>
+    <t>S08bis</t>
+  </si>
+  <si>
+    <t>Td-Syst. multi-sources énergies renov.</t>
+  </si>
+  <si>
+    <t>TD-MSER</t>
+  </si>
+  <si>
     <t>TP-PV-a</t>
   </si>
   <si>
-    <t>BECHEKIR</t>
-  </si>
-  <si>
-    <t>Labo PV</t>
-  </si>
-  <si>
-    <t>TP-PV-b</t>
-  </si>
-  <si>
-    <t>Td-Syst. multi-sources énergies renov.</t>
-  </si>
-  <si>
-    <t>TD-MSER</t>
-  </si>
-  <si>
-    <t>S08bis</t>
-  </si>
-  <si>
-    <t>ING4</t>
-  </si>
-  <si>
-    <t>Cours-API et supervision</t>
-  </si>
-  <si>
-    <t>Cours-API</t>
-  </si>
-  <si>
     <t>TP-API et supervision (a)</t>
   </si>
   <si>
     <t>TP-API-a</t>
-  </si>
-  <si>
-    <t>Salle Micro Auto</t>
-  </si>
-  <si>
-    <t>TP-API et supervision (b)</t>
-  </si>
-  <si>
-    <t>TP-API-b</t>
-  </si>
-  <si>
-    <t>TP-PFC (G12) (a)</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>TP-PFC (G12) (b)</t>
-  </si>
-  <si>
-    <t>TP-PFC et stage pratique (G1) (a)</t>
-  </si>
-  <si>
-    <t>TP-PFC et stage pratique (G1) (b)</t>
-  </si>
-  <si>
-    <t>TP-Logique comb. &amp; séq. (G21/22) (a)</t>
-  </si>
-  <si>
-    <t>TP-LCS-a</t>
-  </si>
-  <si>
-    <t>TP-Logique comb. &amp; séq. (G21/22) (b)</t>
-  </si>
-  <si>
-    <t>TP-LCS-b</t>
-  </si>
-  <si>
-    <t>TP-Logique comb. &amp; séq. (G11/12) (a)</t>
-  </si>
-  <si>
-    <t>TP-Logique comb. &amp; séq. (G11/12) (b)</t>
-  </si>
-  <si>
-    <t>TP-Microproc. et Microcontr. (G1)</t>
-  </si>
-  <si>
-    <t>TP-μP-a</t>
-  </si>
-  <si>
-    <t>Labo µP</t>
-  </si>
-  <si>
-    <t>ING3EI</t>
-  </si>
-  <si>
-    <t>TP-Microproc. et Microcontr. (G2)</t>
-  </si>
-  <si>
-    <t>TP-μP-b</t>
   </si>
   <si>
     <t>Cours-Logiciels libres</t>
@@ -3254,7 +3254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3278,6 +3278,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3621,11 +3624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="F550" sqref="F550"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3634,7 +3637,7 @@
     <col min="2" max="3" width="33.5714285714286" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.8571428571429" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.8571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7142857142857" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.4285714285714" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -3663,7 +3666,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" ht="15" hidden="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" ht="15" hidden="1" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3738,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" ht="15" spans="1:8">
+    <row r="5" ht="15" hidden="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3759,7 +3762,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="15" spans="1:8">
+    <row r="6" ht="15" hidden="1" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="15" spans="1:8">
+    <row r="7" ht="15" hidden="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="15" spans="1:8">
+    <row r="8" ht="15" hidden="1" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3831,7 +3834,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" ht="15" spans="1:8">
+    <row r="9" ht="15" hidden="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3855,7 +3858,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="15" spans="1:8">
+    <row r="10" ht="15" hidden="1" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3879,7 +3882,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="1:8">
+    <row r="11" ht="15" hidden="1" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -3903,7 +3906,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="1:8">
+    <row r="12" ht="15" hidden="1" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -3927,7 +3930,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" ht="15" hidden="1" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -3951,7 +3954,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" ht="15" spans="1:8">
+    <row r="14" ht="15" hidden="1" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -3975,7 +3978,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" ht="15" spans="1:8">
+    <row r="15" ht="15" hidden="1" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -3999,7 +4002,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" ht="15" spans="1:8">
+    <row r="16" ht="15" hidden="1" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -4023,7 +4026,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" ht="15" spans="1:8">
+    <row r="17" ht="15" hidden="1" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" ht="15" spans="1:8">
+    <row r="18" ht="15" hidden="1" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -4071,7 +4074,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" ht="15" spans="1:8">
+    <row r="19" ht="15" hidden="1" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -4095,7 +4098,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" ht="15" spans="1:8">
+    <row r="20" ht="15" hidden="1" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
@@ -4119,7 +4122,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="15" spans="1:8">
+    <row r="21" ht="15" hidden="1" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -4143,7 +4146,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="15" spans="1:8">
+    <row r="22" ht="15" hidden="1" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="15" spans="1:8">
+    <row r="23" ht="15" hidden="1" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" ht="15" spans="1:8">
+    <row r="24" ht="15" hidden="1" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -4215,7 +4218,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" ht="15" spans="1:8">
+    <row r="25" ht="15" hidden="1" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
@@ -4239,7 +4242,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" ht="15" spans="1:7">
+    <row r="26" ht="15" hidden="1" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:7">
+    <row r="27" ht="15" hidden="1" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" ht="15" hidden="1" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>81</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:7">
+    <row r="29" ht="15" hidden="1" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -4331,7 +4334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:7">
+    <row r="30" ht="15" hidden="1" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:7">
+    <row r="31" ht="15" hidden="1" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>84</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:7">
+    <row r="32" ht="15" hidden="1" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>89</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:7">
+    <row r="33" ht="15" hidden="1" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:7">
+    <row r="34" ht="15" hidden="1" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:7">
+    <row r="35" ht="15" hidden="1" spans="1:7">
       <c r="A35" s="8" t="s">
         <v>89</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:7">
+    <row r="36" ht="15" hidden="1" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:7">
+    <row r="37" ht="15" hidden="1" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>84</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:7">
+    <row r="38" ht="15" hidden="1" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>94</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:7">
+    <row r="39" ht="15" hidden="1" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>96</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:7">
+    <row r="40" ht="15" hidden="1" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>97</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:7">
+    <row r="41" ht="15" hidden="1" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:7">
+    <row r="42" ht="15" hidden="1" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>102</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:7">
+    <row r="43" ht="15" hidden="1" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:7">
+    <row r="44" ht="15" hidden="1" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>106</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:7">
+    <row r="45" ht="15" hidden="1" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>111</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:7">
+    <row r="46" ht="15" hidden="1" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>115</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:7">
+    <row r="47" ht="15" hidden="1" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:7">
+    <row r="48" ht="15" hidden="1" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:7">
+    <row r="49" ht="15" hidden="1" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>118</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:7">
+    <row r="50" ht="15" hidden="1" spans="1:7">
       <c r="A50" s="8" t="s">
         <v>119</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:7">
+    <row r="51" ht="15" hidden="1" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:7">
+    <row r="52" ht="15" hidden="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>123</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:7">
+    <row r="53" ht="15" hidden="1" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>119</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:7">
+    <row r="54" ht="15" hidden="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>125</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:7">
+    <row r="55" ht="15" hidden="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>127</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:7">
+    <row r="56" ht="15" hidden="1" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>129</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:7">
+    <row r="57" ht="15" hidden="1" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:7">
+    <row r="58" ht="15" hidden="1" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:7">
+    <row r="59" ht="15" hidden="1" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>133</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:7">
+    <row r="60" ht="15" hidden="1" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>135</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:7">
+    <row r="61" ht="15" hidden="1" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>136</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:7">
+    <row r="62" ht="15" hidden="1" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>140</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:7">
+    <row r="63" ht="15" hidden="1" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>142</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:7">
+    <row r="64" ht="15" hidden="1" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>143</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:7">
+    <row r="65" ht="15" hidden="1" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>144</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:7">
+    <row r="66" ht="15" hidden="1" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>148</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:7">
+    <row r="67" ht="15" hidden="1" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>151</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:7">
+    <row r="68" ht="15" hidden="1" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>152</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:7">
+    <row r="69" ht="15" hidden="1" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>153</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:7">
+    <row r="70" ht="15" hidden="1" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>148</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:7">
+    <row r="71" ht="15" hidden="1" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>156</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:7">
+    <row r="72" ht="15" hidden="1" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>157</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="1:7">
+    <row r="73" ht="15" hidden="1" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>157</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:7">
+    <row r="74" ht="15" hidden="1" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>160</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="1:7">
+    <row r="75" ht="15" hidden="1" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>162</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="1:7">
+    <row r="76" ht="15" hidden="1" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>163</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="1:7">
+    <row r="77" ht="15" hidden="1" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>164</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="1:7">
+    <row r="78" ht="15" hidden="1" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>166</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="1:7">
+    <row r="79" ht="15" hidden="1" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>166</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="1:7">
+    <row r="80" ht="15" hidden="1" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>167</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="1:7">
+    <row r="81" ht="15" hidden="1" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>167</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="1:7">
+    <row r="82" ht="15" hidden="1" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>168</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>170</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>11</v>
@@ -5550,12 +5553,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="1:7">
+    <row r="83" ht="15" hidden="1" spans="1:7">
       <c r="A83" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>170</v>
@@ -5564,182 +5567,182 @@
         <v>25</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" ht="15" spans="1:7">
-      <c r="A84" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" ht="15" hidden="1" spans="1:7">
+      <c r="A84" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" ht="15" spans="1:7">
-      <c r="A85" s="6" t="s">
+      <c r="F84" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" ht="15" hidden="1" spans="1:7">
+      <c r="A85" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" ht="29.25" spans="1:7">
+      <c r="D85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" ht="15" hidden="1" spans="1:7">
       <c r="A86" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" ht="15" hidden="1" spans="1:7">
+      <c r="A87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" ht="29.25" spans="1:7">
-      <c r="A87" s="6" t="s">
+      <c r="F87" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" ht="15" hidden="1" spans="1:7">
+      <c r="A88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="D88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" ht="15" spans="1:7">
-      <c r="A88" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="F88" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" ht="15" hidden="1" spans="1:7">
+      <c r="A89" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" ht="15" spans="1:7">
-      <c r="A89" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="D89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" ht="15" hidden="1" spans="1:7">
+      <c r="A90" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" ht="15" spans="1:7">
-      <c r="A90" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" ht="15" spans="1:7">
+      <c r="F90" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" ht="15" hidden="1" spans="1:7">
       <c r="A91" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>170</v>
@@ -5748,154 +5751,154 @@
         <v>16</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" ht="15" spans="1:7">
-      <c r="A92" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B92" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" ht="15" hidden="1" spans="1:7">
+      <c r="A92" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" ht="15" hidden="1" spans="1:7">
+      <c r="A93" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="7" t="s">
+      <c r="D93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G93" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:7">
-      <c r="A93" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" ht="15" spans="1:7">
+    <row r="94" ht="15" hidden="1" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" ht="15" hidden="1" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" ht="15" spans="1:7">
-      <c r="A96" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>196</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" ht="15" hidden="1" spans="1:7">
+      <c r="A96" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" ht="15" spans="1:7">
-      <c r="A97" s="10" t="s">
+      <c r="D96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" ht="15" hidden="1" spans="1:7">
+      <c r="A97" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" ht="15" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" ht="15" hidden="1" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>201</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="1:7">
+    <row r="99" ht="15" hidden="1" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>204</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="1:7">
+    <row r="100" ht="15" hidden="1" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>206</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="1:7">
+    <row r="101" ht="15" hidden="1" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>206</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:7">
+    <row r="102" ht="15" hidden="1" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>117</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:7">
+    <row r="103" ht="15" hidden="1" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>118</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:7">
+    <row r="104" ht="15" hidden="1" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>211</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:7">
+    <row r="105" ht="15" hidden="1" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>215</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:7">
+    <row r="106" ht="15" hidden="1" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>216</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:7">
+    <row r="107" ht="15" hidden="1" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>217</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="1:7">
+    <row r="108" ht="15" hidden="1" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>220</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="1:7">
+    <row r="109" ht="15" hidden="1" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>222</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="1:7">
+    <row r="110" ht="15" hidden="1" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>225</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="1:7">
+    <row r="111" ht="15" hidden="1" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>225</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="1:7">
+    <row r="112" ht="15" hidden="1" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>232</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="1:7">
+    <row r="113" ht="15" hidden="1" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>232</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="1:7">
+    <row r="114" ht="15" hidden="1" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>235</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="1:7">
+    <row r="115" ht="15" hidden="1" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>235</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="1:7">
+    <row r="116" ht="15" hidden="1" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>239</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="1:7">
+    <row r="117" ht="15" hidden="1" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>239</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:7">
+    <row r="118" ht="15" hidden="1" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>240</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="1:7">
+    <row r="119" ht="15" hidden="1" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>243</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="1:7">
+    <row r="120" ht="15" hidden="1" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>245</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:7">
+    <row r="121" ht="15" hidden="1" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="1:7">
+    <row r="122" ht="15" hidden="1" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>245</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:7">
+    <row r="123" ht="15" hidden="1" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>245</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="1:7">
+    <row r="124" ht="15" hidden="1" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>247</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="1:7">
+    <row r="125" ht="15" hidden="1" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>247</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:7">
+    <row r="126" ht="15" hidden="1" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>247</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:7">
+    <row r="127" ht="15" hidden="1" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>247</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="1:7">
+    <row r="128" ht="15" hidden="1" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>251</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="1:7">
+    <row r="129" ht="15" hidden="1" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>255</v>
       </c>
@@ -6631,34 +6634,34 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="1:7">
-      <c r="A130" s="10" t="s">
+    <row r="130" ht="15" hidden="1" spans="1:7">
+      <c r="A130" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G130" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="131" ht="15" spans="1:7">
-      <c r="A131" s="10" t="s">
+      <c r="G130" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" ht="15" hidden="1" spans="1:7">
+      <c r="A131" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -6667,44 +6670,44 @@
       <c r="D131" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G131" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="132" ht="15" spans="1:7">
-      <c r="A132" s="10" t="s">
+      <c r="G131" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" ht="15" hidden="1" spans="1:7">
+      <c r="A132" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G132" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="133" ht="15" spans="1:7">
-      <c r="A133" s="10" t="s">
+      <c r="G132" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" ht="15" hidden="1" spans="1:7">
+      <c r="A133" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -6713,17 +6716,17 @@
       <c r="D133" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G133" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" ht="15" spans="1:7">
+      <c r="G133" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" ht="15" hidden="1" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>266</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="1:7">
+    <row r="135" ht="15" hidden="1" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>269</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:7">
+    <row r="136" ht="15" hidden="1" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>271</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="1:7">
+    <row r="137" ht="15" hidden="1" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>272</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="1:7">
+    <row r="138" ht="15" hidden="1" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>274</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="1:7">
+    <row r="139" ht="15" hidden="1" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>275</v>
       </c>
@@ -6861,7 +6864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="1:7">
+    <row r="140" ht="15" hidden="1" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>275</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="1:7">
+    <row r="141" ht="15" hidden="1" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>277</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" ht="15" spans="1:7">
+    <row r="142" ht="15" hidden="1" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>277</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" ht="15" spans="1:7">
+    <row r="143" ht="15" hidden="1" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>278</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="1:7">
+    <row r="144" ht="15" hidden="1" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>278</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" ht="15" spans="1:7">
+    <row r="145" ht="15" hidden="1" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>279</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" ht="15" spans="1:7">
+    <row r="146" ht="15" hidden="1" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>279</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" ht="15" spans="1:7">
+    <row r="147" ht="15" hidden="1" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>283</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" ht="15" spans="1:7">
+    <row r="148" ht="15" hidden="1" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>285</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" ht="15" spans="1:7">
+    <row r="149" ht="15" hidden="1" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>287</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="1:7">
+    <row r="150" ht="15" hidden="1" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>289</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" ht="15" spans="1:7">
+    <row r="151" ht="15" hidden="1" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>291</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="1:7">
+    <row r="152" ht="15" hidden="1" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>293</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" ht="15" spans="1:7">
+    <row r="153" ht="15" hidden="1" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>295</v>
       </c>
@@ -7180,10 +7183,10 @@
         <v>139</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" ht="15" hidden="1" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>297</v>
       </c>
@@ -7203,10 +7206,10 @@
         <v>139</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" ht="15" hidden="1" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>299</v>
       </c>
@@ -7226,10 +7229,10 @@
         <v>131</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" ht="15" hidden="1" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>301</v>
       </c>
@@ -7246,13 +7249,13 @@
         <v>49</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" ht="15" spans="1:7">
+    </row>
+    <row r="157" ht="15" hidden="1" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>303</v>
       </c>
@@ -7272,10 +7275,10 @@
         <v>208</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="158" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" ht="15" hidden="1" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>305</v>
       </c>
@@ -7295,10 +7298,10 @@
         <v>208</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" ht="15" hidden="1" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>164</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" ht="15" spans="1:7">
+    <row r="160" ht="15" hidden="1" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>308</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" ht="15" spans="1:7">
+    <row r="161" ht="15" hidden="1" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>310</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" ht="15" spans="1:7">
+    <row r="162" ht="15" hidden="1" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>310</v>
       </c>
@@ -7390,7 +7393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" ht="15" spans="1:7">
+    <row r="163" ht="15" hidden="1" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>313</v>
       </c>
@@ -7413,7 +7416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" ht="15" spans="1:7">
+    <row r="164" ht="15" hidden="1" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>69</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" ht="15" spans="1:7">
+    <row r="165" ht="15" hidden="1" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>69</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" ht="15" spans="1:7">
+    <row r="166" ht="15" hidden="1" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>315</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="167" ht="15" spans="1:7">
+    <row r="167" ht="15" hidden="1" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>318</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" ht="15" spans="1:7">
+    <row r="168" ht="15" hidden="1" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>320</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="1:7">
+    <row r="169" ht="15" hidden="1" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>322</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="170" ht="15" spans="1:7">
+    <row r="170" ht="15" hidden="1" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>320</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" ht="15" spans="1:7">
+    <row r="171" ht="15" hidden="1" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>323</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" ht="15" spans="1:7">
+    <row r="172" ht="15" hidden="1" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>325</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" ht="15" spans="1:7">
+    <row r="173" ht="15" hidden="1" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>327</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174" ht="15" spans="1:7">
+    <row r="174" ht="15" hidden="1" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>330</v>
       </c>
@@ -7660,13 +7663,13 @@
         <v>11</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" ht="15" spans="1:7">
+    </row>
+    <row r="175" ht="15" hidden="1" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>333</v>
       </c>
@@ -7683,13 +7686,13 @@
         <v>11</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="176" ht="15" spans="1:7">
+    </row>
+    <row r="176" ht="15" hidden="1" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>334</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" ht="15" spans="1:7">
+    <row r="177" ht="15" hidden="1" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>157</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" ht="15" spans="1:7">
+    <row r="178" ht="15" hidden="1" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>336</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="179" ht="15" spans="1:7">
+    <row r="179" ht="15" hidden="1" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>339</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" ht="15" spans="1:7">
+    <row r="180" ht="15" hidden="1" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>340</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" ht="15" spans="1:7">
+    <row r="181" ht="15" hidden="1" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>341</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" ht="15" spans="1:7">
+    <row r="182" ht="15" hidden="1" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>342</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="183" ht="15" spans="1:7">
+    <row r="183" ht="15" hidden="1" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>343</v>
       </c>
@@ -7873,30 +7876,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" ht="15" spans="1:7">
-      <c r="A184" s="10" t="s">
+    <row r="184" ht="15" hidden="1" spans="1:7">
+      <c r="A184" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G184" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" ht="15" spans="1:7">
+      <c r="G184" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" ht="15" hidden="1" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>344</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" ht="15" spans="1:7">
+    <row r="186" ht="15" hidden="1" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>344</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" ht="15" spans="1:7">
+    <row r="187" ht="15" hidden="1" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>348</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" ht="15" spans="1:7">
+    <row r="188" ht="15" hidden="1" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>351</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" ht="15" spans="1:7">
+    <row r="189" ht="15" hidden="1" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>352</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" ht="15" spans="1:7">
+    <row r="190" ht="15" hidden="1" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>354</v>
       </c>
@@ -8034,7 +8037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" ht="15" spans="1:7">
+    <row r="191" ht="15" hidden="1" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>356</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" ht="15" spans="1:7">
+    <row r="192" ht="15" hidden="1" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>358</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" ht="15" spans="1:7">
+    <row r="193" ht="15" hidden="1" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>339</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" ht="15" spans="1:7">
+    <row r="194" ht="15" hidden="1" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>340</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" ht="15" spans="1:7">
+    <row r="195" ht="15" hidden="1" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>354</v>
       </c>
@@ -8149,34 +8152,34 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" ht="15" spans="1:7">
-      <c r="A196" s="10" t="s">
+    <row r="196" ht="15" hidden="1" spans="1:7">
+      <c r="A196" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="11" t="s">
         <v>361</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="E196" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F196" s="10" t="s">
+      <c r="F196" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G196" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="197" ht="15" spans="1:7">
-      <c r="A197" s="10" t="s">
+      <c r="G196" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" ht="15" hidden="1" spans="1:7">
+      <c r="A197" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="11" t="s">
         <v>363</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -8185,40 +8188,40 @@
       <c r="D197" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E197" s="10" t="s">
+      <c r="E197" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F197" s="10" t="s">
+      <c r="F197" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G197" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" ht="15" spans="1:7">
-      <c r="A198" s="10" t="s">
+      <c r="G197" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" ht="15" hidden="1" spans="1:7">
+      <c r="A198" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="11" t="s">
         <v>366</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E198" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F198" s="10" t="s">
+      <c r="F198" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G198" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" ht="15" spans="1:7">
+      <c r="G198" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="199" ht="15" hidden="1" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>367</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" ht="15" spans="1:7">
+    <row r="200" ht="15" hidden="1" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>369</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" ht="15" spans="1:7">
+    <row r="201" ht="15" hidden="1" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>371</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" ht="15" spans="1:7">
+    <row r="202" ht="15" hidden="1" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>375</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" ht="15" spans="1:7">
+    <row r="203" ht="15" hidden="1" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>378</v>
       </c>
@@ -8327,13 +8330,13 @@
         <v>43</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G203" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="204" ht="15" spans="1:7">
+    <row r="204" ht="15" hidden="1" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>380</v>
       </c>
@@ -8350,13 +8353,13 @@
         <v>43</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G204" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="205" ht="15" spans="1:7">
+    <row r="205" ht="15" hidden="1" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>382</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="206" ht="15" spans="1:7">
+    <row r="206" ht="15" hidden="1" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>385</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="207" ht="15" spans="1:7">
+    <row r="207" ht="15" hidden="1" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>386</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="208" ht="15" spans="1:7">
+    <row r="208" ht="15" hidden="1" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>387</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="209" ht="15" spans="1:7">
+    <row r="209" ht="15" hidden="1" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>389</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="210" ht="15" spans="1:7">
+    <row r="210" ht="15" hidden="1" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>387</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" ht="15" spans="1:7">
+    <row r="211" ht="15" hidden="1" spans="1:7">
       <c r="A211" s="6" t="s">
         <v>390</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212" ht="15" spans="1:7">
+    <row r="212" ht="15" hidden="1" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>393</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" ht="15" spans="1:7">
+    <row r="213" ht="15" hidden="1" spans="1:7">
       <c r="A213" s="6" t="s">
         <v>393</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" ht="15" spans="1:7">
+    <row r="214" ht="15" hidden="1" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>396</v>
       </c>
@@ -8586,7 +8589,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="215" ht="15" spans="1:7">
+    <row r="215" ht="15" hidden="1" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>398</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="216" ht="15" spans="1:7">
+    <row r="216" ht="15" hidden="1" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>401</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="217" ht="15" spans="1:7">
+    <row r="217" ht="15" hidden="1" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>156</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="218" ht="15" spans="1:7">
+    <row r="218" ht="15" hidden="1" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>398</v>
       </c>
@@ -8678,7 +8681,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="219" ht="15" spans="1:7">
+    <row r="219" ht="15" hidden="1" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>402</v>
       </c>
@@ -8701,7 +8704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" ht="15" spans="1:7">
+    <row r="220" ht="15" hidden="1" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>404</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" ht="15" spans="1:7">
+    <row r="221" ht="15" hidden="1" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>404</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" ht="15" spans="1:7">
+    <row r="222" ht="15" hidden="1" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>408</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" ht="15" spans="1:7">
+    <row r="223" ht="15" hidden="1" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>408</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" ht="15" spans="1:7">
+    <row r="224" ht="15" hidden="1" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>411</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" ht="15" spans="1:7">
+    <row r="225" ht="15" hidden="1" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>411</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" ht="15" spans="1:7">
+    <row r="226" ht="15" hidden="1" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>413</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" ht="15" spans="1:7">
+    <row r="227" ht="15" hidden="1" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>413</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" ht="15" spans="1:7">
+    <row r="228" ht="15" hidden="1" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>247</v>
       </c>
@@ -8905,10 +8908,10 @@
         <v>250</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="229" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="229" ht="15" hidden="1" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>415</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" ht="15" spans="1:7">
+    <row r="230" ht="15" hidden="1" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>415</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" ht="15" spans="1:7">
+    <row r="231" ht="15" hidden="1" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>416</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="232" ht="15" spans="1:7">
+    <row r="232" ht="15" hidden="1" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>418</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" ht="15" spans="1:7">
+    <row r="233" ht="15" hidden="1" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>418</v>
       </c>
@@ -9023,7 +9026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" ht="15" spans="1:7">
+    <row r="234" ht="15" hidden="1" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>422</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" ht="15" spans="1:7">
+    <row r="235" ht="15" hidden="1" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>422</v>
       </c>
@@ -9079,7 +9082,7 @@
       <c r="C236" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D236" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E236" s="7" t="s">
@@ -9092,7 +9095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="237" ht="15" spans="1:7">
+    <row r="237" ht="15" hidden="1" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>64</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" ht="15" spans="1:7">
+    <row r="238" ht="15" hidden="1" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>426</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="239" ht="15" spans="1:7">
+    <row r="239" ht="15" hidden="1" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>428</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" ht="15" spans="1:7">
+    <row r="240" ht="15" hidden="1" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>429</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="241" ht="15" spans="1:7">
+    <row r="241" ht="15" hidden="1" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>430</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" ht="15" spans="1:7">
+    <row r="242" ht="15" hidden="1" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>432</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" ht="15" spans="1:7">
+    <row r="243" ht="15" hidden="1" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>434</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" ht="15" spans="1:7">
+    <row r="244" ht="15" hidden="1" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>436</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" ht="15" spans="1:7">
+    <row r="245" ht="15" hidden="1" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>438</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" ht="15" spans="1:7">
+    <row r="246" ht="15" hidden="1" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>438</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" ht="15" spans="1:7">
+    <row r="247" ht="15" hidden="1" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>443</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" ht="15" spans="1:7">
+    <row r="248" ht="15" hidden="1" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>445</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" ht="15" spans="1:7">
+    <row r="249" ht="15" hidden="1" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>287</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" ht="15" spans="1:7">
+    <row r="250" ht="15" hidden="1" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>289</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="251" ht="15" spans="1:7">
+    <row r="251" ht="15" hidden="1" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>447</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="252" ht="15" spans="1:7">
+    <row r="252" ht="15" hidden="1" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>448</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" ht="15" spans="1:7">
+    <row r="253" ht="15" hidden="1" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>450</v>
       </c>
@@ -9483,12 +9486,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" ht="15" spans="1:7">
+    <row r="254" ht="15" hidden="1" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>451</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>449</v>
@@ -9506,12 +9509,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="255" ht="15" spans="1:7">
+    <row r="255" ht="15" hidden="1" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>452</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>449</v>
@@ -9529,7 +9532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="256" ht="15" spans="1:7">
+    <row r="256" ht="15" hidden="1" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>453</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="257" ht="15" spans="1:7">
+    <row r="257" ht="15" hidden="1" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>455</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="258" ht="15" spans="1:7">
+    <row r="258" ht="15" hidden="1" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>455</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" ht="15" spans="1:7">
+    <row r="259" ht="15" hidden="1" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>453</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" ht="15" spans="1:7">
+    <row r="260" ht="15" hidden="1" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>457</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="261" ht="15" spans="1:7">
+    <row r="261" ht="15" hidden="1" spans="1:7">
       <c r="A261" s="6" t="s">
         <v>459</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" ht="15" spans="1:7">
+    <row r="262" ht="15" hidden="1" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>462</v>
       </c>
@@ -9690,7 +9693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="263" ht="15" spans="1:7">
+    <row r="263" ht="15" hidden="1" spans="1:7">
       <c r="A263" s="6" t="s">
         <v>330</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" ht="15" spans="1:7">
+    <row r="264" ht="15" hidden="1" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>333</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="265" ht="15" spans="1:7">
+    <row r="265" ht="15" hidden="1" spans="1:7">
       <c r="A265" s="6" t="s">
         <v>465</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" ht="15" spans="1:7">
+    <row r="266" ht="15" hidden="1" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>467</v>
       </c>
@@ -9782,7 +9785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" ht="15" spans="1:7">
+    <row r="267" ht="15" hidden="1" spans="1:7">
       <c r="A267" s="6" t="s">
         <v>469</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" ht="15" spans="1:7">
+    <row r="268" ht="15" hidden="1" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>330</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="269" ht="15" spans="1:7">
+    <row r="269" ht="15" hidden="1" spans="1:7">
       <c r="A269" s="6" t="s">
         <v>333</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="270" ht="15" spans="1:7">
+    <row r="270" ht="15" hidden="1" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>471</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" ht="15" spans="1:7">
+    <row r="271" ht="15" hidden="1" spans="1:7">
       <c r="A271" s="6" t="s">
         <v>472</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" ht="15" spans="1:7">
+    <row r="272" ht="15" hidden="1" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>473</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="273" ht="15" spans="1:7">
+    <row r="273" ht="15" hidden="1" spans="1:7">
       <c r="A273" s="6" t="s">
         <v>473</v>
       </c>
@@ -9943,7 +9946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" ht="15" spans="1:7">
+    <row r="274" ht="15" hidden="1" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>477</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="275" ht="15" spans="1:7">
+    <row r="275" ht="15" hidden="1" spans="1:7">
       <c r="A275" s="6" t="s">
         <v>480</v>
       </c>
@@ -9989,12 +9992,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="276" ht="15" spans="1:7">
+    <row r="276" ht="15" hidden="1" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>482</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>479</v>
@@ -10012,12 +10015,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="277" ht="15" spans="1:7">
+    <row r="277" ht="15" hidden="1" spans="1:7">
       <c r="A277" s="6" t="s">
         <v>483</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>479</v>
@@ -10035,12 +10038,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="278" ht="15" spans="1:7">
+    <row r="278" ht="15" hidden="1" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>484</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>479</v>
@@ -10058,12 +10061,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="279" ht="15" spans="1:7">
+    <row r="279" ht="15" hidden="1" spans="1:7">
       <c r="A279" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>479</v>
@@ -10081,7 +10084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="280" ht="15" spans="1:7">
+    <row r="280" ht="15" hidden="1" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>486</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="281" ht="15" spans="1:7">
+    <row r="281" ht="15" hidden="1" spans="1:7">
       <c r="A281" s="6" t="s">
         <v>487</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" ht="15" spans="1:7">
+    <row r="282" ht="15" hidden="1" spans="1:7">
       <c r="A282" s="6" t="s">
         <v>487</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" ht="15" spans="1:7">
+    <row r="283" ht="15" hidden="1" spans="1:7">
       <c r="A283" s="6" t="s">
         <v>488</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" ht="15" spans="1:7">
+    <row r="284" ht="15" hidden="1" spans="1:7">
       <c r="A284" s="6" t="s">
         <v>488</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" ht="15" spans="1:7">
+    <row r="285" ht="15" hidden="1" spans="1:7">
       <c r="A285" s="6" t="s">
         <v>489</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" ht="15" spans="1:7">
+    <row r="286" ht="15" hidden="1" spans="1:7">
       <c r="A286" s="6" t="s">
         <v>489</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" ht="15" spans="1:7">
+    <row r="287" ht="15" hidden="1" spans="1:7">
       <c r="A287" s="6" t="s">
         <v>490</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="288" ht="15" spans="1:7">
+    <row r="288" ht="15" hidden="1" spans="1:7">
       <c r="A288" s="6" t="s">
         <v>492</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="289" ht="15" spans="1:7">
+    <row r="289" ht="15" hidden="1" spans="1:7">
       <c r="A289" s="6" t="s">
         <v>493</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" ht="15" spans="1:7">
+    <row r="290" ht="15" hidden="1" spans="1:7">
       <c r="A290" s="6" t="s">
         <v>495</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" ht="15" spans="1:7">
+    <row r="291" ht="15" hidden="1" spans="1:7">
       <c r="A291" s="6" t="s">
         <v>495</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" ht="15" spans="1:7">
+    <row r="292" ht="15" hidden="1" spans="1:7">
       <c r="A292" s="6" t="s">
         <v>496</v>
       </c>
@@ -10380,7 +10383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="293" ht="15" spans="1:7">
+    <row r="293" ht="15" hidden="1" spans="1:7">
       <c r="A293" s="6" t="s">
         <v>496</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" ht="15" spans="1:7">
+    <row r="294" ht="15" hidden="1" spans="1:7">
       <c r="A294" s="6" t="s">
         <v>497</v>
       </c>
@@ -10426,7 +10429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="295" ht="15" spans="1:7">
+    <row r="295" ht="15" hidden="1" spans="1:7">
       <c r="A295" s="6" t="s">
         <v>500</v>
       </c>
@@ -10449,12 +10452,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="296" ht="15" spans="1:7">
+    <row r="296" ht="15" hidden="1" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>499</v>
@@ -10472,12 +10475,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="297" ht="15" spans="1:7">
+    <row r="297" ht="15" hidden="1" spans="1:7">
       <c r="A297" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>499</v>
@@ -10495,7 +10498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="298" ht="15" spans="1:7">
+    <row r="298" ht="15" hidden="1" spans="1:7">
       <c r="A298" s="6" t="s">
         <v>502</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="299" ht="15" spans="1:7">
+    <row r="299" ht="15" hidden="1" spans="1:7">
       <c r="A299" s="6" t="s">
         <v>502</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="300" ht="15" spans="1:7">
+    <row r="300" ht="15" hidden="1" spans="1:7">
       <c r="A300" s="6" t="s">
         <v>505</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" ht="15" spans="1:7">
+    <row r="301" ht="15" hidden="1" spans="1:7">
       <c r="A301" s="6" t="s">
         <v>507</v>
       </c>
@@ -10581,15 +10584,15 @@
         <v>56</v>
       </c>
       <c r="F301" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G301" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G301" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="302" ht="15" spans="1:7">
+    </row>
+    <row r="302" ht="15" hidden="1" spans="1:7">
       <c r="A302" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>76</v>
@@ -10604,15 +10607,15 @@
         <v>43</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G302" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="303" ht="15" spans="1:7">
+    <row r="303" ht="15" hidden="1" spans="1:7">
       <c r="A303" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>80</v>
@@ -10627,15 +10630,15 @@
         <v>43</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G303" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="304" ht="15" spans="1:7">
+    <row r="304" ht="15" hidden="1" spans="1:7">
       <c r="A304" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>76</v>
@@ -10656,9 +10659,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="305" ht="15" spans="1:7">
+    <row r="305" ht="15" hidden="1" spans="1:7">
       <c r="A305" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>80</v>
@@ -10679,7 +10682,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="306" ht="15" spans="1:7">
+    <row r="306" ht="15" hidden="1" spans="1:7">
       <c r="A306" s="6" t="s">
         <v>509</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" ht="15" spans="1:7">
+    <row r="307" ht="15" hidden="1" spans="1:7">
       <c r="A307" s="6" t="s">
         <v>386</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="308" ht="15" spans="1:7">
+    <row r="308" ht="15" hidden="1" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>389</v>
       </c>
@@ -10748,7 +10751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="309" ht="15" spans="1:7">
+    <row r="309" ht="15" hidden="1" spans="1:7">
       <c r="A309" s="6" t="s">
         <v>513</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" ht="15" spans="1:7">
+    <row r="310" ht="15" hidden="1" spans="1:7">
       <c r="A310" s="6" t="s">
         <v>516</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" ht="15" spans="1:7">
+    <row r="311" ht="15" hidden="1" spans="1:7">
       <c r="A311" s="6" t="s">
         <v>516</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" ht="15" spans="1:7">
+    <row r="312" ht="15" hidden="1" spans="1:7">
       <c r="A312" s="6" t="s">
         <v>519</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" ht="15" spans="1:7">
+    <row r="313" ht="15" hidden="1" spans="1:7">
       <c r="A313" s="6" t="s">
         <v>519</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" ht="15" spans="1:7">
+    <row r="314" ht="15" hidden="1" spans="1:7">
       <c r="A314" s="6" t="s">
         <v>522</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" ht="15" spans="1:7">
+    <row r="315" ht="15" hidden="1" spans="1:7">
       <c r="A315" s="6" t="s">
         <v>522</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" ht="15" spans="1:7">
+    <row r="316" ht="15" hidden="1" spans="1:7">
       <c r="A316" s="6" t="s">
         <v>523</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="317" ht="15" spans="1:7">
+    <row r="317" ht="15" hidden="1" spans="1:7">
       <c r="A317" s="6" t="s">
         <v>525</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="318" ht="15" spans="1:7">
+    <row r="318" ht="15" hidden="1" spans="1:7">
       <c r="A318" s="6" t="s">
         <v>527</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" ht="15" spans="1:7">
+    <row r="319" ht="15" hidden="1" spans="1:7">
       <c r="A319" s="6" t="s">
         <v>529</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" ht="15" spans="1:7">
+    <row r="320" ht="15" hidden="1" spans="1:7">
       <c r="A320" s="6" t="s">
         <v>531</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="321" ht="15" spans="1:7">
+    <row r="321" ht="15" hidden="1" spans="1:7">
       <c r="A321" s="6" t="s">
         <v>534</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="322" ht="15" spans="1:7">
+    <row r="322" ht="15" hidden="1" spans="1:7">
       <c r="A322" s="6" t="s">
         <v>537</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="323" ht="15" spans="1:7">
+    <row r="323" ht="15" hidden="1" spans="1:7">
       <c r="A323" s="6" t="s">
         <v>538</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="324" ht="15" spans="1:7">
+    <row r="324" ht="15" hidden="1" spans="1:7">
       <c r="A324" s="6" t="s">
         <v>539</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="325" ht="15" spans="1:7">
+    <row r="325" ht="15" hidden="1" spans="1:7">
       <c r="A325" s="6" t="s">
         <v>539</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" ht="15" spans="1:7">
+    <row r="326" ht="15" hidden="1" spans="1:7">
       <c r="A326" s="6" t="s">
         <v>544</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" ht="15" spans="1:7">
+    <row r="327" ht="15" hidden="1" spans="1:7">
       <c r="A327" s="6" t="s">
         <v>546</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" ht="15" spans="1:7">
+    <row r="328" ht="15" hidden="1" spans="1:7">
       <c r="A328" s="6" t="s">
         <v>547</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="329" ht="15" spans="1:7">
+    <row r="329" ht="15" hidden="1" spans="1:7">
       <c r="A329" s="6" t="s">
         <v>550</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="330" ht="15" spans="1:7">
+    <row r="330" ht="15" hidden="1" spans="1:7">
       <c r="A330" s="6" t="s">
         <v>552</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" ht="15" spans="1:7">
+    <row r="331" ht="15" hidden="1" spans="1:7">
       <c r="A331" s="6" t="s">
         <v>553</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" ht="15" spans="1:7">
+    <row r="332" ht="15" hidden="1" spans="1:7">
       <c r="A332" s="6" t="s">
         <v>554</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" ht="15" spans="1:7">
+    <row r="333" ht="15" hidden="1" spans="1:7">
       <c r="A333" s="6" t="s">
         <v>556</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" ht="15" spans="1:7">
+    <row r="334" ht="15" hidden="1" spans="1:7">
       <c r="A334" s="6" t="s">
         <v>557</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="335" ht="15" spans="1:7">
+    <row r="335" ht="15" hidden="1" spans="1:7">
       <c r="A335" s="6" t="s">
         <v>558</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="336" ht="15" spans="1:7">
+    <row r="336" ht="15" hidden="1" spans="1:7">
       <c r="A336" s="6" t="s">
         <v>559</v>
       </c>
@@ -11392,7 +11395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" ht="15" spans="1:7">
+    <row r="337" ht="15" hidden="1" spans="1:7">
       <c r="A337" s="6" t="s">
         <v>560</v>
       </c>
@@ -11415,12 +11418,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" ht="15" spans="1:7">
+    <row r="338" ht="15" hidden="1" spans="1:7">
       <c r="A338" s="6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>562</v>
@@ -11438,12 +11441,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" ht="15" spans="1:7">
+    <row r="339" ht="15" hidden="1" spans="1:7">
       <c r="A339" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>562</v>
@@ -11461,7 +11464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" ht="15" spans="1:7">
+    <row r="340" ht="15" hidden="1" spans="1:7">
       <c r="A340" s="6" t="s">
         <v>564</v>
       </c>
@@ -11478,13 +11481,13 @@
         <v>20</v>
       </c>
       <c r="F340" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G340" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G340" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="341" ht="15" spans="1:7">
+    </row>
+    <row r="341" ht="15" hidden="1" spans="1:7">
       <c r="A341" s="6" t="s">
         <v>567</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" ht="15" spans="1:7">
+    <row r="342" ht="15" hidden="1" spans="1:7">
       <c r="A342" s="6" t="s">
         <v>569</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" ht="15" spans="1:7">
+    <row r="343" ht="15" hidden="1" spans="1:7">
       <c r="A343" s="6" t="s">
         <v>571</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" ht="15" spans="1:7">
+    <row r="344" ht="15" hidden="1" spans="1:7">
       <c r="A344" s="6" t="s">
         <v>572</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" ht="15" spans="1:7">
+    <row r="345" ht="15" hidden="1" spans="1:7">
       <c r="A345" s="6" t="s">
         <v>573</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" ht="15" spans="1:7">
+    <row r="346" ht="15" hidden="1" spans="1:7">
       <c r="A346" s="6" t="s">
         <v>574</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" ht="15" spans="1:7">
+    <row r="347" ht="15" hidden="1" spans="1:7">
       <c r="A347" s="6" t="s">
         <v>575</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" ht="15" spans="1:7">
+    <row r="348" ht="15" hidden="1" spans="1:7">
       <c r="A348" s="6" t="s">
         <v>578</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" ht="15" spans="1:7">
+    <row r="349" ht="15" hidden="1" spans="1:7">
       <c r="A349" s="8" t="s">
         <v>580</v>
       </c>
@@ -11685,13 +11688,13 @@
         <v>43</v>
       </c>
       <c r="F349" s="9" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G349" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="350" ht="15" spans="1:7">
+    <row r="350" ht="15" hidden="1" spans="1:7">
       <c r="A350" s="8" t="s">
         <v>582</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" ht="15" spans="1:7">
+    <row r="351" ht="15" hidden="1" spans="1:7">
       <c r="A351" s="6" t="s">
         <v>585</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="352" ht="15" spans="1:7">
+    <row r="352" ht="15" hidden="1" spans="1:7">
       <c r="A352" s="6" t="s">
         <v>585</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" ht="15" spans="1:7">
+    <row r="353" ht="15" hidden="1" spans="1:7">
       <c r="A353" s="6" t="s">
         <v>588</v>
       </c>
@@ -11783,7 +11786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" ht="15" spans="1:7">
+    <row r="354" ht="15" hidden="1" spans="1:7">
       <c r="A354" s="6" t="s">
         <v>589</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" ht="15" spans="1:7">
+    <row r="355" ht="15" hidden="1" spans="1:7">
       <c r="A355" s="6" t="s">
         <v>589</v>
       </c>
@@ -11829,7 +11832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" ht="15" spans="1:7">
+    <row r="356" ht="15" hidden="1" spans="1:7">
       <c r="A356" s="6" t="s">
         <v>592</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="357" ht="15" spans="1:7">
+    <row r="357" ht="15" hidden="1" spans="1:7">
       <c r="A357" s="6" t="s">
         <v>592</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" ht="15" spans="1:7">
+    <row r="358" ht="15" hidden="1" spans="1:7">
       <c r="A358" s="6" t="s">
         <v>595</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" ht="15" spans="1:7">
+    <row r="359" ht="15" hidden="1" spans="1:7">
       <c r="A359" s="6" t="s">
         <v>215</v>
       </c>
@@ -11921,7 +11924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="360" ht="15" spans="1:7">
+    <row r="360" ht="15" hidden="1" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>211</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="361" ht="15" spans="1:7">
+    <row r="361" ht="15" hidden="1" spans="1:7">
       <c r="A361" s="6" t="s">
         <v>597</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" ht="15" spans="1:7">
+    <row r="362" ht="15" hidden="1" spans="1:7">
       <c r="A362" s="6" t="s">
         <v>600</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" ht="15" spans="1:7">
+    <row r="363" ht="15" hidden="1" spans="1:7">
       <c r="A363" s="6" t="s">
         <v>513</v>
       </c>
@@ -12013,7 +12016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="364" ht="15" spans="1:7">
+    <row r="364" ht="15" hidden="1" spans="1:7">
       <c r="A364" s="6" t="s">
         <v>602</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="365" ht="15" spans="1:7">
+    <row r="365" ht="15" hidden="1" spans="1:7">
       <c r="A365" s="6" t="s">
         <v>602</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="366" ht="15" spans="1:7">
+    <row r="366" ht="15" hidden="1" spans="1:7">
       <c r="A366" s="6" t="s">
         <v>603</v>
       </c>
@@ -12076,13 +12079,13 @@
         <v>56</v>
       </c>
       <c r="F366" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G366" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G366" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="367" ht="15" spans="1:7">
+    </row>
+    <row r="367" ht="15" hidden="1" spans="1:7">
       <c r="A367" s="6" t="s">
         <v>606</v>
       </c>
@@ -12099,13 +12102,13 @@
         <v>56</v>
       </c>
       <c r="F367" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G367" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G367" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="368" ht="15" spans="1:7">
+    </row>
+    <row r="368" ht="15" hidden="1" spans="1:7">
       <c r="A368" s="6" t="s">
         <v>608</v>
       </c>
@@ -12125,10 +12128,10 @@
         <v>273</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="369" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="369" ht="15" hidden="1" spans="1:7">
       <c r="A369" s="6" t="s">
         <v>610</v>
       </c>
@@ -12148,10 +12151,10 @@
         <v>273</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="370" ht="15" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="370" ht="15" hidden="1" spans="1:7">
       <c r="A370" s="6" t="s">
         <v>612</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" ht="15" spans="1:7">
+    <row r="371" ht="15" hidden="1" spans="1:7">
       <c r="A371" s="8" t="s">
         <v>613</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="372" ht="15" spans="1:7">
+    <row r="372" ht="15" hidden="1" spans="1:7">
       <c r="A372" s="8" t="s">
         <v>615</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="373" ht="15" spans="1:7">
+    <row r="373" ht="15" hidden="1" spans="1:7">
       <c r="A373" s="8" t="s">
         <v>615</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" ht="15" spans="1:7">
+    <row r="374" ht="15" hidden="1" spans="1:7">
       <c r="A374" s="8" t="s">
         <v>615</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" ht="15" spans="1:7">
+    <row r="375" ht="15" hidden="1" spans="1:7">
       <c r="A375" s="8" t="s">
         <v>616</v>
       </c>
@@ -12289,11 +12292,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" ht="15" spans="1:7">
-      <c r="A376" s="10" t="s">
+    <row r="376" ht="15" hidden="1" spans="1:7">
+      <c r="A376" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="11" t="s">
         <v>618</v>
       </c>
       <c r="C376" s="7" t="s">
@@ -12302,44 +12305,44 @@
       <c r="D376" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E376" s="10" t="s">
+      <c r="E376" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F376" s="10" t="s">
+      <c r="F376" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="G376" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="377" ht="15" spans="1:7">
-      <c r="A377" s="10" t="s">
+      <c r="G376" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="377" ht="15" hidden="1" spans="1:7">
+      <c r="A377" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B377" s="11" t="s">
         <v>620</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="D377" s="10" t="s">
+      <c r="D377" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E377" s="10" t="s">
+      <c r="E377" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F377" s="10" t="s">
+      <c r="F377" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="G377" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="378" ht="15" spans="1:7">
-      <c r="A378" s="10" t="s">
+      <c r="G377" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="378" ht="15" hidden="1" spans="1:7">
+      <c r="A378" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="11" t="s">
         <v>622</v>
       </c>
       <c r="C378" s="7" t="s">
@@ -12348,44 +12351,44 @@
       <c r="D378" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E378" s="10" t="s">
+      <c r="E378" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F378" s="10" t="s">
+      <c r="F378" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G378" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="379" ht="15" spans="1:7">
-      <c r="A379" s="10" t="s">
+      <c r="G378" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="379" ht="15" hidden="1" spans="1:7">
+      <c r="A379" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B379" s="11" t="s">
         <v>622</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="D379" s="10" t="s">
+      <c r="D379" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E379" s="10" t="s">
+      <c r="E379" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F379" s="10" t="s">
+      <c r="F379" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G379" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="380" ht="15" spans="1:7">
-      <c r="A380" s="10" t="s">
+      <c r="G379" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="380" ht="15" hidden="1" spans="1:7">
+      <c r="A380" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="11" t="s">
         <v>625</v>
       </c>
       <c r="C380" s="7" t="s">
@@ -12394,17 +12397,17 @@
       <c r="D380" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E380" s="10" t="s">
+      <c r="E380" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F380" s="10" t="s">
+      <c r="F380" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G380" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="381" ht="15" spans="1:7">
+      <c r="G380" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="381" ht="15" hidden="1" spans="1:7">
       <c r="A381" s="6" t="s">
         <v>626</v>
       </c>
@@ -12414,7 +12417,7 @@
       <c r="C381" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D381" s="11" t="s">
+      <c r="D381" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E381" s="7" t="s">
@@ -12427,7 +12430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" ht="15" spans="1:7">
+    <row r="382" ht="15" hidden="1" spans="1:7">
       <c r="A382" s="6" t="s">
         <v>630</v>
       </c>
@@ -12437,7 +12440,7 @@
       <c r="C382" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D382" s="12" t="s">
+      <c r="D382" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E382" s="7" t="s">
@@ -12450,7 +12453,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="383" ht="15" spans="1:7">
+    <row r="383" ht="15" hidden="1" spans="1:7">
       <c r="A383" s="6" t="s">
         <v>632</v>
       </c>
@@ -12460,7 +12463,7 @@
       <c r="C383" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D383" s="11" t="s">
+      <c r="D383" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E383" s="7" t="s">
@@ -12473,7 +12476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" ht="15" spans="1:7">
+    <row r="384" ht="15" hidden="1" spans="1:7">
       <c r="A384" s="6" t="s">
         <v>634</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="385" ht="15" spans="1:7">
+    <row r="385" ht="15" hidden="1" spans="1:7">
       <c r="A385" s="6" t="s">
         <v>634</v>
       </c>
@@ -12519,7 +12522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" ht="15" spans="1:7">
+    <row r="386" ht="15" hidden="1" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>247</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="387" ht="15" spans="1:7">
+    <row r="387" ht="15" hidden="1" spans="1:7">
       <c r="A387" s="6" t="s">
         <v>471</v>
       </c>
@@ -12565,7 +12568,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="388" ht="15" spans="1:7">
+    <row r="388" ht="15" hidden="1" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>472</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="389" ht="15" spans="1:7">
+    <row r="389" ht="15" hidden="1" spans="1:7">
       <c r="A389" s="6" t="s">
         <v>637</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" ht="15" spans="1:7">
+    <row r="390" ht="15" hidden="1" spans="1:7">
       <c r="A390" s="6" t="s">
         <v>639</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" ht="15" spans="1:7">
+    <row r="391" ht="15" hidden="1" spans="1:7">
       <c r="A391" s="6" t="s">
         <v>245</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" ht="15" spans="1:7">
+    <row r="392" ht="15" hidden="1" spans="1:7">
       <c r="A392" s="6" t="s">
         <v>641</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" ht="15" spans="1:7">
+    <row r="393" ht="15" hidden="1" spans="1:7">
       <c r="A393" s="6" t="s">
         <v>644</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" ht="15" spans="1:7">
+    <row r="394" ht="15" hidden="1" spans="1:7">
       <c r="A394" s="6" t="s">
         <v>646</v>
       </c>
@@ -12726,11 +12729,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="395" ht="15" spans="1:7">
-      <c r="A395" s="10" t="s">
+    <row r="395" ht="15" hidden="1" spans="1:7">
+      <c r="A395" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="B395" s="10" t="s">
+      <c r="B395" s="11" t="s">
         <v>649</v>
       </c>
       <c r="C395" s="7" t="s">
@@ -12739,67 +12742,67 @@
       <c r="D395" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E395" s="10" t="s">
+      <c r="E395" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F395" s="10" t="s">
+      <c r="F395" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="G395" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="396" ht="15" spans="1:7">
-      <c r="A396" s="10" t="s">
+      <c r="G395" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="396" ht="15" hidden="1" spans="1:7">
+      <c r="A396" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="B396" s="11" t="s">
         <v>651</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="D396" s="10" t="s">
+      <c r="D396" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E396" s="10" t="s">
+      <c r="E396" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F396" s="10" t="s">
+      <c r="F396" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="G396" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="397" ht="15" spans="1:7">
-      <c r="A397" s="10" t="s">
+      <c r="G396" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="397" ht="15" hidden="1" spans="1:7">
+      <c r="A397" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="B397" s="11" t="s">
         <v>653</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="D397" s="10" t="s">
+      <c r="D397" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E397" s="10" t="s">
+      <c r="E397" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F397" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G397" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="398" ht="15" spans="1:7">
-      <c r="A398" s="10" t="s">
+      <c r="G397" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="398" ht="15" hidden="1" spans="1:7">
+      <c r="A398" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B398" s="11" t="s">
         <v>221</v>
       </c>
       <c r="C398" s="7" t="s">
@@ -12808,17 +12811,17 @@
       <c r="D398" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E398" s="10" t="s">
+      <c r="E398" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F398" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G398" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="399" ht="15" spans="1:7">
+      <c r="G398" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="399" ht="15" hidden="1" spans="1:7">
       <c r="A399" s="6" t="s">
         <v>163</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="400" ht="15" spans="1:7">
+    <row r="400" ht="15" hidden="1" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>162</v>
       </c>
@@ -12864,7 +12867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="401" ht="15" spans="1:7">
+    <row r="401" ht="15" hidden="1" spans="1:7">
       <c r="A401" s="6" t="s">
         <v>160</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="402" ht="15" spans="1:7">
+    <row r="402" ht="15" hidden="1" spans="1:7">
       <c r="A402" s="6" t="s">
         <v>656</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="403" ht="15" spans="1:7">
+    <row r="403" ht="15" hidden="1" spans="1:7">
       <c r="A403" s="6" t="s">
         <v>657</v>
       </c>
@@ -12933,7 +12936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="404" ht="15" spans="1:7">
+    <row r="404" ht="15" hidden="1" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>75</v>
       </c>
@@ -12956,7 +12959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" ht="15" spans="1:7">
+    <row r="405" ht="15" hidden="1" spans="1:7">
       <c r="A405" s="6" t="s">
         <v>79</v>
       </c>
@@ -12979,7 +12982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="406" ht="15" spans="1:7">
+    <row r="406" ht="15" hidden="1" spans="1:7">
       <c r="A406" s="6" t="s">
         <v>659</v>
       </c>
@@ -13002,7 +13005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" ht="15" spans="1:7">
+    <row r="407" ht="15" hidden="1" spans="1:7">
       <c r="A407" s="6" t="s">
         <v>661</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" ht="15" spans="1:7">
+    <row r="408" ht="15" hidden="1" spans="1:7">
       <c r="A408" s="6" t="s">
         <v>663</v>
       </c>
@@ -13048,7 +13051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" ht="15" spans="1:7">
+    <row r="409" ht="15" hidden="1" spans="1:7">
       <c r="A409" s="6" t="s">
         <v>665</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" ht="15" spans="1:7">
+    <row r="410" ht="15" hidden="1" spans="1:7">
       <c r="A410" s="6" t="s">
         <v>666</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" ht="15" spans="1:7">
+    <row r="411" ht="15" hidden="1" spans="1:7">
       <c r="A411" s="6" t="s">
         <v>667</v>
       </c>
@@ -13117,7 +13120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" ht="15" spans="1:7">
+    <row r="412" ht="15" hidden="1" spans="1:7">
       <c r="A412" s="6" t="s">
         <v>670</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="413" ht="15" spans="1:7">
+    <row r="413" ht="15" hidden="1" spans="1:7">
       <c r="A413" s="6" t="s">
         <v>672</v>
       </c>
@@ -13163,7 +13166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" ht="15" spans="1:7">
+    <row r="414" ht="15" hidden="1" spans="1:7">
       <c r="A414" s="6" t="s">
         <v>672</v>
       </c>
@@ -13186,7 +13189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="415" ht="15" spans="1:7">
+    <row r="415" ht="15" hidden="1" spans="1:7">
       <c r="A415" s="6" t="s">
         <v>673</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" ht="15" spans="1:7">
+    <row r="416" ht="15" hidden="1" spans="1:7">
       <c r="A416" s="6" t="s">
         <v>676</v>
       </c>
@@ -13232,7 +13235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" ht="15" spans="1:7">
+    <row r="417" ht="15" hidden="1" spans="1:7">
       <c r="A417" s="6" t="s">
         <v>676</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" ht="15" spans="1:7">
+    <row r="418" ht="15" hidden="1" spans="1:7">
       <c r="A418" s="6" t="s">
         <v>679</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" ht="15" spans="1:7">
+    <row r="419" ht="15" hidden="1" spans="1:7">
       <c r="A419" s="6" t="s">
         <v>133</v>
       </c>
@@ -13301,7 +13304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="420" ht="15" spans="1:7">
+    <row r="420" ht="15" hidden="1" spans="1:7">
       <c r="A420" s="6" t="s">
         <v>135</v>
       </c>
@@ -13324,7 +13327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="421" ht="15" spans="1:7">
+    <row r="421" ht="15" hidden="1" spans="1:7">
       <c r="A421" s="6" t="s">
         <v>681</v>
       </c>
@@ -13347,7 +13350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" ht="15" spans="1:7">
+    <row r="422" ht="15" hidden="1" spans="1:7">
       <c r="A422" s="6" t="s">
         <v>682</v>
       </c>
@@ -13370,34 +13373,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="423" ht="15" spans="1:7">
-      <c r="A423" s="10" t="s">
+    <row r="423" ht="15" hidden="1" spans="1:7">
+      <c r="A423" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B423" s="10" t="s">
+      <c r="B423" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="D423" s="10" t="s">
+      <c r="D423" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E423" s="10" t="s">
+      <c r="E423" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F423" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G423" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="424" ht="15" spans="1:7">
-      <c r="A424" s="10" t="s">
+      <c r="G423" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="424" ht="15" hidden="1" spans="1:7">
+      <c r="A424" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="B424" s="10" t="s">
+      <c r="B424" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C424" s="7" t="s">
@@ -13406,40 +13409,40 @@
       <c r="D424" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E424" s="10" t="s">
+      <c r="E424" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F424" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G424" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="425" ht="15" spans="1:7">
-      <c r="A425" s="10" t="s">
+      <c r="G424" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="425" ht="15" hidden="1" spans="1:7">
+      <c r="A425" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="B425" s="10" t="s">
+      <c r="B425" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="D425" s="10" t="s">
+      <c r="D425" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E425" s="10" t="s">
+      <c r="E425" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F425" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G425" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="426" ht="15" spans="1:7">
+      <c r="G425" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="426" ht="15" hidden="1" spans="1:7">
       <c r="A426" s="6" t="s">
         <v>222</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="427" ht="15" spans="1:7">
+    <row r="427" ht="15" hidden="1" spans="1:7">
       <c r="A427" s="6" t="s">
         <v>687</v>
       </c>
@@ -13485,7 +13488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="428" ht="15" spans="1:7">
+    <row r="428" ht="15" hidden="1" spans="1:7">
       <c r="A428" s="6" t="s">
         <v>689</v>
       </c>
@@ -13508,7 +13511,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" ht="15" spans="1:7">
+    <row r="429" ht="15" hidden="1" spans="1:7">
       <c r="A429" s="6" t="s">
         <v>691</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" ht="15" spans="1:7">
+    <row r="430" ht="15" hidden="1" spans="1:7">
       <c r="A430" s="6" t="s">
         <v>693</v>
       </c>
@@ -13554,7 +13557,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="431" ht="15" spans="1:7">
+    <row r="431" ht="15" hidden="1" spans="1:7">
       <c r="A431" s="6" t="s">
         <v>695</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" ht="15" spans="1:7">
+    <row r="432" ht="15" hidden="1" spans="1:7">
       <c r="A432" s="6" t="s">
         <v>697</v>
       </c>
@@ -13600,34 +13603,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" ht="15" spans="1:7">
-      <c r="A433" s="13" t="s">
+    <row r="433" ht="15" hidden="1" spans="1:7">
+      <c r="A433" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="B433" s="14" t="s">
+      <c r="B433" s="15" t="s">
         <v>700</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D433" s="14" t="s">
+      <c r="D433" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E433" s="14" t="s">
+      <c r="E433" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F433" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="G433" s="14" t="s">
+      <c r="G433" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="434" ht="15" spans="1:7">
-      <c r="A434" s="15" t="s">
+    <row r="434" ht="15" hidden="1" spans="1:7">
+      <c r="A434" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="B434" s="16" t="s">
+      <c r="B434" s="17" t="s">
         <v>702</v>
       </c>
       <c r="C434" s="7" t="s">
@@ -13636,44 +13639,44 @@
       <c r="D434" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E434" s="16" t="s">
+      <c r="E434" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="G434" s="16" t="s">
+      <c r="G434" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="435" ht="15" spans="1:7">
-      <c r="A435" s="15" t="s">
+    <row r="435" ht="15" hidden="1" spans="1:7">
+      <c r="A435" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="B435" s="16" t="s">
+      <c r="B435" s="17" t="s">
         <v>704</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D435" s="16" t="s">
+      <c r="D435" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E435" s="16" t="s">
+      <c r="E435" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F435" s="16" t="s">
+      <c r="F435" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="G435" s="16" t="s">
+      <c r="G435" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="436" ht="15" spans="1:7">
-      <c r="A436" s="15" t="s">
+    <row r="436" ht="15" hidden="1" spans="1:7">
+      <c r="A436" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="B436" s="16" t="s">
+      <c r="B436" s="17" t="s">
         <v>707</v>
       </c>
       <c r="C436" s="7" t="s">
@@ -13682,44 +13685,44 @@
       <c r="D436" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E436" s="16" t="s">
+      <c r="E436" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F436" s="16" t="s">
+      <c r="F436" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="G436" s="16" t="s">
+      <c r="G436" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="437" ht="15" spans="1:7">
-      <c r="A437" s="15" t="s">
+    <row r="437" ht="15" hidden="1" spans="1:7">
+      <c r="A437" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="B437" s="16" t="s">
+      <c r="B437" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D437" s="16" t="s">
+      <c r="D437" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E437" s="16" t="s">
+      <c r="E437" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F437" s="16" t="s">
+      <c r="F437" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="G437" s="16" t="s">
+      <c r="G437" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="438" ht="15" spans="1:7">
-      <c r="A438" s="15" t="s">
+    <row r="438" ht="15" hidden="1" spans="1:7">
+      <c r="A438" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="B438" s="16" t="s">
+      <c r="B438" s="17" t="s">
         <v>711</v>
       </c>
       <c r="C438" s="7" t="s">
@@ -13728,44 +13731,44 @@
       <c r="D438" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E438" s="16" t="s">
+      <c r="E438" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F438" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G438" s="16" t="s">
+      <c r="G438" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" ht="15" spans="1:7">
-      <c r="A439" s="15" t="s">
+    <row r="439" ht="15" hidden="1" spans="1:7">
+      <c r="A439" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="B439" s="16" t="s">
+      <c r="B439" s="17" t="s">
         <v>711</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D439" s="16" t="s">
+      <c r="D439" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E439" s="16" t="s">
+      <c r="E439" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F439" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G439" s="16" t="s">
+      <c r="G439" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="440" ht="15" spans="1:7">
-      <c r="A440" s="15" t="s">
+    <row r="440" ht="15" hidden="1" spans="1:7">
+      <c r="A440" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="B440" s="16" t="s">
+      <c r="B440" s="17" t="s">
         <v>711</v>
       </c>
       <c r="C440" s="7" t="s">
@@ -13774,21 +13777,21 @@
       <c r="D440" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E440" s="16" t="s">
+      <c r="E440" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G440" s="16" t="s">
+      <c r="G440" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="441" ht="15" spans="1:7">
-      <c r="A441" s="15" t="s">
+    <row r="441" ht="15" hidden="1" spans="1:7">
+      <c r="A441" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="B441" s="16" t="s">
+      <c r="B441" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C441" s="7" t="s">
@@ -13797,113 +13800,113 @@
       <c r="D441" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E441" s="16" t="s">
+      <c r="E441" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F441" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G441" s="16" t="s">
+      <c r="G441" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="442" ht="15" spans="1:7">
-      <c r="A442" s="15" t="s">
+    <row r="442" ht="15" hidden="1" spans="1:7">
+      <c r="A442" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="B442" s="16" t="s">
+      <c r="B442" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D442" s="16" t="s">
+      <c r="D442" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E442" s="16" t="s">
+      <c r="E442" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F442" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G442" s="16" t="s">
+      <c r="G442" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="443" ht="15" spans="1:7">
-      <c r="A443" s="15" t="s">
+    <row r="443" ht="15" hidden="1" spans="1:7">
+      <c r="A443" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B443" s="16" t="s">
+      <c r="B443" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D443" s="16" t="s">
+      <c r="D443" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E443" s="16" t="s">
+      <c r="E443" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F443" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G443" s="16" t="s">
+      <c r="G443" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="444" ht="15" spans="1:7">
-      <c r="A444" s="15" t="s">
+    <row r="444" ht="15" hidden="1" spans="1:7">
+      <c r="A444" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="B444" s="16" t="s">
+      <c r="B444" s="17" t="s">
         <v>717</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D444" s="16" t="s">
+      <c r="D444" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E444" s="16" t="s">
+      <c r="E444" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F444" s="16" t="s">
+      <c r="F444" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G444" s="16" t="s">
+      <c r="G444" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="445" ht="15" spans="1:7">
-      <c r="A445" s="15" t="s">
+    <row r="445" ht="15" hidden="1" spans="1:7">
+      <c r="A445" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="B445" s="16" t="s">
+      <c r="B445" s="17" t="s">
         <v>711</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D445" s="16" t="s">
+      <c r="D445" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E445" s="16" t="s">
+      <c r="E445" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F445" s="16" t="s">
+      <c r="F445" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="G445" s="16" t="s">
+      <c r="G445" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="446" ht="15" spans="1:7">
-      <c r="A446" s="15" t="s">
+    <row r="446" ht="15" hidden="1" spans="1:7">
+      <c r="A446" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="B446" s="16" t="s">
+      <c r="B446" s="17" t="s">
         <v>711</v>
       </c>
       <c r="C446" s="7" t="s">
@@ -13912,113 +13915,113 @@
       <c r="D446" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E446" s="16" t="s">
+      <c r="E446" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F446" s="16" t="s">
+      <c r="F446" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="G446" s="16" t="s">
+      <c r="G446" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="447" ht="15" spans="1:7">
-      <c r="A447" s="15" t="s">
+    <row r="447" ht="15" hidden="1" spans="1:7">
+      <c r="A447" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="B447" s="16" t="s">
+      <c r="B447" s="17" t="s">
         <v>202</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D447" s="16" t="s">
+      <c r="D447" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E447" s="16" t="s">
+      <c r="E447" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F447" s="16" t="s">
+      <c r="F447" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G447" s="16" t="s">
+      <c r="G447" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="448" ht="15" spans="1:7">
-      <c r="A448" s="15" t="s">
+    <row r="448" ht="15" hidden="1" spans="1:7">
+      <c r="A448" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="B448" s="16" t="s">
+      <c r="B448" s="17" t="s">
         <v>535</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D448" s="16" t="s">
+      <c r="D448" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E448" s="16" t="s">
+      <c r="E448" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F448" s="16" t="s">
+      <c r="F448" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="G448" s="16" t="s">
+      <c r="G448" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="449" ht="15" spans="1:7">
-      <c r="A449" s="17" t="s">
+    <row r="449" ht="15" hidden="1" spans="1:7">
+      <c r="A449" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="B449" s="17" t="s">
+      <c r="B449" s="18" t="s">
         <v>707</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D449" s="10" t="s">
+      <c r="D449" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E449" s="17" t="s">
+      <c r="E449" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F449" s="17" t="s">
+      <c r="F449" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="G449" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="450" ht="15" spans="1:7">
-      <c r="A450" s="17" t="s">
+      <c r="G449" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="450" ht="15" hidden="1" spans="1:7">
+      <c r="A450" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="B450" s="17" t="s">
+      <c r="B450" s="18" t="s">
         <v>709</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D450" s="16" t="s">
+      <c r="D450" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E450" s="17" t="s">
+      <c r="E450" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F450" s="10" t="s">
+      <c r="F450" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="G450" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="451" ht="15" spans="1:7">
-      <c r="A451" s="15" t="s">
+      <c r="G450" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="451" ht="15" hidden="1" spans="1:7">
+      <c r="A451" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B451" s="16" t="s">
+      <c r="B451" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C451" s="7" t="s">
@@ -14027,21 +14030,21 @@
       <c r="D451" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E451" s="16" t="s">
+      <c r="E451" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F451" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G451" s="16" t="s">
+      <c r="G451" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="452" ht="15" spans="1:7">
-      <c r="A452" s="15" t="s">
+    <row r="452" ht="15" hidden="1" spans="1:7">
+      <c r="A452" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="B452" s="16" t="s">
+      <c r="B452" s="17" t="s">
         <v>565</v>
       </c>
       <c r="C452" s="7" t="s">
@@ -14050,44 +14053,44 @@
       <c r="D452" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E452" s="16" t="s">
+      <c r="E452" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F452" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G452" s="16" t="s">
+      <c r="G452" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="453" ht="15" spans="1:7">
-      <c r="A453" s="15" t="s">
+    <row r="453" ht="15" hidden="1" spans="1:7">
+      <c r="A453" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="B453" s="16" t="s">
+      <c r="B453" s="17" t="s">
         <v>725</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D453" s="16" t="s">
+      <c r="D453" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E453" s="16" t="s">
+      <c r="E453" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F453" s="16" t="s">
+      <c r="F453" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G453" s="16" t="s">
+      <c r="G453" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="454" ht="15" spans="1:7">
-      <c r="A454" s="15" t="s">
+    <row r="454" ht="15" hidden="1" spans="1:7">
+      <c r="A454" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="B454" s="16" t="s">
+      <c r="B454" s="17" t="s">
         <v>727</v>
       </c>
       <c r="C454" s="7" t="s">
@@ -14096,44 +14099,44 @@
       <c r="D454" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E454" s="16" t="s">
+      <c r="E454" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F454" s="16" t="s">
+      <c r="F454" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G454" s="16" t="s">
+      <c r="G454" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="455" ht="15" spans="1:7">
-      <c r="A455" s="15" t="s">
+    <row r="455" ht="15" hidden="1" spans="1:7">
+      <c r="A455" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="B455" s="16" t="s">
+      <c r="B455" s="17" t="s">
         <v>725</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D455" s="16" t="s">
+      <c r="D455" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E455" s="16" t="s">
+      <c r="E455" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F455" s="16" t="s">
+      <c r="F455" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G455" s="16" t="s">
+      <c r="G455" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="456" ht="15" spans="1:7">
-      <c r="A456" s="15" t="s">
+    <row r="456" ht="15" hidden="1" spans="1:7">
+      <c r="A456" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="B456" s="16" t="s">
+      <c r="B456" s="17" t="s">
         <v>727</v>
       </c>
       <c r="C456" s="7" t="s">
@@ -14142,44 +14145,44 @@
       <c r="D456" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E456" s="16" t="s">
+      <c r="E456" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F456" s="16" t="s">
+      <c r="F456" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G456" s="16" t="s">
+      <c r="G456" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="457" ht="15" spans="1:7">
-      <c r="A457" s="15" t="s">
+    <row r="457" ht="15" hidden="1" spans="1:7">
+      <c r="A457" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="B457" s="16" t="s">
+      <c r="B457" s="17" t="s">
         <v>731</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D457" s="16" t="s">
+      <c r="D457" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E457" s="16" t="s">
+      <c r="E457" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F457" s="16" t="s">
+      <c r="F457" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G457" s="16" t="s">
+      <c r="G457" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="458" ht="15" spans="1:7">
-      <c r="A458" s="15" t="s">
+    <row r="458" ht="15" hidden="1" spans="1:7">
+      <c r="A458" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="B458" s="16" t="s">
+      <c r="B458" s="17" t="s">
         <v>733</v>
       </c>
       <c r="C458" s="7" t="s">
@@ -14188,44 +14191,44 @@
       <c r="D458" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E458" s="16" t="s">
+      <c r="E458" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F458" s="16" t="s">
+      <c r="F458" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G458" s="16" t="s">
+      <c r="G458" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="459" ht="15" spans="1:7">
-      <c r="A459" s="15" t="s">
+    <row r="459" ht="15" hidden="1" spans="1:7">
+      <c r="A459" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="B459" s="16" t="s">
-        <v>190</v>
+      <c r="B459" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D459" s="16" t="s">
+      <c r="D459" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E459" s="16" t="s">
+      <c r="E459" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F459" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G459" s="16" t="s">
+      <c r="G459" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="460" ht="15" spans="1:7">
-      <c r="A460" s="15" t="s">
+    <row r="460" ht="15" hidden="1" spans="1:7">
+      <c r="A460" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="B460" s="16" t="s">
+      <c r="B460" s="17" t="s">
         <v>737</v>
       </c>
       <c r="C460" s="7" t="s">
@@ -14234,45 +14237,45 @@
       <c r="D460" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E460" s="16" t="s">
+      <c r="E460" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F460" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G460" s="16" t="s">
+      <c r="G460" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="461" ht="15" spans="1:7">
-      <c r="A461" s="15" t="s">
+    <row r="461" ht="15" hidden="1" spans="1:7">
+      <c r="A461" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="B461" s="16" t="s">
+      <c r="B461" s="17" t="s">
         <v>454</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D461" s="16" t="s">
+      <c r="D461" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E461" s="16" t="s">
+      <c r="E461" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F461" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G461" s="16" t="s">
+      <c r="G461" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="462" ht="15" spans="1:7">
-      <c r="A462" s="15" t="s">
+    <row r="462" ht="15" hidden="1" spans="1:7">
+      <c r="A462" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="B462" s="16" t="s">
-        <v>190</v>
+      <c r="B462" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>735</v>
@@ -14280,113 +14283,113 @@
       <c r="D462" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E462" s="16" t="s">
+      <c r="E462" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F462" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G462" s="16" t="s">
+      <c r="G462" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="463" ht="15" spans="1:7">
-      <c r="A463" s="15" t="s">
+    <row r="463" ht="15" hidden="1" spans="1:7">
+      <c r="A463" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="B463" s="16" t="s">
-        <v>192</v>
+      <c r="B463" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D463" s="16" t="s">
+      <c r="D463" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E463" s="16" t="s">
+      <c r="E463" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F463" s="16" t="s">
+      <c r="F463" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G463" s="16" t="s">
+      <c r="G463" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="464" ht="15" spans="1:7">
-      <c r="A464" s="15" t="s">
+    <row r="464" ht="15" hidden="1" spans="1:7">
+      <c r="A464" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="B464" s="16" t="s">
+      <c r="B464" s="17" t="s">
         <v>737</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D464" s="16" t="s">
+      <c r="D464" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E464" s="16" t="s">
+      <c r="E464" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F464" s="16" t="s">
+      <c r="F464" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G464" s="16" t="s">
+      <c r="G464" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="465" ht="15" spans="1:7">
-      <c r="A465" s="15" t="s">
+    <row r="465" ht="15" hidden="1" spans="1:7">
+      <c r="A465" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="B465" s="16" t="s">
+      <c r="B465" s="17" t="s">
         <v>454</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D465" s="16" t="s">
+      <c r="D465" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E465" s="16" t="s">
+      <c r="E465" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F465" s="16" t="s">
+      <c r="F465" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G465" s="16" t="s">
+      <c r="G465" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="466" ht="15" spans="1:7">
-      <c r="A466" s="17" t="s">
+    <row r="466" ht="15" hidden="1" spans="1:7">
+      <c r="A466" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="B466" s="17" t="s">
+      <c r="B466" s="18" t="s">
         <v>561</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D466" s="16" t="s">
+      <c r="D466" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E466" s="17" t="s">
+      <c r="E466" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F466" s="17" t="s">
+      <c r="F466" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G466" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="467" ht="15" spans="1:7">
-      <c r="A467" s="15" t="s">
+      <c r="G466" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="467" ht="15" hidden="1" spans="1:7">
+      <c r="A467" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="B467" s="16" t="s">
+      <c r="B467" s="17" t="s">
         <v>743</v>
       </c>
       <c r="C467" s="7" t="s">
@@ -14395,136 +14398,136 @@
       <c r="D467" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E467" s="16" t="s">
+      <c r="E467" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F467" s="16" t="s">
+      <c r="F467" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G467" s="16" t="s">
+      <c r="G467" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="468" ht="15" spans="1:7">
-      <c r="A468" s="15" t="s">
+    <row r="468" ht="15" hidden="1" spans="1:7">
+      <c r="A468" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="B468" s="16" t="s">
+      <c r="B468" s="17" t="s">
         <v>746</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D468" s="16" t="s">
+      <c r="D468" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E468" s="16" t="s">
+      <c r="E468" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F468" s="16" t="s">
+      <c r="F468" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G468" s="16" t="s">
+      <c r="G468" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="469" ht="15" spans="1:7">
-      <c r="A469" s="15" t="s">
+    <row r="469" ht="15" hidden="1" spans="1:7">
+      <c r="A469" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="B469" s="16" t="s">
+      <c r="B469" s="17" t="s">
         <v>748</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D469" s="16" t="s">
+      <c r="D469" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E469" s="16" t="s">
+      <c r="E469" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F469" s="16" t="s">
+      <c r="F469" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="G469" s="16" t="s">
+      <c r="G469" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="470" ht="15" spans="1:7">
-      <c r="A470" s="15" t="s">
+    <row r="470" ht="15" hidden="1" spans="1:7">
+      <c r="A470" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="B470" s="16" t="s">
+      <c r="B470" s="17" t="s">
         <v>750</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D470" s="16" t="s">
+      <c r="D470" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E470" s="16" t="s">
+      <c r="E470" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F470" s="16" t="s">
+      <c r="F470" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G470" s="16" t="s">
+      <c r="G470" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="471" ht="15" spans="1:7">
-      <c r="A471" s="15" t="s">
+    <row r="471" ht="15" hidden="1" spans="1:7">
+      <c r="A471" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="B471" s="16" t="s">
+      <c r="B471" s="17" t="s">
         <v>752</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D471" s="16" t="s">
+      <c r="D471" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E471" s="16" t="s">
+      <c r="E471" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F471" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G471" s="16" t="s">
+      <c r="G471" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="472" ht="15" spans="1:7">
-      <c r="A472" s="15" t="s">
+    <row r="472" ht="15" hidden="1" spans="1:7">
+      <c r="A472" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="B472" s="16" t="s">
+      <c r="B472" s="17" t="s">
         <v>754</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D472" s="16" t="s">
+      <c r="D472" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E472" s="16" t="s">
+      <c r="E472" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F472" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G472" s="16" t="s">
+      <c r="G472" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="473" ht="15" spans="1:7">
-      <c r="A473" s="15" t="s">
+    <row r="473" ht="15" hidden="1" spans="1:7">
+      <c r="A473" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="B473" s="16" t="s">
+      <c r="B473" s="17" t="s">
         <v>752</v>
       </c>
       <c r="C473" s="7" t="s">
@@ -14533,44 +14536,44 @@
       <c r="D473" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E473" s="16" t="s">
+      <c r="E473" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F473" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G473" s="16" t="s">
+      <c r="G473" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="474" ht="15" spans="1:7">
-      <c r="A474" s="15" t="s">
+    <row r="474" ht="15" hidden="1" spans="1:7">
+      <c r="A474" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="B474" s="16" t="s">
+      <c r="B474" s="17" t="s">
         <v>754</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D474" s="16" t="s">
+      <c r="D474" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E474" s="16" t="s">
+      <c r="E474" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F474" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G474" s="16" t="s">
+      <c r="G474" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="475" ht="15" spans="1:7">
-      <c r="A475" s="15" t="s">
+    <row r="475" ht="15" hidden="1" spans="1:7">
+      <c r="A475" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="B475" s="16" t="s">
+      <c r="B475" s="17" t="s">
         <v>743</v>
       </c>
       <c r="C475" s="7" t="s">
@@ -14579,67 +14582,67 @@
       <c r="D475" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E475" s="16" t="s">
+      <c r="E475" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F475" s="16" t="s">
+      <c r="F475" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G475" s="16" t="s">
+      <c r="G475" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="476" ht="15" spans="1:7">
-      <c r="A476" s="15" t="s">
+    <row r="476" ht="15" hidden="1" spans="1:7">
+      <c r="A476" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="B476" s="16" t="s">
+      <c r="B476" s="17" t="s">
         <v>752</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D476" s="16" t="s">
+      <c r="D476" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E476" s="16" t="s">
+      <c r="E476" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F476" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G476" s="16" t="s">
+      <c r="G476" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="477" ht="15" spans="1:7">
-      <c r="A477" s="15" t="s">
+    <row r="477" ht="15" hidden="1" spans="1:7">
+      <c r="A477" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="B477" s="16" t="s">
+      <c r="B477" s="17" t="s">
         <v>754</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D477" s="16" t="s">
+      <c r="D477" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E477" s="16" t="s">
+      <c r="E477" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F477" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G477" s="16" t="s">
+      <c r="G477" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="478" ht="15" spans="1:7">
-      <c r="A478" s="15" t="s">
+    <row r="478" ht="15" hidden="1" spans="1:7">
+      <c r="A478" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="B478" s="16" t="s">
+      <c r="B478" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C478" s="7" t="s">
@@ -14648,21 +14651,21 @@
       <c r="D478" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E478" s="16" t="s">
+      <c r="E478" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F478" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G478" s="16" t="s">
+      <c r="G478" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="479" ht="15" spans="1:7">
-      <c r="A479" s="15" t="s">
+    <row r="479" ht="15" hidden="1" spans="1:7">
+      <c r="A479" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="B479" s="16" t="s">
+      <c r="B479" s="17" t="s">
         <v>270</v>
       </c>
       <c r="C479" s="7" t="s">
@@ -14671,113 +14674,113 @@
       <c r="D479" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E479" s="16" t="s">
+      <c r="E479" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F479" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G479" s="16" t="s">
+      <c r="G479" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="480" ht="15" spans="1:7">
-      <c r="A480" s="17" t="s">
+    <row r="480" ht="15" hidden="1" spans="1:7">
+      <c r="A480" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="B480" s="17" t="s">
+      <c r="B480" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D480" s="16" t="s">
+      <c r="D480" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E480" s="17" t="s">
+      <c r="E480" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F480" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G480" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="481" ht="15" spans="1:7">
-      <c r="A481" s="17" t="s">
+      <c r="G480" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="481" ht="15" hidden="1" spans="1:7">
+      <c r="A481" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="B481" s="17" t="s">
+      <c r="B481" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D481" s="17" t="s">
+      <c r="D481" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E481" s="17" t="s">
+      <c r="E481" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F481" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G481" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="482" ht="15" spans="1:7">
-      <c r="A482" s="17" t="s">
+      <c r="G481" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="482" ht="15" hidden="1" spans="1:7">
+      <c r="A482" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B482" s="17" t="s">
+      <c r="B482" s="18" t="s">
         <v>427</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D482" s="10" t="s">
+      <c r="D482" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E482" s="17" t="s">
+      <c r="E482" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F482" s="10" t="s">
+      <c r="F482" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G482" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="483" ht="15" spans="1:7">
-      <c r="A483" s="15" t="s">
+      <c r="G482" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="483" ht="15" hidden="1" spans="1:7">
+      <c r="A483" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B483" s="16" t="s">
+      <c r="B483" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D483" s="16" t="s">
+      <c r="D483" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E483" s="16" t="s">
+      <c r="E483" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F483" s="16" t="s">
+      <c r="F483" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G483" s="16" t="s">
+      <c r="G483" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="484" ht="15" spans="1:7">
-      <c r="A484" s="15" t="s">
+    <row r="484" ht="15" hidden="1" spans="1:7">
+      <c r="A484" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B484" s="16" t="s">
+      <c r="B484" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C484" s="7" t="s">
@@ -14786,67 +14789,67 @@
       <c r="D484" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E484" s="16" t="s">
+      <c r="E484" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F484" s="16" t="s">
+      <c r="F484" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G484" s="16" t="s">
+      <c r="G484" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="485" ht="15" spans="1:7">
-      <c r="A485" s="15" t="s">
+    <row r="485" ht="15" hidden="1" spans="1:7">
+      <c r="A485" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="B485" s="16" t="s">
+      <c r="B485" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D485" s="16" t="s">
+      <c r="D485" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E485" s="16" t="s">
+      <c r="E485" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F485" s="16" t="s">
+      <c r="F485" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G485" s="16" t="s">
+      <c r="G485" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="486" ht="15" spans="1:7">
-      <c r="A486" s="15" t="s">
+    <row r="486" ht="15" hidden="1" spans="1:7">
+      <c r="A486" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="B486" s="16" t="s">
+      <c r="B486" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D486" s="16" t="s">
+      <c r="D486" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E486" s="16" t="s">
+      <c r="E486" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F486" s="16" t="s">
+      <c r="F486" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="G486" s="16" t="s">
+      <c r="G486" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="487" ht="15" spans="1:7">
-      <c r="A487" s="15" t="s">
+    <row r="487" ht="15" hidden="1" spans="1:7">
+      <c r="A487" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B487" s="16" t="s">
+      <c r="B487" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C487" s="7" t="s">
@@ -14855,44 +14858,44 @@
       <c r="D487" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E487" s="16" t="s">
+      <c r="E487" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F487" s="16" t="s">
+      <c r="F487" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G487" s="16" t="s">
+      <c r="G487" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="488" ht="15" spans="1:7">
-      <c r="A488" s="15" t="s">
+    <row r="488" ht="15" hidden="1" spans="1:7">
+      <c r="A488" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="B488" s="16" t="s">
+      <c r="B488" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D488" s="16" t="s">
+      <c r="D488" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E488" s="16" t="s">
+      <c r="E488" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F488" s="16" t="s">
+      <c r="F488" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G488" s="16" t="s">
+      <c r="G488" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="489" ht="15" spans="1:7">
-      <c r="A489" s="15" t="s">
+    <row r="489" ht="15" hidden="1" spans="1:7">
+      <c r="A489" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="B489" s="16" t="s">
+      <c r="B489" s="17" t="s">
         <v>767</v>
       </c>
       <c r="C489" s="7" t="s">
@@ -14901,67 +14904,67 @@
       <c r="D489" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E489" s="16" t="s">
+      <c r="E489" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F489" s="16" t="s">
+      <c r="F489" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G489" s="16" t="s">
+      <c r="G489" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="490" ht="15" spans="1:7">
-      <c r="A490" s="15" t="s">
+    <row r="490" ht="15" hidden="1" spans="1:7">
+      <c r="A490" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="B490" s="16" t="s">
+      <c r="B490" s="17" t="s">
         <v>770</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D490" s="16" t="s">
+      <c r="D490" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E490" s="16" t="s">
+      <c r="E490" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F490" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G490" s="16" t="s">
+      <c r="G490" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="491" ht="15" spans="1:7">
-      <c r="A491" s="15" t="s">
+    <row r="491" ht="15" hidden="1" spans="1:7">
+      <c r="A491" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="B491" s="16" t="s">
+      <c r="B491" s="17" t="s">
         <v>772</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D491" s="16" t="s">
+      <c r="D491" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E491" s="16" t="s">
+      <c r="E491" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F491" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G491" s="16" t="s">
+      <c r="G491" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="492" ht="15" spans="1:7">
-      <c r="A492" s="15" t="s">
+    <row r="492" ht="15" hidden="1" spans="1:7">
+      <c r="A492" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="B492" s="16" t="s">
+      <c r="B492" s="17" t="s">
         <v>770</v>
       </c>
       <c r="C492" s="7" t="s">
@@ -14970,44 +14973,44 @@
       <c r="D492" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E492" s="16" t="s">
+      <c r="E492" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F492" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G492" s="16" t="s">
+      <c r="G492" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="493" ht="15" spans="1:7">
-      <c r="A493" s="15" t="s">
+    <row r="493" ht="15" hidden="1" spans="1:7">
+      <c r="A493" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="B493" s="16" t="s">
+      <c r="B493" s="17" t="s">
         <v>772</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D493" s="16" t="s">
+      <c r="D493" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E493" s="16" t="s">
+      <c r="E493" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F493" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G493" s="16" t="s">
+      <c r="G493" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="494" ht="15" spans="1:7">
-      <c r="A494" s="15" t="s">
+    <row r="494" ht="15" hidden="1" spans="1:7">
+      <c r="A494" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="B494" s="16" t="s">
+      <c r="B494" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C494" s="7" t="s">
@@ -15016,44 +15019,44 @@
       <c r="D494" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E494" s="16" t="s">
+      <c r="E494" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F494" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G494" s="16" t="s">
+      <c r="G494" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="495" ht="15" spans="1:7">
-      <c r="A495" s="15" t="s">
+    <row r="495" ht="15" hidden="1" spans="1:7">
+      <c r="A495" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="B495" s="16" t="s">
+      <c r="B495" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D495" s="16" t="s">
+      <c r="D495" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E495" s="16" t="s">
+      <c r="E495" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F495" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G495" s="16" t="s">
+      <c r="G495" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="496" ht="15" spans="1:7">
-      <c r="A496" s="15" t="s">
+    <row r="496" ht="15" hidden="1" spans="1:7">
+      <c r="A496" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="B496" s="16" t="s">
+      <c r="B496" s="17" t="s">
         <v>270</v>
       </c>
       <c r="C496" s="7" t="s">
@@ -15062,44 +15065,44 @@
       <c r="D496" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E496" s="16" t="s">
+      <c r="E496" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F496" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G496" s="16" t="s">
+      <c r="G496" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="497" ht="15" spans="1:7">
-      <c r="A497" s="15" t="s">
+    <row r="497" ht="15" hidden="1" spans="1:7">
+      <c r="A497" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="B497" s="16" t="s">
+      <c r="B497" s="17" t="s">
         <v>779</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D497" s="16" t="s">
+      <c r="D497" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E497" s="16" t="s">
+      <c r="E497" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F497" s="16" t="s">
+      <c r="F497" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G497" s="16" t="s">
+      <c r="G497" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="498" ht="15" spans="1:7">
-      <c r="A498" s="15" t="s">
+    <row r="498" ht="15" hidden="1" spans="1:7">
+      <c r="A498" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="B498" s="16" t="s">
+      <c r="B498" s="17" t="s">
         <v>782</v>
       </c>
       <c r="C498" s="7" t="s">
@@ -15108,90 +15111,90 @@
       <c r="D498" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E498" s="16" t="s">
+      <c r="E498" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F498" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G498" s="16" t="s">
+      <c r="G498" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="499" ht="15" spans="1:7">
-      <c r="A499" s="15" t="s">
+    <row r="499" ht="15" hidden="1" spans="1:7">
+      <c r="A499" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="B499" s="16" t="s">
+      <c r="B499" s="17" t="s">
         <v>784</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D499" s="16" t="s">
+      <c r="D499" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E499" s="16" t="s">
+      <c r="E499" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F499" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G499" s="16" t="s">
+      <c r="G499" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="500" ht="15" spans="1:7">
-      <c r="A500" s="15" t="s">
+    <row r="500" ht="15" hidden="1" spans="1:7">
+      <c r="A500" s="16" t="s">
         <v>785</v>
       </c>
-      <c r="B500" s="16" t="s">
+      <c r="B500" s="17" t="s">
         <v>786</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D500" s="16" t="s">
+      <c r="D500" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E500" s="16" t="s">
+      <c r="E500" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F500" s="16" t="s">
+      <c r="F500" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G500" s="16" t="s">
+      <c r="G500" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="501" ht="15" spans="1:7">
-      <c r="A501" s="15" t="s">
+    <row r="501" ht="15" hidden="1" spans="1:7">
+      <c r="A501" s="16" t="s">
         <v>785</v>
       </c>
-      <c r="B501" s="16" t="s">
+      <c r="B501" s="17" t="s">
         <v>787</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D501" s="16" t="s">
+      <c r="D501" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E501" s="16" t="s">
+      <c r="E501" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F501" s="16" t="s">
+      <c r="F501" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G501" s="16" t="s">
+      <c r="G501" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="502" ht="15" spans="1:7">
-      <c r="A502" s="15" t="s">
+    <row r="502" ht="15" hidden="1" spans="1:7">
+      <c r="A502" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="B502" s="16" t="s">
+      <c r="B502" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C502" s="7" t="s">
@@ -15200,44 +15203,44 @@
       <c r="D502" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E502" s="16" t="s">
+      <c r="E502" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F502" s="16" t="s">
+      <c r="F502" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G502" s="16" t="s">
+      <c r="G502" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="503" ht="15" spans="1:7">
-      <c r="A503" s="15" t="s">
+    <row r="503" ht="15" hidden="1" spans="1:7">
+      <c r="A503" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="B503" s="16" t="s">
+      <c r="B503" s="17" t="s">
         <v>790</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="D503" s="16" t="s">
+      <c r="D503" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E503" s="16" t="s">
+      <c r="E503" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F503" s="16" t="s">
+      <c r="F503" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G503" s="16" t="s">
+      <c r="G503" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="504" ht="15" spans="1:7">
-      <c r="A504" s="15" t="s">
+    <row r="504" ht="15" hidden="1" spans="1:7">
+      <c r="A504" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="B504" s="16" t="s">
+      <c r="B504" s="17" t="s">
         <v>790</v>
       </c>
       <c r="C504" s="7" t="s">
@@ -15246,67 +15249,67 @@
       <c r="D504" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E504" s="16" t="s">
+      <c r="E504" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F504" s="16" t="s">
+      <c r="F504" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G504" s="16" t="s">
+      <c r="G504" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="505" ht="15" spans="1:7">
-      <c r="A505" s="15" t="s">
+    <row r="505" ht="15" hidden="1" spans="1:7">
+      <c r="A505" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="B505" s="16" t="s">
+      <c r="B505" s="17" t="s">
         <v>790</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="D505" s="16" t="s">
+      <c r="D505" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E505" s="16" t="s">
+      <c r="E505" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F505" s="16" t="s">
+      <c r="F505" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G505" s="16" t="s">
+      <c r="G505" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="506" ht="15" spans="1:7">
-      <c r="A506" s="15" t="s">
+    <row r="506" ht="15" hidden="1" spans="1:7">
+      <c r="A506" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="B506" s="16" t="s">
+      <c r="B506" s="17" t="s">
         <v>627</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D506" s="16" t="s">
+      <c r="D506" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E506" s="16" t="s">
+      <c r="E506" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F506" s="16" t="s">
+      <c r="F506" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G506" s="16" t="s">
+      <c r="G506" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="507" ht="15" spans="1:7">
-      <c r="A507" s="15" t="s">
+    <row r="507" ht="15" hidden="1" spans="1:7">
+      <c r="A507" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="B507" s="16" t="s">
+      <c r="B507" s="17" t="s">
         <v>631</v>
       </c>
       <c r="C507" s="7" t="s">
@@ -15315,44 +15318,44 @@
       <c r="D507" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E507" s="16" t="s">
+      <c r="E507" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F507" s="16" t="s">
+      <c r="F507" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G507" s="16" t="s">
+      <c r="G507" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="508" ht="15" spans="1:7">
-      <c r="A508" s="15" t="s">
+    <row r="508" ht="15" hidden="1" spans="1:7">
+      <c r="A508" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="B508" s="16" t="s">
+      <c r="B508" s="17" t="s">
         <v>731</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D508" s="16" t="s">
+      <c r="D508" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E508" s="16" t="s">
+      <c r="E508" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F508" s="16" t="s">
+      <c r="F508" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G508" s="16" t="s">
+      <c r="G508" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="509" ht="15" spans="1:7">
-      <c r="A509" s="15" t="s">
+    <row r="509" ht="15" hidden="1" spans="1:7">
+      <c r="A509" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="B509" s="16" t="s">
+      <c r="B509" s="17" t="s">
         <v>733</v>
       </c>
       <c r="C509" s="7" t="s">
@@ -15361,67 +15364,67 @@
       <c r="D509" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E509" s="16" t="s">
+      <c r="E509" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F509" s="16" t="s">
+      <c r="F509" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="G509" s="16" t="s">
+      <c r="G509" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="510" ht="15" spans="1:7">
-      <c r="A510" s="15" t="s">
+    <row r="510" ht="15" hidden="1" spans="1:7">
+      <c r="A510" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="B510" s="16" t="s">
+      <c r="B510" s="17" t="s">
         <v>466</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D510" s="16" t="s">
+      <c r="D510" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E510" s="16" t="s">
+      <c r="E510" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F510" s="16" t="s">
+      <c r="F510" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G510" s="16" t="s">
+      <c r="G510" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="511" ht="15" spans="1:7">
-      <c r="A511" s="15" t="s">
+    <row r="511" ht="15" hidden="1" spans="1:7">
+      <c r="A511" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="B511" s="16" t="s">
+      <c r="B511" s="17" t="s">
         <v>466</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D511" s="16" t="s">
+      <c r="D511" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E511" s="16" t="s">
+      <c r="E511" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F511" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G511" s="16" t="s">
+      <c r="G511" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="512" ht="15" spans="1:7">
-      <c r="A512" s="15" t="s">
+    <row r="512" ht="15" hidden="1" spans="1:7">
+      <c r="A512" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="B512" s="16" t="s">
+      <c r="B512" s="17" t="s">
         <v>796</v>
       </c>
       <c r="C512" s="7" t="s">
@@ -15430,44 +15433,44 @@
       <c r="D512" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E512" s="16" t="s">
+      <c r="E512" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F512" s="16" t="s">
+      <c r="F512" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G512" s="16" t="s">
+      <c r="G512" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="513" ht="15" spans="1:7">
-      <c r="A513" s="15" t="s">
+    <row r="513" ht="15" hidden="1" spans="1:7">
+      <c r="A513" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="B513" s="16" t="s">
+      <c r="B513" s="17" t="s">
         <v>798</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D513" s="16" t="s">
+      <c r="D513" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E513" s="16" t="s">
+      <c r="E513" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F513" s="16" t="s">
+      <c r="F513" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="G513" s="16" t="s">
+      <c r="G513" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="514" ht="15" spans="1:7">
-      <c r="A514" s="15" t="s">
+    <row r="514" ht="15" hidden="1" spans="1:7">
+      <c r="A514" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="B514" s="16" t="s">
+      <c r="B514" s="17" t="s">
         <v>799</v>
       </c>
       <c r="C514" s="7" t="s">
@@ -15476,44 +15479,44 @@
       <c r="D514" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E514" s="16" t="s">
+      <c r="E514" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F514" s="16" t="s">
+      <c r="F514" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="G514" s="16" t="s">
+      <c r="G514" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="515" ht="15" spans="1:7">
-      <c r="A515" s="15" t="s">
+    <row r="515" ht="15" hidden="1" spans="1:7">
+      <c r="A515" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="B515" s="16" t="s">
+      <c r="B515" s="17" t="s">
         <v>801</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D515" s="16" t="s">
+      <c r="D515" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E515" s="16" t="s">
+      <c r="E515" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F515" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G515" s="16" t="s">
+      <c r="G515" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="516" ht="15" spans="1:7">
-      <c r="A516" s="15" t="s">
+    <row r="516" ht="15" hidden="1" spans="1:7">
+      <c r="A516" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="B516" s="16" t="s">
+      <c r="B516" s="17" t="s">
         <v>803</v>
       </c>
       <c r="C516" s="7" t="s">
@@ -15522,21 +15525,21 @@
       <c r="D516" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E516" s="16" t="s">
+      <c r="E516" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F516" s="16" t="s">
+      <c r="F516" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G516" s="16" t="s">
+      <c r="G516" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="517" ht="15" spans="1:7">
-      <c r="A517" s="15" t="s">
+    <row r="517" ht="15" hidden="1" spans="1:7">
+      <c r="A517" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="B517" s="16" t="s">
+      <c r="B517" s="17" t="s">
         <v>806</v>
       </c>
       <c r="C517" s="7" t="s">
@@ -15545,21 +15548,21 @@
       <c r="D517" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E517" s="16" t="s">
+      <c r="E517" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F517" s="16" t="s">
+      <c r="F517" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G517" s="16" t="s">
+      <c r="G517" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="518" ht="15" spans="1:7">
-      <c r="A518" s="15" t="s">
+    <row r="518" ht="15" hidden="1" spans="1:7">
+      <c r="A518" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="B518" s="16" t="s">
+      <c r="B518" s="17" t="s">
         <v>808</v>
       </c>
       <c r="C518" s="7" t="s">
@@ -15568,136 +15571,136 @@
       <c r="D518" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E518" s="16" t="s">
+      <c r="E518" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F518" s="16" t="s">
+      <c r="F518" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G518" s="16" t="s">
+      <c r="G518" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="519" ht="15" spans="1:7">
-      <c r="A519" s="15" t="s">
+    <row r="519" ht="15" hidden="1" spans="1:7">
+      <c r="A519" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="B519" s="16" t="s">
+      <c r="B519" s="17" t="s">
         <v>349</v>
       </c>
       <c r="C519" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D519" s="16" t="s">
+      <c r="D519" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E519" s="16" t="s">
+      <c r="E519" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F519" s="16" t="s">
+      <c r="F519" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G519" s="16" t="s">
+      <c r="G519" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="520" ht="15" spans="1:7">
-      <c r="A520" s="15" t="s">
+    <row r="520" ht="15" hidden="1" spans="1:7">
+      <c r="A520" s="16" t="s">
         <v>811</v>
       </c>
-      <c r="B520" s="16" t="s">
+      <c r="B520" s="17" t="s">
         <v>812</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D520" s="16" t="s">
+      <c r="D520" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E520" s="16" t="s">
+      <c r="E520" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F520" s="16" t="s">
+      <c r="F520" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G520" s="16" t="s">
+      <c r="G520" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="521" ht="15" spans="1:7">
-      <c r="A521" s="15" t="s">
+    <row r="521" ht="15" hidden="1" spans="1:7">
+      <c r="A521" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="B521" s="16" t="s">
+      <c r="B521" s="17" t="s">
         <v>409</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D521" s="16" t="s">
+      <c r="D521" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E521" s="16" t="s">
+      <c r="E521" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F521" s="16" t="s">
+      <c r="F521" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G521" s="16" t="s">
+      <c r="G521" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="522" ht="15" spans="1:7">
-      <c r="A522" s="15" t="s">
+    <row r="522" ht="15" hidden="1" spans="1:7">
+      <c r="A522" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="B522" s="16" t="s">
+      <c r="B522" s="17" t="s">
         <v>410</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D522" s="16" t="s">
+      <c r="D522" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E522" s="16" t="s">
+      <c r="E522" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F522" s="16" t="s">
+      <c r="F522" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G522" s="16" t="s">
+      <c r="G522" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="523" ht="15" spans="1:7">
-      <c r="A523" s="15" t="s">
+    <row r="523" ht="15" hidden="1" spans="1:7">
+      <c r="A523" s="16" t="s">
         <v>814</v>
       </c>
-      <c r="B523" s="16" t="s">
+      <c r="B523" s="17" t="s">
         <v>349</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D523" s="16" t="s">
+      <c r="D523" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E523" s="16" t="s">
+      <c r="E523" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F523" s="16" t="s">
+      <c r="F523" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G523" s="16" t="s">
+      <c r="G523" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="524" ht="15" spans="1:7">
-      <c r="A524" s="15" t="s">
+    <row r="524" ht="15" hidden="1" spans="1:7">
+      <c r="A524" s="16" t="s">
         <v>815</v>
       </c>
-      <c r="B524" s="16" t="s">
+      <c r="B524" s="17" t="s">
         <v>409</v>
       </c>
       <c r="C524" s="7" t="s">
@@ -15706,21 +15709,21 @@
       <c r="D524" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E524" s="16" t="s">
+      <c r="E524" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F524" s="16" t="s">
+      <c r="F524" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G524" s="16" t="s">
+      <c r="G524" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="525" ht="15" spans="1:7">
-      <c r="A525" s="15" t="s">
+    <row r="525" ht="15" hidden="1" spans="1:7">
+      <c r="A525" s="16" t="s">
         <v>815</v>
       </c>
-      <c r="B525" s="16" t="s">
+      <c r="B525" s="17" t="s">
         <v>410</v>
       </c>
       <c r="C525" s="7" t="s">
@@ -15729,44 +15732,44 @@
       <c r="D525" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E525" s="16" t="s">
+      <c r="E525" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F525" s="16" t="s">
+      <c r="F525" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G525" s="16" t="s">
+      <c r="G525" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="526" ht="15" spans="1:7">
-      <c r="A526" s="15" t="s">
+    <row r="526" ht="15" hidden="1" spans="1:7">
+      <c r="A526" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="B526" s="16" t="s">
+      <c r="B526" s="17" t="s">
         <v>812</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D526" s="16" t="s">
+      <c r="D526" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E526" s="16" t="s">
+      <c r="E526" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F526" s="16" t="s">
+      <c r="F526" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G526" s="16" t="s">
+      <c r="G526" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="527" ht="15" spans="1:7">
-      <c r="A527" s="15" t="s">
+    <row r="527" ht="15" hidden="1" spans="1:7">
+      <c r="A527" s="16" t="s">
         <v>817</v>
       </c>
-      <c r="B527" s="16" t="s">
+      <c r="B527" s="17" t="s">
         <v>818</v>
       </c>
       <c r="C527" s="7" t="s">
@@ -15775,44 +15778,44 @@
       <c r="D527" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E527" s="16" t="s">
+      <c r="E527" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F527" s="16" t="s">
+      <c r="F527" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G527" s="16" t="s">
+      <c r="G527" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="528" ht="15" spans="1:7">
-      <c r="A528" s="15" t="s">
+    <row r="528" ht="15" hidden="1" spans="1:7">
+      <c r="A528" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="B528" s="16" t="s">
+      <c r="B528" s="17" t="s">
         <v>565</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D528" s="16" t="s">
+      <c r="D528" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E528" s="16" t="s">
+      <c r="E528" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F528" s="16" t="s">
+      <c r="F528" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G528" s="16" t="s">
+      <c r="G528" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="529" ht="15" spans="1:7">
-      <c r="A529" s="15" t="s">
+    <row r="529" ht="15" hidden="1" spans="1:7">
+      <c r="A529" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="B529" s="16" t="s">
+      <c r="B529" s="17" t="s">
         <v>822</v>
       </c>
       <c r="C529" s="7" t="s">
@@ -15821,44 +15824,44 @@
       <c r="D529" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E529" s="16" t="s">
+      <c r="E529" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F529" s="16" t="s">
+      <c r="F529" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G529" s="16" t="s">
+      <c r="G529" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="530" ht="15" spans="1:7">
-      <c r="A530" s="15" t="s">
+    <row r="530" ht="15" hidden="1" spans="1:7">
+      <c r="A530" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="B530" s="16" t="s">
+      <c r="B530" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="D530" s="16" t="s">
+      <c r="D530" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E530" s="16" t="s">
+      <c r="E530" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F530" s="16" t="s">
+      <c r="F530" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G530" s="16" t="s">
+      <c r="G530" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="531" ht="15" spans="1:7">
-      <c r="A531" s="15" t="s">
+    <row r="531" ht="15" hidden="1" spans="1:7">
+      <c r="A531" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="B531" s="16" t="s">
+      <c r="B531" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C531" s="7" t="s">
@@ -15867,21 +15870,21 @@
       <c r="D531" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E531" s="16" t="s">
+      <c r="E531" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F531" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G531" s="16" t="s">
+      <c r="G531" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="532" ht="15" spans="1:7">
-      <c r="A532" s="15" t="s">
+    <row r="532" ht="15" hidden="1" spans="1:7">
+      <c r="A532" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="B532" s="16" t="s">
+      <c r="B532" s="17" t="s">
         <v>270</v>
       </c>
       <c r="C532" s="7" t="s">
@@ -15890,90 +15893,90 @@
       <c r="D532" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E532" s="16" t="s">
+      <c r="E532" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F532" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G532" s="16" t="s">
+      <c r="G532" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="533" ht="15" spans="1:7">
-      <c r="A533" s="15" t="s">
+    <row r="533" ht="15" hidden="1" spans="1:7">
+      <c r="A533" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="B533" s="16" t="s">
+      <c r="B533" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="D533" s="16" t="s">
+      <c r="D533" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E533" s="16" t="s">
+      <c r="E533" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F533" s="16" t="s">
+      <c r="F533" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G533" s="16" t="s">
+      <c r="G533" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="534" ht="15" spans="1:7">
-      <c r="A534" s="15" t="s">
+    <row r="534" ht="15" hidden="1" spans="1:7">
+      <c r="A534" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="B534" s="16" t="s">
+      <c r="B534" s="17" t="s">
         <v>825</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D534" s="16" t="s">
+      <c r="D534" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E534" s="16" t="s">
+      <c r="E534" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F534" s="16" t="s">
+      <c r="F534" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G534" s="16" t="s">
+      <c r="G534" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="535" ht="15" spans="1:7">
-      <c r="A535" s="15" t="s">
+    <row r="535" ht="15" hidden="1" spans="1:7">
+      <c r="A535" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="B535" s="16" t="s">
+      <c r="B535" s="17" t="s">
         <v>540</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D535" s="16" t="s">
+      <c r="D535" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E535" s="16" t="s">
+      <c r="E535" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F535" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G535" s="16" t="s">
+      <c r="G535" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="536" ht="15" spans="1:7">
-      <c r="A536" s="15" t="s">
+    <row r="536" ht="15" hidden="1" spans="1:7">
+      <c r="A536" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="B536" s="16" t="s">
+      <c r="B536" s="17" t="s">
         <v>543</v>
       </c>
       <c r="C536" s="7" t="s">
@@ -15982,21 +15985,21 @@
       <c r="D536" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E536" s="16" t="s">
+      <c r="E536" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F536" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G536" s="16" t="s">
+      <c r="G536" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="537" ht="15" spans="1:7">
-      <c r="A537" s="15" t="s">
+    <row r="537" ht="15" hidden="1" spans="1:7">
+      <c r="A537" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B537" s="16" t="s">
+      <c r="B537" s="17" t="s">
         <v>468</v>
       </c>
       <c r="C537" s="7" t="s">
@@ -16005,44 +16008,44 @@
       <c r="D537" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E537" s="16" t="s">
+      <c r="E537" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F537" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G537" s="16" t="s">
+      <c r="G537" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="538" ht="15" spans="1:7">
-      <c r="A538" s="15" t="s">
+    <row r="538" ht="15" hidden="1" spans="1:7">
+      <c r="A538" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="B538" s="16" t="s">
+      <c r="B538" s="17" t="s">
         <v>470</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D538" s="16" t="s">
+      <c r="D538" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E538" s="16" t="s">
+      <c r="E538" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F538" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G538" s="16" t="s">
+      <c r="G538" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="539" ht="15" spans="1:7">
-      <c r="A539" s="15" t="s">
+    <row r="539" ht="15" hidden="1" spans="1:7">
+      <c r="A539" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="B539" s="16" t="s">
+      <c r="B539" s="17" t="s">
         <v>510</v>
       </c>
       <c r="C539" s="7" t="s">
@@ -16051,67 +16054,67 @@
       <c r="D539" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E539" s="16" t="s">
+      <c r="E539" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F539" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G539" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="540" ht="15" spans="1:7">
-      <c r="A540" s="15" t="s">
+      <c r="G539" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="540" ht="15" hidden="1" spans="1:7">
+      <c r="A540" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="B540" s="16" t="s">
+      <c r="B540" s="17" t="s">
         <v>829</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D540" s="16" t="s">
+      <c r="D540" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E540" s="16" t="s">
+      <c r="E540" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F540" s="16" t="s">
+      <c r="F540" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G540" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G540" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="541" ht="15" spans="1:7">
-      <c r="A541" s="15" t="s">
+    </row>
+    <row r="541" ht="15" hidden="1" spans="1:7">
+      <c r="A541" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="B541" s="16" t="s">
+      <c r="B541" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D541" s="16" t="s">
+      <c r="D541" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E541" s="16" t="s">
+      <c r="E541" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F541" s="16" t="s">
+      <c r="F541" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="G541" s="16" t="s">
+      <c r="G541" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="542" ht="15" spans="1:7">
-      <c r="A542" s="15" t="s">
+    <row r="542" ht="15" hidden="1" spans="1:7">
+      <c r="A542" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B542" s="16" t="s">
+      <c r="B542" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C542" s="7" t="s">
@@ -16120,17 +16123,17 @@
       <c r="D542" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E542" s="16" t="s">
+      <c r="E542" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F542" s="16" t="s">
+      <c r="F542" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="G542" s="16" t="s">
+      <c r="G542" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="543" ht="15" spans="1:7">
+    <row r="543" ht="15" hidden="1" spans="1:7">
       <c r="A543" s="6" t="s">
         <v>830</v>
       </c>
@@ -16153,11 +16156,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" ht="15" spans="1:7">
-      <c r="A544" s="15" t="s">
+    <row r="544" ht="15" hidden="1" spans="1:7">
+      <c r="A544" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="B544" s="16" t="s">
+      <c r="B544" s="17" t="s">
         <v>410</v>
       </c>
       <c r="C544" s="7" t="s">
@@ -16166,20 +16169,25 @@
       <c r="D544" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E544" s="16" t="s">
+      <c r="E544" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F544" s="16" t="s">
+      <c r="F544" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G544" s="16" t="s">
+      <c r="G544" s="17" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FETHIMILOUA"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A1:G544">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="D1"/>
     </sortState>
     <extLst/>
   </autoFilter>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -1305,7 +1305,7 @@
     <t>TP-ETT fondamentale (SG41) (a)</t>
   </si>
   <si>
-    <t>FETHIMILOUA</t>
+    <t>FETHI.M</t>
   </si>
   <si>
     <t>FELLAH</t>
@@ -3628,7 +3628,7 @@
   <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B553" sqref="B553"/>
+      <selection activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -3628,7 +3628,7 @@
   <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551"/>
+      <selection activeCell="C553" sqref="C553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -16183,7 +16183,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="2">
       <filters>
-        <filter val="FETHIMILOUA"/>
+        <filter val="FETHI.M"/>
       </filters>
     </filterColumn>
     <sortState ref="A1:G544">

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Exporter la liste_Horaire" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille2!$A$1:$G$544</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille2!$A$1:$G$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="839">
   <si>
     <t>Enseignements</t>
   </si>
@@ -2561,7 +2561,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,#00%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2604,6 +2604,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3124,137 +3136,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3291,6 +3303,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3305,6 +3320,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3625,10 +3646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C553" sqref="C553"/>
+      <selection activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -6116,7 +6137,7 @@
         <v>219</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>43</v>
@@ -6139,7 +6160,7 @@
         <v>219</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>43</v>
@@ -6427,7 +6448,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="15" hidden="1" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
@@ -6444,7 +6465,7 @@
         <v>11</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>114</v>
@@ -9072,7 +9093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" ht="15" spans="1:7">
+    <row r="236" ht="15" hidden="1" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>423</v>
       </c>
@@ -9900,7 +9921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" ht="15" hidden="1" spans="1:7">
+    <row r="272" ht="15" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>473</v>
       </c>
@@ -13467,10 +13488,10 @@
     </row>
     <row r="427" ht="15" hidden="1" spans="1:7">
       <c r="A427" s="6" t="s">
-        <v>687</v>
+        <v>222</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>688</v>
+        <v>223</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>686</v>
@@ -13479,10 +13500,10 @@
         <v>25</v>
       </c>
       <c r="E427" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F427" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G427" s="7" t="s">
         <v>87</v>
@@ -13490,19 +13511,19 @@
     </row>
     <row r="428" ht="15" hidden="1" spans="1:7">
       <c r="A428" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C428" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
+      </c>
+      <c r="C428" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="D428" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E428" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F428" s="7" t="s">
         <v>78</v>
@@ -13513,39 +13534,39 @@
     </row>
     <row r="429" ht="15" hidden="1" spans="1:7">
       <c r="A429" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>686</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E429" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F429" s="7" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="430" ht="15" hidden="1" spans="1:7">
       <c r="A430" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>686</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>20</v>
@@ -13559,19 +13580,19 @@
     </row>
     <row r="431" ht="15" hidden="1" spans="1:7">
       <c r="A431" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>686</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E431" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F431" s="7" t="s">
         <v>131</v>
@@ -13582,2611 +13603,2657 @@
     </row>
     <row r="432" ht="15" hidden="1" spans="1:7">
       <c r="A432" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D432" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E432" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F432" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="433" ht="15" hidden="1" spans="1:7">
+      <c r="A433" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B433" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="C432" s="7" t="s">
+      <c r="C433" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="D432" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E432" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F432" s="7" t="s">
+      <c r="D433" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E433" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F433" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G432" s="7" t="s">
+      <c r="G433" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="433" ht="15" hidden="1" spans="1:7">
-      <c r="A433" s="14" t="s">
+    <row r="434" ht="15" hidden="1" spans="1:7">
+      <c r="A434" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="B433" s="15" t="s">
+      <c r="B434" s="16" t="s">
         <v>700</v>
-      </c>
-      <c r="C433" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="D433" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E433" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F433" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="G433" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="434" ht="15" hidden="1" spans="1:7">
-      <c r="A434" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="B434" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D434" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E434" s="17" t="s">
+      <c r="D434" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E434" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="G434" s="17" t="s">
+      <c r="G434" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="435" ht="15" hidden="1" spans="1:7">
-      <c r="A435" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="B435" s="17" t="s">
-        <v>704</v>
+      <c r="A435" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="B435" s="18" t="s">
+        <v>702</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D435" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E435" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F435" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="G435" s="17" t="s">
-        <v>132</v>
+      <c r="D435" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E435" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F435" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G435" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="436" ht="15" hidden="1" spans="1:7">
-      <c r="A436" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="B436" s="17" t="s">
-        <v>707</v>
+      <c r="A436" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B436" s="18" t="s">
+        <v>704</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D436" s="7" t="s">
+      <c r="D436" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E436" s="17" t="s">
+      <c r="E436" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F436" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="G436" s="17" t="s">
-        <v>22</v>
+      <c r="F436" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="G436" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="437" ht="15" hidden="1" spans="1:7">
-      <c r="A437" s="16" t="s">
+      <c r="A437" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="B437" s="17" t="s">
-        <v>709</v>
+      <c r="B437" s="18" t="s">
+        <v>707</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D437" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E437" s="17" t="s">
+      <c r="D437" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E437" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F437" s="17" t="s">
+      <c r="F437" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="G437" s="17" t="s">
+      <c r="G437" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="438" ht="15" hidden="1" spans="1:7">
-      <c r="A438" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="B438" s="17" t="s">
-        <v>711</v>
+      <c r="A438" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="B438" s="18" t="s">
+        <v>709</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D438" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E438" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F438" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G438" s="17" t="s">
-        <v>39</v>
+      <c r="D438" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E438" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F438" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="G438" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="439" ht="15" hidden="1" spans="1:7">
-      <c r="A439" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="B439" s="17" t="s">
+      <c r="A439" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="B439" s="18" t="s">
         <v>711</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D439" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E439" s="17" t="s">
+      <c r="D439" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E439" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F439" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G439" s="17" t="s">
+      <c r="G439" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="440" ht="15" hidden="1" spans="1:7">
-      <c r="A440" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="B440" s="17" t="s">
+      <c r="A440" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="B440" s="18" t="s">
         <v>711</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D440" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E440" s="17" t="s">
+      <c r="D440" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E440" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G440" s="17" t="s">
+      <c r="G440" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="441" ht="15" hidden="1" spans="1:7">
-      <c r="A441" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="B441" s="17" t="s">
-        <v>207</v>
+      <c r="A441" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="B441" s="18" t="s">
+        <v>711</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>476</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E441" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E441" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F441" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G441" s="17" t="s">
+      <c r="G441" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="442" ht="15" hidden="1" spans="1:7">
-      <c r="A442" s="16" t="s">
+      <c r="A442" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="B442" s="17" t="s">
-        <v>209</v>
+      <c r="B442" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D442" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E442" s="17" t="s">
+      <c r="D442" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E442" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F442" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G442" s="17" t="s">
+      <c r="G442" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="443" ht="15" hidden="1" spans="1:7">
-      <c r="A443" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="B443" s="17" t="s">
-        <v>207</v>
+      <c r="A443" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="B443" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D443" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E443" s="17" t="s">
+      <c r="D443" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E443" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F443" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G443" s="17" t="s">
+      <c r="G443" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="444" ht="15" hidden="1" spans="1:7">
-      <c r="A444" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="B444" s="17" t="s">
-        <v>717</v>
+      <c r="A444" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B444" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D444" s="17" t="s">
+      <c r="D444" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E444" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F444" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G444" s="17" t="s">
-        <v>155</v>
+      <c r="E444" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G444" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="445" ht="15" hidden="1" spans="1:7">
-      <c r="A445" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="B445" s="17" t="s">
-        <v>711</v>
+      <c r="A445" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B445" s="18" t="s">
+        <v>717</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D445" s="17" t="s">
+      <c r="D445" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E445" s="17" t="s">
+      <c r="E445" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F445" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="G445" s="17" t="s">
+      <c r="F445" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G445" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="446" ht="15" hidden="1" spans="1:7">
-      <c r="A446" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="B446" s="17" t="s">
+      <c r="A446" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="B446" s="18" t="s">
         <v>711</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D446" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E446" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F446" s="17" t="s">
+      <c r="D446" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E446" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F446" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="G446" s="17" t="s">
+      <c r="G446" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="447" ht="15" hidden="1" spans="1:7">
-      <c r="A447" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="B447" s="17" t="s">
-        <v>202</v>
+      <c r="A447" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="B447" s="18" t="s">
+        <v>711</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D447" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E447" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F447" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G447" s="17" t="s">
+      <c r="D447" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E447" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F447" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="G447" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="448" ht="15" hidden="1" spans="1:7">
-      <c r="A448" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="B448" s="17" t="s">
-        <v>535</v>
+      <c r="A448" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="B448" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D448" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E448" s="17" t="s">
+      <c r="D448" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E448" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F448" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="G448" s="17" t="s">
+      <c r="F448" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G448" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="449" ht="15" hidden="1" spans="1:7">
-      <c r="A449" s="18" t="s">
-        <v>706</v>
+      <c r="A449" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>707</v>
+        <v>535</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D449" s="11" t="s">
-        <v>10</v>
+      <c r="D449" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E449" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F449" s="18" t="s">
-        <v>708</v>
+        <v>536</v>
       </c>
       <c r="G449" s="18" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="450" ht="15" hidden="1" spans="1:7">
-      <c r="A450" s="18" t="s">
+      <c r="A450" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="B450" s="18" t="s">
-        <v>709</v>
+      <c r="B450" s="19" t="s">
+        <v>707</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D450" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E450" s="18" t="s">
+      <c r="D450" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E450" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F450" s="11" t="s">
+      <c r="F450" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="G450" s="18" t="s">
+      <c r="G450" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="451" ht="15" hidden="1" spans="1:7">
-      <c r="A451" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="B451" s="17" t="s">
-        <v>209</v>
+      <c r="A451" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>709</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D451" s="7" t="s">
+      <c r="D451" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E451" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F451" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="G451" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="452" ht="15" hidden="1" spans="1:7">
+      <c r="A452" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B452" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D452" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E451" s="17" t="s">
+      <c r="E452" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F451" s="7" t="s">
+      <c r="F452" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G451" s="17" t="s">
+      <c r="G452" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="452" ht="15" hidden="1" spans="1:7">
-      <c r="A452" s="16" t="s">
+    <row r="453" ht="15" hidden="1" spans="1:7">
+      <c r="A453" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="B452" s="17" t="s">
+      <c r="B453" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="D452" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E452" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F452" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G452" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="453" ht="15" hidden="1" spans="1:7">
-      <c r="A453" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="B453" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D453" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E453" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F453" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="G453" s="17" t="s">
-        <v>58</v>
+      <c r="D453" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E453" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F453" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G453" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="454" ht="15" hidden="1" spans="1:7">
-      <c r="A454" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="B454" s="17" t="s">
-        <v>727</v>
+      <c r="A454" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="B454" s="18" t="s">
+        <v>725</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D454" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E454" s="17" t="s">
+      <c r="D454" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E454" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F454" s="17" t="s">
+      <c r="F454" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G454" s="17" t="s">
+      <c r="G454" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="455" ht="15" hidden="1" spans="1:7">
-      <c r="A455" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="B455" s="17" t="s">
-        <v>725</v>
+      <c r="A455" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="B455" s="18" t="s">
+        <v>727</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D455" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E455" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F455" s="17" t="s">
+      <c r="D455" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E455" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F455" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G455" s="17" t="s">
+      <c r="G455" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="456" ht="15" hidden="1" spans="1:7">
-      <c r="A456" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="B456" s="17" t="s">
-        <v>727</v>
+      <c r="A456" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B456" s="18" t="s">
+        <v>725</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D456" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E456" s="17" t="s">
+      <c r="D456" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E456" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F456" s="17" t="s">
+      <c r="F456" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G456" s="17" t="s">
+      <c r="G456" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="457" ht="15" hidden="1" spans="1:7">
-      <c r="A457" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="B457" s="17" t="s">
-        <v>731</v>
+      <c r="A457" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="B457" s="18" t="s">
+        <v>727</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D457" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E457" s="17" t="s">
+      <c r="D457" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E457" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F457" s="17" t="s">
+      <c r="F457" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G457" s="17" t="s">
-        <v>110</v>
+      <c r="G457" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="458" ht="15" hidden="1" spans="1:7">
-      <c r="A458" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="B458" s="17" t="s">
-        <v>733</v>
+      <c r="A458" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="B458" s="18" t="s">
+        <v>731</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D458" s="7" t="s">
+      <c r="D458" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E458" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F458" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="G458" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="459" ht="15" hidden="1" spans="1:7">
+      <c r="A459" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="B459" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D459" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E458" s="17" t="s">
+      <c r="E459" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F458" s="17" t="s">
+      <c r="F459" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G458" s="17" t="s">
+      <c r="G459" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="459" ht="15" hidden="1" spans="1:7">
-      <c r="A459" s="16" t="s">
+    <row r="460" ht="15" hidden="1" spans="1:7">
+      <c r="A460" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="B459" s="17" t="s">
+      <c r="B460" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="C459" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="D459" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E459" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F459" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G459" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="460" ht="15" hidden="1" spans="1:7">
-      <c r="A460" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="B460" s="17" t="s">
-        <v>737</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D460" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E460" s="17" t="s">
-        <v>43</v>
+      <c r="D460" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E460" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="F460" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G460" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G460" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="461" ht="15" hidden="1" spans="1:7">
-      <c r="A461" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="B461" s="17" t="s">
-        <v>454</v>
+      <c r="A461" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B461" s="18" t="s">
+        <v>737</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D461" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E461" s="17" t="s">
+      <c r="D461" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E461" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F461" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G461" s="17" t="s">
+      <c r="G461" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="462" ht="15" hidden="1" spans="1:7">
-      <c r="A462" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="B462" s="17" t="s">
-        <v>182</v>
+      <c r="A462" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>454</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D462" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E462" s="17" t="s">
-        <v>11</v>
+      <c r="D462" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E462" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G462" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="G462" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="463" ht="15" hidden="1" spans="1:7">
-      <c r="A463" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="B463" s="17" t="s">
-        <v>190</v>
+      <c r="A463" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D463" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E463" s="17" t="s">
+      <c r="D463" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E463" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F463" s="17" t="s">
+      <c r="F463" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G463" s="17" t="s">
+      <c r="G463" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="464" ht="15" hidden="1" spans="1:7">
-      <c r="A464" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="B464" s="17" t="s">
-        <v>737</v>
+      <c r="A464" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B464" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D464" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E464" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F464" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G464" s="17" t="s">
+      <c r="D464" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E464" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F464" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G464" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="465" ht="15" hidden="1" spans="1:7">
-      <c r="A465" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="B465" s="17" t="s">
-        <v>454</v>
+      <c r="A465" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>737</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D465" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E465" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F465" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G465" s="17" t="s">
+      <c r="D465" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E465" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F465" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G465" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="466" ht="15" hidden="1" spans="1:7">
-      <c r="A466" s="18" t="s">
-        <v>741</v>
+      <c r="A466" s="17" t="s">
+        <v>738</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>561</v>
+        <v>454</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D466" s="17" t="s">
-        <v>19</v>
+      <c r="D466" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E466" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F466" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G466" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="467" ht="15" hidden="1" spans="1:7">
+      <c r="A467" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D467" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E467" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F467" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G466" s="18" t="s">
+      <c r="G467" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="467" ht="15" hidden="1" spans="1:7">
-      <c r="A467" s="16" t="s">
+    <row r="468" ht="15" hidden="1" spans="1:7">
+      <c r="A468" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="B467" s="17" t="s">
+      <c r="B468" s="18" t="s">
         <v>743</v>
-      </c>
-      <c r="C467" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="D467" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E467" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F467" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G467" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="468" ht="15" hidden="1" spans="1:7">
-      <c r="A468" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="B468" s="17" t="s">
-        <v>746</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D468" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E468" s="17" t="s">
+      <c r="D468" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E468" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F468" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G468" s="17" t="s">
+      <c r="F468" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G468" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="469" ht="15" hidden="1" spans="1:7">
-      <c r="A469" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="B469" s="17" t="s">
-        <v>748</v>
+      <c r="A469" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>746</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D469" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E469" s="17" t="s">
+      <c r="D469" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E469" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F469" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="G469" s="17" t="s">
+      <c r="F469" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G469" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="470" ht="15" hidden="1" spans="1:7">
-      <c r="A470" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="B470" s="17" t="s">
-        <v>750</v>
+      <c r="A470" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="B470" s="18" t="s">
+        <v>748</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D470" s="17" t="s">
+      <c r="D470" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E470" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F470" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G470" s="17" t="s">
+      <c r="E470" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F470" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G470" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="471" ht="15" hidden="1" spans="1:7">
-      <c r="A471" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="B471" s="17" t="s">
-        <v>752</v>
+      <c r="A471" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>750</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D471" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E471" s="17" t="s">
+      <c r="D471" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E471" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F471" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G471" s="17" t="s">
+      <c r="F471" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G471" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="472" ht="15" hidden="1" spans="1:7">
-      <c r="A472" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="B472" s="17" t="s">
-        <v>754</v>
+      <c r="A472" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>752</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D472" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E472" s="17" t="s">
+      <c r="D472" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E472" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F472" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G472" s="17" t="s">
+      <c r="G472" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="473" ht="15" hidden="1" spans="1:7">
-      <c r="A473" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="B473" s="17" t="s">
-        <v>752</v>
+      <c r="A473" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B473" s="18" t="s">
+        <v>754</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D473" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E473" s="17" t="s">
-        <v>20</v>
+      <c r="D473" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E473" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F473" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G473" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G473" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="474" ht="15" hidden="1" spans="1:7">
-      <c r="A474" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="B474" s="17" t="s">
-        <v>754</v>
+      <c r="A474" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B474" s="18" t="s">
+        <v>752</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D474" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E474" s="17" t="s">
+      <c r="D474" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E474" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F474" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G474" s="17" t="s">
+      <c r="G474" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="475" ht="15" hidden="1" spans="1:7">
-      <c r="A475" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="B475" s="17" t="s">
-        <v>743</v>
+      <c r="A475" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>754</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D475" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E475" s="17" t="s">
+      <c r="D475" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E475" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F475" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G475" s="17" t="s">
-        <v>110</v>
+      <c r="F475" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G475" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="476" ht="15" hidden="1" spans="1:7">
-      <c r="A476" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="B476" s="17" t="s">
-        <v>752</v>
+      <c r="A476" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>743</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D476" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E476" s="17" t="s">
+      <c r="D476" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E476" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F476" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G476" s="17" t="s">
+      <c r="F476" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G476" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="477" ht="15" hidden="1" spans="1:7">
-      <c r="A477" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="B477" s="17" t="s">
-        <v>754</v>
+      <c r="A477" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>752</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="D477" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E477" s="17" t="s">
+      <c r="D477" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E477" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F477" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G477" s="17" t="s">
+      <c r="G477" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="478" ht="15" hidden="1" spans="1:7">
-      <c r="A478" s="16" t="s">
+      <c r="A478" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B478" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D478" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E478" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F478" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G478" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="479" ht="15" hidden="1" spans="1:7">
+      <c r="A479" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="B478" s="17" t="s">
+      <c r="B479" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="C478" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="D478" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E478" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F478" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G478" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="479" ht="15" hidden="1" spans="1:7">
-      <c r="A479" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="B479" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>760</v>
       </c>
       <c r="D479" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E479" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E479" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F479" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G479" s="17" t="s">
+      <c r="G479" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="480" ht="15" hidden="1" spans="1:7">
-      <c r="A480" s="18" t="s">
-        <v>684</v>
+      <c r="A480" s="17" t="s">
+        <v>761</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D480" s="17" t="s">
-        <v>19</v>
+      <c r="D480" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E480" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F480" s="7" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="G480" s="18" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="481" ht="15" hidden="1" spans="1:7">
-      <c r="A481" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="B481" s="18" t="s">
-        <v>60</v>
+      <c r="A481" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>760</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E481" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E481" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F481" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G481" s="18" t="s">
+      <c r="G481" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="482" ht="15" hidden="1" spans="1:7">
-      <c r="A482" s="18" t="s">
-        <v>762</v>
-      </c>
-      <c r="B482" s="18" t="s">
-        <v>427</v>
+      <c r="A482" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D482" s="11" t="s">
+      <c r="D482" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E482" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F482" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G482" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="483" ht="15" hidden="1" spans="1:7">
+      <c r="A483" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="B483" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D483" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E482" s="18" t="s">
+      <c r="E483" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F482" s="11" t="s">
+      <c r="F483" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G482" s="18" t="s">
+      <c r="G483" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="483" ht="15" hidden="1" spans="1:7">
-      <c r="A483" s="16" t="s">
+    <row r="484" ht="15" hidden="1" spans="1:7">
+      <c r="A484" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B483" s="17" t="s">
+      <c r="B484" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C483" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="D483" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E483" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F483" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G483" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="484" ht="15" hidden="1" spans="1:7">
-      <c r="A484" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B484" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D484" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E484" s="17" t="s">
+      <c r="D484" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E484" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F484" s="17" t="s">
+      <c r="F484" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G484" s="17" t="s">
+      <c r="G484" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="485" ht="15" hidden="1" spans="1:7">
-      <c r="A485" s="16" t="s">
-        <v>764</v>
-      </c>
-      <c r="B485" s="17" t="s">
-        <v>319</v>
+      <c r="A485" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D485" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E485" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F485" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G485" s="17" t="s">
-        <v>114</v>
+      <c r="D485" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E485" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F485" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G485" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="486" ht="15" hidden="1" spans="1:7">
-      <c r="A486" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B486" s="17" t="s">
+      <c r="A486" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="B486" s="18" t="s">
         <v>319</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D486" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E486" s="17" t="s">
+      <c r="D486" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E486" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F486" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="G486" s="17" t="s">
-        <v>28</v>
+      <c r="F486" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G486" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="487" ht="15" hidden="1" spans="1:7">
-      <c r="A487" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B487" s="17" t="s">
+      <c r="A487" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B487" s="18" t="s">
         <v>319</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D487" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E487" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F487" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G487" s="17" t="s">
+      <c r="D487" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E487" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F487" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="G487" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="488" ht="15" hidden="1" spans="1:7">
-      <c r="A488" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="B488" s="17" t="s">
+      <c r="A488" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B488" s="18" t="s">
         <v>319</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D488" s="17" t="s">
+      <c r="D488" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E488" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F488" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G488" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="489" ht="15" hidden="1" spans="1:7">
+      <c r="A489" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D489" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E488" s="17" t="s">
+      <c r="E489" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F488" s="17" t="s">
+      <c r="F489" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G488" s="17" t="s">
+      <c r="G489" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="489" ht="15" hidden="1" spans="1:7">
-      <c r="A489" s="16" t="s">
+    <row r="490" ht="15" hidden="1" spans="1:7">
+      <c r="A490" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="B489" s="17" t="s">
+      <c r="B490" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C489" s="7" t="s">
+      <c r="C490" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="D489" s="7" t="s">
+      <c r="D490" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E489" s="17" t="s">
+      <c r="E490" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F489" s="17" t="s">
+      <c r="F490" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="G489" s="17" t="s">
+      <c r="G490" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="490" ht="15" hidden="1" spans="1:7">
-      <c r="A490" s="16" t="s">
+    <row r="491" ht="15" hidden="1" spans="1:7">
+      <c r="A491" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="B490" s="17" t="s">
+      <c r="B491" s="18" t="s">
         <v>770</v>
-      </c>
-      <c r="C490" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="D490" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E490" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F490" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G490" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="491" ht="15" hidden="1" spans="1:7">
-      <c r="A491" s="16" t="s">
-        <v>769</v>
-      </c>
-      <c r="B491" s="17" t="s">
-        <v>772</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D491" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E491" s="17" t="s">
+      <c r="D491" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E491" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F491" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G491" s="17" t="s">
+      <c r="G491" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="492" ht="15" hidden="1" spans="1:7">
-      <c r="A492" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="B492" s="17" t="s">
-        <v>770</v>
+      <c r="A492" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>772</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D492" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E492" s="17" t="s">
+      <c r="D492" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E492" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F492" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G492" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="G492" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="493" ht="15" hidden="1" spans="1:7">
-      <c r="A493" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="B493" s="17" t="s">
-        <v>772</v>
+      <c r="A493" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>770</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D493" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E493" s="17" t="s">
+      <c r="D493" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E493" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F493" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G493" s="17" t="s">
+      <c r="G493" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="494" ht="15" hidden="1" spans="1:7">
-      <c r="A494" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="B494" s="17" t="s">
-        <v>267</v>
+      <c r="A494" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B494" s="18" t="s">
+        <v>772</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D494" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E494" s="17" t="s">
-        <v>11</v>
+      <c r="D494" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E494" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="F494" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G494" s="17" t="s">
-        <v>114</v>
+        <v>57</v>
+      </c>
+      <c r="G494" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="495" ht="15" hidden="1" spans="1:7">
-      <c r="A495" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="B495" s="17" t="s">
+      <c r="A495" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="B495" s="18" t="s">
         <v>267</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D495" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E495" s="17" t="s">
+      <c r="D495" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E495" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F495" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G495" s="17" t="s">
-        <v>28</v>
+        <v>229</v>
+      </c>
+      <c r="G495" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="496" ht="15" hidden="1" spans="1:7">
-      <c r="A496" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="B496" s="17" t="s">
-        <v>270</v>
+      <c r="A496" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B496" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D496" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E496" s="17" t="s">
+      <c r="D496" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E496" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F496" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G496" s="17" t="s">
+      <c r="G496" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="497" ht="15" hidden="1" spans="1:7">
-      <c r="A497" s="16" t="s">
+      <c r="A497" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D497" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E497" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G497" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="498" ht="15" hidden="1" spans="1:7">
+      <c r="A498" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="B497" s="17" t="s">
+      <c r="B498" s="18" t="s">
         <v>779</v>
-      </c>
-      <c r="C497" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D497" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E497" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F497" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G497" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="498" ht="15" hidden="1" spans="1:7">
-      <c r="A498" s="16" t="s">
-        <v>781</v>
-      </c>
-      <c r="B498" s="17" t="s">
-        <v>782</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D498" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E498" s="17" t="s">
+      <c r="D498" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E498" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F498" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G498" s="17" t="s">
+      <c r="F498" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G498" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="499" ht="15" hidden="1" spans="1:7">
-      <c r="A499" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="B499" s="17" t="s">
-        <v>784</v>
+      <c r="A499" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>782</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D499" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E499" s="17" t="s">
+      <c r="D499" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E499" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F499" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G499" s="17" t="s">
+      <c r="G499" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="500" ht="15" hidden="1" spans="1:7">
-      <c r="A500" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="B500" s="17" t="s">
-        <v>786</v>
+      <c r="A500" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B500" s="18" t="s">
+        <v>784</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D500" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E500" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F500" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G500" s="17" t="s">
-        <v>110</v>
+      <c r="D500" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E500" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F500" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G500" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="501" ht="15" hidden="1" spans="1:7">
-      <c r="A501" s="16" t="s">
+      <c r="A501" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="B501" s="17" t="s">
-        <v>787</v>
+      <c r="B501" s="18" t="s">
+        <v>786</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D501" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E501" s="17" t="s">
+      <c r="D501" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E501" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F501" s="17" t="s">
+      <c r="F501" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G501" s="17" t="s">
+      <c r="G501" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="502" ht="15" hidden="1" spans="1:7">
-      <c r="A502" s="16" t="s">
-        <v>788</v>
-      </c>
-      <c r="B502" s="17" t="s">
-        <v>124</v>
+      <c r="A502" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>787</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D502" s="7" t="s">
+      <c r="D502" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E502" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F502" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G502" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="503" ht="15" hidden="1" spans="1:7">
+      <c r="A503" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="B503" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D503" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E502" s="17" t="s">
+      <c r="E503" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F502" s="17" t="s">
+      <c r="F503" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G502" s="17" t="s">
+      <c r="G503" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="503" ht="15" hidden="1" spans="1:7">
-      <c r="A503" s="16" t="s">
+    <row r="504" ht="15" hidden="1" spans="1:7">
+      <c r="A504" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="B503" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="C503" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="D503" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E503" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F503" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G503" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="504" ht="15" hidden="1" spans="1:7">
-      <c r="A504" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="B504" s="17" t="s">
+      <c r="B504" s="18" t="s">
         <v>790</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="D504" s="7" t="s">
+      <c r="D504" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E504" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F504" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G504" s="17" t="s">
-        <v>28</v>
+      <c r="E504" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F504" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G504" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="505" ht="15" hidden="1" spans="1:7">
-      <c r="A505" s="16" t="s">
+      <c r="A505" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="B505" s="17" t="s">
+      <c r="B505" s="18" t="s">
         <v>790</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="D505" s="17" t="s">
+      <c r="D505" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E505" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F505" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G505" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="506" ht="15" hidden="1" spans="1:7">
+      <c r="A506" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B506" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D506" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E505" s="17" t="s">
+      <c r="E506" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F505" s="17" t="s">
+      <c r="F506" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G505" s="17" t="s">
+      <c r="G506" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="506" ht="15" hidden="1" spans="1:7">
-      <c r="A506" s="16" t="s">
+    <row r="507" ht="15" hidden="1" spans="1:7">
+      <c r="A507" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="B506" s="17" t="s">
+      <c r="B507" s="18" t="s">
         <v>627</v>
-      </c>
-      <c r="C506" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="D506" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E506" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F506" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="G506" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="507" ht="15" hidden="1" spans="1:7">
-      <c r="A507" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="B507" s="17" t="s">
-        <v>631</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D507" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E507" s="17" t="s">
+      <c r="D507" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E507" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F507" s="17" t="s">
+      <c r="F507" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G507" s="17" t="s">
+      <c r="G507" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="508" ht="15" hidden="1" spans="1:7">
-      <c r="A508" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="B508" s="17" t="s">
-        <v>731</v>
+      <c r="A508" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B508" s="18" t="s">
+        <v>631</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D508" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E508" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F508" s="17" t="s">
+      <c r="D508" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E508" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F508" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G508" s="17" t="s">
-        <v>110</v>
+      <c r="G508" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="509" ht="15" hidden="1" spans="1:7">
-      <c r="A509" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="B509" s="17" t="s">
-        <v>733</v>
+      <c r="A509" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="B509" s="18" t="s">
+        <v>731</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D509" s="7" t="s">
+      <c r="D509" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E509" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F509" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="G509" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="510" ht="15" hidden="1" spans="1:7">
+      <c r="A510" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="B510" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="D510" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E509" s="17" t="s">
+      <c r="E510" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F509" s="17" t="s">
+      <c r="F510" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="G509" s="17" t="s">
+      <c r="G510" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="510" ht="15" hidden="1" spans="1:7">
-      <c r="A510" s="16" t="s">
+    <row r="511" ht="15" hidden="1" spans="1:7">
+      <c r="A511" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B510" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="D510" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E510" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F510" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G510" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="511" ht="15" hidden="1" spans="1:7">
-      <c r="A511" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="B511" s="17" t="s">
+      <c r="B511" s="18" t="s">
         <v>466</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D511" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E511" s="17" t="s">
+      <c r="D511" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E511" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F511" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G511" s="17" t="s">
-        <v>73</v>
+      <c r="F511" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G511" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="512" ht="15" hidden="1" spans="1:7">
-      <c r="A512" s="16" t="s">
-        <v>795</v>
-      </c>
-      <c r="B512" s="17" t="s">
-        <v>796</v>
+      <c r="A512" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="B512" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D512" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E512" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F512" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G512" s="17" t="s">
-        <v>34</v>
+      <c r="D512" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E512" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G512" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="513" ht="15" hidden="1" spans="1:7">
-      <c r="A513" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="B513" s="17" t="s">
-        <v>798</v>
+      <c r="A513" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>796</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D513" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E513" s="17" t="s">
+      <c r="D513" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E513" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F513" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="G513" s="17" t="s">
+      <c r="F513" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G513" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="514" ht="15" hidden="1" spans="1:7">
-      <c r="A514" s="16" t="s">
+      <c r="A514" s="17" t="s">
         <v>797</v>
       </c>
-      <c r="B514" s="17" t="s">
-        <v>799</v>
+      <c r="B514" s="18" t="s">
+        <v>798</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D514" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E514" s="17" t="s">
+      <c r="D514" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E514" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F514" s="17" t="s">
+      <c r="F514" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="G514" s="17" t="s">
+      <c r="G514" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="515" ht="15" hidden="1" spans="1:7">
-      <c r="A515" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="B515" s="17" t="s">
-        <v>801</v>
+      <c r="A515" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B515" s="18" t="s">
+        <v>799</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="D515" s="17" t="s">
+      <c r="D515" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E515" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F515" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="G515" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="516" ht="15" hidden="1" spans="1:7">
+      <c r="A516" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="B516" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D516" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E515" s="17" t="s">
+      <c r="E516" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F515" s="7" t="s">
+      <c r="F516" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G515" s="17" t="s">
+      <c r="G516" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="516" ht="15" hidden="1" spans="1:7">
-      <c r="A516" s="16" t="s">
+    <row r="517" ht="15" hidden="1" spans="1:7">
+      <c r="A517" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="B516" s="17" t="s">
+      <c r="B517" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="C516" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="D516" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E516" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F516" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G516" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="517" ht="15" hidden="1" spans="1:7">
-      <c r="A517" s="16" t="s">
-        <v>805</v>
-      </c>
-      <c r="B517" s="17" t="s">
-        <v>806</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>804</v>
       </c>
       <c r="D517" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E517" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E517" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F517" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G517" s="17" t="s">
-        <v>22</v>
+      <c r="F517" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G517" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="518" ht="15" hidden="1" spans="1:7">
-      <c r="A518" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="B518" s="17" t="s">
-        <v>808</v>
+      <c r="A518" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>806</v>
       </c>
       <c r="C518" s="7" t="s">
         <v>804</v>
       </c>
       <c r="D518" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E518" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F518" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G518" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="519" ht="15" hidden="1" spans="1:7">
+      <c r="A519" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D519" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E518" s="17" t="s">
+      <c r="E519" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F518" s="17" t="s">
+      <c r="F519" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G518" s="17" t="s">
+      <c r="G519" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="519" ht="15" hidden="1" spans="1:7">
-      <c r="A519" s="16" t="s">
+    <row r="520" ht="15" hidden="1" spans="1:7">
+      <c r="A520" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="B519" s="17" t="s">
+      <c r="B520" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="C519" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="D519" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E519" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F519" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G519" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="520" ht="15" hidden="1" spans="1:7">
-      <c r="A520" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="B520" s="17" t="s">
-        <v>812</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D520" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E520" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F520" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G520" s="17" t="s">
+      <c r="D520" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E520" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F520" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G520" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="521" ht="15" hidden="1" spans="1:7">
-      <c r="A521" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="B521" s="17" t="s">
-        <v>409</v>
+      <c r="A521" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>812</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D521" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E521" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F521" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G521" s="17" t="s">
+      <c r="D521" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E521" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F521" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G521" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="522" ht="15" hidden="1" spans="1:7">
-      <c r="A522" s="16" t="s">
+      <c r="A522" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="B522" s="17" t="s">
-        <v>410</v>
+      <c r="B522" s="18" t="s">
+        <v>409</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D522" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E522" s="17" t="s">
+      <c r="D522" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E522" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F522" s="17" t="s">
+      <c r="F522" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G522" s="17" t="s">
+      <c r="G522" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="523" ht="15" hidden="1" spans="1:7">
-      <c r="A523" s="16" t="s">
-        <v>814</v>
-      </c>
-      <c r="B523" s="17" t="s">
-        <v>349</v>
+      <c r="A523" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="B523" s="18" t="s">
+        <v>410</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D523" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E523" s="17" t="s">
+      <c r="D523" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E523" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F523" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G523" s="17" t="s">
+      <c r="F523" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G523" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="524" ht="15" hidden="1" spans="1:7">
-      <c r="A524" s="16" t="s">
-        <v>815</v>
-      </c>
-      <c r="B524" s="17" t="s">
-        <v>409</v>
+      <c r="A524" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="B524" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D524" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E524" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F524" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G524" s="17" t="s">
-        <v>155</v>
+      <c r="D524" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E524" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F524" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G524" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="525" ht="15" hidden="1" spans="1:7">
-      <c r="A525" s="16" t="s">
+      <c r="A525" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="B525" s="17" t="s">
-        <v>410</v>
+      <c r="B525" s="18" t="s">
+        <v>409</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>810</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E525" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E525" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F525" s="17" t="s">
+      <c r="F525" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G525" s="17" t="s">
+      <c r="G525" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="526" ht="15" hidden="1" spans="1:7">
-      <c r="A526" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="B526" s="17" t="s">
-        <v>812</v>
+      <c r="A526" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="B526" s="18" t="s">
+        <v>410</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D526" s="17" t="s">
+      <c r="D526" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E526" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F526" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G526" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="527" ht="15" hidden="1" spans="1:7">
+      <c r="A527" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="B527" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="D527" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E526" s="17" t="s">
+      <c r="E527" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F526" s="17" t="s">
+      <c r="F527" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G526" s="17" t="s">
+      <c r="G527" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="527" ht="15" hidden="1" spans="1:7">
-      <c r="A527" s="16" t="s">
+    <row r="528" ht="15" hidden="1" spans="1:7">
+      <c r="A528" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="B527" s="17" t="s">
+      <c r="B528" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="C527" s="7" t="s">
+      <c r="C528" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="D527" s="7" t="s">
+      <c r="D528" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E527" s="17" t="s">
+      <c r="E528" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F527" s="17" t="s">
+      <c r="F528" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G527" s="17" t="s">
+      <c r="G528" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="528" ht="15" hidden="1" spans="1:7">
-      <c r="A528" s="16" t="s">
+    <row r="529" ht="15" hidden="1" spans="1:7">
+      <c r="A529" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="B528" s="17" t="s">
+      <c r="B529" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="C528" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D528" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E528" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F528" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G528" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="529" ht="15" hidden="1" spans="1:7">
-      <c r="A529" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="B529" s="17" t="s">
-        <v>822</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D529" s="7" t="s">
+      <c r="D529" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E529" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F529" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G529" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="530" ht="15" hidden="1" spans="1:7">
+      <c r="A530" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B530" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D530" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E529" s="17" t="s">
+      <c r="E530" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F529" s="17" t="s">
+      <c r="F530" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G529" s="17" t="s">
+      <c r="G530" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="530" ht="15" hidden="1" spans="1:7">
-      <c r="A530" s="16" t="s">
+    <row r="531" ht="15" hidden="1" spans="1:7">
+      <c r="A531" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B530" s="17" t="s">
+      <c r="B531" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="D530" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E530" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F530" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G530" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="531" ht="15" hidden="1" spans="1:7">
-      <c r="A531" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="B531" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="D531" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E531" s="17" t="s">
+      <c r="D531" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E531" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F531" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G531" s="17" t="s">
+      <c r="F531" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G531" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="532" ht="15" hidden="1" spans="1:7">
-      <c r="A532" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="B532" s="17" t="s">
-        <v>270</v>
+      <c r="A532" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>823</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E532" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E532" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F532" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G532" s="17" t="s">
+      <c r="G532" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="533" ht="15" hidden="1" spans="1:7">
-      <c r="A533" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="B533" s="17" t="s">
-        <v>27</v>
+      <c r="A533" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="D533" s="17" t="s">
+      <c r="D533" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E533" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G533" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="534" ht="15" hidden="1" spans="1:7">
+      <c r="A534" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B534" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D534" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E533" s="17" t="s">
+      <c r="E534" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F533" s="17" t="s">
+      <c r="F534" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G533" s="17" t="s">
+      <c r="G534" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="534" ht="15" hidden="1" spans="1:7">
-      <c r="A534" s="16" t="s">
+    <row r="535" ht="15" hidden="1" spans="1:7">
+      <c r="A535" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="B534" s="17" t="s">
+      <c r="B535" s="18" t="s">
         <v>825</v>
-      </c>
-      <c r="C534" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D534" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E534" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F534" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G534" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="535" ht="15" hidden="1" spans="1:7">
-      <c r="A535" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="B535" s="17" t="s">
-        <v>540</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D535" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E535" s="17" t="s">
+      <c r="D535" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E535" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F535" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G535" s="17" t="s">
+      <c r="F535" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G535" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="536" ht="15" hidden="1" spans="1:7">
-      <c r="A536" s="16" t="s">
+      <c r="A536" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="B536" s="17" t="s">
-        <v>543</v>
+      <c r="B536" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D536" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E536" s="17" t="s">
+      <c r="D536" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E536" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F536" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G536" s="17" t="s">
+      <c r="G536" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="537" ht="15" hidden="1" spans="1:7">
-      <c r="A537" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="B537" s="17" t="s">
-        <v>468</v>
+      <c r="A537" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>543</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>826</v>
       </c>
       <c r="D537" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E537" s="17" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E537" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="F537" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G537" s="17" t="s">
-        <v>132</v>
+        <v>542</v>
+      </c>
+      <c r="G537" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="538" ht="15" hidden="1" spans="1:7">
-      <c r="A538" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="B538" s="17" t="s">
-        <v>470</v>
+      <c r="A538" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B538" s="18" t="s">
+        <v>468</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D538" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E538" s="17" t="s">
+      <c r="D538" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E538" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F538" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G538" s="17" t="s">
+      <c r="G538" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="539" ht="15" hidden="1" spans="1:7">
-      <c r="A539" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="B539" s="17" t="s">
-        <v>510</v>
+      <c r="A539" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>470</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D539" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E539" s="17" t="s">
-        <v>56</v>
+      <c r="D539" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E539" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F539" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G539" s="17" t="s">
-        <v>175</v>
+        <v>57</v>
+      </c>
+      <c r="G539" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="540" ht="15" hidden="1" spans="1:7">
-      <c r="A540" s="16" t="s">
-        <v>828</v>
-      </c>
-      <c r="B540" s="17" t="s">
-        <v>829</v>
+      <c r="A540" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="B540" s="18" t="s">
+        <v>510</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D540" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E540" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F540" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="G540" s="17" t="s">
+      <c r="D540" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E540" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F540" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G540" s="18" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="541" ht="15" hidden="1" spans="1:7">
-      <c r="A541" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="B541" s="17" t="s">
-        <v>76</v>
+      <c r="A541" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B541" s="18" t="s">
+        <v>829</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D541" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E541" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F541" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="G541" s="17" t="s">
-        <v>58</v>
+      <c r="D541" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E541" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F541" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G541" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="542" ht="15" hidden="1" spans="1:7">
-      <c r="A542" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="B542" s="17" t="s">
-        <v>80</v>
+      <c r="A542" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B542" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D542" s="7" t="s">
+      <c r="D542" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E542" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F542" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="G542" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="543" ht="15" hidden="1" spans="1:7">
+      <c r="A543" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B543" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D543" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E542" s="17" t="s">
+      <c r="E543" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F542" s="17" t="s">
+      <c r="F543" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="G542" s="17" t="s">
+      <c r="G543" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="543" ht="15" hidden="1" spans="1:7">
-      <c r="A543" s="6" t="s">
+    <row r="544" ht="15" hidden="1" spans="1:7">
+      <c r="A544" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="B543" s="7" t="s">
+      <c r="B544" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="C543" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="D543" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E543" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F543" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G543" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="544" ht="15" hidden="1" spans="1:7">
-      <c r="A544" s="16" t="s">
-        <v>830</v>
-      </c>
-      <c r="B544" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>831</v>
       </c>
       <c r="D544" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E544" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F544" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G544" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="545" ht="15" hidden="1" spans="1:7">
+      <c r="A545" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="B545" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D545" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E544" s="17" t="s">
+      <c r="E545" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F544" s="17" t="s">
+      <c r="F545" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G544" s="17" t="s">
+      <c r="G545" s="18" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="546" ht="15" spans="1:7">
+      <c r="A546" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B546" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C546" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D546" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E546" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F546" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G546" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G544" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G546" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="2">
       <filters>
-        <filter val="FETHI.M"/>
+        <filter val="HANAFI"/>
       </filters>
     </filterColumn>
-    <sortState ref="A1:G544">
+    <sortState ref="A1:G546">
       <sortCondition ref="D1"/>
     </sortState>
     <extLst/>

--- a/dataEDT-ELT-S2-2026.xlsx
+++ b/dataEDT-ELT-S2-2026.xlsx
@@ -1974,6 +1974,21 @@
     <t>TD-MHT-G1</t>
   </si>
   <si>
+    <t>TP-Matériaux-HT (SG12/21/11) (a)</t>
+  </si>
+  <si>
+    <t>TP-MHT-a</t>
+  </si>
+  <si>
+    <t>NEMMICH</t>
+  </si>
+  <si>
+    <t>TP-Matériaux-HT (SG12/21/11) (b)</t>
+  </si>
+  <si>
+    <t>TP-MHT-b</t>
+  </si>
+  <si>
     <t>TP-Technique haute tension (G1)</t>
   </si>
   <si>
@@ -1986,6 +2001,204 @@
     <t>TP-THT-b</t>
   </si>
   <si>
+    <t>Td-Algèbre 2 (G2)</t>
+  </si>
+  <si>
+    <t>Td-Algèbre 2 (G1)</t>
+  </si>
+  <si>
+    <t>MN.BRAHAMI</t>
+  </si>
+  <si>
+    <t>Cours-Appareillages et schémas électriques</t>
+  </si>
+  <si>
+    <t>Cours-ASE</t>
+  </si>
+  <si>
+    <t>TP-Appareillages et schémas élec. (G1)</t>
+  </si>
+  <si>
+    <t>TP-ASE-a</t>
+  </si>
+  <si>
+    <t>TP-Appareillages et schémas élec. (G2)</t>
+  </si>
+  <si>
+    <t>TP-ASE-b</t>
+  </si>
+  <si>
+    <t>TP-Réseaux électriques 1 (G1)</t>
+  </si>
+  <si>
+    <t>TP-Réseaux électriques 1 (G2)</t>
+  </si>
+  <si>
+    <t>TP-Thermodynamique (SG42)</t>
+  </si>
+  <si>
+    <t>TP-THER-SG42</t>
+  </si>
+  <si>
+    <t>MOKADEM</t>
+  </si>
+  <si>
+    <t>TP-Thermodynamique (SG82)</t>
+  </si>
+  <si>
+    <t>TP-THER-SG82</t>
+  </si>
+  <si>
+    <t>Td-Thermodynamique (G8)</t>
+  </si>
+  <si>
+    <t>Cours-Modélisation &amp; identification syst.</t>
+  </si>
+  <si>
+    <t>Cours-MIS</t>
+  </si>
+  <si>
+    <t>NACERI</t>
+  </si>
+  <si>
+    <t>TP-Modélisation &amp; identification</t>
+  </si>
+  <si>
+    <t>TP-MIS-a</t>
+  </si>
+  <si>
+    <t>TP-MIS-b</t>
+  </si>
+  <si>
+    <t>Td-Modélisation &amp; identification syst.</t>
+  </si>
+  <si>
+    <t>TD-MIS</t>
+  </si>
+  <si>
+    <t>TP-Méthodes numériques (G11/12) (a)</t>
+  </si>
+  <si>
+    <t>TP-Méthodes numériques (G11/12) (b)</t>
+  </si>
+  <si>
+    <t>Cours-Régulation industrielle</t>
+  </si>
+  <si>
+    <t>TP-Régulation industrielle (G1)</t>
+  </si>
+  <si>
+    <t>TP-Régulation industrielle (G2)</t>
+  </si>
+  <si>
+    <t>NASSOUR</t>
+  </si>
+  <si>
+    <t>Td-Planification réseaux élec.</t>
+  </si>
+  <si>
+    <t>TD-PLAN</t>
+  </si>
+  <si>
+    <t>Cours-Planification réseaux élec.</t>
+  </si>
+  <si>
+    <t>Cours-PLAN</t>
+  </si>
+  <si>
+    <t>Cours-Conception d'Éclairage</t>
+  </si>
+  <si>
+    <t>Cours-CECL</t>
+  </si>
+  <si>
+    <t>Td-Conception d'Éclairage</t>
+  </si>
+  <si>
+    <t>TD-CECL</t>
+  </si>
+  <si>
+    <t>Cours-Développement des réseaux élec.</t>
+  </si>
+  <si>
+    <t>Cours-DRE</t>
+  </si>
+  <si>
+    <t>Cours-Réseaux électriques 1</t>
+  </si>
+  <si>
+    <t>Cours-RE1</t>
+  </si>
+  <si>
+    <t>TP-Gisements énerg. renov. (G1/2)</t>
+  </si>
+  <si>
+    <t>TP-GER-a</t>
+  </si>
+  <si>
+    <t>CC-EL BIS</t>
+  </si>
+  <si>
+    <t>TP-GER-b</t>
+  </si>
+  <si>
+    <t>Stage pratique (TP)</t>
+  </si>
+  <si>
+    <t>TP-STAGE</t>
+  </si>
+  <si>
+    <t>Labo</t>
+  </si>
+  <si>
+    <t>Stage en entreprise 1</t>
+  </si>
+  <si>
+    <t>Stage-a</t>
+  </si>
+  <si>
+    <t>Entreprise</t>
+  </si>
+  <si>
+    <t>Stage-b</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (G11/12)</t>
+  </si>
+  <si>
+    <t>TP-LL</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (G21/22)</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (G41/42)</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (G71/G72)</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (SG31/SG32)</t>
+  </si>
+  <si>
+    <t>Td-Anglais</t>
+  </si>
+  <si>
+    <t>TD-ANG</t>
+  </si>
+  <si>
+    <t>CC Bis</t>
+  </si>
+  <si>
+    <t>TP-Logiciels Libres (G2)</t>
+  </si>
+  <si>
+    <t>Cours-Logiciels Libres</t>
+  </si>
+  <si>
+    <t>Td-Dessin Technique (G11)</t>
+  </si>
+  <si>
     <t>Cours-Technique de haute tension 1</t>
   </si>
   <si>
@@ -1995,220 +2208,7 @@
     <t>Td-Technique de haute tension</t>
   </si>
   <si>
-    <t>Td-Algèbre 2 (G2)</t>
-  </si>
-  <si>
-    <t>Td-Algèbre 2 (G1)</t>
-  </si>
-  <si>
-    <t>MN.BRAHAMI</t>
-  </si>
-  <si>
-    <t>Cours-Appareillages et schémas électriques</t>
-  </si>
-  <si>
-    <t>Cours-ASE</t>
-  </si>
-  <si>
-    <t>TP-Appareillages et schémas élec. (G1)</t>
-  </si>
-  <si>
-    <t>TP-ASE-a</t>
-  </si>
-  <si>
-    <t>TP-Appareillages et schémas élec. (G2)</t>
-  </si>
-  <si>
-    <t>TP-ASE-b</t>
-  </si>
-  <si>
-    <t>TP-Réseaux électriques 1 (G1)</t>
-  </si>
-  <si>
-    <t>TP-Réseaux électriques 1 (G2)</t>
-  </si>
-  <si>
-    <t>TP-Thermodynamique (SG42)</t>
-  </si>
-  <si>
-    <t>TP-THER-SG42</t>
-  </si>
-  <si>
-    <t>MOKADEM</t>
-  </si>
-  <si>
-    <t>TP-Thermodynamique (SG82)</t>
-  </si>
-  <si>
-    <t>TP-THER-SG82</t>
-  </si>
-  <si>
-    <t>Td-Thermodynamique (G8)</t>
-  </si>
-  <si>
-    <t>Cours-Modélisation &amp; identification syst.</t>
-  </si>
-  <si>
-    <t>Cours-MIS</t>
-  </si>
-  <si>
-    <t>NACERI</t>
-  </si>
-  <si>
-    <t>TP-Modélisation &amp; identification</t>
-  </si>
-  <si>
-    <t>TP-MIS-a</t>
-  </si>
-  <si>
-    <t>TP-MIS-b</t>
-  </si>
-  <si>
-    <t>Td-Modélisation &amp; identification syst.</t>
-  </si>
-  <si>
-    <t>TD-MIS</t>
-  </si>
-  <si>
-    <t>TP-Méthodes numériques (G11/12) (a)</t>
-  </si>
-  <si>
-    <t>TP-Méthodes numériques (G11/12) (b)</t>
-  </si>
-  <si>
-    <t>Cours-Régulation industrielle</t>
-  </si>
-  <si>
-    <t>TP-Régulation industrielle (G1)</t>
-  </si>
-  <si>
-    <t>TP-Régulation industrielle (G2)</t>
-  </si>
-  <si>
-    <t>NASSOUR</t>
-  </si>
-  <si>
-    <t>Td-Planification réseaux élec.</t>
-  </si>
-  <si>
-    <t>TD-PLAN</t>
-  </si>
-  <si>
-    <t>Cours-Planification réseaux élec.</t>
-  </si>
-  <si>
-    <t>Cours-PLAN</t>
-  </si>
-  <si>
-    <t>Cours-Conception d'Éclairage</t>
-  </si>
-  <si>
-    <t>Cours-CECL</t>
-  </si>
-  <si>
-    <t>Td-Conception d'Éclairage</t>
-  </si>
-  <si>
-    <t>TD-CECL</t>
-  </si>
-  <si>
-    <t>Cours-Développement des réseaux élec.</t>
-  </si>
-  <si>
-    <t>Cours-DRE</t>
-  </si>
-  <si>
-    <t>Cours-Réseaux électriques 1</t>
-  </si>
-  <si>
-    <t>Cours-RE1</t>
-  </si>
-  <si>
-    <t>TP-Gisements énerg. renov. (G1/2)</t>
-  </si>
-  <si>
-    <t>TP-GER-a</t>
-  </si>
-  <si>
-    <t>CC-EL BIS</t>
-  </si>
-  <si>
-    <t>TP-GER-b</t>
-  </si>
-  <si>
-    <t>Stage pratique (TP)</t>
-  </si>
-  <si>
-    <t>TP-STAGE</t>
-  </si>
-  <si>
-    <t>Labo</t>
-  </si>
-  <si>
-    <t>Stage en entreprise 1</t>
-  </si>
-  <si>
-    <t>Stage-a</t>
-  </si>
-  <si>
-    <t>Entreprise</t>
-  </si>
-  <si>
-    <t>Stage-b</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (G11/12)</t>
-  </si>
-  <si>
-    <t>TP-LL</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (G21/22)</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (G41/42)</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (G71/G72)</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (SG31/SG32)</t>
-  </si>
-  <si>
-    <t>Td-Anglais</t>
-  </si>
-  <si>
-    <t>TD-ANG</t>
-  </si>
-  <si>
-    <t>CC Bis</t>
-  </si>
-  <si>
-    <t>TP-Logiciels Libres (G2)</t>
-  </si>
-  <si>
-    <t>Cours-Logiciels Libres</t>
-  </si>
-  <si>
-    <t>Td-Dessin Technique (G11)</t>
-  </si>
-  <si>
     <t>Cours-Matériaux en ETT et THT</t>
-  </si>
-  <si>
-    <t>NEMMICH</t>
-  </si>
-  <si>
-    <t>TP-Matériaux-HT (SG12/21/11) (a)</t>
-  </si>
-  <si>
-    <t>TP-MHT-a</t>
-  </si>
-  <si>
-    <t>TP-Matériaux-HT (SG12/21/11) (b)</t>
-  </si>
-  <si>
-    <t>TP-MHT-b</t>
   </si>
   <si>
     <t>TP-Matériaux-HT (SG31/32/22) (a)</t>
@@ -3683,11 +3683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="C559" sqref="C559"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C557" sqref="C557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="2" s="2" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="3" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="4" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="5" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="6" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="7" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="8" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="9" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="10" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="11" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="12" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="13" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="14" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="15" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="16" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="17" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="18" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="19" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="20" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="21" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="22" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="23" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="24" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" spans="1:8">
+    <row r="25" s="2" customFormat="1" ht="15" hidden="1" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="26" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="27" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="28" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>81</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="29" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="30" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="31" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>84</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="32" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>89</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="33" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="34" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="35" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A35" s="8" t="s">
         <v>89</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="36" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="37" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>84</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="38" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>94</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="39" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>97</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="40" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>98</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="41" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="42" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>103</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="43" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="44" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>107</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="45" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>112</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="46" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>116</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="47" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>117</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="48" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>118</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="49" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>119</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="50" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="51" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>122</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="52" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="53" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>120</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="54" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="55" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>128</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="56" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>130</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="57" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="58" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>97</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="59" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>134</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="60" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>136</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="61" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>137</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="62" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>141</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="63" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>143</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="64" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>144</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="65" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>145</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="66" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>149</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="67" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>152</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="68" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>153</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="69" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>154</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="70" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>149</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="71" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>157</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="72" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>158</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="73" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>158</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="74" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>161</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="75" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>163</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="76" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>164</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="77" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>165</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="78" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>168</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="79" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>168</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="80" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>169</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="81" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>169</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="82" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>170</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="83" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>174</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="84" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A84" s="8" t="s">
         <v>178</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="85" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A85" s="11" t="s">
         <v>179</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="86" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>183</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="87" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A87" s="8" t="s">
         <v>185</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="88" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A88" s="8" t="s">
         <v>187</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="89" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A89" s="8" t="s">
         <v>188</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="90" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A90" s="11" t="s">
         <v>189</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="91" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A91" s="6" t="s">
         <v>191</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="92" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A92" s="8" t="s">
         <v>193</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="93" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A93" s="8" t="s">
         <v>194</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="94" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>195</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="95" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>198</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="96" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A96" s="6" t="s">
         <v>170</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="97" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A97" s="6" t="s">
         <v>201</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="98" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>203</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="99" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>206</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="100" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>208</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="101" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>208</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="102" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>118</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="103" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>119</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="104" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>213</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="105" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>217</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="106" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>218</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="107" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>219</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="108" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>222</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="109" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>224</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="110" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>227</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="111" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>227</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="112" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>234</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="113" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>234</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="114" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>237</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="115" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>237</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="116" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>241</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="117" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>241</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="118" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>242</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="119" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>245</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="120" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>247</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="121" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>247</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="122" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>247</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="123" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>247</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="124" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>249</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="125" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>249</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="126" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>249</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="127" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>249</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="128" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>253</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="129" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>257</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="130" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A130" s="13" t="s">
         <v>259</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="131" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A131" s="13" t="s">
         <v>261</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="132" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A132" s="13" t="s">
         <v>263</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="133" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A133" s="13" t="s">
         <v>266</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="134" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>268</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="135" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>271</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="136" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>273</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="137" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>274</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="138" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>276</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="139" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>277</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="140" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>277</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="141" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>279</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="142" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>279</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="143" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>280</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="144" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>280</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="145" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>281</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="146" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>281</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="147" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>285</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="148" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>287</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="149" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>289</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="150" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>291</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="151" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>293</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="152" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>295</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="153" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>297</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="154" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>299</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="155" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>301</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="156" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>303</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="157" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>305</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="158" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>307</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="159" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>165</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="160" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>310</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="161" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>313</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="162" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>313</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="163" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>316</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="164" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>69</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="165" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>69</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="166" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>318</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="167" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>321</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="168" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>323</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="169" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>325</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="170" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>323</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="171" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>326</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="172" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>328</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="173" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>330</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="174" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>333</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="175" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>336</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="176" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>337</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="177" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>158</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="178" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>339</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="179" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>342</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="180" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>343</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="181" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>344</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="182" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>345</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="183" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>346</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="184" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A184" s="13" t="s">
         <v>346</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="185" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>347</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="186" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>347</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="187" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>351</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="188" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>354</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="189" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>355</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="190" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>356</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="191" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>358</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="192" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>360</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="193" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>342</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="194" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>343</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="195" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>356</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="196" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A196" s="13" t="s">
         <v>362</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="197" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A197" s="13" t="s">
         <v>364</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="198" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A198" s="13" t="s">
         <v>367</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="199" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>369</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="200" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>371</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="201" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>373</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="202" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>376</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="203" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>379</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="204" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>381</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="205" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>383</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="206" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>386</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="207" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>387</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="208" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>388</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="209" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>390</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="210" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>388</v>
       </c>
@@ -8636,10 +8636,10 @@
         <v>393</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>378</v>
@@ -8648,7 +8648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="215" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>399</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="216" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>402</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="217" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>157</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="218" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>399</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="219" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>403</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="220" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>405</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="221" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>405</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="222" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>409</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="223" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>409</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="224" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>412</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="225" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>412</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="226" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>414</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="227" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>414</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="228" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>249</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="229" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>416</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="230" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>416</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="231" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>417</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="232" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>419</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="233" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>419</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="234" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>423</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="235" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>423</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="236" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>424</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="237" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>64</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="238" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>427</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="239" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>429</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="240" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>430</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="241" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>431</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="242" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>433</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="243" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>435</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="244" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>437</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="245" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>439</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="246" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>439</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="247" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>444</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="248" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>446</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="249" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>289</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="250" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>291</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="251" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>448</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="252" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>449</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="253" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>451</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="254" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>452</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="255" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>453</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="256" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="256" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>454</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="257" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="257" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>456</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="258" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>456</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="259" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>454</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="260" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>458</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:7">
+    <row r="261" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A261" s="15" t="s">
         <v>460</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="1" spans="1:7">
+    <row r="262" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A262" s="17" t="s">
         <v>463</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="1" spans="1:7">
+    <row r="263" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A263" s="17" t="s">
         <v>465</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" spans="1:7">
+    <row r="264" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A264" s="17" t="s">
         <v>465</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="1" spans="1:7">
+    <row r="265" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A265" s="17" t="s">
         <v>466</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="1" spans="1:7">
+    <row r="266" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A266" s="17" t="s">
         <v>468</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="1" spans="1:7">
+    <row r="267" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A267" s="17" t="s">
         <v>470</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="1" spans="1:7">
+    <row r="268" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A268" s="17" t="s">
         <v>333</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" spans="1:7">
+    <row r="269" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A269" s="17" t="s">
         <v>465</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="270" s="2" customFormat="1" spans="1:7">
+    <row r="270" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A270" s="17" t="s">
         <v>465</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="1" spans="1:7">
+    <row r="271" s="2" customFormat="1" hidden="1" spans="1:7">
       <c r="A271" s="17" t="s">
         <v>472</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" ht="15.75" spans="1:7">
+    <row r="272" s="2" customFormat="1" ht="15.75" hidden="1" spans="1:7">
       <c r="A272" s="18" t="s">
         <v>473</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="273" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A273" s="6" t="s">
         <v>474</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="274" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>476</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="275" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A275" s="6" t="s">
         <v>479</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="276" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="276" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>481</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="277" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="277" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A277" s="6" t="s">
         <v>482</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="278" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="278" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>483</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="279" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="279" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A279" s="6" t="s">
         <v>484</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="280" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="280" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>485</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="281" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="281" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A281" s="6" t="s">
         <v>486</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="282" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A282" s="6" t="s">
         <v>486</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="283" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A283" s="6" t="s">
         <v>487</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="284" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A284" s="6" t="s">
         <v>487</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="285" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A285" s="6" t="s">
         <v>488</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="286" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A286" s="6" t="s">
         <v>488</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="287" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A287" s="6" t="s">
         <v>489</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="288" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="288" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A288" s="6" t="s">
         <v>491</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="289" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="289" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A289" s="6" t="s">
         <v>492</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="290" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A290" s="6" t="s">
         <v>494</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="291" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A291" s="6" t="s">
         <v>494</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="292" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A292" s="6" t="s">
         <v>495</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="293" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="293" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A293" s="6" t="s">
         <v>495</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="294" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A294" s="6" t="s">
         <v>496</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="295" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="295" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A295" s="6" t="s">
         <v>499</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="296" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="296" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A296" s="6" t="s">
         <v>170</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="297" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="297" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A297" s="6" t="s">
         <v>170</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="298" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="298" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A298" s="6" t="s">
         <v>501</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="299" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="299" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A299" s="6" t="s">
         <v>501</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="300" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="300" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A300" s="6" t="s">
         <v>504</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="301" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A301" s="6" t="s">
         <v>506</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="302" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="302" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A302" s="6" t="s">
         <v>185</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="303" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="303" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A303" s="6" t="s">
         <v>193</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="304" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="304" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A304" s="6" t="s">
         <v>178</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="305" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="305" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A305" s="6" t="s">
         <v>188</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="306" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="306" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A306" s="6" t="s">
         <v>508</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="307" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A307" s="6" t="s">
         <v>387</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="308" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="308" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A308" s="6" t="s">
         <v>390</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="309" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="309" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A309" s="6" t="s">
         <v>512</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="310" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A310" s="6" t="s">
         <v>515</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="311" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A311" s="6" t="s">
         <v>515</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="312" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A312" s="6" t="s">
         <v>518</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="313" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A313" s="6" t="s">
         <v>518</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="314" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A314" s="6" t="s">
         <v>521</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="315" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="315" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A315" s="6" t="s">
         <v>521</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="316" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A316" s="6" t="s">
         <v>522</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="317" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="317" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A317" s="6" t="s">
         <v>523</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="318" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="318" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A318" s="6" t="s">
         <v>526</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="319" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A319" s="6" t="s">
         <v>528</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="320" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A320" s="6" t="s">
         <v>530</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="321" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="321" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A321" s="6" t="s">
         <v>533</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="322" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="322" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A322" s="6" t="s">
         <v>536</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="323" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="323" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A323" s="6" t="s">
         <v>537</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="324" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="324" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A324" s="6" t="s">
         <v>538</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="325" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="325" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A325" s="6" t="s">
         <v>538</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="326" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A326" s="6" t="s">
         <v>543</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="327" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A327" s="6" t="s">
         <v>545</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="328" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A328" s="6" t="s">
         <v>546</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="329" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="329" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A329" s="6" t="s">
         <v>549</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="330" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="330" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A330" s="6" t="s">
         <v>551</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="331" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A331" s="6" t="s">
         <v>552</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="332" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A332" s="6" t="s">
         <v>553</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="333" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A333" s="6" t="s">
         <v>555</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="334" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A334" s="6" t="s">
         <v>556</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="335" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="335" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A335" s="6" t="s">
         <v>557</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="336" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="336" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A336" s="6" t="s">
         <v>558</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="337" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A337" s="6" t="s">
         <v>559</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="338" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A338" s="6" t="s">
         <v>179</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="339" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A339" s="6" t="s">
         <v>189</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="340" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A340" s="6" t="s">
         <v>563</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="341" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="341" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A341" s="6" t="s">
         <v>566</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="342" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A342" s="6" t="s">
         <v>568</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="343" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A343" s="6" t="s">
         <v>570</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="344" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A344" s="6" t="s">
         <v>571</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="345" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A345" s="6" t="s">
         <v>572</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="346" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A346" s="6" t="s">
         <v>573</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="347" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A347" s="6" t="s">
         <v>574</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="348" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A348" s="6" t="s">
         <v>577</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="349" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A349" s="8" t="s">
         <v>579</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="350" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A350" s="8" t="s">
         <v>581</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="351" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A351" s="6" t="s">
         <v>584</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="352" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="352" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A352" s="6" t="s">
         <v>584</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="353" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A353" s="6" t="s">
         <v>587</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="354" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A354" s="6" t="s">
         <v>588</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="355" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A355" s="6" t="s">
         <v>588</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="356" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A356" s="6" t="s">
         <v>591</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="357" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="357" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A357" s="6" t="s">
         <v>591</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="358" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A358" s="6" t="s">
         <v>594</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="359" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A359" s="6" t="s">
         <v>217</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="360" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="360" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A360" s="6" t="s">
         <v>213</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="361" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="361" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A361" s="6" t="s">
         <v>596</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="362" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A362" s="6" t="s">
         <v>599</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="363" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A363" s="6" t="s">
         <v>512</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="364" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="364" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A364" s="6" t="s">
         <v>601</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="365" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="365" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A365" s="6" t="s">
         <v>601</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="366" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="366" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A366" s="6" t="s">
         <v>602</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="367" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="367" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A367" s="6" t="s">
         <v>605</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="368" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="368" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A368" s="6" t="s">
         <v>607</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="369" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="369" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A369" s="6" t="s">
         <v>609</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="370" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="370" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A370" s="6" t="s">
         <v>611</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="371" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A371" s="8" t="s">
         <v>612</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="372" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="372" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A372" s="8" t="s">
         <v>614</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="373" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="373" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A373" s="8" t="s">
         <v>614</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="374" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A374" s="8" t="s">
         <v>614</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="375" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A375" s="8" t="s">
         <v>615</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="376" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A376" s="13" t="s">
         <v>616</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="377" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="377" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A377" s="13" t="s">
         <v>618</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="378" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="378" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A378" s="13" t="s">
         <v>620</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="379" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="379" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A379" s="13" t="s">
         <v>622</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="380" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="380" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A380" s="13" t="s">
         <v>623</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="381" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="381" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A381" s="6" t="s">
         <v>625</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="382" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="382" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A382" s="6" t="s">
         <v>629</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="383" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="383" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A383" s="6" t="s">
         <v>631</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="384" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A384" s="6" t="s">
         <v>633</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="385" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="385" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A385" s="6" t="s">
         <v>633</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="386" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A386" s="6" t="s">
         <v>249</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="387" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="387" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A387" s="6" t="s">
         <v>472</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="388" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="388" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A388" s="6" t="s">
         <v>473</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="389" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="389" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A389" s="6" t="s">
         <v>636</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="390" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A390" s="6" t="s">
         <v>638</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="391" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A391" s="6" t="s">
         <v>247</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="392" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A392" s="6" t="s">
         <v>640</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="393" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A393" s="6" t="s">
         <v>643</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="394" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A394" s="6" t="s">
         <v>645</v>
       </c>
@@ -12788,99 +12788,99 @@
         <v>58</v>
       </c>
     </row>
-    <row r="395" s="2" customFormat="1" ht="15" spans="1:7">
-      <c r="A395" s="13" t="s">
+    <row r="395" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
+      <c r="A395" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B395" s="13" t="s">
+      <c r="B395" s="7" t="s">
         <v>648</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E395" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F395" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F395" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="G395" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="396" s="2" customFormat="1" ht="15" spans="1:7">
-      <c r="A396" s="13" t="s">
+      <c r="G395" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="396" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
+      <c r="A396" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C396" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B396" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D396" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E396" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F396" s="13" t="s">
+      <c r="D396" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F396" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="G396" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="397" s="2" customFormat="1" ht="15" spans="1:7">
+      <c r="G396" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="397" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A397" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D397" s="13" t="s">
-        <v>10</v>
+      <c r="D397" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E397" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F397" s="7" t="s">
-        <v>265</v>
+      <c r="F397" s="13" t="s">
+        <v>628</v>
       </c>
       <c r="G397" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="398" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="398" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A398" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>223</v>
+        <v>655</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D398" s="7" t="s">
-        <v>16</v>
+      <c r="D398" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E398" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F398" s="7" t="s">
-        <v>265</v>
+      <c r="F398" s="13" t="s">
+        <v>628</v>
       </c>
       <c r="G398" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="399" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="399" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A399" s="6" t="s">
         <v>164</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="400" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="400" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A400" s="6" t="s">
         <v>163</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="401" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="401" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A401" s="6" t="s">
         <v>161</v>
       </c>
@@ -12949,9 +12949,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="402" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="402" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A402" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>42</v>
@@ -12972,9 +12972,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="403" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="403" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A403" s="6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B403" s="7" t="s">
         <v>42</v>
@@ -12995,7 +12995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="404" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="404" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A404" s="6" t="s">
         <v>75</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>76</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>10</v>
@@ -13018,7 +13018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="405" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A405" s="6" t="s">
         <v>79</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>80</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D405" s="7" t="s">
         <v>16</v>
@@ -13041,15 +13041,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="406" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="406" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A406" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B406" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C406" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>33</v>
@@ -13064,15 +13064,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="407" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A407" s="6" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>19</v>
@@ -13087,15 +13087,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="408" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A408" s="6" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>25</v>
@@ -13110,15 +13110,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="409" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A409" s="6" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B409" s="7" t="s">
         <v>617</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>10</v>
@@ -13133,15 +13133,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="410" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A410" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B410" s="7" t="s">
         <v>619</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>16</v>
@@ -13156,15 +13156,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="411" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A411" s="6" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>25</v>
@@ -13179,15 +13179,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="412" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A412" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B412" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C412" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>10</v>
@@ -13202,15 +13202,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="413" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="413" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A413" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>420</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>33</v>
@@ -13225,15 +13225,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="414" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A414" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>422</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>19</v>
@@ -13248,15 +13248,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="415" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="415" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A415" s="6" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>33</v>
@@ -13271,15 +13271,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="416" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A416" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B416" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C416" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>19</v>
@@ -13294,15 +13294,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="417" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A417" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>25</v>
@@ -13317,15 +13317,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="418" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A418" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>33</v>
@@ -13340,7 +13340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="419" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A419" s="6" t="s">
         <v>134</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>76</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>10</v>
@@ -13363,7 +13363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="420" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="420" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A420" s="6" t="s">
         <v>136</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>80</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>16</v>
@@ -13386,15 +13386,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="421" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="421" s="2" customFormat="1" ht="15" hidden="1" spans="1:7">
       <c r="A421" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>269</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D421" s="7" t="s">
         <v>10</v>
@@ -13409,15 +13409,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" s="2" customFormat="1" ht="15" spans="1: